--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1459.85819115253</v>
+        <v>1120.07994156688</v>
       </c>
       <c r="C2">
-        <v>37.1729159646389</v>
+        <v>42.9160282953154</v>
       </c>
       <c r="D2">
-        <v>69.6120422025634</v>
+        <v>84.85899663500329</v>
       </c>
       <c r="E2">
-        <v>59.668665182762</v>
+        <v>68.4172715617553</v>
       </c>
       <c r="F2">
-        <v>14.897248519385</v>
+        <v>16.7278403952886</v>
       </c>
       <c r="G2">
-        <v>17.5596816025978</v>
+        <v>18.7415205564927</v>
       </c>
       <c r="H2">
-        <v>17.284036919516</v>
+        <v>21.1063119978004</v>
       </c>
       <c r="I2">
-        <v>11.717449385216</v>
+        <v>13.3970127206451</v>
       </c>
       <c r="J2">
-        <v>58.3750170745746</v>
+        <v>68.6639516521593</v>
       </c>
       <c r="K2">
-        <v>18.3785627185676</v>
+        <v>22.0771647372491</v>
       </c>
       <c r="L2">
-        <v>35.5927828700945</v>
+        <v>39.7789969030072</v>
       </c>
       <c r="M2">
-        <v>41.7288785383581</v>
+        <v>43.2157921488173</v>
       </c>
       <c r="N2">
-        <v>29.8684518999205</v>
+        <v>29.9809510286673</v>
       </c>
       <c r="O2">
-        <v>1251.13767783136</v>
+        <v>1521.66920520228</v>
       </c>
       <c r="P2">
-        <v>29.5553292598418</v>
+        <v>37.3481885044921</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>177.925293500245</v>
+        <v>138.409078787579</v>
       </c>
       <c r="C3">
-        <v>4.25459851839051</v>
+        <v>5.73682064844779</v>
       </c>
       <c r="D3">
-        <v>0.206974052849832</v>
+        <v>0.204718025146913</v>
       </c>
       <c r="E3">
-        <v>1.35508741577411</v>
+        <v>1.75324853433596</v>
       </c>
       <c r="F3">
-        <v>9.07798253433255</v>
+        <v>11.3289592938881</v>
       </c>
       <c r="G3">
-        <v>0.441229192994546</v>
+        <v>0.490119396649287</v>
       </c>
       <c r="H3">
-        <v>0.0127656480846933</v>
+        <v>0.0453360674039509</v>
       </c>
       <c r="I3">
-        <v>0.639343523220549</v>
+        <v>0.32283578345942</v>
       </c>
       <c r="J3">
-        <v>0.705431921135659</v>
+        <v>0.65829340933841</v>
       </c>
       <c r="K3">
-        <v>0.452923670594199</v>
+        <v>0.131117922476372</v>
       </c>
       <c r="L3">
-        <v>0.887586576403174</v>
+        <v>0.314287775824286</v>
       </c>
       <c r="M3">
-        <v>0.414151071087503</v>
+        <v>1.0505567392999</v>
       </c>
       <c r="N3">
-        <v>0.662074357920845</v>
+        <v>0.965144581760179</v>
       </c>
       <c r="O3">
-        <v>261.78762223578</v>
+        <v>288.483281748212</v>
       </c>
       <c r="P3">
-        <v>6.69536068508786</v>
+        <v>13.5087250395099</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1565.44700278511</v>
+        <v>1237.98170624134</v>
       </c>
       <c r="C4">
-        <v>11.5080637001063</v>
+        <v>12.0146898779884</v>
       </c>
       <c r="D4">
-        <v>4.24574131047453</v>
+        <v>4.62858096159933</v>
       </c>
       <c r="E4">
-        <v>24.7389994972515</v>
+        <v>24.2362809769316</v>
       </c>
       <c r="F4">
-        <v>19.4631251941737</v>
+        <v>18.3462434451514</v>
       </c>
       <c r="G4">
-        <v>9.421229364477851</v>
+        <v>10.1920443283917</v>
       </c>
       <c r="H4">
-        <v>9.78244028416729</v>
+        <v>7.76739312350991</v>
       </c>
       <c r="I4">
-        <v>8.07697476497726</v>
+        <v>8.668594312567979</v>
       </c>
       <c r="J4">
-        <v>28.4468952836236</v>
+        <v>32.1956680615827</v>
       </c>
       <c r="K4">
-        <v>10.1414850868589</v>
+        <v>10.819092678563</v>
       </c>
       <c r="L4">
-        <v>73.96299798564959</v>
+        <v>79.8277930158976</v>
       </c>
       <c r="M4">
-        <v>51.8315208477715</v>
+        <v>52.635971974487</v>
       </c>
       <c r="N4">
-        <v>27.9067780645923</v>
+        <v>33.3145665290927</v>
       </c>
       <c r="O4">
-        <v>1716.29854818721</v>
+        <v>2016.18413656445</v>
       </c>
       <c r="P4">
-        <v>21.3927965826796</v>
+        <v>44.9137144089437</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>868.063975129679</v>
+        <v>648.694420478159</v>
       </c>
       <c r="C5">
-        <v>55.289386864456</v>
+        <v>70.31451219406731</v>
       </c>
       <c r="D5">
-        <v>11.3431686425137</v>
+        <v>16.0093190317776</v>
       </c>
       <c r="E5">
-        <v>42.5641837542096</v>
+        <v>46.8243348969215</v>
       </c>
       <c r="F5">
-        <v>5.90712098205756</v>
+        <v>4.35709432767613</v>
       </c>
       <c r="G5">
-        <v>10.6571879045737</v>
+        <v>10.4362083194555</v>
       </c>
       <c r="H5">
-        <v>11.6209994999459</v>
+        <v>11.8986570783646</v>
       </c>
       <c r="I5">
-        <v>6.51534415877898</v>
+        <v>7.0037706928212</v>
       </c>
       <c r="J5">
-        <v>26.484881701224</v>
+        <v>34.167143762439</v>
       </c>
       <c r="K5">
-        <v>19.0633979928164</v>
+        <v>25.5907820063386</v>
       </c>
       <c r="L5">
-        <v>19.7503186580205</v>
+        <v>23.1758965666083</v>
       </c>
       <c r="M5">
-        <v>26.5334041589184</v>
+        <v>26.987844439859</v>
       </c>
       <c r="N5">
-        <v>19.4338950432667</v>
+        <v>24.0095242206894</v>
       </c>
       <c r="O5">
-        <v>731.03709649109</v>
+        <v>891.599434496968</v>
       </c>
       <c r="P5">
-        <v>48.7869251771782</v>
+        <v>58.6414009516312</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9805.963068133129</v>
+        <v>8210.35210754531</v>
       </c>
       <c r="C6">
-        <v>181.748088420702</v>
+        <v>207.599251310299</v>
       </c>
       <c r="D6">
-        <v>155.839777034111</v>
+        <v>219.394659821876</v>
       </c>
       <c r="E6">
-        <v>176.370662237016</v>
+        <v>163.938825786165</v>
       </c>
       <c r="F6">
-        <v>48.0153879157546</v>
+        <v>46.2285634243916</v>
       </c>
       <c r="G6">
-        <v>106.394777776971</v>
+        <v>113.68324437827</v>
       </c>
       <c r="H6">
-        <v>64.1823575163114</v>
+        <v>71.2686885890631</v>
       </c>
       <c r="I6">
-        <v>53.4595750011499</v>
+        <v>55.8725901313567</v>
       </c>
       <c r="J6">
-        <v>177.89493433792</v>
+        <v>190.727463287016</v>
       </c>
       <c r="K6">
-        <v>87.7726843738221</v>
+        <v>106.579434337889</v>
       </c>
       <c r="L6">
-        <v>611.410334960212</v>
+        <v>612.446068864158</v>
       </c>
       <c r="M6">
-        <v>249.451071411057</v>
+        <v>272.138021582579</v>
       </c>
       <c r="N6">
-        <v>242.010812088733</v>
+        <v>282.354010025056</v>
       </c>
       <c r="O6">
-        <v>10978.1608593955</v>
+        <v>12362.0050074296</v>
       </c>
       <c r="P6">
-        <v>297.805600750902</v>
+        <v>353.505232598533</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1043.90806338147</v>
+        <v>779.2450996876351</v>
       </c>
       <c r="C7">
-        <v>25.7318862736587</v>
+        <v>28.9888659425858</v>
       </c>
       <c r="D7">
-        <v>6.01168364027417</v>
+        <v>6.16256716396917</v>
       </c>
       <c r="E7">
-        <v>25.8935276484556</v>
+        <v>19.4894548052094</v>
       </c>
       <c r="F7">
-        <v>20.7570284058678</v>
+        <v>19.2268298576636</v>
       </c>
       <c r="G7">
-        <v>10.3937920391537</v>
+        <v>9.293034469769721</v>
       </c>
       <c r="H7">
-        <v>7.1469856377982</v>
+        <v>8.29069595254399</v>
       </c>
       <c r="I7">
-        <v>10.3836014369277</v>
+        <v>12.5255573207895</v>
       </c>
       <c r="J7">
-        <v>20.0329370190303</v>
+        <v>18.7188273068211</v>
       </c>
       <c r="K7">
-        <v>10.8715930759372</v>
+        <v>16.3465497919115</v>
       </c>
       <c r="L7">
-        <v>65.2743589581702</v>
+        <v>61.2668112090885</v>
       </c>
       <c r="M7">
-        <v>19.6963204291969</v>
+        <v>20.3894174080278</v>
       </c>
       <c r="N7">
-        <v>23.9426872153463</v>
+        <v>26.0757858690983</v>
       </c>
       <c r="O7">
-        <v>1668.49625769762</v>
+        <v>1921.40408972464</v>
       </c>
       <c r="P7">
-        <v>55.7275821721092</v>
+        <v>51.7487856309076</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>882.809659382168</v>
+        <v>692.273848436845</v>
       </c>
       <c r="C8">
-        <v>11.1699672448077</v>
+        <v>11.6691454794895</v>
       </c>
       <c r="D8">
-        <v>8.32129474839833</v>
+        <v>11.9645598368045</v>
       </c>
       <c r="E8">
-        <v>22.4508633145085</v>
+        <v>22.0270552703127</v>
       </c>
       <c r="F8">
-        <v>2.23702773437654</v>
+        <v>2.14111467837516</v>
       </c>
       <c r="G8">
-        <v>28.1460227285176</v>
+        <v>31.682251255588</v>
       </c>
       <c r="H8">
-        <v>7.77797384243371</v>
+        <v>10.1821732813166</v>
       </c>
       <c r="I8">
-        <v>3.35967870304507</v>
+        <v>3.26951734750477</v>
       </c>
       <c r="J8">
-        <v>51.259852076266</v>
+        <v>51.6940142902522</v>
       </c>
       <c r="K8">
-        <v>25.9200113338714</v>
+        <v>27.9744729739975</v>
       </c>
       <c r="L8">
-        <v>48.2785100002821</v>
+        <v>48.2342732274294</v>
       </c>
       <c r="M8">
-        <v>55.7932267914852</v>
+        <v>55.6720365925561</v>
       </c>
       <c r="N8">
-        <v>19.5360199696657</v>
+        <v>21.554231018907</v>
       </c>
       <c r="O8">
-        <v>1232.55896912499</v>
+        <v>1404.30100574152</v>
       </c>
       <c r="P8">
-        <v>6.56741706490005</v>
+        <v>6.22750838661136</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>243.50454225983</v>
+        <v>162.291416561101</v>
       </c>
       <c r="C9">
-        <v>7.66699419063898</v>
+        <v>10.238294795444</v>
       </c>
       <c r="D9">
-        <v>3.23139471545019</v>
+        <v>2.79169338742504</v>
       </c>
       <c r="E9">
-        <v>6.34846746564404</v>
+        <v>6.97549161007432</v>
       </c>
       <c r="F9">
-        <v>1.77277019736105</v>
+        <v>1.93084534801111</v>
       </c>
       <c r="G9">
-        <v>18.7415820956404</v>
+        <v>21.9220152452338</v>
       </c>
       <c r="H9">
-        <v>2.95949987162667</v>
+        <v>3.37748564269711</v>
       </c>
       <c r="I9">
-        <v>0.961987077479211</v>
+        <v>1.41848325446254</v>
       </c>
       <c r="J9">
-        <v>3.14909078612624</v>
+        <v>3.57527190533468</v>
       </c>
       <c r="K9">
-        <v>1.66931574678649</v>
+        <v>2.93163079409658</v>
       </c>
       <c r="L9">
-        <v>3.33032360737739</v>
+        <v>3.33378487709037</v>
       </c>
       <c r="M9">
-        <v>6.34496703507804</v>
+        <v>9.17713963182721</v>
       </c>
       <c r="N9">
-        <v>4.23842134479694</v>
+        <v>4.85915527102827</v>
       </c>
       <c r="O9">
-        <v>286.113448200831</v>
+        <v>350.524639791791</v>
       </c>
       <c r="P9">
-        <v>4.57083743124869</v>
+        <v>5.90634350913831</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5329.0867337994</v>
+        <v>4102.87030853652</v>
       </c>
       <c r="C10">
-        <v>55.2019640174393</v>
+        <v>58.9393319821549</v>
       </c>
       <c r="D10">
-        <v>29.1055739818185</v>
+        <v>39.7654439372981</v>
       </c>
       <c r="E10">
-        <v>78.41280534382391</v>
+        <v>69.97665828487691</v>
       </c>
       <c r="F10">
-        <v>12.5061626504486</v>
+        <v>15.9894995325712</v>
       </c>
       <c r="G10">
-        <v>34.5453617080184</v>
+        <v>36.6750099187607</v>
       </c>
       <c r="H10">
-        <v>18.9968085182596</v>
+        <v>19.3873381418231</v>
       </c>
       <c r="I10">
-        <v>26.5214944368922</v>
+        <v>29.0320724780899</v>
       </c>
       <c r="J10">
-        <v>46.1596185119787</v>
+        <v>54.8286465652632</v>
       </c>
       <c r="K10">
-        <v>31.2431941031114</v>
+        <v>33.6227335172242</v>
       </c>
       <c r="L10">
-        <v>87.7607462308347</v>
+        <v>110.022190014048</v>
       </c>
       <c r="M10">
-        <v>83.06147427098141</v>
+        <v>95.961436487694</v>
       </c>
       <c r="N10">
-        <v>74.24625857035809</v>
+        <v>91.64995076689161</v>
       </c>
       <c r="O10">
-        <v>5758.464673853971</v>
+        <v>6864.36177760096</v>
       </c>
       <c r="P10">
-        <v>83.6000646956402</v>
+        <v>125.443356984854</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2221.89446084598</v>
+        <v>1745.89754204485</v>
       </c>
       <c r="C11">
-        <v>76.8294568446739</v>
+        <v>82.4266034180914</v>
       </c>
       <c r="D11">
-        <v>121.707312809286</v>
+        <v>151.566977541935</v>
       </c>
       <c r="E11">
-        <v>101.537495420188</v>
+        <v>104.751601616583</v>
       </c>
       <c r="F11">
-        <v>14.3371028360589</v>
+        <v>13.7822563834746</v>
       </c>
       <c r="G11">
-        <v>34.9227084827559</v>
+        <v>37.1187308659283</v>
       </c>
       <c r="H11">
-        <v>30.813924198208</v>
+        <v>29.2187936684615</v>
       </c>
       <c r="I11">
-        <v>21.6803973267555</v>
+        <v>22.3513841277755</v>
       </c>
       <c r="J11">
-        <v>49.6104090827441</v>
+        <v>61.365629306911</v>
       </c>
       <c r="K11">
-        <v>36.109520129085</v>
+        <v>39.8077232724958</v>
       </c>
       <c r="L11">
-        <v>63.6194645648701</v>
+        <v>71.417930081484</v>
       </c>
       <c r="M11">
-        <v>72.7207033728361</v>
+        <v>70.2391711293369</v>
       </c>
       <c r="N11">
-        <v>46.700503430606</v>
+        <v>45.7200461366523</v>
       </c>
       <c r="O11">
-        <v>2712.14714609349</v>
+        <v>3137.0480834379</v>
       </c>
       <c r="P11">
-        <v>57.7517020793848</v>
+        <v>49.9129190797437</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>380.266745287585</v>
+        <v>294.341138926251</v>
       </c>
       <c r="C12">
-        <v>6.45176999887301</v>
+        <v>8.30479589866586</v>
       </c>
       <c r="D12">
-        <v>2.25288965274925</v>
+        <v>3.17385545673797</v>
       </c>
       <c r="E12">
-        <v>2.09082321077014</v>
+        <v>1.37006922222753</v>
       </c>
       <c r="F12">
-        <v>0.709083869026941</v>
+        <v>0.705694682366788</v>
       </c>
       <c r="G12">
-        <v>0.372632375433528</v>
+        <v>0.440738234606475</v>
       </c>
       <c r="H12">
-        <v>0.203711502040269</v>
+        <v>0.127722807817718</v>
       </c>
       <c r="I12">
-        <v>0.983239034054332</v>
+        <v>1.07655697857619</v>
       </c>
       <c r="J12">
-        <v>0.524519619832829</v>
+        <v>0.589229127671139</v>
       </c>
       <c r="K12">
-        <v>0.270614901934633</v>
+        <v>0.409638002175171</v>
       </c>
       <c r="L12">
-        <v>0.612176062751976</v>
+        <v>0.408677337912254</v>
       </c>
       <c r="M12">
-        <v>4.03032113339242</v>
+        <v>4.39606710813462</v>
       </c>
       <c r="N12">
-        <v>2.60350574757644</v>
+        <v>3.29069564829211</v>
       </c>
       <c r="O12">
-        <v>481.506239612627</v>
+        <v>556.527828432501</v>
       </c>
       <c r="P12">
-        <v>12.4898813571876</v>
+        <v>19.2884276920023</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>370.626897461676</v>
+        <v>263.421604809365</v>
       </c>
       <c r="C13">
-        <v>22.2242072355358</v>
+        <v>26.1047833971114</v>
       </c>
       <c r="D13">
-        <v>0.793504825394628</v>
+        <v>1.78885525947339</v>
       </c>
       <c r="E13">
-        <v>18.1655655007585</v>
+        <v>19.0662463886211</v>
       </c>
       <c r="F13">
-        <v>1.27766222700986</v>
+        <v>4.40896264959369</v>
       </c>
       <c r="G13">
-        <v>5.45046317931376</v>
+        <v>5.67439061425394</v>
       </c>
       <c r="H13">
-        <v>0.40350349264024</v>
+        <v>1.75759679291606</v>
       </c>
       <c r="I13">
-        <v>1.60476316431851</v>
+        <v>1.54789557723534</v>
       </c>
       <c r="J13">
-        <v>5.04310379976639</v>
+        <v>5.83120632466029</v>
       </c>
       <c r="K13">
-        <v>3.91703866210642</v>
+        <v>3.17817158495524</v>
       </c>
       <c r="L13">
-        <v>20.2091713334667</v>
+        <v>23.2850847514705</v>
       </c>
       <c r="M13">
-        <v>2.68633162683973</v>
+        <v>3.31041274700891</v>
       </c>
       <c r="N13">
-        <v>7.98353425779293</v>
+        <v>8.55543483411021</v>
       </c>
       <c r="O13">
-        <v>402.373983928627</v>
+        <v>488.451763571254</v>
       </c>
       <c r="P13">
-        <v>44.6834932741938</v>
+        <v>53.3588868640988</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3374.05880155778</v>
+        <v>2672.75547966487</v>
       </c>
       <c r="C14">
-        <v>103.889415246848</v>
+        <v>114.190468473396</v>
       </c>
       <c r="D14">
-        <v>19.3665341286365</v>
+        <v>18.9893374176582</v>
       </c>
       <c r="E14">
-        <v>130.554066084951</v>
+        <v>113.444453448391</v>
       </c>
       <c r="F14">
-        <v>33.508061278884</v>
+        <v>31.1070552163871</v>
       </c>
       <c r="G14">
-        <v>79.71555717512091</v>
+        <v>90.84111414701501</v>
       </c>
       <c r="H14">
-        <v>71.67696724617851</v>
+        <v>71.57605284969419</v>
       </c>
       <c r="I14">
-        <v>21.0578838225165</v>
+        <v>27.2400565291737</v>
       </c>
       <c r="J14">
-        <v>185.633083884568</v>
+        <v>191.564030737804</v>
       </c>
       <c r="K14">
-        <v>149.62745767004</v>
+        <v>172.84063524022</v>
       </c>
       <c r="L14">
-        <v>142.796160228201</v>
+        <v>152.478044675072</v>
       </c>
       <c r="M14">
-        <v>88.7925423417158</v>
+        <v>100.122910364198</v>
       </c>
       <c r="N14">
-        <v>80.7063780189457</v>
+        <v>95.284176970524</v>
       </c>
       <c r="O14">
-        <v>4082.84257846718</v>
+        <v>4715.00693922801</v>
       </c>
       <c r="P14">
-        <v>92.6134142063992</v>
+        <v>91.4521821629826</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1596.97798192118</v>
+        <v>1233.7053017714</v>
       </c>
       <c r="C15">
-        <v>42.6048488079741</v>
+        <v>44.2310396316255</v>
       </c>
       <c r="D15">
-        <v>10.7546734495558</v>
+        <v>11.5696382466566</v>
       </c>
       <c r="E15">
-        <v>67.91334955034981</v>
+        <v>66.09051503877041</v>
       </c>
       <c r="F15">
-        <v>10.9975703032387</v>
+        <v>12.6438014073385</v>
       </c>
       <c r="G15">
-        <v>41.063830344733</v>
+        <v>42.4987408050965</v>
       </c>
       <c r="H15">
-        <v>42.1978463008673</v>
+        <v>55.6456614249776</v>
       </c>
       <c r="I15">
-        <v>22.3048042486303</v>
+        <v>31.8314526252605</v>
       </c>
       <c r="J15">
-        <v>149.387551651348</v>
+        <v>165.409465890086</v>
       </c>
       <c r="K15">
-        <v>52.2559609186868</v>
+        <v>69.5768749531324</v>
       </c>
       <c r="L15">
-        <v>60.273412121106</v>
+        <v>62.3953481864786</v>
       </c>
       <c r="M15">
-        <v>205.894279716116</v>
+        <v>201.700411559963</v>
       </c>
       <c r="N15">
-        <v>70.07059822108791</v>
+        <v>79.2248744589913</v>
       </c>
       <c r="O15">
-        <v>1839.51378534175</v>
+        <v>2141.55683861512</v>
       </c>
       <c r="P15">
-        <v>39.3302214300786</v>
+        <v>44.4267762322873</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>748.732982054666</v>
+        <v>506.464398454749</v>
       </c>
       <c r="C16">
-        <v>58.6186713646423</v>
+        <v>67.7258627422336</v>
       </c>
       <c r="D16">
-        <v>6.67090637759164</v>
+        <v>9.540359843175681</v>
       </c>
       <c r="E16">
-        <v>27.5365868389325</v>
+        <v>26.0513091961195</v>
       </c>
       <c r="F16">
-        <v>3.25571289644373</v>
+        <v>4.59490043898137</v>
       </c>
       <c r="G16">
-        <v>11.8248609090796</v>
+        <v>12.8912003589573</v>
       </c>
       <c r="H16">
-        <v>16.7410724960458</v>
+        <v>19.1909555868163</v>
       </c>
       <c r="I16">
-        <v>8.328031324579211</v>
+        <v>9.00404565445276</v>
       </c>
       <c r="J16">
-        <v>44.5688313658863</v>
+        <v>45.6515272396709</v>
       </c>
       <c r="K16">
-        <v>50.1085424059472</v>
+        <v>57.5301382264839</v>
       </c>
       <c r="L16">
-        <v>34.3911984106408</v>
+        <v>38.210125260199</v>
       </c>
       <c r="M16">
-        <v>29.4041318101888</v>
+        <v>28.0729365602703</v>
       </c>
       <c r="N16">
-        <v>19.4961258227012</v>
+        <v>21.9350806717286</v>
       </c>
       <c r="O16">
-        <v>956.793727241713</v>
+        <v>1142.52446265384</v>
       </c>
       <c r="P16">
-        <v>85.3394821359454</v>
+        <v>100.954151543724</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>667.689781668198</v>
+        <v>514.053075961705</v>
       </c>
       <c r="C17">
-        <v>26.4823560397274</v>
+        <v>32.4778750878121</v>
       </c>
       <c r="D17">
-        <v>4.98930110365576</v>
+        <v>5.31532393748019</v>
       </c>
       <c r="E17">
-        <v>26.880018277258</v>
+        <v>22.1609673218312</v>
       </c>
       <c r="F17">
-        <v>16.0221579149278</v>
+        <v>15.931497207777</v>
       </c>
       <c r="G17">
-        <v>9.06507552494657</v>
+        <v>9.57216808259818</v>
       </c>
       <c r="H17">
-        <v>11.8230552249773</v>
+        <v>12.5646042776471</v>
       </c>
       <c r="I17">
-        <v>7.33061448963742</v>
+        <v>6.97419867381258</v>
       </c>
       <c r="J17">
-        <v>20.1572261704937</v>
+        <v>19.516759401247</v>
       </c>
       <c r="K17">
-        <v>20.9262682949778</v>
+        <v>22.4593912046685</v>
       </c>
       <c r="L17">
-        <v>12.6330879121105</v>
+        <v>14.175683560582</v>
       </c>
       <c r="M17">
-        <v>67.0179113364721</v>
+        <v>75.8452730487397</v>
       </c>
       <c r="N17">
-        <v>13.7745783100761</v>
+        <v>13.6506103870727</v>
       </c>
       <c r="O17">
-        <v>905.282679417458</v>
+        <v>1048.45898111873</v>
       </c>
       <c r="P17">
-        <v>68.3425748072105</v>
+        <v>66.4196171778737</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1343.99871623335</v>
+        <v>1025.44419303541</v>
       </c>
       <c r="C18">
-        <v>35.418100358124</v>
+        <v>37.9904890344512</v>
       </c>
       <c r="D18">
-        <v>19.5643995802347</v>
+        <v>20.7510721823528</v>
       </c>
       <c r="E18">
-        <v>50.5813877707025</v>
+        <v>46.7513183004744</v>
       </c>
       <c r="F18">
-        <v>28.0299191995658</v>
+        <v>33.76787384467</v>
       </c>
       <c r="G18">
-        <v>18.7917547807744</v>
+        <v>23.6791361872737</v>
       </c>
       <c r="H18">
-        <v>19.7583624800243</v>
+        <v>22.2960860853706</v>
       </c>
       <c r="I18">
-        <v>10.2027820620135</v>
+        <v>10.5911469309183</v>
       </c>
       <c r="J18">
-        <v>55.4111732395221</v>
+        <v>58.5597213782405</v>
       </c>
       <c r="K18">
-        <v>26.3311315141255</v>
+        <v>30.2882782281494</v>
       </c>
       <c r="L18">
-        <v>24.7813459846584</v>
+        <v>31.7162040660333</v>
       </c>
       <c r="M18">
-        <v>73.0905100705649</v>
+        <v>70.7247530944713</v>
       </c>
       <c r="N18">
-        <v>23.0031171448717</v>
+        <v>24.08306403997</v>
       </c>
       <c r="O18">
-        <v>1155.69609507768</v>
+        <v>1438.49117671858</v>
       </c>
       <c r="P18">
-        <v>35.1588181068704</v>
+        <v>44.1935448677836</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1436.71409509928</v>
+        <v>1151.650523399</v>
       </c>
       <c r="C19">
-        <v>22.0100643117823</v>
+        <v>24.4767078928281</v>
       </c>
       <c r="D19">
-        <v>7.14887422550407</v>
+        <v>11.341811927552</v>
       </c>
       <c r="E19">
-        <v>38.0128343300025</v>
+        <v>37.6501144487923</v>
       </c>
       <c r="F19">
-        <v>71.52700852826651</v>
+        <v>81.32793580130461</v>
       </c>
       <c r="G19">
-        <v>39.8248968253399</v>
+        <v>40.5245804927041</v>
       </c>
       <c r="H19">
-        <v>6.94939396996513</v>
+        <v>7.79647599522162</v>
       </c>
       <c r="I19">
-        <v>7.425394388609</v>
+        <v>8.168556975743369</v>
       </c>
       <c r="J19">
-        <v>23.9435776215995</v>
+        <v>22.2321586729893</v>
       </c>
       <c r="K19">
-        <v>15.0806922884302</v>
+        <v>16.8798701090454</v>
       </c>
       <c r="L19">
-        <v>6.78265063724261</v>
+        <v>6.71993409754713</v>
       </c>
       <c r="M19">
-        <v>25.5494969632431</v>
+        <v>30.4492411175805</v>
       </c>
       <c r="N19">
-        <v>7.12765877586675</v>
+        <v>7.24153216965605</v>
       </c>
       <c r="O19">
-        <v>1363.31288852099</v>
+        <v>1604.9678381619</v>
       </c>
       <c r="P19">
-        <v>40.7835274986935</v>
+        <v>51.949316341338</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>377.076544451836</v>
+        <v>276.413574537022</v>
       </c>
       <c r="C20">
-        <v>8.017860996234781</v>
+        <v>8.29351513293031</v>
       </c>
       <c r="D20">
-        <v>13.0789291616614</v>
+        <v>15.0859095438535</v>
       </c>
       <c r="E20">
-        <v>35.4851110867169</v>
+        <v>39.501005352842</v>
       </c>
       <c r="F20">
-        <v>0.366834941913968</v>
+        <v>0.198989939184397</v>
       </c>
       <c r="G20">
-        <v>1.54521052722175</v>
+        <v>1.43373999015885</v>
       </c>
       <c r="H20">
-        <v>1.68715252757055</v>
+        <v>1.87892550229723</v>
       </c>
       <c r="I20">
-        <v>1.2186058884097</v>
+        <v>0.957729736062218</v>
       </c>
       <c r="J20">
-        <v>6.84809905358687</v>
+        <v>6.5738138189451</v>
       </c>
       <c r="K20">
-        <v>3.50452458352035</v>
+        <v>4.11378059816158</v>
       </c>
       <c r="L20">
-        <v>9.05475745046631</v>
+        <v>8.72220577300463</v>
       </c>
       <c r="M20">
-        <v>16.6671355822253</v>
+        <v>17.44960124837</v>
       </c>
       <c r="N20">
-        <v>7.24042519575737</v>
+        <v>7.33830047898009</v>
       </c>
       <c r="O20">
-        <v>442.640080978338</v>
+        <v>528.904238584662</v>
       </c>
       <c r="P20">
-        <v>19.7305368801931</v>
+        <v>27.0301990256428</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1388.79151356269</v>
+        <v>1012.14666860678</v>
       </c>
       <c r="C21">
-        <v>22.4286090806618</v>
+        <v>24.9205836531439</v>
       </c>
       <c r="D21">
-        <v>11.4709647986013</v>
+        <v>10.9369195716271</v>
       </c>
       <c r="E21">
-        <v>47.4739366452594</v>
+        <v>42.8107338971974</v>
       </c>
       <c r="F21">
-        <v>4.06222607312968</v>
+        <v>3.64796970144705</v>
       </c>
       <c r="G21">
-        <v>18.629276378412</v>
+        <v>19.2672943001039</v>
       </c>
       <c r="H21">
-        <v>4.86023029733871</v>
+        <v>7.2568332673832</v>
       </c>
       <c r="I21">
-        <v>7.86371236451785</v>
+        <v>7.1211109068951</v>
       </c>
       <c r="J21">
-        <v>22.1681638703421</v>
+        <v>25.1211567387646</v>
       </c>
       <c r="K21">
-        <v>12.9454465308474</v>
+        <v>14.7961249017064</v>
       </c>
       <c r="L21">
-        <v>41.1591027338026</v>
+        <v>38.6399734618369</v>
       </c>
       <c r="M21">
-        <v>22.8453238151101</v>
+        <v>26.5687827826426</v>
       </c>
       <c r="N21">
-        <v>18.5764571412885</v>
+        <v>17.9043913072658</v>
       </c>
       <c r="O21">
-        <v>2076.41737900455</v>
+        <v>2435.39427897383</v>
       </c>
       <c r="P21">
-        <v>19.2879176338382</v>
+        <v>20.8496887222088</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1671.52327776979</v>
+        <v>1293.22609881839</v>
       </c>
       <c r="C22">
-        <v>23.4166548971888</v>
+        <v>21.7864956992092</v>
       </c>
       <c r="D22">
-        <v>28.515998514375</v>
+        <v>30.4276304764244</v>
       </c>
       <c r="E22">
-        <v>56.4983060058305</v>
+        <v>54.4576629566854</v>
       </c>
       <c r="F22">
-        <v>2.06432871252453</v>
+        <v>1.94153401530008</v>
       </c>
       <c r="G22">
-        <v>24.8297577897455</v>
+        <v>28.4930197823387</v>
       </c>
       <c r="H22">
-        <v>21.1114052377406</v>
+        <v>23.962474997222</v>
       </c>
       <c r="I22">
-        <v>10.7977463050532</v>
+        <v>12.9347449134407</v>
       </c>
       <c r="J22">
-        <v>49.1325322191182</v>
+        <v>53.1332073387762</v>
       </c>
       <c r="K22">
-        <v>30.3706248826328</v>
+        <v>34.9393064432737</v>
       </c>
       <c r="L22">
-        <v>125.171630884339</v>
+        <v>130.8191731219</v>
       </c>
       <c r="M22">
-        <v>18.2331445978856</v>
+        <v>19.92406202053</v>
       </c>
       <c r="N22">
-        <v>48.0459564814234</v>
+        <v>60.5067540972509</v>
       </c>
       <c r="O22">
-        <v>2354.50030451769</v>
+        <v>2680.784661513</v>
       </c>
       <c r="P22">
-        <v>14.3263368619711</v>
+        <v>19.7916965741817</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2808.72519021786</v>
+        <v>2217.75965014924</v>
       </c>
       <c r="C23">
-        <v>49.8804697689671</v>
+        <v>51.0806227044661</v>
       </c>
       <c r="D23">
-        <v>11.4432429689775</v>
+        <v>16.9080720952716</v>
       </c>
       <c r="E23">
-        <v>78.0773525624882</v>
+        <v>73.08501831414191</v>
       </c>
       <c r="F23">
-        <v>9.578282605641309</v>
+        <v>7.24084362250695</v>
       </c>
       <c r="G23">
-        <v>53.9294178076509</v>
+        <v>58.1229212556478</v>
       </c>
       <c r="H23">
-        <v>62.1202255263599</v>
+        <v>72.34245878361</v>
       </c>
       <c r="I23">
-        <v>20.7564307204306</v>
+        <v>25.1694491523638</v>
       </c>
       <c r="J23">
-        <v>159.768837502949</v>
+        <v>173.354756477467</v>
       </c>
       <c r="K23">
-        <v>103.642089576188</v>
+        <v>120.661275810056</v>
       </c>
       <c r="L23">
-        <v>41.3862651803231</v>
+        <v>45.0285183349984</v>
       </c>
       <c r="M23">
-        <v>502.808735948568</v>
+        <v>539.326541808335</v>
       </c>
       <c r="N23">
-        <v>72.58000487940571</v>
+        <v>80.3763731319283</v>
       </c>
       <c r="O23">
-        <v>2956.52816925142</v>
+        <v>3436.6769922604</v>
       </c>
       <c r="P23">
-        <v>65.46846300413409</v>
+        <v>71.8737288932534</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1100.4806914618</v>
+        <v>812.070498153115</v>
       </c>
       <c r="C24">
-        <v>70.16472524998311</v>
+        <v>75.1792202576592</v>
       </c>
       <c r="D24">
-        <v>6.98006677904223</v>
+        <v>9.23325257979382</v>
       </c>
       <c r="E24">
-        <v>76.9986821800273</v>
+        <v>73.3828929305018</v>
       </c>
       <c r="F24">
-        <v>14.8496545601025</v>
+        <v>23.6013297160028</v>
       </c>
       <c r="G24">
-        <v>13.2950895264562</v>
+        <v>14.7330994578468</v>
       </c>
       <c r="H24">
-        <v>15.2307685368165</v>
+        <v>18.7235271683122</v>
       </c>
       <c r="I24">
-        <v>12.6815391701117</v>
+        <v>14.4962785245294</v>
       </c>
       <c r="J24">
-        <v>63.292483481794</v>
+        <v>61.1786322434481</v>
       </c>
       <c r="K24">
-        <v>47.5171111463853</v>
+        <v>59.5007460973111</v>
       </c>
       <c r="L24">
-        <v>75.42458316439421</v>
+        <v>75.0774248172922</v>
       </c>
       <c r="M24">
-        <v>26.2306990147631</v>
+        <v>27.1292085092393</v>
       </c>
       <c r="N24">
-        <v>49.2092612096976</v>
+        <v>60.3944602928404</v>
       </c>
       <c r="O24">
-        <v>1750.15817673303</v>
+        <v>1978.84194804726</v>
       </c>
       <c r="P24">
-        <v>116.195727940229</v>
+        <v>130.846929404054</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>946.025348569115</v>
+        <v>733.711122835105</v>
       </c>
       <c r="C25">
-        <v>25.8903739591895</v>
+        <v>39.9358403863722</v>
       </c>
       <c r="D25">
-        <v>23.56736277923</v>
+        <v>26.3667915919345</v>
       </c>
       <c r="E25">
-        <v>36.1267156405475</v>
+        <v>40.2884154991997</v>
       </c>
       <c r="F25">
-        <v>10.9524229766242</v>
+        <v>14.6752080846633</v>
       </c>
       <c r="G25">
-        <v>8.90757262974301</v>
+        <v>8.656813299932301</v>
       </c>
       <c r="H25">
-        <v>12.4879676357095</v>
+        <v>15.5462939413765</v>
       </c>
       <c r="I25">
-        <v>6.16282813339101</v>
+        <v>6.02674355576256</v>
       </c>
       <c r="J25">
-        <v>17.6992260632836</v>
+        <v>21.2083949671501</v>
       </c>
       <c r="K25">
-        <v>17.8820653273052</v>
+        <v>20.1090449656674</v>
       </c>
       <c r="L25">
-        <v>23.5872301499601</v>
+        <v>24.8364429830203</v>
       </c>
       <c r="M25">
-        <v>27.3889239155148</v>
+        <v>36.7299330641231</v>
       </c>
       <c r="N25">
-        <v>52.0772867370529</v>
+        <v>52.3910252631481</v>
       </c>
       <c r="O25">
-        <v>767.675497534662</v>
+        <v>922.763445605692</v>
       </c>
       <c r="P25">
-        <v>36.9851375363918</v>
+        <v>45.0437863103162</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1587.61643946203</v>
+        <v>1130.51319877095</v>
       </c>
       <c r="C26">
-        <v>65.4298232481368</v>
+        <v>71.3774667521995</v>
       </c>
       <c r="D26">
-        <v>19.9250953140872</v>
+        <v>20.0598681398136</v>
       </c>
       <c r="E26">
-        <v>62.755136923558</v>
+        <v>61.3020599683216</v>
       </c>
       <c r="F26">
-        <v>13.8938535508472</v>
+        <v>13.1316470952923</v>
       </c>
       <c r="G26">
-        <v>30.3480773226125</v>
+        <v>37.0846804999582</v>
       </c>
       <c r="H26">
-        <v>14.5988250104125</v>
+        <v>23.2841860156556</v>
       </c>
       <c r="I26">
-        <v>15.7492202120506</v>
+        <v>17.6056268321337</v>
       </c>
       <c r="J26">
-        <v>61.8375951347626</v>
+        <v>64.96325778420631</v>
       </c>
       <c r="K26">
-        <v>35.0849851271435</v>
+        <v>42.9406795737523</v>
       </c>
       <c r="L26">
-        <v>44.639683030015</v>
+        <v>45.5851273168713</v>
       </c>
       <c r="M26">
-        <v>74.2902054302358</v>
+        <v>80.5393492194569</v>
       </c>
       <c r="N26">
-        <v>39.8653456490401</v>
+        <v>38.7658227099959</v>
       </c>
       <c r="O26">
-        <v>1797.46802650324</v>
+        <v>2186.44378539463</v>
       </c>
       <c r="P26">
-        <v>77.9195884698071</v>
+        <v>82.8036542403897</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>282.897068177721</v>
+        <v>200.169659825274</v>
       </c>
       <c r="C27">
-        <v>3.0399138051552</v>
+        <v>3.88910957602021</v>
       </c>
       <c r="D27">
-        <v>1.00726337501767</v>
+        <v>1.1222492979565</v>
       </c>
       <c r="E27">
-        <v>8.894534696114111</v>
+        <v>12.2416856881357</v>
       </c>
       <c r="F27">
-        <v>8.178301181189831</v>
+        <v>7.81959813428763</v>
       </c>
       <c r="G27">
-        <v>0.7471654807542361</v>
+        <v>0.690288989353712</v>
       </c>
       <c r="H27">
-        <v>0.205183894356605</v>
+        <v>0.214143257759007</v>
       </c>
       <c r="I27">
-        <v>1.5194584273733</v>
+        <v>1.97996624150365</v>
       </c>
       <c r="J27">
-        <v>2.47064711362661</v>
+        <v>3.67870603625699</v>
       </c>
       <c r="K27">
-        <v>1.04065787895138</v>
+        <v>1.86547936109037</v>
       </c>
       <c r="L27">
-        <v>1.66843164291246</v>
+        <v>1.50475744874265</v>
       </c>
       <c r="M27">
-        <v>0.881512305030618</v>
+        <v>0.877531076633866</v>
       </c>
       <c r="N27">
-        <v>3.76351227005253</v>
+        <v>4.14477089200772</v>
       </c>
       <c r="O27">
-        <v>313.343410420492</v>
+        <v>386.470358034476</v>
       </c>
       <c r="P27">
-        <v>42.234871998988</v>
+        <v>50.8015656267974</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>409.193598334527</v>
+        <v>295.444963332292</v>
       </c>
       <c r="C28">
-        <v>37.2191801715074</v>
+        <v>38.5358808549388</v>
       </c>
       <c r="D28">
-        <v>1.97050088402584</v>
+        <v>2.05631548197386</v>
       </c>
       <c r="E28">
-        <v>10.1609541828097</v>
+        <v>8.912958204852981</v>
       </c>
       <c r="F28">
-        <v>2.34831027496203</v>
+        <v>2.28454241043256</v>
       </c>
       <c r="G28">
-        <v>4.27427170272343</v>
+        <v>4.33740109948659</v>
       </c>
       <c r="H28">
-        <v>6.67734673474768</v>
+        <v>7.00022021072539</v>
       </c>
       <c r="I28">
-        <v>4.22789776445248</v>
+        <v>4.09435952515488</v>
       </c>
       <c r="J28">
-        <v>14.5553007808631</v>
+        <v>16.5803498036945</v>
       </c>
       <c r="K28">
-        <v>15.5715363168965</v>
+        <v>18.196466971091</v>
       </c>
       <c r="L28">
-        <v>12.6874385142866</v>
+        <v>14.9123177498812</v>
       </c>
       <c r="M28">
-        <v>9.277117060947671</v>
+        <v>9.318317275764651</v>
       </c>
       <c r="N28">
-        <v>10.9449515152126</v>
+        <v>10.8403856616877</v>
       </c>
       <c r="O28">
-        <v>601.94443059299</v>
+        <v>690.921613786046</v>
       </c>
       <c r="P28">
-        <v>84.0389597828038</v>
+        <v>92.2640051032448</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>594.707998623166</v>
+        <v>443.800099515059</v>
       </c>
       <c r="C29">
-        <v>4.60387883547741</v>
+        <v>4.63310227577844</v>
       </c>
       <c r="D29">
-        <v>1.36260665412169</v>
+        <v>1.74886105614903</v>
       </c>
       <c r="E29">
-        <v>8.84628161843438</v>
+        <v>6.51487859023498</v>
       </c>
       <c r="F29">
-        <v>15.6828152718645</v>
+        <v>17.3880004896844</v>
       </c>
       <c r="G29">
-        <v>2.68512958963408</v>
+        <v>3.00858599837477</v>
       </c>
       <c r="H29">
-        <v>2.55920238337258</v>
+        <v>2.55896550471998</v>
       </c>
       <c r="I29">
-        <v>2.94863671081463</v>
+        <v>3.74036843002492</v>
       </c>
       <c r="J29">
-        <v>6.88118914400181</v>
+        <v>6.5173637269687</v>
       </c>
       <c r="K29">
-        <v>1.86147263374772</v>
+        <v>3.35845731247085</v>
       </c>
       <c r="L29">
-        <v>6.87482486888667</v>
+        <v>4.56032679950689</v>
       </c>
       <c r="M29">
-        <v>2.98905420357897</v>
+        <v>2.05447680347234</v>
       </c>
       <c r="N29">
-        <v>9.238749349635009</v>
+        <v>11.3546205028439</v>
       </c>
       <c r="O29">
-        <v>808.265551469093</v>
+        <v>944.219900732906</v>
       </c>
       <c r="P29">
-        <v>6.1081633449446</v>
+        <v>4.80069659341936</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>304.835512104433</v>
+        <v>222.901034080898</v>
       </c>
       <c r="C30">
-        <v>3.99870930204304</v>
+        <v>3.51044021608172</v>
       </c>
       <c r="D30">
-        <v>5.66214172583102</v>
+        <v>5.91512198636167</v>
       </c>
       <c r="E30">
-        <v>15.2980866785284</v>
+        <v>14.5183444597672</v>
       </c>
       <c r="F30">
-        <v>0.401760445427967</v>
+        <v>0.551544960000192</v>
       </c>
       <c r="G30">
-        <v>3.77724336319733</v>
+        <v>4.06132252379719</v>
       </c>
       <c r="H30">
-        <v>4.06661822487826</v>
+        <v>5.65805282070989</v>
       </c>
       <c r="I30">
-        <v>3.04711144606634</v>
+        <v>3.16438230887517</v>
       </c>
       <c r="J30">
-        <v>19.269027773767</v>
+        <v>19.6476130520702</v>
       </c>
       <c r="K30">
-        <v>10.4683923699389</v>
+        <v>11.4060493622808</v>
       </c>
       <c r="L30">
-        <v>35.500194941881</v>
+        <v>38.5043065036736</v>
       </c>
       <c r="M30">
-        <v>8.49078136147468</v>
+        <v>9.341963628895121</v>
       </c>
       <c r="N30">
-        <v>15.8837824454426</v>
+        <v>16.7827089682849</v>
       </c>
       <c r="O30">
-        <v>467.856119594269</v>
+        <v>537.93785013963</v>
       </c>
       <c r="P30">
-        <v>7.01419751236566</v>
+        <v>7.86732659067518</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2473.0942069471</v>
+        <v>1956.41886305072</v>
       </c>
       <c r="C31">
-        <v>40.226372722818</v>
+        <v>45.7277266025681</v>
       </c>
       <c r="D31">
-        <v>30.9474774261204</v>
+        <v>50.9568722214566</v>
       </c>
       <c r="E31">
-        <v>59.9785678366733</v>
+        <v>53.5971018509299</v>
       </c>
       <c r="F31">
-        <v>10.7944511971609</v>
+        <v>8.46302976257339</v>
       </c>
       <c r="G31">
-        <v>132.625172083157</v>
+        <v>139.291635536299</v>
       </c>
       <c r="H31">
-        <v>20.9740105364694</v>
+        <v>28.1231365913526</v>
       </c>
       <c r="I31">
-        <v>15.5156179825679</v>
+        <v>18.8503950833198</v>
       </c>
       <c r="J31">
-        <v>47.2129638775739</v>
+        <v>49.3917755459491</v>
       </c>
       <c r="K31">
-        <v>29.5270185106664</v>
+        <v>30.7428013557254</v>
       </c>
       <c r="L31">
-        <v>82.3979362084405</v>
+        <v>80.7746675643307</v>
       </c>
       <c r="M31">
-        <v>19.5908544013091</v>
+        <v>22.0999675330952</v>
       </c>
       <c r="N31">
-        <v>48.6058232355322</v>
+        <v>51.7181265283914</v>
       </c>
       <c r="O31">
-        <v>2949.88679958411</v>
+        <v>3431.74663138312</v>
       </c>
       <c r="P31">
-        <v>13.1803579535522</v>
+        <v>10.3116372106534</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>576.022668377585</v>
+        <v>452.676637899002</v>
       </c>
       <c r="C32">
-        <v>6.51489923574419</v>
+        <v>6.38225057244602</v>
       </c>
       <c r="D32">
-        <v>0.469512849222186</v>
+        <v>1.68776003628687</v>
       </c>
       <c r="E32">
-        <v>5.34610271476919</v>
+        <v>6.25225997093034</v>
       </c>
       <c r="F32">
-        <v>21.7447847520027</v>
+        <v>24.59609639801</v>
       </c>
       <c r="G32">
-        <v>2.29899849052989</v>
+        <v>1.70781276280686</v>
       </c>
       <c r="H32">
-        <v>0.118872118104688</v>
+        <v>0.619892245871873</v>
       </c>
       <c r="I32">
-        <v>3.55481861327019</v>
+        <v>6.09023450231395</v>
       </c>
       <c r="J32">
-        <v>3.99370897044172</v>
+        <v>4.78235424692288</v>
       </c>
       <c r="K32">
-        <v>1.3126541275537</v>
+        <v>3.73058817257805</v>
       </c>
       <c r="L32">
-        <v>12.3032297037194</v>
+        <v>13.9653263320201</v>
       </c>
       <c r="M32">
-        <v>4.02135949814442</v>
+        <v>3.79570184555851</v>
       </c>
       <c r="N32">
-        <v>8.0511328407812</v>
+        <v>10.4665145806912</v>
       </c>
       <c r="O32">
-        <v>603.755215628519</v>
+        <v>719.040914299611</v>
       </c>
       <c r="P32">
-        <v>21.9039867982898</v>
+        <v>24.6107384127515</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5774.27850710373</v>
+        <v>4796.92080279267</v>
       </c>
       <c r="C33">
-        <v>87.0930728270035</v>
+        <v>90.524653362973</v>
       </c>
       <c r="D33">
-        <v>84.3697043058457</v>
+        <v>123.158201219178</v>
       </c>
       <c r="E33">
-        <v>127.464389092489</v>
+        <v>108.565432379608</v>
       </c>
       <c r="F33">
-        <v>9.616753242122019</v>
+        <v>9.8694145467543</v>
       </c>
       <c r="G33">
-        <v>81.3576617617847</v>
+        <v>84.93166291536549</v>
       </c>
       <c r="H33">
-        <v>36.6363327854753</v>
+        <v>40.8371258812869</v>
       </c>
       <c r="I33">
-        <v>33.3676072095272</v>
+        <v>38.5972035118682</v>
       </c>
       <c r="J33">
-        <v>107.563956995932</v>
+        <v>110.999168655137</v>
       </c>
       <c r="K33">
-        <v>126.321191204982</v>
+        <v>126.290710775918</v>
       </c>
       <c r="L33">
-        <v>146.131299298207</v>
+        <v>155.959251434423</v>
       </c>
       <c r="M33">
-        <v>75.4531433998981</v>
+        <v>80.6036689461001</v>
       </c>
       <c r="N33">
-        <v>106.037003911507</v>
+        <v>134.050203303386</v>
       </c>
       <c r="O33">
-        <v>6453.65833803431</v>
+        <v>7385.1457498865</v>
       </c>
       <c r="P33">
-        <v>78.110015676524</v>
+        <v>82.89463000346019</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2297.89722695845</v>
+        <v>1769.9800650662</v>
       </c>
       <c r="C34">
-        <v>55.7360999448251</v>
+        <v>75.04136436302051</v>
       </c>
       <c r="D34">
-        <v>190.187526780278</v>
+        <v>222.160630050427</v>
       </c>
       <c r="E34">
-        <v>84.798616601316</v>
+        <v>79.6426994419996</v>
       </c>
       <c r="F34">
-        <v>7.53519361637544</v>
+        <v>6.88598594953115</v>
       </c>
       <c r="G34">
-        <v>52.8891154635799</v>
+        <v>58.2699583068536</v>
       </c>
       <c r="H34">
-        <v>38.7241267775511</v>
+        <v>44.1663966016313</v>
       </c>
       <c r="I34">
-        <v>23.0957935819423</v>
+        <v>26.2672033841211</v>
       </c>
       <c r="J34">
-        <v>57.2276300690644</v>
+        <v>61.2248778820867</v>
       </c>
       <c r="K34">
-        <v>43.7215592964709</v>
+        <v>55.8631367227631</v>
       </c>
       <c r="L34">
-        <v>102.949514016239</v>
+        <v>110.255096027791</v>
       </c>
       <c r="M34">
-        <v>50.2925536398964</v>
+        <v>56.5056060516066</v>
       </c>
       <c r="N34">
-        <v>124.002456659636</v>
+        <v>131.36447110694</v>
       </c>
       <c r="O34">
-        <v>2527.55268130196</v>
+        <v>2926.43247584282</v>
       </c>
       <c r="P34">
-        <v>58.6650511287666</v>
+        <v>70.9310121593813</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>172.510175913514</v>
+        <v>119.202604022973</v>
       </c>
       <c r="C35">
-        <v>6.15912844688802</v>
+        <v>7.85097433907146</v>
       </c>
       <c r="D35">
-        <v>0.35274062986014</v>
+        <v>0.704865173782591</v>
       </c>
       <c r="E35">
-        <v>1.91111493747097</v>
+        <v>2.33424517759265</v>
       </c>
       <c r="F35">
-        <v>4.9611811615125</v>
+        <v>5.72583761009241</v>
       </c>
       <c r="G35">
-        <v>0.54304933276743</v>
+        <v>0.506449574611323</v>
       </c>
       <c r="H35">
-        <v>0.321889658100109</v>
+        <v>0.468277440160423</v>
       </c>
       <c r="I35">
-        <v>0.792811854413308</v>
+        <v>0.932154421778411</v>
       </c>
       <c r="J35">
-        <v>2.50571313159968</v>
+        <v>2.62813410380869</v>
       </c>
       <c r="K35">
-        <v>5.30237759842251</v>
+        <v>5.93759138896031</v>
       </c>
       <c r="L35">
-        <v>2.30281300271912</v>
+        <v>2.70815582470443</v>
       </c>
       <c r="M35">
-        <v>3.53300179018999</v>
+        <v>3.17250566592715</v>
       </c>
       <c r="N35">
-        <v>2.25569561789219</v>
+        <v>2.60025230828816</v>
       </c>
       <c r="O35">
-        <v>225.368400261053</v>
+        <v>268.333476836168</v>
       </c>
       <c r="P35">
-        <v>39.0394935030071</v>
+        <v>47.7657956469756</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3158.4702246467</v>
+        <v>2467.0655177795</v>
       </c>
       <c r="C36">
-        <v>77.58199151031261</v>
+        <v>77.54780393524641</v>
       </c>
       <c r="D36">
-        <v>22.6953010252298</v>
+        <v>21.8165650764367</v>
       </c>
       <c r="E36">
-        <v>122.126429751614</v>
+        <v>113.04296109501</v>
       </c>
       <c r="F36">
-        <v>22.5849117190094</v>
+        <v>29.2213197274008</v>
       </c>
       <c r="G36">
-        <v>76.878524333204</v>
+        <v>82.51813685860979</v>
       </c>
       <c r="H36">
-        <v>102.831380489216</v>
+        <v>112.765149483653</v>
       </c>
       <c r="I36">
-        <v>45.5975481815076</v>
+        <v>58.8885094609617</v>
       </c>
       <c r="J36">
-        <v>250.817909853243</v>
+        <v>258.700361293622</v>
       </c>
       <c r="K36">
-        <v>115.588669020116</v>
+        <v>136.853806013821</v>
       </c>
       <c r="L36">
-        <v>103.922979693421</v>
+        <v>109.778114222141</v>
       </c>
       <c r="M36">
-        <v>249.237746323572</v>
+        <v>259.903477027709</v>
       </c>
       <c r="N36">
-        <v>79.5978275425403</v>
+        <v>88.7298758003831</v>
       </c>
       <c r="O36">
-        <v>3521.98911868664</v>
+        <v>4128.66801628144</v>
       </c>
       <c r="P36">
-        <v>45.908095562169</v>
+        <v>52.8931595551601</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1011.91599924856</v>
+        <v>800.665469954487</v>
       </c>
       <c r="C37">
-        <v>25.9953684760611</v>
+        <v>26.7844002029715</v>
       </c>
       <c r="D37">
-        <v>8.65648490863444</v>
+        <v>10.892479648157</v>
       </c>
       <c r="E37">
-        <v>15.955436330403</v>
+        <v>17.492309675195</v>
       </c>
       <c r="F37">
-        <v>46.9329731609995</v>
+        <v>49.5267436739681</v>
       </c>
       <c r="G37">
-        <v>7.47660119400157</v>
+        <v>6.95622858524476</v>
       </c>
       <c r="H37">
-        <v>18.3384910278406</v>
+        <v>22.1955528201378</v>
       </c>
       <c r="I37">
-        <v>9.01353689183853</v>
+        <v>11.6598093478759</v>
       </c>
       <c r="J37">
-        <v>34.5268844502549</v>
+        <v>33.9141575030527</v>
       </c>
       <c r="K37">
-        <v>27.7784306463162</v>
+        <v>32.2021872013593</v>
       </c>
       <c r="L37">
-        <v>23.2475738878023</v>
+        <v>27.2182690059781</v>
       </c>
       <c r="M37">
-        <v>35.3050418861686</v>
+        <v>35.6214556236361</v>
       </c>
       <c r="N37">
-        <v>14.1641432091142</v>
+        <v>15.4833157906088</v>
       </c>
       <c r="O37">
-        <v>1065.68054650262</v>
+        <v>1251.10829905162</v>
       </c>
       <c r="P37">
-        <v>38.2914692432135</v>
+        <v>54.0995210293903</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>987.538407637391</v>
+        <v>752.805517626402</v>
       </c>
       <c r="C38">
-        <v>18.3494802387057</v>
+        <v>25.3906549237316</v>
       </c>
       <c r="D38">
-        <v>7.71953924597498</v>
+        <v>8.35639214773272</v>
       </c>
       <c r="E38">
-        <v>67.58310162285</v>
+        <v>65.84785409443001</v>
       </c>
       <c r="F38">
-        <v>3.28883874374638</v>
+        <v>2.72847810317635</v>
       </c>
       <c r="G38">
-        <v>5.5289986685055</v>
+        <v>7.31619407208184</v>
       </c>
       <c r="H38">
-        <v>4.88868730929768</v>
+        <v>5.99883686062247</v>
       </c>
       <c r="I38">
-        <v>2.88844138689991</v>
+        <v>4.52222983972505</v>
       </c>
       <c r="J38">
-        <v>31.971748979393</v>
+        <v>36.0197380675102</v>
       </c>
       <c r="K38">
-        <v>11.990879487678</v>
+        <v>13.1282709968805</v>
       </c>
       <c r="L38">
-        <v>62.4888941572646</v>
+        <v>72.6003744162324</v>
       </c>
       <c r="M38">
-        <v>22.3671706025611</v>
+        <v>22.1439185221647</v>
       </c>
       <c r="N38">
-        <v>19.6550876295041</v>
+        <v>20.0365133985485</v>
       </c>
       <c r="O38">
-        <v>1171.07184851319</v>
+        <v>1356.30544693541</v>
       </c>
       <c r="P38">
-        <v>56.8735686468285</v>
+        <v>83.7454944108359</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3656.81424938095</v>
+        <v>2963.55826350268</v>
       </c>
       <c r="C39">
-        <v>90.80701370671041</v>
+        <v>104.314888890694</v>
       </c>
       <c r="D39">
-        <v>69.2571518275355</v>
+        <v>78.84245087825229</v>
       </c>
       <c r="E39">
-        <v>144.397093489429</v>
+        <v>140.742610092136</v>
       </c>
       <c r="F39">
-        <v>35.2328443241525</v>
+        <v>39.0192840585808</v>
       </c>
       <c r="G39">
-        <v>90.2680121094547</v>
+        <v>101.158619369732</v>
       </c>
       <c r="H39">
-        <v>49.4137081750982</v>
+        <v>52.6078067388252</v>
       </c>
       <c r="I39">
-        <v>54.1998586979776</v>
+        <v>57.1294259952283</v>
       </c>
       <c r="J39">
-        <v>210.534807865705</v>
+        <v>213.085010671192</v>
       </c>
       <c r="K39">
-        <v>86.4526885671948</v>
+        <v>106.951447248754</v>
       </c>
       <c r="L39">
-        <v>118.413680370949</v>
+        <v>120.974601049925</v>
       </c>
       <c r="M39">
-        <v>69.8775113600432</v>
+        <v>72.5235468655691</v>
       </c>
       <c r="N39">
-        <v>98.6679181192096</v>
+        <v>105.410576570954</v>
       </c>
       <c r="O39">
-        <v>3901.00983452693</v>
+        <v>4513.42392532664</v>
       </c>
       <c r="P39">
-        <v>76.458570700216</v>
+        <v>81.9130346685273</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>331.806150596104</v>
+        <v>229.418151817784</v>
       </c>
       <c r="C40">
-        <v>3.00643823658582</v>
+        <v>5.0041255811305</v>
       </c>
       <c r="D40">
-        <v>7.98585880712458</v>
+        <v>11.9872518009174</v>
       </c>
       <c r="E40">
-        <v>8.8235399811556</v>
+        <v>6.97574485996251</v>
       </c>
       <c r="F40">
-        <v>0.773693944152949</v>
+        <v>0.586449035740914</v>
       </c>
       <c r="G40">
-        <v>4.29689812975825</v>
+        <v>4.71948863066436</v>
       </c>
       <c r="H40">
-        <v>4.50541707347021</v>
+        <v>5.78352933765571</v>
       </c>
       <c r="I40">
-        <v>2.00988190286217</v>
+        <v>3.2957665174495</v>
       </c>
       <c r="J40">
-        <v>13.3266458526181</v>
+        <v>15.4090293791275</v>
       </c>
       <c r="K40">
-        <v>3.95551367736315</v>
+        <v>4.81024129621168</v>
       </c>
       <c r="L40">
-        <v>16.5126798889559</v>
+        <v>17.8422788030394</v>
       </c>
       <c r="M40">
-        <v>4.67765917387725</v>
+        <v>6.59310072251367</v>
       </c>
       <c r="N40">
-        <v>18.0211296596674</v>
+        <v>25.0016701753444</v>
       </c>
       <c r="O40">
-        <v>366.236032897366</v>
+        <v>440.851551822635</v>
       </c>
       <c r="P40">
-        <v>1.71195096227497</v>
+        <v>1.90600787799266</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1188.19160611799</v>
+        <v>883.989587991941</v>
       </c>
       <c r="C41">
-        <v>19.1823414989589</v>
+        <v>21.1745744182883</v>
       </c>
       <c r="D41">
-        <v>92.36215239969511</v>
+        <v>111.697301865629</v>
       </c>
       <c r="E41">
-        <v>43.1351307186338</v>
+        <v>47.02070482422</v>
       </c>
       <c r="F41">
-        <v>3.78247606319764</v>
+        <v>4.70738016788207</v>
       </c>
       <c r="G41">
-        <v>25.061661883174</v>
+        <v>27.3293949947558</v>
       </c>
       <c r="H41">
-        <v>32.761684167202</v>
+        <v>34.6851478527603</v>
       </c>
       <c r="I41">
-        <v>10.8328450802058</v>
+        <v>9.38657434829485</v>
       </c>
       <c r="J41">
-        <v>41.8758637106293</v>
+        <v>52.5411337208301</v>
       </c>
       <c r="K41">
-        <v>32.4865025652023</v>
+        <v>39.5061743632149</v>
       </c>
       <c r="L41">
-        <v>27.2753615304696</v>
+        <v>32.528821215009</v>
       </c>
       <c r="M41">
-        <v>34.4487761711013</v>
+        <v>40.1034796822858</v>
       </c>
       <c r="N41">
-        <v>24.436155103461</v>
+        <v>22.6445834964856</v>
       </c>
       <c r="O41">
-        <v>1221.79046560613</v>
+        <v>1462.09666075051</v>
       </c>
       <c r="P41">
-        <v>18.081153102269</v>
+        <v>22.2772049677654</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>198.09901790177</v>
+        <v>133.787014763364</v>
       </c>
       <c r="C42">
-        <v>7.45873260760929</v>
+        <v>8.3256329926548</v>
       </c>
       <c r="D42">
-        <v>0.677338706297774</v>
+        <v>0.997382777476852</v>
       </c>
       <c r="E42">
-        <v>4.82697595561993</v>
+        <v>6.03371375521176</v>
       </c>
       <c r="F42">
-        <v>1.96553554310126</v>
+        <v>2.14899667226836</v>
       </c>
       <c r="G42">
-        <v>0.784197528972213</v>
+        <v>0.921279594227401</v>
       </c>
       <c r="H42">
-        <v>1.74305295121373</v>
+        <v>2.09858143264839</v>
       </c>
       <c r="I42">
-        <v>0.994634517451251</v>
+        <v>0.981259594610004</v>
       </c>
       <c r="J42">
-        <v>4.46269946021466</v>
+        <v>4.25116883730611</v>
       </c>
       <c r="K42">
-        <v>5.17656053478959</v>
+        <v>5.79494509941031</v>
       </c>
       <c r="L42">
-        <v>6.81832891543143</v>
+        <v>7.82075642098514</v>
       </c>
       <c r="M42">
-        <v>3.61338124387761</v>
+        <v>3.72992304003652</v>
       </c>
       <c r="N42">
-        <v>9.17257631551678</v>
+        <v>7.94120414872535</v>
       </c>
       <c r="O42">
-        <v>272.215617548574</v>
+        <v>322.128947617573</v>
       </c>
       <c r="P42">
-        <v>42.8454612885392</v>
+        <v>52.1929135767346</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1729.12117959545</v>
+        <v>1373.13201241095</v>
       </c>
       <c r="C43">
-        <v>45.6590161082072</v>
+        <v>47.6607400601722</v>
       </c>
       <c r="D43">
-        <v>41.3872528128785</v>
+        <v>59.1262761532484</v>
       </c>
       <c r="E43">
-        <v>71.6995529596504</v>
+        <v>70.63455145413271</v>
       </c>
       <c r="F43">
-        <v>6.76798611136423</v>
+        <v>7.0415466437162</v>
       </c>
       <c r="G43">
-        <v>33.4100014242678</v>
+        <v>33.0752653043885</v>
       </c>
       <c r="H43">
-        <v>31.8576613287604</v>
+        <v>33.5815886307878</v>
       </c>
       <c r="I43">
-        <v>16.4487229429694</v>
+        <v>20.6331333216834</v>
       </c>
       <c r="J43">
-        <v>63.9840781548569</v>
+        <v>70.08354636095881</v>
       </c>
       <c r="K43">
-        <v>48.1214604318527</v>
+        <v>55.8611831970765</v>
       </c>
       <c r="L43">
-        <v>50.55728934069</v>
+        <v>58.8542337812795</v>
       </c>
       <c r="M43">
-        <v>104.123984410713</v>
+        <v>104.541880742434</v>
       </c>
       <c r="N43">
-        <v>52.9789947067322</v>
+        <v>60.1253786708464</v>
       </c>
       <c r="O43">
-        <v>1735.45251688892</v>
+        <v>2024.88826026207</v>
       </c>
       <c r="P43">
-        <v>30.5404346574098</v>
+        <v>41.763593209393</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5721.64935025313</v>
+        <v>4724.39517095377</v>
       </c>
       <c r="C44">
-        <v>107.909008337349</v>
+        <v>121.769992083969</v>
       </c>
       <c r="D44">
-        <v>50.5007541831144</v>
+        <v>56.9806453359339</v>
       </c>
       <c r="E44">
-        <v>114.496443713972</v>
+        <v>111.621226222754</v>
       </c>
       <c r="F44">
-        <v>219.244126531628</v>
+        <v>227.365211519471</v>
       </c>
       <c r="G44">
-        <v>111.517707393086</v>
+        <v>119.185942453939</v>
       </c>
       <c r="H44">
-        <v>60.8143881346726</v>
+        <v>61.7847431337762</v>
       </c>
       <c r="I44">
-        <v>48.6049964691768</v>
+        <v>48.0101902480258</v>
       </c>
       <c r="J44">
-        <v>154.299468682524</v>
+        <v>155.514838292338</v>
       </c>
       <c r="K44">
-        <v>88.9696240832446</v>
+        <v>99.3428285846006</v>
       </c>
       <c r="L44">
-        <v>236.921946590174</v>
+        <v>249.633616368165</v>
       </c>
       <c r="M44">
-        <v>125.252176733042</v>
+        <v>128.602105304163</v>
       </c>
       <c r="N44">
-        <v>99.8312702191125</v>
+        <v>100.412577438992</v>
       </c>
       <c r="O44">
-        <v>6775.03210484149</v>
+        <v>7689.91560204687</v>
       </c>
       <c r="P44">
-        <v>164.009803863671</v>
+        <v>221.382273767855</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>536.687486503921</v>
+        <v>440.104167327861</v>
       </c>
       <c r="C45">
-        <v>14.6577825850067</v>
+        <v>17.896469011656</v>
       </c>
       <c r="D45">
-        <v>3.57249722663286</v>
+        <v>4.10304005604057</v>
       </c>
       <c r="E45">
-        <v>14.9911482426253</v>
+        <v>14.0591674173449</v>
       </c>
       <c r="F45">
-        <v>18.6282566066381</v>
+        <v>21.1406971945545</v>
       </c>
       <c r="G45">
-        <v>10.6895901870872</v>
+        <v>11.3141813888123</v>
       </c>
       <c r="H45">
-        <v>2.88418432645161</v>
+        <v>2.93727818113058</v>
       </c>
       <c r="I45">
-        <v>4.9183702569915</v>
+        <v>5.32996424180997</v>
       </c>
       <c r="J45">
-        <v>18.5573764309048</v>
+        <v>18.8156918045136</v>
       </c>
       <c r="K45">
-        <v>5.73709477544527</v>
+        <v>6.43154344462021</v>
       </c>
       <c r="L45">
-        <v>21.666876640985</v>
+        <v>20.4059638351594</v>
       </c>
       <c r="M45">
-        <v>24.8593044302578</v>
+        <v>26.0744662064764</v>
       </c>
       <c r="N45">
-        <v>27.4498184726208</v>
+        <v>28.3824200632349</v>
       </c>
       <c r="O45">
-        <v>744.184984241004</v>
+        <v>832.560236889486</v>
       </c>
       <c r="P45">
-        <v>16.362830590077</v>
+        <v>19.6198010445572</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>162.953870664959</v>
+        <v>113.785522450914</v>
       </c>
       <c r="C46">
-        <v>4.05593113763567</v>
+        <v>4.78502539621248</v>
       </c>
       <c r="D46">
-        <v>1.38352674701543</v>
+        <v>2.07614812965427</v>
       </c>
       <c r="E46">
-        <v>8.04618959714421</v>
+        <v>8.23107245860496</v>
       </c>
       <c r="F46">
-        <v>0.853547021635931</v>
+        <v>1.5605665421451</v>
       </c>
       <c r="G46">
-        <v>1.59783490944517</v>
+        <v>1.72834046671256</v>
       </c>
       <c r="H46">
-        <v>1.87280241187091</v>
+        <v>1.72367916098251</v>
       </c>
       <c r="I46">
-        <v>2.66386609944909</v>
+        <v>1.96869502308328</v>
       </c>
       <c r="J46">
-        <v>5.50399944705685</v>
+        <v>5.38262008916761</v>
       </c>
       <c r="K46">
-        <v>3.84759490802246</v>
+        <v>4.91475537695958</v>
       </c>
       <c r="L46">
-        <v>11.0492646500785</v>
+        <v>11.5152266467974</v>
       </c>
       <c r="M46">
-        <v>4.81030291465898</v>
+        <v>4.79362333313701</v>
       </c>
       <c r="N46">
-        <v>6.60843221097114</v>
+        <v>8.48751188416974</v>
       </c>
       <c r="O46">
-        <v>240.405983448012</v>
+        <v>277.901018215086</v>
       </c>
       <c r="P46">
-        <v>12.2017563156725</v>
+        <v>13.714170642612</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1848.76514996842</v>
+        <v>1479.42054276939</v>
       </c>
       <c r="C47">
-        <v>50.4541454247596</v>
+        <v>59.5079137813819</v>
       </c>
       <c r="D47">
-        <v>51.9354756709517</v>
+        <v>52.730483253972</v>
       </c>
       <c r="E47">
-        <v>64.74977926629001</v>
+        <v>65.5027875793439</v>
       </c>
       <c r="F47">
-        <v>15.6632587976009</v>
+        <v>14.7396391313077</v>
       </c>
       <c r="G47">
-        <v>29.5923903646115</v>
+        <v>30.8426208173037</v>
       </c>
       <c r="H47">
-        <v>22.6918411127432</v>
+        <v>22.0843290359279</v>
       </c>
       <c r="I47">
-        <v>12.468930261854</v>
+        <v>13.9157739433637</v>
       </c>
       <c r="J47">
-        <v>34.3429326079495</v>
+        <v>37.9364351954053</v>
       </c>
       <c r="K47">
-        <v>26.245942961669</v>
+        <v>28.2363924377784</v>
       </c>
       <c r="L47">
-        <v>52.0859266586333</v>
+        <v>55.4785252574863</v>
       </c>
       <c r="M47">
-        <v>74.3622507715872</v>
+        <v>76.1880324712855</v>
       </c>
       <c r="N47">
-        <v>47.9218930028345</v>
+        <v>49.1842977175336</v>
       </c>
       <c r="O47">
-        <v>2527.90450149687</v>
+        <v>2869.6794848515</v>
       </c>
       <c r="P47">
-        <v>34.4615107214172</v>
+        <v>45.8075395260355</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1661.37263479898</v>
+        <v>1310.8170001491</v>
       </c>
       <c r="C48">
-        <v>37.9534196761676</v>
+        <v>38.2012591609892</v>
       </c>
       <c r="D48">
-        <v>6.89641317833482</v>
+        <v>8.805043826677411</v>
       </c>
       <c r="E48">
-        <v>62.1126060421982</v>
+        <v>64.9822283788355</v>
       </c>
       <c r="F48">
-        <v>6.13017521285789</v>
+        <v>7.950215057877</v>
       </c>
       <c r="G48">
-        <v>7.47486455377899</v>
+        <v>8.38635884323914</v>
       </c>
       <c r="H48">
-        <v>8.42520835839578</v>
+        <v>6.95327660209338</v>
       </c>
       <c r="I48">
-        <v>8.401315017615151</v>
+        <v>9.352459889075771</v>
       </c>
       <c r="J48">
-        <v>32.7275273659803</v>
+        <v>34.2267103701029</v>
       </c>
       <c r="K48">
-        <v>15.8571998756355</v>
+        <v>21.1942737922422</v>
       </c>
       <c r="L48">
-        <v>43.2994150213325</v>
+        <v>46.3546862037895</v>
       </c>
       <c r="M48">
-        <v>133.579339941745</v>
+        <v>136.573237717039</v>
       </c>
       <c r="N48">
-        <v>30.8321395543614</v>
+        <v>32.3401101017309</v>
       </c>
       <c r="O48">
-        <v>2029.74644763986</v>
+        <v>2321.27679175227</v>
       </c>
       <c r="P48">
-        <v>64.77647187174669</v>
+        <v>98.7490337912089</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>736.381206179367</v>
+        <v>596.3671245239869</v>
       </c>
       <c r="C49">
-        <v>7.01097093603738</v>
+        <v>8.18455244241596</v>
       </c>
       <c r="D49">
-        <v>2.67376101828864</v>
+        <v>4.50035117161873</v>
       </c>
       <c r="E49">
-        <v>14.6300416703632</v>
+        <v>16.0401648857536</v>
       </c>
       <c r="F49">
-        <v>26.5090975061401</v>
+        <v>33.726273452688</v>
       </c>
       <c r="G49">
-        <v>15.970747534483</v>
+        <v>18.2368370413112</v>
       </c>
       <c r="H49">
-        <v>5.25783328523711</v>
+        <v>7.70263836493701</v>
       </c>
       <c r="I49">
-        <v>4.98383408066857</v>
+        <v>8.60884745064322</v>
       </c>
       <c r="J49">
-        <v>18.6167764597173</v>
+        <v>23.8605307928647</v>
       </c>
       <c r="K49">
-        <v>7.04201513550849</v>
+        <v>9.30582205506407</v>
       </c>
       <c r="L49">
-        <v>2.86456354842711</v>
+        <v>2.85098230285427</v>
       </c>
       <c r="M49">
-        <v>5.4772486853586</v>
+        <v>7.79612079533892</v>
       </c>
       <c r="N49">
-        <v>5.5610313458075</v>
+        <v>5.07241834065423</v>
       </c>
       <c r="O49">
-        <v>512.195476425634</v>
+        <v>633.099724805297</v>
       </c>
       <c r="P49">
-        <v>10.2151215025594</v>
+        <v>11.2483717717218</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1343.49496370458</v>
+        <v>960.462225330752</v>
       </c>
       <c r="C50">
-        <v>81.4658453854979</v>
+        <v>85.0982294208861</v>
       </c>
       <c r="D50">
-        <v>13.3999070869427</v>
+        <v>14.4218900129186</v>
       </c>
       <c r="E50">
-        <v>139.685352441919</v>
+        <v>144.838692246149</v>
       </c>
       <c r="F50">
-        <v>3.74513237978682</v>
+        <v>3.33945155270494</v>
       </c>
       <c r="G50">
-        <v>18.8178811757857</v>
+        <v>20.915611606302</v>
       </c>
       <c r="H50">
-        <v>42.9343776235212</v>
+        <v>47.520173251411</v>
       </c>
       <c r="I50">
-        <v>12.6001161504343</v>
+        <v>15.3285577334983</v>
       </c>
       <c r="J50">
-        <v>109.224246787483</v>
+        <v>126.000696181159</v>
       </c>
       <c r="K50">
-        <v>84.39406795503859</v>
+        <v>104.133007215223</v>
       </c>
       <c r="L50">
-        <v>57.1058941776233</v>
+        <v>68.15954910984461</v>
       </c>
       <c r="M50">
-        <v>61.0473317945796</v>
+        <v>58.6563018302832</v>
       </c>
       <c r="N50">
-        <v>53.5387419399676</v>
+        <v>59.0586129710687</v>
       </c>
       <c r="O50">
-        <v>1652.80361904316</v>
+        <v>1956.6475056405</v>
       </c>
       <c r="P50">
-        <v>119.011500742231</v>
+        <v>127.77405862941</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>161.021547396861</v>
+        <v>106.871900257595</v>
       </c>
       <c r="C51">
-        <v>0.989255331466921</v>
+        <v>1.46063333535045</v>
       </c>
       <c r="D51">
-        <v>0.364554583507631</v>
+        <v>0.136294595793087</v>
       </c>
       <c r="E51">
-        <v>2.24240720222502</v>
+        <v>2.44139668811146</v>
       </c>
       <c r="F51">
-        <v>25.550277404957</v>
+        <v>28.7257902679387</v>
       </c>
       <c r="G51">
-        <v>3.45302739853737</v>
+        <v>2.88215254331307</v>
       </c>
       <c r="H51">
-        <v>0.107956548224942</v>
+        <v>0.357459565756348</v>
       </c>
       <c r="I51">
-        <v>0.938987587523048</v>
+        <v>1.15144638513152</v>
       </c>
       <c r="J51">
-        <v>1.68843436617793</v>
+        <v>1.90510197482217</v>
       </c>
       <c r="K51">
-        <v>0.552318762552891</v>
+        <v>0.784906069186694</v>
       </c>
       <c r="L51">
-        <v>0.610989881919676</v>
+        <v>0.280742890531159</v>
       </c>
       <c r="M51">
-        <v>0.543912588492832</v>
+        <v>0.595479984216878</v>
       </c>
       <c r="N51">
-        <v>1.51067434395609</v>
+        <v>1.73125901020398</v>
       </c>
       <c r="O51">
-        <v>195.738389966133</v>
+        <v>233.033935166969</v>
       </c>
       <c r="P51">
-        <v>11.0282784734463</v>
+        <v>17.6530330057406</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1120.07994156688</v>
+        <v>450.271325529425</v>
       </c>
       <c r="C2">
-        <v>42.9160282953154</v>
+        <v>43.4180275825204</v>
       </c>
       <c r="D2">
-        <v>84.85899663500329</v>
+        <v>85.9598659227545</v>
       </c>
       <c r="E2">
-        <v>68.4172715617553</v>
+        <v>92.85704895685061</v>
       </c>
       <c r="F2">
-        <v>16.7278403952886</v>
+        <v>21.0704184514985</v>
       </c>
       <c r="G2">
-        <v>18.7415205564927</v>
+        <v>26.3397913170229</v>
       </c>
       <c r="H2">
-        <v>21.1063119978004</v>
+        <v>41.46808594931</v>
       </c>
       <c r="I2">
-        <v>13.3970127206451</v>
+        <v>23.5329870462614</v>
       </c>
       <c r="J2">
-        <v>68.6639516521593</v>
+        <v>86.26818782296959</v>
       </c>
       <c r="K2">
-        <v>22.0771647372491</v>
+        <v>26.4691155891033</v>
       </c>
       <c r="L2">
-        <v>39.7789969030072</v>
+        <v>45.0389073340186</v>
       </c>
       <c r="M2">
-        <v>43.2157921488173</v>
+        <v>59.0560331048821</v>
       </c>
       <c r="N2">
-        <v>29.9809510286673</v>
+        <v>32.3825741403461</v>
       </c>
       <c r="O2">
-        <v>1521.66920520228</v>
+        <v>2052.28437311469</v>
       </c>
       <c r="P2">
-        <v>37.3481885044921</v>
+        <v>49.0042836633554</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>138.409078787579</v>
+        <v>88.2130112744172</v>
       </c>
       <c r="C3">
-        <v>5.73682064844779</v>
+        <v>4.34606210331887</v>
       </c>
       <c r="D3">
-        <v>0.204718025146913</v>
+        <v>0.449359746171979</v>
       </c>
       <c r="E3">
-        <v>1.75324853433596</v>
+        <v>1.4944253629306</v>
       </c>
       <c r="F3">
-        <v>11.3289592938881</v>
+        <v>15.4741062817595</v>
       </c>
       <c r="G3">
-        <v>0.490119396649287</v>
+        <v>1.27400793505868</v>
       </c>
       <c r="H3">
-        <v>0.0453360674039509</v>
+        <v>0.108208498966959</v>
       </c>
       <c r="I3">
-        <v>0.32283578345942</v>
+        <v>0.695421403362406</v>
       </c>
       <c r="J3">
-        <v>0.65829340933841</v>
+        <v>0.696732830539947</v>
       </c>
       <c r="K3">
-        <v>0.131117922476372</v>
+        <v>0.393182976951763</v>
       </c>
       <c r="L3">
-        <v>0.314287775824286</v>
+        <v>0.271335704968964</v>
       </c>
       <c r="M3">
-        <v>1.0505567392999</v>
+        <v>1.59889581877067</v>
       </c>
       <c r="N3">
-        <v>0.965144581760179</v>
+        <v>1.46503939864536</v>
       </c>
       <c r="O3">
-        <v>288.483281748212</v>
+        <v>386.111691494112</v>
       </c>
       <c r="P3">
-        <v>13.5087250395099</v>
+        <v>14.1481983779097</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1237.98170624134</v>
+        <v>560.835632479697</v>
       </c>
       <c r="C4">
-        <v>12.0146898779884</v>
+        <v>15.989781042948</v>
       </c>
       <c r="D4">
-        <v>4.62858096159933</v>
+        <v>8.85489004752132</v>
       </c>
       <c r="E4">
-        <v>24.2362809769316</v>
+        <v>16.0086546089175</v>
       </c>
       <c r="F4">
-        <v>18.3462434451514</v>
+        <v>9.42952437858283</v>
       </c>
       <c r="G4">
-        <v>10.1920443283917</v>
+        <v>16.5629821215253</v>
       </c>
       <c r="H4">
-        <v>7.76739312350991</v>
+        <v>6.69388937423848</v>
       </c>
       <c r="I4">
-        <v>8.668594312567979</v>
+        <v>10.2557619637806</v>
       </c>
       <c r="J4">
-        <v>32.1956680615827</v>
+        <v>33.3915204434793</v>
       </c>
       <c r="K4">
-        <v>10.819092678563</v>
+        <v>11.324162352248</v>
       </c>
       <c r="L4">
-        <v>79.8277930158976</v>
+        <v>115.124501051657</v>
       </c>
       <c r="M4">
-        <v>52.635971974487</v>
+        <v>69.0165035092334</v>
       </c>
       <c r="N4">
-        <v>33.3145665290927</v>
+        <v>45.74052565795</v>
       </c>
       <c r="O4">
-        <v>2016.18413656445</v>
+        <v>2580.29093597768</v>
       </c>
       <c r="P4">
-        <v>44.9137144089437</v>
+        <v>42.247354539081</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>648.694420478159</v>
+        <v>250.329997453104</v>
       </c>
       <c r="C5">
-        <v>70.31451219406731</v>
+        <v>78.25454585763001</v>
       </c>
       <c r="D5">
-        <v>16.0093190317776</v>
+        <v>23.0583246065609</v>
       </c>
       <c r="E5">
-        <v>46.8243348969215</v>
+        <v>40.0744405743013</v>
       </c>
       <c r="F5">
-        <v>4.35709432767613</v>
+        <v>1.50238222664293</v>
       </c>
       <c r="G5">
-        <v>10.4362083194555</v>
+        <v>13.1063051342094</v>
       </c>
       <c r="H5">
-        <v>11.8986570783646</v>
+        <v>13.9821843530556</v>
       </c>
       <c r="I5">
-        <v>7.0037706928212</v>
+        <v>12.539441096872</v>
       </c>
       <c r="J5">
-        <v>34.167143762439</v>
+        <v>46.2142721482905</v>
       </c>
       <c r="K5">
-        <v>25.5907820063386</v>
+        <v>36.0361470957692</v>
       </c>
       <c r="L5">
-        <v>23.1758965666083</v>
+        <v>32.5962294103916</v>
       </c>
       <c r="M5">
-        <v>26.987844439859</v>
+        <v>20.718676740117</v>
       </c>
       <c r="N5">
-        <v>24.0095242206894</v>
+        <v>21.9977584163511</v>
       </c>
       <c r="O5">
-        <v>891.599434496968</v>
+        <v>1254.42530360263</v>
       </c>
       <c r="P5">
-        <v>58.6414009516312</v>
+        <v>52.2095165941956</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8210.35210754531</v>
+        <v>4083.78071801618</v>
       </c>
       <c r="C6">
-        <v>207.599251310299</v>
+        <v>193.980404484525</v>
       </c>
       <c r="D6">
-        <v>219.394659821876</v>
+        <v>329.987856220521</v>
       </c>
       <c r="E6">
-        <v>163.938825786165</v>
+        <v>120.592754414065</v>
       </c>
       <c r="F6">
-        <v>46.2285634243916</v>
+        <v>51.4486449910005</v>
       </c>
       <c r="G6">
-        <v>113.68324437827</v>
+        <v>166.510881451321</v>
       </c>
       <c r="H6">
-        <v>71.2686885890631</v>
+        <v>92.1536325039808</v>
       </c>
       <c r="I6">
-        <v>55.8725901313567</v>
+        <v>70.6906221093568</v>
       </c>
       <c r="J6">
-        <v>190.727463287016</v>
+        <v>230.127212412328</v>
       </c>
       <c r="K6">
-        <v>106.579434337889</v>
+        <v>179.870600369847</v>
       </c>
       <c r="L6">
-        <v>612.446068864158</v>
+        <v>628.325458086637</v>
       </c>
       <c r="M6">
-        <v>272.138021582579</v>
+        <v>421.59286988557</v>
       </c>
       <c r="N6">
-        <v>282.354010025056</v>
+        <v>412.110837705665</v>
       </c>
       <c r="O6">
-        <v>12362.0050074296</v>
+        <v>15817.6407290022</v>
       </c>
       <c r="P6">
-        <v>353.505232598533</v>
+        <v>284.023199798676</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>779.2450996876351</v>
+        <v>355.027623566464</v>
       </c>
       <c r="C7">
-        <v>28.9888659425858</v>
+        <v>41.1901567455422</v>
       </c>
       <c r="D7">
-        <v>6.16256716396917</v>
+        <v>6.87733323181899</v>
       </c>
       <c r="E7">
-        <v>19.4894548052094</v>
+        <v>12.8262958645419</v>
       </c>
       <c r="F7">
-        <v>19.2268298576636</v>
+        <v>17.9244775778364</v>
       </c>
       <c r="G7">
-        <v>9.293034469769721</v>
+        <v>12.6597802431462</v>
       </c>
       <c r="H7">
-        <v>8.29069595254399</v>
+        <v>13.3364577657953</v>
       </c>
       <c r="I7">
-        <v>12.5255573207895</v>
+        <v>12.0802057902642</v>
       </c>
       <c r="J7">
-        <v>18.7188273068211</v>
+        <v>23.8266617179466</v>
       </c>
       <c r="K7">
-        <v>16.3465497919115</v>
+        <v>25.521542553093</v>
       </c>
       <c r="L7">
-        <v>61.2668112090885</v>
+        <v>71.7337670796616</v>
       </c>
       <c r="M7">
-        <v>20.3894174080278</v>
+        <v>28.9072956048003</v>
       </c>
       <c r="N7">
-        <v>26.0757858690983</v>
+        <v>37.196794593604</v>
       </c>
       <c r="O7">
-        <v>1921.40408972464</v>
+        <v>2303.2228069208</v>
       </c>
       <c r="P7">
-        <v>51.7487856309076</v>
+        <v>26.9787863328371</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>692.273848436845</v>
+        <v>259.76798799307</v>
       </c>
       <c r="C8">
-        <v>11.6691454794895</v>
+        <v>17.5319819759824</v>
       </c>
       <c r="D8">
-        <v>11.9645598368045</v>
+        <v>11.5626646983563</v>
       </c>
       <c r="E8">
-        <v>22.0270552703127</v>
+        <v>12.3742146126754</v>
       </c>
       <c r="F8">
-        <v>2.14111467837516</v>
+        <v>3.46230641058994</v>
       </c>
       <c r="G8">
-        <v>31.682251255588</v>
+        <v>39.22496705363</v>
       </c>
       <c r="H8">
-        <v>10.1821732813166</v>
+        <v>18.3911349954519</v>
       </c>
       <c r="I8">
-        <v>3.26951734750477</v>
+        <v>1.57130803882656</v>
       </c>
       <c r="J8">
-        <v>51.6940142902522</v>
+        <v>55.4804181386256</v>
       </c>
       <c r="K8">
-        <v>27.9744729739975</v>
+        <v>54.0666893154492</v>
       </c>
       <c r="L8">
-        <v>48.2342732274294</v>
+        <v>59.9882270922507</v>
       </c>
       <c r="M8">
-        <v>55.6720365925561</v>
+        <v>81.9903097963124</v>
       </c>
       <c r="N8">
-        <v>21.554231018907</v>
+        <v>39.0698590543673</v>
       </c>
       <c r="O8">
-        <v>1404.30100574152</v>
+        <v>1741.97558671655</v>
       </c>
       <c r="P8">
-        <v>6.22750838661136</v>
+        <v>6.39457377074683</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>162.291416561101</v>
+        <v>66.4484013351283</v>
       </c>
       <c r="C9">
-        <v>10.238294795444</v>
+        <v>10.3073563236345</v>
       </c>
       <c r="D9">
-        <v>2.79169338742504</v>
+        <v>2.8947148837679</v>
       </c>
       <c r="E9">
-        <v>6.97549161007432</v>
+        <v>5.76318807219384</v>
       </c>
       <c r="F9">
-        <v>1.93084534801111</v>
+        <v>2.92179772695757</v>
       </c>
       <c r="G9">
-        <v>21.9220152452338</v>
+        <v>31.9141560566355</v>
       </c>
       <c r="H9">
-        <v>3.37748564269711</v>
+        <v>4.69922794756466</v>
       </c>
       <c r="I9">
-        <v>1.41848325446254</v>
+        <v>1.13363575284716</v>
       </c>
       <c r="J9">
-        <v>3.57527190533468</v>
+        <v>4.05912502288091</v>
       </c>
       <c r="K9">
-        <v>2.93163079409658</v>
+        <v>5.37388753963681</v>
       </c>
       <c r="L9">
-        <v>3.33378487709037</v>
+        <v>4.66392363478534</v>
       </c>
       <c r="M9">
-        <v>9.17713963182721</v>
+        <v>10.6082408174974</v>
       </c>
       <c r="N9">
-        <v>4.85915527102827</v>
+        <v>6.96308005209716</v>
       </c>
       <c r="O9">
-        <v>350.524639791791</v>
+        <v>470.586695096925</v>
       </c>
       <c r="P9">
-        <v>5.90634350913831</v>
+        <v>8.49850663221152</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4102.87030853652</v>
+        <v>1575.37052140775</v>
       </c>
       <c r="C10">
-        <v>58.9393319821549</v>
+        <v>66.9140710978558</v>
       </c>
       <c r="D10">
-        <v>39.7654439372981</v>
+        <v>51.4393023362206</v>
       </c>
       <c r="E10">
-        <v>69.97665828487691</v>
+        <v>51.4169498899316</v>
       </c>
       <c r="F10">
-        <v>15.9894995325712</v>
+        <v>12.1543549242355</v>
       </c>
       <c r="G10">
-        <v>36.6750099187607</v>
+        <v>44.6145667504338</v>
       </c>
       <c r="H10">
-        <v>19.3873381418231</v>
+        <v>24.6135406186597</v>
       </c>
       <c r="I10">
-        <v>29.0320724780899</v>
+        <v>44.6148148217772</v>
       </c>
       <c r="J10">
-        <v>54.8286465652632</v>
+        <v>57.850806940595</v>
       </c>
       <c r="K10">
-        <v>33.6227335172242</v>
+        <v>62.4029383988501</v>
       </c>
       <c r="L10">
-        <v>110.022190014048</v>
+        <v>157.970772245652</v>
       </c>
       <c r="M10">
-        <v>95.961436487694</v>
+        <v>124.652393080873</v>
       </c>
       <c r="N10">
-        <v>91.64995076689161</v>
+        <v>119.619792821816</v>
       </c>
       <c r="O10">
-        <v>6864.36177760096</v>
+        <v>9152.839077639521</v>
       </c>
       <c r="P10">
-        <v>125.443356984854</v>
+        <v>104.500482010403</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1745.89754204485</v>
+        <v>733.515902800875</v>
       </c>
       <c r="C11">
-        <v>82.4266034180914</v>
+        <v>83.3201441408383</v>
       </c>
       <c r="D11">
-        <v>151.566977541935</v>
+        <v>191.505731609111</v>
       </c>
       <c r="E11">
-        <v>104.751601616583</v>
+        <v>123.35361066443</v>
       </c>
       <c r="F11">
-        <v>13.7822563834746</v>
+        <v>9.99349654410439</v>
       </c>
       <c r="G11">
-        <v>37.1187308659283</v>
+        <v>47.096546905821</v>
       </c>
       <c r="H11">
-        <v>29.2187936684615</v>
+        <v>23.1365002709326</v>
       </c>
       <c r="I11">
-        <v>22.3513841277755</v>
+        <v>28.2585152187265</v>
       </c>
       <c r="J11">
-        <v>61.365629306911</v>
+        <v>58.7680780992807</v>
       </c>
       <c r="K11">
-        <v>39.8077232724958</v>
+        <v>55.4678547053309</v>
       </c>
       <c r="L11">
-        <v>71.417930081484</v>
+        <v>84.24654451525301</v>
       </c>
       <c r="M11">
-        <v>70.2391711293369</v>
+        <v>69.24957981788479</v>
       </c>
       <c r="N11">
-        <v>45.7200461366523</v>
+        <v>56.5263563714472</v>
       </c>
       <c r="O11">
-        <v>3137.0480834379</v>
+        <v>4052.76683386168</v>
       </c>
       <c r="P11">
-        <v>49.9129190797437</v>
+        <v>32.1603524153709</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>294.341138926251</v>
+        <v>134.068082259172</v>
       </c>
       <c r="C12">
-        <v>8.30479589866586</v>
+        <v>13.2105752165999</v>
       </c>
       <c r="D12">
-        <v>3.17385545673797</v>
+        <v>5.63583800082012</v>
       </c>
       <c r="E12">
-        <v>1.37006922222753</v>
+        <v>0.483903551271027</v>
       </c>
       <c r="F12">
-        <v>0.705694682366788</v>
+        <v>1.20881263706383</v>
       </c>
       <c r="G12">
-        <v>0.440738234606475</v>
+        <v>1.01302666399383</v>
       </c>
       <c r="H12">
-        <v>0.127722807817718</v>
+        <v>0.408262363450119</v>
       </c>
       <c r="I12">
-        <v>1.07655697857619</v>
+        <v>1.80973864245599</v>
       </c>
       <c r="J12">
-        <v>0.589229127671139</v>
+        <v>1.18642420420606</v>
       </c>
       <c r="K12">
-        <v>0.409638002175171</v>
+        <v>0.595882990980343</v>
       </c>
       <c r="L12">
-        <v>0.408677337912254</v>
+        <v>0.447362592085382</v>
       </c>
       <c r="M12">
-        <v>4.39606710813462</v>
+        <v>5.88682801158857</v>
       </c>
       <c r="N12">
-        <v>3.29069564829211</v>
+        <v>4.94572068768568</v>
       </c>
       <c r="O12">
-        <v>556.527828432501</v>
+        <v>752.856320829737</v>
       </c>
       <c r="P12">
-        <v>19.2884276920023</v>
+        <v>20.1286672420405</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>263.421604809365</v>
+        <v>126.56732092342</v>
       </c>
       <c r="C13">
-        <v>26.1047833971114</v>
+        <v>33.7112798453054</v>
       </c>
       <c r="D13">
-        <v>1.78885525947339</v>
+        <v>1.75294741187205</v>
       </c>
       <c r="E13">
-        <v>19.0662463886211</v>
+        <v>19.1658869350857</v>
       </c>
       <c r="F13">
-        <v>4.40896264959369</v>
+        <v>5.28285807082056</v>
       </c>
       <c r="G13">
-        <v>5.67439061425394</v>
+        <v>7.60426448491268</v>
       </c>
       <c r="H13">
-        <v>1.75759679291606</v>
+        <v>2.30310397734658</v>
       </c>
       <c r="I13">
-        <v>1.54789557723534</v>
+        <v>1.96856793133795</v>
       </c>
       <c r="J13">
-        <v>5.83120632466029</v>
+        <v>5.8148503263136</v>
       </c>
       <c r="K13">
-        <v>3.17817158495524</v>
+        <v>5.61194166610978</v>
       </c>
       <c r="L13">
-        <v>23.2850847514705</v>
+        <v>33.4806604880421</v>
       </c>
       <c r="M13">
-        <v>3.31041274700891</v>
+        <v>4.7197914158354</v>
       </c>
       <c r="N13">
-        <v>8.55543483411021</v>
+        <v>9.96087946686006</v>
       </c>
       <c r="O13">
-        <v>488.451763571254</v>
+        <v>620.167934686197</v>
       </c>
       <c r="P13">
-        <v>53.3588868640988</v>
+        <v>54.8221237853702</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2672.75547966487</v>
+        <v>1195.37637691106</v>
       </c>
       <c r="C14">
-        <v>114.190468473396</v>
+        <v>132.218884413885</v>
       </c>
       <c r="D14">
-        <v>18.9893374176582</v>
+        <v>20.8021545016996</v>
       </c>
       <c r="E14">
-        <v>113.444453448391</v>
+        <v>62.10360443016</v>
       </c>
       <c r="F14">
-        <v>31.1070552163871</v>
+        <v>18.3666872767307</v>
       </c>
       <c r="G14">
-        <v>90.84111414701501</v>
+        <v>133.080081048332</v>
       </c>
       <c r="H14">
-        <v>71.57605284969419</v>
+        <v>75.5089555967086</v>
       </c>
       <c r="I14">
-        <v>27.2400565291737</v>
+        <v>35.6602620201954</v>
       </c>
       <c r="J14">
-        <v>191.564030737804</v>
+        <v>167.42850072308</v>
       </c>
       <c r="K14">
-        <v>172.84063524022</v>
+        <v>235.872362914726</v>
       </c>
       <c r="L14">
-        <v>152.478044675072</v>
+        <v>195.875978296622</v>
       </c>
       <c r="M14">
-        <v>100.122910364198</v>
+        <v>103.465519036765</v>
       </c>
       <c r="N14">
-        <v>95.284176970524</v>
+        <v>117.36118724927</v>
       </c>
       <c r="O14">
-        <v>4715.00693922801</v>
+        <v>6092.08290075216</v>
       </c>
       <c r="P14">
-        <v>91.4521821629826</v>
+        <v>44.6882254384297</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1233.7053017714</v>
+        <v>531.326613032918</v>
       </c>
       <c r="C15">
-        <v>44.2310396316255</v>
+        <v>37.9815127728501</v>
       </c>
       <c r="D15">
-        <v>11.5696382466566</v>
+        <v>16.5940306676506</v>
       </c>
       <c r="E15">
-        <v>66.09051503877041</v>
+        <v>66.0490792914609</v>
       </c>
       <c r="F15">
-        <v>12.6438014073385</v>
+        <v>14.2740525098188</v>
       </c>
       <c r="G15">
-        <v>42.4987408050965</v>
+        <v>53.8331180422863</v>
       </c>
       <c r="H15">
-        <v>55.6456614249776</v>
+        <v>58.6443492650486</v>
       </c>
       <c r="I15">
-        <v>31.8314526252605</v>
+        <v>57.6528659527962</v>
       </c>
       <c r="J15">
-        <v>165.409465890086</v>
+        <v>227.241257631212</v>
       </c>
       <c r="K15">
-        <v>69.5768749531324</v>
+        <v>121.688364859172</v>
       </c>
       <c r="L15">
-        <v>62.3953481864786</v>
+        <v>70.35243850856431</v>
       </c>
       <c r="M15">
-        <v>201.700411559963</v>
+        <v>172.538955382674</v>
       </c>
       <c r="N15">
-        <v>79.2248744589913</v>
+        <v>115.195176768992</v>
       </c>
       <c r="O15">
-        <v>2141.55683861512</v>
+        <v>2671.98002277985</v>
       </c>
       <c r="P15">
-        <v>44.4267762322873</v>
+        <v>51.7146622352671</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>506.464398454749</v>
+        <v>170.171892120564</v>
       </c>
       <c r="C16">
-        <v>67.7258627422336</v>
+        <v>76.92682511647909</v>
       </c>
       <c r="D16">
-        <v>9.540359843175681</v>
+        <v>20.6728106528487</v>
       </c>
       <c r="E16">
-        <v>26.0513091961195</v>
+        <v>20.0041197332761</v>
       </c>
       <c r="F16">
-        <v>4.59490043898137</v>
+        <v>5.33465977154182</v>
       </c>
       <c r="G16">
-        <v>12.8912003589573</v>
+        <v>18.3760687346317</v>
       </c>
       <c r="H16">
-        <v>19.1909555868163</v>
+        <v>17.7298759964048</v>
       </c>
       <c r="I16">
-        <v>9.00404565445276</v>
+        <v>10.5519848763049</v>
       </c>
       <c r="J16">
-        <v>45.6515272396709</v>
+        <v>48.1125566128801</v>
       </c>
       <c r="K16">
-        <v>57.5301382264839</v>
+        <v>66.48833736527909</v>
       </c>
       <c r="L16">
-        <v>38.210125260199</v>
+        <v>36.754873529849</v>
       </c>
       <c r="M16">
-        <v>28.0729365602703</v>
+        <v>16.0852597448116</v>
       </c>
       <c r="N16">
-        <v>21.9350806717286</v>
+        <v>33.5350765931237</v>
       </c>
       <c r="O16">
-        <v>1142.52446265384</v>
+        <v>1477.29328528843</v>
       </c>
       <c r="P16">
-        <v>100.954151543724</v>
+        <v>114.964933842472</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>514.053075961705</v>
+        <v>208.191725619259</v>
       </c>
       <c r="C17">
-        <v>32.4778750878121</v>
+        <v>27.5434334731332</v>
       </c>
       <c r="D17">
-        <v>5.31532393748019</v>
+        <v>9.963791512114209</v>
       </c>
       <c r="E17">
-        <v>22.1609673218312</v>
+        <v>11.2980315256146</v>
       </c>
       <c r="F17">
-        <v>15.931497207777</v>
+        <v>14.6828176264067</v>
       </c>
       <c r="G17">
-        <v>9.57216808259818</v>
+        <v>14.5199987007238</v>
       </c>
       <c r="H17">
-        <v>12.5646042776471</v>
+        <v>7.24510443872194</v>
       </c>
       <c r="I17">
-        <v>6.97419867381258</v>
+        <v>9.504758548308001</v>
       </c>
       <c r="J17">
-        <v>19.516759401247</v>
+        <v>21.3146202074201</v>
       </c>
       <c r="K17">
-        <v>22.4593912046685</v>
+        <v>30.2209514440738</v>
       </c>
       <c r="L17">
-        <v>14.175683560582</v>
+        <v>18.5315167970448</v>
       </c>
       <c r="M17">
-        <v>75.8452730487397</v>
+        <v>94.3097896607172</v>
       </c>
       <c r="N17">
-        <v>13.6506103870727</v>
+        <v>16.2403387517897</v>
       </c>
       <c r="O17">
-        <v>1048.45898111873</v>
+        <v>1372.33170856995</v>
       </c>
       <c r="P17">
-        <v>66.4196171778737</v>
+        <v>61.070910812928</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1025.44419303541</v>
+        <v>448.582983109235</v>
       </c>
       <c r="C18">
-        <v>37.9904890344512</v>
+        <v>41.9437985282575</v>
       </c>
       <c r="D18">
-        <v>20.7510721823528</v>
+        <v>19.1327312443365</v>
       </c>
       <c r="E18">
-        <v>46.7513183004744</v>
+        <v>35.6804475064486</v>
       </c>
       <c r="F18">
-        <v>33.76787384467</v>
+        <v>49.1896151034487</v>
       </c>
       <c r="G18">
-        <v>23.6791361872737</v>
+        <v>42.8015787457586</v>
       </c>
       <c r="H18">
-        <v>22.2960860853706</v>
+        <v>27.2049308612476</v>
       </c>
       <c r="I18">
-        <v>10.5911469309183</v>
+        <v>11.7868563679161</v>
       </c>
       <c r="J18">
-        <v>58.5597213782405</v>
+        <v>51.2112874942271</v>
       </c>
       <c r="K18">
-        <v>30.2882782281494</v>
+        <v>36.9705762775287</v>
       </c>
       <c r="L18">
-        <v>31.7162040660333</v>
+        <v>48.4816125445495</v>
       </c>
       <c r="M18">
-        <v>70.7247530944713</v>
+        <v>73.4300367705146</v>
       </c>
       <c r="N18">
-        <v>24.08306403997</v>
+        <v>24.2443239273904</v>
       </c>
       <c r="O18">
-        <v>1438.49117671858</v>
+        <v>1996.08984667071</v>
       </c>
       <c r="P18">
-        <v>44.1935448677836</v>
+        <v>52.1464714058191</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1151.650523399</v>
+        <v>549.838073933998</v>
       </c>
       <c r="C19">
-        <v>24.4767078928281</v>
+        <v>34.3152035083757</v>
       </c>
       <c r="D19">
-        <v>11.341811927552</v>
+        <v>15.4007674692698</v>
       </c>
       <c r="E19">
-        <v>37.6501144487923</v>
+        <v>26.812675600905</v>
       </c>
       <c r="F19">
-        <v>81.32793580130461</v>
+        <v>105.803726674539</v>
       </c>
       <c r="G19">
-        <v>40.5245804927041</v>
+        <v>49.1023196848115</v>
       </c>
       <c r="H19">
-        <v>7.79647599522162</v>
+        <v>7.76880022332127</v>
       </c>
       <c r="I19">
-        <v>8.168556975743369</v>
+        <v>12.6793735951911</v>
       </c>
       <c r="J19">
-        <v>22.2321586729893</v>
+        <v>14.7281741779761</v>
       </c>
       <c r="K19">
-        <v>16.8798701090454</v>
+        <v>24.2883013868145</v>
       </c>
       <c r="L19">
-        <v>6.71993409754713</v>
+        <v>9.002691294851999</v>
       </c>
       <c r="M19">
-        <v>30.4492411175805</v>
+        <v>32.3577658198375</v>
       </c>
       <c r="N19">
-        <v>7.24153216965605</v>
+        <v>6.73157340205426</v>
       </c>
       <c r="O19">
-        <v>1604.9678381619</v>
+        <v>2180.20839411666</v>
       </c>
       <c r="P19">
-        <v>51.949316341338</v>
+        <v>47.9744308918728</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>276.413574537022</v>
+        <v>107.402815399578</v>
       </c>
       <c r="C20">
-        <v>8.29351513293031</v>
+        <v>10.6971200292265</v>
       </c>
       <c r="D20">
-        <v>15.0859095438535</v>
+        <v>19.4052277488682</v>
       </c>
       <c r="E20">
-        <v>39.501005352842</v>
+        <v>40.9550550031224</v>
       </c>
       <c r="F20">
-        <v>0.198989939184397</v>
+        <v>0.161049343327076</v>
       </c>
       <c r="G20">
-        <v>1.43373999015885</v>
+        <v>1.44211461651453</v>
       </c>
       <c r="H20">
-        <v>1.87892550229723</v>
+        <v>4.63668124423786</v>
       </c>
       <c r="I20">
-        <v>0.957729736062218</v>
+        <v>0.579568691861306</v>
       </c>
       <c r="J20">
-        <v>6.5738138189451</v>
+        <v>5.27631671865829</v>
       </c>
       <c r="K20">
-        <v>4.11378059816158</v>
+        <v>6.05169376318152</v>
       </c>
       <c r="L20">
-        <v>8.72220577300463</v>
+        <v>11.3499835953765</v>
       </c>
       <c r="M20">
-        <v>17.44960124837</v>
+        <v>27.2459108211799</v>
       </c>
       <c r="N20">
-        <v>7.33830047898009</v>
+        <v>6.9410828294363</v>
       </c>
       <c r="O20">
-        <v>528.904238584662</v>
+        <v>697.292645120547</v>
       </c>
       <c r="P20">
-        <v>27.0301990256428</v>
+        <v>25.6978679200873</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1012.14666860678</v>
+        <v>426.279508917442</v>
       </c>
       <c r="C21">
-        <v>24.9205836531439</v>
+        <v>28.5548140742714</v>
       </c>
       <c r="D21">
-        <v>10.9369195716271</v>
+        <v>8.959604674729579</v>
       </c>
       <c r="E21">
-        <v>42.8107338971974</v>
+        <v>23.6728223067154</v>
       </c>
       <c r="F21">
-        <v>3.64796970144705</v>
+        <v>2.9636311372427</v>
       </c>
       <c r="G21">
-        <v>19.2672943001039</v>
+        <v>23.5614688361012</v>
       </c>
       <c r="H21">
-        <v>7.2568332673832</v>
+        <v>10.1323483482263</v>
       </c>
       <c r="I21">
-        <v>7.1211109068951</v>
+        <v>10.561469111624</v>
       </c>
       <c r="J21">
-        <v>25.1211567387646</v>
+        <v>17.4847823799947</v>
       </c>
       <c r="K21">
-        <v>14.7961249017064</v>
+        <v>27.2164661053971</v>
       </c>
       <c r="L21">
-        <v>38.6399734618369</v>
+        <v>33.2087607183043</v>
       </c>
       <c r="M21">
-        <v>26.5687827826426</v>
+        <v>34.7910288406033</v>
       </c>
       <c r="N21">
-        <v>17.9043913072658</v>
+        <v>20.9575881772275</v>
       </c>
       <c r="O21">
-        <v>2435.39427897383</v>
+        <v>3008.71925364422</v>
       </c>
       <c r="P21">
-        <v>20.8496887222088</v>
+        <v>27.2196256791436</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1293.22609881839</v>
+        <v>500.965548096214</v>
       </c>
       <c r="C22">
-        <v>21.7864956992092</v>
+        <v>23.5662561452777</v>
       </c>
       <c r="D22">
-        <v>30.4276304764244</v>
+        <v>36.0161601167998</v>
       </c>
       <c r="E22">
-        <v>54.4576629566854</v>
+        <v>33.4522703348478</v>
       </c>
       <c r="F22">
-        <v>1.94153401530008</v>
+        <v>2.2781233589482</v>
       </c>
       <c r="G22">
-        <v>28.4930197823387</v>
+        <v>36.7862339868887</v>
       </c>
       <c r="H22">
-        <v>23.962474997222</v>
+        <v>36.5840290514699</v>
       </c>
       <c r="I22">
-        <v>12.9347449134407</v>
+        <v>12.9669540433854</v>
       </c>
       <c r="J22">
-        <v>53.1332073387762</v>
+        <v>62.1571021287146</v>
       </c>
       <c r="K22">
-        <v>34.9393064432737</v>
+        <v>57.6632269194225</v>
       </c>
       <c r="L22">
-        <v>130.8191731219</v>
+        <v>137.627753260855</v>
       </c>
       <c r="M22">
-        <v>19.92406202053</v>
+        <v>24.8023571037327</v>
       </c>
       <c r="N22">
-        <v>60.5067540972509</v>
+        <v>106.216573039572</v>
       </c>
       <c r="O22">
-        <v>2680.784661513</v>
+        <v>3366.96764997919</v>
       </c>
       <c r="P22">
-        <v>19.7916965741817</v>
+        <v>23.4065200292287</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2217.75965014924</v>
+        <v>944.908800994345</v>
       </c>
       <c r="C23">
-        <v>51.0806227044661</v>
+        <v>55.6480004963802</v>
       </c>
       <c r="D23">
-        <v>16.9080720952716</v>
+        <v>21.3144936979549</v>
       </c>
       <c r="E23">
-        <v>73.08501831414191</v>
+        <v>43.0347395449965</v>
       </c>
       <c r="F23">
-        <v>7.24084362250695</v>
+        <v>1.21182553179306</v>
       </c>
       <c r="G23">
-        <v>58.1229212556478</v>
+        <v>83.8139879213556</v>
       </c>
       <c r="H23">
-        <v>72.34245878361</v>
+        <v>78.038978368285</v>
       </c>
       <c r="I23">
-        <v>25.1694491523638</v>
+        <v>29.8485040266578</v>
       </c>
       <c r="J23">
-        <v>173.354756477467</v>
+        <v>189.965231601645</v>
       </c>
       <c r="K23">
-        <v>120.661275810056</v>
+        <v>175.320210389586</v>
       </c>
       <c r="L23">
-        <v>45.0285183349984</v>
+        <v>59.9401434560271</v>
       </c>
       <c r="M23">
-        <v>539.326541808335</v>
+        <v>701.743274417896</v>
       </c>
       <c r="N23">
-        <v>80.3763731319283</v>
+        <v>110.089817821955</v>
       </c>
       <c r="O23">
-        <v>3436.6769922604</v>
+        <v>4456.17852649947</v>
       </c>
       <c r="P23">
-        <v>71.8737288932534</v>
+        <v>50.4007710632223</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>812.070498153115</v>
+        <v>327.703831996122</v>
       </c>
       <c r="C24">
-        <v>75.1792202576592</v>
+        <v>50.4339552056551</v>
       </c>
       <c r="D24">
-        <v>9.23325257979382</v>
+        <v>12.6464823536346</v>
       </c>
       <c r="E24">
-        <v>73.3828929305018</v>
+        <v>46.5871176186428</v>
       </c>
       <c r="F24">
-        <v>23.6013297160028</v>
+        <v>21.0202957843972</v>
       </c>
       <c r="G24">
-        <v>14.7330994578468</v>
+        <v>28.9438967950125</v>
       </c>
       <c r="H24">
-        <v>18.7235271683122</v>
+        <v>22.0733084102863</v>
       </c>
       <c r="I24">
-        <v>14.4962785245294</v>
+        <v>15.1876595445368</v>
       </c>
       <c r="J24">
-        <v>61.1786322434481</v>
+        <v>43.7447022740884</v>
       </c>
       <c r="K24">
-        <v>59.5007460973111</v>
+        <v>106.107592996774</v>
       </c>
       <c r="L24">
-        <v>75.0774248172922</v>
+        <v>71.12762830823949</v>
       </c>
       <c r="M24">
-        <v>27.1292085092393</v>
+        <v>16.6910037311145</v>
       </c>
       <c r="N24">
-        <v>60.3944602928404</v>
+        <v>94.1509329068968</v>
       </c>
       <c r="O24">
-        <v>1978.84194804726</v>
+        <v>2464.13964487507</v>
       </c>
       <c r="P24">
-        <v>130.846929404054</v>
+        <v>106.274302387536</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>733.711122835105</v>
+        <v>304.769747887511</v>
       </c>
       <c r="C25">
-        <v>39.9358403863722</v>
+        <v>55.1957115104005</v>
       </c>
       <c r="D25">
-        <v>26.3667915919345</v>
+        <v>26.0035470203822</v>
       </c>
       <c r="E25">
-        <v>40.2884154991997</v>
+        <v>53.8224511234894</v>
       </c>
       <c r="F25">
-        <v>14.6752080846633</v>
+        <v>34.4085812344534</v>
       </c>
       <c r="G25">
-        <v>8.656813299932301</v>
+        <v>10.572465497659</v>
       </c>
       <c r="H25">
-        <v>15.5462939413765</v>
+        <v>20.9682190429354</v>
       </c>
       <c r="I25">
-        <v>6.02674355576256</v>
+        <v>6.49404890601549</v>
       </c>
       <c r="J25">
-        <v>21.2083949671501</v>
+        <v>22.6393485295168</v>
       </c>
       <c r="K25">
-        <v>20.1090449656674</v>
+        <v>28.2960325329261</v>
       </c>
       <c r="L25">
-        <v>24.8364429830203</v>
+        <v>32.2500829843537</v>
       </c>
       <c r="M25">
-        <v>36.7299330641231</v>
+        <v>45.2819030727937</v>
       </c>
       <c r="N25">
-        <v>52.3910252631481</v>
+        <v>38.0753972442682</v>
       </c>
       <c r="O25">
-        <v>922.763445605692</v>
+        <v>1311.65111999671</v>
       </c>
       <c r="P25">
-        <v>45.0437863103162</v>
+        <v>53.508048431002</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1130.51319877095</v>
+        <v>434.854095426192</v>
       </c>
       <c r="C26">
-        <v>71.3774667521995</v>
+        <v>77.5260867094503</v>
       </c>
       <c r="D26">
-        <v>20.0598681398136</v>
+        <v>15.4224895820178</v>
       </c>
       <c r="E26">
-        <v>61.3020599683216</v>
+        <v>49.3334406164771</v>
       </c>
       <c r="F26">
-        <v>13.1316470952923</v>
+        <v>9.19356605075332</v>
       </c>
       <c r="G26">
-        <v>37.0846804999582</v>
+        <v>56.4877654255957</v>
       </c>
       <c r="H26">
-        <v>23.2841860156556</v>
+        <v>18.6346853639626</v>
       </c>
       <c r="I26">
-        <v>17.6056268321337</v>
+        <v>21.253646955919</v>
       </c>
       <c r="J26">
-        <v>64.96325778420631</v>
+        <v>66.16163425697449</v>
       </c>
       <c r="K26">
-        <v>42.9406795737523</v>
+        <v>61.1413003984309</v>
       </c>
       <c r="L26">
-        <v>45.5851273168713</v>
+        <v>37.7505350730549</v>
       </c>
       <c r="M26">
-        <v>80.5393492194569</v>
+        <v>79.8824301948405</v>
       </c>
       <c r="N26">
-        <v>38.7658227099959</v>
+        <v>40.4209282779612</v>
       </c>
       <c r="O26">
-        <v>2186.44378539463</v>
+        <v>2882.65441773961</v>
       </c>
       <c r="P26">
-        <v>82.8036542403897</v>
+        <v>58.1575130019527</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>200.169659825274</v>
+        <v>89.58400251321891</v>
       </c>
       <c r="C27">
-        <v>3.88910957602021</v>
+        <v>4.90528557608716</v>
       </c>
       <c r="D27">
-        <v>1.1222492979565</v>
+        <v>1.10451484946091</v>
       </c>
       <c r="E27">
-        <v>12.2416856881357</v>
+        <v>16.4258603396399</v>
       </c>
       <c r="F27">
-        <v>7.81959813428763</v>
+        <v>8.520253937897429</v>
       </c>
       <c r="G27">
-        <v>0.690288989353712</v>
+        <v>0.46860845745802</v>
       </c>
       <c r="H27">
-        <v>0.214143257759007</v>
+        <v>0.258098255386935</v>
       </c>
       <c r="I27">
-        <v>1.97996624150365</v>
+        <v>3.41095635000776</v>
       </c>
       <c r="J27">
-        <v>3.67870603625699</v>
+        <v>4.95902987294595</v>
       </c>
       <c r="K27">
-        <v>1.86547936109037</v>
+        <v>2.35870250236125</v>
       </c>
       <c r="L27">
-        <v>1.50475744874265</v>
+        <v>2.69170027093936</v>
       </c>
       <c r="M27">
-        <v>0.877531076633866</v>
+        <v>1.64971833046564</v>
       </c>
       <c r="N27">
-        <v>4.14477089200772</v>
+        <v>7.18430365610386</v>
       </c>
       <c r="O27">
-        <v>386.470358034476</v>
+        <v>512.396213107717</v>
       </c>
       <c r="P27">
-        <v>50.8015656267974</v>
+        <v>55.0440856522878</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>295.444963332292</v>
+        <v>105.82702270003</v>
       </c>
       <c r="C28">
-        <v>38.5358808549388</v>
+        <v>34.1746017399864</v>
       </c>
       <c r="D28">
-        <v>2.05631548197386</v>
+        <v>3.16773616888007</v>
       </c>
       <c r="E28">
-        <v>8.912958204852981</v>
+        <v>6.15510935906201</v>
       </c>
       <c r="F28">
-        <v>2.28454241043256</v>
+        <v>3.14988215378183</v>
       </c>
       <c r="G28">
-        <v>4.33740109948659</v>
+        <v>7.60996832141091</v>
       </c>
       <c r="H28">
-        <v>7.00022021072539</v>
+        <v>10.3636899959798</v>
       </c>
       <c r="I28">
-        <v>4.09435952515488</v>
+        <v>4.34691480875669</v>
       </c>
       <c r="J28">
-        <v>16.5803498036945</v>
+        <v>18.2519034814813</v>
       </c>
       <c r="K28">
-        <v>18.196466971091</v>
+        <v>18.5885156946959</v>
       </c>
       <c r="L28">
-        <v>14.9123177498812</v>
+        <v>15.9480627048608</v>
       </c>
       <c r="M28">
-        <v>9.318317275764651</v>
+        <v>7.83744631194347</v>
       </c>
       <c r="N28">
-        <v>10.8403856616877</v>
+        <v>13.0379189491625</v>
       </c>
       <c r="O28">
-        <v>690.921613786046</v>
+        <v>908.48182433209</v>
       </c>
       <c r="P28">
-        <v>92.2640051032448</v>
+        <v>93.9631314169645</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>443.800099515059</v>
+        <v>196.227082244284</v>
       </c>
       <c r="C29">
-        <v>4.63310227577844</v>
+        <v>4.92860193877708</v>
       </c>
       <c r="D29">
-        <v>1.74886105614903</v>
+        <v>4.13022125882079</v>
       </c>
       <c r="E29">
-        <v>6.51487859023498</v>
+        <v>3.19982285746038</v>
       </c>
       <c r="F29">
-        <v>17.3880004896844</v>
+        <v>18.960496566105</v>
       </c>
       <c r="G29">
-        <v>3.00858599837477</v>
+        <v>4.30756861067016</v>
       </c>
       <c r="H29">
-        <v>2.55896550471998</v>
+        <v>2.90676374595865</v>
       </c>
       <c r="I29">
-        <v>3.74036843002492</v>
+        <v>6.53805725915164</v>
       </c>
       <c r="J29">
-        <v>6.5173637269687</v>
+        <v>5.51776114895263</v>
       </c>
       <c r="K29">
-        <v>3.35845731247085</v>
+        <v>5.04096271016837</v>
       </c>
       <c r="L29">
-        <v>4.56032679950689</v>
+        <v>3.63949601626045</v>
       </c>
       <c r="M29">
-        <v>2.05447680347234</v>
+        <v>1.62165742663026</v>
       </c>
       <c r="N29">
-        <v>11.3546205028439</v>
+        <v>12.8885616484481</v>
       </c>
       <c r="O29">
-        <v>944.219900732906</v>
+        <v>1220.39832608274</v>
       </c>
       <c r="P29">
-        <v>4.80069659341936</v>
+        <v>3.50901940012327</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>222.901034080898</v>
+        <v>90.8069507889733</v>
       </c>
       <c r="C30">
-        <v>3.51044021608172</v>
+        <v>4.80545404306149</v>
       </c>
       <c r="D30">
-        <v>5.91512198636167</v>
+        <v>8.002856215921909</v>
       </c>
       <c r="E30">
-        <v>14.5183444597672</v>
+        <v>9.53075257337575</v>
       </c>
       <c r="F30">
-        <v>0.551544960000192</v>
+        <v>0.40347116139436</v>
       </c>
       <c r="G30">
-        <v>4.06132252379719</v>
+        <v>4.29984347743769</v>
       </c>
       <c r="H30">
-        <v>5.65805282070989</v>
+        <v>8.54973192852535</v>
       </c>
       <c r="I30">
-        <v>3.16438230887517</v>
+        <v>4.0746583215152</v>
       </c>
       <c r="J30">
-        <v>19.6476130520702</v>
+        <v>17.3050656026197</v>
       </c>
       <c r="K30">
-        <v>11.4060493622808</v>
+        <v>22.4081232211559</v>
       </c>
       <c r="L30">
-        <v>38.5043065036736</v>
+        <v>49.5266449651817</v>
       </c>
       <c r="M30">
-        <v>9.341963628895121</v>
+        <v>12.2340460422214</v>
       </c>
       <c r="N30">
-        <v>16.7827089682849</v>
+        <v>19.3537710733879</v>
       </c>
       <c r="O30">
-        <v>537.93785013963</v>
+        <v>671.26981654593</v>
       </c>
       <c r="P30">
-        <v>7.86732659067518</v>
+        <v>9.05789968534539</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1956.41886305072</v>
+        <v>908.767471580348</v>
       </c>
       <c r="C31">
-        <v>45.7277266025681</v>
+        <v>53.7029890723532</v>
       </c>
       <c r="D31">
-        <v>50.9568722214566</v>
+        <v>62.9739668044061</v>
       </c>
       <c r="E31">
-        <v>53.5971018509299</v>
+        <v>26.6486187633088</v>
       </c>
       <c r="F31">
-        <v>8.46302976257339</v>
+        <v>9.372145938526501</v>
       </c>
       <c r="G31">
-        <v>139.291635536299</v>
+        <v>173.87360831595</v>
       </c>
       <c r="H31">
-        <v>28.1231365913526</v>
+        <v>35.018073223185</v>
       </c>
       <c r="I31">
-        <v>18.8503950833198</v>
+        <v>34.7646265137351</v>
       </c>
       <c r="J31">
-        <v>49.3917755459491</v>
+        <v>47.1756191996908</v>
       </c>
       <c r="K31">
-        <v>30.7428013557254</v>
+        <v>49.6005133378773</v>
       </c>
       <c r="L31">
-        <v>80.7746675643307</v>
+        <v>76.41459316388971</v>
       </c>
       <c r="M31">
-        <v>22.0999675330952</v>
+        <v>25.2785382065824</v>
       </c>
       <c r="N31">
-        <v>51.7181265283914</v>
+        <v>70.5581740638862</v>
       </c>
       <c r="O31">
-        <v>3431.74663138312</v>
+        <v>4376.81349685572</v>
       </c>
       <c r="P31">
-        <v>10.3116372106534</v>
+        <v>5.71095344417835</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>452.676637899002</v>
+        <v>215.484632382978</v>
       </c>
       <c r="C32">
-        <v>6.38225057244602</v>
+        <v>6.39180829203975</v>
       </c>
       <c r="D32">
-        <v>1.68776003628687</v>
+        <v>3.41051150574494</v>
       </c>
       <c r="E32">
-        <v>6.25225997093034</v>
+        <v>3.0770880307735</v>
       </c>
       <c r="F32">
-        <v>24.59609639801</v>
+        <v>41.6816729915084</v>
       </c>
       <c r="G32">
-        <v>1.70781276280686</v>
+        <v>2.11150235150486</v>
       </c>
       <c r="H32">
-        <v>0.619892245871873</v>
+        <v>2.77950609499555</v>
       </c>
       <c r="I32">
-        <v>6.09023450231395</v>
+        <v>6.97854618330024</v>
       </c>
       <c r="J32">
-        <v>4.78235424692288</v>
+        <v>3.90911172511452</v>
       </c>
       <c r="K32">
-        <v>3.73058817257805</v>
+        <v>7.55446502447615</v>
       </c>
       <c r="L32">
-        <v>13.9653263320201</v>
+        <v>15.5254091784336</v>
       </c>
       <c r="M32">
-        <v>3.79570184555851</v>
+        <v>3.87266003206051</v>
       </c>
       <c r="N32">
-        <v>10.4665145806912</v>
+        <v>14.6741509802248</v>
       </c>
       <c r="O32">
-        <v>719.040914299611</v>
+        <v>935.0405564498</v>
       </c>
       <c r="P32">
-        <v>24.6107384127515</v>
+        <v>28.1653066469502</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4796.92080279267</v>
+        <v>2292.16723151817</v>
       </c>
       <c r="C33">
-        <v>90.524653362973</v>
+        <v>97.25145999875279</v>
       </c>
       <c r="D33">
-        <v>123.158201219178</v>
+        <v>161.737175762405</v>
       </c>
       <c r="E33">
-        <v>108.565432379608</v>
+        <v>42.8419692670087</v>
       </c>
       <c r="F33">
-        <v>9.8694145467543</v>
+        <v>11.9237991089545</v>
       </c>
       <c r="G33">
-        <v>84.93166291536549</v>
+        <v>76.02276691153649</v>
       </c>
       <c r="H33">
-        <v>40.8371258812869</v>
+        <v>49.2134200802068</v>
       </c>
       <c r="I33">
-        <v>38.5972035118682</v>
+        <v>43.8976683605147</v>
       </c>
       <c r="J33">
-        <v>110.999168655137</v>
+        <v>116.975212418193</v>
       </c>
       <c r="K33">
-        <v>126.290710775918</v>
+        <v>134.69291217703</v>
       </c>
       <c r="L33">
-        <v>155.959251434423</v>
+        <v>183.859238370506</v>
       </c>
       <c r="M33">
-        <v>80.6036689461001</v>
+        <v>102.598774367948</v>
       </c>
       <c r="N33">
-        <v>134.050203303386</v>
+        <v>233.994478652828</v>
       </c>
       <c r="O33">
-        <v>7385.1457498865</v>
+        <v>9687.093778296599</v>
       </c>
       <c r="P33">
-        <v>82.89463000346019</v>
+        <v>62.994811903567</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1769.9800650662</v>
+        <v>702.866663076447</v>
       </c>
       <c r="C34">
-        <v>75.04136436302051</v>
+        <v>97.30375674529721</v>
       </c>
       <c r="D34">
-        <v>222.160630050427</v>
+        <v>269.293697177535</v>
       </c>
       <c r="E34">
-        <v>79.6426994419996</v>
+        <v>68.4605481225579</v>
       </c>
       <c r="F34">
-        <v>6.88598594953115</v>
+        <v>6.34277023699432</v>
       </c>
       <c r="G34">
-        <v>58.2699583068536</v>
+        <v>80.0647034353253</v>
       </c>
       <c r="H34">
-        <v>44.1663966016313</v>
+        <v>62.498888328223</v>
       </c>
       <c r="I34">
-        <v>26.2672033841211</v>
+        <v>30.0162701782027</v>
       </c>
       <c r="J34">
-        <v>61.2248778820867</v>
+        <v>68.0334478201632</v>
       </c>
       <c r="K34">
-        <v>55.8631367227631</v>
+        <v>104.636215162284</v>
       </c>
       <c r="L34">
-        <v>110.255096027791</v>
+        <v>164.315541108417</v>
       </c>
       <c r="M34">
-        <v>56.5056060516066</v>
+        <v>57.6511110129655</v>
       </c>
       <c r="N34">
-        <v>131.36447110694</v>
+        <v>158.617817421904</v>
       </c>
       <c r="O34">
-        <v>2926.43247584282</v>
+        <v>3742.24094174491</v>
       </c>
       <c r="P34">
-        <v>70.9310121593813</v>
+        <v>85.02461150575969</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>119.202604022973</v>
+        <v>40.6356516449405</v>
       </c>
       <c r="C35">
-        <v>7.85097433907146</v>
+        <v>6.53530056876173</v>
       </c>
       <c r="D35">
-        <v>0.704865173782591</v>
+        <v>0.982331882087755</v>
       </c>
       <c r="E35">
-        <v>2.33424517759265</v>
+        <v>3.71290408564721</v>
       </c>
       <c r="F35">
-        <v>5.72583761009241</v>
+        <v>6.16678055014087</v>
       </c>
       <c r="G35">
-        <v>0.506449574611323</v>
+        <v>0.298094634176576</v>
       </c>
       <c r="H35">
-        <v>0.468277440160423</v>
+        <v>0.933783056460891</v>
       </c>
       <c r="I35">
-        <v>0.932154421778411</v>
+        <v>1.55161833181326</v>
       </c>
       <c r="J35">
-        <v>2.62813410380869</v>
+        <v>2.56105133050742</v>
       </c>
       <c r="K35">
-        <v>5.93759138896031</v>
+        <v>7.62701114032697</v>
       </c>
       <c r="L35">
-        <v>2.70815582470443</v>
+        <v>3.70474266528335</v>
       </c>
       <c r="M35">
-        <v>3.17250566592715</v>
+        <v>3.12874834915</v>
       </c>
       <c r="N35">
-        <v>2.60025230828816</v>
+        <v>2.86941035758953</v>
       </c>
       <c r="O35">
-        <v>268.333476836168</v>
+        <v>362.798981368808</v>
       </c>
       <c r="P35">
-        <v>47.7657956469756</v>
+        <v>48.5266786028314</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2467.0655177795</v>
+        <v>1040.1764982389</v>
       </c>
       <c r="C36">
-        <v>77.54780393524641</v>
+        <v>81.2245724136736</v>
       </c>
       <c r="D36">
-        <v>21.8165650764367</v>
+        <v>22.8891483160817</v>
       </c>
       <c r="E36">
-        <v>113.04296109501</v>
+        <v>64.9537563578791</v>
       </c>
       <c r="F36">
-        <v>29.2213197274008</v>
+        <v>48.6951553984059</v>
       </c>
       <c r="G36">
-        <v>82.51813685860979</v>
+        <v>126.407160429215</v>
       </c>
       <c r="H36">
-        <v>112.765149483653</v>
+        <v>133.131887196372</v>
       </c>
       <c r="I36">
-        <v>58.8885094609617</v>
+        <v>53.068159028553</v>
       </c>
       <c r="J36">
-        <v>258.700361293622</v>
+        <v>254.013322505375</v>
       </c>
       <c r="K36">
-        <v>136.853806013821</v>
+        <v>214.94739058709</v>
       </c>
       <c r="L36">
-        <v>109.778114222141</v>
+        <v>128.068608423922</v>
       </c>
       <c r="M36">
-        <v>259.903477027709</v>
+        <v>264.236764582526</v>
       </c>
       <c r="N36">
-        <v>88.7298758003831</v>
+        <v>111.370600708272</v>
       </c>
       <c r="O36">
-        <v>4128.66801628144</v>
+        <v>5409.48642587685</v>
       </c>
       <c r="P36">
-        <v>52.8931595551601</v>
+        <v>48.3294026570574</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>800.665469954487</v>
+        <v>328.488261995379</v>
       </c>
       <c r="C37">
-        <v>26.7844002029715</v>
+        <v>26.8329976610324</v>
       </c>
       <c r="D37">
-        <v>10.892479648157</v>
+        <v>13.9740715254297</v>
       </c>
       <c r="E37">
-        <v>17.492309675195</v>
+        <v>18.6877040698585</v>
       </c>
       <c r="F37">
-        <v>49.5267436739681</v>
+        <v>52.9368496619026</v>
       </c>
       <c r="G37">
-        <v>6.95622858524476</v>
+        <v>10.3128383152086</v>
       </c>
       <c r="H37">
-        <v>22.1955528201378</v>
+        <v>29.1520067594757</v>
       </c>
       <c r="I37">
-        <v>11.6598093478759</v>
+        <v>19.8108444259924</v>
       </c>
       <c r="J37">
-        <v>33.9141575030527</v>
+        <v>36.2602385986967</v>
       </c>
       <c r="K37">
-        <v>32.2021872013593</v>
+        <v>50.8229962529726</v>
       </c>
       <c r="L37">
-        <v>27.2182690059781</v>
+        <v>35.7768879700383</v>
       </c>
       <c r="M37">
-        <v>35.6214556236361</v>
+        <v>35.8839176765951</v>
       </c>
       <c r="N37">
-        <v>15.4833157906088</v>
+        <v>19.17525427142</v>
       </c>
       <c r="O37">
-        <v>1251.10829905162</v>
+        <v>1632.14459248028</v>
       </c>
       <c r="P37">
-        <v>54.0995210293903</v>
+        <v>64.8637310909791</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>752.805517626402</v>
+        <v>367.473023800222</v>
       </c>
       <c r="C38">
-        <v>25.3906549237316</v>
+        <v>31.014002136603</v>
       </c>
       <c r="D38">
-        <v>8.35639214773272</v>
+        <v>15.3790541831993</v>
       </c>
       <c r="E38">
-        <v>65.84785409443001</v>
+        <v>57.7605292714624</v>
       </c>
       <c r="F38">
-        <v>2.72847810317635</v>
+        <v>4.79047938683055</v>
       </c>
       <c r="G38">
-        <v>7.31619407208184</v>
+        <v>9.716905244327579</v>
       </c>
       <c r="H38">
-        <v>5.99883686062247</v>
+        <v>8.4736219285752</v>
       </c>
       <c r="I38">
-        <v>4.52222983972505</v>
+        <v>4.60001764926088</v>
       </c>
       <c r="J38">
-        <v>36.0197380675102</v>
+        <v>43.5256122562323</v>
       </c>
       <c r="K38">
-        <v>13.1282709968805</v>
+        <v>20.0841013270817</v>
       </c>
       <c r="L38">
-        <v>72.6003744162324</v>
+        <v>91.3978799723931</v>
       </c>
       <c r="M38">
-        <v>22.1439185221647</v>
+        <v>28.7753529862502</v>
       </c>
       <c r="N38">
-        <v>20.0365133985485</v>
+        <v>27.5101891322445</v>
       </c>
       <c r="O38">
-        <v>1356.30544693541</v>
+        <v>1677.18099104807</v>
       </c>
       <c r="P38">
-        <v>83.7454944108359</v>
+        <v>79.9256373749043</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2963.55826350268</v>
+        <v>1275.94818558826</v>
       </c>
       <c r="C39">
-        <v>104.314888890694</v>
+        <v>151.302258176008</v>
       </c>
       <c r="D39">
-        <v>78.84245087825229</v>
+        <v>79.5294971899225</v>
       </c>
       <c r="E39">
-        <v>140.742610092136</v>
+        <v>97.30092882885199</v>
       </c>
       <c r="F39">
-        <v>39.0192840585808</v>
+        <v>30.4199254912334</v>
       </c>
       <c r="G39">
-        <v>101.158619369732</v>
+        <v>147.286271942977</v>
       </c>
       <c r="H39">
-        <v>52.6078067388252</v>
+        <v>49.448662249868</v>
       </c>
       <c r="I39">
-        <v>57.1294259952283</v>
+        <v>60.8351747497338</v>
       </c>
       <c r="J39">
-        <v>213.085010671192</v>
+        <v>191.408376587528</v>
       </c>
       <c r="K39">
-        <v>106.951447248754</v>
+        <v>168.68081267886</v>
       </c>
       <c r="L39">
-        <v>120.974601049925</v>
+        <v>152.942517933454</v>
       </c>
       <c r="M39">
-        <v>72.5235468655691</v>
+        <v>83.97392148390109</v>
       </c>
       <c r="N39">
-        <v>105.410576570954</v>
+        <v>142.161053610689</v>
       </c>
       <c r="O39">
-        <v>4513.42392532664</v>
+        <v>6046.48798860632</v>
       </c>
       <c r="P39">
-        <v>81.9130346685273</v>
+        <v>63.5269144578559</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>229.418151817784</v>
+        <v>95.4995444968006</v>
       </c>
       <c r="C40">
-        <v>5.0041255811305</v>
+        <v>4.66305697093678</v>
       </c>
       <c r="D40">
-        <v>11.9872518009174</v>
+        <v>13.327936741897</v>
       </c>
       <c r="E40">
-        <v>6.97574485996251</v>
+        <v>2.89192491494371</v>
       </c>
       <c r="F40">
-        <v>0.586449035740914</v>
+        <v>1.13661201010682</v>
       </c>
       <c r="G40">
-        <v>4.71948863066436</v>
+        <v>7.74853787965942</v>
       </c>
       <c r="H40">
-        <v>5.78352933765571</v>
+        <v>11.2773815761205</v>
       </c>
       <c r="I40">
-        <v>3.2957665174495</v>
+        <v>2.6411258801185</v>
       </c>
       <c r="J40">
-        <v>15.4090293791275</v>
+        <v>14.9674506798497</v>
       </c>
       <c r="K40">
-        <v>4.81024129621168</v>
+        <v>12.743188117615</v>
       </c>
       <c r="L40">
-        <v>17.8422788030394</v>
+        <v>17.3281873232258</v>
       </c>
       <c r="M40">
-        <v>6.59310072251367</v>
+        <v>9.14907011097378</v>
       </c>
       <c r="N40">
-        <v>25.0016701753444</v>
+        <v>36.4652047780234</v>
       </c>
       <c r="O40">
-        <v>440.851551822635</v>
+        <v>584.042436936606</v>
       </c>
       <c r="P40">
-        <v>1.90600787799266</v>
+        <v>1.41397809718266</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>883.989587991941</v>
+        <v>336.694378491838</v>
       </c>
       <c r="C41">
-        <v>21.1745744182883</v>
+        <v>15.631711027416</v>
       </c>
       <c r="D41">
-        <v>111.697301865629</v>
+        <v>127.132308299494</v>
       </c>
       <c r="E41">
-        <v>47.02070482422</v>
+        <v>50.4767169336327</v>
       </c>
       <c r="F41">
-        <v>4.70738016788207</v>
+        <v>4.24460219184786</v>
       </c>
       <c r="G41">
-        <v>27.3293949947558</v>
+        <v>57.4040670827197</v>
       </c>
       <c r="H41">
-        <v>34.6851478527603</v>
+        <v>51.4620027692902</v>
       </c>
       <c r="I41">
-        <v>9.38657434829485</v>
+        <v>10.9402787146719</v>
       </c>
       <c r="J41">
-        <v>52.5411337208301</v>
+        <v>66.27904201115631</v>
       </c>
       <c r="K41">
-        <v>39.5061743632149</v>
+        <v>71.99224052371829</v>
       </c>
       <c r="L41">
-        <v>32.528821215009</v>
+        <v>37.0652857918504</v>
       </c>
       <c r="M41">
-        <v>40.1034796822858</v>
+        <v>44.0609121377238</v>
       </c>
       <c r="N41">
-        <v>22.6445834964856</v>
+        <v>30.8947671738014</v>
       </c>
       <c r="O41">
-        <v>1462.09666075051</v>
+        <v>1869.37712989804</v>
       </c>
       <c r="P41">
-        <v>22.2772049677654</v>
+        <v>26.4611650654475</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>133.787014763364</v>
+        <v>46.9122402378923</v>
       </c>
       <c r="C42">
-        <v>8.3256329926548</v>
+        <v>9.45635192654083</v>
       </c>
       <c r="D42">
-        <v>0.997382777476852</v>
+        <v>1.81180542603021</v>
       </c>
       <c r="E42">
-        <v>6.03371375521176</v>
+        <v>6.18708715169854</v>
       </c>
       <c r="F42">
-        <v>2.14899667226836</v>
+        <v>2.65697780080031</v>
       </c>
       <c r="G42">
-        <v>0.921279594227401</v>
+        <v>1.38150618688118</v>
       </c>
       <c r="H42">
-        <v>2.09858143264839</v>
+        <v>2.47468823167508</v>
       </c>
       <c r="I42">
-        <v>0.981259594610004</v>
+        <v>0.918327191700374</v>
       </c>
       <c r="J42">
-        <v>4.25116883730611</v>
+        <v>4.64766223887398</v>
       </c>
       <c r="K42">
-        <v>5.79494509941031</v>
+        <v>10.1476039365401</v>
       </c>
       <c r="L42">
-        <v>7.82075642098514</v>
+        <v>10.7651020316862</v>
       </c>
       <c r="M42">
-        <v>3.72992304003652</v>
+        <v>4.75377994109792</v>
       </c>
       <c r="N42">
-        <v>7.94120414872535</v>
+        <v>10.8179389998507</v>
       </c>
       <c r="O42">
-        <v>322.128947617573</v>
+        <v>445.602704060961</v>
       </c>
       <c r="P42">
-        <v>52.1929135767346</v>
+        <v>50.4803900772269</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1373.13201241095</v>
+        <v>604.9943382255671</v>
       </c>
       <c r="C43">
-        <v>47.6607400601722</v>
+        <v>42.5075087659786</v>
       </c>
       <c r="D43">
-        <v>59.1262761532484</v>
+        <v>70.8671072093275</v>
       </c>
       <c r="E43">
-        <v>70.63455145413271</v>
+        <v>46.0630461289007</v>
       </c>
       <c r="F43">
-        <v>7.0415466437162</v>
+        <v>13.069320061455</v>
       </c>
       <c r="G43">
-        <v>33.0752653043885</v>
+        <v>36.5810820387844</v>
       </c>
       <c r="H43">
-        <v>33.5815886307878</v>
+        <v>30.0931027746001</v>
       </c>
       <c r="I43">
-        <v>20.6331333216834</v>
+        <v>33.3215738871651</v>
       </c>
       <c r="J43">
-        <v>70.08354636095881</v>
+        <v>64.0244172941031</v>
       </c>
       <c r="K43">
-        <v>55.8611831970765</v>
+        <v>89.9214604174054</v>
       </c>
       <c r="L43">
-        <v>58.8542337812795</v>
+        <v>63.6517831583724</v>
       </c>
       <c r="M43">
-        <v>104.541880742434</v>
+        <v>98.3776482517051</v>
       </c>
       <c r="N43">
-        <v>60.1253786708464</v>
+        <v>93.8034484984791</v>
       </c>
       <c r="O43">
-        <v>2024.88826026207</v>
+        <v>2701.59318823731</v>
       </c>
       <c r="P43">
-        <v>41.763593209393</v>
+        <v>60.5234540102285</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4724.39517095377</v>
+        <v>2219.01008532263</v>
       </c>
       <c r="C44">
-        <v>121.769992083969</v>
+        <v>190.281385146498</v>
       </c>
       <c r="D44">
-        <v>56.9806453359339</v>
+        <v>80.2582803886299</v>
       </c>
       <c r="E44">
-        <v>111.621226222754</v>
+        <v>84.41182494270301</v>
       </c>
       <c r="F44">
-        <v>227.365211519471</v>
+        <v>280.718042537325</v>
       </c>
       <c r="G44">
-        <v>119.185942453939</v>
+        <v>170.672541977692</v>
       </c>
       <c r="H44">
-        <v>61.7847431337762</v>
+        <v>60.2253765701104</v>
       </c>
       <c r="I44">
-        <v>48.0101902480258</v>
+        <v>61.5655022210606</v>
       </c>
       <c r="J44">
-        <v>155.514838292338</v>
+        <v>173.548919851655</v>
       </c>
       <c r="K44">
-        <v>99.3428285846006</v>
+        <v>162.262050118267</v>
       </c>
       <c r="L44">
-        <v>249.633616368165</v>
+        <v>300.514851391097</v>
       </c>
       <c r="M44">
-        <v>128.602105304163</v>
+        <v>132.229533920288</v>
       </c>
       <c r="N44">
-        <v>100.412577438992</v>
+        <v>106.058407359745</v>
       </c>
       <c r="O44">
-        <v>7689.91560204687</v>
+        <v>9659.420146565841</v>
       </c>
       <c r="P44">
-        <v>221.382273767855</v>
+        <v>294.332679107194</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>440.104167327861</v>
+        <v>232.435527564514</v>
       </c>
       <c r="C45">
-        <v>17.896469011656</v>
+        <v>16.998733133013</v>
       </c>
       <c r="D45">
-        <v>4.10304005604057</v>
+        <v>6.16793446611872</v>
       </c>
       <c r="E45">
-        <v>14.0591674173449</v>
+        <v>6.21432960859857</v>
       </c>
       <c r="F45">
-        <v>21.1406971945545</v>
+        <v>27.2499947017154</v>
       </c>
       <c r="G45">
-        <v>11.3141813888123</v>
+        <v>13.3513915406219</v>
       </c>
       <c r="H45">
-        <v>2.93727818113058</v>
+        <v>5.680779322071</v>
       </c>
       <c r="I45">
-        <v>5.32996424180997</v>
+        <v>6.07798770420244</v>
       </c>
       <c r="J45">
-        <v>18.8156918045136</v>
+        <v>20.2288528699009</v>
       </c>
       <c r="K45">
-        <v>6.43154344462021</v>
+        <v>12.2060178074785</v>
       </c>
       <c r="L45">
-        <v>20.4059638351594</v>
+        <v>24.3471530608382</v>
       </c>
       <c r="M45">
-        <v>26.0744662064764</v>
+        <v>26.6571808194815</v>
       </c>
       <c r="N45">
-        <v>28.3824200632349</v>
+        <v>29.8532455902526</v>
       </c>
       <c r="O45">
-        <v>832.560236889486</v>
+        <v>1027.1892475406</v>
       </c>
       <c r="P45">
-        <v>19.6198010445572</v>
+        <v>16.0523243208127</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>113.785522450914</v>
+        <v>44.6319093435664</v>
       </c>
       <c r="C46">
-        <v>4.78502539621248</v>
+        <v>5.79220476036178</v>
       </c>
       <c r="D46">
-        <v>2.07614812965427</v>
+        <v>2.52809884614637</v>
       </c>
       <c r="E46">
-        <v>8.23107245860496</v>
+        <v>7.00193407592117</v>
       </c>
       <c r="F46">
-        <v>1.5605665421451</v>
+        <v>2.27938432548804</v>
       </c>
       <c r="G46">
-        <v>1.72834046671256</v>
+        <v>2.31612153265475</v>
       </c>
       <c r="H46">
-        <v>1.72367916098251</v>
+        <v>3.36329249138479</v>
       </c>
       <c r="I46">
-        <v>1.96869502308328</v>
+        <v>2.42136663600687</v>
       </c>
       <c r="J46">
-        <v>5.38262008916761</v>
+        <v>5.46091311869477</v>
       </c>
       <c r="K46">
-        <v>4.91475537695958</v>
+        <v>6.89358840222567</v>
       </c>
       <c r="L46">
-        <v>11.5152266467974</v>
+        <v>17.2656589359626</v>
       </c>
       <c r="M46">
-        <v>4.79362333313701</v>
+        <v>6.0309785264579</v>
       </c>
       <c r="N46">
-        <v>8.48751188416974</v>
+        <v>10.323229044675</v>
       </c>
       <c r="O46">
-        <v>277.901018215086</v>
+        <v>369.170386648551</v>
       </c>
       <c r="P46">
-        <v>13.714170642612</v>
+        <v>10.8802601760839</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1479.42054276939</v>
+        <v>630.956214771566</v>
       </c>
       <c r="C47">
-        <v>59.5079137813819</v>
+        <v>71.01304454608599</v>
       </c>
       <c r="D47">
-        <v>52.730483253972</v>
+        <v>43.3919293754785</v>
       </c>
       <c r="E47">
-        <v>65.5027875793439</v>
+        <v>43.2293299900056</v>
       </c>
       <c r="F47">
-        <v>14.7396391313077</v>
+        <v>9.735934612605631</v>
       </c>
       <c r="G47">
-        <v>30.8426208173037</v>
+        <v>40.2023915886011</v>
       </c>
       <c r="H47">
-        <v>22.0843290359279</v>
+        <v>23.7975566724615</v>
       </c>
       <c r="I47">
-        <v>13.9157739433637</v>
+        <v>17.3365634678027</v>
       </c>
       <c r="J47">
-        <v>37.9364351954053</v>
+        <v>60.0277816297054</v>
       </c>
       <c r="K47">
-        <v>28.2363924377784</v>
+        <v>32.9772696477216</v>
       </c>
       <c r="L47">
-        <v>55.4785252574863</v>
+        <v>71.6938234355618</v>
       </c>
       <c r="M47">
-        <v>76.1880324712855</v>
+        <v>90.1408927471838</v>
       </c>
       <c r="N47">
-        <v>49.1842977175336</v>
+        <v>46.6218719025036</v>
       </c>
       <c r="O47">
-        <v>2869.6794848515</v>
+        <v>3668.79668842498</v>
       </c>
       <c r="P47">
-        <v>45.8075395260355</v>
+        <v>41.3855349235168</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1310.8170001491</v>
+        <v>651.952691471104</v>
       </c>
       <c r="C48">
-        <v>38.2012591609892</v>
+        <v>22.2792869585735</v>
       </c>
       <c r="D48">
-        <v>8.805043826677411</v>
+        <v>14.5184735390413</v>
       </c>
       <c r="E48">
-        <v>64.9822283788355</v>
+        <v>77.0521940982313</v>
       </c>
       <c r="F48">
-        <v>7.950215057877</v>
+        <v>18.8712488376044</v>
       </c>
       <c r="G48">
-        <v>8.38635884323914</v>
+        <v>14.1576682388355</v>
       </c>
       <c r="H48">
-        <v>6.95327660209338</v>
+        <v>4.61227760728921</v>
       </c>
       <c r="I48">
-        <v>9.352459889075771</v>
+        <v>17.7505437309784</v>
       </c>
       <c r="J48">
-        <v>34.2267103701029</v>
+        <v>29.3133819291321</v>
       </c>
       <c r="K48">
-        <v>21.1942737922422</v>
+        <v>29.9287439820021</v>
       </c>
       <c r="L48">
-        <v>46.3546862037895</v>
+        <v>51.2616759266081</v>
       </c>
       <c r="M48">
-        <v>136.573237717039</v>
+        <v>180.626775676255</v>
       </c>
       <c r="N48">
-        <v>32.3401101017309</v>
+        <v>25.5729518875959</v>
       </c>
       <c r="O48">
-        <v>2321.27679175227</v>
+        <v>2893.49352741759</v>
       </c>
       <c r="P48">
-        <v>98.7490337912089</v>
+        <v>97.10888478940549</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>596.3671245239869</v>
+        <v>299.133618990665</v>
       </c>
       <c r="C49">
-        <v>8.18455244241596</v>
+        <v>7.54330132279783</v>
       </c>
       <c r="D49">
-        <v>4.50035117161873</v>
+        <v>9.2257376885514</v>
       </c>
       <c r="E49">
-        <v>16.0401648857536</v>
+        <v>17.3543682768437</v>
       </c>
       <c r="F49">
-        <v>33.726273452688</v>
+        <v>52.0026301321239</v>
       </c>
       <c r="G49">
-        <v>18.2368370413112</v>
+        <v>27.4855502647339</v>
       </c>
       <c r="H49">
-        <v>7.70263836493701</v>
+        <v>5.77468506182153</v>
       </c>
       <c r="I49">
-        <v>8.60884745064322</v>
+        <v>13.6667123784612</v>
       </c>
       <c r="J49">
-        <v>23.8605307928647</v>
+        <v>31.8959078427091</v>
       </c>
       <c r="K49">
-        <v>9.30582205506407</v>
+        <v>13.2407909945458</v>
       </c>
       <c r="L49">
-        <v>2.85098230285427</v>
+        <v>3.85264709671132</v>
       </c>
       <c r="M49">
-        <v>7.79612079533892</v>
+        <v>7.57481877347056</v>
       </c>
       <c r="N49">
-        <v>5.07241834065423</v>
+        <v>4.32266409832767</v>
       </c>
       <c r="O49">
-        <v>633.099724805297</v>
+        <v>901.69923664994</v>
       </c>
       <c r="P49">
-        <v>11.2483717717218</v>
+        <v>10.687246694818</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>960.462225330752</v>
+        <v>356.801437482408</v>
       </c>
       <c r="C50">
-        <v>85.0982294208861</v>
+        <v>98.4787325363545</v>
       </c>
       <c r="D50">
-        <v>14.4218900129186</v>
+        <v>14.5886141080096</v>
       </c>
       <c r="E50">
-        <v>144.838692246149</v>
+        <v>120.406219670169</v>
       </c>
       <c r="F50">
-        <v>3.33945155270494</v>
+        <v>2.96040859935772</v>
       </c>
       <c r="G50">
-        <v>20.915611606302</v>
+        <v>40.0635863714749</v>
       </c>
       <c r="H50">
-        <v>47.520173251411</v>
+        <v>41.4681750670345</v>
       </c>
       <c r="I50">
-        <v>15.3285577334983</v>
+        <v>18.7983791530698</v>
       </c>
       <c r="J50">
-        <v>126.000696181159</v>
+        <v>114.405153359359</v>
       </c>
       <c r="K50">
-        <v>104.133007215223</v>
+        <v>137.433718992755</v>
       </c>
       <c r="L50">
-        <v>68.15954910984461</v>
+        <v>100.857158419339</v>
       </c>
       <c r="M50">
-        <v>58.6563018302832</v>
+        <v>37.5812856150499</v>
       </c>
       <c r="N50">
-        <v>59.0586129710687</v>
+        <v>91.81441705140151</v>
       </c>
       <c r="O50">
-        <v>1956.6475056405</v>
+        <v>2547.9259126572</v>
       </c>
       <c r="P50">
-        <v>127.77405862941</v>
+        <v>80.40107936788171</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>106.871900257595</v>
+        <v>54.6037742251189</v>
       </c>
       <c r="C51">
-        <v>1.46063333535045</v>
+        <v>2.19651118618766</v>
       </c>
       <c r="D51">
-        <v>0.136294595793087</v>
+        <v>0.0701409264799515</v>
       </c>
       <c r="E51">
-        <v>2.44139668811146</v>
+        <v>1.64139950958077</v>
       </c>
       <c r="F51">
-        <v>28.7257902679387</v>
+        <v>38.9812851281863</v>
       </c>
       <c r="G51">
-        <v>2.88215254331307</v>
+        <v>1.82362108059237</v>
       </c>
       <c r="H51">
-        <v>0.357459565756348</v>
+        <v>0.389693092221673</v>
       </c>
       <c r="I51">
-        <v>1.15144638513152</v>
+        <v>1.73663690797967</v>
       </c>
       <c r="J51">
-        <v>1.90510197482217</v>
+        <v>2.73363817534182</v>
       </c>
       <c r="K51">
-        <v>0.784906069186694</v>
+        <v>1.6442772369681</v>
       </c>
       <c r="L51">
-        <v>0.280742890531159</v>
+        <v>0.458625071118361</v>
       </c>
       <c r="M51">
-        <v>0.595479984216878</v>
+        <v>0.771318341155056</v>
       </c>
       <c r="N51">
-        <v>1.73125901020398</v>
+        <v>2.10513601914873</v>
       </c>
       <c r="O51">
-        <v>233.033935166969</v>
+        <v>320.814675138864</v>
       </c>
       <c r="P51">
-        <v>17.6530330057406</v>
+        <v>22.2889541033932</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>450.271325529425</v>
+        <v>907.916606610992</v>
       </c>
       <c r="C2">
-        <v>43.4180275825204</v>
+        <v>36.7917360878359</v>
       </c>
       <c r="D2">
-        <v>85.9598659227545</v>
+        <v>70.6954016264348</v>
       </c>
       <c r="E2">
-        <v>92.85704895685061</v>
+        <v>76.4924436550177</v>
       </c>
       <c r="F2">
-        <v>21.0704184514985</v>
+        <v>17.0516268573247</v>
       </c>
       <c r="G2">
-        <v>26.3397913170229</v>
+        <v>21.8195722729799</v>
       </c>
       <c r="H2">
-        <v>41.46808594931</v>
+        <v>35.2003016637826</v>
       </c>
       <c r="I2">
-        <v>23.5329870462614</v>
+        <v>19.4653659196179</v>
       </c>
       <c r="J2">
-        <v>86.26818782296959</v>
+        <v>71.45111553931881</v>
       </c>
       <c r="K2">
-        <v>26.4691155891033</v>
+        <v>21.3330643442412</v>
       </c>
       <c r="L2">
-        <v>45.0389073340186</v>
+        <v>37.2696365419382</v>
       </c>
       <c r="M2">
-        <v>59.0560331048821</v>
+        <v>48.550755748434</v>
       </c>
       <c r="N2">
-        <v>32.3825741403461</v>
+        <v>26.8044557968665</v>
       </c>
       <c r="O2">
-        <v>2052.28437311469</v>
+        <v>1704.68962881533</v>
       </c>
       <c r="P2">
-        <v>49.0042836633554</v>
+        <v>39.8274340592156</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>88.2130112744172</v>
+        <v>131.466812562737</v>
       </c>
       <c r="C3">
-        <v>4.34606210331887</v>
+        <v>3.92895433719553</v>
       </c>
       <c r="D3">
-        <v>0.449359746171979</v>
+        <v>0.404159559355581</v>
       </c>
       <c r="E3">
-        <v>1.4944253629306</v>
+        <v>1.34462033623816</v>
       </c>
       <c r="F3">
-        <v>15.4741062817595</v>
+        <v>13.9297721940651</v>
       </c>
       <c r="G3">
-        <v>1.27400793505868</v>
+        <v>1.14656870799037</v>
       </c>
       <c r="H3">
-        <v>0.108208498966959</v>
+        <v>0.081177911699763</v>
       </c>
       <c r="I3">
-        <v>0.695421403362406</v>
+        <v>0.625627416315002</v>
       </c>
       <c r="J3">
-        <v>0.696732830539947</v>
+        <v>0.625805651403989</v>
       </c>
       <c r="K3">
-        <v>0.393182976951763</v>
+        <v>0.353439029844943</v>
       </c>
       <c r="L3">
-        <v>0.271335704968964</v>
+        <v>0.243761788245081</v>
       </c>
       <c r="M3">
-        <v>1.59889581877067</v>
+        <v>1.59603241305866</v>
       </c>
       <c r="N3">
-        <v>1.46503939864536</v>
+        <v>1.31775314121876</v>
       </c>
       <c r="O3">
-        <v>386.111691494112</v>
+        <v>347.077036978631</v>
       </c>
       <c r="P3">
-        <v>14.1481983779097</v>
+        <v>12.6657530624016</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>560.835632479697</v>
+        <v>959.443729326508</v>
       </c>
       <c r="C4">
-        <v>15.989781042948</v>
+        <v>13.8192825072076</v>
       </c>
       <c r="D4">
-        <v>8.85489004752132</v>
+        <v>7.65235049668751</v>
       </c>
       <c r="E4">
-        <v>16.0086546089175</v>
+        <v>13.8258999209014</v>
       </c>
       <c r="F4">
-        <v>9.42952437858283</v>
+        <v>8.15346037143892</v>
       </c>
       <c r="G4">
-        <v>16.5629821215253</v>
+        <v>13.7813977789143</v>
       </c>
       <c r="H4">
-        <v>6.69388937423848</v>
+        <v>5.27511143922866</v>
       </c>
       <c r="I4">
-        <v>10.2557619637806</v>
+        <v>8.516532445491951</v>
       </c>
       <c r="J4">
-        <v>33.3915204434793</v>
+        <v>28.4374031723221</v>
       </c>
       <c r="K4">
-        <v>11.324162352248</v>
+        <v>9.78829519686734</v>
       </c>
       <c r="L4">
-        <v>115.124501051657</v>
+        <v>98.72265555075821</v>
       </c>
       <c r="M4">
-        <v>69.0165035092334</v>
+        <v>59.7696545640393</v>
       </c>
       <c r="N4">
-        <v>45.74052565795</v>
+        <v>39.1171172649367</v>
       </c>
       <c r="O4">
-        <v>2580.29093597768</v>
+        <v>2239.50851770037</v>
       </c>
       <c r="P4">
-        <v>42.247354539081</v>
+        <v>36.2138229658243</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>250.329997453104</v>
+        <v>561.938184374296</v>
       </c>
       <c r="C5">
-        <v>78.25454585763001</v>
+        <v>63.7349411144259</v>
       </c>
       <c r="D5">
-        <v>23.0583246065609</v>
+        <v>18.6727908801954</v>
       </c>
       <c r="E5">
-        <v>40.0744405743013</v>
+        <v>33.1201020743986</v>
       </c>
       <c r="F5">
-        <v>1.50238222664293</v>
+        <v>1.21097023415631</v>
       </c>
       <c r="G5">
-        <v>13.1063051342094</v>
+        <v>10.6329939034187</v>
       </c>
       <c r="H5">
-        <v>13.9821843530556</v>
+        <v>11.3464784709004</v>
       </c>
       <c r="I5">
-        <v>12.539441096872</v>
+        <v>10.1791313988364</v>
       </c>
       <c r="J5">
-        <v>46.2142721482905</v>
+        <v>37.5101746435952</v>
       </c>
       <c r="K5">
-        <v>36.0361470957692</v>
+        <v>28.947032727026</v>
       </c>
       <c r="L5">
-        <v>32.5962294103916</v>
+        <v>26.1545302482905</v>
       </c>
       <c r="M5">
-        <v>20.718676740117</v>
+        <v>16.5455929063698</v>
       </c>
       <c r="N5">
-        <v>21.9977584163511</v>
+        <v>18.4021387762587</v>
       </c>
       <c r="O5">
-        <v>1254.42530360263</v>
+        <v>1016.25041766603</v>
       </c>
       <c r="P5">
-        <v>52.2095165941956</v>
+        <v>42.4330459394318</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>4083.78071801618</v>
+        <v>6128.48910832668</v>
       </c>
       <c r="C6">
-        <v>193.980404484525</v>
+        <v>174.563449479449</v>
       </c>
       <c r="D6">
-        <v>329.987856220521</v>
+        <v>292.999486085999</v>
       </c>
       <c r="E6">
-        <v>120.592754414065</v>
+        <v>107.447646117285</v>
       </c>
       <c r="F6">
-        <v>51.4486449910005</v>
+        <v>44.9840837795115</v>
       </c>
       <c r="G6">
-        <v>166.510881451321</v>
+        <v>150.605641038208</v>
       </c>
       <c r="H6">
-        <v>92.1536325039808</v>
+        <v>83.19365511457561</v>
       </c>
       <c r="I6">
-        <v>70.6906221093568</v>
+        <v>62.434104962846</v>
       </c>
       <c r="J6">
-        <v>230.127212412328</v>
+        <v>204.50418051195</v>
       </c>
       <c r="K6">
-        <v>179.870600369847</v>
+        <v>160.859834127637</v>
       </c>
       <c r="L6">
-        <v>628.325458086637</v>
+        <v>556.444232436472</v>
       </c>
       <c r="M6">
-        <v>421.59286988557</v>
+        <v>376.20267559654</v>
       </c>
       <c r="N6">
-        <v>412.110837705665</v>
+        <v>368.761533199382</v>
       </c>
       <c r="O6">
-        <v>15817.6407290022</v>
+        <v>14114.3460642125</v>
       </c>
       <c r="P6">
-        <v>284.023199798676</v>
+        <v>256.88908537662</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>355.027623566464</v>
+        <v>634.22488688924</v>
       </c>
       <c r="C7">
-        <v>41.1901567455422</v>
+        <v>36.4748757901504</v>
       </c>
       <c r="D7">
-        <v>6.87733323181899</v>
+        <v>6.15159091549061</v>
       </c>
       <c r="E7">
-        <v>12.8262958645419</v>
+        <v>11.4620779858061</v>
       </c>
       <c r="F7">
-        <v>17.9244775778364</v>
+        <v>16.0212904535266</v>
       </c>
       <c r="G7">
-        <v>12.6597802431462</v>
+        <v>11.3115082695125</v>
       </c>
       <c r="H7">
-        <v>13.3364577657953</v>
+        <v>11.9223063268115</v>
       </c>
       <c r="I7">
-        <v>12.0802057902642</v>
+        <v>10.807413345421</v>
       </c>
       <c r="J7">
-        <v>23.8266617179466</v>
+        <v>21.7171255163424</v>
       </c>
       <c r="K7">
-        <v>25.521542553093</v>
+        <v>22.6905140326124</v>
       </c>
       <c r="L7">
-        <v>71.7337670796616</v>
+        <v>63.4886003345509</v>
       </c>
       <c r="M7">
-        <v>28.9072956048003</v>
+        <v>25.8491606325141</v>
       </c>
       <c r="N7">
-        <v>37.196794593604</v>
+        <v>32.9518030885199</v>
       </c>
       <c r="O7">
-        <v>2303.2228069208</v>
+        <v>2060.0995768004</v>
       </c>
       <c r="P7">
-        <v>26.9787863328371</v>
+        <v>24.1226926522908</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>259.76798799307</v>
+        <v>484.111570037107</v>
       </c>
       <c r="C8">
-        <v>17.5319819759824</v>
+        <v>15.2237887078325</v>
       </c>
       <c r="D8">
-        <v>11.5626646983563</v>
+        <v>10.4228835557727</v>
       </c>
       <c r="E8">
-        <v>12.3742146126754</v>
+        <v>11.086445410763</v>
       </c>
       <c r="F8">
-        <v>3.46230641058994</v>
+        <v>3.10348007528476</v>
       </c>
       <c r="G8">
-        <v>39.22496705363</v>
+        <v>35.1871596960713</v>
       </c>
       <c r="H8">
-        <v>18.3911349954519</v>
+        <v>16.9035880822351</v>
       </c>
       <c r="I8">
-        <v>1.57130803882656</v>
+        <v>1.40706543203956</v>
       </c>
       <c r="J8">
-        <v>55.4804181386256</v>
+        <v>48.8956115703077</v>
       </c>
       <c r="K8">
-        <v>54.0666893154492</v>
+        <v>48.3919132662117</v>
       </c>
       <c r="L8">
-        <v>59.9882270922507</v>
+        <v>53.7192965820408</v>
       </c>
       <c r="M8">
-        <v>81.9903097963124</v>
+        <v>72.11336671728171</v>
       </c>
       <c r="N8">
-        <v>39.0698590543673</v>
+        <v>34.9954610092073</v>
       </c>
       <c r="O8">
-        <v>1741.97558671655</v>
+        <v>1561.49669362105</v>
       </c>
       <c r="P8">
-        <v>6.39457377074683</v>
+        <v>5.72385021473381</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>66.4484013351283</v>
+        <v>141.53080576522</v>
       </c>
       <c r="C9">
-        <v>10.3073563236345</v>
+        <v>8.93556404172644</v>
       </c>
       <c r="D9">
-        <v>2.8947148837679</v>
+        <v>2.50921984350091</v>
       </c>
       <c r="E9">
-        <v>5.76318807219384</v>
+        <v>4.99258555699383</v>
       </c>
       <c r="F9">
-        <v>2.92179772695757</v>
+        <v>2.531624115741</v>
       </c>
       <c r="G9">
-        <v>31.9141560566355</v>
+        <v>27.4882789295232</v>
       </c>
       <c r="H9">
-        <v>4.69922794756466</v>
+        <v>3.98735675315535</v>
       </c>
       <c r="I9">
-        <v>1.13363575284716</v>
+        <v>0.98377034333063</v>
       </c>
       <c r="J9">
-        <v>4.05912502288091</v>
+        <v>3.51119755598592</v>
       </c>
       <c r="K9">
-        <v>5.37388753963681</v>
+        <v>4.65600658178485</v>
       </c>
       <c r="L9">
-        <v>4.66392363478534</v>
+        <v>4.04261336090778</v>
       </c>
       <c r="M9">
-        <v>10.6082408174974</v>
+        <v>9.10494062148369</v>
       </c>
       <c r="N9">
-        <v>6.96308005209716</v>
+        <v>6.03592254515435</v>
       </c>
       <c r="O9">
-        <v>470.586695096925</v>
+        <v>409.288032248984</v>
       </c>
       <c r="P9">
-        <v>8.49850663221152</v>
+        <v>7.25626163842588</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1575.37052140775</v>
+        <v>3000.41103347391</v>
       </c>
       <c r="C10">
-        <v>66.9140710978558</v>
+        <v>57.3268186682793</v>
       </c>
       <c r="D10">
-        <v>51.4393023362206</v>
+        <v>43.7292179305891</v>
       </c>
       <c r="E10">
-        <v>51.4169498899316</v>
+        <v>43.4219550323283</v>
       </c>
       <c r="F10">
-        <v>12.1543549242355</v>
+        <v>10.4062493229673</v>
       </c>
       <c r="G10">
-        <v>44.6145667504338</v>
+        <v>38.6649907829007</v>
       </c>
       <c r="H10">
-        <v>24.6135406186597</v>
+        <v>21.1258665576199</v>
       </c>
       <c r="I10">
-        <v>44.6148148217772</v>
+        <v>39.1162803417406</v>
       </c>
       <c r="J10">
-        <v>57.850806940595</v>
+        <v>49.8325749731085</v>
       </c>
       <c r="K10">
-        <v>62.4029383988501</v>
+        <v>52.838756738754</v>
       </c>
       <c r="L10">
-        <v>157.970772245652</v>
+        <v>134.994234857505</v>
       </c>
       <c r="M10">
-        <v>124.652393080873</v>
+        <v>105.933699250239</v>
       </c>
       <c r="N10">
-        <v>119.619792821816</v>
+        <v>103.020569482228</v>
       </c>
       <c r="O10">
-        <v>9152.839077639521</v>
+        <v>7855.02309242259</v>
       </c>
       <c r="P10">
-        <v>104.500482010403</v>
+        <v>95.40448322679779</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>733.515902800875</v>
+        <v>1402.26223782732</v>
       </c>
       <c r="C11">
-        <v>83.3201441408383</v>
+        <v>71.4922971814259</v>
       </c>
       <c r="D11">
-        <v>191.505731609111</v>
+        <v>166.839057446431</v>
       </c>
       <c r="E11">
-        <v>123.35361066443</v>
+        <v>105.806280827107</v>
       </c>
       <c r="F11">
-        <v>9.99349654410439</v>
+        <v>8.68587559829116</v>
       </c>
       <c r="G11">
-        <v>47.096546905821</v>
+        <v>40.8331930142333</v>
       </c>
       <c r="H11">
-        <v>23.1365002709326</v>
+        <v>20.0494171917829</v>
       </c>
       <c r="I11">
-        <v>28.2585152187265</v>
+        <v>24.465583622089</v>
       </c>
       <c r="J11">
-        <v>58.7680780992807</v>
+        <v>51.0850256515998</v>
       </c>
       <c r="K11">
-        <v>55.4678547053309</v>
+        <v>48.0886410241471</v>
       </c>
       <c r="L11">
-        <v>84.24654451525301</v>
+        <v>73.05182005121161</v>
       </c>
       <c r="M11">
-        <v>69.24957981788479</v>
+        <v>60.0167903649192</v>
       </c>
       <c r="N11">
-        <v>56.5263563714472</v>
+        <v>48.9980072527336</v>
       </c>
       <c r="O11">
-        <v>4052.76683386168</v>
+        <v>3500.23940030463</v>
       </c>
       <c r="P11">
-        <v>32.1603524153709</v>
+        <v>27.5509177144705</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>134.068082259172</v>
+        <v>217.897429068117</v>
       </c>
       <c r="C12">
-        <v>13.2105752165999</v>
+        <v>11.8442347907115</v>
       </c>
       <c r="D12">
-        <v>5.63583800082012</v>
+        <v>5.04838271750926</v>
       </c>
       <c r="E12">
-        <v>0.483903551271027</v>
+        <v>0.433714719507391</v>
       </c>
       <c r="F12">
-        <v>1.20881263706383</v>
+        <v>1.08383641369982</v>
       </c>
       <c r="G12">
-        <v>1.01302666399383</v>
+        <v>0.909072507222664</v>
       </c>
       <c r="H12">
-        <v>0.408262363450119</v>
+        <v>0.366906680777961</v>
       </c>
       <c r="I12">
-        <v>1.80973864245599</v>
+        <v>1.62268339210735</v>
       </c>
       <c r="J12">
-        <v>1.18642420420606</v>
+        <v>1.06346807310514</v>
       </c>
       <c r="K12">
-        <v>0.595882990980343</v>
+        <v>0.534002978493668</v>
       </c>
       <c r="L12">
-        <v>0.447362592085382</v>
+        <v>0.400817396943887</v>
       </c>
       <c r="M12">
-        <v>5.88682801158857</v>
+        <v>5.27886588903774</v>
       </c>
       <c r="N12">
-        <v>4.94572068768568</v>
+        <v>4.43240083504205</v>
       </c>
       <c r="O12">
-        <v>752.856320829737</v>
+        <v>674.698147262983</v>
       </c>
       <c r="P12">
-        <v>20.1286672420405</v>
+        <v>18.3307182546786</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>126.56732092342</v>
+        <v>215.632080924989</v>
       </c>
       <c r="C13">
-        <v>33.7112798453054</v>
+        <v>29.9832612273312</v>
       </c>
       <c r="D13">
-        <v>1.75294741187205</v>
+        <v>1.55611942778584</v>
       </c>
       <c r="E13">
-        <v>19.1658869350857</v>
+        <v>17.0373495248516</v>
       </c>
       <c r="F13">
-        <v>5.28285807082056</v>
+        <v>4.69838327342431</v>
       </c>
       <c r="G13">
-        <v>7.60426448491268</v>
+        <v>6.765918356167</v>
       </c>
       <c r="H13">
-        <v>2.30310397734658</v>
+        <v>2.04902808952934</v>
       </c>
       <c r="I13">
-        <v>1.96856793133795</v>
+        <v>1.75098291448009</v>
       </c>
       <c r="J13">
-        <v>5.8148503263136</v>
+        <v>5.17005774792069</v>
       </c>
       <c r="K13">
-        <v>5.61194166610978</v>
+        <v>4.99144057679926</v>
       </c>
       <c r="L13">
-        <v>33.4806604880421</v>
+        <v>29.4106233766128</v>
       </c>
       <c r="M13">
-        <v>4.7197914158354</v>
+        <v>4.19907110478878</v>
       </c>
       <c r="N13">
-        <v>9.96087946686006</v>
+        <v>8.854054195372569</v>
       </c>
       <c r="O13">
-        <v>620.167934686197</v>
+        <v>551.646918688331</v>
       </c>
       <c r="P13">
-        <v>54.8221237853702</v>
+        <v>49.2008252871277</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1195.37637691106</v>
+        <v>1961.31089160824</v>
       </c>
       <c r="C14">
-        <v>132.218884413885</v>
+        <v>118.05568057873</v>
       </c>
       <c r="D14">
-        <v>20.8021545016996</v>
+        <v>18.6410244514575</v>
       </c>
       <c r="E14">
-        <v>62.10360443016</v>
+        <v>56.4084509059217</v>
       </c>
       <c r="F14">
-        <v>18.3666872767307</v>
+        <v>16.1315801063388</v>
       </c>
       <c r="G14">
-        <v>133.080081048332</v>
+        <v>118.735824040703</v>
       </c>
       <c r="H14">
-        <v>75.5089555967086</v>
+        <v>66.10207239015131</v>
       </c>
       <c r="I14">
-        <v>35.6602620201954</v>
+        <v>31.9251906653899</v>
       </c>
       <c r="J14">
-        <v>167.42850072308</v>
+        <v>149.912116798906</v>
       </c>
       <c r="K14">
-        <v>235.872362914726</v>
+        <v>210.662580736843</v>
       </c>
       <c r="L14">
-        <v>195.875978296622</v>
+        <v>175.249424850539</v>
       </c>
       <c r="M14">
-        <v>103.465519036765</v>
+        <v>92.2746037329067</v>
       </c>
       <c r="N14">
-        <v>117.36118724927</v>
+        <v>105.968497640517</v>
       </c>
       <c r="O14">
-        <v>6092.08290075216</v>
+        <v>5467.8632879404</v>
       </c>
       <c r="P14">
-        <v>44.6882254384297</v>
+        <v>40.6313406780727</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>531.326613032918</v>
+        <v>994.163138788081</v>
       </c>
       <c r="C15">
-        <v>37.9815127728501</v>
+        <v>32.7584263365915</v>
       </c>
       <c r="D15">
-        <v>16.5940306676506</v>
+        <v>15.7633636057318</v>
       </c>
       <c r="E15">
-        <v>66.0490792914609</v>
+        <v>57.8383252036475</v>
       </c>
       <c r="F15">
-        <v>14.2740525098188</v>
+        <v>12.4971219311538</v>
       </c>
       <c r="G15">
-        <v>53.8331180422863</v>
+        <v>46.2054106197363</v>
       </c>
       <c r="H15">
-        <v>58.6443492650486</v>
+        <v>50.8632756282896</v>
       </c>
       <c r="I15">
-        <v>57.6528659527962</v>
+        <v>50.4706116966057</v>
       </c>
       <c r="J15">
-        <v>227.241257631212</v>
+        <v>197.63445299761</v>
       </c>
       <c r="K15">
-        <v>121.688364859172</v>
+        <v>104.910712778589</v>
       </c>
       <c r="L15">
-        <v>70.35243850856431</v>
+        <v>62.1859745011126</v>
       </c>
       <c r="M15">
-        <v>172.538955382674</v>
+        <v>148.931775923367</v>
       </c>
       <c r="N15">
-        <v>115.195176768992</v>
+        <v>100.369102988515</v>
       </c>
       <c r="O15">
-        <v>2671.98002277985</v>
+        <v>2343.53072992809</v>
       </c>
       <c r="P15">
-        <v>51.7146622352671</v>
+        <v>48.7689041116633</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>170.171892120564</v>
+        <v>349.66039371042</v>
       </c>
       <c r="C16">
-        <v>76.92682511647909</v>
+        <v>69.4891100384739</v>
       </c>
       <c r="D16">
-        <v>20.6728106528487</v>
+        <v>18.327853074536</v>
       </c>
       <c r="E16">
-        <v>20.0041197332761</v>
+        <v>18.1270212814955</v>
       </c>
       <c r="F16">
-        <v>5.33465977154182</v>
+        <v>4.8473419482443</v>
       </c>
       <c r="G16">
-        <v>18.3760687346317</v>
+        <v>16.6526228800144</v>
       </c>
       <c r="H16">
-        <v>17.7298759964048</v>
+        <v>16.052393234385</v>
       </c>
       <c r="I16">
-        <v>10.5519848763049</v>
+        <v>9.550879970746591</v>
       </c>
       <c r="J16">
-        <v>48.1125566128801</v>
+        <v>44.8674878076016</v>
       </c>
       <c r="K16">
-        <v>66.48833736527909</v>
+        <v>59.9896375848344</v>
       </c>
       <c r="L16">
-        <v>36.754873529849</v>
+        <v>33.6562688688582</v>
       </c>
       <c r="M16">
-        <v>16.0852597448116</v>
+        <v>14.578190168097</v>
       </c>
       <c r="N16">
-        <v>33.5350765931237</v>
+        <v>30.3855755773307</v>
       </c>
       <c r="O16">
-        <v>1477.29328528843</v>
+        <v>1345.25728497747</v>
       </c>
       <c r="P16">
-        <v>114.964933842472</v>
+        <v>101.446253386813</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>208.191725619259</v>
+        <v>375.421614675128</v>
       </c>
       <c r="C17">
-        <v>27.5434334731332</v>
+        <v>24.8847022085006</v>
       </c>
       <c r="D17">
-        <v>9.963791512114209</v>
+        <v>9.30507188916137</v>
       </c>
       <c r="E17">
-        <v>11.2980315256146</v>
+        <v>10.1988243615308</v>
       </c>
       <c r="F17">
-        <v>14.6828176264067</v>
+        <v>13.2765604156969</v>
       </c>
       <c r="G17">
-        <v>14.5199987007238</v>
+        <v>13.1245781290498</v>
       </c>
       <c r="H17">
-        <v>7.24510443872194</v>
+        <v>6.53462326482041</v>
       </c>
       <c r="I17">
-        <v>9.504758548308001</v>
+        <v>8.579649413797361</v>
       </c>
       <c r="J17">
-        <v>21.3146202074201</v>
+        <v>18.6833250056063</v>
       </c>
       <c r="K17">
-        <v>30.2209514440738</v>
+        <v>27.2981678450079</v>
       </c>
       <c r="L17">
-        <v>18.5315167970448</v>
+        <v>16.7169563236463</v>
       </c>
       <c r="M17">
-        <v>94.3097896607172</v>
+        <v>85.2130668305789</v>
       </c>
       <c r="N17">
-        <v>16.2403387517897</v>
+        <v>14.6801186494626</v>
       </c>
       <c r="O17">
-        <v>1372.33170856995</v>
+        <v>1239.07087060958</v>
       </c>
       <c r="P17">
-        <v>61.070910812928</v>
+        <v>53.9974876913864</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>448.582983109235</v>
+        <v>891.937167098311</v>
       </c>
       <c r="C18">
-        <v>41.9437985282575</v>
+        <v>34.5793897276418</v>
       </c>
       <c r="D18">
-        <v>19.1327312443365</v>
+        <v>16.6480312957329</v>
       </c>
       <c r="E18">
-        <v>35.6804475064486</v>
+        <v>28.5675569248011</v>
       </c>
       <c r="F18">
-        <v>49.1896151034487</v>
+        <v>39.8257325246189</v>
       </c>
       <c r="G18">
-        <v>42.8015787457586</v>
+        <v>34.9096859550972</v>
       </c>
       <c r="H18">
-        <v>27.2049308612476</v>
+        <v>22.4652927165954</v>
       </c>
       <c r="I18">
-        <v>11.7868563679161</v>
+        <v>9.732356526746409</v>
       </c>
       <c r="J18">
-        <v>51.2112874942271</v>
+        <v>42.1681542828605</v>
       </c>
       <c r="K18">
-        <v>36.9705762775287</v>
+        <v>29.8512774018948</v>
       </c>
       <c r="L18">
-        <v>48.4816125445495</v>
+        <v>40.8727751023957</v>
       </c>
       <c r="M18">
-        <v>73.4300367705146</v>
+        <v>60.583615846769</v>
       </c>
       <c r="N18">
-        <v>24.2443239273904</v>
+        <v>19.6454459240903</v>
       </c>
       <c r="O18">
-        <v>1996.08984667071</v>
+        <v>1642.17836514464</v>
       </c>
       <c r="P18">
-        <v>52.1464714058191</v>
+        <v>44.945433506152</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>549.838073933998</v>
+        <v>957.43463813288</v>
       </c>
       <c r="C19">
-        <v>34.3152035083757</v>
+        <v>29.3789876364428</v>
       </c>
       <c r="D19">
-        <v>15.4007674692698</v>
+        <v>12.9474789711332</v>
       </c>
       <c r="E19">
-        <v>26.812675600905</v>
+        <v>22.5393161906751</v>
       </c>
       <c r="F19">
-        <v>105.803726674539</v>
+        <v>88.5177000700243</v>
       </c>
       <c r="G19">
-        <v>49.1023196848115</v>
+        <v>41.2919676846267</v>
       </c>
       <c r="H19">
-        <v>7.76880022332127</v>
+        <v>6.53175000521435</v>
       </c>
       <c r="I19">
-        <v>12.6793735951911</v>
+        <v>10.6632585748207</v>
       </c>
       <c r="J19">
-        <v>14.7281741779761</v>
+        <v>13.3519639031354</v>
       </c>
       <c r="K19">
-        <v>24.2883013868145</v>
+        <v>20.3984910189665</v>
       </c>
       <c r="L19">
-        <v>9.002691294851999</v>
+        <v>6.98245751642116</v>
       </c>
       <c r="M19">
-        <v>32.3577658198375</v>
+        <v>27.7728271438078</v>
       </c>
       <c r="N19">
-        <v>6.73157340205426</v>
+        <v>5.65571341060995</v>
       </c>
       <c r="O19">
-        <v>2180.20839411666</v>
+        <v>1833.7718771649</v>
       </c>
       <c r="P19">
-        <v>47.9744308918728</v>
+        <v>39.9063011672908</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>107.402815399578</v>
+        <v>220.459171826821</v>
       </c>
       <c r="C20">
-        <v>10.6971200292265</v>
+        <v>9.106657340178559</v>
       </c>
       <c r="D20">
-        <v>19.4052277488682</v>
+        <v>16.6281629162266</v>
       </c>
       <c r="E20">
-        <v>40.9550550031224</v>
+        <v>35.1350673330388</v>
       </c>
       <c r="F20">
-        <v>0.161049343327076</v>
+        <v>0.139341207258304</v>
       </c>
       <c r="G20">
-        <v>1.44211461651453</v>
+        <v>1.24792874434997</v>
       </c>
       <c r="H20">
-        <v>4.63668124423786</v>
+        <v>4.01065104690483</v>
       </c>
       <c r="I20">
-        <v>0.579568691861306</v>
+        <v>0.501220917214252</v>
       </c>
       <c r="J20">
-        <v>5.27631671865829</v>
+        <v>4.56904000352842</v>
       </c>
       <c r="K20">
-        <v>6.05169376318152</v>
+        <v>5.54267005188918</v>
       </c>
       <c r="L20">
-        <v>11.3499835953765</v>
+        <v>9.8205237282565</v>
       </c>
       <c r="M20">
-        <v>27.2459108211799</v>
+        <v>23.5811893779259</v>
       </c>
       <c r="N20">
-        <v>6.9410828294363</v>
+        <v>5.88081232731361</v>
       </c>
       <c r="O20">
-        <v>697.292645120547</v>
+        <v>606.725258795694</v>
       </c>
       <c r="P20">
-        <v>25.6978679200873</v>
+        <v>21.7428793129343</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>426.279508917442</v>
+        <v>819.270982836821</v>
       </c>
       <c r="C21">
-        <v>28.5548140742714</v>
+        <v>25.8935330179748</v>
       </c>
       <c r="D21">
-        <v>8.959604674729579</v>
+        <v>7.88357226423917</v>
       </c>
       <c r="E21">
-        <v>23.6728223067154</v>
+        <v>20.1391008772748</v>
       </c>
       <c r="F21">
-        <v>2.9636311372427</v>
+        <v>2.61933127704234</v>
       </c>
       <c r="G21">
-        <v>23.5614688361012</v>
+        <v>20.7175411353481</v>
       </c>
       <c r="H21">
-        <v>10.1323483482263</v>
+        <v>8.909874736889741</v>
       </c>
       <c r="I21">
-        <v>10.561469111624</v>
+        <v>9.29401504967074</v>
       </c>
       <c r="J21">
-        <v>17.4847823799947</v>
+        <v>15.3780287170584</v>
       </c>
       <c r="K21">
-        <v>27.2164661053971</v>
+        <v>23.924508307874</v>
       </c>
       <c r="L21">
-        <v>33.2087607183043</v>
+        <v>29.1917035778246</v>
       </c>
       <c r="M21">
-        <v>34.7910288406033</v>
+        <v>30.5863604555819</v>
       </c>
       <c r="N21">
-        <v>20.9575881772275</v>
+        <v>18.427722795542</v>
       </c>
       <c r="O21">
-        <v>3008.71925364422</v>
+        <v>2648.09687267844</v>
       </c>
       <c r="P21">
-        <v>27.2196256791436</v>
+        <v>23.8967617640665</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>500.965548096214</v>
+        <v>978.8937097913461</v>
       </c>
       <c r="C22">
-        <v>23.5662561452777</v>
+        <v>20.7153252884447</v>
       </c>
       <c r="D22">
-        <v>36.0161601167998</v>
+        <v>30.9241175504706</v>
       </c>
       <c r="E22">
-        <v>33.4522703348478</v>
+        <v>29.4450904813228</v>
       </c>
       <c r="F22">
-        <v>2.2781233589482</v>
+        <v>2.00567124668115</v>
       </c>
       <c r="G22">
-        <v>36.7862339868887</v>
+        <v>32.38350231738</v>
       </c>
       <c r="H22">
-        <v>36.5840290514699</v>
+        <v>31.7678076814426</v>
       </c>
       <c r="I22">
-        <v>12.9669540433854</v>
+        <v>11.419346507999</v>
       </c>
       <c r="J22">
-        <v>62.1571021287146</v>
+        <v>54.3233287787432</v>
       </c>
       <c r="K22">
-        <v>57.6632269194225</v>
+        <v>50.3407860924877</v>
       </c>
       <c r="L22">
-        <v>137.627753260855</v>
+        <v>120.107571088651</v>
       </c>
       <c r="M22">
-        <v>24.8023571037327</v>
+        <v>21.8247899050253</v>
       </c>
       <c r="N22">
-        <v>106.216573039572</v>
+        <v>94.29444477599139</v>
       </c>
       <c r="O22">
-        <v>3366.96764997919</v>
+        <v>2962.39597090954</v>
       </c>
       <c r="P22">
-        <v>23.4065200292287</v>
+        <v>20.5964749077323</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>944.908800994345</v>
+        <v>1720.26733514692</v>
       </c>
       <c r="C23">
-        <v>55.6480004963802</v>
+        <v>49.3832642665929</v>
       </c>
       <c r="D23">
-        <v>21.3144936979549</v>
+        <v>18.5780401955458</v>
       </c>
       <c r="E23">
-        <v>43.0347395449965</v>
+        <v>38.7508428038425</v>
       </c>
       <c r="F23">
-        <v>1.21182553179306</v>
+        <v>0.979817780399649</v>
       </c>
       <c r="G23">
-        <v>83.8139879213556</v>
+        <v>73.07417477108071</v>
       </c>
       <c r="H23">
-        <v>78.038978368285</v>
+        <v>68.0487445909304</v>
       </c>
       <c r="I23">
-        <v>29.8485040266578</v>
+        <v>26.0337403186946</v>
       </c>
       <c r="J23">
-        <v>189.965231601645</v>
+        <v>166.114420990985</v>
       </c>
       <c r="K23">
-        <v>175.320210389586</v>
+        <v>153.760846248996</v>
       </c>
       <c r="L23">
-        <v>59.9401434560271</v>
+        <v>51.9166296587885</v>
       </c>
       <c r="M23">
-        <v>701.743274417896</v>
+        <v>610.101382814955</v>
       </c>
       <c r="N23">
-        <v>110.089817821955</v>
+        <v>96.02305844496409</v>
       </c>
       <c r="O23">
-        <v>4456.17852649947</v>
+        <v>3884.26116790997</v>
       </c>
       <c r="P23">
-        <v>50.4007710632223</v>
+        <v>44.0891770746561</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>327.703831996122</v>
+        <v>585.983858120695</v>
       </c>
       <c r="C24">
-        <v>50.4339552056551</v>
+        <v>47.0607618500906</v>
       </c>
       <c r="D24">
-        <v>12.6464823536346</v>
+        <v>11.5862842484325</v>
       </c>
       <c r="E24">
-        <v>46.5871176186428</v>
+        <v>42.2727444563262</v>
       </c>
       <c r="F24">
-        <v>21.0202957843972</v>
+        <v>19.2490230720149</v>
       </c>
       <c r="G24">
-        <v>28.9438967950125</v>
+        <v>26.5061386640898</v>
       </c>
       <c r="H24">
-        <v>22.0733084102863</v>
+        <v>19.8684993198707</v>
       </c>
       <c r="I24">
-        <v>15.1876595445368</v>
+        <v>13.9023398626079</v>
       </c>
       <c r="J24">
-        <v>43.7447022740884</v>
+        <v>40.0700630712959</v>
       </c>
       <c r="K24">
-        <v>106.107592996774</v>
+        <v>98.0530542904629</v>
       </c>
       <c r="L24">
-        <v>71.12762830823949</v>
+        <v>65.1476460503752</v>
       </c>
       <c r="M24">
-        <v>16.6910037311145</v>
+        <v>15.3038552647871</v>
       </c>
       <c r="N24">
-        <v>94.1509329068968</v>
+        <v>86.2267187272502</v>
       </c>
       <c r="O24">
-        <v>2464.13964487507</v>
+        <v>2257.38579625738</v>
       </c>
       <c r="P24">
-        <v>106.274302387536</v>
+        <v>98.1740844919856</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>304.769747887511</v>
+        <v>599.066479759465</v>
       </c>
       <c r="C25">
-        <v>55.1957115104005</v>
+        <v>46.1903129416467</v>
       </c>
       <c r="D25">
-        <v>26.0035470203822</v>
+        <v>21.2545212837824</v>
       </c>
       <c r="E25">
-        <v>53.8224511234894</v>
+        <v>45.1325280790155</v>
       </c>
       <c r="F25">
-        <v>34.4085812344534</v>
+        <v>28.61021492258</v>
       </c>
       <c r="G25">
-        <v>10.572465497659</v>
+        <v>8.461981129824551</v>
       </c>
       <c r="H25">
-        <v>20.9682190429354</v>
+        <v>17.4577061211054</v>
       </c>
       <c r="I25">
-        <v>6.49404890601549</v>
+        <v>5.40110692790833</v>
       </c>
       <c r="J25">
-        <v>22.6393485295168</v>
+        <v>18.2987565500487</v>
       </c>
       <c r="K25">
-        <v>28.2960325329261</v>
+        <v>24.2700009799165</v>
       </c>
       <c r="L25">
-        <v>32.2500829843537</v>
+        <v>26.5230243709024</v>
       </c>
       <c r="M25">
-        <v>45.2819030727937</v>
+        <v>37.3582448536235</v>
       </c>
       <c r="N25">
-        <v>38.0753972442682</v>
+        <v>32.7986578294283</v>
       </c>
       <c r="O25">
-        <v>1311.65111999671</v>
+        <v>1090.03544571767</v>
       </c>
       <c r="P25">
-        <v>53.508048431002</v>
+        <v>43.1008028799412</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>434.854095426192</v>
+        <v>816.8722437877919</v>
       </c>
       <c r="C26">
-        <v>77.5260867094503</v>
+        <v>69.3337091667706</v>
       </c>
       <c r="D26">
-        <v>15.4224895820178</v>
+        <v>13.6825905834842</v>
       </c>
       <c r="E26">
-        <v>49.3334406164771</v>
+        <v>43.0348624828396</v>
       </c>
       <c r="F26">
-        <v>9.19356605075332</v>
+        <v>8.15145972212405</v>
       </c>
       <c r="G26">
-        <v>56.4877654255957</v>
+        <v>50.0551993071987</v>
       </c>
       <c r="H26">
-        <v>18.6346853639626</v>
+        <v>16.5142388000326</v>
       </c>
       <c r="I26">
-        <v>21.253646955919</v>
+        <v>18.8426973155052</v>
       </c>
       <c r="J26">
-        <v>66.16163425697449</v>
+        <v>58.6393655586</v>
       </c>
       <c r="K26">
-        <v>61.1413003984309</v>
+        <v>53.6544849959877</v>
       </c>
       <c r="L26">
-        <v>37.7505350730549</v>
+        <v>33.4769611681221</v>
       </c>
       <c r="M26">
-        <v>79.8824301948405</v>
+        <v>71.1128363546396</v>
       </c>
       <c r="N26">
-        <v>40.4209282779612</v>
+        <v>35.8544713521783</v>
       </c>
       <c r="O26">
-        <v>2882.65441773961</v>
+        <v>2563.38631661093</v>
       </c>
       <c r="P26">
-        <v>58.1575130019527</v>
+        <v>56.3099460968832</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>89.58400251321891</v>
+        <v>166.071977583878</v>
       </c>
       <c r="C27">
-        <v>4.90528557608716</v>
+        <v>4.29264560770002</v>
       </c>
       <c r="D27">
-        <v>1.10451484946091</v>
+        <v>0.969395476102613</v>
       </c>
       <c r="E27">
-        <v>16.4258603396399</v>
+        <v>14.4096104729031</v>
       </c>
       <c r="F27">
-        <v>8.520253937897429</v>
+        <v>7.37554229858734</v>
       </c>
       <c r="G27">
-        <v>0.46860845745802</v>
+        <v>0.411494767323255</v>
       </c>
       <c r="H27">
-        <v>0.258098255386935</v>
+        <v>0.226514565078574</v>
       </c>
       <c r="I27">
-        <v>3.41095635000776</v>
+        <v>2.9866761850156</v>
       </c>
       <c r="J27">
-        <v>4.95902987294595</v>
+        <v>4.28348494915126</v>
       </c>
       <c r="K27">
-        <v>2.35870250236125</v>
+        <v>2.05478517281635</v>
       </c>
       <c r="L27">
-        <v>2.69170027093936</v>
+        <v>2.36328118998389</v>
       </c>
       <c r="M27">
-        <v>1.64971833046564</v>
+        <v>1.44919105389468</v>
       </c>
       <c r="N27">
-        <v>7.18430365610386</v>
+        <v>6.31122396473715</v>
       </c>
       <c r="O27">
-        <v>512.396213107717</v>
+        <v>448.535390728134</v>
       </c>
       <c r="P27">
-        <v>55.0440856522878</v>
+        <v>49.2369268085704</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>105.82702270003</v>
+        <v>202.195032699734</v>
       </c>
       <c r="C28">
-        <v>34.1746017399864</v>
+        <v>31.041363915911</v>
       </c>
       <c r="D28">
-        <v>3.16773616888007</v>
+        <v>2.89413824262085</v>
       </c>
       <c r="E28">
-        <v>6.15510935906201</v>
+        <v>5.62622496351755</v>
       </c>
       <c r="F28">
-        <v>3.14988215378183</v>
+        <v>2.87322930730367</v>
       </c>
       <c r="G28">
-        <v>7.60996832141091</v>
+        <v>6.95561712397778</v>
       </c>
       <c r="H28">
-        <v>10.3636899959798</v>
+        <v>9.469599520348931</v>
       </c>
       <c r="I28">
-        <v>4.34691480875669</v>
+        <v>3.79965558254594</v>
       </c>
       <c r="J28">
-        <v>18.2519034814813</v>
+        <v>16.6758773261712</v>
       </c>
       <c r="K28">
-        <v>18.5885156946959</v>
+        <v>16.9843779326255</v>
       </c>
       <c r="L28">
-        <v>15.9480627048608</v>
+        <v>14.406935507703</v>
       </c>
       <c r="M28">
-        <v>7.83744631194347</v>
+        <v>7.16201788678789</v>
       </c>
       <c r="N28">
-        <v>13.0379189491625</v>
+        <v>11.9142692189468</v>
       </c>
       <c r="O28">
-        <v>908.48182433209</v>
+        <v>833.306015813428</v>
       </c>
       <c r="P28">
-        <v>93.9631314169645</v>
+        <v>85.53906861181061</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>196.227082244284</v>
+        <v>350.388094514798</v>
       </c>
       <c r="C29">
-        <v>4.92860193877708</v>
+        <v>4.33853149098614</v>
       </c>
       <c r="D29">
-        <v>4.13022125882079</v>
+        <v>3.63630275065508</v>
       </c>
       <c r="E29">
-        <v>3.19982285746038</v>
+        <v>2.81711709716751</v>
       </c>
       <c r="F29">
-        <v>18.960496566105</v>
+        <v>16.5425226065748</v>
       </c>
       <c r="G29">
-        <v>4.30756861067016</v>
+        <v>3.79681647673418</v>
       </c>
       <c r="H29">
-        <v>2.90676374595865</v>
+        <v>2.55941629263124</v>
       </c>
       <c r="I29">
-        <v>6.53805725915164</v>
+        <v>5.7568889835355</v>
       </c>
       <c r="J29">
-        <v>5.51776114895263</v>
+        <v>4.85819160283245</v>
       </c>
       <c r="K29">
-        <v>5.04096271016837</v>
+        <v>4.64501396686537</v>
       </c>
       <c r="L29">
-        <v>3.63949601626045</v>
+        <v>3.0396198284903</v>
       </c>
       <c r="M29">
-        <v>1.62165742663026</v>
+        <v>1.42474676480777</v>
       </c>
       <c r="N29">
-        <v>12.8885616484481</v>
+        <v>11.0572415675941</v>
       </c>
       <c r="O29">
-        <v>1220.39832608274</v>
+        <v>1075.93282986982</v>
       </c>
       <c r="P29">
-        <v>3.50901940012327</v>
+        <v>3.07518788668745</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>90.8069507889733</v>
+        <v>175.870660331683</v>
       </c>
       <c r="C30">
-        <v>4.80545404306149</v>
+        <v>4.2244740751481</v>
       </c>
       <c r="D30">
-        <v>8.002856215921909</v>
+        <v>7.64777923911774</v>
       </c>
       <c r="E30">
-        <v>9.53075257337575</v>
+        <v>8.70898230649477</v>
       </c>
       <c r="F30">
-        <v>0.40347116139436</v>
+        <v>0.362650852559228</v>
       </c>
       <c r="G30">
-        <v>4.29984347743769</v>
+        <v>3.90249160216132</v>
       </c>
       <c r="H30">
-        <v>8.54973192852535</v>
+        <v>7.55713280205036</v>
       </c>
       <c r="I30">
-        <v>4.0746583215152</v>
+        <v>3.65206275921936</v>
       </c>
       <c r="J30">
-        <v>17.3050656026197</v>
+        <v>15.2990893178642</v>
       </c>
       <c r="K30">
-        <v>22.4081232211559</v>
+        <v>20.137006818368</v>
       </c>
       <c r="L30">
-        <v>49.5266449651817</v>
+        <v>44.9263270545759</v>
       </c>
       <c r="M30">
-        <v>12.2340460422214</v>
+        <v>10.9934125554395</v>
       </c>
       <c r="N30">
-        <v>19.3537710733879</v>
+        <v>17.1548650204018</v>
       </c>
       <c r="O30">
-        <v>671.26981654593</v>
+        <v>602.718428767104</v>
       </c>
       <c r="P30">
-        <v>9.05789968534539</v>
+        <v>8.43781175737846</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>908.767471580348</v>
+        <v>1471.88415989837</v>
       </c>
       <c r="C31">
-        <v>53.7029890723532</v>
+        <v>49.1154316630068</v>
       </c>
       <c r="D31">
-        <v>62.9739668044061</v>
+        <v>56.2285129143307</v>
       </c>
       <c r="E31">
-        <v>26.6486187633088</v>
+        <v>24.4299335758687</v>
       </c>
       <c r="F31">
-        <v>9.372145938526501</v>
+        <v>8.275547191874979</v>
       </c>
       <c r="G31">
-        <v>173.87360831595</v>
+        <v>154.369538862315</v>
       </c>
       <c r="H31">
-        <v>35.018073223185</v>
+        <v>30.1805022482427</v>
       </c>
       <c r="I31">
-        <v>34.7646265137351</v>
+        <v>29.5019452574421</v>
       </c>
       <c r="J31">
-        <v>47.1756191996908</v>
+        <v>41.1967337167108</v>
       </c>
       <c r="K31">
-        <v>49.6005133378773</v>
+        <v>44.2810215076221</v>
       </c>
       <c r="L31">
-        <v>76.41459316388971</v>
+        <v>68.1113951302284</v>
       </c>
       <c r="M31">
-        <v>25.2785382065824</v>
+        <v>22.408960400286</v>
       </c>
       <c r="N31">
-        <v>70.5581740638862</v>
+        <v>62.6026006643718</v>
       </c>
       <c r="O31">
-        <v>4376.81349685572</v>
+        <v>3887.08270813135</v>
       </c>
       <c r="P31">
-        <v>5.71095344417835</v>
+        <v>6.71141688524484</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>215.484632382978</v>
+        <v>367.290174401158</v>
       </c>
       <c r="C32">
-        <v>6.39180829203975</v>
+        <v>5.6520414281818</v>
       </c>
       <c r="D32">
-        <v>3.41051150574494</v>
+        <v>3.34245491510472</v>
       </c>
       <c r="E32">
-        <v>3.0770880307735</v>
+        <v>2.6129732963545</v>
       </c>
       <c r="F32">
-        <v>41.6816729915084</v>
+        <v>36.105777881894</v>
       </c>
       <c r="G32">
-        <v>2.11150235150486</v>
+        <v>1.79236837210119</v>
       </c>
       <c r="H32">
-        <v>2.77950609499555</v>
+        <v>2.36256272665037</v>
       </c>
       <c r="I32">
-        <v>6.97854618330024</v>
+        <v>5.71862866197405</v>
       </c>
       <c r="J32">
-        <v>3.90911172511452</v>
+        <v>3.3206920318213</v>
       </c>
       <c r="K32">
-        <v>7.55446502447615</v>
+        <v>6.42732372468607</v>
       </c>
       <c r="L32">
-        <v>15.5254091784336</v>
+        <v>13.6133796188535</v>
       </c>
       <c r="M32">
-        <v>3.87266003206051</v>
+        <v>3.28142543818499</v>
       </c>
       <c r="N32">
-        <v>14.6741509802248</v>
+        <v>13.0649978073342</v>
       </c>
       <c r="O32">
-        <v>935.0405564498</v>
+        <v>803.548502111957</v>
       </c>
       <c r="P32">
-        <v>28.1653066469502</v>
+        <v>22.5772256277001</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2292.16723151817</v>
+        <v>3838.72154654524</v>
       </c>
       <c r="C33">
-        <v>97.25145999875279</v>
+        <v>82.5553333482774</v>
       </c>
       <c r="D33">
-        <v>161.737175762405</v>
+        <v>140.383820278923</v>
       </c>
       <c r="E33">
-        <v>42.8419692670087</v>
+        <v>36.8539252689584</v>
       </c>
       <c r="F33">
-        <v>11.9237991089545</v>
+        <v>10.2375573120602</v>
       </c>
       <c r="G33">
-        <v>76.02276691153649</v>
+        <v>66.0029460704379</v>
       </c>
       <c r="H33">
-        <v>49.2134200802068</v>
+        <v>41.9053437601998</v>
       </c>
       <c r="I33">
-        <v>43.8976683605147</v>
+        <v>36.5495206111955</v>
       </c>
       <c r="J33">
-        <v>116.975212418193</v>
+        <v>98.5104519511744</v>
       </c>
       <c r="K33">
-        <v>134.69291217703</v>
+        <v>115.961596643558</v>
       </c>
       <c r="L33">
-        <v>183.859238370506</v>
+        <v>156.197707728412</v>
       </c>
       <c r="M33">
-        <v>102.598774367948</v>
+        <v>87.88786944260821</v>
       </c>
       <c r="N33">
-        <v>233.994478652828</v>
+        <v>200.63830260368</v>
       </c>
       <c r="O33">
-        <v>9687.093778296599</v>
+        <v>8329.026403095029</v>
       </c>
       <c r="P33">
-        <v>62.994811903567</v>
+        <v>56.0246771274341</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>702.866663076447</v>
+        <v>1395.03834906904</v>
       </c>
       <c r="C34">
-        <v>97.30375674529721</v>
+        <v>83.39840463522189</v>
       </c>
       <c r="D34">
-        <v>269.293697177535</v>
+        <v>230.617616835856</v>
       </c>
       <c r="E34">
-        <v>68.4605481225579</v>
+        <v>59.1460343314272</v>
       </c>
       <c r="F34">
-        <v>6.34277023699432</v>
+        <v>5.42673613284938</v>
       </c>
       <c r="G34">
-        <v>80.0647034353253</v>
+        <v>68.22268424151839</v>
       </c>
       <c r="H34">
-        <v>62.498888328223</v>
+        <v>54.0244277056693</v>
       </c>
       <c r="I34">
-        <v>30.0162701782027</v>
+        <v>25.7183451275299</v>
       </c>
       <c r="J34">
-        <v>68.0334478201632</v>
+        <v>57.9272341397556</v>
       </c>
       <c r="K34">
-        <v>104.636215162284</v>
+        <v>89.2237590531543</v>
       </c>
       <c r="L34">
-        <v>164.315541108417</v>
+        <v>141.169982113416</v>
       </c>
       <c r="M34">
-        <v>57.6511110129655</v>
+        <v>50.7313415403325</v>
       </c>
       <c r="N34">
-        <v>158.617817421904</v>
+        <v>136.802443278787</v>
       </c>
       <c r="O34">
-        <v>3742.24094174491</v>
+        <v>3226.15263773429</v>
       </c>
       <c r="P34">
-        <v>85.02461150575969</v>
+        <v>73.5159902419811</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>40.6356516449405</v>
+        <v>83.2315531168086</v>
       </c>
       <c r="C35">
-        <v>6.53530056876173</v>
+        <v>5.99668872346798</v>
       </c>
       <c r="D35">
-        <v>0.982331882087755</v>
+        <v>0.890127199414654</v>
       </c>
       <c r="E35">
-        <v>3.71290408564721</v>
+        <v>3.29269238215677</v>
       </c>
       <c r="F35">
-        <v>6.16678055014087</v>
+        <v>5.57961547684141</v>
       </c>
       <c r="G35">
-        <v>0.298094634176576</v>
+        <v>0.269505898838516</v>
       </c>
       <c r="H35">
-        <v>0.933783056460891</v>
+        <v>0.843971952109362</v>
       </c>
       <c r="I35">
-        <v>1.55161833181326</v>
+        <v>1.47369190154381</v>
       </c>
       <c r="J35">
-        <v>2.56105133050742</v>
+        <v>2.31461247321833</v>
       </c>
       <c r="K35">
-        <v>7.62701114032697</v>
+        <v>6.90049746943863</v>
       </c>
       <c r="L35">
-        <v>3.70474266528335</v>
+        <v>3.35459242434087</v>
       </c>
       <c r="M35">
-        <v>3.12874834915</v>
+        <v>2.83009115935514</v>
       </c>
       <c r="N35">
-        <v>2.86941035758953</v>
+        <v>2.5967832162314</v>
       </c>
       <c r="O35">
-        <v>362.798981368808</v>
+        <v>328.230696331378</v>
       </c>
       <c r="P35">
-        <v>48.5266786028314</v>
+        <v>44.218078479988</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1040.1764982389</v>
+        <v>1959.22850282981</v>
       </c>
       <c r="C36">
-        <v>81.2245724136736</v>
+        <v>69.570612613731</v>
       </c>
       <c r="D36">
-        <v>22.8891483160817</v>
+        <v>19.424818856678</v>
       </c>
       <c r="E36">
-        <v>64.9537563578791</v>
+        <v>56.7517652680974</v>
       </c>
       <c r="F36">
-        <v>48.6951553984059</v>
+        <v>42.7051315793808</v>
       </c>
       <c r="G36">
-        <v>126.407160429215</v>
+        <v>108.028924823556</v>
       </c>
       <c r="H36">
-        <v>133.131887196372</v>
+        <v>113.691762838907</v>
       </c>
       <c r="I36">
-        <v>53.068159028553</v>
+        <v>45.7388813188655</v>
       </c>
       <c r="J36">
-        <v>254.013322505375</v>
+        <v>221.276632136341</v>
       </c>
       <c r="K36">
-        <v>214.94739058709</v>
+        <v>185.661876210652</v>
       </c>
       <c r="L36">
-        <v>128.068608423922</v>
+        <v>111.051000803132</v>
       </c>
       <c r="M36">
-        <v>264.236764582526</v>
+        <v>226.710949892586</v>
       </c>
       <c r="N36">
-        <v>111.370600708272</v>
+        <v>97.3947605508605</v>
       </c>
       <c r="O36">
-        <v>5409.48642587685</v>
+        <v>4698.95484461694</v>
       </c>
       <c r="P36">
-        <v>48.3294026570574</v>
+        <v>44.7061834974485</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>328.488261995379</v>
+        <v>662.572241381208</v>
       </c>
       <c r="C37">
-        <v>26.8329976610324</v>
+        <v>23.1090891707915</v>
       </c>
       <c r="D37">
-        <v>13.9740715254297</v>
+        <v>11.760265261529</v>
       </c>
       <c r="E37">
-        <v>18.6877040698585</v>
+        <v>15.6571413829999</v>
       </c>
       <c r="F37">
-        <v>52.9368496619026</v>
+        <v>44.6814500999911</v>
       </c>
       <c r="G37">
-        <v>10.3128383152086</v>
+        <v>8.61759017264164</v>
       </c>
       <c r="H37">
-        <v>29.1520067594757</v>
+        <v>24.7749499241023</v>
       </c>
       <c r="I37">
-        <v>19.8108444259924</v>
+        <v>16.6101536388176</v>
       </c>
       <c r="J37">
-        <v>36.2602385986967</v>
+        <v>29.5004727490187</v>
       </c>
       <c r="K37">
-        <v>50.8229962529726</v>
+        <v>42.0072108645266</v>
       </c>
       <c r="L37">
-        <v>35.7768879700383</v>
+        <v>30.6017485584412</v>
       </c>
       <c r="M37">
-        <v>35.8839176765951</v>
+        <v>29.67454732868</v>
       </c>
       <c r="N37">
-        <v>19.17525427142</v>
+        <v>16.0475274587182</v>
       </c>
       <c r="O37">
-        <v>1632.14459248028</v>
+        <v>1364.34115665074</v>
       </c>
       <c r="P37">
-        <v>64.8637310909791</v>
+        <v>55.2157651510588</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>367.473023800222</v>
+        <v>626.998668496514</v>
       </c>
       <c r="C38">
-        <v>31.014002136603</v>
+        <v>26.7132459311542</v>
       </c>
       <c r="D38">
-        <v>15.3790541831993</v>
+        <v>13.5185307347202</v>
       </c>
       <c r="E38">
-        <v>57.7605292714624</v>
+        <v>50.3950665387549</v>
       </c>
       <c r="F38">
-        <v>4.79047938683055</v>
+        <v>4.19447184103065</v>
       </c>
       <c r="G38">
-        <v>9.716905244327579</v>
+        <v>8.52476234727521</v>
       </c>
       <c r="H38">
-        <v>8.4736219285752</v>
+        <v>7.43517313975351</v>
       </c>
       <c r="I38">
-        <v>4.60001764926088</v>
+        <v>4.04209688344537</v>
       </c>
       <c r="J38">
-        <v>43.5256122562323</v>
+        <v>37.8319886130203</v>
       </c>
       <c r="K38">
-        <v>20.0841013270817</v>
+        <v>17.3027074761273</v>
       </c>
       <c r="L38">
-        <v>91.3978799723931</v>
+        <v>79.5522476959819</v>
       </c>
       <c r="M38">
-        <v>28.7753529862502</v>
+        <v>25.281038649261</v>
       </c>
       <c r="N38">
-        <v>27.5101891322445</v>
+        <v>23.6335877214342</v>
       </c>
       <c r="O38">
-        <v>1677.18099104807</v>
+        <v>1470.96098968162</v>
       </c>
       <c r="P38">
-        <v>79.9256373749043</v>
+        <v>71.2819606490886</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1275.94818558826</v>
+        <v>2209.33775471387</v>
       </c>
       <c r="C39">
-        <v>151.302258176008</v>
+        <v>133.223640987112</v>
       </c>
       <c r="D39">
-        <v>79.5294971899225</v>
+        <v>69.9300097300019</v>
       </c>
       <c r="E39">
-        <v>97.30092882885199</v>
+        <v>85.1023461173759</v>
       </c>
       <c r="F39">
-        <v>30.4199254912334</v>
+        <v>26.2343261830382</v>
       </c>
       <c r="G39">
-        <v>147.286271942977</v>
+        <v>128.44160678615</v>
       </c>
       <c r="H39">
-        <v>49.448662249868</v>
+        <v>43.2544667496622</v>
       </c>
       <c r="I39">
-        <v>60.8351747497338</v>
+        <v>53.6793867977093</v>
       </c>
       <c r="J39">
-        <v>191.408376587528</v>
+        <v>167.484376906858</v>
       </c>
       <c r="K39">
-        <v>168.68081267886</v>
+        <v>147.590506222851</v>
       </c>
       <c r="L39">
-        <v>152.942517933454</v>
+        <v>132.192155676917</v>
       </c>
       <c r="M39">
-        <v>83.97392148390109</v>
+        <v>73.940466469444</v>
       </c>
       <c r="N39">
-        <v>142.161053610689</v>
+        <v>123.940177134309</v>
       </c>
       <c r="O39">
-        <v>6046.48798860632</v>
+        <v>5290.5351138753</v>
       </c>
       <c r="P39">
-        <v>63.5269144578559</v>
+        <v>56.3611764892199</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>95.4995444968006</v>
+        <v>186.415050290593</v>
       </c>
       <c r="C40">
-        <v>4.66305697093678</v>
+        <v>4.05851645046022</v>
       </c>
       <c r="D40">
-        <v>13.327936741897</v>
+        <v>11.7274304244979</v>
       </c>
       <c r="E40">
-        <v>2.89192491494371</v>
+        <v>2.4572117062271</v>
       </c>
       <c r="F40">
-        <v>1.13661201010682</v>
+        <v>0.99144791923122</v>
       </c>
       <c r="G40">
-        <v>7.74853787965942</v>
+        <v>6.76031283140795</v>
       </c>
       <c r="H40">
-        <v>11.2773815761205</v>
+        <v>9.832317613934039</v>
       </c>
       <c r="I40">
-        <v>2.6411258801185</v>
+        <v>2.29140912277541</v>
       </c>
       <c r="J40">
-        <v>14.9674506798497</v>
+        <v>12.8982165494315</v>
       </c>
       <c r="K40">
-        <v>12.743188117615</v>
+        <v>11.1172050121513</v>
       </c>
       <c r="L40">
-        <v>17.3281873232258</v>
+        <v>15.0997392539713</v>
       </c>
       <c r="M40">
-        <v>9.14907011097378</v>
+        <v>7.83989589955818</v>
       </c>
       <c r="N40">
-        <v>36.4652047780234</v>
+        <v>31.5340889562466</v>
       </c>
       <c r="O40">
-        <v>584.042436936606</v>
+        <v>511.0328030017</v>
       </c>
       <c r="P40">
-        <v>1.41397809718266</v>
+        <v>1.2340064892559</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>336.694378491838</v>
+        <v>754.4292128573781</v>
       </c>
       <c r="C41">
-        <v>15.631711027416</v>
+        <v>12.4719585285629</v>
       </c>
       <c r="D41">
-        <v>127.132308299494</v>
+        <v>106.492591599402</v>
       </c>
       <c r="E41">
-        <v>50.4767169336327</v>
+        <v>42.3469461309334</v>
       </c>
       <c r="F41">
-        <v>4.24460219184786</v>
+        <v>3.51917564272142</v>
       </c>
       <c r="G41">
-        <v>57.4040670827197</v>
+        <v>47.6256335684628</v>
       </c>
       <c r="H41">
-        <v>51.4620027692902</v>
+        <v>42.7300390523898</v>
       </c>
       <c r="I41">
-        <v>10.9402787146719</v>
+        <v>8.7112126456438</v>
       </c>
       <c r="J41">
-        <v>66.27904201115631</v>
+        <v>54.5768681980145</v>
       </c>
       <c r="K41">
-        <v>71.99224052371829</v>
+        <v>59.7639024763714</v>
       </c>
       <c r="L41">
-        <v>37.0652857918504</v>
+        <v>30.7238547183938</v>
       </c>
       <c r="M41">
-        <v>44.0609121377238</v>
+        <v>36.5624176140764</v>
       </c>
       <c r="N41">
-        <v>30.8947671738014</v>
+        <v>25.0959584501791</v>
       </c>
       <c r="O41">
-        <v>1869.37712989804</v>
+        <v>1553.47023334614</v>
       </c>
       <c r="P41">
-        <v>26.4611650654475</v>
+        <v>21.5270026771027</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>46.9122402378923</v>
+        <v>100.811854793582</v>
       </c>
       <c r="C42">
-        <v>9.45635192654083</v>
+        <v>8.470570666786969</v>
       </c>
       <c r="D42">
-        <v>1.81180542603021</v>
+        <v>1.63176680031011</v>
       </c>
       <c r="E42">
-        <v>6.18708715169854</v>
+        <v>5.58676783600339</v>
       </c>
       <c r="F42">
-        <v>2.65697780080031</v>
+        <v>2.39974809747998</v>
       </c>
       <c r="G42">
-        <v>1.38150618688118</v>
+        <v>1.1933089088109</v>
       </c>
       <c r="H42">
-        <v>2.47468823167508</v>
+        <v>2.23368766062069</v>
       </c>
       <c r="I42">
-        <v>0.918327191700374</v>
+        <v>0.828780802149523</v>
       </c>
       <c r="J42">
-        <v>4.64766223887398</v>
+        <v>4.19717221701744</v>
       </c>
       <c r="K42">
-        <v>10.1476039365401</v>
+        <v>9.009164960867089</v>
       </c>
       <c r="L42">
-        <v>10.7651020316862</v>
+        <v>9.64938018365608</v>
       </c>
       <c r="M42">
-        <v>4.75377994109792</v>
+        <v>4.28940434244582</v>
       </c>
       <c r="N42">
-        <v>10.8179389998507</v>
+        <v>9.58364707066781</v>
       </c>
       <c r="O42">
-        <v>445.602704060961</v>
+        <v>403.233975696497</v>
       </c>
       <c r="P42">
-        <v>50.4803900772269</v>
+        <v>45.8650948118625</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>604.9943382255671</v>
+        <v>1173.41891659946</v>
       </c>
       <c r="C43">
-        <v>42.5075087659786</v>
+        <v>35.0825348912263</v>
       </c>
       <c r="D43">
-        <v>70.8671072093275</v>
+        <v>58.1628975539196</v>
       </c>
       <c r="E43">
-        <v>46.0630461289007</v>
+        <v>38.1094785187432</v>
       </c>
       <c r="F43">
-        <v>13.069320061455</v>
+        <v>10.9362752771728</v>
       </c>
       <c r="G43">
-        <v>36.5810820387844</v>
+        <v>30.5552685983392</v>
       </c>
       <c r="H43">
-        <v>30.0931027746001</v>
+        <v>25.2029701768523</v>
       </c>
       <c r="I43">
-        <v>33.3215738871651</v>
+        <v>27.9098173893903</v>
       </c>
       <c r="J43">
-        <v>64.0244172941031</v>
+        <v>53.0884917838847</v>
       </c>
       <c r="K43">
-        <v>89.9214604174054</v>
+        <v>75.2925868315826</v>
       </c>
       <c r="L43">
-        <v>63.6517831583724</v>
+        <v>53.313212144686</v>
       </c>
       <c r="M43">
-        <v>98.3776482517051</v>
+        <v>81.3723342596314</v>
       </c>
       <c r="N43">
-        <v>93.8034484984791</v>
+        <v>79.70782433976621</v>
       </c>
       <c r="O43">
-        <v>2701.59318823731</v>
+        <v>2259.55920924001</v>
       </c>
       <c r="P43">
-        <v>60.5234540102285</v>
+        <v>47.7716524343636</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2219.01008532263</v>
+        <v>3512.44749197545</v>
       </c>
       <c r="C44">
-        <v>190.281385146498</v>
+        <v>169.966278731487</v>
       </c>
       <c r="D44">
-        <v>80.2582803886299</v>
+        <v>70.6296268586898</v>
       </c>
       <c r="E44">
-        <v>84.41182494270301</v>
+        <v>74.8610381803241</v>
       </c>
       <c r="F44">
-        <v>280.718042537325</v>
+        <v>247.254432715186</v>
       </c>
       <c r="G44">
-        <v>170.672541977692</v>
+        <v>151.384261589205</v>
       </c>
       <c r="H44">
-        <v>60.2253765701104</v>
+        <v>52.5340231761406</v>
       </c>
       <c r="I44">
-        <v>61.5655022210606</v>
+        <v>54.3109537277734</v>
       </c>
       <c r="J44">
-        <v>173.548919851655</v>
+        <v>154.98510762739</v>
       </c>
       <c r="K44">
-        <v>162.262050118267</v>
+        <v>145.449552531856</v>
       </c>
       <c r="L44">
-        <v>300.514851391097</v>
+        <v>268.37523364565</v>
       </c>
       <c r="M44">
-        <v>132.229533920288</v>
+        <v>117.236077276685</v>
       </c>
       <c r="N44">
-        <v>106.058407359745</v>
+        <v>94.41094612106799</v>
       </c>
       <c r="O44">
-        <v>9659.420146565841</v>
+        <v>8600.696261695381</v>
       </c>
       <c r="P44">
-        <v>294.332679107194</v>
+        <v>261.117356777999</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>232.435527564514</v>
+        <v>342.000347411722</v>
       </c>
       <c r="C45">
-        <v>16.998733133013</v>
+        <v>15.2353194138161</v>
       </c>
       <c r="D45">
-        <v>6.16793446611872</v>
+        <v>5.60273066357235</v>
       </c>
       <c r="E45">
-        <v>6.21432960859857</v>
+        <v>6.11337058791171</v>
       </c>
       <c r="F45">
-        <v>27.2499947017154</v>
+        <v>24.7651035000508</v>
       </c>
       <c r="G45">
-        <v>13.3513915406219</v>
+        <v>12.1266503983043</v>
       </c>
       <c r="H45">
-        <v>5.680779322071</v>
+        <v>5.16720025553867</v>
       </c>
       <c r="I45">
-        <v>6.07798770420244</v>
+        <v>5.53060406831993</v>
       </c>
       <c r="J45">
-        <v>20.2288528699009</v>
+        <v>18.3915512702298</v>
       </c>
       <c r="K45">
-        <v>12.2060178074785</v>
+        <v>11.0981348413395</v>
       </c>
       <c r="L45">
-        <v>24.3471530608382</v>
+        <v>22.5822897144979</v>
       </c>
       <c r="M45">
-        <v>26.6571808194815</v>
+        <v>23.8549515314494</v>
       </c>
       <c r="N45">
-        <v>29.8532455902526</v>
+        <v>27.3382269522704</v>
       </c>
       <c r="O45">
-        <v>1027.1892475406</v>
+        <v>935.815727145991</v>
       </c>
       <c r="P45">
-        <v>16.0523243208127</v>
+        <v>15.083671965382</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>44.6319093435664</v>
+        <v>93.0498091648529</v>
       </c>
       <c r="C46">
-        <v>5.79220476036178</v>
+        <v>5.17104994632477</v>
       </c>
       <c r="D46">
-        <v>2.52809884614637</v>
+        <v>2.34467295486143</v>
       </c>
       <c r="E46">
-        <v>7.00193407592117</v>
+        <v>6.13931090408874</v>
       </c>
       <c r="F46">
-        <v>2.27938432548804</v>
+        <v>2.03360977406453</v>
       </c>
       <c r="G46">
-        <v>2.31612153265475</v>
+        <v>2.06184838220332</v>
       </c>
       <c r="H46">
-        <v>3.36329249138479</v>
+        <v>2.99020602317806</v>
       </c>
       <c r="I46">
-        <v>2.42136663600687</v>
+        <v>2.03020408506193</v>
       </c>
       <c r="J46">
-        <v>5.46091311869477</v>
+        <v>4.95547569443495</v>
       </c>
       <c r="K46">
-        <v>6.89358840222567</v>
+        <v>6.31130325399502</v>
       </c>
       <c r="L46">
-        <v>17.2656589359626</v>
+        <v>15.1433954887952</v>
       </c>
       <c r="M46">
-        <v>6.0309785264579</v>
+        <v>5.36921433372764</v>
       </c>
       <c r="N46">
-        <v>10.323229044675</v>
+        <v>9.19391550716391</v>
       </c>
       <c r="O46">
-        <v>369.170386648551</v>
+        <v>329.366864933192</v>
       </c>
       <c r="P46">
-        <v>10.8802601760839</v>
+        <v>10.1562134961895</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>630.956214771566</v>
+        <v>1186.67733147348</v>
       </c>
       <c r="C47">
-        <v>71.01304454608599</v>
+        <v>61.2881760123263</v>
       </c>
       <c r="D47">
-        <v>43.3919293754785</v>
+        <v>37.6784650216827</v>
       </c>
       <c r="E47">
-        <v>43.2293299900056</v>
+        <v>37.5131697337227</v>
       </c>
       <c r="F47">
-        <v>9.735934612605631</v>
+        <v>7.90115591224279</v>
       </c>
       <c r="G47">
-        <v>40.2023915886011</v>
+        <v>33.8477903953372</v>
       </c>
       <c r="H47">
-        <v>23.7975566724615</v>
+        <v>21.2806623194443</v>
       </c>
       <c r="I47">
-        <v>17.3365634678027</v>
+        <v>15.0348731049832</v>
       </c>
       <c r="J47">
-        <v>60.0277816297054</v>
+        <v>50.9671943132906</v>
       </c>
       <c r="K47">
-        <v>32.9772696477216</v>
+        <v>27.623251053908</v>
       </c>
       <c r="L47">
-        <v>71.6938234355618</v>
+        <v>62.199618925492</v>
       </c>
       <c r="M47">
-        <v>90.1408927471838</v>
+        <v>78.16668937320139</v>
       </c>
       <c r="N47">
-        <v>46.6218719025036</v>
+        <v>40.4509775098898</v>
       </c>
       <c r="O47">
-        <v>3668.79668842498</v>
+        <v>3194.86685967543</v>
       </c>
       <c r="P47">
-        <v>41.3855349235168</v>
+        <v>35.8507174245401</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>651.952691471104</v>
+        <v>1069.05676196278</v>
       </c>
       <c r="C48">
-        <v>22.2792869585735</v>
+        <v>20.2157662124754</v>
       </c>
       <c r="D48">
-        <v>14.5184735390413</v>
+        <v>12.7745172290417</v>
       </c>
       <c r="E48">
-        <v>77.0521940982313</v>
+        <v>68.6369217636513</v>
       </c>
       <c r="F48">
-        <v>18.8712488376044</v>
+        <v>16.6092630142509</v>
       </c>
       <c r="G48">
-        <v>14.1576682388355</v>
+        <v>12.4666910151521</v>
       </c>
       <c r="H48">
-        <v>4.61227760728921</v>
+        <v>4.0572632403627</v>
       </c>
       <c r="I48">
-        <v>17.7505437309784</v>
+        <v>15.633041647488</v>
       </c>
       <c r="J48">
-        <v>29.3133819291321</v>
+        <v>25.8056526079453</v>
       </c>
       <c r="K48">
-        <v>29.9287439820021</v>
+        <v>26.9681293323076</v>
       </c>
       <c r="L48">
-        <v>51.2616759266081</v>
+        <v>45.0850000657213</v>
       </c>
       <c r="M48">
-        <v>180.626775676255</v>
+        <v>160.850604538736</v>
       </c>
       <c r="N48">
-        <v>25.5729518875959</v>
+        <v>22.4953769229237</v>
       </c>
       <c r="O48">
-        <v>2893.49352741759</v>
+        <v>2544.22123396012</v>
       </c>
       <c r="P48">
-        <v>97.10888478940549</v>
+        <v>83.56800189731889</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>299.133618990665</v>
+        <v>521.624365598244</v>
       </c>
       <c r="C49">
-        <v>7.54330132279783</v>
+        <v>6.00847920302233</v>
       </c>
       <c r="D49">
-        <v>9.2257376885514</v>
+        <v>7.34933462016464</v>
       </c>
       <c r="E49">
-        <v>17.3543682768437</v>
+        <v>14.0297789418009</v>
       </c>
       <c r="F49">
-        <v>52.0026301321239</v>
+        <v>41.6498877720184</v>
       </c>
       <c r="G49">
-        <v>27.4855502647339</v>
+        <v>21.9169607548914</v>
       </c>
       <c r="H49">
-        <v>5.77468506182153</v>
+        <v>4.58537746155663</v>
       </c>
       <c r="I49">
-        <v>13.6667123784612</v>
+        <v>11.1034763393517</v>
       </c>
       <c r="J49">
-        <v>31.8959078427091</v>
+        <v>25.4236880810345</v>
       </c>
       <c r="K49">
-        <v>13.2407909945458</v>
+        <v>10.5159869375993</v>
       </c>
       <c r="L49">
-        <v>3.85264709671132</v>
+        <v>3.07526852506719</v>
       </c>
       <c r="M49">
-        <v>7.57481877347056</v>
+        <v>6.6431012790702</v>
       </c>
       <c r="N49">
-        <v>4.32266409832767</v>
+        <v>3.80639655328437</v>
       </c>
       <c r="O49">
-        <v>901.69923664994</v>
+        <v>718.901565547979</v>
       </c>
       <c r="P49">
-        <v>10.687246694818</v>
+        <v>8.94394627060667</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>356.801437482408</v>
+        <v>725.748202051059</v>
       </c>
       <c r="C50">
-        <v>98.4787325363545</v>
+        <v>87.95230651277009</v>
       </c>
       <c r="D50">
-        <v>14.5886141080096</v>
+        <v>13.021449941659</v>
       </c>
       <c r="E50">
-        <v>120.406219670169</v>
+        <v>108.024600960368</v>
       </c>
       <c r="F50">
-        <v>2.96040859935772</v>
+        <v>2.64279647850842</v>
       </c>
       <c r="G50">
-        <v>40.0635863714749</v>
+        <v>34.8765227616924</v>
       </c>
       <c r="H50">
-        <v>41.4681750670345</v>
+        <v>38.0490485567806</v>
       </c>
       <c r="I50">
-        <v>18.7983791530698</v>
+        <v>16.4031894155705</v>
       </c>
       <c r="J50">
-        <v>114.405153359359</v>
+        <v>101.267758777072</v>
       </c>
       <c r="K50">
-        <v>137.433718992755</v>
+        <v>121.344557115597</v>
       </c>
       <c r="L50">
-        <v>100.857158419339</v>
+        <v>90.0429789733322</v>
       </c>
       <c r="M50">
-        <v>37.5812856150499</v>
+        <v>33.0158345710837</v>
       </c>
       <c r="N50">
-        <v>91.81441705140151</v>
+        <v>81.9569578786374</v>
       </c>
       <c r="O50">
-        <v>2547.9259126572</v>
+        <v>2277.04752437581</v>
       </c>
       <c r="P50">
-        <v>80.40107936788171</v>
+        <v>72.4981626325265</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>54.6037742251189</v>
+        <v>99.58334552858349</v>
       </c>
       <c r="C51">
-        <v>2.19651118618766</v>
+        <v>2.28142058405725</v>
       </c>
       <c r="D51">
-        <v>0.0701409264799515</v>
+        <v>0.154032216192855</v>
       </c>
       <c r="E51">
-        <v>1.64139950958077</v>
+        <v>1.45679733539528</v>
       </c>
       <c r="F51">
-        <v>38.9812851281863</v>
+        <v>34.5726982051451</v>
       </c>
       <c r="G51">
-        <v>1.82362108059237</v>
+        <v>1.61706712160195</v>
       </c>
       <c r="H51">
-        <v>0.389693092221673</v>
+        <v>0.34474989332753</v>
       </c>
       <c r="I51">
-        <v>1.73663690797967</v>
+        <v>1.53979618697684</v>
       </c>
       <c r="J51">
-        <v>2.73363817534182</v>
+        <v>2.42497023761507</v>
       </c>
       <c r="K51">
-        <v>1.6442772369681</v>
+        <v>1.47351131449902</v>
       </c>
       <c r="L51">
-        <v>0.458625071118361</v>
+        <v>0.406826151157583</v>
       </c>
       <c r="M51">
-        <v>0.771318341155056</v>
+        <v>0.76049387423205</v>
       </c>
       <c r="N51">
-        <v>2.10513601914873</v>
+        <v>1.86428771924494</v>
       </c>
       <c r="O51">
-        <v>320.814675138864</v>
+        <v>283.807316968494</v>
       </c>
       <c r="P51">
-        <v>22.2889541033932</v>
+        <v>19.9540894710961</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>907.916606610992</v>
+        <v>1208.06716237318</v>
       </c>
       <c r="C2">
-        <v>36.7917360878359</v>
+        <v>32.6077893860345</v>
       </c>
       <c r="D2">
-        <v>70.6954016264348</v>
+        <v>60.3784107011567</v>
       </c>
       <c r="E2">
-        <v>76.4924436550177</v>
+        <v>69.27951956550911</v>
       </c>
       <c r="F2">
-        <v>17.0516268573247</v>
+        <v>16.9843687572529</v>
       </c>
       <c r="G2">
-        <v>21.8195722729799</v>
+        <v>20.032088847931</v>
       </c>
       <c r="H2">
-        <v>35.2003016637826</v>
+        <v>32.3774475555442</v>
       </c>
       <c r="I2">
-        <v>19.4653659196179</v>
+        <v>11.7604966891805</v>
       </c>
       <c r="J2">
-        <v>71.45111553931881</v>
+        <v>61.3607927442825</v>
       </c>
       <c r="K2">
-        <v>21.3330643442412</v>
+        <v>20.7077299151967</v>
       </c>
       <c r="L2">
-        <v>37.2696365419382</v>
+        <v>37.9480823933505</v>
       </c>
       <c r="M2">
-        <v>48.550755748434</v>
+        <v>44.3209678498026</v>
       </c>
       <c r="N2">
-        <v>26.8044557968665</v>
+        <v>22.4613771245733</v>
       </c>
       <c r="O2">
-        <v>1704.68962881533</v>
+        <v>1476.59325966516</v>
       </c>
       <c r="P2">
-        <v>39.8274340592156</v>
+        <v>25.7880695491481</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>131.466812562737</v>
+        <v>153.355152555984</v>
       </c>
       <c r="C3">
-        <v>3.92895433719553</v>
+        <v>3.36461709459853</v>
       </c>
       <c r="D3">
-        <v>0.404159559355581</v>
+        <v>0.379949558898451</v>
       </c>
       <c r="E3">
-        <v>1.34462033623816</v>
+        <v>1.27942757700643</v>
       </c>
       <c r="F3">
-        <v>13.9297721940651</v>
+        <v>13.6048724341721</v>
       </c>
       <c r="G3">
-        <v>1.14656870799037</v>
+        <v>0.717457355113492</v>
       </c>
       <c r="H3">
-        <v>0.081177911699763</v>
+        <v>0.0292155924955588</v>
       </c>
       <c r="I3">
-        <v>0.625627416315002</v>
+        <v>0.735526760705397</v>
       </c>
       <c r="J3">
-        <v>0.625805651403989</v>
+        <v>1.08590415988364</v>
       </c>
       <c r="K3">
-        <v>0.353439029844943</v>
+        <v>0.358355274210572</v>
       </c>
       <c r="L3">
-        <v>0.243761788245081</v>
+        <v>0.426867481850712</v>
       </c>
       <c r="M3">
-        <v>1.59603241305866</v>
+        <v>1.06870001293776</v>
       </c>
       <c r="N3">
-        <v>1.31775314121876</v>
+        <v>2.2989805786053</v>
       </c>
       <c r="O3">
-        <v>347.077036978631</v>
+        <v>324.485572214383</v>
       </c>
       <c r="P3">
-        <v>12.6657530624016</v>
+        <v>14.6584407775198</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>959.443729326508</v>
+        <v>1201.73327901301</v>
       </c>
       <c r="C4">
-        <v>13.8192825072076</v>
+        <v>10.2037769762423</v>
       </c>
       <c r="D4">
-        <v>7.65235049668751</v>
+        <v>3.15775873049786</v>
       </c>
       <c r="E4">
-        <v>13.8258999209014</v>
+        <v>18.232884593544</v>
       </c>
       <c r="F4">
-        <v>8.15346037143892</v>
+        <v>13.1058386842459</v>
       </c>
       <c r="G4">
-        <v>13.7813977789143</v>
+        <v>9.974348177172841</v>
       </c>
       <c r="H4">
-        <v>5.27511143922866</v>
+        <v>8.37845169589575</v>
       </c>
       <c r="I4">
-        <v>8.516532445491951</v>
+        <v>10.9884408942259</v>
       </c>
       <c r="J4">
-        <v>28.4374031723221</v>
+        <v>21.8247015905473</v>
       </c>
       <c r="K4">
-        <v>9.78829519686734</v>
+        <v>6.44525055177052</v>
       </c>
       <c r="L4">
-        <v>98.72265555075821</v>
+        <v>74.5004776050624</v>
       </c>
       <c r="M4">
-        <v>59.7696545640393</v>
+        <v>47.5957416862985</v>
       </c>
       <c r="N4">
-        <v>39.1171172649367</v>
+        <v>38.7319831703047</v>
       </c>
       <c r="O4">
-        <v>2239.50851770037</v>
+        <v>2058.92660334038</v>
       </c>
       <c r="P4">
-        <v>36.2138229658243</v>
+        <v>24.3316084198178</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>561.938184374296</v>
+        <v>678.299347685496</v>
       </c>
       <c r="C5">
-        <v>63.7349411144259</v>
+        <v>55.3831941111874</v>
       </c>
       <c r="D5">
-        <v>18.6727908801954</v>
+        <v>14.0497951480434</v>
       </c>
       <c r="E5">
-        <v>33.1201020743986</v>
+        <v>29.227389470101</v>
       </c>
       <c r="F5">
-        <v>1.21097023415631</v>
+        <v>1.62015759971718</v>
       </c>
       <c r="G5">
-        <v>10.6329939034187</v>
+        <v>7.55647566767119</v>
       </c>
       <c r="H5">
-        <v>11.3464784709004</v>
+        <v>12.6452518237408</v>
       </c>
       <c r="I5">
-        <v>10.1791313988364</v>
+        <v>9.206990820297101</v>
       </c>
       <c r="J5">
-        <v>37.5101746435952</v>
+        <v>29.5528484082935</v>
       </c>
       <c r="K5">
-        <v>28.947032727026</v>
+        <v>24.4141452964716</v>
       </c>
       <c r="L5">
-        <v>26.1545302482905</v>
+        <v>26.4139579623702</v>
       </c>
       <c r="M5">
-        <v>16.5455929063698</v>
+        <v>23.7225054502417</v>
       </c>
       <c r="N5">
-        <v>18.4021387762587</v>
+        <v>23.7273440459061</v>
       </c>
       <c r="O5">
-        <v>1016.25041766603</v>
+        <v>911.1365682254331</v>
       </c>
       <c r="P5">
-        <v>42.4330459394318</v>
+        <v>54.3583171196303</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6128.48910832668</v>
+        <v>7538.14853835817</v>
       </c>
       <c r="C6">
-        <v>174.563449479449</v>
+        <v>179.508479655903</v>
       </c>
       <c r="D6">
-        <v>292.999486085999</v>
+        <v>239.601824471368</v>
       </c>
       <c r="E6">
-        <v>107.447646117285</v>
+        <v>130.178103848769</v>
       </c>
       <c r="F6">
-        <v>44.9840837795115</v>
+        <v>42.1683214603271</v>
       </c>
       <c r="G6">
-        <v>150.605641038208</v>
+        <v>95.0971717337514</v>
       </c>
       <c r="H6">
-        <v>83.19365511457561</v>
+        <v>85.0939190557706</v>
       </c>
       <c r="I6">
-        <v>62.434104962846</v>
+        <v>45.2167660313072</v>
       </c>
       <c r="J6">
-        <v>204.50418051195</v>
+        <v>184.19078775005</v>
       </c>
       <c r="K6">
-        <v>160.859834127637</v>
+        <v>140.243423805625</v>
       </c>
       <c r="L6">
-        <v>556.444232436472</v>
+        <v>507.26035984237</v>
       </c>
       <c r="M6">
-        <v>376.20267559654</v>
+        <v>289.137989136325</v>
       </c>
       <c r="N6">
-        <v>368.761533199382</v>
+        <v>326.156333187006</v>
       </c>
       <c r="O6">
-        <v>14114.3460642125</v>
+        <v>13006.1977671901</v>
       </c>
       <c r="P6">
-        <v>256.88908537662</v>
+        <v>286.495455922093</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>634.22488688924</v>
+        <v>791.0043344791731</v>
       </c>
       <c r="C7">
-        <v>36.4748757901504</v>
+        <v>33.6952624221453</v>
       </c>
       <c r="D7">
-        <v>6.15159091549061</v>
+        <v>3.32386864657731</v>
       </c>
       <c r="E7">
-        <v>11.4620779858061</v>
+        <v>12.2726343774727</v>
       </c>
       <c r="F7">
-        <v>16.0212904535266</v>
+        <v>12.9177217425027</v>
       </c>
       <c r="G7">
-        <v>11.3115082695125</v>
+        <v>6.87064896247619</v>
       </c>
       <c r="H7">
-        <v>11.9223063268115</v>
+        <v>7.58383545792135</v>
       </c>
       <c r="I7">
-        <v>10.807413345421</v>
+        <v>10.2343132354012</v>
       </c>
       <c r="J7">
-        <v>21.7171255163424</v>
+        <v>21.5438805256115</v>
       </c>
       <c r="K7">
-        <v>22.6905140326124</v>
+        <v>22.4632751010216</v>
       </c>
       <c r="L7">
-        <v>63.4886003345509</v>
+        <v>55.4855416985692</v>
       </c>
       <c r="M7">
-        <v>25.8491606325141</v>
+        <v>19.8074645947403</v>
       </c>
       <c r="N7">
-        <v>32.9518030885199</v>
+        <v>30.3626173039581</v>
       </c>
       <c r="O7">
-        <v>2060.0995768004</v>
+        <v>1932.4979294906</v>
       </c>
       <c r="P7">
-        <v>24.1226926522908</v>
+        <v>21.2196302414098</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>484.111570037107</v>
+        <v>649.9430389894291</v>
       </c>
       <c r="C8">
-        <v>15.2237887078325</v>
+        <v>11.6251218754908</v>
       </c>
       <c r="D8">
-        <v>10.4228835557727</v>
+        <v>9.969228665522349</v>
       </c>
       <c r="E8">
-        <v>11.086445410763</v>
+        <v>12.613888039402</v>
       </c>
       <c r="F8">
-        <v>3.10348007528476</v>
+        <v>3.71974045480812</v>
       </c>
       <c r="G8">
-        <v>35.1871596960713</v>
+        <v>30.0080710885114</v>
       </c>
       <c r="H8">
-        <v>16.9035880822351</v>
+        <v>12.6070501120716</v>
       </c>
       <c r="I8">
-        <v>1.40706543203956</v>
+        <v>5.2022218018651</v>
       </c>
       <c r="J8">
-        <v>48.8956115703077</v>
+        <v>44.0459454527499</v>
       </c>
       <c r="K8">
-        <v>48.3919132662117</v>
+        <v>33.7776375885598</v>
       </c>
       <c r="L8">
-        <v>53.7192965820408</v>
+        <v>40.4120194119427</v>
       </c>
       <c r="M8">
-        <v>72.11336671728171</v>
+        <v>53.7162396106867</v>
       </c>
       <c r="N8">
-        <v>34.9954610092073</v>
+        <v>37.2745507164444</v>
       </c>
       <c r="O8">
-        <v>1561.49669362105</v>
+        <v>1448.59468853541</v>
       </c>
       <c r="P8">
-        <v>5.72385021473381</v>
+        <v>4.04513874121574</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>141.53080576522</v>
+        <v>183.856969661006</v>
       </c>
       <c r="C9">
-        <v>8.93556404172644</v>
+        <v>7.93099211795189</v>
       </c>
       <c r="D9">
-        <v>2.50921984350091</v>
+        <v>1.8151405179962</v>
       </c>
       <c r="E9">
-        <v>4.99258555699383</v>
+        <v>4.35259265686784</v>
       </c>
       <c r="F9">
-        <v>2.531624115741</v>
+        <v>2.45606463724735</v>
       </c>
       <c r="G9">
-        <v>27.4882789295232</v>
+        <v>25.6036787984992</v>
       </c>
       <c r="H9">
-        <v>3.98735675315535</v>
+        <v>4.86188553496812</v>
       </c>
       <c r="I9">
-        <v>0.98377034333063</v>
+        <v>1.51054951106934</v>
       </c>
       <c r="J9">
-        <v>3.51119755598592</v>
+        <v>3.39605258913738</v>
       </c>
       <c r="K9">
-        <v>4.65600658178485</v>
+        <v>3.86825440834757</v>
       </c>
       <c r="L9">
-        <v>4.04261336090778</v>
+        <v>2.7761491228931</v>
       </c>
       <c r="M9">
-        <v>9.10494062148369</v>
+        <v>9.41930534288773</v>
       </c>
       <c r="N9">
-        <v>6.03592254515435</v>
+        <v>6.25352307635713</v>
       </c>
       <c r="O9">
-        <v>409.288032248984</v>
+        <v>372.220649912758</v>
       </c>
       <c r="P9">
-        <v>7.25626163842588</v>
+        <v>5.7675056975605</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3000.41103347391</v>
+        <v>4021.50881818149</v>
       </c>
       <c r="C10">
-        <v>57.3268186682793</v>
+        <v>63.0799261233864</v>
       </c>
       <c r="D10">
-        <v>43.7292179305891</v>
+        <v>42.6313000898259</v>
       </c>
       <c r="E10">
-        <v>43.4219550323283</v>
+        <v>45.4014397424221</v>
       </c>
       <c r="F10">
-        <v>10.4062493229673</v>
+        <v>10.1567342211481</v>
       </c>
       <c r="G10">
-        <v>38.6649907829007</v>
+        <v>29.5731594682102</v>
       </c>
       <c r="H10">
-        <v>21.1258665576199</v>
+        <v>18.5140539947239</v>
       </c>
       <c r="I10">
-        <v>39.1162803417406</v>
+        <v>43.1053676380603</v>
       </c>
       <c r="J10">
-        <v>49.8325749731085</v>
+        <v>56.0806679553815</v>
       </c>
       <c r="K10">
-        <v>52.838756738754</v>
+        <v>44.3748066696243</v>
       </c>
       <c r="L10">
-        <v>134.994234857505</v>
+        <v>106.9658432677</v>
       </c>
       <c r="M10">
-        <v>105.933699250239</v>
+        <v>80.26122951965481</v>
       </c>
       <c r="N10">
-        <v>103.020569482228</v>
+        <v>101.66226506668</v>
       </c>
       <c r="O10">
-        <v>7855.02309242259</v>
+        <v>6892.88906763296</v>
       </c>
       <c r="P10">
-        <v>95.40448322679779</v>
+        <v>101.508278869447</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1402.26223782732</v>
+        <v>1760.97262185819</v>
       </c>
       <c r="C11">
-        <v>71.4922971814259</v>
+        <v>72.92302853137871</v>
       </c>
       <c r="D11">
-        <v>166.839057446431</v>
+        <v>172.437708128058</v>
       </c>
       <c r="E11">
-        <v>105.806280827107</v>
+        <v>72.0885116832536</v>
       </c>
       <c r="F11">
-        <v>8.68587559829116</v>
+        <v>7.52583333547446</v>
       </c>
       <c r="G11">
-        <v>40.8331930142333</v>
+        <v>26.0382057617699</v>
       </c>
       <c r="H11">
-        <v>20.0494171917829</v>
+        <v>18.13698492002</v>
       </c>
       <c r="I11">
-        <v>24.465583622089</v>
+        <v>21.9224917825576</v>
       </c>
       <c r="J11">
-        <v>51.0850256515998</v>
+        <v>48.0242952139006</v>
       </c>
       <c r="K11">
-        <v>48.0886410241471</v>
+        <v>41.3980937758238</v>
       </c>
       <c r="L11">
-        <v>73.05182005121161</v>
+        <v>63.6676541769949</v>
       </c>
       <c r="M11">
-        <v>60.0167903649192</v>
+        <v>49.9790169619334</v>
       </c>
       <c r="N11">
-        <v>48.9980072527336</v>
+        <v>41.8809670791469</v>
       </c>
       <c r="O11">
-        <v>3500.23940030463</v>
+        <v>3202.07892527474</v>
       </c>
       <c r="P11">
-        <v>27.5509177144705</v>
+        <v>48.3257117854475</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>217.897429068117</v>
+        <v>280.262630911633</v>
       </c>
       <c r="C12">
-        <v>11.8442347907115</v>
+        <v>9.996314977660139</v>
       </c>
       <c r="D12">
-        <v>5.04838271750926</v>
+        <v>1.89257444825894</v>
       </c>
       <c r="E12">
-        <v>0.433714719507391</v>
+        <v>0.778240084550867</v>
       </c>
       <c r="F12">
-        <v>1.08383641369982</v>
+        <v>0.916091890547747</v>
       </c>
       <c r="G12">
-        <v>0.909072507222664</v>
+        <v>0.214434535301238</v>
       </c>
       <c r="H12">
-        <v>0.366906680777961</v>
+        <v>0.0713574787626827</v>
       </c>
       <c r="I12">
-        <v>1.62268339210735</v>
+        <v>1.25449091046784</v>
       </c>
       <c r="J12">
-        <v>1.06346807310514</v>
+        <v>2.3716046702865</v>
       </c>
       <c r="K12">
-        <v>0.534002978493668</v>
+        <v>0.386187529147061</v>
       </c>
       <c r="L12">
-        <v>0.400817396943887</v>
+        <v>0.0152931222330321</v>
       </c>
       <c r="M12">
-        <v>5.27886588903774</v>
+        <v>4.36257851579597</v>
       </c>
       <c r="N12">
-        <v>4.43240083504205</v>
+        <v>4.38210267014914</v>
       </c>
       <c r="O12">
-        <v>674.698147262983</v>
+        <v>613.114876401486</v>
       </c>
       <c r="P12">
-        <v>18.3307182546786</v>
+        <v>22.6973316654061</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>215.632080924989</v>
+        <v>254.20420959351</v>
       </c>
       <c r="C13">
-        <v>29.9832612273312</v>
+        <v>19.8476560243952</v>
       </c>
       <c r="D13">
-        <v>1.55611942778584</v>
+        <v>0.657983999884144</v>
       </c>
       <c r="E13">
-        <v>17.0373495248516</v>
+        <v>14.2182333651086</v>
       </c>
       <c r="F13">
-        <v>4.69838327342431</v>
+        <v>3.07331765719182</v>
       </c>
       <c r="G13">
-        <v>6.765918356167</v>
+        <v>7.0458434934187</v>
       </c>
       <c r="H13">
-        <v>2.04902808952934</v>
+        <v>1.63380937851368</v>
       </c>
       <c r="I13">
-        <v>1.75098291448009</v>
+        <v>1.2682720441468</v>
       </c>
       <c r="J13">
-        <v>5.17005774792069</v>
+        <v>5.91064184134399</v>
       </c>
       <c r="K13">
-        <v>4.99144057679926</v>
+        <v>6.4759740839097</v>
       </c>
       <c r="L13">
-        <v>29.4106233766128</v>
+        <v>24.9134262546929</v>
       </c>
       <c r="M13">
-        <v>4.19907110478878</v>
+        <v>2.01012994065422</v>
       </c>
       <c r="N13">
-        <v>8.854054195372569</v>
+        <v>6.33502107898981</v>
       </c>
       <c r="O13">
-        <v>551.646918688331</v>
+        <v>528.859887576417</v>
       </c>
       <c r="P13">
-        <v>49.2008252871277</v>
+        <v>57.1224055584883</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1961.31089160824</v>
+        <v>2529.10240904008</v>
       </c>
       <c r="C14">
-        <v>118.05568057873</v>
+        <v>119.579858489092</v>
       </c>
       <c r="D14">
-        <v>18.6410244514575</v>
+        <v>14.870424130203</v>
       </c>
       <c r="E14">
-        <v>56.4084509059217</v>
+        <v>63.7757433632759</v>
       </c>
       <c r="F14">
-        <v>16.1315801063388</v>
+        <v>19.518130819987</v>
       </c>
       <c r="G14">
-        <v>118.735824040703</v>
+        <v>112.752602186016</v>
       </c>
       <c r="H14">
-        <v>66.10207239015131</v>
+        <v>47.1158722203737</v>
       </c>
       <c r="I14">
-        <v>31.9251906653899</v>
+        <v>30.7901890806729</v>
       </c>
       <c r="J14">
-        <v>149.912116798906</v>
+        <v>149.244547015398</v>
       </c>
       <c r="K14">
-        <v>210.662580736843</v>
+        <v>181.745475266285</v>
       </c>
       <c r="L14">
-        <v>175.249424850539</v>
+        <v>144.424534497044</v>
       </c>
       <c r="M14">
-        <v>92.2746037329067</v>
+        <v>88.341385905289</v>
       </c>
       <c r="N14">
-        <v>105.968497640517</v>
+        <v>93.0091253877938</v>
       </c>
       <c r="O14">
-        <v>5467.8632879404</v>
+        <v>4969.26259655319</v>
       </c>
       <c r="P14">
-        <v>40.6313406780727</v>
+        <v>56.3759405060809</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>994.163138788081</v>
+        <v>1267.3919565464</v>
       </c>
       <c r="C15">
-        <v>32.7584263365915</v>
+        <v>27.8543749942868</v>
       </c>
       <c r="D15">
-        <v>15.7633636057318</v>
+        <v>14.8237626436864</v>
       </c>
       <c r="E15">
-        <v>57.8383252036475</v>
+        <v>58.7628746425727</v>
       </c>
       <c r="F15">
-        <v>12.4971219311538</v>
+        <v>15.4257089511074</v>
       </c>
       <c r="G15">
-        <v>46.2054106197363</v>
+        <v>38.1953817988415</v>
       </c>
       <c r="H15">
-        <v>50.8632756282896</v>
+        <v>64.5504633890164</v>
       </c>
       <c r="I15">
-        <v>50.4706116966057</v>
+        <v>31.2554187545967</v>
       </c>
       <c r="J15">
-        <v>197.63445299761</v>
+        <v>156.654292030419</v>
       </c>
       <c r="K15">
-        <v>104.910712778589</v>
+        <v>74.24894103518</v>
       </c>
       <c r="L15">
-        <v>62.1859745011126</v>
+        <v>48.7987839674495</v>
       </c>
       <c r="M15">
-        <v>148.931775923367</v>
+        <v>164.186701582844</v>
       </c>
       <c r="N15">
-        <v>100.369102988515</v>
+        <v>105.813711436528</v>
       </c>
       <c r="O15">
-        <v>2343.53072992809</v>
+        <v>2148.43382104034</v>
       </c>
       <c r="P15">
-        <v>48.7689041116633</v>
+        <v>50.1501462201377</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>349.66039371042</v>
+        <v>488.876749701992</v>
       </c>
       <c r="C16">
-        <v>69.4891100384739</v>
+        <v>63.1989840865395</v>
       </c>
       <c r="D16">
-        <v>18.327853074536</v>
+        <v>9.06236364872472</v>
       </c>
       <c r="E16">
-        <v>18.1270212814955</v>
+        <v>17.7320517517709</v>
       </c>
       <c r="F16">
-        <v>4.8473419482443</v>
+        <v>4.67654552941986</v>
       </c>
       <c r="G16">
-        <v>16.6526228800144</v>
+        <v>16.1039404114526</v>
       </c>
       <c r="H16">
-        <v>16.052393234385</v>
+        <v>13.0086098003896</v>
       </c>
       <c r="I16">
-        <v>9.550879970746591</v>
+        <v>9.74540468543999</v>
       </c>
       <c r="J16">
-        <v>44.8674878076016</v>
+        <v>42.0800018451145</v>
       </c>
       <c r="K16">
-        <v>59.9896375848344</v>
+        <v>56.5719815364804</v>
       </c>
       <c r="L16">
-        <v>33.6562688688582</v>
+        <v>29.5730621770131</v>
       </c>
       <c r="M16">
-        <v>14.578190168097</v>
+        <v>23.9572735633217</v>
       </c>
       <c r="N16">
-        <v>30.3855755773307</v>
+        <v>27.7096650598665</v>
       </c>
       <c r="O16">
-        <v>1345.25728497747</v>
+        <v>1226.39312156661</v>
       </c>
       <c r="P16">
-        <v>101.446253386813</v>
+        <v>98.7984649929944</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>375.421614675128</v>
+        <v>493.323140449804</v>
       </c>
       <c r="C17">
-        <v>24.8847022085006</v>
+        <v>24.7488319674026</v>
       </c>
       <c r="D17">
-        <v>9.30507188916137</v>
+        <v>2.76047559293696</v>
       </c>
       <c r="E17">
-        <v>10.1988243615308</v>
+        <v>10.3864756955655</v>
       </c>
       <c r="F17">
-        <v>13.2765604156969</v>
+        <v>10.0325568959886</v>
       </c>
       <c r="G17">
-        <v>13.1245781290498</v>
+        <v>6.73521504859551</v>
       </c>
       <c r="H17">
-        <v>6.53462326482041</v>
+        <v>7.76489667455625</v>
       </c>
       <c r="I17">
-        <v>8.579649413797361</v>
+        <v>9.19497304129964</v>
       </c>
       <c r="J17">
-        <v>18.6833250056063</v>
+        <v>14.2152846084596</v>
       </c>
       <c r="K17">
-        <v>27.2981678450079</v>
+        <v>19.2208863762736</v>
       </c>
       <c r="L17">
-        <v>16.7169563236463</v>
+        <v>8.72751965083858</v>
       </c>
       <c r="M17">
-        <v>85.2130668305789</v>
+        <v>70.88341031760901</v>
       </c>
       <c r="N17">
-        <v>14.6801186494626</v>
+        <v>14.3904731168858</v>
       </c>
       <c r="O17">
-        <v>1239.07087060958</v>
+        <v>1161.84161127684</v>
       </c>
       <c r="P17">
-        <v>53.9974876913864</v>
+        <v>58.6352075978694</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>891.937167098311</v>
+        <v>1085.55757390752</v>
       </c>
       <c r="C18">
-        <v>34.5793897276418</v>
+        <v>33.955821754972</v>
       </c>
       <c r="D18">
-        <v>16.6480312957329</v>
+        <v>11.7381949871496</v>
       </c>
       <c r="E18">
-        <v>28.5675569248011</v>
+        <v>32.6331750927043</v>
       </c>
       <c r="F18">
-        <v>39.8257325246189</v>
+        <v>31.7447815016051</v>
       </c>
       <c r="G18">
-        <v>34.9096859550972</v>
+        <v>26.5690871081222</v>
       </c>
       <c r="H18">
-        <v>22.4652927165954</v>
+        <v>17.7267394101388</v>
       </c>
       <c r="I18">
-        <v>9.732356526746409</v>
+        <v>6.74934042440694</v>
       </c>
       <c r="J18">
-        <v>42.1681542828605</v>
+        <v>45.1134355387142</v>
       </c>
       <c r="K18">
-        <v>29.8512774018948</v>
+        <v>32.2068627340755</v>
       </c>
       <c r="L18">
-        <v>40.8727751023957</v>
+        <v>35.248272998381</v>
       </c>
       <c r="M18">
-        <v>60.583615846769</v>
+        <v>65.9263443271457</v>
       </c>
       <c r="N18">
-        <v>19.6454459240903</v>
+        <v>19.4464311025477</v>
       </c>
       <c r="O18">
-        <v>1642.17836514464</v>
+        <v>1461.23551994575</v>
       </c>
       <c r="P18">
-        <v>44.945433506152</v>
+        <v>58.3614359921954</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>957.43463813288</v>
+        <v>1159.75199690799</v>
       </c>
       <c r="C19">
-        <v>29.3789876364428</v>
+        <v>23.953919515672</v>
       </c>
       <c r="D19">
-        <v>12.9474789711332</v>
+        <v>9.05480748658611</v>
       </c>
       <c r="E19">
-        <v>22.5393161906751</v>
+        <v>30.774473766206</v>
       </c>
       <c r="F19">
-        <v>88.5177000700243</v>
+        <v>93.7083777653485</v>
       </c>
       <c r="G19">
-        <v>41.2919676846267</v>
+        <v>37.1863996359016</v>
       </c>
       <c r="H19">
-        <v>6.53175000521435</v>
+        <v>5.57723180675295</v>
       </c>
       <c r="I19">
-        <v>10.6632585748207</v>
+        <v>2.88250209938389</v>
       </c>
       <c r="J19">
-        <v>13.3519639031354</v>
+        <v>14.338521079326</v>
       </c>
       <c r="K19">
-        <v>20.3984910189665</v>
+        <v>15.9943392859285</v>
       </c>
       <c r="L19">
-        <v>6.98245751642116</v>
+        <v>5.92102598813107</v>
       </c>
       <c r="M19">
-        <v>27.7728271438078</v>
+        <v>28.1499498778883</v>
       </c>
       <c r="N19">
-        <v>5.65571341060995</v>
+        <v>9.76122830461895</v>
       </c>
       <c r="O19">
-        <v>1833.7718771649</v>
+        <v>1648.42453406719</v>
       </c>
       <c r="P19">
-        <v>39.9063011672908</v>
+        <v>38.3057544967243</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>220.459171826821</v>
+        <v>282.506310570525</v>
       </c>
       <c r="C20">
-        <v>9.106657340178559</v>
+        <v>6.7190264019598</v>
       </c>
       <c r="D20">
-        <v>16.6281629162266</v>
+        <v>11.4843946320329</v>
       </c>
       <c r="E20">
-        <v>35.1350673330388</v>
+        <v>36.7307304245556</v>
       </c>
       <c r="F20">
-        <v>0.139341207258304</v>
+        <v>0.820223505178554</v>
       </c>
       <c r="G20">
-        <v>1.24792874434997</v>
+        <v>1.88190269364333</v>
       </c>
       <c r="H20">
-        <v>4.01065104690483</v>
+        <v>2.4786623491328</v>
       </c>
       <c r="I20">
-        <v>0.501220917214252</v>
+        <v>1.1007498054869</v>
       </c>
       <c r="J20">
-        <v>4.56904000352842</v>
+        <v>3.96233014764517</v>
       </c>
       <c r="K20">
-        <v>5.54267005188918</v>
+        <v>4.99756980080107</v>
       </c>
       <c r="L20">
-        <v>9.8205237282565</v>
+        <v>9.31679475420844</v>
       </c>
       <c r="M20">
-        <v>23.5811893779259</v>
+        <v>16.668521102528</v>
       </c>
       <c r="N20">
-        <v>5.88081232731361</v>
+        <v>4.63253385144862</v>
       </c>
       <c r="O20">
-        <v>606.725258795694</v>
+        <v>556.30512970494</v>
       </c>
       <c r="P20">
-        <v>21.7428793129343</v>
+        <v>26.1716673621803</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>819.270982836821</v>
+        <v>1044.98114056814</v>
       </c>
       <c r="C21">
-        <v>25.8935330179748</v>
+        <v>22.3983229526677</v>
       </c>
       <c r="D21">
-        <v>7.88357226423917</v>
+        <v>8.47096322159827</v>
       </c>
       <c r="E21">
-        <v>20.1391008772748</v>
+        <v>24.8209421338003</v>
       </c>
       <c r="F21">
-        <v>2.61933127704234</v>
+        <v>5.56645812874072</v>
       </c>
       <c r="G21">
-        <v>20.7175411353481</v>
+        <v>25.1180025927425</v>
       </c>
       <c r="H21">
-        <v>8.909874736889741</v>
+        <v>5.81713032876479</v>
       </c>
       <c r="I21">
-        <v>9.29401504967074</v>
+        <v>7.23840485387721</v>
       </c>
       <c r="J21">
-        <v>15.3780287170584</v>
+        <v>27.8749933294178</v>
       </c>
       <c r="K21">
-        <v>23.924508307874</v>
+        <v>9.440877999546229</v>
       </c>
       <c r="L21">
-        <v>29.1917035778246</v>
+        <v>17.9861933531938</v>
       </c>
       <c r="M21">
-        <v>30.5863604555819</v>
+        <v>33.8198529070749</v>
       </c>
       <c r="N21">
-        <v>18.427722795542</v>
+        <v>27.2113723329229</v>
       </c>
       <c r="O21">
-        <v>2648.09687267844</v>
+        <v>2415.05444070814</v>
       </c>
       <c r="P21">
-        <v>23.8967617640665</v>
+        <v>18.612804513898</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>978.8937097913461</v>
+        <v>1264.60569943492</v>
       </c>
       <c r="C22">
-        <v>20.7153252884447</v>
+        <v>17.6938472144206</v>
       </c>
       <c r="D22">
-        <v>30.9241175504706</v>
+        <v>24.33198119592</v>
       </c>
       <c r="E22">
-        <v>29.4450904813228</v>
+        <v>31.5449047887861</v>
       </c>
       <c r="F22">
-        <v>2.00567124668115</v>
+        <v>2.18891251353838</v>
       </c>
       <c r="G22">
-        <v>32.38350231738</v>
+        <v>32.1942663576279</v>
       </c>
       <c r="H22">
-        <v>31.7678076814426</v>
+        <v>25.1094530959833</v>
       </c>
       <c r="I22">
-        <v>11.419346507999</v>
+        <v>7.74339328454312</v>
       </c>
       <c r="J22">
-        <v>54.3233287787432</v>
+        <v>50.2751872976858</v>
       </c>
       <c r="K22">
-        <v>50.3407860924877</v>
+        <v>37.5244939488029</v>
       </c>
       <c r="L22">
-        <v>120.107571088651</v>
+        <v>125.875318463594</v>
       </c>
       <c r="M22">
-        <v>21.8247899050253</v>
+        <v>18.4559707799323</v>
       </c>
       <c r="N22">
-        <v>94.29444477599139</v>
+        <v>87.55262335080199</v>
       </c>
       <c r="O22">
-        <v>2962.39597090954</v>
+        <v>2717.6477871014</v>
       </c>
       <c r="P22">
-        <v>20.5964749077323</v>
+        <v>11.9231391768206</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1720.26733514692</v>
+        <v>2201.76646769988</v>
       </c>
       <c r="C23">
-        <v>49.3832642665929</v>
+        <v>45.6711024085895</v>
       </c>
       <c r="D23">
-        <v>18.5780401955458</v>
+        <v>12.1982709660795</v>
       </c>
       <c r="E23">
-        <v>38.7508428038425</v>
+        <v>37.0844191077835</v>
       </c>
       <c r="F23">
-        <v>0.979817780399649</v>
+        <v>4.69259156249348</v>
       </c>
       <c r="G23">
-        <v>73.07417477108071</v>
+        <v>57.3136866784439</v>
       </c>
       <c r="H23">
-        <v>68.0487445909304</v>
+        <v>73.19261245741551</v>
       </c>
       <c r="I23">
-        <v>26.0337403186946</v>
+        <v>16.0520335196939</v>
       </c>
       <c r="J23">
-        <v>166.114420990985</v>
+        <v>137.041496191543</v>
       </c>
       <c r="K23">
-        <v>153.760846248996</v>
+        <v>129.149298942446</v>
       </c>
       <c r="L23">
-        <v>51.9166296587885</v>
+        <v>41.9811051831718</v>
       </c>
       <c r="M23">
-        <v>610.101382814955</v>
+        <v>557.306922660822</v>
       </c>
       <c r="N23">
-        <v>96.02305844496409</v>
+        <v>81.15707462244851</v>
       </c>
       <c r="O23">
-        <v>3884.26116790997</v>
+        <v>3554.60517762294</v>
       </c>
       <c r="P23">
-        <v>44.0891770746561</v>
+        <v>51.9058989578024</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>585.983858120695</v>
+        <v>819.116598192394</v>
       </c>
       <c r="C24">
-        <v>47.0607618500906</v>
+        <v>50.3364561032976</v>
       </c>
       <c r="D24">
-        <v>11.5862842484325</v>
+        <v>11.1093660128915</v>
       </c>
       <c r="E24">
-        <v>42.2727444563262</v>
+        <v>50.1671654551126</v>
       </c>
       <c r="F24">
-        <v>19.2490230720149</v>
+        <v>12.1275689406821</v>
       </c>
       <c r="G24">
-        <v>26.5061386640898</v>
+        <v>31.4630149152221</v>
       </c>
       <c r="H24">
-        <v>19.8684993198707</v>
+        <v>15.0700674467445</v>
       </c>
       <c r="I24">
-        <v>13.9023398626079</v>
+        <v>19.6204480770782</v>
       </c>
       <c r="J24">
-        <v>40.0700630712959</v>
+        <v>37.1565336073604</v>
       </c>
       <c r="K24">
-        <v>98.0530542904629</v>
+        <v>79.68601614079429</v>
       </c>
       <c r="L24">
-        <v>65.1476460503752</v>
+        <v>54.3454440457335</v>
       </c>
       <c r="M24">
-        <v>15.3038552647871</v>
+        <v>27.9314180415355</v>
       </c>
       <c r="N24">
-        <v>86.2267187272502</v>
+        <v>74.0350627738996</v>
       </c>
       <c r="O24">
-        <v>2257.38579625738</v>
+        <v>2031.62610261741</v>
       </c>
       <c r="P24">
-        <v>98.1740844919856</v>
+        <v>105.349564899574</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>599.066479759465</v>
+        <v>733.812548424826</v>
       </c>
       <c r="C25">
-        <v>46.1903129416467</v>
+        <v>46.1280208724111</v>
       </c>
       <c r="D25">
-        <v>21.2545212837824</v>
+        <v>20.7342180966902</v>
       </c>
       <c r="E25">
-        <v>45.1325280790155</v>
+        <v>43.0404509757704</v>
       </c>
       <c r="F25">
-        <v>28.61021492258</v>
+        <v>20.1349540517737</v>
       </c>
       <c r="G25">
-        <v>8.461981129824551</v>
+        <v>5.87304757405255</v>
       </c>
       <c r="H25">
-        <v>17.4577061211054</v>
+        <v>14.7019654110292</v>
       </c>
       <c r="I25">
-        <v>5.40110692790833</v>
+        <v>7.2903960680548</v>
       </c>
       <c r="J25">
-        <v>18.2987565500487</v>
+        <v>18.7098575786803</v>
       </c>
       <c r="K25">
-        <v>24.2700009799165</v>
+        <v>21.9945876797771</v>
       </c>
       <c r="L25">
-        <v>26.5230243709024</v>
+        <v>20.3307243970755</v>
       </c>
       <c r="M25">
-        <v>37.3582448536235</v>
+        <v>32.4261812750272</v>
       </c>
       <c r="N25">
-        <v>32.7986578294283</v>
+        <v>38.7655768592213</v>
       </c>
       <c r="O25">
-        <v>1090.03544571767</v>
+        <v>978.3997813460001</v>
       </c>
       <c r="P25">
-        <v>43.1008028799412</v>
+        <v>45.589640513922</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>816.8722437877919</v>
+        <v>1089.111111255</v>
       </c>
       <c r="C26">
-        <v>69.3337091667706</v>
+        <v>63.6092943136217</v>
       </c>
       <c r="D26">
-        <v>13.6825905834842</v>
+        <v>18.7171628622554</v>
       </c>
       <c r="E26">
-        <v>43.0348624828396</v>
+        <v>35.5907921269121</v>
       </c>
       <c r="F26">
-        <v>8.15145972212405</v>
+        <v>7.08322552412705</v>
       </c>
       <c r="G26">
-        <v>50.0551993071987</v>
+        <v>34.7538105202054</v>
       </c>
       <c r="H26">
-        <v>16.5142388000326</v>
+        <v>21.7411350538228</v>
       </c>
       <c r="I26">
-        <v>18.8426973155052</v>
+        <v>19.6387886194723</v>
       </c>
       <c r="J26">
-        <v>58.6393655586</v>
+        <v>74.646600780687</v>
       </c>
       <c r="K26">
-        <v>53.6544849959877</v>
+        <v>43.9232614114131</v>
       </c>
       <c r="L26">
-        <v>33.4769611681221</v>
+        <v>33.1267392432785</v>
       </c>
       <c r="M26">
-        <v>71.1128363546396</v>
+        <v>75.4400327750601</v>
       </c>
       <c r="N26">
-        <v>35.8544713521783</v>
+        <v>36.0396829077149</v>
       </c>
       <c r="O26">
-        <v>2563.38631661093</v>
+        <v>2275.55392924054</v>
       </c>
       <c r="P26">
-        <v>56.3099460968832</v>
+        <v>73.5581278070426</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>166.071977583878</v>
+        <v>210.093541215581</v>
       </c>
       <c r="C27">
-        <v>4.29264560770002</v>
+        <v>3.61366441452367</v>
       </c>
       <c r="D27">
-        <v>0.969395476102613</v>
+        <v>0.991012560694101</v>
       </c>
       <c r="E27">
-        <v>14.4096104729031</v>
+        <v>11.0845948354442</v>
       </c>
       <c r="F27">
-        <v>7.37554229858734</v>
+        <v>6.80204950499446</v>
       </c>
       <c r="G27">
-        <v>0.411494767323255</v>
+        <v>1.10483712774995</v>
       </c>
       <c r="H27">
-        <v>0.226514565078574</v>
+        <v>0.34282781421064</v>
       </c>
       <c r="I27">
-        <v>2.9866761850156</v>
+        <v>3.46528223701916</v>
       </c>
       <c r="J27">
-        <v>4.28348494915126</v>
+        <v>3.13187728463711</v>
       </c>
       <c r="K27">
-        <v>2.05478517281635</v>
+        <v>2.81996614635413</v>
       </c>
       <c r="L27">
-        <v>2.36328118998389</v>
+        <v>1.5526091602971</v>
       </c>
       <c r="M27">
-        <v>1.44919105389468</v>
+        <v>0.8142626690873061</v>
       </c>
       <c r="N27">
-        <v>6.31122396473715</v>
+        <v>5.13096225972008</v>
       </c>
       <c r="O27">
-        <v>448.535390728134</v>
+        <v>412.135507057306</v>
       </c>
       <c r="P27">
-        <v>49.2369268085704</v>
+        <v>49.1106587585014</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>202.195032699734</v>
+        <v>282.589774347188</v>
       </c>
       <c r="C28">
-        <v>31.041363915911</v>
+        <v>34.7832979762679</v>
       </c>
       <c r="D28">
-        <v>2.89413824262085</v>
+        <v>5.86252080924766</v>
       </c>
       <c r="E28">
-        <v>5.62622496351755</v>
+        <v>6.77508677125244</v>
       </c>
       <c r="F28">
-        <v>2.87322930730367</v>
+        <v>2.10176203425718</v>
       </c>
       <c r="G28">
-        <v>6.95561712397778</v>
+        <v>5.34280499582196</v>
       </c>
       <c r="H28">
-        <v>9.469599520348931</v>
+        <v>9.34012201695294</v>
       </c>
       <c r="I28">
-        <v>3.79965558254594</v>
+        <v>3.19343774005527</v>
       </c>
       <c r="J28">
-        <v>16.6758773261712</v>
+        <v>15.2378026565118</v>
       </c>
       <c r="K28">
-        <v>16.9843779326255</v>
+        <v>15.672508646541</v>
       </c>
       <c r="L28">
-        <v>14.406935507703</v>
+        <v>18.4472053376149</v>
       </c>
       <c r="M28">
-        <v>7.16201788678789</v>
+        <v>7.07595301066611</v>
       </c>
       <c r="N28">
-        <v>11.9142692189468</v>
+        <v>11.6738140956146</v>
       </c>
       <c r="O28">
-        <v>833.306015813428</v>
+        <v>738.0548278377351</v>
       </c>
       <c r="P28">
-        <v>85.53906861181061</v>
+        <v>92.46234223923401</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>350.388094514798</v>
+        <v>440.330793286489</v>
       </c>
       <c r="C29">
-        <v>4.33853149098614</v>
+        <v>2.88967653310539</v>
       </c>
       <c r="D29">
-        <v>3.63630275065508</v>
+        <v>3.09561194663278</v>
       </c>
       <c r="E29">
-        <v>2.81711709716751</v>
+        <v>3.91124901795903</v>
       </c>
       <c r="F29">
-        <v>16.5425226065748</v>
+        <v>20.1187389798907</v>
       </c>
       <c r="G29">
-        <v>3.79681647673418</v>
+        <v>1.41829859397862</v>
       </c>
       <c r="H29">
-        <v>2.55941629263124</v>
+        <v>2.68699711997901</v>
       </c>
       <c r="I29">
-        <v>5.7568889835355</v>
+        <v>4.05069043254091</v>
       </c>
       <c r="J29">
-        <v>4.85819160283245</v>
+        <v>4.84434569538084</v>
       </c>
       <c r="K29">
-        <v>4.64501396686537</v>
+        <v>4.85473086063558</v>
       </c>
       <c r="L29">
-        <v>3.0396198284903</v>
+        <v>2.60440179638594</v>
       </c>
       <c r="M29">
-        <v>1.42474676480777</v>
+        <v>2.78375036755625</v>
       </c>
       <c r="N29">
-        <v>11.0572415675941</v>
+        <v>11.0903722797187</v>
       </c>
       <c r="O29">
-        <v>1075.93282986982</v>
+        <v>979.6207701346571</v>
       </c>
       <c r="P29">
-        <v>3.07518788668745</v>
+        <v>6.32744309073892</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>175.870660331683</v>
+        <v>231.020171614548</v>
       </c>
       <c r="C30">
-        <v>4.2244740751481</v>
+        <v>4.82637269901092</v>
       </c>
       <c r="D30">
-        <v>7.64777923911774</v>
+        <v>8.43142008627645</v>
       </c>
       <c r="E30">
-        <v>8.70898230649477</v>
+        <v>12.9339486531881</v>
       </c>
       <c r="F30">
-        <v>0.362650852559228</v>
+        <v>1.39520148482144</v>
       </c>
       <c r="G30">
-        <v>3.90249160216132</v>
+        <v>3.36731770118186</v>
       </c>
       <c r="H30">
-        <v>7.55713280205036</v>
+        <v>5.74454694303974</v>
       </c>
       <c r="I30">
-        <v>3.65206275921936</v>
+        <v>4.25821945280362</v>
       </c>
       <c r="J30">
-        <v>15.2990893178642</v>
+        <v>16.2780940637942</v>
       </c>
       <c r="K30">
-        <v>20.137006818368</v>
+        <v>15.5165598566873</v>
       </c>
       <c r="L30">
-        <v>44.9263270545759</v>
+        <v>36.2578154734874</v>
       </c>
       <c r="M30">
-        <v>10.9934125554395</v>
+        <v>10.1043816761142</v>
       </c>
       <c r="N30">
-        <v>17.1548650204018</v>
+        <v>16.3266615076437</v>
       </c>
       <c r="O30">
-        <v>602.718428767104</v>
+        <v>555.148586755875</v>
       </c>
       <c r="P30">
-        <v>8.43781175737846</v>
+        <v>7.95183573514598</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1471.88415989837</v>
+        <v>1774.01566727132</v>
       </c>
       <c r="C31">
-        <v>49.1154316630068</v>
+        <v>41.3980414578185</v>
       </c>
       <c r="D31">
-        <v>56.2285129143307</v>
+        <v>51.9431187705462</v>
       </c>
       <c r="E31">
-        <v>24.4299335758687</v>
+        <v>37.8194459124702</v>
       </c>
       <c r="F31">
-        <v>8.275547191874979</v>
+        <v>8.6625093759205</v>
       </c>
       <c r="G31">
-        <v>154.369538862315</v>
+        <v>126.939254828273</v>
       </c>
       <c r="H31">
-        <v>30.1805022482427</v>
+        <v>23.4593261842382</v>
       </c>
       <c r="I31">
-        <v>29.5019452574421</v>
+        <v>24.5575866352214</v>
       </c>
       <c r="J31">
-        <v>41.1967337167108</v>
+        <v>45.1901900815881</v>
       </c>
       <c r="K31">
-        <v>44.2810215076221</v>
+        <v>35.0507616084325</v>
       </c>
       <c r="L31">
-        <v>68.1113951302284</v>
+        <v>70.58500062822201</v>
       </c>
       <c r="M31">
-        <v>22.408960400286</v>
+        <v>16.8597069965435</v>
       </c>
       <c r="N31">
-        <v>62.6026006643718</v>
+        <v>56.6990042481115</v>
       </c>
       <c r="O31">
-        <v>3887.08270813135</v>
+        <v>3635.32470679587</v>
       </c>
       <c r="P31">
-        <v>6.71141688524484</v>
+        <v>4.21470265857793</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>367.290174401158</v>
+        <v>443.509377404046</v>
       </c>
       <c r="C32">
-        <v>5.6520414281818</v>
+        <v>7.26660965304064</v>
       </c>
       <c r="D32">
-        <v>3.34245491510472</v>
+        <v>1.23761545991631</v>
       </c>
       <c r="E32">
-        <v>2.6129732963545</v>
+        <v>1.74648512292162</v>
       </c>
       <c r="F32">
-        <v>36.105777881894</v>
+        <v>26.2345198989269</v>
       </c>
       <c r="G32">
-        <v>1.79236837210119</v>
+        <v>3.08117613574849</v>
       </c>
       <c r="H32">
-        <v>2.36256272665037</v>
+        <v>3.32405949708798</v>
       </c>
       <c r="I32">
-        <v>5.71862866197405</v>
+        <v>5.02723113831942</v>
       </c>
       <c r="J32">
-        <v>3.3206920318213</v>
+        <v>6.45129119925506</v>
       </c>
       <c r="K32">
-        <v>6.42732372468607</v>
+        <v>2.2545931809302</v>
       </c>
       <c r="L32">
-        <v>13.6133796188535</v>
+        <v>17.7242693179852</v>
       </c>
       <c r="M32">
-        <v>3.28142543818499</v>
+        <v>2.72096918424698</v>
       </c>
       <c r="N32">
-        <v>13.0649978073342</v>
+        <v>7.78850801289292</v>
       </c>
       <c r="O32">
-        <v>803.548502111957</v>
+        <v>743.276578144797</v>
       </c>
       <c r="P32">
-        <v>22.5772256277001</v>
+        <v>22.7588077568575</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3838.72154654524</v>
+        <v>4620.04473580803</v>
       </c>
       <c r="C33">
-        <v>82.5553333482774</v>
+        <v>82.767651361315</v>
       </c>
       <c r="D33">
-        <v>140.383820278923</v>
+        <v>121.824459539234</v>
       </c>
       <c r="E33">
-        <v>36.8539252689584</v>
+        <v>59.8834151631753</v>
       </c>
       <c r="F33">
-        <v>10.2375573120602</v>
+        <v>9.15345237723789</v>
       </c>
       <c r="G33">
-        <v>66.0029460704379</v>
+        <v>67.1371945412991</v>
       </c>
       <c r="H33">
-        <v>41.9053437601998</v>
+        <v>37.8297877929264</v>
       </c>
       <c r="I33">
-        <v>36.5495206111955</v>
+        <v>36.042963599889</v>
       </c>
       <c r="J33">
-        <v>98.5104519511744</v>
+        <v>105.002257565071</v>
       </c>
       <c r="K33">
-        <v>115.961596643558</v>
+        <v>111.60946869164</v>
       </c>
       <c r="L33">
-        <v>156.197707728412</v>
+        <v>133.151286869133</v>
       </c>
       <c r="M33">
-        <v>87.88786944260821</v>
+        <v>73.3599391733367</v>
       </c>
       <c r="N33">
-        <v>200.63830260368</v>
+        <v>160.7763887271</v>
       </c>
       <c r="O33">
-        <v>8329.026403095029</v>
+        <v>7621.01540535601</v>
       </c>
       <c r="P33">
-        <v>56.0246771274341</v>
+        <v>67.2915178402219</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1395.03834906904</v>
+        <v>1824.65041904553</v>
       </c>
       <c r="C34">
-        <v>83.39840463522189</v>
+        <v>71.39023729421911</v>
       </c>
       <c r="D34">
-        <v>230.617616835856</v>
+        <v>199.635621391433</v>
       </c>
       <c r="E34">
-        <v>59.1460343314272</v>
+        <v>52.0688306586103</v>
       </c>
       <c r="F34">
-        <v>5.42673613284938</v>
+        <v>7.33277639323547</v>
       </c>
       <c r="G34">
-        <v>68.22268424151839</v>
+        <v>55.1383303853185</v>
       </c>
       <c r="H34">
-        <v>54.0244277056693</v>
+        <v>41.7956657490163</v>
       </c>
       <c r="I34">
-        <v>25.7183451275299</v>
+        <v>16.7811015960683</v>
       </c>
       <c r="J34">
-        <v>57.9272341397556</v>
+        <v>59.9696417677461</v>
       </c>
       <c r="K34">
-        <v>89.2237590531543</v>
+        <v>64.90313294581139</v>
       </c>
       <c r="L34">
-        <v>141.169982113416</v>
+        <v>102.956118747905</v>
       </c>
       <c r="M34">
-        <v>50.7313415403325</v>
+        <v>40.7828253118567</v>
       </c>
       <c r="N34">
-        <v>136.802443278787</v>
+        <v>129.028579641366</v>
       </c>
       <c r="O34">
-        <v>3226.15263773429</v>
+        <v>2963.95670428057</v>
       </c>
       <c r="P34">
-        <v>73.5159902419811</v>
+        <v>66.0667682389108</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>83.2315531168086</v>
+        <v>117.615610710333</v>
       </c>
       <c r="C35">
-        <v>5.99668872346798</v>
+        <v>7.25271716521487</v>
       </c>
       <c r="D35">
-        <v>0.890127199414654</v>
+        <v>0.627328640988018</v>
       </c>
       <c r="E35">
-        <v>3.29269238215677</v>
+        <v>3.4280433487346</v>
       </c>
       <c r="F35">
-        <v>5.57961547684141</v>
+        <v>5.54919587344408</v>
       </c>
       <c r="G35">
-        <v>0.269505898838516</v>
+        <v>0.75774086694381</v>
       </c>
       <c r="H35">
-        <v>0.843971952109362</v>
+        <v>0.487501447516022</v>
       </c>
       <c r="I35">
-        <v>1.47369190154381</v>
+        <v>1.25344436473843</v>
       </c>
       <c r="J35">
-        <v>2.31461247321833</v>
+        <v>2.75696609703352</v>
       </c>
       <c r="K35">
-        <v>6.90049746943863</v>
+        <v>6.49562434577383</v>
       </c>
       <c r="L35">
-        <v>3.35459242434087</v>
+        <v>2.66510395199009</v>
       </c>
       <c r="M35">
-        <v>2.83009115935514</v>
+        <v>2.50954972432651</v>
       </c>
       <c r="N35">
-        <v>2.5967832162314</v>
+        <v>2.62115055912688</v>
       </c>
       <c r="O35">
-        <v>328.230696331378</v>
+        <v>288.374877770163</v>
       </c>
       <c r="P35">
-        <v>44.218078479988</v>
+        <v>48.8665686824244</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1959.22850282981</v>
+        <v>2458.73321267855</v>
       </c>
       <c r="C36">
-        <v>69.570612613731</v>
+        <v>60.545333532318</v>
       </c>
       <c r="D36">
-        <v>19.424818856678</v>
+        <v>12.4061602756811</v>
       </c>
       <c r="E36">
-        <v>56.7517652680974</v>
+        <v>67.0899939275039</v>
       </c>
       <c r="F36">
-        <v>42.7051315793808</v>
+        <v>32.3084199740398</v>
       </c>
       <c r="G36">
-        <v>108.028924823556</v>
+        <v>96.3344529710929</v>
       </c>
       <c r="H36">
-        <v>113.691762838907</v>
+        <v>103.825611426664</v>
       </c>
       <c r="I36">
-        <v>45.7388813188655</v>
+        <v>47.0946541771592</v>
       </c>
       <c r="J36">
-        <v>221.276632136341</v>
+        <v>215.253953307844</v>
       </c>
       <c r="K36">
-        <v>185.661876210652</v>
+        <v>156.187750556798</v>
       </c>
       <c r="L36">
-        <v>111.051000803132</v>
+        <v>86.5738215591493</v>
       </c>
       <c r="M36">
-        <v>226.710949892586</v>
+        <v>228.017815450791</v>
       </c>
       <c r="N36">
-        <v>97.3947605508605</v>
+        <v>107.225335121642</v>
       </c>
       <c r="O36">
-        <v>4698.95484461694</v>
+        <v>4277.10368490336</v>
       </c>
       <c r="P36">
-        <v>44.7061834974485</v>
+        <v>51.6316410817012</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>662.572241381208</v>
+        <v>802.5271165635051</v>
       </c>
       <c r="C37">
-        <v>23.1090891707915</v>
+        <v>22.7913826771301</v>
       </c>
       <c r="D37">
-        <v>11.760265261529</v>
+        <v>6.18382066607563</v>
       </c>
       <c r="E37">
-        <v>15.6571413829999</v>
+        <v>19.1561354737486</v>
       </c>
       <c r="F37">
-        <v>44.6814500999911</v>
+        <v>35.5747602595902</v>
       </c>
       <c r="G37">
-        <v>8.61759017264164</v>
+        <v>12.3172032817929</v>
       </c>
       <c r="H37">
-        <v>24.7749499241023</v>
+        <v>25.7315062762747</v>
       </c>
       <c r="I37">
-        <v>16.6101536388176</v>
+        <v>18.339260749151</v>
       </c>
       <c r="J37">
-        <v>29.5004727490187</v>
+        <v>31.5781411666935</v>
       </c>
       <c r="K37">
-        <v>42.0072108645266</v>
+        <v>41.2344144158128</v>
       </c>
       <c r="L37">
-        <v>30.6017485584412</v>
+        <v>21.509033758346</v>
       </c>
       <c r="M37">
-        <v>29.67454732868</v>
+        <v>33.914605279044</v>
       </c>
       <c r="N37">
-        <v>16.0475274587182</v>
+        <v>11.9306836665685</v>
       </c>
       <c r="O37">
-        <v>1364.34115665074</v>
+        <v>1236.73186578615</v>
       </c>
       <c r="P37">
-        <v>55.2157651510588</v>
+        <v>60.1444646146115</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>626.998668496514</v>
+        <v>748.516558673648</v>
       </c>
       <c r="C38">
-        <v>26.7132459311542</v>
+        <v>24.8110480540235</v>
       </c>
       <c r="D38">
-        <v>13.5185307347202</v>
+        <v>11.7521891204995</v>
       </c>
       <c r="E38">
-        <v>50.3950665387549</v>
+        <v>49.8710813356878</v>
       </c>
       <c r="F38">
-        <v>4.19447184103065</v>
+        <v>3.88803959069976</v>
       </c>
       <c r="G38">
-        <v>8.52476234727521</v>
+        <v>4.99373661601722</v>
       </c>
       <c r="H38">
-        <v>7.43517313975351</v>
+        <v>5.60910152331904</v>
       </c>
       <c r="I38">
-        <v>4.04209688344537</v>
+        <v>4.81163045491384</v>
       </c>
       <c r="J38">
-        <v>37.8319886130203</v>
+        <v>41.6781109107575</v>
       </c>
       <c r="K38">
-        <v>17.3027074761273</v>
+        <v>12.0631298129699</v>
       </c>
       <c r="L38">
-        <v>79.5522476959819</v>
+        <v>60.0029638442056</v>
       </c>
       <c r="M38">
-        <v>25.281038649261</v>
+        <v>16.1578123442547</v>
       </c>
       <c r="N38">
-        <v>23.6335877214342</v>
+        <v>32.2355305759088</v>
       </c>
       <c r="O38">
-        <v>1470.96098968162</v>
+        <v>1383.64032328187</v>
       </c>
       <c r="P38">
-        <v>71.2819606490886</v>
+        <v>70.44745683728129</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2209.33775471387</v>
+        <v>2830.24952556083</v>
       </c>
       <c r="C39">
-        <v>133.223640987112</v>
+        <v>98.52564652697851</v>
       </c>
       <c r="D39">
-        <v>69.9300097300019</v>
+        <v>66.4645663627866</v>
       </c>
       <c r="E39">
-        <v>85.1023461173759</v>
+        <v>108.990341335773</v>
       </c>
       <c r="F39">
-        <v>26.2343261830382</v>
+        <v>29.6646347734719</v>
       </c>
       <c r="G39">
-        <v>128.44160678615</v>
+        <v>113.834713589524</v>
       </c>
       <c r="H39">
-        <v>43.2544667496622</v>
+        <v>50.4438978940643</v>
       </c>
       <c r="I39">
-        <v>53.6793867977093</v>
+        <v>44.126818012592</v>
       </c>
       <c r="J39">
-        <v>167.484376906858</v>
+        <v>173.922259864135</v>
       </c>
       <c r="K39">
-        <v>147.590506222851</v>
+        <v>129.055764524832</v>
       </c>
       <c r="L39">
-        <v>132.192155676917</v>
+        <v>111.112180690383</v>
       </c>
       <c r="M39">
-        <v>73.940466469444</v>
+        <v>65.5357405145146</v>
       </c>
       <c r="N39">
-        <v>123.940177134309</v>
+        <v>108.553014007472</v>
       </c>
       <c r="O39">
-        <v>5290.5351138753</v>
+        <v>4740.44453150788</v>
       </c>
       <c r="P39">
-        <v>56.3611764892199</v>
+        <v>69.8398153692372</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>186.415050290593</v>
+        <v>234.569496754782</v>
       </c>
       <c r="C40">
-        <v>4.05851645046022</v>
+        <v>4.34958784248119</v>
       </c>
       <c r="D40">
-        <v>11.7274304244979</v>
+        <v>9.499344700992999</v>
       </c>
       <c r="E40">
-        <v>2.4572117062271</v>
+        <v>3.86156154797843</v>
       </c>
       <c r="F40">
-        <v>0.99144791923122</v>
+        <v>0.204138262080761</v>
       </c>
       <c r="G40">
-        <v>6.76031283140795</v>
+        <v>6.57583441696722</v>
       </c>
       <c r="H40">
-        <v>9.832317613934039</v>
+        <v>4.68758537695154</v>
       </c>
       <c r="I40">
-        <v>2.29140912277541</v>
+        <v>1.40011251257009</v>
       </c>
       <c r="J40">
-        <v>12.8982165494315</v>
+        <v>9.28920156355294</v>
       </c>
       <c r="K40">
-        <v>11.1172050121513</v>
+        <v>8.181251452263521</v>
       </c>
       <c r="L40">
-        <v>15.0997392539713</v>
+        <v>15.5943419168845</v>
       </c>
       <c r="M40">
-        <v>7.83989589955818</v>
+        <v>6.66314822114212</v>
       </c>
       <c r="N40">
-        <v>31.5340889562466</v>
+        <v>27.2568680196063</v>
       </c>
       <c r="O40">
-        <v>511.0328030017</v>
+        <v>479.97583801685</v>
       </c>
       <c r="P40">
-        <v>1.2340064892559</v>
+        <v>2.47940819510705</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>754.4292128573781</v>
+        <v>941.835882885936</v>
       </c>
       <c r="C41">
-        <v>12.4719585285629</v>
+        <v>10.8835582592146</v>
       </c>
       <c r="D41">
-        <v>106.492591599402</v>
+        <v>91.3305068401063</v>
       </c>
       <c r="E41">
-        <v>42.3469461309334</v>
+        <v>35.9632642526644</v>
       </c>
       <c r="F41">
-        <v>3.51917564272142</v>
+        <v>2.31107202751196</v>
       </c>
       <c r="G41">
-        <v>47.6256335684628</v>
+        <v>30.821461677832</v>
       </c>
       <c r="H41">
-        <v>42.7300390523898</v>
+        <v>37.3815691441933</v>
       </c>
       <c r="I41">
-        <v>8.7112126456438</v>
+        <v>14.5853987352114</v>
       </c>
       <c r="J41">
-        <v>54.5768681980145</v>
+        <v>51.1784923580789</v>
       </c>
       <c r="K41">
-        <v>59.7639024763714</v>
+        <v>35.334871125436</v>
       </c>
       <c r="L41">
-        <v>30.7238547183938</v>
+        <v>34.167324354832</v>
       </c>
       <c r="M41">
-        <v>36.5624176140764</v>
+        <v>25.2781202676026</v>
       </c>
       <c r="N41">
-        <v>25.0959584501791</v>
+        <v>22.6945612948304</v>
       </c>
       <c r="O41">
-        <v>1553.47023334614</v>
+        <v>1434.86353588367</v>
       </c>
       <c r="P41">
-        <v>21.5270026771027</v>
+        <v>34.9817442090647</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>100.811854793582</v>
+        <v>129.585644474295</v>
       </c>
       <c r="C42">
-        <v>8.470570666786969</v>
+        <v>7.01430638402949</v>
       </c>
       <c r="D42">
-        <v>1.63176680031011</v>
+        <v>1.92006545491959</v>
       </c>
       <c r="E42">
-        <v>5.58676783600339</v>
+        <v>4.83856771322651</v>
       </c>
       <c r="F42">
-        <v>2.39974809747998</v>
+        <v>2.94883538469294</v>
       </c>
       <c r="G42">
-        <v>1.1933089088109</v>
+        <v>2.30898654204663</v>
       </c>
       <c r="H42">
-        <v>2.23368766062069</v>
+        <v>0.765336868067413</v>
       </c>
       <c r="I42">
-        <v>0.828780802149523</v>
+        <v>0.514009517423663</v>
       </c>
       <c r="J42">
-        <v>4.19717221701744</v>
+        <v>4.45048100373498</v>
       </c>
       <c r="K42">
-        <v>9.009164960867089</v>
+        <v>7.40547102877022</v>
       </c>
       <c r="L42">
-        <v>9.64938018365608</v>
+        <v>8.428425053440961</v>
       </c>
       <c r="M42">
-        <v>4.28940434244582</v>
+        <v>3.66825892823907</v>
       </c>
       <c r="N42">
-        <v>9.58364707066781</v>
+        <v>7.62911186619585</v>
       </c>
       <c r="O42">
-        <v>403.233975696497</v>
+        <v>371.797468416785</v>
       </c>
       <c r="P42">
-        <v>45.8650948118625</v>
+        <v>54.4005995725315</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1173.41891659946</v>
+        <v>1363.08594631324</v>
       </c>
       <c r="C43">
-        <v>35.0825348912263</v>
+        <v>35.9324167096002</v>
       </c>
       <c r="D43">
-        <v>58.1628975539196</v>
+        <v>58.7346395479282</v>
       </c>
       <c r="E43">
-        <v>38.1094785187432</v>
+        <v>45.6883604266879</v>
       </c>
       <c r="F43">
-        <v>10.9362752771728</v>
+        <v>9.33894814207537</v>
       </c>
       <c r="G43">
-        <v>30.5552685983392</v>
+        <v>17.5588547447902</v>
       </c>
       <c r="H43">
-        <v>25.2029701768523</v>
+        <v>29.8330653575885</v>
       </c>
       <c r="I43">
-        <v>27.9098173893903</v>
+        <v>30.3260896545416</v>
       </c>
       <c r="J43">
-        <v>53.0884917838847</v>
+        <v>40.4416304937431</v>
       </c>
       <c r="K43">
-        <v>75.2925868315826</v>
+        <v>70.8386916164263</v>
       </c>
       <c r="L43">
-        <v>53.313212144686</v>
+        <v>48.0525302061343</v>
       </c>
       <c r="M43">
-        <v>81.3723342596314</v>
+        <v>103.334583970023</v>
       </c>
       <c r="N43">
-        <v>79.70782433976621</v>
+        <v>68.831643030869</v>
       </c>
       <c r="O43">
-        <v>2259.55920924001</v>
+        <v>2088.84090500259</v>
       </c>
       <c r="P43">
-        <v>47.7716524343636</v>
+        <v>43.7755679767375</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3512.44749197545</v>
+        <v>4383.33050384541</v>
       </c>
       <c r="C44">
-        <v>169.966278731487</v>
+        <v>142.056582390972</v>
       </c>
       <c r="D44">
-        <v>70.6296268586898</v>
+        <v>67.9086460291507</v>
       </c>
       <c r="E44">
-        <v>74.8610381803241</v>
+        <v>85.7412342535204</v>
       </c>
       <c r="F44">
-        <v>247.254432715186</v>
+        <v>239.899777535531</v>
       </c>
       <c r="G44">
-        <v>151.384261589205</v>
+        <v>148.402445856238</v>
       </c>
       <c r="H44">
-        <v>52.5340231761406</v>
+        <v>45.5841489399945</v>
       </c>
       <c r="I44">
-        <v>54.3109537277734</v>
+        <v>42.7629027795541</v>
       </c>
       <c r="J44">
-        <v>154.98510762739</v>
+        <v>132.083760459515</v>
       </c>
       <c r="K44">
-        <v>145.449552531856</v>
+        <v>103.918525741943</v>
       </c>
       <c r="L44">
-        <v>268.37523364565</v>
+        <v>220.76094019998</v>
       </c>
       <c r="M44">
-        <v>117.236077276685</v>
+        <v>115.732805945971</v>
       </c>
       <c r="N44">
-        <v>94.41094612106799</v>
+        <v>90.6053620615525</v>
       </c>
       <c r="O44">
-        <v>8600.696261695381</v>
+        <v>7928.27134303394</v>
       </c>
       <c r="P44">
-        <v>261.117356777999</v>
+        <v>229.303639682468</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>342.000347411722</v>
+        <v>421.918326944484</v>
       </c>
       <c r="C45">
-        <v>15.2353194138161</v>
+        <v>14.7408860191858</v>
       </c>
       <c r="D45">
-        <v>5.60273066357235</v>
+        <v>3.81889116879436</v>
       </c>
       <c r="E45">
-        <v>6.11337058791171</v>
+        <v>9.445270324170799</v>
       </c>
       <c r="F45">
-        <v>24.7651035000508</v>
+        <v>22.4113460819996</v>
       </c>
       <c r="G45">
-        <v>12.1266503983043</v>
+        <v>9.53249655434098</v>
       </c>
       <c r="H45">
-        <v>5.16720025553867</v>
+        <v>2.26781801766545</v>
       </c>
       <c r="I45">
-        <v>5.53060406831993</v>
+        <v>4.25567148630554</v>
       </c>
       <c r="J45">
-        <v>18.3915512702298</v>
+        <v>24.5535778633354</v>
       </c>
       <c r="K45">
-        <v>11.0981348413395</v>
+        <v>7.76465523249654</v>
       </c>
       <c r="L45">
-        <v>22.5822897144979</v>
+        <v>14.6257806017637</v>
       </c>
       <c r="M45">
-        <v>23.8549515314494</v>
+        <v>20.6217796146852</v>
       </c>
       <c r="N45">
-        <v>27.3382269522704</v>
+        <v>31.0315702841776</v>
       </c>
       <c r="O45">
-        <v>935.815727145991</v>
+        <v>865.796586287268</v>
       </c>
       <c r="P45">
-        <v>15.083671965382</v>
+        <v>17.1741106497161</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>93.0498091648529</v>
+        <v>124.084394704656</v>
       </c>
       <c r="C46">
-        <v>5.17104994632477</v>
+        <v>3.86110051172483</v>
       </c>
       <c r="D46">
-        <v>2.34467295486143</v>
+        <v>2.16804686335096</v>
       </c>
       <c r="E46">
-        <v>6.13931090408874</v>
+        <v>6.27550209253694</v>
       </c>
       <c r="F46">
-        <v>2.03360977406453</v>
+        <v>1.72796397231476</v>
       </c>
       <c r="G46">
-        <v>2.06184838220332</v>
+        <v>3.78933807185149</v>
       </c>
       <c r="H46">
-        <v>2.99020602317806</v>
+        <v>2.23619949062077</v>
       </c>
       <c r="I46">
-        <v>2.03020408506193</v>
+        <v>1.79683855837474</v>
       </c>
       <c r="J46">
-        <v>4.95547569443495</v>
+        <v>4.34428041859843</v>
       </c>
       <c r="K46">
-        <v>6.31130325399502</v>
+        <v>7.36393779861731</v>
       </c>
       <c r="L46">
-        <v>15.1433954887952</v>
+        <v>13.2363556790305</v>
       </c>
       <c r="M46">
-        <v>5.36921433372764</v>
+        <v>3.6641459479244</v>
       </c>
       <c r="N46">
-        <v>9.19391550716391</v>
+        <v>9.510081023983521</v>
       </c>
       <c r="O46">
-        <v>329.366864933192</v>
+        <v>298.346493069276</v>
       </c>
       <c r="P46">
-        <v>10.1562134961895</v>
+        <v>12.3283638995028</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1186.67733147348</v>
+        <v>1483.49830909196</v>
       </c>
       <c r="C47">
-        <v>61.2881760123263</v>
+        <v>57.6800184391921</v>
       </c>
       <c r="D47">
-        <v>37.6784650216827</v>
+        <v>45.6742810776199</v>
       </c>
       <c r="E47">
-        <v>37.5131697337227</v>
+        <v>52.2757735767093</v>
       </c>
       <c r="F47">
-        <v>7.90115591224279</v>
+        <v>9.014081319903561</v>
       </c>
       <c r="G47">
-        <v>33.8477903953372</v>
+        <v>29.3794197679702</v>
       </c>
       <c r="H47">
-        <v>21.2806623194443</v>
+        <v>14.5308635042586</v>
       </c>
       <c r="I47">
-        <v>15.0348731049832</v>
+        <v>9.749248824405409</v>
       </c>
       <c r="J47">
-        <v>50.9671943132906</v>
+        <v>45.2122729348561</v>
       </c>
       <c r="K47">
-        <v>27.623251053908</v>
+        <v>21.1691723151572</v>
       </c>
       <c r="L47">
-        <v>62.199618925492</v>
+        <v>45.305202413859</v>
       </c>
       <c r="M47">
-        <v>78.16668937320139</v>
+        <v>70.4889458243058</v>
       </c>
       <c r="N47">
-        <v>40.4509775098898</v>
+        <v>39.5447060154585</v>
       </c>
       <c r="O47">
-        <v>3194.86685967543</v>
+        <v>2929.12560788316</v>
       </c>
       <c r="P47">
-        <v>35.8507174245401</v>
+        <v>34.6055399463923</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1069.05676196278</v>
+        <v>1298.24106658531</v>
       </c>
       <c r="C48">
-        <v>20.2157662124754</v>
+        <v>16.4459668301873</v>
       </c>
       <c r="D48">
-        <v>12.7745172290417</v>
+        <v>9.12831837765486</v>
       </c>
       <c r="E48">
-        <v>68.6369217636513</v>
+        <v>68.9278042432037</v>
       </c>
       <c r="F48">
-        <v>16.6092630142509</v>
+        <v>5.84349603528481</v>
       </c>
       <c r="G48">
-        <v>12.4666910151521</v>
+        <v>4.35644940799928</v>
       </c>
       <c r="H48">
-        <v>4.0572632403627</v>
+        <v>2.42999639419766</v>
       </c>
       <c r="I48">
-        <v>15.633041647488</v>
+        <v>9.515569174845091</v>
       </c>
       <c r="J48">
-        <v>25.8056526079453</v>
+        <v>31.6336287444575</v>
       </c>
       <c r="K48">
-        <v>26.9681293323076</v>
+        <v>20.4420873226789</v>
       </c>
       <c r="L48">
-        <v>45.0850000657213</v>
+        <v>42.0977318797453</v>
       </c>
       <c r="M48">
-        <v>160.850604538736</v>
+        <v>123.252835428376</v>
       </c>
       <c r="N48">
-        <v>22.4953769229237</v>
+        <v>23.8005433288683</v>
       </c>
       <c r="O48">
-        <v>2544.22123396012</v>
+        <v>2380.61699778719</v>
       </c>
       <c r="P48">
-        <v>83.56800189731889</v>
+        <v>93.84627572650361</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>521.624365598244</v>
+        <v>618.107637939327</v>
       </c>
       <c r="C49">
-        <v>6.00847920302233</v>
+        <v>7.43131609987045</v>
       </c>
       <c r="D49">
-        <v>7.34933462016464</v>
+        <v>5.45040007029961</v>
       </c>
       <c r="E49">
-        <v>14.0297789418009</v>
+        <v>18.2575657403956</v>
       </c>
       <c r="F49">
-        <v>41.6498877720184</v>
+        <v>31.2500804513599</v>
       </c>
       <c r="G49">
-        <v>21.9169607548914</v>
+        <v>17.1895421789477</v>
       </c>
       <c r="H49">
-        <v>4.58537746155663</v>
+        <v>4.80724257193336</v>
       </c>
       <c r="I49">
-        <v>11.1034763393517</v>
+        <v>8.7002055396958</v>
       </c>
       <c r="J49">
-        <v>25.4236880810345</v>
+        <v>23.9665902696694</v>
       </c>
       <c r="K49">
-        <v>10.5159869375993</v>
+        <v>5.96338754933005</v>
       </c>
       <c r="L49">
-        <v>3.07526852506719</v>
+        <v>1.80432864886154</v>
       </c>
       <c r="M49">
-        <v>6.6431012790702</v>
+        <v>7.42507237527019</v>
       </c>
       <c r="N49">
-        <v>3.80639655328437</v>
+        <v>5.53830463898117</v>
       </c>
       <c r="O49">
-        <v>718.901565547979</v>
+        <v>649.189387915472</v>
       </c>
       <c r="P49">
-        <v>8.94394627060667</v>
+        <v>7.04958224600651</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>725.748202051059</v>
+        <v>939.394969341606</v>
       </c>
       <c r="C50">
-        <v>87.95230651277009</v>
+        <v>74.1591650872313</v>
       </c>
       <c r="D50">
-        <v>13.021449941659</v>
+        <v>18.7400260716844</v>
       </c>
       <c r="E50">
-        <v>108.024600960368</v>
+        <v>131.613124682793</v>
       </c>
       <c r="F50">
-        <v>2.64279647850842</v>
+        <v>2.00809075093054</v>
       </c>
       <c r="G50">
-        <v>34.8765227616924</v>
+        <v>31.2256886159014</v>
       </c>
       <c r="H50">
-        <v>38.0490485567806</v>
+        <v>39.7618164487411</v>
       </c>
       <c r="I50">
-        <v>16.4031894155705</v>
+        <v>15.0453093805335</v>
       </c>
       <c r="J50">
-        <v>101.267758777072</v>
+        <v>112.837381983429</v>
       </c>
       <c r="K50">
-        <v>121.344557115597</v>
+        <v>116.525659542452</v>
       </c>
       <c r="L50">
-        <v>90.0429789733322</v>
+        <v>67.93516912975269</v>
       </c>
       <c r="M50">
-        <v>33.0158345710837</v>
+        <v>31.816829974093</v>
       </c>
       <c r="N50">
-        <v>81.9569578786374</v>
+        <v>58.394493084582</v>
       </c>
       <c r="O50">
-        <v>2277.04752437581</v>
+        <v>2066.75707988145</v>
       </c>
       <c r="P50">
-        <v>72.4981626325265</v>
+        <v>94.5744819425401</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>99.58334552858349</v>
+        <v>121.422857250727</v>
       </c>
       <c r="C51">
-        <v>2.28142058405725</v>
+        <v>2.1787578401622</v>
       </c>
       <c r="D51">
-        <v>0.154032216192855</v>
+        <v>0.152175621203462</v>
       </c>
       <c r="E51">
-        <v>1.45679733539528</v>
+        <v>1.8386266510624</v>
       </c>
       <c r="F51">
-        <v>34.5726982051451</v>
+        <v>30.7375172087527</v>
       </c>
       <c r="G51">
-        <v>1.61706712160195</v>
+        <v>1.67916299499696</v>
       </c>
       <c r="H51">
-        <v>0.34474989332753</v>
+        <v>0.0211767096490304</v>
       </c>
       <c r="I51">
-        <v>1.53979618697684</v>
+        <v>1.00682422705668</v>
       </c>
       <c r="J51">
-        <v>2.42497023761507</v>
+        <v>1.21258303972201</v>
       </c>
       <c r="K51">
-        <v>1.47351131449902</v>
+        <v>1.64994789441045</v>
       </c>
       <c r="L51">
-        <v>0.406826151157583</v>
+        <v>0.531445754002131</v>
       </c>
       <c r="M51">
-        <v>0.76049387423205</v>
+        <v>0.574067951919899</v>
       </c>
       <c r="N51">
-        <v>1.86428771924494</v>
+        <v>2.30500514475506</v>
       </c>
       <c r="O51">
-        <v>283.807316968494</v>
+        <v>265.934738460595</v>
       </c>
       <c r="P51">
-        <v>19.9540894710961</v>
+        <v>22.1023666916778</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1208.06716237318</v>
+        <v>1344.33240682805</v>
       </c>
       <c r="C2">
-        <v>32.6077893860345</v>
+        <v>35.1339205586293</v>
       </c>
       <c r="D2">
-        <v>60.3784107011567</v>
+        <v>63.0254532426753</v>
       </c>
       <c r="E2">
-        <v>69.27951956550911</v>
+        <v>65.9361500940249</v>
       </c>
       <c r="F2">
-        <v>16.9843687572529</v>
+        <v>16.4301698923129</v>
       </c>
       <c r="G2">
-        <v>20.032088847931</v>
+        <v>18.5894942260991</v>
       </c>
       <c r="H2">
-        <v>32.3774475555442</v>
+        <v>25.2964002594726</v>
       </c>
       <c r="I2">
-        <v>11.7604966891805</v>
+        <v>10.5324456386206</v>
       </c>
       <c r="J2">
-        <v>61.3607927442825</v>
+        <v>61.2116667993675</v>
       </c>
       <c r="K2">
-        <v>20.7077299151967</v>
+        <v>20.2846114300337</v>
       </c>
       <c r="L2">
-        <v>37.9480823933505</v>
+        <v>37.7056192992678</v>
       </c>
       <c r="M2">
-        <v>44.3209678498026</v>
+        <v>42.9503814796544</v>
       </c>
       <c r="N2">
-        <v>22.4613771245733</v>
+        <v>25.019639597489</v>
       </c>
       <c r="O2">
-        <v>1476.59325966516</v>
+        <v>1356.88383097595</v>
       </c>
       <c r="P2">
-        <v>25.7880695491481</v>
+        <v>27.1696873742659</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>153.355152555984</v>
+        <v>152.686257783605</v>
       </c>
       <c r="C3">
-        <v>3.36461709459853</v>
+        <v>3.91356382036073</v>
       </c>
       <c r="D3">
-        <v>0.379949558898451</v>
+        <v>0.289337001295933</v>
       </c>
       <c r="E3">
-        <v>1.27942757700643</v>
+        <v>1.41390895787849</v>
       </c>
       <c r="F3">
-        <v>13.6048724341721</v>
+        <v>10.8850996582413</v>
       </c>
       <c r="G3">
-        <v>0.717457355113492</v>
+        <v>0.476012283388961</v>
       </c>
       <c r="H3">
-        <v>0.0292155924955588</v>
+        <v>0.0232286559393682</v>
       </c>
       <c r="I3">
-        <v>0.735526760705397</v>
+        <v>0.503722223747692</v>
       </c>
       <c r="J3">
-        <v>1.08590415988364</v>
+        <v>0.651943285581314</v>
       </c>
       <c r="K3">
-        <v>0.358355274210572</v>
+        <v>0.274345683110114</v>
       </c>
       <c r="L3">
-        <v>0.426867481850712</v>
+        <v>0.328611784774434</v>
       </c>
       <c r="M3">
-        <v>1.06870001293776</v>
+        <v>0.856932839210427</v>
       </c>
       <c r="N3">
-        <v>2.2989805786053</v>
+        <v>1.79572584287505</v>
       </c>
       <c r="O3">
-        <v>324.485572214383</v>
+        <v>273.731856741095</v>
       </c>
       <c r="P3">
-        <v>14.6584407775198</v>
+        <v>12.7190795282979</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1201.73327901301</v>
+        <v>1386.31482966065</v>
       </c>
       <c r="C4">
-        <v>10.2037769762423</v>
+        <v>10.3793894049797</v>
       </c>
       <c r="D4">
-        <v>3.15775873049786</v>
+        <v>2.77531570111201</v>
       </c>
       <c r="E4">
-        <v>18.232884593544</v>
+        <v>22.532180610891</v>
       </c>
       <c r="F4">
-        <v>13.1058386842459</v>
+        <v>17.9195849134039</v>
       </c>
       <c r="G4">
-        <v>9.974348177172841</v>
+        <v>9.06092347749961</v>
       </c>
       <c r="H4">
-        <v>8.37845169589575</v>
+        <v>9.51737561991609</v>
       </c>
       <c r="I4">
-        <v>10.9884408942259</v>
+        <v>11.3006931877114</v>
       </c>
       <c r="J4">
-        <v>21.8247015905473</v>
+        <v>22.9626543347448</v>
       </c>
       <c r="K4">
-        <v>6.44525055177052</v>
+        <v>7.78073974529708</v>
       </c>
       <c r="L4">
-        <v>74.5004776050624</v>
+        <v>69.7303984902729</v>
       </c>
       <c r="M4">
-        <v>47.5957416862985</v>
+        <v>46.4053420932184</v>
       </c>
       <c r="N4">
-        <v>38.7319831703047</v>
+        <v>34.5413484231752</v>
       </c>
       <c r="O4">
-        <v>2058.92660334038</v>
+        <v>1913.72089951471</v>
       </c>
       <c r="P4">
-        <v>24.3316084198178</v>
+        <v>26.6793066312903</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>678.299347685496</v>
+        <v>760.72177418963</v>
       </c>
       <c r="C5">
-        <v>55.3831941111874</v>
+        <v>55.6326406719446</v>
       </c>
       <c r="D5">
-        <v>14.0497951480434</v>
+        <v>12.3891993671965</v>
       </c>
       <c r="E5">
-        <v>29.227389470101</v>
+        <v>33.7948696300326</v>
       </c>
       <c r="F5">
-        <v>1.62015759971718</v>
+        <v>4.14890981995668</v>
       </c>
       <c r="G5">
-        <v>7.55647566767119</v>
+        <v>7.21664099253124</v>
       </c>
       <c r="H5">
-        <v>12.6452518237408</v>
+        <v>12.6763248503192</v>
       </c>
       <c r="I5">
-        <v>9.206990820297101</v>
+        <v>8.32263479619912</v>
       </c>
       <c r="J5">
-        <v>29.5528484082935</v>
+        <v>30.2212470787755</v>
       </c>
       <c r="K5">
-        <v>24.4141452964716</v>
+        <v>20.4519873415998</v>
       </c>
       <c r="L5">
-        <v>26.4139579623702</v>
+        <v>23.6958613998357</v>
       </c>
       <c r="M5">
-        <v>23.7225054502417</v>
+        <v>25.9443273109922</v>
       </c>
       <c r="N5">
-        <v>23.7273440459061</v>
+        <v>23.4110510119276</v>
       </c>
       <c r="O5">
-        <v>911.1365682254331</v>
+        <v>830.868468219217</v>
       </c>
       <c r="P5">
-        <v>54.3583171196303</v>
+        <v>56.1490370696522</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7538.14853835817</v>
+        <v>8811.602013506699</v>
       </c>
       <c r="C6">
-        <v>179.508479655903</v>
+        <v>183.711082435188</v>
       </c>
       <c r="D6">
-        <v>239.601824471368</v>
+        <v>203.810576516112</v>
       </c>
       <c r="E6">
-        <v>130.178103848769</v>
+        <v>154.07861971493</v>
       </c>
       <c r="F6">
-        <v>42.1683214603271</v>
+        <v>41.423328447199</v>
       </c>
       <c r="G6">
-        <v>95.0971717337514</v>
+        <v>89.0050183386078</v>
       </c>
       <c r="H6">
-        <v>85.0939190557706</v>
+        <v>78.461042285226</v>
       </c>
       <c r="I6">
-        <v>45.2167660313072</v>
+        <v>42.4343022614541</v>
       </c>
       <c r="J6">
-        <v>184.19078775005</v>
+        <v>176.030405547966</v>
       </c>
       <c r="K6">
-        <v>140.243423805625</v>
+        <v>122.242152072349</v>
       </c>
       <c r="L6">
-        <v>507.26035984237</v>
+        <v>530.677860816666</v>
       </c>
       <c r="M6">
-        <v>289.137989136325</v>
+        <v>261.984866017936</v>
       </c>
       <c r="N6">
-        <v>326.156333187006</v>
+        <v>282.705772639085</v>
       </c>
       <c r="O6">
-        <v>13006.1977671901</v>
+        <v>11944.734734255</v>
       </c>
       <c r="P6">
-        <v>286.495455922093</v>
+        <v>309.984652074655</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>791.0043344791731</v>
+        <v>905.116873083669</v>
       </c>
       <c r="C7">
-        <v>33.6952624221453</v>
+        <v>30.908005023404</v>
       </c>
       <c r="D7">
-        <v>3.32386864657731</v>
+        <v>3.40756091361185</v>
       </c>
       <c r="E7">
-        <v>12.2726343774727</v>
+        <v>14.8563174370438</v>
       </c>
       <c r="F7">
-        <v>12.9177217425027</v>
+        <v>15.4442534312918</v>
       </c>
       <c r="G7">
-        <v>6.87064896247619</v>
+        <v>7.19063956045879</v>
       </c>
       <c r="H7">
-        <v>7.58383545792135</v>
+        <v>6.1854902746926</v>
       </c>
       <c r="I7">
-        <v>10.2343132354012</v>
+        <v>9.91814724840156</v>
       </c>
       <c r="J7">
-        <v>21.5438805256115</v>
+        <v>20.0157604334233</v>
       </c>
       <c r="K7">
-        <v>22.4632751010216</v>
+        <v>18.7977653321562</v>
       </c>
       <c r="L7">
-        <v>55.4855416985692</v>
+        <v>54.8013922550031</v>
       </c>
       <c r="M7">
-        <v>19.8074645947403</v>
+        <v>18.2525552967332</v>
       </c>
       <c r="N7">
-        <v>30.3626173039581</v>
+        <v>27.2050899932969</v>
       </c>
       <c r="O7">
-        <v>1932.4979294906</v>
+        <v>1839.36446542397</v>
       </c>
       <c r="P7">
-        <v>21.2196302414098</v>
+        <v>33.2591836660965</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>649.9430389894291</v>
+        <v>770.605345211411</v>
       </c>
       <c r="C8">
-        <v>11.6251218754908</v>
+        <v>12.0456967435096</v>
       </c>
       <c r="D8">
-        <v>9.969228665522349</v>
+        <v>9.943897681013841</v>
       </c>
       <c r="E8">
-        <v>12.613888039402</v>
+        <v>16.9052488322419</v>
       </c>
       <c r="F8">
-        <v>3.71974045480812</v>
+        <v>2.92656898052559</v>
       </c>
       <c r="G8">
-        <v>30.0080710885114</v>
+        <v>26.0856701357785</v>
       </c>
       <c r="H8">
-        <v>12.6070501120716</v>
+        <v>9.675296604403121</v>
       </c>
       <c r="I8">
-        <v>5.2022218018651</v>
+        <v>5.71007718406746</v>
       </c>
       <c r="J8">
-        <v>44.0459454527499</v>
+        <v>45.5158454369481</v>
       </c>
       <c r="K8">
-        <v>33.7776375885598</v>
+        <v>28.0918603952075</v>
       </c>
       <c r="L8">
-        <v>40.4120194119427</v>
+        <v>39.945283954151</v>
       </c>
       <c r="M8">
-        <v>53.7162396106867</v>
+        <v>49.0338531430834</v>
       </c>
       <c r="N8">
-        <v>37.2745507164444</v>
+        <v>29.8056327240756</v>
       </c>
       <c r="O8">
-        <v>1448.59468853541</v>
+        <v>1350.14503297436</v>
       </c>
       <c r="P8">
-        <v>4.04513874121574</v>
+        <v>4.73320364745967</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>183.856969661006</v>
+        <v>199.901102855269</v>
       </c>
       <c r="C9">
-        <v>7.93099211795189</v>
+        <v>7.93527262149978</v>
       </c>
       <c r="D9">
-        <v>1.8151405179962</v>
+        <v>1.90281912536627</v>
       </c>
       <c r="E9">
-        <v>4.35259265686784</v>
+        <v>4.65676168723021</v>
       </c>
       <c r="F9">
-        <v>2.45606463724735</v>
+        <v>1.99102364000424</v>
       </c>
       <c r="G9">
-        <v>25.6036787984992</v>
+        <v>21.269094495328</v>
       </c>
       <c r="H9">
-        <v>4.86188553496812</v>
+        <v>4.27680959784742</v>
       </c>
       <c r="I9">
-        <v>1.51054951106934</v>
+        <v>1.19647368207884</v>
       </c>
       <c r="J9">
-        <v>3.39605258913738</v>
+        <v>3.14274963371778</v>
       </c>
       <c r="K9">
-        <v>3.86825440834757</v>
+        <v>3.30810550410464</v>
       </c>
       <c r="L9">
-        <v>2.7761491228931</v>
+        <v>2.85104792410388</v>
       </c>
       <c r="M9">
-        <v>9.41930534288773</v>
+        <v>8.694011824939221</v>
       </c>
       <c r="N9">
-        <v>6.25352307635713</v>
+        <v>5.37194429138559</v>
       </c>
       <c r="O9">
-        <v>372.220649912758</v>
+        <v>322.349095102916</v>
       </c>
       <c r="P9">
-        <v>5.7675056975605</v>
+        <v>4.96672887515329</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4021.50881818149</v>
+        <v>4749.17346887619</v>
       </c>
       <c r="C10">
-        <v>63.0799261233864</v>
+        <v>60.7872415523477</v>
       </c>
       <c r="D10">
-        <v>42.6313000898259</v>
+        <v>36.0594573482876</v>
       </c>
       <c r="E10">
-        <v>45.4014397424221</v>
+        <v>53.7999541892811</v>
       </c>
       <c r="F10">
-        <v>10.1567342211481</v>
+        <v>10.6539603550877</v>
       </c>
       <c r="G10">
-        <v>29.5731594682102</v>
+        <v>30.0792715855901</v>
       </c>
       <c r="H10">
-        <v>18.5140539947239</v>
+        <v>18.2130896059666</v>
       </c>
       <c r="I10">
-        <v>43.1053676380603</v>
+        <v>36.8423937265799</v>
       </c>
       <c r="J10">
-        <v>56.0806679553815</v>
+        <v>55.7288510611377</v>
       </c>
       <c r="K10">
-        <v>44.3748066696243</v>
+        <v>37.3048544531336</v>
       </c>
       <c r="L10">
-        <v>106.9658432677</v>
+        <v>93.2272972438509</v>
       </c>
       <c r="M10">
-        <v>80.26122951965481</v>
+        <v>79.635748219227</v>
       </c>
       <c r="N10">
-        <v>101.66226506668</v>
+        <v>91.7433340829156</v>
       </c>
       <c r="O10">
-        <v>6892.88906763296</v>
+        <v>6291.42420956444</v>
       </c>
       <c r="P10">
-        <v>101.508278869447</v>
+        <v>104.754824159407</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1760.97262185819</v>
+        <v>1973.81517208585</v>
       </c>
       <c r="C11">
-        <v>72.92302853137871</v>
+        <v>75.7625262496687</v>
       </c>
       <c r="D11">
-        <v>172.437708128058</v>
+        <v>161.975524688663</v>
       </c>
       <c r="E11">
-        <v>72.0885116832536</v>
+        <v>76.7558676985802</v>
       </c>
       <c r="F11">
-        <v>7.52583333547446</v>
+        <v>8.11800939122444</v>
       </c>
       <c r="G11">
-        <v>26.0382057617699</v>
+        <v>27.6225892126577</v>
       </c>
       <c r="H11">
-        <v>18.13698492002</v>
+        <v>23.6680341133071</v>
       </c>
       <c r="I11">
-        <v>21.9224917825576</v>
+        <v>21.84438524538</v>
       </c>
       <c r="J11">
-        <v>48.0242952139006</v>
+        <v>49.6573953281261</v>
       </c>
       <c r="K11">
-        <v>41.3980937758238</v>
+        <v>38.3649466481604</v>
       </c>
       <c r="L11">
-        <v>63.6676541769949</v>
+        <v>64.7149425878184</v>
       </c>
       <c r="M11">
-        <v>49.9790169619334</v>
+        <v>50.0934170723068</v>
       </c>
       <c r="N11">
-        <v>41.8809670791469</v>
+        <v>41.5319238122775</v>
       </c>
       <c r="O11">
-        <v>3202.07892527474</v>
+        <v>2993.80324243964</v>
       </c>
       <c r="P11">
-        <v>48.3257117854475</v>
+        <v>56.5636927817772</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>280.262630911633</v>
+        <v>319.505416969384</v>
       </c>
       <c r="C12">
-        <v>9.996314977660139</v>
+        <v>7.20130391845037</v>
       </c>
       <c r="D12">
-        <v>1.89257444825894</v>
+        <v>1.65430734925705</v>
       </c>
       <c r="E12">
-        <v>0.778240084550867</v>
+        <v>0.848780276783433</v>
       </c>
       <c r="F12">
-        <v>0.916091890547747</v>
+        <v>0.669556959143109</v>
       </c>
       <c r="G12">
-        <v>0.214434535301238</v>
+        <v>0.204815351635116</v>
       </c>
       <c r="H12">
-        <v>0.0713574787626827</v>
+        <v>0.108313489195076</v>
       </c>
       <c r="I12">
-        <v>1.25449091046784</v>
+        <v>1.02520024216621</v>
       </c>
       <c r="J12">
-        <v>2.3716046702865</v>
+        <v>1.72348645754773</v>
       </c>
       <c r="K12">
-        <v>0.386187529147061</v>
+        <v>0.294114905752962</v>
       </c>
       <c r="L12">
-        <v>0.0152931222330321</v>
+        <v>0.0560390102260842</v>
       </c>
       <c r="M12">
-        <v>4.36257851579597</v>
+        <v>4.04279533998045</v>
       </c>
       <c r="N12">
-        <v>4.38210267014914</v>
+        <v>3.89761758932976</v>
       </c>
       <c r="O12">
-        <v>613.114876401486</v>
+        <v>531.5081611411021</v>
       </c>
       <c r="P12">
-        <v>22.6973316654061</v>
+        <v>19.7767529180953</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>254.20420959351</v>
+        <v>294.680443143392</v>
       </c>
       <c r="C13">
-        <v>19.8476560243952</v>
+        <v>18.1750843452472</v>
       </c>
       <c r="D13">
-        <v>0.657983999884144</v>
+        <v>0.715856873091839</v>
       </c>
       <c r="E13">
-        <v>14.2182333651086</v>
+        <v>14.7171283113733</v>
       </c>
       <c r="F13">
-        <v>3.07331765719182</v>
+        <v>3.05296225989747</v>
       </c>
       <c r="G13">
-        <v>7.0458434934187</v>
+        <v>6.28617995093564</v>
       </c>
       <c r="H13">
-        <v>1.63380937851368</v>
+        <v>1.75867154672244</v>
       </c>
       <c r="I13">
-        <v>1.2682720441468</v>
+        <v>1.14938679095032</v>
       </c>
       <c r="J13">
-        <v>5.91064184134399</v>
+        <v>5.63887779763285</v>
       </c>
       <c r="K13">
-        <v>6.4759740839097</v>
+        <v>4.4608515639457</v>
       </c>
       <c r="L13">
-        <v>24.9134262546929</v>
+        <v>22.6756278988741</v>
       </c>
       <c r="M13">
-        <v>2.01012994065422</v>
+        <v>2.05401759865424</v>
       </c>
       <c r="N13">
-        <v>6.33502107898981</v>
+        <v>6.37477720264053</v>
       </c>
       <c r="O13">
-        <v>528.859887576417</v>
+        <v>476.782864980487</v>
       </c>
       <c r="P13">
-        <v>57.1224055584883</v>
+        <v>52.3019689603175</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2529.10240904008</v>
+        <v>2998.65446797501</v>
       </c>
       <c r="C14">
-        <v>119.579858489092</v>
+        <v>115.543935859674</v>
       </c>
       <c r="D14">
-        <v>14.870424130203</v>
+        <v>16.6436247160984</v>
       </c>
       <c r="E14">
-        <v>63.7757433632759</v>
+        <v>86.5554968809476</v>
       </c>
       <c r="F14">
-        <v>19.518130819987</v>
+        <v>23.3581429316842</v>
       </c>
       <c r="G14">
-        <v>112.752602186016</v>
+        <v>94.3972721318472</v>
       </c>
       <c r="H14">
-        <v>47.1158722203737</v>
+        <v>51.3927093029877</v>
       </c>
       <c r="I14">
-        <v>30.7901890806729</v>
+        <v>28.0848566545206</v>
       </c>
       <c r="J14">
-        <v>149.244547015398</v>
+        <v>162.193649598477</v>
       </c>
       <c r="K14">
-        <v>181.745475266285</v>
+        <v>164.053586334342</v>
       </c>
       <c r="L14">
-        <v>144.424534497044</v>
+        <v>140.314616895895</v>
       </c>
       <c r="M14">
-        <v>88.341385905289</v>
+        <v>89.6184572663762</v>
       </c>
       <c r="N14">
-        <v>93.0091253877938</v>
+        <v>85.6412005905532</v>
       </c>
       <c r="O14">
-        <v>4969.26259655319</v>
+        <v>4520.2528249235</v>
       </c>
       <c r="P14">
-        <v>56.3759405060809</v>
+        <v>74.7353655634427</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1267.3919565464</v>
+        <v>1428.10849314643</v>
       </c>
       <c r="C15">
-        <v>27.8543749942868</v>
+        <v>34.3185551128016</v>
       </c>
       <c r="D15">
-        <v>14.8237626436864</v>
+        <v>13.2931385560209</v>
       </c>
       <c r="E15">
-        <v>58.7628746425727</v>
+        <v>61.1494349088329</v>
       </c>
       <c r="F15">
-        <v>15.4257089511074</v>
+        <v>15.2265545248274</v>
       </c>
       <c r="G15">
-        <v>38.1953817988415</v>
+        <v>37.9163029598125</v>
       </c>
       <c r="H15">
-        <v>64.5504633890164</v>
+        <v>59.2906254281574</v>
       </c>
       <c r="I15">
-        <v>31.2554187545967</v>
+        <v>26.8522618479032</v>
       </c>
       <c r="J15">
-        <v>156.654292030419</v>
+        <v>149.192292282637</v>
       </c>
       <c r="K15">
-        <v>74.24894103518</v>
+        <v>65.3911055472035</v>
       </c>
       <c r="L15">
-        <v>48.7987839674495</v>
+        <v>51.2699119630997</v>
       </c>
       <c r="M15">
-        <v>164.186701582844</v>
+        <v>182.02380507746</v>
       </c>
       <c r="N15">
-        <v>105.813711436528</v>
+        <v>90.71026968937269</v>
       </c>
       <c r="O15">
-        <v>2148.43382104034</v>
+        <v>2005.1487385817</v>
       </c>
       <c r="P15">
-        <v>50.1501462201377</v>
+        <v>45.9193888943864</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>488.876749701992</v>
+        <v>601.213850964161</v>
       </c>
       <c r="C16">
-        <v>63.1989840865395</v>
+        <v>59.3301402653018</v>
       </c>
       <c r="D16">
-        <v>9.06236364872472</v>
+        <v>6.92768067862694</v>
       </c>
       <c r="E16">
-        <v>17.7320517517709</v>
+        <v>19.8986358772463</v>
       </c>
       <c r="F16">
-        <v>4.67654552941986</v>
+        <v>3.61020879253871</v>
       </c>
       <c r="G16">
-        <v>16.1039404114526</v>
+        <v>16.1374573031156</v>
       </c>
       <c r="H16">
-        <v>13.0086098003896</v>
+        <v>14.9699728845</v>
       </c>
       <c r="I16">
-        <v>9.74540468543999</v>
+        <v>10.042793929382</v>
       </c>
       <c r="J16">
-        <v>42.0800018451145</v>
+        <v>41.1639867557678</v>
       </c>
       <c r="K16">
-        <v>56.5719815364804</v>
+        <v>53.3215591511166</v>
       </c>
       <c r="L16">
-        <v>29.5730621770131</v>
+        <v>30.8461148451831</v>
       </c>
       <c r="M16">
-        <v>23.9572735633217</v>
+        <v>27.8321530879513</v>
       </c>
       <c r="N16">
-        <v>27.7096650598665</v>
+        <v>23.6352920633506</v>
       </c>
       <c r="O16">
-        <v>1226.39312156661</v>
+        <v>1096.51703426524</v>
       </c>
       <c r="P16">
-        <v>98.7984649929944</v>
+        <v>87.82040592728789</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>493.323140449804</v>
+        <v>585.9972257481541</v>
       </c>
       <c r="C17">
-        <v>24.7488319674026</v>
+        <v>26.7406303287164</v>
       </c>
       <c r="D17">
-        <v>2.76047559293696</v>
+        <v>2.61394898458752</v>
       </c>
       <c r="E17">
-        <v>10.3864756955655</v>
+        <v>15.5773318313042</v>
       </c>
       <c r="F17">
-        <v>10.0325568959886</v>
+        <v>13.3825054652462</v>
       </c>
       <c r="G17">
-        <v>6.73521504859551</v>
+        <v>6.99872420132054</v>
       </c>
       <c r="H17">
-        <v>7.76489667455625</v>
+        <v>10.0928426551165</v>
       </c>
       <c r="I17">
-        <v>9.19497304129964</v>
+        <v>7.43904972714776</v>
       </c>
       <c r="J17">
-        <v>14.2152846084596</v>
+        <v>14.0384459553126</v>
       </c>
       <c r="K17">
-        <v>19.2208863762736</v>
+        <v>18.0426149652819</v>
       </c>
       <c r="L17">
-        <v>8.72751965083858</v>
+        <v>7.67304641926547</v>
       </c>
       <c r="M17">
-        <v>70.88341031760901</v>
+        <v>66.6511222744477</v>
       </c>
       <c r="N17">
-        <v>14.3904731168858</v>
+        <v>14.3974402360377</v>
       </c>
       <c r="O17">
-        <v>1161.84161127684</v>
+        <v>1030.65443106665</v>
       </c>
       <c r="P17">
-        <v>58.6352075978694</v>
+        <v>60.9440043813359</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1085.55757390752</v>
+        <v>1183.90342328952</v>
       </c>
       <c r="C18">
-        <v>33.955821754972</v>
+        <v>34.5920584797454</v>
       </c>
       <c r="D18">
-        <v>11.7381949871496</v>
+        <v>13.4256231297661</v>
       </c>
       <c r="E18">
-        <v>32.6331750927043</v>
+        <v>38.7649927479469</v>
       </c>
       <c r="F18">
-        <v>31.7447815016051</v>
+        <v>28.7795731197022</v>
       </c>
       <c r="G18">
-        <v>26.5690871081222</v>
+        <v>22.5497110582406</v>
       </c>
       <c r="H18">
-        <v>17.7267394101388</v>
+        <v>17.7605542045464</v>
       </c>
       <c r="I18">
-        <v>6.74934042440694</v>
+        <v>7.4569717603009</v>
       </c>
       <c r="J18">
-        <v>45.1134355387142</v>
+        <v>47.1188797482182</v>
       </c>
       <c r="K18">
-        <v>32.2068627340755</v>
+        <v>29.6024369142505</v>
       </c>
       <c r="L18">
-        <v>35.248272998381</v>
+        <v>31.6387149241082</v>
       </c>
       <c r="M18">
-        <v>65.9263443271457</v>
+        <v>68.4402807104175</v>
       </c>
       <c r="N18">
-        <v>19.4464311025477</v>
+        <v>21.4904829145076</v>
       </c>
       <c r="O18">
-        <v>1461.23551994575</v>
+        <v>1321.62150121069</v>
       </c>
       <c r="P18">
-        <v>58.3614359921954</v>
+        <v>52.7112033472426</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1159.75199690799</v>
+        <v>1282.09002138782</v>
       </c>
       <c r="C19">
-        <v>23.953919515672</v>
+        <v>22.3723816104452</v>
       </c>
       <c r="D19">
-        <v>9.05480748658611</v>
+        <v>8.6646806758755</v>
       </c>
       <c r="E19">
-        <v>30.774473766206</v>
+        <v>34.6537220872875</v>
       </c>
       <c r="F19">
-        <v>93.7083777653485</v>
+        <v>88.94927908278061</v>
       </c>
       <c r="G19">
-        <v>37.1863996359016</v>
+        <v>38.8341428384292</v>
       </c>
       <c r="H19">
-        <v>5.57723180675295</v>
+        <v>6.34419975819725</v>
       </c>
       <c r="I19">
-        <v>2.88250209938389</v>
+        <v>2.70219292386929</v>
       </c>
       <c r="J19">
-        <v>14.338521079326</v>
+        <v>18.5778590197657</v>
       </c>
       <c r="K19">
-        <v>15.9943392859285</v>
+        <v>15.2529140548016</v>
       </c>
       <c r="L19">
-        <v>5.92102598813107</v>
+        <v>6.57789449864106</v>
       </c>
       <c r="M19">
-        <v>28.1499498778883</v>
+        <v>27.6819549056947</v>
       </c>
       <c r="N19">
-        <v>9.76122830461895</v>
+        <v>11.5827904983056</v>
       </c>
       <c r="O19">
-        <v>1648.42453406719</v>
+        <v>1500.16175473883</v>
       </c>
       <c r="P19">
-        <v>38.3057544967243</v>
+        <v>37.7003971922076</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>282.506310570525</v>
+        <v>323.601282913952</v>
       </c>
       <c r="C20">
-        <v>6.7190264019598</v>
+        <v>6.78942129938689</v>
       </c>
       <c r="D20">
-        <v>11.4843946320329</v>
+        <v>11.5653480668464</v>
       </c>
       <c r="E20">
-        <v>36.7307304245556</v>
+        <v>36.6232512342692</v>
       </c>
       <c r="F20">
-        <v>0.820223505178554</v>
+        <v>0.684117602419289</v>
       </c>
       <c r="G20">
-        <v>1.88190269364333</v>
+        <v>1.8271823202718</v>
       </c>
       <c r="H20">
-        <v>2.4786623491328</v>
+        <v>1.83149582110385</v>
       </c>
       <c r="I20">
-        <v>1.1007498054869</v>
+        <v>1.34647924413723</v>
       </c>
       <c r="J20">
-        <v>3.96233014764517</v>
+        <v>5.16799897502975</v>
       </c>
       <c r="K20">
-        <v>4.99756980080107</v>
+        <v>4.27868271255256</v>
       </c>
       <c r="L20">
-        <v>9.31679475420844</v>
+        <v>8.488500078278809</v>
       </c>
       <c r="M20">
-        <v>16.668521102528</v>
+        <v>15.5238505808203</v>
       </c>
       <c r="N20">
-        <v>4.63253385144862</v>
+        <v>4.55690224043242</v>
       </c>
       <c r="O20">
-        <v>556.30512970494</v>
+        <v>496.959671063324</v>
       </c>
       <c r="P20">
-        <v>26.1716673621803</v>
+        <v>26.8897525049955</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1044.98114056814</v>
+        <v>1192.83643424394</v>
       </c>
       <c r="C21">
-        <v>22.3983229526677</v>
+        <v>23.9765292677085</v>
       </c>
       <c r="D21">
-        <v>8.47096322159827</v>
+        <v>8.696698813208251</v>
       </c>
       <c r="E21">
-        <v>24.8209421338003</v>
+        <v>31.0367577615775</v>
       </c>
       <c r="F21">
-        <v>5.56645812874072</v>
+        <v>5.03932052736218</v>
       </c>
       <c r="G21">
-        <v>25.1180025927425</v>
+        <v>22.5139790310019</v>
       </c>
       <c r="H21">
-        <v>5.81713032876479</v>
+        <v>4.78474883283957</v>
       </c>
       <c r="I21">
-        <v>7.23840485387721</v>
+        <v>7.90536301700598</v>
       </c>
       <c r="J21">
-        <v>27.8749933294178</v>
+        <v>28.3779455603818</v>
       </c>
       <c r="K21">
-        <v>9.440877999546229</v>
+        <v>9.149452814139909</v>
       </c>
       <c r="L21">
-        <v>17.9861933531938</v>
+        <v>20.7391899999093</v>
       </c>
       <c r="M21">
-        <v>33.8198529070749</v>
+        <v>27.802765718768</v>
       </c>
       <c r="N21">
-        <v>27.2113723329229</v>
+        <v>27.6419733897575</v>
       </c>
       <c r="O21">
-        <v>2415.05444070814</v>
+        <v>2280.00307306754</v>
       </c>
       <c r="P21">
-        <v>18.612804513898</v>
+        <v>17.4354003205517</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1264.60569943492</v>
+        <v>1479.72666125444</v>
       </c>
       <c r="C22">
-        <v>17.6938472144206</v>
+        <v>19.3120702488942</v>
       </c>
       <c r="D22">
-        <v>24.33198119592</v>
+        <v>25.7892647404036</v>
       </c>
       <c r="E22">
-        <v>31.5449047887861</v>
+        <v>41.9320387909392</v>
       </c>
       <c r="F22">
-        <v>2.18891251353838</v>
+        <v>2.78569298836093</v>
       </c>
       <c r="G22">
-        <v>32.1942663576279</v>
+        <v>29.1623822238917</v>
       </c>
       <c r="H22">
-        <v>25.1094530959833</v>
+        <v>21.583707716871</v>
       </c>
       <c r="I22">
-        <v>7.74339328454312</v>
+        <v>8.53025276943746</v>
       </c>
       <c r="J22">
-        <v>50.2751872976858</v>
+        <v>49.158613599078</v>
       </c>
       <c r="K22">
-        <v>37.5244939488029</v>
+        <v>34.3045402525373</v>
       </c>
       <c r="L22">
-        <v>125.875318463594</v>
+        <v>125.386460035764</v>
       </c>
       <c r="M22">
-        <v>18.4559707799323</v>
+        <v>14.8648358701622</v>
       </c>
       <c r="N22">
-        <v>87.55262335080199</v>
+        <v>72.0789121591213</v>
       </c>
       <c r="O22">
-        <v>2717.6477871014</v>
+        <v>2536.79896936952</v>
       </c>
       <c r="P22">
-        <v>11.9231391768206</v>
+        <v>12.4165077140415</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2201.76646769988</v>
+        <v>2540.04559428953</v>
       </c>
       <c r="C23">
-        <v>45.6711024085895</v>
+        <v>47.0782788426273</v>
       </c>
       <c r="D23">
-        <v>12.1982709660795</v>
+        <v>11.1480287989681</v>
       </c>
       <c r="E23">
-        <v>37.0844191077835</v>
+        <v>48.1860086948316</v>
       </c>
       <c r="F23">
-        <v>4.69259156249348</v>
+        <v>8.950707621360991</v>
       </c>
       <c r="G23">
-        <v>57.3136866784439</v>
+        <v>51.3102616098986</v>
       </c>
       <c r="H23">
-        <v>73.19261245741551</v>
+        <v>72.91245002083051</v>
       </c>
       <c r="I23">
-        <v>16.0520335196939</v>
+        <v>15.3648837031145</v>
       </c>
       <c r="J23">
-        <v>137.041496191543</v>
+        <v>140.539930994887</v>
       </c>
       <c r="K23">
-        <v>129.149298942446</v>
+        <v>113.016944988129</v>
       </c>
       <c r="L23">
-        <v>41.9811051831718</v>
+        <v>39.8415478123491</v>
       </c>
       <c r="M23">
-        <v>557.306922660822</v>
+        <v>517.2605899419521</v>
       </c>
       <c r="N23">
-        <v>81.15707462244851</v>
+        <v>73.2200784141621</v>
       </c>
       <c r="O23">
-        <v>3554.60517762294</v>
+        <v>3251.5962972073</v>
       </c>
       <c r="P23">
-        <v>51.9058989578024</v>
+        <v>58.5968752181589</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>819.116598192394</v>
+        <v>974.843344788316</v>
       </c>
       <c r="C24">
-        <v>50.3364561032976</v>
+        <v>58.7540300881521</v>
       </c>
       <c r="D24">
-        <v>11.1093660128915</v>
+        <v>9.32013095847517</v>
       </c>
       <c r="E24">
-        <v>50.1671654551126</v>
+        <v>61.536246723925</v>
       </c>
       <c r="F24">
-        <v>12.1275689406821</v>
+        <v>11.9134757345214</v>
       </c>
       <c r="G24">
-        <v>31.4630149152221</v>
+        <v>25.4682269868493</v>
       </c>
       <c r="H24">
-        <v>15.0700674467445</v>
+        <v>14.0908750128883</v>
       </c>
       <c r="I24">
-        <v>19.6204480770782</v>
+        <v>19.386409462111</v>
       </c>
       <c r="J24">
-        <v>37.1565336073604</v>
+        <v>47.1837343395771</v>
       </c>
       <c r="K24">
-        <v>79.68601614079429</v>
+        <v>64.556160494289</v>
       </c>
       <c r="L24">
-        <v>54.3454440457335</v>
+        <v>61.5785132739886</v>
       </c>
       <c r="M24">
-        <v>27.9314180415355</v>
+        <v>32.0128863191208</v>
       </c>
       <c r="N24">
-        <v>74.0350627738996</v>
+        <v>63.7125221324491</v>
       </c>
       <c r="O24">
-        <v>2031.62610261741</v>
+        <v>1881.62702617474</v>
       </c>
       <c r="P24">
-        <v>105.349564899574</v>
+        <v>109.767123032379</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>733.812548424826</v>
+        <v>823.29997561617</v>
       </c>
       <c r="C25">
-        <v>46.1280208724111</v>
+        <v>37.7585941546123</v>
       </c>
       <c r="D25">
-        <v>20.7342180966902</v>
+        <v>20.390182191781</v>
       </c>
       <c r="E25">
-        <v>43.0404509757704</v>
+        <v>39.4914271606932</v>
       </c>
       <c r="F25">
-        <v>20.1349540517737</v>
+        <v>15.6860831293887</v>
       </c>
       <c r="G25">
-        <v>5.87304757405255</v>
+        <v>6.10691595850882</v>
       </c>
       <c r="H25">
-        <v>14.7019654110292</v>
+        <v>13.8701612733398</v>
       </c>
       <c r="I25">
-        <v>7.2903960680548</v>
+        <v>7.05989652598398</v>
       </c>
       <c r="J25">
-        <v>18.7098575786803</v>
+        <v>18.2639042051895</v>
       </c>
       <c r="K25">
-        <v>21.9945876797771</v>
+        <v>18.0016100041926</v>
       </c>
       <c r="L25">
-        <v>20.3307243970755</v>
+        <v>20.4277297298913</v>
       </c>
       <c r="M25">
-        <v>32.4261812750272</v>
+        <v>31.1840523215534</v>
       </c>
       <c r="N25">
-        <v>38.7655768592213</v>
+        <v>46.9193419449377</v>
       </c>
       <c r="O25">
-        <v>978.3997813460001</v>
+        <v>866.4564423592</v>
       </c>
       <c r="P25">
-        <v>45.589640513922</v>
+        <v>43.7614506409232</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1089.111111255</v>
+        <v>1313.03567867474</v>
       </c>
       <c r="C26">
-        <v>63.6092943136217</v>
+        <v>62.0705855310202</v>
       </c>
       <c r="D26">
-        <v>18.7171628622554</v>
+        <v>21.7325237985245</v>
       </c>
       <c r="E26">
-        <v>35.5907921269121</v>
+        <v>45.9210930408065</v>
       </c>
       <c r="F26">
-        <v>7.08322552412705</v>
+        <v>9.779620335264591</v>
       </c>
       <c r="G26">
-        <v>34.7538105202054</v>
+        <v>29.5662538063629</v>
       </c>
       <c r="H26">
-        <v>21.7411350538228</v>
+        <v>22.6760968793376</v>
       </c>
       <c r="I26">
-        <v>19.6387886194723</v>
+        <v>18.1260668740006</v>
       </c>
       <c r="J26">
-        <v>74.646600780687</v>
+        <v>71.1575604797016</v>
       </c>
       <c r="K26">
-        <v>43.9232614114131</v>
+        <v>38.396227100992</v>
       </c>
       <c r="L26">
-        <v>33.1267392432785</v>
+        <v>35.3325980306669</v>
       </c>
       <c r="M26">
-        <v>75.4400327750601</v>
+        <v>78.3748310270787</v>
       </c>
       <c r="N26">
-        <v>36.0396829077149</v>
+        <v>38.0403245467944</v>
       </c>
       <c r="O26">
-        <v>2275.55392924054</v>
+        <v>2055.33627307981</v>
       </c>
       <c r="P26">
-        <v>73.5581278070426</v>
+        <v>79.0259322320308</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>210.093541215581</v>
+        <v>236.306105033033</v>
       </c>
       <c r="C27">
-        <v>3.61366441452367</v>
+        <v>3.2752642386399</v>
       </c>
       <c r="D27">
-        <v>0.991012560694101</v>
+        <v>1.10081244061095</v>
       </c>
       <c r="E27">
-        <v>11.0845948354442</v>
+        <v>10.0299777215402</v>
       </c>
       <c r="F27">
-        <v>6.80204950499446</v>
+        <v>6.56689212220481</v>
       </c>
       <c r="G27">
-        <v>1.10483712774995</v>
+        <v>1.04289611343061</v>
       </c>
       <c r="H27">
-        <v>0.34282781421064</v>
+        <v>0.297182303314711</v>
       </c>
       <c r="I27">
-        <v>3.46528223701916</v>
+        <v>2.51587051926616</v>
       </c>
       <c r="J27">
-        <v>3.13187728463711</v>
+        <v>2.94039225152844</v>
       </c>
       <c r="K27">
-        <v>2.81996614635413</v>
+        <v>2.39569049393768</v>
       </c>
       <c r="L27">
-        <v>1.5526091602971</v>
+        <v>1.30028381952444</v>
       </c>
       <c r="M27">
-        <v>0.8142626690873061</v>
+        <v>0.764179567052981</v>
       </c>
       <c r="N27">
-        <v>5.13096225972008</v>
+        <v>4.35965043218849</v>
       </c>
       <c r="O27">
-        <v>412.135507057306</v>
+        <v>360.349477116356</v>
       </c>
       <c r="P27">
-        <v>49.1106587585014</v>
+        <v>46.8482202343217</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>282.589774347188</v>
+        <v>343.949809202379</v>
       </c>
       <c r="C28">
-        <v>34.7832979762679</v>
+        <v>34.912040094527</v>
       </c>
       <c r="D28">
-        <v>5.86252080924766</v>
+        <v>3.84119434738877</v>
       </c>
       <c r="E28">
-        <v>6.77508677125244</v>
+        <v>7.9544897996945</v>
       </c>
       <c r="F28">
-        <v>2.10176203425718</v>
+        <v>1.91011754548748</v>
       </c>
       <c r="G28">
-        <v>5.34280499582196</v>
+        <v>4.39381220238799</v>
       </c>
       <c r="H28">
-        <v>9.34012201695294</v>
+        <v>8.458026064164381</v>
       </c>
       <c r="I28">
-        <v>3.19343774005527</v>
+        <v>3.10472738588235</v>
       </c>
       <c r="J28">
-        <v>15.2378026565118</v>
+        <v>14.0103969548662</v>
       </c>
       <c r="K28">
-        <v>15.672508646541</v>
+        <v>15.9666635385876</v>
       </c>
       <c r="L28">
-        <v>18.4472053376149</v>
+        <v>16.0288637973069</v>
       </c>
       <c r="M28">
-        <v>7.07595301066611</v>
+        <v>7.73474175542388</v>
       </c>
       <c r="N28">
-        <v>11.6738140956146</v>
+        <v>11.6279393373087</v>
       </c>
       <c r="O28">
-        <v>738.0548278377351</v>
+        <v>655.318447325615</v>
       </c>
       <c r="P28">
-        <v>92.46234223923401</v>
+        <v>88.8891814036031</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>440.330793286489</v>
+        <v>508.017006191663</v>
       </c>
       <c r="C29">
-        <v>2.88967653310539</v>
+        <v>3.11914906664001</v>
       </c>
       <c r="D29">
-        <v>3.09561194663278</v>
+        <v>2.68615674133661</v>
       </c>
       <c r="E29">
-        <v>3.91124901795903</v>
+        <v>4.91623110320585</v>
       </c>
       <c r="F29">
-        <v>20.1187389798907</v>
+        <v>19.9052396359846</v>
       </c>
       <c r="G29">
-        <v>1.41829859397862</v>
+        <v>1.37416970523669</v>
       </c>
       <c r="H29">
-        <v>2.68699711997901</v>
+        <v>2.9010341308062</v>
       </c>
       <c r="I29">
-        <v>4.05069043254091</v>
+        <v>2.95830365573378</v>
       </c>
       <c r="J29">
-        <v>4.84434569538084</v>
+        <v>6.21568968322916</v>
       </c>
       <c r="K29">
-        <v>4.85473086063558</v>
+        <v>3.90700318139444</v>
       </c>
       <c r="L29">
-        <v>2.60440179638594</v>
+        <v>2.96654777771756</v>
       </c>
       <c r="M29">
-        <v>2.78375036755625</v>
+        <v>2.77148035495251</v>
       </c>
       <c r="N29">
-        <v>11.0903722797187</v>
+        <v>10.5251978410661</v>
       </c>
       <c r="O29">
-        <v>979.6207701346571</v>
+        <v>885.307938147585</v>
       </c>
       <c r="P29">
-        <v>6.32744309073892</v>
+        <v>6.57739961328154</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>231.020171614548</v>
+        <v>262.752911804595</v>
       </c>
       <c r="C30">
-        <v>4.82637269901092</v>
+        <v>4.51067805396825</v>
       </c>
       <c r="D30">
-        <v>8.43142008627645</v>
+        <v>7.73462409141278</v>
       </c>
       <c r="E30">
-        <v>12.9339486531881</v>
+        <v>14.2634541899867</v>
       </c>
       <c r="F30">
-        <v>1.39520148482144</v>
+        <v>1.41685773186881</v>
       </c>
       <c r="G30">
-        <v>3.36731770118186</v>
+        <v>3.54932020889598</v>
       </c>
       <c r="H30">
-        <v>5.74454694303974</v>
+        <v>5.44948507740197</v>
       </c>
       <c r="I30">
-        <v>4.25821945280362</v>
+        <v>3.75802739774748</v>
       </c>
       <c r="J30">
-        <v>16.2780940637942</v>
+        <v>17.1120238124157</v>
       </c>
       <c r="K30">
-        <v>15.5165598566873</v>
+        <v>12.3466391013191</v>
       </c>
       <c r="L30">
-        <v>36.2578154734874</v>
+        <v>33.7670840266822</v>
       </c>
       <c r="M30">
-        <v>10.1043816761142</v>
+        <v>8.928858123327791</v>
       </c>
       <c r="N30">
-        <v>16.3266615076437</v>
+        <v>14.9049309853779</v>
       </c>
       <c r="O30">
-        <v>555.148586755875</v>
+        <v>503.840323280543</v>
       </c>
       <c r="P30">
-        <v>7.95183573514598</v>
+        <v>8.09022174660271</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1774.01566727132</v>
+        <v>2082.49900964173</v>
       </c>
       <c r="C31">
-        <v>41.3980414578185</v>
+        <v>41.5821178339421</v>
       </c>
       <c r="D31">
-        <v>51.9431187705462</v>
+        <v>47.8679129227541</v>
       </c>
       <c r="E31">
-        <v>37.8194459124702</v>
+        <v>50.8585288575526</v>
       </c>
       <c r="F31">
-        <v>8.6625093759205</v>
+        <v>10.8078731862577</v>
       </c>
       <c r="G31">
-        <v>126.939254828273</v>
+        <v>122.289436483731</v>
       </c>
       <c r="H31">
-        <v>23.4593261842382</v>
+        <v>21.9992608299615</v>
       </c>
       <c r="I31">
-        <v>24.5575866352214</v>
+        <v>22.6138596488398</v>
       </c>
       <c r="J31">
-        <v>45.1901900815881</v>
+        <v>46.4812800184714</v>
       </c>
       <c r="K31">
-        <v>35.0507616084325</v>
+        <v>29.9401339502075</v>
       </c>
       <c r="L31">
-        <v>70.58500062822201</v>
+        <v>74.23569545077621</v>
       </c>
       <c r="M31">
-        <v>16.8597069965435</v>
+        <v>18.1076813921012</v>
       </c>
       <c r="N31">
-        <v>56.6990042481115</v>
+        <v>53.479034029993</v>
       </c>
       <c r="O31">
-        <v>3635.32470679587</v>
+        <v>3345.66064264325</v>
       </c>
       <c r="P31">
-        <v>4.21470265857793</v>
+        <v>6.38668535846111</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>443.509377404046</v>
+        <v>505.522246422481</v>
       </c>
       <c r="C32">
-        <v>7.26660965304064</v>
+        <v>7.26816221372074</v>
       </c>
       <c r="D32">
-        <v>1.23761545991631</v>
+        <v>1.01870596254526</v>
       </c>
       <c r="E32">
-        <v>1.74648512292162</v>
+        <v>4.176001978084</v>
       </c>
       <c r="F32">
-        <v>26.2345198989269</v>
+        <v>22.2570357336478</v>
       </c>
       <c r="G32">
-        <v>3.08117613574849</v>
+        <v>2.28261913840648</v>
       </c>
       <c r="H32">
-        <v>3.32405949708798</v>
+        <v>1.8824147337946</v>
       </c>
       <c r="I32">
-        <v>5.02723113831942</v>
+        <v>5.31843936383502</v>
       </c>
       <c r="J32">
-        <v>6.45129119925506</v>
+        <v>5.83631767143499</v>
       </c>
       <c r="K32">
-        <v>2.2545931809302</v>
+        <v>1.63185346868471</v>
       </c>
       <c r="L32">
-        <v>17.7242693179852</v>
+        <v>15.6970893619524</v>
       </c>
       <c r="M32">
-        <v>2.72096918424698</v>
+        <v>2.89854991356124</v>
       </c>
       <c r="N32">
-        <v>7.78850801289292</v>
+        <v>7.69993883421336</v>
       </c>
       <c r="O32">
-        <v>743.276578144797</v>
+        <v>674.5264658805251</v>
       </c>
       <c r="P32">
-        <v>22.7588077568575</v>
+        <v>21.1345456709851</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4620.04473580803</v>
+        <v>5258.43424219496</v>
       </c>
       <c r="C33">
-        <v>82.767651361315</v>
+        <v>84.36246511731611</v>
       </c>
       <c r="D33">
-        <v>121.824459539234</v>
+        <v>108.255880235061</v>
       </c>
       <c r="E33">
-        <v>59.8834151631753</v>
+        <v>88.2412303764816</v>
       </c>
       <c r="F33">
-        <v>9.15345237723789</v>
+        <v>8.603989958645149</v>
       </c>
       <c r="G33">
-        <v>67.1371945412991</v>
+        <v>72.80833603759601</v>
       </c>
       <c r="H33">
-        <v>37.8297877929264</v>
+        <v>35.0511235976254</v>
       </c>
       <c r="I33">
-        <v>36.042963599889</v>
+        <v>34.6174806832019</v>
       </c>
       <c r="J33">
-        <v>105.002257565071</v>
+        <v>107.590309732007</v>
       </c>
       <c r="K33">
-        <v>111.60946869164</v>
+        <v>114.872636006149</v>
       </c>
       <c r="L33">
-        <v>133.151286869133</v>
+        <v>132.786644934427</v>
       </c>
       <c r="M33">
-        <v>73.3599391733367</v>
+        <v>70.2119864582294</v>
       </c>
       <c r="N33">
-        <v>160.7763887271</v>
+        <v>135.61587787251</v>
       </c>
       <c r="O33">
-        <v>7621.01540535601</v>
+        <v>7029.63126315022</v>
       </c>
       <c r="P33">
-        <v>67.2915178402219</v>
+        <v>76.7817342108082</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1824.65041904553</v>
+        <v>2063.33969381798</v>
       </c>
       <c r="C34">
-        <v>71.39023729421911</v>
+        <v>66.8684732161326</v>
       </c>
       <c r="D34">
-        <v>199.635621391433</v>
+        <v>191.701995631016</v>
       </c>
       <c r="E34">
-        <v>52.0688306586103</v>
+        <v>59.6090641157355</v>
       </c>
       <c r="F34">
-        <v>7.33277639323547</v>
+        <v>7.55189090474163</v>
       </c>
       <c r="G34">
-        <v>55.1383303853185</v>
+        <v>51.8700391855662</v>
       </c>
       <c r="H34">
-        <v>41.7956657490163</v>
+        <v>39.5163243983494</v>
       </c>
       <c r="I34">
-        <v>16.7811015960683</v>
+        <v>17.7056791049116</v>
       </c>
       <c r="J34">
-        <v>59.9696417677461</v>
+        <v>59.4832448978741</v>
       </c>
       <c r="K34">
-        <v>64.90313294581139</v>
+        <v>54.47585416524</v>
       </c>
       <c r="L34">
-        <v>102.956118747905</v>
+        <v>93.0610086396881</v>
       </c>
       <c r="M34">
-        <v>40.7828253118567</v>
+        <v>47.253255482697</v>
       </c>
       <c r="N34">
-        <v>129.028579641366</v>
+        <v>122.865251364137</v>
       </c>
       <c r="O34">
-        <v>2963.95670428057</v>
+        <v>2764.56912819573</v>
       </c>
       <c r="P34">
-        <v>66.0667682389108</v>
+        <v>61.4079975992067</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>117.615610710333</v>
+        <v>142.453046243486</v>
       </c>
       <c r="C35">
-        <v>7.25271716521487</v>
+        <v>7.08628563715861</v>
       </c>
       <c r="D35">
-        <v>0.627328640988018</v>
+        <v>0.547495864541434</v>
       </c>
       <c r="E35">
-        <v>3.4280433487346</v>
+        <v>2.62093233195168</v>
       </c>
       <c r="F35">
-        <v>5.54919587344408</v>
+        <v>5.4283753218246</v>
       </c>
       <c r="G35">
-        <v>0.75774086694381</v>
+        <v>0.796095834133932</v>
       </c>
       <c r="H35">
-        <v>0.487501447516022</v>
+        <v>0.342209278400557</v>
       </c>
       <c r="I35">
-        <v>1.25344436473843</v>
+        <v>1.08587220545958</v>
       </c>
       <c r="J35">
-        <v>2.75696609703352</v>
+        <v>2.67544032553988</v>
       </c>
       <c r="K35">
-        <v>6.49562434577383</v>
+        <v>6.23764190544804</v>
       </c>
       <c r="L35">
-        <v>2.66510395199009</v>
+        <v>2.13113588035535</v>
       </c>
       <c r="M35">
-        <v>2.50954972432651</v>
+        <v>2.44389514462326</v>
       </c>
       <c r="N35">
-        <v>2.62115055912688</v>
+        <v>2.54734512103079</v>
       </c>
       <c r="O35">
-        <v>288.374877770163</v>
+        <v>250.990830459304</v>
       </c>
       <c r="P35">
-        <v>48.8665686824244</v>
+        <v>44.1456779045488</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2458.73321267855</v>
+        <v>2814.25484607615</v>
       </c>
       <c r="C36">
-        <v>60.545333532318</v>
+        <v>63.655737967264</v>
       </c>
       <c r="D36">
-        <v>12.4061602756811</v>
+        <v>15.5223572977295</v>
       </c>
       <c r="E36">
-        <v>67.0899939275039</v>
+        <v>88.4741484617589</v>
       </c>
       <c r="F36">
-        <v>32.3084199740398</v>
+        <v>26.7832043647256</v>
       </c>
       <c r="G36">
-        <v>96.3344529710929</v>
+        <v>88.2384903759491</v>
       </c>
       <c r="H36">
-        <v>103.825611426664</v>
+        <v>103.519627495425</v>
       </c>
       <c r="I36">
-        <v>47.0946541771592</v>
+        <v>49.8171821218675</v>
       </c>
       <c r="J36">
-        <v>215.253953307844</v>
+        <v>228.844504578577</v>
       </c>
       <c r="K36">
-        <v>156.187750556798</v>
+        <v>132.660315233285</v>
       </c>
       <c r="L36">
-        <v>86.5738215591493</v>
+        <v>84.19500738481359</v>
       </c>
       <c r="M36">
-        <v>228.017815450791</v>
+        <v>233.515874177723</v>
       </c>
       <c r="N36">
-        <v>107.225335121642</v>
+        <v>99.1988091103306</v>
       </c>
       <c r="O36">
-        <v>4277.10368490336</v>
+        <v>3918.87254410294</v>
       </c>
       <c r="P36">
-        <v>51.6316410817012</v>
+        <v>54.4169355140436</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>802.5271165635051</v>
+        <v>905.117081561728</v>
       </c>
       <c r="C37">
-        <v>22.7913826771301</v>
+        <v>23.6109323084537</v>
       </c>
       <c r="D37">
-        <v>6.18382066607563</v>
+        <v>5.60312444807751</v>
       </c>
       <c r="E37">
-        <v>19.1561354737486</v>
+        <v>19.0650029442979</v>
       </c>
       <c r="F37">
-        <v>35.5747602595902</v>
+        <v>38.021807024818</v>
       </c>
       <c r="G37">
-        <v>12.3172032817929</v>
+        <v>10.4974079729301</v>
       </c>
       <c r="H37">
-        <v>25.7315062762747</v>
+        <v>23.867324967441</v>
       </c>
       <c r="I37">
-        <v>18.339260749151</v>
+        <v>15.2996433728873</v>
       </c>
       <c r="J37">
-        <v>31.5781411666935</v>
+        <v>34.9507816921433</v>
       </c>
       <c r="K37">
-        <v>41.2344144158128</v>
+        <v>33.4170052826856</v>
       </c>
       <c r="L37">
-        <v>21.509033758346</v>
+        <v>20.5964672067946</v>
       </c>
       <c r="M37">
-        <v>33.914605279044</v>
+        <v>35.1417804172642</v>
       </c>
       <c r="N37">
-        <v>11.9306836665685</v>
+        <v>12.5393429980659</v>
       </c>
       <c r="O37">
-        <v>1236.73186578615</v>
+        <v>1163.84237625951</v>
       </c>
       <c r="P37">
-        <v>60.1444646146115</v>
+        <v>57.2609696441205</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>748.516558673648</v>
+        <v>871.394798622425</v>
       </c>
       <c r="C38">
-        <v>24.8110480540235</v>
+        <v>23.5915532084926</v>
       </c>
       <c r="D38">
-        <v>11.7521891204995</v>
+        <v>9.730287630292461</v>
       </c>
       <c r="E38">
-        <v>49.8710813356878</v>
+        <v>59.4666815139179</v>
       </c>
       <c r="F38">
-        <v>3.88803959069976</v>
+        <v>3.28523209718677</v>
       </c>
       <c r="G38">
-        <v>4.99373661601722</v>
+        <v>4.09514692454295</v>
       </c>
       <c r="H38">
-        <v>5.60910152331904</v>
+        <v>4.67258854206734</v>
       </c>
       <c r="I38">
-        <v>4.81163045491384</v>
+        <v>5.02277653506871</v>
       </c>
       <c r="J38">
-        <v>41.6781109107575</v>
+        <v>36.9457913524889</v>
       </c>
       <c r="K38">
-        <v>12.0631298129699</v>
+        <v>11.4144199859485</v>
       </c>
       <c r="L38">
-        <v>60.0029638442056</v>
+        <v>56.1885085474877</v>
       </c>
       <c r="M38">
-        <v>16.1578123442547</v>
+        <v>15.5869715889794</v>
       </c>
       <c r="N38">
-        <v>32.2355305759088</v>
+        <v>28.999478299698</v>
       </c>
       <c r="O38">
-        <v>1383.64032328187</v>
+        <v>1277.17524168525</v>
       </c>
       <c r="P38">
-        <v>70.44745683728129</v>
+        <v>69.5030134672169</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2830.24952556083</v>
+        <v>3281.67665154334</v>
       </c>
       <c r="C39">
-        <v>98.52564652697851</v>
+        <v>93.52447398763771</v>
       </c>
       <c r="D39">
-        <v>66.4645663627866</v>
+        <v>66.6136872352253</v>
       </c>
       <c r="E39">
-        <v>108.990341335773</v>
+        <v>128.276193698964</v>
       </c>
       <c r="F39">
-        <v>29.6646347734719</v>
+        <v>33.0925370065498</v>
       </c>
       <c r="G39">
-        <v>113.834713589524</v>
+        <v>101.972542784886</v>
       </c>
       <c r="H39">
-        <v>50.4438978940643</v>
+        <v>53.2351318802186</v>
       </c>
       <c r="I39">
-        <v>44.126818012592</v>
+        <v>45.6308143695765</v>
       </c>
       <c r="J39">
-        <v>173.922259864135</v>
+        <v>190.113595487118</v>
       </c>
       <c r="K39">
-        <v>129.055764524832</v>
+        <v>111.996689422772</v>
       </c>
       <c r="L39">
-        <v>111.112180690383</v>
+        <v>107.596591427523</v>
       </c>
       <c r="M39">
-        <v>65.5357405145146</v>
+        <v>65.92325294892581</v>
       </c>
       <c r="N39">
-        <v>108.553014007472</v>
+        <v>99.94583438464269</v>
       </c>
       <c r="O39">
-        <v>4740.44453150788</v>
+        <v>4293.34534680523</v>
       </c>
       <c r="P39">
-        <v>69.8398153692372</v>
+        <v>76.8038335076007</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>234.569496754782</v>
+        <v>266.57972925836</v>
       </c>
       <c r="C40">
-        <v>4.34958784248119</v>
+        <v>4.28139759668265</v>
       </c>
       <c r="D40">
-        <v>9.499344700992999</v>
+        <v>8.961643775203109</v>
       </c>
       <c r="E40">
-        <v>3.86156154797843</v>
+        <v>5.35010796915385</v>
       </c>
       <c r="F40">
-        <v>0.204138262080761</v>
+        <v>0.200767606476777</v>
       </c>
       <c r="G40">
-        <v>6.57583441696722</v>
+        <v>5.87418108578913</v>
       </c>
       <c r="H40">
-        <v>4.68758537695154</v>
+        <v>3.92038040172471</v>
       </c>
       <c r="I40">
-        <v>1.40011251257009</v>
+        <v>1.41876108068054</v>
       </c>
       <c r="J40">
-        <v>9.28920156355294</v>
+        <v>10.1946169460992</v>
       </c>
       <c r="K40">
-        <v>8.181251452263521</v>
+        <v>6.0628693316189</v>
       </c>
       <c r="L40">
-        <v>15.5943419168845</v>
+        <v>15.9070199464376</v>
       </c>
       <c r="M40">
-        <v>6.66314822114212</v>
+        <v>5.72413860174593</v>
       </c>
       <c r="N40">
-        <v>27.2568680196063</v>
+        <v>23.9186744435034</v>
       </c>
       <c r="O40">
-        <v>479.97583801685</v>
+        <v>420.486162399736</v>
       </c>
       <c r="P40">
-        <v>2.47940819510705</v>
+        <v>2.8685276125048</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>941.835882885936</v>
+        <v>1063.51728578586</v>
       </c>
       <c r="C41">
-        <v>10.8835582592146</v>
+        <v>14.9281567826898</v>
       </c>
       <c r="D41">
-        <v>91.3305068401063</v>
+        <v>92.1228635733018</v>
       </c>
       <c r="E41">
-        <v>35.9632642526644</v>
+        <v>38.7611660981046</v>
       </c>
       <c r="F41">
-        <v>2.31107202751196</v>
+        <v>2.2189343659984</v>
       </c>
       <c r="G41">
-        <v>30.821461677832</v>
+        <v>26.2683773272871</v>
       </c>
       <c r="H41">
-        <v>37.3815691441933</v>
+        <v>35.4945471471768</v>
       </c>
       <c r="I41">
-        <v>14.5853987352114</v>
+        <v>14.1789892992369</v>
       </c>
       <c r="J41">
-        <v>51.1784923580789</v>
+        <v>48.6261177023151</v>
       </c>
       <c r="K41">
-        <v>35.334871125436</v>
+        <v>30.6210685785859</v>
       </c>
       <c r="L41">
-        <v>34.167324354832</v>
+        <v>32.7303611455626</v>
       </c>
       <c r="M41">
-        <v>25.2781202676026</v>
+        <v>26.8506047211145</v>
       </c>
       <c r="N41">
-        <v>22.6945612948304</v>
+        <v>22.5920105536178</v>
       </c>
       <c r="O41">
-        <v>1434.86353588367</v>
+        <v>1335.49143079007</v>
       </c>
       <c r="P41">
-        <v>34.9817442090647</v>
+        <v>32.2842590093748</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>129.585644474295</v>
+        <v>155.38569114932</v>
       </c>
       <c r="C42">
-        <v>7.01430638402949</v>
+        <v>6.69014901286084</v>
       </c>
       <c r="D42">
-        <v>1.92006545491959</v>
+        <v>1.60172622080039</v>
       </c>
       <c r="E42">
-        <v>4.83856771322651</v>
+        <v>5.0132304714939</v>
       </c>
       <c r="F42">
-        <v>2.94883538469294</v>
+        <v>2.7161061553209</v>
       </c>
       <c r="G42">
-        <v>2.30898654204663</v>
+        <v>1.74468020287716</v>
       </c>
       <c r="H42">
-        <v>0.765336868067413</v>
+        <v>0.877565847263956</v>
       </c>
       <c r="I42">
-        <v>0.514009517423663</v>
+        <v>0.765337983821946</v>
       </c>
       <c r="J42">
-        <v>4.45048100373498</v>
+        <v>4.27501215614793</v>
       </c>
       <c r="K42">
-        <v>7.40547102877022</v>
+        <v>5.96787145236421</v>
       </c>
       <c r="L42">
-        <v>8.428425053440961</v>
+        <v>7.41273849512402</v>
       </c>
       <c r="M42">
-        <v>3.66825892823907</v>
+        <v>3.44035563840893</v>
       </c>
       <c r="N42">
-        <v>7.62911186619585</v>
+        <v>7.29767161995683</v>
       </c>
       <c r="O42">
-        <v>371.797468416785</v>
+        <v>308.086381613279</v>
       </c>
       <c r="P42">
-        <v>54.4005995725315</v>
+        <v>50.9317687709592</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1363.08594631324</v>
+        <v>1530.01469696435</v>
       </c>
       <c r="C43">
-        <v>35.9324167096002</v>
+        <v>41.622272757942</v>
       </c>
       <c r="D43">
-        <v>58.7346395479282</v>
+        <v>56.6809224295445</v>
       </c>
       <c r="E43">
-        <v>45.6883604266879</v>
+        <v>56.9932217297707</v>
       </c>
       <c r="F43">
-        <v>9.33894814207537</v>
+        <v>8.326742175254131</v>
       </c>
       <c r="G43">
-        <v>17.5588547447902</v>
+        <v>19.290635972473</v>
       </c>
       <c r="H43">
-        <v>29.8330653575885</v>
+        <v>34.0007378035242</v>
       </c>
       <c r="I43">
-        <v>30.3260896545416</v>
+        <v>24.2318440511765</v>
       </c>
       <c r="J43">
-        <v>40.4416304937431</v>
+        <v>52.9396485323859</v>
       </c>
       <c r="K43">
-        <v>70.8386916164263</v>
+        <v>62.0109680579054</v>
       </c>
       <c r="L43">
-        <v>48.0525302061343</v>
+        <v>46.9012630163554</v>
       </c>
       <c r="M43">
-        <v>103.334583970023</v>
+        <v>111.812620657506</v>
       </c>
       <c r="N43">
-        <v>68.831643030869</v>
+        <v>60.6386538181109</v>
       </c>
       <c r="O43">
-        <v>2088.84090500259</v>
+        <v>1925.42882255148</v>
       </c>
       <c r="P43">
-        <v>43.7755679767375</v>
+        <v>34.4653815621318</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4383.33050384541</v>
+        <v>5102.16919693304</v>
       </c>
       <c r="C44">
-        <v>142.056582390972</v>
+        <v>122.123009840693</v>
       </c>
       <c r="D44">
-        <v>67.9086460291507</v>
+        <v>60.0576670879491</v>
       </c>
       <c r="E44">
-        <v>85.7412342535204</v>
+        <v>102.363489688717</v>
       </c>
       <c r="F44">
-        <v>239.899777535531</v>
+        <v>222.555251982052</v>
       </c>
       <c r="G44">
-        <v>148.402445856238</v>
+        <v>131.910409116443</v>
       </c>
       <c r="H44">
-        <v>45.5841489399945</v>
+        <v>51.4259173020026</v>
       </c>
       <c r="I44">
-        <v>42.7629027795541</v>
+        <v>43.0785645968775</v>
       </c>
       <c r="J44">
-        <v>132.083760459515</v>
+        <v>134.214618856431</v>
       </c>
       <c r="K44">
-        <v>103.918525741943</v>
+        <v>92.805722975442</v>
       </c>
       <c r="L44">
-        <v>220.76094019998</v>
+        <v>216.876995634279</v>
       </c>
       <c r="M44">
-        <v>115.732805945971</v>
+        <v>117.098755208404</v>
       </c>
       <c r="N44">
-        <v>90.6053620615525</v>
+        <v>89.4710735068485</v>
       </c>
       <c r="O44">
-        <v>7928.27134303394</v>
+        <v>7408.17167683169</v>
       </c>
       <c r="P44">
-        <v>229.303639682468</v>
+        <v>203.137485500602</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>421.918326944484</v>
+        <v>470.808639085534</v>
       </c>
       <c r="C45">
-        <v>14.7408860191858</v>
+        <v>15.7690273775176</v>
       </c>
       <c r="D45">
-        <v>3.81889116879436</v>
+        <v>3.38732714967227</v>
       </c>
       <c r="E45">
-        <v>9.445270324170799</v>
+        <v>13.781415054426</v>
       </c>
       <c r="F45">
-        <v>22.4113460819996</v>
+        <v>21.0280423660528</v>
       </c>
       <c r="G45">
-        <v>9.53249655434098</v>
+        <v>8.58305630233675</v>
       </c>
       <c r="H45">
-        <v>2.26781801766545</v>
+        <v>2.29219425677972</v>
       </c>
       <c r="I45">
-        <v>4.25567148630554</v>
+        <v>4.10193017425142</v>
       </c>
       <c r="J45">
-        <v>24.5535778633354</v>
+        <v>22.3008727040947</v>
       </c>
       <c r="K45">
-        <v>7.76465523249654</v>
+        <v>6.72088776361857</v>
       </c>
       <c r="L45">
-        <v>14.6257806017637</v>
+        <v>15.6435715966539</v>
       </c>
       <c r="M45">
-        <v>20.6217796146852</v>
+        <v>22.2569704896035</v>
       </c>
       <c r="N45">
-        <v>31.0315702841776</v>
+        <v>30.2084889000469</v>
       </c>
       <c r="O45">
-        <v>865.796586287268</v>
+        <v>813.420134680347</v>
       </c>
       <c r="P45">
-        <v>17.1741106497161</v>
+        <v>17.5801759458458</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>124.084394704656</v>
+        <v>139.218285143098</v>
       </c>
       <c r="C46">
-        <v>3.86110051172483</v>
+        <v>3.71139313186519</v>
       </c>
       <c r="D46">
-        <v>2.16804686335096</v>
+        <v>1.96177018616137</v>
       </c>
       <c r="E46">
-        <v>6.27550209253694</v>
+        <v>7.04829439564062</v>
       </c>
       <c r="F46">
-        <v>1.72796397231476</v>
+        <v>1.25813272800168</v>
       </c>
       <c r="G46">
-        <v>3.78933807185149</v>
+        <v>2.66172304767306</v>
       </c>
       <c r="H46">
-        <v>2.23619949062077</v>
+        <v>1.69364729695194</v>
       </c>
       <c r="I46">
-        <v>1.79683855837474</v>
+        <v>1.66834245402949</v>
       </c>
       <c r="J46">
-        <v>4.34428041859843</v>
+        <v>4.5514915289311</v>
       </c>
       <c r="K46">
-        <v>7.36393779861731</v>
+        <v>5.98047497391066</v>
       </c>
       <c r="L46">
-        <v>13.2363556790305</v>
+        <v>11.1990790175546</v>
       </c>
       <c r="M46">
-        <v>3.6641459479244</v>
+        <v>3.45884596988807</v>
       </c>
       <c r="N46">
-        <v>9.510081023983521</v>
+        <v>8.73244385174015</v>
       </c>
       <c r="O46">
-        <v>298.346493069276</v>
+        <v>258.330086760914</v>
       </c>
       <c r="P46">
-        <v>12.3283638995028</v>
+        <v>12.7733970250396</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1483.49830909196</v>
+        <v>1667.60228244461</v>
       </c>
       <c r="C47">
-        <v>57.6800184391921</v>
+        <v>54.2913531006526</v>
       </c>
       <c r="D47">
-        <v>45.6742810776199</v>
+        <v>47.3054924743414</v>
       </c>
       <c r="E47">
-        <v>52.2757735767093</v>
+        <v>62.5740411305136</v>
       </c>
       <c r="F47">
-        <v>9.014081319903561</v>
+        <v>11.4449977722581</v>
       </c>
       <c r="G47">
-        <v>29.3794197679702</v>
+        <v>26.3806067326375</v>
       </c>
       <c r="H47">
-        <v>14.5308635042586</v>
+        <v>15.4217340114558</v>
       </c>
       <c r="I47">
-        <v>9.749248824405409</v>
+        <v>10.3128835949533</v>
       </c>
       <c r="J47">
-        <v>45.2122729348561</v>
+        <v>39.4658272234866</v>
       </c>
       <c r="K47">
-        <v>21.1691723151572</v>
+        <v>22.6478795155255</v>
       </c>
       <c r="L47">
-        <v>45.305202413859</v>
+        <v>43.657051896153</v>
       </c>
       <c r="M47">
-        <v>70.4889458243058</v>
+        <v>70.2056005500439</v>
       </c>
       <c r="N47">
-        <v>39.5447060154585</v>
+        <v>43.4236557465642</v>
       </c>
       <c r="O47">
-        <v>2929.12560788316</v>
+        <v>2754.25903912131</v>
       </c>
       <c r="P47">
-        <v>34.6055399463923</v>
+        <v>35.2869524173522</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1298.24106658531</v>
+        <v>1469.12158318814</v>
       </c>
       <c r="C48">
-        <v>16.4459668301873</v>
+        <v>25.3464787837861</v>
       </c>
       <c r="D48">
-        <v>9.12831837765486</v>
+        <v>7.61429038514335</v>
       </c>
       <c r="E48">
-        <v>68.9278042432037</v>
+        <v>66.584125437056</v>
       </c>
       <c r="F48">
-        <v>5.84349603528481</v>
+        <v>4.76655576860542</v>
       </c>
       <c r="G48">
-        <v>4.35644940799928</v>
+        <v>5.0169960660059</v>
       </c>
       <c r="H48">
-        <v>2.42999639419766</v>
+        <v>3.64886636506535</v>
       </c>
       <c r="I48">
-        <v>9.515569174845091</v>
+        <v>8.47468418145491</v>
       </c>
       <c r="J48">
-        <v>31.6336287444575</v>
+        <v>34.3371621653517</v>
       </c>
       <c r="K48">
-        <v>20.4420873226789</v>
+        <v>17.074998922847</v>
       </c>
       <c r="L48">
-        <v>42.0977318797453</v>
+        <v>41.9464872655034</v>
       </c>
       <c r="M48">
-        <v>123.252835428376</v>
+        <v>114.956296851147</v>
       </c>
       <c r="N48">
-        <v>23.8005433288683</v>
+        <v>27.793912783906</v>
       </c>
       <c r="O48">
-        <v>2380.61699778719</v>
+        <v>2225.57811932109</v>
       </c>
       <c r="P48">
-        <v>93.84627572650361</v>
+        <v>93.204233504125</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>618.107637939327</v>
+        <v>660.515127768222</v>
       </c>
       <c r="C49">
-        <v>7.43131609987045</v>
+        <v>7.58690899792375</v>
       </c>
       <c r="D49">
-        <v>5.45040007029961</v>
+        <v>4.13182752607406</v>
       </c>
       <c r="E49">
-        <v>18.2575657403956</v>
+        <v>18.1157567568846</v>
       </c>
       <c r="F49">
-        <v>31.2500804513599</v>
+        <v>28.008896470946</v>
       </c>
       <c r="G49">
-        <v>17.1895421789477</v>
+        <v>16.4266589465041</v>
       </c>
       <c r="H49">
-        <v>4.80724257193336</v>
+        <v>5.56308238500632</v>
       </c>
       <c r="I49">
-        <v>8.7002055396958</v>
+        <v>7.54910033938319</v>
       </c>
       <c r="J49">
-        <v>23.9665902696694</v>
+        <v>21.520250622001</v>
       </c>
       <c r="K49">
-        <v>5.96338754933005</v>
+        <v>5.40139884858073</v>
       </c>
       <c r="L49">
-        <v>1.80432864886154</v>
+        <v>1.75326372514177</v>
       </c>
       <c r="M49">
-        <v>7.42507237527019</v>
+        <v>7.81112656866112</v>
       </c>
       <c r="N49">
-        <v>5.53830463898117</v>
+        <v>5.30074592045441</v>
       </c>
       <c r="O49">
-        <v>649.189387915472</v>
+        <v>587.831903005873</v>
       </c>
       <c r="P49">
-        <v>7.04958224600651</v>
+        <v>7.31259458671843</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>939.394969341606</v>
+        <v>1132.99957684734</v>
       </c>
       <c r="C50">
-        <v>74.1591650872313</v>
+        <v>77.1328218015319</v>
       </c>
       <c r="D50">
-        <v>18.7400260716844</v>
+        <v>18.0704750844136</v>
       </c>
       <c r="E50">
-        <v>131.613124682793</v>
+        <v>137.792379094954</v>
       </c>
       <c r="F50">
-        <v>2.00809075093054</v>
+        <v>2.15834090656092</v>
       </c>
       <c r="G50">
-        <v>31.2256886159014</v>
+        <v>22.9432707016781</v>
       </c>
       <c r="H50">
-        <v>39.7618164487411</v>
+        <v>40.7095854385444</v>
       </c>
       <c r="I50">
-        <v>15.0453093805335</v>
+        <v>14.6746185460676</v>
       </c>
       <c r="J50">
-        <v>112.837381983429</v>
+        <v>113.015678352444</v>
       </c>
       <c r="K50">
-        <v>116.525659542452</v>
+        <v>101.298205487513</v>
       </c>
       <c r="L50">
-        <v>67.93516912975269</v>
+        <v>63.1194138669849</v>
       </c>
       <c r="M50">
-        <v>31.816829974093</v>
+        <v>40.5472441434389</v>
       </c>
       <c r="N50">
-        <v>58.394493084582</v>
+        <v>52.2481771587366</v>
       </c>
       <c r="O50">
-        <v>2066.75707988145</v>
+        <v>1875.94971018602</v>
       </c>
       <c r="P50">
-        <v>94.5744819425401</v>
+        <v>105.695619094241</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>121.422857250727</v>
+        <v>124.966384925742</v>
       </c>
       <c r="C51">
-        <v>2.1787578401622</v>
+        <v>1.68517291244775</v>
       </c>
       <c r="D51">
-        <v>0.152175621203462</v>
+        <v>0.222716129514851</v>
       </c>
       <c r="E51">
-        <v>1.8386266510624</v>
+        <v>1.99494338870828</v>
       </c>
       <c r="F51">
-        <v>30.7375172087527</v>
+        <v>27.1139219644915</v>
       </c>
       <c r="G51">
-        <v>1.67916299499696</v>
+        <v>2.25023526151649</v>
       </c>
       <c r="H51">
-        <v>0.0211767096490304</v>
+        <v>0.0508183251001173</v>
       </c>
       <c r="I51">
-        <v>1.00682422705668</v>
+        <v>0.954848268542474</v>
       </c>
       <c r="J51">
-        <v>1.21258303972201</v>
+        <v>1.07501006518875</v>
       </c>
       <c r="K51">
-        <v>1.64994789441045</v>
+        <v>1.11108431048865</v>
       </c>
       <c r="L51">
-        <v>0.531445754002131</v>
+        <v>0.52851440719539</v>
       </c>
       <c r="M51">
-        <v>0.574067951919899</v>
+        <v>0.526100962656064</v>
       </c>
       <c r="N51">
-        <v>2.30500514475506</v>
+        <v>1.84680932193708</v>
       </c>
       <c r="O51">
-        <v>265.934738460595</v>
+        <v>218.93804134408</v>
       </c>
       <c r="P51">
-        <v>22.1023666916778</v>
+        <v>18.4651292908163</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1344.33240682805</v>
+        <v>1344.33263256283</v>
       </c>
       <c r="C2">
-        <v>35.1339205586293</v>
+        <v>35.1339250339931</v>
       </c>
       <c r="D2">
-        <v>63.0254532426753</v>
+        <v>63.0254444635643</v>
       </c>
       <c r="E2">
-        <v>65.9361500940249</v>
+        <v>65.9360819867654</v>
       </c>
       <c r="F2">
-        <v>16.4301698923129</v>
+        <v>16.430072603089</v>
       </c>
       <c r="G2">
-        <v>18.5894942260991</v>
+        <v>18.5894840224832</v>
       </c>
       <c r="H2">
-        <v>25.2964002594726</v>
+        <v>25.2962329803375</v>
       </c>
       <c r="I2">
-        <v>10.5324456386206</v>
+        <v>10.5324433124498</v>
       </c>
       <c r="J2">
-        <v>61.2116667993675</v>
+        <v>61.2116087391836</v>
       </c>
       <c r="K2">
-        <v>20.2846114300337</v>
+        <v>20.2846107542011</v>
       </c>
       <c r="L2">
-        <v>37.7056192992678</v>
+        <v>37.7055133110207</v>
       </c>
       <c r="M2">
-        <v>42.9503814796544</v>
+        <v>42.9503756900867</v>
       </c>
       <c r="N2">
-        <v>25.019639597489</v>
+        <v>25.0196000058761</v>
       </c>
       <c r="O2">
-        <v>1356.88383097595</v>
+        <v>1356.88410560997</v>
       </c>
       <c r="P2">
-        <v>27.1696873742659</v>
+        <v>27.1696916351591</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>152.686257783605</v>
+        <v>152.674443722393</v>
       </c>
       <c r="C3">
-        <v>3.91356382036073</v>
+        <v>3.91338420528093</v>
       </c>
       <c r="D3">
-        <v>0.289337001295933</v>
+        <v>0.289319079390838</v>
       </c>
       <c r="E3">
-        <v>1.41390895787849</v>
+        <v>1.41344736364561</v>
       </c>
       <c r="F3">
-        <v>10.8850996582413</v>
+        <v>10.8840509691754</v>
       </c>
       <c r="G3">
-        <v>0.476012283388961</v>
+        <v>0.475961396378845</v>
       </c>
       <c r="H3">
-        <v>0.0232286559393682</v>
+        <v>0.0297511330137385</v>
       </c>
       <c r="I3">
-        <v>0.503722223747692</v>
+        <v>0.5036987181927271</v>
       </c>
       <c r="J3">
-        <v>0.651943285581314</v>
+        <v>0.689057514191962</v>
       </c>
       <c r="K3">
-        <v>0.274345683110114</v>
+        <v>0.274326143749143</v>
       </c>
       <c r="L3">
-        <v>0.328611784774434</v>
+        <v>0.334833990878174</v>
       </c>
       <c r="M3">
-        <v>0.856932839210427</v>
+        <v>0.855021945462604</v>
       </c>
       <c r="N3">
-        <v>1.79572584287505</v>
+        <v>1.80130762993922</v>
       </c>
       <c r="O3">
-        <v>273.731856741095</v>
+        <v>273.691812741333</v>
       </c>
       <c r="P3">
-        <v>12.7190795282979</v>
+        <v>12.7181819394848</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1386.31482966065</v>
+        <v>1386.31575217693</v>
       </c>
       <c r="C4">
-        <v>10.3793894049797</v>
+        <v>10.3794031949276</v>
       </c>
       <c r="D4">
-        <v>2.77531570111201</v>
+        <v>2.7753187355581</v>
       </c>
       <c r="E4">
-        <v>22.532180610891</v>
+        <v>22.531618665228</v>
       </c>
       <c r="F4">
-        <v>17.9195849134039</v>
+        <v>17.9189921745275</v>
       </c>
       <c r="G4">
-        <v>9.06092347749961</v>
+        <v>9.06092651688283</v>
       </c>
       <c r="H4">
-        <v>9.51737561991609</v>
+        <v>9.51622884182636</v>
       </c>
       <c r="I4">
-        <v>11.3006931877114</v>
+        <v>11.3007010067497</v>
       </c>
       <c r="J4">
-        <v>22.9626543347448</v>
+        <v>22.9623794467756</v>
       </c>
       <c r="K4">
-        <v>7.78073974529708</v>
+        <v>7.78073497655719</v>
       </c>
       <c r="L4">
-        <v>69.7303984902729</v>
+        <v>69.7300171993185</v>
       </c>
       <c r="M4">
-        <v>46.4053420932184</v>
+        <v>46.4052707199244</v>
       </c>
       <c r="N4">
-        <v>34.5413484231752</v>
+        <v>34.541123235854</v>
       </c>
       <c r="O4">
-        <v>1913.72089951471</v>
+        <v>1913.72197912891</v>
       </c>
       <c r="P4">
-        <v>26.6793066312903</v>
+        <v>26.6793544587188</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>760.72177418963</v>
+        <v>760.721802634689</v>
       </c>
       <c r="C5">
-        <v>55.6326406719446</v>
+        <v>55.6326375133014</v>
       </c>
       <c r="D5">
-        <v>12.3891993671965</v>
+        <v>12.3891949850104</v>
       </c>
       <c r="E5">
-        <v>33.7948696300326</v>
+        <v>33.7945264456311</v>
       </c>
       <c r="F5">
-        <v>4.14890981995668</v>
+        <v>4.14882346392625</v>
       </c>
       <c r="G5">
-        <v>7.21664099253124</v>
+        <v>7.21663982762079</v>
       </c>
       <c r="H5">
-        <v>12.6763248503192</v>
+        <v>12.6762810386161</v>
       </c>
       <c r="I5">
-        <v>8.32263479619912</v>
+        <v>8.32262993902499</v>
       </c>
       <c r="J5">
-        <v>30.2212470787755</v>
+        <v>30.221172153021</v>
       </c>
       <c r="K5">
-        <v>20.4519873415998</v>
+        <v>20.4519833852705</v>
       </c>
       <c r="L5">
-        <v>23.6958613998357</v>
+        <v>23.6958068110963</v>
       </c>
       <c r="M5">
-        <v>25.9443273109922</v>
+        <v>25.9443248679587</v>
       </c>
       <c r="N5">
-        <v>23.4110510119276</v>
+        <v>23.4109775544796</v>
       </c>
       <c r="O5">
-        <v>830.868468219217</v>
+        <v>830.86848203429</v>
       </c>
       <c r="P5">
-        <v>56.1490370696522</v>
+        <v>56.1490457407642</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8811.602013506699</v>
+        <v>8811.605451108169</v>
       </c>
       <c r="C6">
-        <v>183.711082435188</v>
+        <v>183.711143837485</v>
       </c>
       <c r="D6">
-        <v>203.810576516112</v>
+        <v>203.810555567946</v>
       </c>
       <c r="E6">
-        <v>154.07861971493</v>
+        <v>154.074617104805</v>
       </c>
       <c r="F6">
-        <v>41.423328447199</v>
+        <v>41.4215018612111</v>
       </c>
       <c r="G6">
-        <v>89.0050183386078</v>
+        <v>89.0046135996888</v>
       </c>
       <c r="H6">
-        <v>78.461042285226</v>
+        <v>78.458278324924</v>
       </c>
       <c r="I6">
-        <v>42.4343022614541</v>
+        <v>42.4341140877824</v>
       </c>
       <c r="J6">
-        <v>176.030405547966</v>
+        <v>176.029748945082</v>
       </c>
       <c r="K6">
-        <v>122.242152072349</v>
+        <v>122.24200321135</v>
       </c>
       <c r="L6">
-        <v>530.677860816666</v>
+        <v>530.67581885858</v>
       </c>
       <c r="M6">
-        <v>261.984866017936</v>
+        <v>261.984756937899</v>
       </c>
       <c r="N6">
-        <v>282.705772639085</v>
+        <v>282.705067511548</v>
       </c>
       <c r="O6">
-        <v>11944.734734255</v>
+        <v>11944.73897878</v>
       </c>
       <c r="P6">
-        <v>309.984652074655</v>
+        <v>309.985072704802</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>905.116873083669</v>
+        <v>905.117798465286</v>
       </c>
       <c r="C7">
-        <v>30.908005023404</v>
+        <v>30.9080266128143</v>
       </c>
       <c r="D7">
-        <v>3.40756091361185</v>
+        <v>3.40753937719624</v>
       </c>
       <c r="E7">
-        <v>14.8563174370438</v>
+        <v>14.855998213103</v>
       </c>
       <c r="F7">
-        <v>15.4442534312918</v>
+        <v>15.4441558347562</v>
       </c>
       <c r="G7">
-        <v>7.19063956045879</v>
+        <v>7.19058077928225</v>
       </c>
       <c r="H7">
-        <v>6.1854902746926</v>
+        <v>6.18516196405673</v>
       </c>
       <c r="I7">
-        <v>9.91814724840156</v>
+        <v>9.918152346771629</v>
       </c>
       <c r="J7">
-        <v>20.0157604334233</v>
+        <v>20.0153535686161</v>
       </c>
       <c r="K7">
-        <v>18.7977653321562</v>
+        <v>18.7976903896964</v>
       </c>
       <c r="L7">
-        <v>54.8013922550031</v>
+        <v>54.8010311738256</v>
       </c>
       <c r="M7">
-        <v>18.2525552967332</v>
+        <v>18.2525492225702</v>
       </c>
       <c r="N7">
-        <v>27.2050899932969</v>
+        <v>27.2046604081911</v>
       </c>
       <c r="O7">
-        <v>1839.36446542397</v>
+        <v>1839.36565182639</v>
       </c>
       <c r="P7">
-        <v>33.2591836660965</v>
+        <v>33.2592884585016</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>770.605345211411</v>
+        <v>770.604197949158</v>
       </c>
       <c r="C8">
-        <v>12.0456967435096</v>
+        <v>12.045680436993</v>
       </c>
       <c r="D8">
-        <v>9.943897681013841</v>
+        <v>9.943887310002269</v>
       </c>
       <c r="E8">
-        <v>16.9052488322419</v>
+        <v>16.9051342364519</v>
       </c>
       <c r="F8">
-        <v>2.92656898052559</v>
+        <v>2.93124908498923</v>
       </c>
       <c r="G8">
-        <v>26.0856701357785</v>
+        <v>26.0856148265929</v>
       </c>
       <c r="H8">
-        <v>9.675296604403121</v>
+        <v>9.675224736733769</v>
       </c>
       <c r="I8">
-        <v>5.71007718406746</v>
+        <v>5.7100674759627</v>
       </c>
       <c r="J8">
-        <v>45.5158454369481</v>
+        <v>45.5157607199636</v>
       </c>
       <c r="K8">
-        <v>28.0918603952075</v>
+        <v>28.0918038675902</v>
       </c>
       <c r="L8">
-        <v>39.945283954151</v>
+        <v>39.9451663354361</v>
       </c>
       <c r="M8">
-        <v>49.0338531430834</v>
+        <v>49.0337548251021</v>
       </c>
       <c r="N8">
-        <v>29.8056327240756</v>
+        <v>29.8055538028728</v>
       </c>
       <c r="O8">
-        <v>1350.14503297436</v>
+        <v>1350.14291847973</v>
       </c>
       <c r="P8">
-        <v>4.73320364745967</v>
+        <v>4.73320207851366</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>199.901102855269</v>
+        <v>199.901128183227</v>
       </c>
       <c r="C9">
-        <v>7.93527262149978</v>
+        <v>7.93527407424284</v>
       </c>
       <c r="D9">
-        <v>1.90281912536627</v>
+        <v>1.9028191837135</v>
       </c>
       <c r="E9">
-        <v>4.65676168723021</v>
+        <v>4.65675071496106</v>
       </c>
       <c r="F9">
-        <v>1.99102364000424</v>
+        <v>1.99099479021019</v>
       </c>
       <c r="G9">
-        <v>21.269094495328</v>
+        <v>21.2690896967146</v>
       </c>
       <c r="H9">
-        <v>4.27680959784742</v>
+        <v>4.27679599251865</v>
       </c>
       <c r="I9">
-        <v>1.19647368207884</v>
+        <v>1.19647209330133</v>
       </c>
       <c r="J9">
-        <v>3.14274963371778</v>
+        <v>3.14274174549835</v>
       </c>
       <c r="K9">
-        <v>3.30810550410464</v>
+        <v>3.30810137223072</v>
       </c>
       <c r="L9">
-        <v>2.85104792410388</v>
+        <v>2.85102289167777</v>
       </c>
       <c r="M9">
-        <v>8.694011824939221</v>
+        <v>8.69400708619464</v>
       </c>
       <c r="N9">
-        <v>5.37194429138559</v>
+        <v>5.37193591117796</v>
       </c>
       <c r="O9">
-        <v>322.349095102916</v>
+        <v>322.349146037882</v>
       </c>
       <c r="P9">
-        <v>4.96672887515329</v>
+        <v>4.966731262672</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4749.17346887619</v>
+        <v>4749.17455199315</v>
       </c>
       <c r="C10">
-        <v>60.7872415523477</v>
+        <v>60.787245510755</v>
       </c>
       <c r="D10">
-        <v>36.0594573482876</v>
+        <v>36.059454415211</v>
       </c>
       <c r="E10">
-        <v>53.7999541892811</v>
+        <v>53.7995741055117</v>
       </c>
       <c r="F10">
-        <v>10.6539603550877</v>
+        <v>10.6535777101932</v>
       </c>
       <c r="G10">
-        <v>30.0792715855901</v>
+        <v>30.0792290838872</v>
       </c>
       <c r="H10">
-        <v>18.2130896059666</v>
+        <v>18.2128164809472</v>
       </c>
       <c r="I10">
-        <v>36.8423937265799</v>
+        <v>36.8422311276518</v>
       </c>
       <c r="J10">
-        <v>55.7288510611377</v>
+        <v>55.7285398639131</v>
       </c>
       <c r="K10">
-        <v>37.3048544531336</v>
+        <v>37.3047744037258</v>
       </c>
       <c r="L10">
-        <v>93.2272972438509</v>
+        <v>93.2270986002946</v>
       </c>
       <c r="M10">
-        <v>79.635748219227</v>
+        <v>79.63568717324191</v>
       </c>
       <c r="N10">
-        <v>91.7433340829156</v>
+        <v>91.7431902548681</v>
       </c>
       <c r="O10">
-        <v>6291.42420956444</v>
+        <v>6291.42517938706</v>
       </c>
       <c r="P10">
-        <v>104.754824159407</v>
+        <v>104.754900624242</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1973.81517208585</v>
+        <v>1973.81555753205</v>
       </c>
       <c r="C11">
-        <v>75.7625262496687</v>
+        <v>75.76254595637739</v>
       </c>
       <c r="D11">
-        <v>161.975524688663</v>
+        <v>161.975463469304</v>
       </c>
       <c r="E11">
-        <v>76.7558676985802</v>
+        <v>76.7552391315743</v>
       </c>
       <c r="F11">
-        <v>8.11800939122444</v>
+        <v>8.11764749502815</v>
       </c>
       <c r="G11">
-        <v>27.6225892126577</v>
+        <v>27.6225400484256</v>
       </c>
       <c r="H11">
-        <v>23.6680341133071</v>
+        <v>23.6678311667888</v>
       </c>
       <c r="I11">
-        <v>21.84438524538</v>
+        <v>21.8441809303778</v>
       </c>
       <c r="J11">
-        <v>49.6573953281261</v>
+        <v>49.65726115988</v>
       </c>
       <c r="K11">
-        <v>38.3649466481604</v>
+        <v>38.3649088899524</v>
       </c>
       <c r="L11">
-        <v>64.7149425878184</v>
+        <v>64.7147469779527</v>
       </c>
       <c r="M11">
-        <v>50.0934170723068</v>
+        <v>50.0934135021603</v>
       </c>
       <c r="N11">
-        <v>41.5319238122775</v>
+        <v>41.5317942529788</v>
       </c>
       <c r="O11">
-        <v>2993.80324243964</v>
+        <v>2993.80356010218</v>
       </c>
       <c r="P11">
-        <v>56.5636927817772</v>
+        <v>56.5637481628403</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>319.505416969384</v>
+        <v>319.471595567488</v>
       </c>
       <c r="C12">
-        <v>7.20130391845037</v>
+        <v>7.20095723446576</v>
       </c>
       <c r="D12">
-        <v>1.65430734925705</v>
+        <v>1.65423071669692</v>
       </c>
       <c r="E12">
-        <v>0.848780276783433</v>
+        <v>1.06068052670626</v>
       </c>
       <c r="F12">
-        <v>0.669556959143109</v>
+        <v>0.679763236322892</v>
       </c>
       <c r="G12">
-        <v>0.204815351635116</v>
+        <v>0.20480024340654</v>
       </c>
       <c r="H12">
-        <v>0.108313489195076</v>
+        <v>0.117029628506542</v>
       </c>
       <c r="I12">
-        <v>1.02520024216621</v>
+        <v>1.02515594861148</v>
       </c>
       <c r="J12">
-        <v>1.72348645754773</v>
+        <v>1.72336143481048</v>
       </c>
       <c r="K12">
-        <v>0.294114905752962</v>
+        <v>0.294091452569039</v>
       </c>
       <c r="L12">
-        <v>0.0560390102260842</v>
+        <v>0.06454144824730509</v>
       </c>
       <c r="M12">
-        <v>4.04279533998045</v>
+        <v>4.04262988218806</v>
       </c>
       <c r="N12">
-        <v>3.89761758932976</v>
+        <v>3.80971447358112</v>
       </c>
       <c r="O12">
-        <v>531.5081611411021</v>
+        <v>531.420887051775</v>
       </c>
       <c r="P12">
-        <v>19.7767529180953</v>
+        <v>19.7758015975902</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>294.680443143392</v>
+        <v>294.680665581406</v>
       </c>
       <c r="C13">
-        <v>18.1750843452472</v>
+        <v>18.1750926338299</v>
       </c>
       <c r="D13">
-        <v>0.715856873091839</v>
+        <v>0.715857478492467</v>
       </c>
       <c r="E13">
-        <v>14.7171283113733</v>
+        <v>14.7169529939124</v>
       </c>
       <c r="F13">
-        <v>3.05296225989747</v>
+        <v>3.05295858670394</v>
       </c>
       <c r="G13">
-        <v>6.28617995093564</v>
+        <v>6.28611641540784</v>
       </c>
       <c r="H13">
-        <v>1.75867154672244</v>
+        <v>1.75852218447786</v>
       </c>
       <c r="I13">
-        <v>1.14938679095032</v>
+        <v>1.14938748578847</v>
       </c>
       <c r="J13">
-        <v>5.63887779763285</v>
+        <v>5.638676374165</v>
       </c>
       <c r="K13">
-        <v>4.4608515639457</v>
+        <v>4.46079031338408</v>
       </c>
       <c r="L13">
-        <v>22.6756278988741</v>
+        <v>22.6755076026809</v>
       </c>
       <c r="M13">
-        <v>2.05401759865424</v>
+        <v>2.05401817313802</v>
       </c>
       <c r="N13">
-        <v>6.37477720264053</v>
+        <v>6.37470279889364</v>
       </c>
       <c r="O13">
-        <v>476.782864980487</v>
+        <v>476.783143063263</v>
       </c>
       <c r="P13">
-        <v>52.3019689603175</v>
+        <v>52.3019857561531</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2998.65446797501</v>
+        <v>2998.65469932179</v>
       </c>
       <c r="C14">
-        <v>115.543935859674</v>
+        <v>115.54391737406</v>
       </c>
       <c r="D14">
-        <v>16.6436247160984</v>
+        <v>16.6436112016608</v>
       </c>
       <c r="E14">
-        <v>86.5554968809476</v>
+        <v>86.5551967208315</v>
       </c>
       <c r="F14">
-        <v>23.3581429316842</v>
+        <v>23.3578906043925</v>
       </c>
       <c r="G14">
-        <v>94.3972721318472</v>
+        <v>94.39723685719009</v>
       </c>
       <c r="H14">
-        <v>51.3927093029877</v>
+        <v>51.3925597536759</v>
       </c>
       <c r="I14">
-        <v>28.0848566545206</v>
+        <v>28.0848422937355</v>
       </c>
       <c r="J14">
-        <v>162.193649598477</v>
+        <v>162.193589158745</v>
       </c>
       <c r="K14">
-        <v>164.053586334342</v>
+        <v>164.053530599825</v>
       </c>
       <c r="L14">
-        <v>140.314616895895</v>
+        <v>140.314525169483</v>
       </c>
       <c r="M14">
-        <v>89.6184572663762</v>
+        <v>89.618442924948</v>
       </c>
       <c r="N14">
-        <v>85.6412005905532</v>
+        <v>85.6411865433695</v>
       </c>
       <c r="O14">
-        <v>4520.2528249235</v>
+        <v>4520.25300497099</v>
       </c>
       <c r="P14">
-        <v>74.7353655634427</v>
+        <v>74.735392900478</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1428.10849314643</v>
+        <v>1428.10858657943</v>
       </c>
       <c r="C15">
-        <v>34.3185551128016</v>
+        <v>34.3185578911153</v>
       </c>
       <c r="D15">
-        <v>13.2931385560209</v>
+        <v>13.2931398198284</v>
       </c>
       <c r="E15">
-        <v>61.1494349088329</v>
+        <v>61.1490376884405</v>
       </c>
       <c r="F15">
-        <v>15.2265545248274</v>
+        <v>15.2264883135503</v>
       </c>
       <c r="G15">
-        <v>37.9163029598125</v>
+        <v>37.9162883462885</v>
       </c>
       <c r="H15">
-        <v>59.2906254281574</v>
+        <v>59.2903479862244</v>
       </c>
       <c r="I15">
-        <v>26.8522618479032</v>
+        <v>26.8522504634495</v>
       </c>
       <c r="J15">
-        <v>149.192292282637</v>
+        <v>149.192234867854</v>
       </c>
       <c r="K15">
-        <v>65.3911055472035</v>
+        <v>65.39109135387569</v>
       </c>
       <c r="L15">
-        <v>51.2699119630997</v>
+        <v>51.2698290096427</v>
       </c>
       <c r="M15">
-        <v>182.02380507746</v>
+        <v>182.023767941822</v>
       </c>
       <c r="N15">
-        <v>90.71026968937269</v>
+        <v>90.7101784474055</v>
       </c>
       <c r="O15">
-        <v>2005.1487385817</v>
+        <v>2005.14890910995</v>
       </c>
       <c r="P15">
-        <v>45.9193888943864</v>
+        <v>45.9193955550627</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>601.213850964161</v>
+        <v>601.213903300198</v>
       </c>
       <c r="C16">
-        <v>59.3301402653018</v>
+        <v>59.3301413828549</v>
       </c>
       <c r="D16">
-        <v>6.92768067862694</v>
+        <v>6.92768101057886</v>
       </c>
       <c r="E16">
-        <v>19.8986358772463</v>
+        <v>19.8985541061556</v>
       </c>
       <c r="F16">
-        <v>3.61020879253871</v>
+        <v>3.61019335910096</v>
       </c>
       <c r="G16">
-        <v>16.1374573031156</v>
+        <v>16.1374483293264</v>
       </c>
       <c r="H16">
-        <v>14.9699728845</v>
+        <v>14.9699378083959</v>
       </c>
       <c r="I16">
-        <v>10.042793929382</v>
+        <v>10.0427874264865</v>
       </c>
       <c r="J16">
-        <v>41.1639867557678</v>
+        <v>41.1639587621178</v>
       </c>
       <c r="K16">
-        <v>53.3215591511166</v>
+        <v>53.3215516587422</v>
       </c>
       <c r="L16">
-        <v>30.8461148451831</v>
+        <v>30.8460884617694</v>
       </c>
       <c r="M16">
-        <v>27.8321530879513</v>
+        <v>27.8321548080504</v>
       </c>
       <c r="N16">
-        <v>23.6352920633506</v>
+        <v>23.6352765750887</v>
       </c>
       <c r="O16">
-        <v>1096.51703426524</v>
+        <v>1096.51707126168</v>
       </c>
       <c r="P16">
-        <v>87.82040592728789</v>
+        <v>87.8204106444129</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>585.9972257481541</v>
+        <v>585.9972918096941</v>
       </c>
       <c r="C17">
-        <v>26.7406303287164</v>
+        <v>26.7406325957151</v>
       </c>
       <c r="D17">
-        <v>2.61394898458752</v>
+        <v>2.61394921007954</v>
       </c>
       <c r="E17">
-        <v>15.5773318313042</v>
+        <v>15.5773307865981</v>
       </c>
       <c r="F17">
-        <v>13.3825054652462</v>
+        <v>13.3824609401305</v>
       </c>
       <c r="G17">
-        <v>6.99872420132054</v>
+        <v>6.99871344246457</v>
       </c>
       <c r="H17">
-        <v>10.0928426551165</v>
+        <v>10.0927093480244</v>
       </c>
       <c r="I17">
-        <v>7.43904972714776</v>
+        <v>7.43904644058319</v>
       </c>
       <c r="J17">
-        <v>14.0384459553126</v>
+        <v>14.0383925929002</v>
       </c>
       <c r="K17">
-        <v>18.0426149652819</v>
+        <v>18.0426126970108</v>
       </c>
       <c r="L17">
-        <v>7.67304641926547</v>
+        <v>7.67303731180164</v>
       </c>
       <c r="M17">
-        <v>66.6511222744477</v>
+        <v>66.651118133699</v>
       </c>
       <c r="N17">
-        <v>14.3974402360377</v>
+        <v>14.3974302740213</v>
       </c>
       <c r="O17">
-        <v>1030.65443106665</v>
+        <v>1030.65447143096</v>
       </c>
       <c r="P17">
-        <v>60.9440043813359</v>
+        <v>60.9440161924855</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1183.90342328952</v>
+        <v>1183.90356107963</v>
       </c>
       <c r="C18">
-        <v>34.5920584797454</v>
+        <v>34.5920617307141</v>
       </c>
       <c r="D18">
-        <v>13.4256231297661</v>
+        <v>13.4256250318005</v>
       </c>
       <c r="E18">
-        <v>38.7649927479469</v>
+        <v>38.7649246463639</v>
       </c>
       <c r="F18">
-        <v>28.7795731197022</v>
+        <v>28.7794502655971</v>
       </c>
       <c r="G18">
-        <v>22.5497110582406</v>
+        <v>22.5496939416379</v>
       </c>
       <c r="H18">
-        <v>17.7605542045464</v>
+        <v>17.7604178906992</v>
       </c>
       <c r="I18">
-        <v>7.4569717603009</v>
+        <v>7.45696998981093</v>
       </c>
       <c r="J18">
-        <v>47.1188797482182</v>
+        <v>47.1187581700029</v>
       </c>
       <c r="K18">
-        <v>29.6024369142505</v>
+        <v>29.60242368607</v>
       </c>
       <c r="L18">
-        <v>31.6387149241082</v>
+        <v>31.6386487906672</v>
       </c>
       <c r="M18">
-        <v>68.4402807104175</v>
+        <v>68.4402478094611</v>
       </c>
       <c r="N18">
-        <v>21.4904829145076</v>
+        <v>21.4904446997013</v>
       </c>
       <c r="O18">
-        <v>1321.62150121069</v>
+        <v>1321.6216931135</v>
       </c>
       <c r="P18">
-        <v>52.7112033472426</v>
+        <v>52.7112145615994</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1282.09002138782</v>
+        <v>1282.09011192464</v>
       </c>
       <c r="C19">
-        <v>22.3723816104452</v>
+        <v>22.3723852989932</v>
       </c>
       <c r="D19">
-        <v>8.6646806758755</v>
+        <v>8.664670079563249</v>
       </c>
       <c r="E19">
-        <v>34.6537220872875</v>
+        <v>34.6529053571015</v>
       </c>
       <c r="F19">
-        <v>88.94927908278061</v>
+        <v>88.94910189203679</v>
       </c>
       <c r="G19">
-        <v>38.8341428384292</v>
+        <v>38.8341098318</v>
       </c>
       <c r="H19">
-        <v>6.34419975819725</v>
+        <v>6.34414093292186</v>
       </c>
       <c r="I19">
-        <v>2.70219292386929</v>
+        <v>2.70219329599187</v>
       </c>
       <c r="J19">
-        <v>18.5778590197657</v>
+        <v>18.5778230028258</v>
       </c>
       <c r="K19">
-        <v>15.2529140548016</v>
+        <v>15.2529052725629</v>
       </c>
       <c r="L19">
-        <v>6.57789449864106</v>
+        <v>6.57785278995739</v>
       </c>
       <c r="M19">
-        <v>27.6819549056947</v>
+        <v>27.6819540863266</v>
       </c>
       <c r="N19">
-        <v>11.5827904983056</v>
+        <v>11.5827348838944</v>
       </c>
       <c r="O19">
-        <v>1500.16175473883</v>
+        <v>1500.16187384343</v>
       </c>
       <c r="P19">
-        <v>37.7003971922076</v>
+        <v>37.7003825997125</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>323.601282913952</v>
+        <v>323.600106925951</v>
       </c>
       <c r="C20">
-        <v>6.78942129938689</v>
+        <v>6.78939797973396</v>
       </c>
       <c r="D20">
-        <v>11.5653480668464</v>
+        <v>11.5653157124005</v>
       </c>
       <c r="E20">
-        <v>36.6232512342692</v>
+        <v>36.6216593156633</v>
       </c>
       <c r="F20">
-        <v>0.684117602419289</v>
+        <v>0.689631819044611</v>
       </c>
       <c r="G20">
-        <v>1.8271823202718</v>
+        <v>1.82717312695425</v>
       </c>
       <c r="H20">
-        <v>1.83149582110385</v>
+        <v>1.83146450835067</v>
       </c>
       <c r="I20">
-        <v>1.34647924413723</v>
+        <v>1.34647554424832</v>
       </c>
       <c r="J20">
-        <v>5.16799897502975</v>
+        <v>5.16797171320159</v>
       </c>
       <c r="K20">
-        <v>4.27868271255256</v>
+        <v>4.27866721735403</v>
       </c>
       <c r="L20">
-        <v>8.488500078278809</v>
+        <v>8.488459994034249</v>
       </c>
       <c r="M20">
-        <v>15.5238505808203</v>
+        <v>15.5237956634813</v>
       </c>
       <c r="N20">
-        <v>4.55690224043242</v>
+        <v>4.55685516925098</v>
       </c>
       <c r="O20">
-        <v>496.959671063324</v>
+        <v>496.957739038051</v>
       </c>
       <c r="P20">
-        <v>26.8897525049955</v>
+        <v>26.8896265791085</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1192.83643424394</v>
+        <v>1192.83661875768</v>
       </c>
       <c r="C21">
-        <v>23.9765292677085</v>
+        <v>23.976526626014</v>
       </c>
       <c r="D21">
-        <v>8.696698813208251</v>
+        <v>8.69670052366261</v>
       </c>
       <c r="E21">
-        <v>31.0367577615775</v>
+        <v>31.0364174412316</v>
       </c>
       <c r="F21">
-        <v>5.03932052736218</v>
+        <v>5.03916778891772</v>
       </c>
       <c r="G21">
-        <v>22.5139790310019</v>
+        <v>22.5139688085744</v>
       </c>
       <c r="H21">
-        <v>4.78474883283957</v>
+        <v>4.78472297609802</v>
       </c>
       <c r="I21">
-        <v>7.90536301700598</v>
+        <v>7.90536127665268</v>
       </c>
       <c r="J21">
-        <v>28.3779455603818</v>
+        <v>28.3778668395247</v>
       </c>
       <c r="K21">
-        <v>9.149452814139909</v>
+        <v>9.149450623707679</v>
       </c>
       <c r="L21">
-        <v>20.7391899999093</v>
+        <v>20.7391487139488</v>
       </c>
       <c r="M21">
-        <v>27.802765718768</v>
+        <v>27.802761553416</v>
       </c>
       <c r="N21">
-        <v>27.6419733897575</v>
+        <v>27.6419053858632</v>
       </c>
       <c r="O21">
-        <v>2280.00307306754</v>
+        <v>2280.00328779452</v>
       </c>
       <c r="P21">
-        <v>17.4354003205517</v>
+        <v>17.4354121099791</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1479.72666125444</v>
+        <v>1479.72739961688</v>
       </c>
       <c r="C22">
-        <v>19.3120702488942</v>
+        <v>19.3120867457312</v>
       </c>
       <c r="D22">
-        <v>25.7892647404036</v>
+        <v>25.7892772530894</v>
       </c>
       <c r="E22">
-        <v>41.9320387909392</v>
+        <v>41.9317662451606</v>
       </c>
       <c r="F22">
-        <v>2.78569298836093</v>
+        <v>2.78378725000773</v>
       </c>
       <c r="G22">
-        <v>29.1623822238917</v>
+        <v>29.1623554339588</v>
       </c>
       <c r="H22">
-        <v>21.583707716871</v>
+        <v>21.5835524300485</v>
       </c>
       <c r="I22">
-        <v>8.53025276943746</v>
+        <v>8.529770439803601</v>
       </c>
       <c r="J22">
-        <v>49.158613599078</v>
+        <v>49.1585918565522</v>
       </c>
       <c r="K22">
-        <v>34.3045402525373</v>
+        <v>34.3045042136795</v>
       </c>
       <c r="L22">
-        <v>125.386460035764</v>
+        <v>125.386338365576</v>
       </c>
       <c r="M22">
-        <v>14.8648358701622</v>
+        <v>14.8648510070809</v>
       </c>
       <c r="N22">
-        <v>72.0789121591213</v>
+        <v>72.0788725428755</v>
       </c>
       <c r="O22">
-        <v>2536.79896936952</v>
+        <v>2536.80005209202</v>
       </c>
       <c r="P22">
-        <v>12.4165077140415</v>
+        <v>12.4165304394958</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2540.04559428953</v>
+        <v>2540.04575170465</v>
       </c>
       <c r="C23">
-        <v>47.0782788426273</v>
+        <v>47.0782852506452</v>
       </c>
       <c r="D23">
-        <v>11.1480287989681</v>
+        <v>11.148026880773</v>
       </c>
       <c r="E23">
-        <v>48.1860086948316</v>
+        <v>48.1858607360974</v>
       </c>
       <c r="F23">
-        <v>8.950707621360991</v>
+        <v>8.950356891220441</v>
       </c>
       <c r="G23">
-        <v>51.3102616098986</v>
+        <v>51.3102635911881</v>
       </c>
       <c r="H23">
-        <v>72.91245002083051</v>
+        <v>72.91218132076079</v>
       </c>
       <c r="I23">
-        <v>15.3648837031145</v>
+        <v>15.3648833125365</v>
       </c>
       <c r="J23">
-        <v>140.539930994887</v>
+        <v>140.539687324212</v>
       </c>
       <c r="K23">
-        <v>113.016944988129</v>
+        <v>113.01690514033</v>
       </c>
       <c r="L23">
-        <v>39.8415478123491</v>
+        <v>39.8414876230341</v>
       </c>
       <c r="M23">
-        <v>517.2605899419521</v>
+        <v>517.260453513219</v>
       </c>
       <c r="N23">
-        <v>73.2200784141621</v>
+        <v>73.2200086373602</v>
       </c>
       <c r="O23">
-        <v>3251.5962972073</v>
+        <v>3251.59651430634</v>
       </c>
       <c r="P23">
-        <v>58.5968752181589</v>
+        <v>58.5968975471666</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>974.843344788316</v>
+        <v>974.843702522258</v>
       </c>
       <c r="C24">
-        <v>58.7540300881521</v>
+        <v>58.7540458295077</v>
       </c>
       <c r="D24">
-        <v>9.32013095847517</v>
+        <v>9.320127154578939</v>
       </c>
       <c r="E24">
-        <v>61.536246723925</v>
+        <v>61.5354116360797</v>
       </c>
       <c r="F24">
-        <v>11.9134757345214</v>
+        <v>11.9133127577712</v>
       </c>
       <c r="G24">
-        <v>25.4682269868493</v>
+        <v>25.4680467729609</v>
       </c>
       <c r="H24">
-        <v>14.0908750128883</v>
+        <v>14.0906593575267</v>
       </c>
       <c r="I24">
-        <v>19.386409462111</v>
+        <v>19.3863863717762</v>
       </c>
       <c r="J24">
-        <v>47.1837343395771</v>
+        <v>47.1836351726594</v>
       </c>
       <c r="K24">
-        <v>64.556160494289</v>
+        <v>64.5561174098261</v>
       </c>
       <c r="L24">
-        <v>61.5785132739886</v>
+        <v>61.5782937729579</v>
       </c>
       <c r="M24">
-        <v>32.0128863191208</v>
+        <v>32.0128668078889</v>
       </c>
       <c r="N24">
-        <v>63.7125221324491</v>
+        <v>63.712408492258</v>
       </c>
       <c r="O24">
-        <v>1881.62702617474</v>
+        <v>1881.62750559392</v>
       </c>
       <c r="P24">
-        <v>109.767123032379</v>
+        <v>109.76716011359</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>823.29997561617</v>
+        <v>823.300036486989</v>
       </c>
       <c r="C25">
-        <v>37.7585941546123</v>
+        <v>37.7585953689879</v>
       </c>
       <c r="D25">
-        <v>20.390182191781</v>
+        <v>20.3901770631326</v>
       </c>
       <c r="E25">
-        <v>39.4914271606932</v>
+        <v>39.4913984522502</v>
       </c>
       <c r="F25">
-        <v>15.6860831293887</v>
+        <v>15.6860237766197</v>
       </c>
       <c r="G25">
-        <v>6.10691595850882</v>
+        <v>6.10691206524462</v>
       </c>
       <c r="H25">
-        <v>13.8701612733398</v>
+        <v>13.8701240138655</v>
       </c>
       <c r="I25">
-        <v>7.05989652598398</v>
+        <v>7.05989603120171</v>
       </c>
       <c r="J25">
-        <v>18.2639042051895</v>
+        <v>18.2638905037611</v>
       </c>
       <c r="K25">
-        <v>18.0016100041926</v>
+        <v>18.001607325215</v>
       </c>
       <c r="L25">
-        <v>20.4277297298913</v>
+        <v>20.4277098430344</v>
       </c>
       <c r="M25">
-        <v>31.1840523215534</v>
+        <v>31.184047163194</v>
       </c>
       <c r="N25">
-        <v>46.9193419449377</v>
+        <v>46.9193248496706</v>
       </c>
       <c r="O25">
-        <v>866.4564423592</v>
+        <v>866.456525484006</v>
       </c>
       <c r="P25">
-        <v>43.7614506409232</v>
+        <v>43.7614537662503</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1313.03567867474</v>
+        <v>1313.03591654572</v>
       </c>
       <c r="C26">
-        <v>62.0705855310202</v>
+        <v>62.070597750805</v>
       </c>
       <c r="D26">
-        <v>21.7325237985245</v>
+        <v>21.7325171213534</v>
       </c>
       <c r="E26">
-        <v>45.9210930408065</v>
+        <v>45.9208841709887</v>
       </c>
       <c r="F26">
-        <v>9.779620335264591</v>
+        <v>9.779347452869789</v>
       </c>
       <c r="G26">
-        <v>29.5662538063629</v>
+        <v>29.5662294809273</v>
       </c>
       <c r="H26">
-        <v>22.6760968793376</v>
+        <v>22.6759014188356</v>
       </c>
       <c r="I26">
-        <v>18.1260668740006</v>
+        <v>18.126008963917</v>
       </c>
       <c r="J26">
-        <v>71.1575604797016</v>
+        <v>71.1574557276918</v>
       </c>
       <c r="K26">
-        <v>38.396227100992</v>
+        <v>38.3961860065248</v>
       </c>
       <c r="L26">
-        <v>35.3325980306669</v>
+        <v>35.3324758182527</v>
       </c>
       <c r="M26">
-        <v>78.3748310270787</v>
+        <v>78.37482100956051</v>
       </c>
       <c r="N26">
-        <v>38.0403245467944</v>
+        <v>38.0402548062958</v>
       </c>
       <c r="O26">
-        <v>2055.33627307981</v>
+        <v>2055.33653792768</v>
       </c>
       <c r="P26">
-        <v>79.0259322320308</v>
+        <v>79.0259605720713</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>236.306105033033</v>
+        <v>236.304350313716</v>
       </c>
       <c r="C27">
-        <v>3.2752642386399</v>
+        <v>3.27523565689037</v>
       </c>
       <c r="D27">
-        <v>1.10081244061095</v>
+        <v>1.10080313508139</v>
       </c>
       <c r="E27">
-        <v>10.0299777215402</v>
+        <v>10.0298297332504</v>
       </c>
       <c r="F27">
-        <v>6.56689212220481</v>
+        <v>6.56678684284885</v>
       </c>
       <c r="G27">
-        <v>1.04289611343061</v>
+        <v>1.04288633505899</v>
       </c>
       <c r="H27">
-        <v>0.297182303314711</v>
+        <v>0.329107620921046</v>
       </c>
       <c r="I27">
-        <v>2.51587051926616</v>
+        <v>2.51584570512011</v>
       </c>
       <c r="J27">
-        <v>2.94039225152844</v>
+        <v>2.94031069451324</v>
       </c>
       <c r="K27">
-        <v>2.39569049393768</v>
+        <v>2.39565810069503</v>
       </c>
       <c r="L27">
-        <v>1.30028381952444</v>
+        <v>1.3002416845557</v>
       </c>
       <c r="M27">
-        <v>0.764179567052981</v>
+        <v>0.764167008021561</v>
       </c>
       <c r="N27">
-        <v>4.35965043218849</v>
+        <v>4.35959000727849</v>
       </c>
       <c r="O27">
-        <v>360.349477116356</v>
+        <v>360.320962252459</v>
       </c>
       <c r="P27">
-        <v>46.8482202343217</v>
+        <v>46.8478305334432</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>343.949809202379</v>
+        <v>343.949851067952</v>
       </c>
       <c r="C28">
-        <v>34.912040094527</v>
+        <v>34.9120416699045</v>
       </c>
       <c r="D28">
-        <v>3.84119434738877</v>
+        <v>3.84119195469625</v>
       </c>
       <c r="E28">
-        <v>7.9544897996945</v>
+        <v>7.95443280392143</v>
       </c>
       <c r="F28">
-        <v>1.91011754548748</v>
+        <v>1.91010860406469</v>
       </c>
       <c r="G28">
-        <v>4.39381220238799</v>
+        <v>4.39381011413188</v>
       </c>
       <c r="H28">
-        <v>8.458026064164381</v>
+        <v>8.4579568754761</v>
       </c>
       <c r="I28">
-        <v>3.10472738588235</v>
+        <v>3.10472649909989</v>
       </c>
       <c r="J28">
-        <v>14.0103969548662</v>
+        <v>14.0103799697631</v>
       </c>
       <c r="K28">
-        <v>15.9666635385876</v>
+        <v>15.9666632125461</v>
       </c>
       <c r="L28">
-        <v>16.0288637973069</v>
+        <v>16.0288426628821</v>
       </c>
       <c r="M28">
-        <v>7.73474175542388</v>
+        <v>7.7347415181753</v>
       </c>
       <c r="N28">
-        <v>11.6279393373087</v>
+        <v>11.6279265995885</v>
       </c>
       <c r="O28">
-        <v>655.318447325615</v>
+        <v>655.318496086215</v>
       </c>
       <c r="P28">
-        <v>88.8891814036031</v>
+        <v>88.88919047937</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>508.017006191663</v>
+        <v>508.017466808214</v>
       </c>
       <c r="C29">
-        <v>3.11914906664001</v>
+        <v>3.11915804372907</v>
       </c>
       <c r="D29">
-        <v>2.68615674133661</v>
+        <v>2.68616111636879</v>
       </c>
       <c r="E29">
-        <v>4.91623110320585</v>
+        <v>4.91560754258094</v>
       </c>
       <c r="F29">
-        <v>19.9052396359846</v>
+        <v>19.9048719694054</v>
       </c>
       <c r="G29">
-        <v>1.37416970523669</v>
+        <v>1.37412602332958</v>
       </c>
       <c r="H29">
-        <v>2.9010341308062</v>
+        <v>2.90045183255101</v>
       </c>
       <c r="I29">
-        <v>2.95830365573378</v>
+        <v>2.95830636739516</v>
       </c>
       <c r="J29">
-        <v>6.21568968322916</v>
+        <v>6.2155870107968</v>
       </c>
       <c r="K29">
-        <v>3.90700318139444</v>
+        <v>3.90696186591389</v>
       </c>
       <c r="L29">
-        <v>2.96654777771756</v>
+        <v>2.96641508361944</v>
       </c>
       <c r="M29">
-        <v>2.77148035495251</v>
+        <v>2.77148601024568</v>
       </c>
       <c r="N29">
-        <v>10.5251978410661</v>
+        <v>10.5251375493342</v>
       </c>
       <c r="O29">
-        <v>885.307938147585</v>
+        <v>885.308267642916</v>
       </c>
       <c r="P29">
-        <v>6.57739961328154</v>
+        <v>6.57744523921619</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>262.752911804595</v>
+        <v>262.752982788703</v>
       </c>
       <c r="C30">
-        <v>4.51067805396825</v>
+        <v>4.51067958745409</v>
       </c>
       <c r="D30">
-        <v>7.73462409141278</v>
+        <v>7.73460172229697</v>
       </c>
       <c r="E30">
-        <v>14.2634541899867</v>
+        <v>14.2633535985007</v>
       </c>
       <c r="F30">
-        <v>1.41685773186881</v>
+        <v>1.41680463704812</v>
       </c>
       <c r="G30">
-        <v>3.54932020889598</v>
+        <v>3.54931879657439</v>
       </c>
       <c r="H30">
-        <v>5.44948507740197</v>
+        <v>5.44942789764151</v>
       </c>
       <c r="I30">
-        <v>3.75802739774748</v>
+        <v>3.75802444491546</v>
       </c>
       <c r="J30">
-        <v>17.1120238124157</v>
+        <v>17.1119924850783</v>
       </c>
       <c r="K30">
-        <v>12.3466391013191</v>
+        <v>12.346639697608</v>
       </c>
       <c r="L30">
-        <v>33.7670840266822</v>
+        <v>33.7670722490019</v>
       </c>
       <c r="M30">
-        <v>8.928858123327791</v>
+        <v>8.92884880312331</v>
       </c>
       <c r="N30">
-        <v>14.9049309853779</v>
+        <v>14.9049264180842</v>
       </c>
       <c r="O30">
-        <v>503.840323280543</v>
+        <v>503.84029073088</v>
       </c>
       <c r="P30">
-        <v>8.09022174660271</v>
+        <v>8.090220435937431</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2082.49900964173</v>
+        <v>2082.49927176814</v>
       </c>
       <c r="C31">
-        <v>41.5821178339421</v>
+        <v>41.5821291719665</v>
       </c>
       <c r="D31">
-        <v>47.8679129227541</v>
+        <v>47.8678850512534</v>
       </c>
       <c r="E31">
-        <v>50.8585288575526</v>
+        <v>50.8582603404265</v>
       </c>
       <c r="F31">
-        <v>10.8078731862577</v>
+        <v>10.8074792011456</v>
       </c>
       <c r="G31">
-        <v>122.289436483731</v>
+        <v>122.289405771357</v>
       </c>
       <c r="H31">
-        <v>21.9992608299615</v>
+        <v>21.9991217883936</v>
       </c>
       <c r="I31">
-        <v>22.6138596488398</v>
+        <v>22.6138574383569</v>
       </c>
       <c r="J31">
-        <v>46.4812800184714</v>
+        <v>46.4812146712771</v>
       </c>
       <c r="K31">
-        <v>29.9401339502075</v>
+        <v>29.9401082302962</v>
       </c>
       <c r="L31">
-        <v>74.23569545077621</v>
+        <v>74.23554235155299</v>
       </c>
       <c r="M31">
-        <v>18.1076813921012</v>
+        <v>18.1076781139632</v>
       </c>
       <c r="N31">
-        <v>53.479034029993</v>
+        <v>53.4789839718461</v>
       </c>
       <c r="O31">
-        <v>3345.66064264325</v>
+        <v>3345.66110572819</v>
       </c>
       <c r="P31">
-        <v>6.38668535846111</v>
+        <v>6.38670190924519</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>505.522246422481</v>
+        <v>505.522685775589</v>
       </c>
       <c r="C32">
-        <v>7.26816221372074</v>
+        <v>7.26817911096223</v>
       </c>
       <c r="D32">
-        <v>1.01870596254526</v>
+        <v>1.01870721665997</v>
       </c>
       <c r="E32">
-        <v>4.176001978084</v>
+        <v>4.17583088926256</v>
       </c>
       <c r="F32">
-        <v>22.2570357336478</v>
+        <v>22.2569174808299</v>
       </c>
       <c r="G32">
-        <v>2.28261913840648</v>
+        <v>2.28260562121898</v>
       </c>
       <c r="H32">
-        <v>1.8824147337946</v>
+        <v>1.88235540064402</v>
       </c>
       <c r="I32">
-        <v>5.31843936383502</v>
+        <v>5.31844432693488</v>
       </c>
       <c r="J32">
-        <v>5.83631767143499</v>
+        <v>5.83611785104911</v>
       </c>
       <c r="K32">
-        <v>1.63185346868471</v>
+        <v>1.63185271656984</v>
       </c>
       <c r="L32">
-        <v>15.6970893619524</v>
+        <v>15.6968681334572</v>
       </c>
       <c r="M32">
-        <v>2.89854991356124</v>
+        <v>2.89854966045997</v>
       </c>
       <c r="N32">
-        <v>7.69993883421336</v>
+        <v>7.69983916999011</v>
       </c>
       <c r="O32">
-        <v>674.5264658805251</v>
+        <v>674.527077822881</v>
       </c>
       <c r="P32">
-        <v>21.1345456709851</v>
+        <v>21.13458252689</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5258.43424219496</v>
+        <v>5258.43480839208</v>
       </c>
       <c r="C33">
-        <v>84.36246511731611</v>
+        <v>84.36248003146891</v>
       </c>
       <c r="D33">
-        <v>108.255880235061</v>
+        <v>108.255881783311</v>
       </c>
       <c r="E33">
-        <v>88.2412303764816</v>
+        <v>88.240886035911</v>
       </c>
       <c r="F33">
-        <v>8.603989958645149</v>
+        <v>8.60352009176836</v>
       </c>
       <c r="G33">
-        <v>72.80833603759601</v>
+        <v>72.8083305356477</v>
       </c>
       <c r="H33">
-        <v>35.0511235976254</v>
+        <v>35.0509477533324</v>
       </c>
       <c r="I33">
-        <v>34.6174806832019</v>
+        <v>34.6173429334518</v>
       </c>
       <c r="J33">
-        <v>107.590309732007</v>
+        <v>107.590174198837</v>
       </c>
       <c r="K33">
-        <v>114.872636006149</v>
+        <v>114.872623639515</v>
       </c>
       <c r="L33">
-        <v>132.786644934427</v>
+        <v>132.786488072115</v>
       </c>
       <c r="M33">
-        <v>70.2119864582294</v>
+        <v>70.2119807137627</v>
       </c>
       <c r="N33">
-        <v>135.61587787251</v>
+        <v>135.615758822627</v>
       </c>
       <c r="O33">
-        <v>7029.63126315022</v>
+        <v>7029.63218561212</v>
       </c>
       <c r="P33">
-        <v>76.7817342108082</v>
+        <v>76.7817761322297</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2063.33969381798</v>
+        <v>2063.34046471862</v>
       </c>
       <c r="C34">
-        <v>66.8684732161326</v>
+        <v>66.8684880781182</v>
       </c>
       <c r="D34">
-        <v>191.701995631016</v>
+        <v>191.701905954594</v>
       </c>
       <c r="E34">
-        <v>59.6090641157355</v>
+        <v>59.6082744887108</v>
       </c>
       <c r="F34">
-        <v>7.55189090474163</v>
+        <v>7.55145280928479</v>
       </c>
       <c r="G34">
-        <v>51.8700391855662</v>
+        <v>51.8699783109344</v>
       </c>
       <c r="H34">
-        <v>39.5163243983494</v>
+        <v>39.515915518163</v>
       </c>
       <c r="I34">
-        <v>17.7056791049116</v>
+        <v>17.7056715574801</v>
       </c>
       <c r="J34">
-        <v>59.4832448978741</v>
+        <v>59.4829949575401</v>
       </c>
       <c r="K34">
-        <v>54.47585416524</v>
+        <v>54.4757831786595</v>
       </c>
       <c r="L34">
-        <v>93.0610086396881</v>
+        <v>93.0605830011031</v>
       </c>
       <c r="M34">
-        <v>47.253255482697</v>
+        <v>47.2532363191752</v>
       </c>
       <c r="N34">
-        <v>122.865251364137</v>
+        <v>122.864968475786</v>
       </c>
       <c r="O34">
-        <v>2764.56912819573</v>
+        <v>2764.57012785694</v>
       </c>
       <c r="P34">
-        <v>61.4079975992067</v>
+        <v>61.4080279245909</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>142.453046243486</v>
+        <v>142.453110373233</v>
       </c>
       <c r="C35">
-        <v>7.08628563715861</v>
+        <v>7.08624038614894</v>
       </c>
       <c r="D35">
-        <v>0.547495864541434</v>
+        <v>0.547493919311326</v>
       </c>
       <c r="E35">
-        <v>2.62093233195168</v>
+        <v>2.62074017480824</v>
       </c>
       <c r="F35">
-        <v>5.4283753218246</v>
+        <v>5.42835940228514</v>
       </c>
       <c r="G35">
-        <v>0.796095834133932</v>
+        <v>0.796084000816886</v>
       </c>
       <c r="H35">
-        <v>0.342209278400557</v>
+        <v>0.342155814787324</v>
       </c>
       <c r="I35">
-        <v>1.08587220545958</v>
+        <v>1.08587260172239</v>
       </c>
       <c r="J35">
-        <v>2.67544032553988</v>
+        <v>2.67531645392417</v>
       </c>
       <c r="K35">
-        <v>6.23764190544804</v>
+        <v>6.23763864247358</v>
       </c>
       <c r="L35">
-        <v>2.13113588035535</v>
+        <v>2.13113107236939</v>
       </c>
       <c r="M35">
-        <v>2.44389514462326</v>
+        <v>2.4438952753392</v>
       </c>
       <c r="N35">
-        <v>2.54734512103079</v>
+        <v>2.54728499288829</v>
       </c>
       <c r="O35">
-        <v>250.990830459304</v>
+        <v>250.990944915925</v>
       </c>
       <c r="P35">
-        <v>44.1456779045488</v>
+        <v>44.1456969417843</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2814.25484607615</v>
+        <v>2814.25508571709</v>
       </c>
       <c r="C36">
-        <v>63.655737967264</v>
+        <v>63.655740577687</v>
       </c>
       <c r="D36">
-        <v>15.5223572977295</v>
+        <v>15.5223563093488</v>
       </c>
       <c r="E36">
-        <v>88.4741484617589</v>
+        <v>88.473902427214</v>
       </c>
       <c r="F36">
-        <v>26.7832043647256</v>
+        <v>26.7830086665475</v>
       </c>
       <c r="G36">
-        <v>88.2384903759491</v>
+        <v>88.238457324354</v>
       </c>
       <c r="H36">
-        <v>103.519627495425</v>
+        <v>103.519425694068</v>
       </c>
       <c r="I36">
-        <v>49.8171821218675</v>
+        <v>49.8171796706357</v>
       </c>
       <c r="J36">
-        <v>228.844504578577</v>
+        <v>228.844319891382</v>
       </c>
       <c r="K36">
-        <v>132.660315233285</v>
+        <v>132.660284718765</v>
       </c>
       <c r="L36">
-        <v>84.19500738481359</v>
+        <v>84.19490319742251</v>
       </c>
       <c r="M36">
-        <v>233.515874177723</v>
+        <v>233.515852642048</v>
       </c>
       <c r="N36">
-        <v>99.1988091103306</v>
+        <v>99.19878394632561</v>
       </c>
       <c r="O36">
-        <v>3918.87254410294</v>
+        <v>3918.8728679859</v>
       </c>
       <c r="P36">
-        <v>54.4169355140436</v>
+        <v>54.4169323624114</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>905.117081561728</v>
+        <v>905.117408035603</v>
       </c>
       <c r="C37">
-        <v>23.6109323084537</v>
+        <v>23.610944657504</v>
       </c>
       <c r="D37">
-        <v>5.60312444807751</v>
+        <v>5.60312638751355</v>
       </c>
       <c r="E37">
-        <v>19.0650029442979</v>
+        <v>19.0648620039253</v>
       </c>
       <c r="F37">
-        <v>38.021807024818</v>
+        <v>38.0216954376692</v>
       </c>
       <c r="G37">
-        <v>10.4974079729301</v>
+        <v>10.497403027325</v>
       </c>
       <c r="H37">
-        <v>23.867324967441</v>
+        <v>23.8670882775295</v>
       </c>
       <c r="I37">
-        <v>15.2996433728873</v>
+        <v>15.2996318823001</v>
       </c>
       <c r="J37">
-        <v>34.9507816921433</v>
+        <v>34.9506785869847</v>
       </c>
       <c r="K37">
-        <v>33.4170052826856</v>
+        <v>33.4169838892337</v>
       </c>
       <c r="L37">
-        <v>20.5964672067946</v>
+        <v>20.5963436833291</v>
       </c>
       <c r="M37">
-        <v>35.1417804172642</v>
+        <v>35.1417674945876</v>
       </c>
       <c r="N37">
-        <v>12.5393429980659</v>
+        <v>12.5393122300416</v>
       </c>
       <c r="O37">
-        <v>1163.84237625951</v>
+        <v>1163.84280361393</v>
       </c>
       <c r="P37">
-        <v>57.2609696441205</v>
+        <v>57.260993265056</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>871.394798622425</v>
+        <v>871.395204339108</v>
       </c>
       <c r="C38">
-        <v>23.5915532084926</v>
+        <v>23.5915741949205</v>
       </c>
       <c r="D38">
-        <v>9.730287630292461</v>
+        <v>9.730288780378279</v>
       </c>
       <c r="E38">
-        <v>59.4666815139179</v>
+        <v>59.4654620899487</v>
       </c>
       <c r="F38">
-        <v>3.28523209718677</v>
+        <v>3.28516622664578</v>
       </c>
       <c r="G38">
-        <v>4.09514692454295</v>
+        <v>4.09508773343306</v>
       </c>
       <c r="H38">
-        <v>4.67258854206734</v>
+        <v>4.67215140033943</v>
       </c>
       <c r="I38">
-        <v>5.02277653506871</v>
+        <v>5.022767200471</v>
       </c>
       <c r="J38">
-        <v>36.9457913524889</v>
+        <v>36.9452623520808</v>
       </c>
       <c r="K38">
-        <v>11.4144199859485</v>
+        <v>11.414398259788</v>
       </c>
       <c r="L38">
-        <v>56.1885085474877</v>
+        <v>56.1881812276705</v>
       </c>
       <c r="M38">
-        <v>15.5869715889794</v>
+        <v>15.5869657774434</v>
       </c>
       <c r="N38">
-        <v>28.999478299698</v>
+        <v>28.99926627569</v>
       </c>
       <c r="O38">
-        <v>1277.17524168525</v>
+        <v>1277.17616259727</v>
       </c>
       <c r="P38">
-        <v>69.5030134672169</v>
+        <v>69.5029749242983</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3281.67665154334</v>
+        <v>3281.67703604768</v>
       </c>
       <c r="C39">
-        <v>93.52447398763771</v>
+        <v>93.5244831524255</v>
       </c>
       <c r="D39">
-        <v>66.6136872352253</v>
+        <v>66.6136891361614</v>
       </c>
       <c r="E39">
-        <v>128.276193698964</v>
+        <v>128.275825480348</v>
       </c>
       <c r="F39">
-        <v>33.0925370065498</v>
+        <v>33.0921110000375</v>
       </c>
       <c r="G39">
-        <v>101.972542784886</v>
+        <v>101.972504449179</v>
       </c>
       <c r="H39">
-        <v>53.2351318802186</v>
+        <v>53.2348681562139</v>
       </c>
       <c r="I39">
-        <v>45.6308143695765</v>
+        <v>45.6308030942411</v>
       </c>
       <c r="J39">
-        <v>190.113595487118</v>
+        <v>190.113515403961</v>
       </c>
       <c r="K39">
-        <v>111.996689422772</v>
+        <v>111.996664784961</v>
       </c>
       <c r="L39">
-        <v>107.596591427523</v>
+        <v>107.596451499413</v>
       </c>
       <c r="M39">
-        <v>65.92325294892581</v>
+        <v>65.9232475638035</v>
       </c>
       <c r="N39">
-        <v>99.94583438464269</v>
+        <v>99.9457712149237</v>
       </c>
       <c r="O39">
-        <v>4293.34534680523</v>
+        <v>4293.34580602478</v>
       </c>
       <c r="P39">
-        <v>76.8038335076007</v>
+        <v>76.8038699887513</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>266.57972925836</v>
+        <v>266.579741158171</v>
       </c>
       <c r="C40">
-        <v>4.28139759668265</v>
+        <v>4.28139869540374</v>
       </c>
       <c r="D40">
-        <v>8.961643775203109</v>
+        <v>8.96163036080414</v>
       </c>
       <c r="E40">
-        <v>5.35010796915385</v>
+        <v>5.34998879029608</v>
       </c>
       <c r="F40">
-        <v>0.200767606476777</v>
+        <v>0.200739485394923</v>
       </c>
       <c r="G40">
-        <v>5.87418108578913</v>
+        <v>5.87417831219988</v>
       </c>
       <c r="H40">
-        <v>3.92038040172471</v>
+        <v>3.92037123116605</v>
       </c>
       <c r="I40">
-        <v>1.41876108068054</v>
+        <v>1.41876123041496</v>
       </c>
       <c r="J40">
-        <v>10.1946169460992</v>
+        <v>10.1946164656975</v>
       </c>
       <c r="K40">
-        <v>6.0628693316189</v>
+        <v>6.06286208478855</v>
       </c>
       <c r="L40">
-        <v>15.9070199464376</v>
+        <v>15.9070040655816</v>
       </c>
       <c r="M40">
-        <v>5.72413860174593</v>
+        <v>5.72413948720157</v>
       </c>
       <c r="N40">
-        <v>23.9186744435034</v>
+        <v>23.918647016026</v>
       </c>
       <c r="O40">
-        <v>420.486162399736</v>
+        <v>420.486153464029</v>
       </c>
       <c r="P40">
-        <v>2.8685276125048</v>
+        <v>2.86850328078532</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1063.51728578586</v>
+        <v>1063.51759373301</v>
       </c>
       <c r="C41">
-        <v>14.9281567826898</v>
+        <v>14.9281514178862</v>
       </c>
       <c r="D41">
-        <v>92.1228635733018</v>
+        <v>92.1228714141775</v>
       </c>
       <c r="E41">
-        <v>38.7611660981046</v>
+        <v>38.7608544801156</v>
       </c>
       <c r="F41">
-        <v>2.2189343659984</v>
+        <v>2.21882065707906</v>
       </c>
       <c r="G41">
-        <v>26.2683773272871</v>
+        <v>26.2682379278895</v>
       </c>
       <c r="H41">
-        <v>35.4945471471768</v>
+        <v>35.4943636962242</v>
       </c>
       <c r="I41">
-        <v>14.1789892992369</v>
+        <v>14.178873389151</v>
       </c>
       <c r="J41">
-        <v>48.6261177023151</v>
+        <v>48.626025983071</v>
       </c>
       <c r="K41">
-        <v>30.6210685785859</v>
+        <v>30.6210662119218</v>
       </c>
       <c r="L41">
-        <v>32.7303611455626</v>
+        <v>32.7302344686511</v>
       </c>
       <c r="M41">
-        <v>26.8506047211145</v>
+        <v>26.8506066637388</v>
       </c>
       <c r="N41">
-        <v>22.5920105536178</v>
+        <v>22.5919802636772</v>
       </c>
       <c r="O41">
-        <v>1335.49143079007</v>
+        <v>1335.4918651328</v>
       </c>
       <c r="P41">
-        <v>32.2842590093748</v>
+        <v>32.2842696342667</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>155.38569114932</v>
+        <v>155.385723278501</v>
       </c>
       <c r="C42">
-        <v>6.69014901286084</v>
+        <v>6.69015108444663</v>
       </c>
       <c r="D42">
-        <v>1.60172622080039</v>
+        <v>1.60170904725615</v>
       </c>
       <c r="E42">
-        <v>5.0132304714939</v>
+        <v>5.01284066818185</v>
       </c>
       <c r="F42">
-        <v>2.7161061553209</v>
+        <v>2.71606094637063</v>
       </c>
       <c r="G42">
-        <v>1.74468020287716</v>
+        <v>1.74468008821155</v>
       </c>
       <c r="H42">
-        <v>0.877565847263956</v>
+        <v>0.877513480667464</v>
       </c>
       <c r="I42">
-        <v>0.765337983821946</v>
+        <v>0.7653338164415761</v>
       </c>
       <c r="J42">
-        <v>4.27501215614793</v>
+        <v>4.27492660888145</v>
       </c>
       <c r="K42">
-        <v>5.96787145236421</v>
+        <v>5.96784919346964</v>
       </c>
       <c r="L42">
-        <v>7.41273849512402</v>
+        <v>7.41272786093653</v>
       </c>
       <c r="M42">
-        <v>3.44035563840893</v>
+        <v>3.4403562984639</v>
       </c>
       <c r="N42">
-        <v>7.29767161995683</v>
+        <v>7.29764174201292</v>
       </c>
       <c r="O42">
-        <v>308.086381613279</v>
+        <v>308.086369995438</v>
       </c>
       <c r="P42">
-        <v>50.9317687709592</v>
+        <v>50.9317872038113</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1530.01469696435</v>
+        <v>1530.01497738745</v>
       </c>
       <c r="C43">
-        <v>41.622272757942</v>
+        <v>41.6222787450196</v>
       </c>
       <c r="D43">
-        <v>56.6809224295445</v>
+        <v>56.6809266222596</v>
       </c>
       <c r="E43">
-        <v>56.9932217297707</v>
+        <v>56.9931430154037</v>
       </c>
       <c r="F43">
-        <v>8.326742175254131</v>
+        <v>8.32666733444327</v>
       </c>
       <c r="G43">
-        <v>19.290635972473</v>
+        <v>19.2906360438111</v>
       </c>
       <c r="H43">
-        <v>34.0007378035242</v>
+        <v>34.0005367635204</v>
       </c>
       <c r="I43">
-        <v>24.2318440511765</v>
+        <v>24.2318343948361</v>
       </c>
       <c r="J43">
-        <v>52.9396485323859</v>
+        <v>52.9395364241654</v>
       </c>
       <c r="K43">
-        <v>62.0109680579054</v>
+        <v>62.0109139711724</v>
       </c>
       <c r="L43">
-        <v>46.9012630163554</v>
+        <v>46.9011136905181</v>
       </c>
       <c r="M43">
-        <v>111.812620657506</v>
+        <v>111.812579896797</v>
       </c>
       <c r="N43">
-        <v>60.6386538181109</v>
+        <v>60.6385671240279</v>
       </c>
       <c r="O43">
-        <v>1925.42882255148</v>
+        <v>1925.42921186507</v>
       </c>
       <c r="P43">
-        <v>34.4653815621318</v>
+        <v>34.4653984934851</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5102.16919693304</v>
+        <v>5102.17055201926</v>
       </c>
       <c r="C44">
-        <v>122.123009840693</v>
+        <v>122.123051670789</v>
       </c>
       <c r="D44">
-        <v>60.0576670879491</v>
+        <v>60.0576274706326</v>
       </c>
       <c r="E44">
-        <v>102.363489688717</v>
+        <v>102.362394780227</v>
       </c>
       <c r="F44">
-        <v>222.555251982052</v>
+        <v>222.554502929969</v>
       </c>
       <c r="G44">
-        <v>131.910409116443</v>
+        <v>131.910145789405</v>
       </c>
       <c r="H44">
-        <v>51.4259173020026</v>
+        <v>51.4245966775114</v>
       </c>
       <c r="I44">
-        <v>43.0785645968775</v>
+        <v>43.07856942441</v>
       </c>
       <c r="J44">
-        <v>134.214618856431</v>
+        <v>134.214138656042</v>
       </c>
       <c r="K44">
-        <v>92.805722975442</v>
+        <v>92.80560148155099</v>
       </c>
       <c r="L44">
-        <v>216.876995634279</v>
+        <v>216.876267500616</v>
       </c>
       <c r="M44">
-        <v>117.098755208404</v>
+        <v>117.098758988229</v>
       </c>
       <c r="N44">
-        <v>89.4710735068485</v>
+        <v>89.4707240981935</v>
       </c>
       <c r="O44">
-        <v>7408.17167683169</v>
+        <v>7408.1737728795</v>
       </c>
       <c r="P44">
-        <v>203.137485500602</v>
+        <v>203.137558510736</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>470.808639085534</v>
+        <v>470.808922732705</v>
       </c>
       <c r="C45">
-        <v>15.7690273775176</v>
+        <v>15.7690387918981</v>
       </c>
       <c r="D45">
-        <v>3.38732714967227</v>
+        <v>3.38729843615448</v>
       </c>
       <c r="E45">
-        <v>13.781415054426</v>
+        <v>13.7808354714788</v>
       </c>
       <c r="F45">
-        <v>21.0280423660528</v>
+        <v>21.0278401120915</v>
       </c>
       <c r="G45">
-        <v>8.58305630233675</v>
+        <v>8.582997054661741</v>
       </c>
       <c r="H45">
-        <v>2.29219425677972</v>
+        <v>2.29213203308603</v>
       </c>
       <c r="I45">
-        <v>4.10193017425142</v>
+        <v>4.10192816588211</v>
       </c>
       <c r="J45">
-        <v>22.3008727040947</v>
+        <v>22.3007653482828</v>
       </c>
       <c r="K45">
-        <v>6.72088776361857</v>
+        <v>6.72087250798743</v>
       </c>
       <c r="L45">
-        <v>15.6435715966539</v>
+        <v>15.6434479599082</v>
       </c>
       <c r="M45">
-        <v>22.2569704896035</v>
+        <v>22.2569736138254</v>
       </c>
       <c r="N45">
-        <v>30.2084889000469</v>
+        <v>30.2081997684874</v>
       </c>
       <c r="O45">
-        <v>813.420134680347</v>
+        <v>813.420577240941</v>
       </c>
       <c r="P45">
-        <v>17.5801759458458</v>
+        <v>17.5802184548374</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>139.218285143098</v>
+        <v>139.218283197578</v>
       </c>
       <c r="C46">
-        <v>3.71139313186519</v>
+        <v>3.71139376740202</v>
       </c>
       <c r="D46">
-        <v>1.96177018616137</v>
+        <v>1.96177054841044</v>
       </c>
       <c r="E46">
-        <v>7.04829439564062</v>
+        <v>7.04806065851453</v>
       </c>
       <c r="F46">
-        <v>1.25813272800168</v>
+        <v>1.25808030788541</v>
       </c>
       <c r="G46">
-        <v>2.66172304767306</v>
+        <v>2.66171116042176</v>
       </c>
       <c r="H46">
-        <v>1.69364729695194</v>
+        <v>1.69363001992403</v>
       </c>
       <c r="I46">
-        <v>1.66834245402949</v>
+        <v>1.66833529247278</v>
       </c>
       <c r="J46">
-        <v>4.5514915289311</v>
+        <v>4.5514863378777</v>
       </c>
       <c r="K46">
-        <v>5.98047497391066</v>
+        <v>5.98045103064501</v>
       </c>
       <c r="L46">
-        <v>11.1990790175546</v>
+        <v>11.1990714233201</v>
       </c>
       <c r="M46">
-        <v>3.45884596988807</v>
+        <v>3.45884631720051</v>
       </c>
       <c r="N46">
-        <v>8.73244385174015</v>
+        <v>8.732400337479611</v>
       </c>
       <c r="O46">
-        <v>258.330086760914</v>
+        <v>258.33004434474</v>
       </c>
       <c r="P46">
-        <v>12.7733970250396</v>
+        <v>12.7733634251313</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1667.60228244461</v>
+        <v>1667.60256563997</v>
       </c>
       <c r="C47">
-        <v>54.2913531006526</v>
+        <v>54.2913676328951</v>
       </c>
       <c r="D47">
-        <v>47.3054924743414</v>
+        <v>47.3055019637203</v>
       </c>
       <c r="E47">
-        <v>62.5740411305136</v>
+        <v>62.5732032759719</v>
       </c>
       <c r="F47">
-        <v>11.4449977722581</v>
+        <v>11.4443827887195</v>
       </c>
       <c r="G47">
-        <v>26.3806067326375</v>
+        <v>26.3805561781408</v>
       </c>
       <c r="H47">
-        <v>15.4217340114558</v>
+        <v>15.4215196051537</v>
       </c>
       <c r="I47">
-        <v>10.3128835949533</v>
+        <v>10.3128853204307</v>
       </c>
       <c r="J47">
-        <v>39.4658272234866</v>
+        <v>39.4656616109599</v>
       </c>
       <c r="K47">
-        <v>22.6478795155255</v>
+        <v>22.6478742472157</v>
       </c>
       <c r="L47">
-        <v>43.657051896153</v>
+        <v>43.656830376421</v>
       </c>
       <c r="M47">
-        <v>70.2056005500439</v>
+        <v>70.2056064309073</v>
       </c>
       <c r="N47">
-        <v>43.4236557465642</v>
+        <v>43.4235383213477</v>
       </c>
       <c r="O47">
-        <v>2754.25903912131</v>
+        <v>2754.25910054009</v>
       </c>
       <c r="P47">
-        <v>35.2869524173522</v>
+        <v>35.2869806688637</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1469.12158318814</v>
+        <v>1469.12312075763</v>
       </c>
       <c r="C48">
-        <v>25.3464787837861</v>
+        <v>25.3465256151357</v>
       </c>
       <c r="D48">
-        <v>7.61429038514335</v>
+        <v>7.61429046516807</v>
       </c>
       <c r="E48">
-        <v>66.584125437056</v>
+        <v>66.58168188985719</v>
       </c>
       <c r="F48">
-        <v>4.76655576860542</v>
+        <v>4.76635917074361</v>
       </c>
       <c r="G48">
-        <v>5.0169960660059</v>
+        <v>5.0165231254999</v>
       </c>
       <c r="H48">
-        <v>3.64886636506535</v>
+        <v>3.64827018230617</v>
       </c>
       <c r="I48">
-        <v>8.47468418145491</v>
+        <v>8.47469231870422</v>
       </c>
       <c r="J48">
-        <v>34.3371621653517</v>
+        <v>34.3365856120706</v>
       </c>
       <c r="K48">
-        <v>17.074998922847</v>
+        <v>17.0749989048136</v>
       </c>
       <c r="L48">
-        <v>41.9464872655034</v>
+        <v>41.9457500761473</v>
       </c>
       <c r="M48">
-        <v>114.956296851147</v>
+        <v>114.956246182552</v>
       </c>
       <c r="N48">
-        <v>27.793912783906</v>
+        <v>27.7935186199516</v>
       </c>
       <c r="O48">
-        <v>2225.57811932109</v>
+        <v>2225.57932765555</v>
       </c>
       <c r="P48">
-        <v>93.204233504125</v>
+        <v>93.20426647562481</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>660.515127768222</v>
+        <v>660.515144563807</v>
       </c>
       <c r="C49">
-        <v>7.58690899792375</v>
+        <v>7.58691004141569</v>
       </c>
       <c r="D49">
-        <v>4.13182752607406</v>
+        <v>4.1318227620652</v>
       </c>
       <c r="E49">
-        <v>18.1157567568846</v>
+        <v>18.1157554347725</v>
       </c>
       <c r="F49">
-        <v>28.008896470946</v>
+        <v>28.0087760231149</v>
       </c>
       <c r="G49">
-        <v>16.4266589465041</v>
+        <v>16.4266500114182</v>
       </c>
       <c r="H49">
-        <v>5.56308238500632</v>
+        <v>5.56304927056972</v>
       </c>
       <c r="I49">
-        <v>7.54910033938319</v>
+        <v>7.54909704302458</v>
       </c>
       <c r="J49">
-        <v>21.520250622001</v>
+        <v>21.5202030108678</v>
       </c>
       <c r="K49">
-        <v>5.40139884858073</v>
+        <v>5.40139801129519</v>
       </c>
       <c r="L49">
-        <v>1.75326372514177</v>
+        <v>1.75325909105398</v>
       </c>
       <c r="M49">
-        <v>7.81112656866112</v>
+        <v>7.81112531894995</v>
       </c>
       <c r="N49">
-        <v>5.30074592045441</v>
+        <v>5.3007286938365</v>
       </c>
       <c r="O49">
-        <v>587.831903005873</v>
+        <v>587.831922999155</v>
       </c>
       <c r="P49">
-        <v>7.31259458671843</v>
+        <v>7.31259444922585</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1132.99957684734</v>
+        <v>1132.99988077849</v>
       </c>
       <c r="C50">
-        <v>77.1328218015319</v>
+        <v>77.1328243414448</v>
       </c>
       <c r="D50">
-        <v>18.0704750844136</v>
+        <v>18.0704783495531</v>
       </c>
       <c r="E50">
-        <v>137.792379094954</v>
+        <v>137.792285149902</v>
       </c>
       <c r="F50">
-        <v>2.15834090656092</v>
+        <v>2.15829590151232</v>
       </c>
       <c r="G50">
-        <v>22.9432707016781</v>
+        <v>22.9432396953124</v>
       </c>
       <c r="H50">
-        <v>40.7095854385444</v>
+        <v>40.7094121581269</v>
       </c>
       <c r="I50">
-        <v>14.6746185460676</v>
+        <v>14.6745856023666</v>
       </c>
       <c r="J50">
-        <v>113.015678352444</v>
+        <v>113.015514700283</v>
       </c>
       <c r="K50">
-        <v>101.298205487513</v>
+        <v>101.298177342003</v>
       </c>
       <c r="L50">
-        <v>63.1194138669849</v>
+        <v>63.119287185257</v>
       </c>
       <c r="M50">
-        <v>40.5472441434389</v>
+        <v>40.547236883801</v>
       </c>
       <c r="N50">
-        <v>52.2481771587366</v>
+        <v>52.24808297982</v>
       </c>
       <c r="O50">
-        <v>1875.94971018602</v>
+        <v>1875.95020951634</v>
       </c>
       <c r="P50">
-        <v>105.695619094241</v>
+        <v>105.695652514391</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>124.966384925742</v>
+        <v>124.966464036288</v>
       </c>
       <c r="C51">
-        <v>1.68517291244775</v>
+        <v>1.68517441893392</v>
       </c>
       <c r="D51">
-        <v>0.222716129514851</v>
+        <v>0.222716770289484</v>
       </c>
       <c r="E51">
-        <v>1.99494338870828</v>
+        <v>1.99489047945216</v>
       </c>
       <c r="F51">
-        <v>27.1139219644915</v>
+        <v>27.1137393738931</v>
       </c>
       <c r="G51">
-        <v>2.25023526151649</v>
+        <v>2.25023541345408</v>
       </c>
       <c r="H51">
-        <v>0.0508183251001173</v>
+        <v>0.050803367554304</v>
       </c>
       <c r="I51">
-        <v>0.954848268542474</v>
+        <v>0.954848006646573</v>
       </c>
       <c r="J51">
-        <v>1.07501006518875</v>
+        <v>1.07498176999555</v>
       </c>
       <c r="K51">
-        <v>1.11108431048865</v>
+        <v>1.1110537204765</v>
       </c>
       <c r="L51">
-        <v>0.52851440719539</v>
+        <v>0.528501144957229</v>
       </c>
       <c r="M51">
-        <v>0.526100962656064</v>
+        <v>0.526099665435965</v>
       </c>
       <c r="N51">
-        <v>1.84680932193708</v>
+        <v>1.84679135167564</v>
       </c>
       <c r="O51">
-        <v>218.93804134408</v>
+        <v>218.938100033748</v>
       </c>
       <c r="P51">
-        <v>18.4651292908163</v>
+        <v>18.4651452475546</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1344.33263256283</v>
+        <v>1333.79361029995</v>
       </c>
       <c r="C2">
-        <v>35.1339250339931</v>
+        <v>33.6761436145414</v>
       </c>
       <c r="D2">
-        <v>63.0254444635643</v>
+        <v>63.9351176510746</v>
       </c>
       <c r="E2">
-        <v>65.9360819867654</v>
+        <v>64.9200099128764</v>
       </c>
       <c r="F2">
-        <v>16.430072603089</v>
+        <v>17.6130928935612</v>
       </c>
       <c r="G2">
-        <v>18.5894840224832</v>
+        <v>16.4092326205189</v>
       </c>
       <c r="H2">
-        <v>25.2962329803375</v>
+        <v>24.9739442484919</v>
       </c>
       <c r="I2">
-        <v>10.5324433124498</v>
+        <v>13.2020211023101</v>
       </c>
       <c r="J2">
-        <v>61.2116087391836</v>
+        <v>64.52349564110359</v>
       </c>
       <c r="K2">
-        <v>20.2846107542011</v>
+        <v>17.8422205860165</v>
       </c>
       <c r="L2">
-        <v>37.7055133110207</v>
+        <v>36.0545258635785</v>
       </c>
       <c r="M2">
-        <v>42.9503756900867</v>
+        <v>43.7525193152748</v>
       </c>
       <c r="N2">
-        <v>25.0196000058761</v>
+        <v>26.3462840249787</v>
       </c>
       <c r="O2">
-        <v>1356.88410560997</v>
+        <v>1369.2008860107</v>
       </c>
       <c r="P2">
-        <v>27.1696916351591</v>
+        <v>28.837200425398</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>152.674443722393</v>
+        <v>148.578881190958</v>
       </c>
       <c r="C3">
-        <v>3.91338420528093</v>
+        <v>4.84005490666299</v>
       </c>
       <c r="D3">
-        <v>0.289319079390838</v>
+        <v>0.301372581207245</v>
       </c>
       <c r="E3">
-        <v>1.41344736364561</v>
+        <v>1.52938535804852</v>
       </c>
       <c r="F3">
-        <v>10.8840509691754</v>
+        <v>10.0552006380898</v>
       </c>
       <c r="G3">
-        <v>0.475961396378845</v>
+        <v>0.40940673396198</v>
       </c>
       <c r="H3">
-        <v>0.0297511330137385</v>
+        <v>0.0751080905123976</v>
       </c>
       <c r="I3">
-        <v>0.5036987181927271</v>
+        <v>0.627720465107352</v>
       </c>
       <c r="J3">
-        <v>0.689057514191962</v>
+        <v>0.670059828126649</v>
       </c>
       <c r="K3">
-        <v>0.274326143749143</v>
+        <v>0.213481402971096</v>
       </c>
       <c r="L3">
-        <v>0.334833990878174</v>
+        <v>0.40615955832841</v>
       </c>
       <c r="M3">
-        <v>0.855021945462604</v>
+        <v>0.790779247381417</v>
       </c>
       <c r="N3">
-        <v>1.80130762993922</v>
+        <v>1.35055436749293</v>
       </c>
       <c r="O3">
-        <v>273.691812741333</v>
+        <v>272.168772161462</v>
       </c>
       <c r="P3">
-        <v>12.7181819394848</v>
+        <v>12.9551487704209</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1386.31575217693</v>
+        <v>1396.91316463229</v>
       </c>
       <c r="C4">
-        <v>10.3794031949276</v>
+        <v>10.9532201366247</v>
       </c>
       <c r="D4">
-        <v>2.7753187355581</v>
+        <v>2.71494292555779</v>
       </c>
       <c r="E4">
-        <v>22.531618665228</v>
+        <v>24.5951651660928</v>
       </c>
       <c r="F4">
-        <v>17.9189921745275</v>
+        <v>12.8478851699286</v>
       </c>
       <c r="G4">
-        <v>9.06092651688283</v>
+        <v>8.80241396922356</v>
       </c>
       <c r="H4">
-        <v>9.51622884182636</v>
+        <v>8.392235503821221</v>
       </c>
       <c r="I4">
-        <v>11.3007010067497</v>
+        <v>10.1340573950178</v>
       </c>
       <c r="J4">
-        <v>22.9623794467756</v>
+        <v>24.0747483426364</v>
       </c>
       <c r="K4">
-        <v>7.78073497655719</v>
+        <v>5.88906483766815</v>
       </c>
       <c r="L4">
-        <v>69.7300171993185</v>
+        <v>71.5406930161128</v>
       </c>
       <c r="M4">
-        <v>46.4052707199244</v>
+        <v>50.5952652799528</v>
       </c>
       <c r="N4">
-        <v>34.541123235854</v>
+        <v>32.1343510682858</v>
       </c>
       <c r="O4">
-        <v>1913.72197912891</v>
+        <v>1911.09389747621</v>
       </c>
       <c r="P4">
-        <v>26.6793544587188</v>
+        <v>27.0561818622165</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>760.721802634689</v>
+        <v>751.806651778625</v>
       </c>
       <c r="C5">
-        <v>55.6326375133014</v>
+        <v>54.1005977512698</v>
       </c>
       <c r="D5">
-        <v>12.3891949850104</v>
+        <v>12.5903180907745</v>
       </c>
       <c r="E5">
-        <v>33.7945264456311</v>
+        <v>41.9998123864164</v>
       </c>
       <c r="F5">
-        <v>4.14882346392625</v>
+        <v>4.90446301478457</v>
       </c>
       <c r="G5">
-        <v>7.21663982762079</v>
+        <v>7.47782848653931</v>
       </c>
       <c r="H5">
-        <v>12.6762810386161</v>
+        <v>12.6450380750078</v>
       </c>
       <c r="I5">
-        <v>8.32262993902499</v>
+        <v>8.208201272603279</v>
       </c>
       <c r="J5">
-        <v>30.221172153021</v>
+        <v>30.1875208059297</v>
       </c>
       <c r="K5">
-        <v>20.4519833852705</v>
+        <v>18.9081330996604</v>
       </c>
       <c r="L5">
-        <v>23.6958068110963</v>
+        <v>23.6024639573721</v>
       </c>
       <c r="M5">
-        <v>25.9443248679587</v>
+        <v>24.7717250338514</v>
       </c>
       <c r="N5">
-        <v>23.4109775544796</v>
+        <v>24.4503362936838</v>
       </c>
       <c r="O5">
-        <v>830.86848203429</v>
+        <v>829.771185321815</v>
       </c>
       <c r="P5">
-        <v>56.1490457407642</v>
+        <v>57.2600566038294</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8811.605451108169</v>
+        <v>8812.92487534797</v>
       </c>
       <c r="C6">
-        <v>183.711143837485</v>
+        <v>191.49246703029</v>
       </c>
       <c r="D6">
-        <v>203.810555567946</v>
+        <v>185.9942069423</v>
       </c>
       <c r="E6">
-        <v>154.074617104805</v>
+        <v>156.846950102652</v>
       </c>
       <c r="F6">
-        <v>41.4215018612111</v>
+        <v>49.3304179031285</v>
       </c>
       <c r="G6">
-        <v>89.0046135996888</v>
+        <v>100.002198771345</v>
       </c>
       <c r="H6">
-        <v>78.458278324924</v>
+        <v>77.0120541917745</v>
       </c>
       <c r="I6">
-        <v>42.4341140877824</v>
+        <v>47.9361631688167</v>
       </c>
       <c r="J6">
-        <v>176.029748945082</v>
+        <v>187.043116031716</v>
       </c>
       <c r="K6">
-        <v>122.24200321135</v>
+        <v>109.056490843412</v>
       </c>
       <c r="L6">
-        <v>530.67581885858</v>
+        <v>531.03133557503</v>
       </c>
       <c r="M6">
-        <v>261.984756937899</v>
+        <v>260.593115933704</v>
       </c>
       <c r="N6">
-        <v>282.705067511548</v>
+        <v>280.258814136267</v>
       </c>
       <c r="O6">
-        <v>11944.73897878</v>
+        <v>11946.1812344356</v>
       </c>
       <c r="P6">
-        <v>309.985072704802</v>
+        <v>315.21449682613</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>905.117798465286</v>
+        <v>888.9933331024459</v>
       </c>
       <c r="C7">
-        <v>30.9080266128143</v>
+        <v>32.5078342321576</v>
       </c>
       <c r="D7">
-        <v>3.40753937719624</v>
+        <v>2.79972888007259</v>
       </c>
       <c r="E7">
-        <v>14.855998213103</v>
+        <v>19.5894883819737</v>
       </c>
       <c r="F7">
-        <v>15.4441558347562</v>
+        <v>16.0866674709981</v>
       </c>
       <c r="G7">
-        <v>7.19058077928225</v>
+        <v>7.7101727222443</v>
       </c>
       <c r="H7">
-        <v>6.18516196405673</v>
+        <v>6.49798511677629</v>
       </c>
       <c r="I7">
-        <v>9.918152346771629</v>
+        <v>10.2970508267628</v>
       </c>
       <c r="J7">
-        <v>20.0153535686161</v>
+        <v>18.6796296666749</v>
       </c>
       <c r="K7">
-        <v>18.7976903896964</v>
+        <v>14.512638507854</v>
       </c>
       <c r="L7">
-        <v>54.8010311738256</v>
+        <v>57.8169899035174</v>
       </c>
       <c r="M7">
-        <v>18.2525492225702</v>
+        <v>19.1000706372875</v>
       </c>
       <c r="N7">
-        <v>27.2046604081911</v>
+        <v>29.7292726652531</v>
       </c>
       <c r="O7">
-        <v>1839.36565182639</v>
+        <v>1830.44593613044</v>
       </c>
       <c r="P7">
-        <v>33.2592884585016</v>
+        <v>41.2759554186788</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>770.604197949158</v>
+        <v>771.190747955529</v>
       </c>
       <c r="C8">
-        <v>12.045680436993</v>
+        <v>13.0863544645543</v>
       </c>
       <c r="D8">
-        <v>9.943887310002269</v>
+        <v>7.27114385777505</v>
       </c>
       <c r="E8">
-        <v>16.9051342364519</v>
+        <v>19.1036041416692</v>
       </c>
       <c r="F8">
-        <v>2.93124908498923</v>
+        <v>2.98191880900119</v>
       </c>
       <c r="G8">
-        <v>26.0856148265929</v>
+        <v>28.484979206858</v>
       </c>
       <c r="H8">
-        <v>9.675224736733769</v>
+        <v>10.9342307930065</v>
       </c>
       <c r="I8">
-        <v>5.7100674759627</v>
+        <v>4.33140675251929</v>
       </c>
       <c r="J8">
-        <v>45.5157607199636</v>
+        <v>40.29574843129</v>
       </c>
       <c r="K8">
-        <v>28.0918038675902</v>
+        <v>24.6094180523624</v>
       </c>
       <c r="L8">
-        <v>39.9451663354361</v>
+        <v>46.7519683419835</v>
       </c>
       <c r="M8">
-        <v>49.0337548251021</v>
+        <v>50.5062044732064</v>
       </c>
       <c r="N8">
-        <v>29.8055538028728</v>
+        <v>27.0897641645497</v>
       </c>
       <c r="O8">
-        <v>1350.14291847973</v>
+        <v>1338.71774017818</v>
       </c>
       <c r="P8">
-        <v>4.73320207851366</v>
+        <v>5.92766745924968</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>199.901128183227</v>
+        <v>204.065684634669</v>
       </c>
       <c r="C9">
-        <v>7.93527407424284</v>
+        <v>8.088983449669049</v>
       </c>
       <c r="D9">
-        <v>1.9028191837135</v>
+        <v>1.95244533919847</v>
       </c>
       <c r="E9">
-        <v>4.65675071496106</v>
+        <v>5.33669213690251</v>
       </c>
       <c r="F9">
-        <v>1.99099479021019</v>
+        <v>1.82663894892029</v>
       </c>
       <c r="G9">
-        <v>21.2690896967146</v>
+        <v>20.1785631876535</v>
       </c>
       <c r="H9">
-        <v>4.27679599251865</v>
+        <v>3.86072302589887</v>
       </c>
       <c r="I9">
-        <v>1.19647209330133</v>
+        <v>1.0772036652463</v>
       </c>
       <c r="J9">
-        <v>3.14274174549835</v>
+        <v>4.07886394550154</v>
       </c>
       <c r="K9">
-        <v>3.30810137223072</v>
+        <v>2.27012384606805</v>
       </c>
       <c r="L9">
-        <v>2.85102289167777</v>
+        <v>2.59009268522119</v>
       </c>
       <c r="M9">
-        <v>8.69400708619464</v>
+        <v>7.98886261430177</v>
       </c>
       <c r="N9">
-        <v>5.37193591117796</v>
+        <v>5.01019328315623</v>
       </c>
       <c r="O9">
-        <v>322.349146037882</v>
+        <v>325.534005815295</v>
       </c>
       <c r="P9">
-        <v>4.966731262672</v>
+        <v>5.10661322543879</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4749.17455199315</v>
+        <v>4726.23507024701</v>
       </c>
       <c r="C10">
-        <v>60.787245510755</v>
+        <v>60.153752738997</v>
       </c>
       <c r="D10">
-        <v>36.059454415211</v>
+        <v>32.9623102325311</v>
       </c>
       <c r="E10">
-        <v>53.7995741055117</v>
+        <v>60.5187495860208</v>
       </c>
       <c r="F10">
-        <v>10.6535777101932</v>
+        <v>10.9753363467224</v>
       </c>
       <c r="G10">
-        <v>30.0792290838872</v>
+        <v>31.4604870323787</v>
       </c>
       <c r="H10">
-        <v>18.2128164809472</v>
+        <v>21.4099739621214</v>
       </c>
       <c r="I10">
-        <v>36.8422311276518</v>
+        <v>34.725333382588</v>
       </c>
       <c r="J10">
-        <v>55.7285398639131</v>
+        <v>53.0959234363523</v>
       </c>
       <c r="K10">
-        <v>37.3047744037258</v>
+        <v>30.7675730470718</v>
       </c>
       <c r="L10">
-        <v>93.2270986002946</v>
+        <v>98.92991317894661</v>
       </c>
       <c r="M10">
-        <v>79.63568717324191</v>
+        <v>76.5615504818077</v>
       </c>
       <c r="N10">
-        <v>91.7431902548681</v>
+        <v>83.5202737840832</v>
       </c>
       <c r="O10">
-        <v>6291.42517938706</v>
+        <v>6349.67677390714</v>
       </c>
       <c r="P10">
-        <v>104.754900624242</v>
+        <v>97.311212497337</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1973.81555753205</v>
+        <v>1974.70742432861</v>
       </c>
       <c r="C11">
-        <v>75.76254595637739</v>
+        <v>75.34299759847841</v>
       </c>
       <c r="D11">
-        <v>161.975463469304</v>
+        <v>150.938472700724</v>
       </c>
       <c r="E11">
-        <v>76.7552391315743</v>
+        <v>88.3459042433845</v>
       </c>
       <c r="F11">
-        <v>8.11764749502815</v>
+        <v>8.852710917135029</v>
       </c>
       <c r="G11">
-        <v>27.6225400484256</v>
+        <v>30.7714586299174</v>
       </c>
       <c r="H11">
-        <v>23.6678311667888</v>
+        <v>19.1450008185258</v>
       </c>
       <c r="I11">
-        <v>21.8441809303778</v>
+        <v>17.5518452360869</v>
       </c>
       <c r="J11">
-        <v>49.65726115988</v>
+        <v>51.9290276675214</v>
       </c>
       <c r="K11">
-        <v>38.3649088899524</v>
+        <v>32.8917910368837</v>
       </c>
       <c r="L11">
-        <v>64.7147469779527</v>
+        <v>65.99067912155169</v>
       </c>
       <c r="M11">
-        <v>50.0934135021603</v>
+        <v>58.4115004181113</v>
       </c>
       <c r="N11">
-        <v>41.5317942529788</v>
+        <v>51.1283331756074</v>
       </c>
       <c r="O11">
-        <v>2993.80356010218</v>
+        <v>2987.2681663889</v>
       </c>
       <c r="P11">
-        <v>56.5637481628403</v>
+        <v>57.6555281830393</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>319.471595567488</v>
+        <v>321.05132533438</v>
       </c>
       <c r="C12">
-        <v>7.20095723446576</v>
+        <v>7.68972808803846</v>
       </c>
       <c r="D12">
-        <v>1.65423071669692</v>
+        <v>1.24593456462662</v>
       </c>
       <c r="E12">
-        <v>1.06068052670626</v>
+        <v>3.2874112491643</v>
       </c>
       <c r="F12">
-        <v>0.679763236322892</v>
+        <v>0.796364845933869</v>
       </c>
       <c r="G12">
-        <v>0.20480024340654</v>
+        <v>0.201445551667654</v>
       </c>
       <c r="H12">
-        <v>0.117029628506542</v>
+        <v>0.1451510488451</v>
       </c>
       <c r="I12">
-        <v>1.02515594861148</v>
+        <v>1.25574475286188</v>
       </c>
       <c r="J12">
-        <v>1.72336143481048</v>
+        <v>1.62313983276308</v>
       </c>
       <c r="K12">
-        <v>0.294091452569039</v>
+        <v>0.183484486295575</v>
       </c>
       <c r="L12">
-        <v>0.06454144824730509</v>
+        <v>0.560272746827294</v>
       </c>
       <c r="M12">
-        <v>4.04262988218806</v>
+        <v>4.15067904018619</v>
       </c>
       <c r="N12">
-        <v>3.80971447358112</v>
+        <v>3.00002865104485</v>
       </c>
       <c r="O12">
-        <v>531.420887051775</v>
+        <v>526.155349407524</v>
       </c>
       <c r="P12">
-        <v>19.7758015975902</v>
+        <v>19.3973051710727</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>294.680665581406</v>
+        <v>298.178839363413</v>
       </c>
       <c r="C13">
-        <v>18.1750926338299</v>
+        <v>19.8456554460039</v>
       </c>
       <c r="D13">
-        <v>0.715857478492467</v>
+        <v>0.702955830384329</v>
       </c>
       <c r="E13">
-        <v>14.7169529939124</v>
+        <v>15.646343044071</v>
       </c>
       <c r="F13">
-        <v>3.05295858670394</v>
+        <v>3.58421075219125</v>
       </c>
       <c r="G13">
-        <v>6.28611641540784</v>
+        <v>5.40390330263387</v>
       </c>
       <c r="H13">
-        <v>1.75852218447786</v>
+        <v>1.98825238191674</v>
       </c>
       <c r="I13">
-        <v>1.14938748578847</v>
+        <v>1.26209600137598</v>
       </c>
       <c r="J13">
-        <v>5.638676374165</v>
+        <v>5.85982668140996</v>
       </c>
       <c r="K13">
-        <v>4.46079031338408</v>
+        <v>4.46709658438176</v>
       </c>
       <c r="L13">
-        <v>22.6755076026809</v>
+        <v>20.9360653201748</v>
       </c>
       <c r="M13">
-        <v>2.05401817313802</v>
+        <v>2.30148255220334</v>
       </c>
       <c r="N13">
-        <v>6.37470279889364</v>
+        <v>6.22648706301394</v>
       </c>
       <c r="O13">
-        <v>476.783143063263</v>
+        <v>473.435510504586</v>
       </c>
       <c r="P13">
-        <v>52.3019857561531</v>
+        <v>50.7835056206964</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2998.65469932179</v>
+        <v>2976.60381113562</v>
       </c>
       <c r="C14">
-        <v>115.54391737406</v>
+        <v>115.103832314471</v>
       </c>
       <c r="D14">
-        <v>16.6436112016608</v>
+        <v>17.9418310597484</v>
       </c>
       <c r="E14">
-        <v>86.5551967208315</v>
+        <v>94.24201883715131</v>
       </c>
       <c r="F14">
-        <v>23.3578906043925</v>
+        <v>23.1549979068768</v>
       </c>
       <c r="G14">
-        <v>94.39723685719009</v>
+        <v>89.5574866338317</v>
       </c>
       <c r="H14">
-        <v>51.3925597536759</v>
+        <v>56.9661003935889</v>
       </c>
       <c r="I14">
-        <v>28.0848422937355</v>
+        <v>27.1104256442535</v>
       </c>
       <c r="J14">
-        <v>162.193589158745</v>
+        <v>166.667376596622</v>
       </c>
       <c r="K14">
-        <v>164.053530599825</v>
+        <v>156.259363560789</v>
       </c>
       <c r="L14">
-        <v>140.314525169483</v>
+        <v>134.149871345432</v>
       </c>
       <c r="M14">
-        <v>89.618442924948</v>
+        <v>85.4444793414643</v>
       </c>
       <c r="N14">
-        <v>85.6411865433695</v>
+        <v>87.7449851117678</v>
       </c>
       <c r="O14">
-        <v>4520.25300497099</v>
+        <v>4540.65752370609</v>
       </c>
       <c r="P14">
-        <v>74.735392900478</v>
+        <v>73.6597678701344</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1428.10858657943</v>
+        <v>1416.43913323099</v>
       </c>
       <c r="C15">
-        <v>34.3185578911153</v>
+        <v>35.2664234695976</v>
       </c>
       <c r="D15">
-        <v>13.2931398198284</v>
+        <v>12.7775701802738</v>
       </c>
       <c r="E15">
-        <v>61.1490376884405</v>
+        <v>66.96623973751051</v>
       </c>
       <c r="F15">
-        <v>15.2264883135503</v>
+        <v>15.5669400697901</v>
       </c>
       <c r="G15">
-        <v>37.9162883462885</v>
+        <v>42.2601487157497</v>
       </c>
       <c r="H15">
-        <v>59.2903479862244</v>
+        <v>55.3599566803324</v>
       </c>
       <c r="I15">
-        <v>26.8522504634495</v>
+        <v>26.8342234402015</v>
       </c>
       <c r="J15">
-        <v>149.192234867854</v>
+        <v>159.129790558882</v>
       </c>
       <c r="K15">
-        <v>65.39109135387569</v>
+        <v>52.3104177766806</v>
       </c>
       <c r="L15">
-        <v>51.2698290096427</v>
+        <v>51.016656242252</v>
       </c>
       <c r="M15">
-        <v>182.023767941822</v>
+        <v>190.306831782882</v>
       </c>
       <c r="N15">
-        <v>90.7101784474055</v>
+        <v>85.625542130209</v>
       </c>
       <c r="O15">
-        <v>2005.14890910995</v>
+        <v>2013.73809424337</v>
       </c>
       <c r="P15">
-        <v>45.9193955550627</v>
+        <v>44.5682908717506</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>601.213903300198</v>
+        <v>615.91811709231</v>
       </c>
       <c r="C16">
-        <v>59.3301413828549</v>
+        <v>63.5429161225806</v>
       </c>
       <c r="D16">
-        <v>6.92768101057886</v>
+        <v>6.0124117725367</v>
       </c>
       <c r="E16">
-        <v>19.8985541061556</v>
+        <v>24.4006921667136</v>
       </c>
       <c r="F16">
-        <v>3.61019335910096</v>
+        <v>3.56025076356444</v>
       </c>
       <c r="G16">
-        <v>16.1374483293264</v>
+        <v>14.8623523728424</v>
       </c>
       <c r="H16">
-        <v>14.9699378083959</v>
+        <v>15.4657434542512</v>
       </c>
       <c r="I16">
-        <v>10.0427874264865</v>
+        <v>8.5965419700221</v>
       </c>
       <c r="J16">
-        <v>41.1639587621178</v>
+        <v>45.6660804730084</v>
       </c>
       <c r="K16">
-        <v>53.3215516587422</v>
+        <v>45.7395391182908</v>
       </c>
       <c r="L16">
-        <v>30.8460884617694</v>
+        <v>33.3181688410953</v>
       </c>
       <c r="M16">
-        <v>27.8321548080504</v>
+        <v>29.3744295973852</v>
       </c>
       <c r="N16">
-        <v>23.6352765750887</v>
+        <v>24.2604299870356</v>
       </c>
       <c r="O16">
-        <v>1096.51707126168</v>
+        <v>1074.05915416267</v>
       </c>
       <c r="P16">
-        <v>87.8204106444129</v>
+        <v>86.4038819918013</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>585.9972918096941</v>
+        <v>583.6952574452801</v>
       </c>
       <c r="C17">
-        <v>26.7406325957151</v>
+        <v>26.994727833</v>
       </c>
       <c r="D17">
-        <v>2.61394921007954</v>
+        <v>3.73998058370452</v>
       </c>
       <c r="E17">
-        <v>15.5773307865981</v>
+        <v>18.5280863755027</v>
       </c>
       <c r="F17">
-        <v>13.3824609401305</v>
+        <v>13.1469040254691</v>
       </c>
       <c r="G17">
-        <v>6.99871344246457</v>
+        <v>8.00491653070991</v>
       </c>
       <c r="H17">
-        <v>10.0927093480244</v>
+        <v>9.92618530643041</v>
       </c>
       <c r="I17">
-        <v>7.43904644058319</v>
+        <v>8.298513760140009</v>
       </c>
       <c r="J17">
-        <v>14.0383925929002</v>
+        <v>17.8807276452837</v>
       </c>
       <c r="K17">
-        <v>18.0426126970108</v>
+        <v>15.603069000045</v>
       </c>
       <c r="L17">
-        <v>7.67303731180164</v>
+        <v>10.7440561090378</v>
       </c>
       <c r="M17">
-        <v>66.651118133699</v>
+        <v>66.38259153327699</v>
       </c>
       <c r="N17">
-        <v>14.3974302740213</v>
+        <v>17.0614132247791</v>
       </c>
       <c r="O17">
-        <v>1030.65447143096</v>
+        <v>1014.71269532407</v>
       </c>
       <c r="P17">
-        <v>60.9440161924855</v>
+        <v>64.5275605505512</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1183.90356107963</v>
+        <v>1183.68034904216</v>
       </c>
       <c r="C18">
-        <v>34.5920617307141</v>
+        <v>36.8246219531554</v>
       </c>
       <c r="D18">
-        <v>13.4256250318005</v>
+        <v>13.8679307837618</v>
       </c>
       <c r="E18">
-        <v>38.7649246463639</v>
+        <v>38.4446911456027</v>
       </c>
       <c r="F18">
-        <v>28.7794502655971</v>
+        <v>28.9373557406824</v>
       </c>
       <c r="G18">
-        <v>22.5496939416379</v>
+        <v>22.6400113340555</v>
       </c>
       <c r="H18">
-        <v>17.7604178906992</v>
+        <v>20.7338903879733</v>
       </c>
       <c r="I18">
-        <v>7.45696998981093</v>
+        <v>8.722163179211741</v>
       </c>
       <c r="J18">
-        <v>47.1187581700029</v>
+        <v>46.0803681041656</v>
       </c>
       <c r="K18">
-        <v>29.60242368607</v>
+        <v>26.6219353908912</v>
       </c>
       <c r="L18">
-        <v>31.6386487906672</v>
+        <v>35.4246198346092</v>
       </c>
       <c r="M18">
-        <v>68.4402478094611</v>
+        <v>68.3903903788538</v>
       </c>
       <c r="N18">
-        <v>21.4904446997013</v>
+        <v>20.8045683027921</v>
       </c>
       <c r="O18">
-        <v>1321.6216931135</v>
+        <v>1333.34075697501</v>
       </c>
       <c r="P18">
-        <v>52.7112145615994</v>
+        <v>45.2999929945375</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1282.09011192464</v>
+        <v>1294.02116486572</v>
       </c>
       <c r="C19">
-        <v>22.3723852989932</v>
+        <v>25.9588157261583</v>
       </c>
       <c r="D19">
-        <v>8.664670079563249</v>
+        <v>8.52960719107746</v>
       </c>
       <c r="E19">
-        <v>34.6529053571015</v>
+        <v>38.8147923787683</v>
       </c>
       <c r="F19">
-        <v>88.94910189203679</v>
+        <v>85.1615437363147</v>
       </c>
       <c r="G19">
-        <v>38.8341098318</v>
+        <v>40.8551569967702</v>
       </c>
       <c r="H19">
-        <v>6.34414093292186</v>
+        <v>6.07937762271008</v>
       </c>
       <c r="I19">
-        <v>2.70219329599187</v>
+        <v>5.75455043947709</v>
       </c>
       <c r="J19">
-        <v>18.5778230028258</v>
+        <v>16.1498394445417</v>
       </c>
       <c r="K19">
-        <v>15.2529052725629</v>
+        <v>12.8089530902324</v>
       </c>
       <c r="L19">
-        <v>6.57785278995739</v>
+        <v>5.00489665637275</v>
       </c>
       <c r="M19">
-        <v>27.6819540863266</v>
+        <v>30.0389904083403</v>
       </c>
       <c r="N19">
-        <v>11.5827348838944</v>
+        <v>8.506273340908169</v>
       </c>
       <c r="O19">
-        <v>1500.16187384343</v>
+        <v>1485.4600692505</v>
       </c>
       <c r="P19">
-        <v>37.7003825997125</v>
+        <v>38.6589914575649</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>323.600106925951</v>
+        <v>322.423252315736</v>
       </c>
       <c r="C20">
-        <v>6.78939797973396</v>
+        <v>7.95206626229329</v>
       </c>
       <c r="D20">
-        <v>11.5653157124005</v>
+        <v>13.2571123091453</v>
       </c>
       <c r="E20">
-        <v>36.6216593156633</v>
+        <v>37.0214881282315</v>
       </c>
       <c r="F20">
-        <v>0.689631819044611</v>
+        <v>0.677850822451018</v>
       </c>
       <c r="G20">
-        <v>1.82717312695425</v>
+        <v>1.70739596935313</v>
       </c>
       <c r="H20">
-        <v>1.83146450835067</v>
+        <v>2.12934559434127</v>
       </c>
       <c r="I20">
-        <v>1.34647554424832</v>
+        <v>1.53879030932081</v>
       </c>
       <c r="J20">
-        <v>5.16797171320159</v>
+        <v>4.77854226447116</v>
       </c>
       <c r="K20">
-        <v>4.27866721735403</v>
+        <v>3.64750475417466</v>
       </c>
       <c r="L20">
-        <v>8.488459994034249</v>
+        <v>8.00820339935447</v>
       </c>
       <c r="M20">
-        <v>15.5237956634813</v>
+        <v>16.6525508737926</v>
       </c>
       <c r="N20">
-        <v>4.55685516925098</v>
+        <v>6.64169200059018</v>
       </c>
       <c r="O20">
-        <v>496.957739038051</v>
+        <v>494.473726726777</v>
       </c>
       <c r="P20">
-        <v>26.8896265791085</v>
+        <v>25.5349307305712</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1192.83661875768</v>
+        <v>1212.83453371358</v>
       </c>
       <c r="C21">
-        <v>23.976526626014</v>
+        <v>24.043229051655</v>
       </c>
       <c r="D21">
-        <v>8.69670052366261</v>
+        <v>7.9004250860386</v>
       </c>
       <c r="E21">
-        <v>31.0364174412316</v>
+        <v>28.7717684306444</v>
       </c>
       <c r="F21">
-        <v>5.03916778891772</v>
+        <v>4.9463659186753</v>
       </c>
       <c r="G21">
-        <v>22.5139688085744</v>
+        <v>22.7659184250792</v>
       </c>
       <c r="H21">
-        <v>4.78472297609802</v>
+        <v>5.72862599581104</v>
       </c>
       <c r="I21">
-        <v>7.90536127665268</v>
+        <v>7.61839615707956</v>
       </c>
       <c r="J21">
-        <v>28.3778668395247</v>
+        <v>29.5642197235618</v>
       </c>
       <c r="K21">
-        <v>9.149450623707679</v>
+        <v>5.97654800721768</v>
       </c>
       <c r="L21">
-        <v>20.7391487139488</v>
+        <v>29.10496489429</v>
       </c>
       <c r="M21">
-        <v>27.802761553416</v>
+        <v>30.5887134433573</v>
       </c>
       <c r="N21">
-        <v>27.6419053858632</v>
+        <v>24.4013978843367</v>
       </c>
       <c r="O21">
-        <v>2280.00328779452</v>
+        <v>2249.75974681229</v>
       </c>
       <c r="P21">
-        <v>17.4354121099791</v>
+        <v>21.1614193182213</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1479.72739961688</v>
+        <v>1462.51434807015</v>
       </c>
       <c r="C22">
-        <v>19.3120867457312</v>
+        <v>19.789881087743</v>
       </c>
       <c r="D22">
-        <v>25.7892772530894</v>
+        <v>24.9950265827936</v>
       </c>
       <c r="E22">
-        <v>41.9317662451606</v>
+        <v>44.7613966602178</v>
       </c>
       <c r="F22">
-        <v>2.78378725000773</v>
+        <v>2.60997695853575</v>
       </c>
       <c r="G22">
-        <v>29.1623554339588</v>
+        <v>29.8532901296631</v>
       </c>
       <c r="H22">
-        <v>21.5835524300485</v>
+        <v>19.7923362436379</v>
       </c>
       <c r="I22">
-        <v>8.529770439803601</v>
+        <v>8.43725836604137</v>
       </c>
       <c r="J22">
-        <v>49.1585918565522</v>
+        <v>47.5477585778436</v>
       </c>
       <c r="K22">
-        <v>34.3045042136795</v>
+        <v>29.5269678010033</v>
       </c>
       <c r="L22">
-        <v>125.386338365576</v>
+        <v>126.396282191749</v>
       </c>
       <c r="M22">
-        <v>14.8648510070809</v>
+        <v>17.3976049155013</v>
       </c>
       <c r="N22">
-        <v>72.0788725428755</v>
+        <v>69.784473548337</v>
       </c>
       <c r="O22">
-        <v>2536.80005209202</v>
+        <v>2555.87109887113</v>
       </c>
       <c r="P22">
-        <v>12.4165304394958</v>
+        <v>12.736832761912</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2540.04575170465</v>
+        <v>2528.88309304143</v>
       </c>
       <c r="C23">
-        <v>47.0782852506452</v>
+        <v>47.591605170856</v>
       </c>
       <c r="D23">
-        <v>11.148026880773</v>
+        <v>10.5164931858532</v>
       </c>
       <c r="E23">
-        <v>48.1858607360974</v>
+        <v>57.8031602114266</v>
       </c>
       <c r="F23">
-        <v>8.950356891220441</v>
+        <v>9.8342340375305</v>
       </c>
       <c r="G23">
-        <v>51.3102635911881</v>
+        <v>54.2709653711198</v>
       </c>
       <c r="H23">
-        <v>72.91218132076079</v>
+        <v>64.29246187707869</v>
       </c>
       <c r="I23">
-        <v>15.3648833125365</v>
+        <v>15.5033180669975</v>
       </c>
       <c r="J23">
-        <v>140.539687324212</v>
+        <v>145.030053604103</v>
       </c>
       <c r="K23">
-        <v>113.01690514033</v>
+        <v>109.895660220411</v>
       </c>
       <c r="L23">
-        <v>39.8414876230341</v>
+        <v>41.0044436328797</v>
       </c>
       <c r="M23">
-        <v>517.260453513219</v>
+        <v>533.0284502236281</v>
       </c>
       <c r="N23">
-        <v>73.2200086373602</v>
+        <v>80.0126201245324</v>
       </c>
       <c r="O23">
-        <v>3251.59651430634</v>
+        <v>3229.71491001304</v>
       </c>
       <c r="P23">
-        <v>58.5968975471666</v>
+        <v>60.8717472401696</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>974.843702522258</v>
+        <v>958.74885514314</v>
       </c>
       <c r="C24">
-        <v>58.7540458295077</v>
+        <v>62.6460982539441</v>
       </c>
       <c r="D24">
-        <v>9.320127154578939</v>
+        <v>8.49761802334123</v>
       </c>
       <c r="E24">
-        <v>61.5354116360797</v>
+        <v>62.9307616824014</v>
       </c>
       <c r="F24">
-        <v>11.9133127577712</v>
+        <v>12.2723170336306</v>
       </c>
       <c r="G24">
-        <v>25.4680467729609</v>
+        <v>24.8729138158167</v>
       </c>
       <c r="H24">
-        <v>14.0906593575267</v>
+        <v>18.351198397249</v>
       </c>
       <c r="I24">
-        <v>19.3863863717762</v>
+        <v>18.4003153901567</v>
       </c>
       <c r="J24">
-        <v>47.1836351726594</v>
+        <v>51.5600350097193</v>
       </c>
       <c r="K24">
-        <v>64.5561174098261</v>
+        <v>57.7944403363311</v>
       </c>
       <c r="L24">
-        <v>61.5782937729579</v>
+        <v>66.94275803209349</v>
       </c>
       <c r="M24">
-        <v>32.0128668078889</v>
+        <v>33.9019333226105</v>
       </c>
       <c r="N24">
-        <v>63.712408492258</v>
+        <v>65.2018707939155</v>
       </c>
       <c r="O24">
-        <v>1881.62750559392</v>
+        <v>1879.50021359347</v>
       </c>
       <c r="P24">
-        <v>109.76716011359</v>
+        <v>112.210448363123</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>823.300036486989</v>
+        <v>832.127092657651</v>
       </c>
       <c r="C25">
-        <v>37.7585953689879</v>
+        <v>35.5915545512409</v>
       </c>
       <c r="D25">
-        <v>20.3901770631326</v>
+        <v>18.5390397014503</v>
       </c>
       <c r="E25">
-        <v>39.4913984522502</v>
+        <v>39.9859865013929</v>
       </c>
       <c r="F25">
-        <v>15.6860237766197</v>
+        <v>15.0924728322197</v>
       </c>
       <c r="G25">
-        <v>6.10691206524462</v>
+        <v>8.13836924089251</v>
       </c>
       <c r="H25">
-        <v>13.8701240138655</v>
+        <v>13.9405209845092</v>
       </c>
       <c r="I25">
-        <v>7.05989603120171</v>
+        <v>5.71693420391599</v>
       </c>
       <c r="J25">
-        <v>18.2638905037611</v>
+        <v>17.9771302507303</v>
       </c>
       <c r="K25">
-        <v>18.001607325215</v>
+        <v>16.5302542660864</v>
       </c>
       <c r="L25">
-        <v>20.4277098430344</v>
+        <v>20.1274233812151</v>
       </c>
       <c r="M25">
-        <v>31.184047163194</v>
+        <v>31.0562579852318</v>
       </c>
       <c r="N25">
-        <v>46.9193248496706</v>
+        <v>44.5277258280414</v>
       </c>
       <c r="O25">
-        <v>866.456525484006</v>
+        <v>859.605881437539</v>
       </c>
       <c r="P25">
-        <v>43.7614537662503</v>
+        <v>42.0831029159943</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1313.03591654572</v>
+        <v>1326.73228477522</v>
       </c>
       <c r="C26">
-        <v>62.070597750805</v>
+        <v>68.0212291759469</v>
       </c>
       <c r="D26">
-        <v>21.7325171213534</v>
+        <v>18.9331596166737</v>
       </c>
       <c r="E26">
-        <v>45.9208841709887</v>
+        <v>52.5312479761221</v>
       </c>
       <c r="F26">
-        <v>9.779347452869789</v>
+        <v>12.1473527571528</v>
       </c>
       <c r="G26">
-        <v>29.5662294809273</v>
+        <v>29.9067134521897</v>
       </c>
       <c r="H26">
-        <v>22.6759014188356</v>
+        <v>20.6848044652498</v>
       </c>
       <c r="I26">
-        <v>18.126008963917</v>
+        <v>17.8084793235869</v>
       </c>
       <c r="J26">
-        <v>71.1574557276918</v>
+        <v>60.493740408708</v>
       </c>
       <c r="K26">
-        <v>38.3961860065248</v>
+        <v>33.2782863696766</v>
       </c>
       <c r="L26">
-        <v>35.3324758182527</v>
+        <v>37.6894837045722</v>
       </c>
       <c r="M26">
-        <v>78.37482100956051</v>
+        <v>79.7462787066334</v>
       </c>
       <c r="N26">
-        <v>38.0402548062958</v>
+        <v>34.1040861666716</v>
       </c>
       <c r="O26">
-        <v>2055.33653792768</v>
+        <v>2053.19498778899</v>
       </c>
       <c r="P26">
-        <v>79.0259605720713</v>
+        <v>76.50521673521649</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>236.304350313716</v>
+        <v>236.026911401682</v>
       </c>
       <c r="C27">
-        <v>3.27523565689037</v>
+        <v>3.05497333081351</v>
       </c>
       <c r="D27">
-        <v>1.10080313508139</v>
+        <v>0.861362499596017</v>
       </c>
       <c r="E27">
-        <v>10.0298297332504</v>
+        <v>10.7075811491792</v>
       </c>
       <c r="F27">
-        <v>6.56678684284885</v>
+        <v>6.69360670202655</v>
       </c>
       <c r="G27">
-        <v>1.04288633505899</v>
+        <v>0.844347559153338</v>
       </c>
       <c r="H27">
-        <v>0.329107620921046</v>
+        <v>0.316778732251854</v>
       </c>
       <c r="I27">
-        <v>2.51584570512011</v>
+        <v>1.9862050461629</v>
       </c>
       <c r="J27">
-        <v>2.94031069451324</v>
+        <v>3.87362092801226</v>
       </c>
       <c r="K27">
-        <v>2.39565810069503</v>
+        <v>1.58908941421946</v>
       </c>
       <c r="L27">
-        <v>1.3002416845557</v>
+        <v>1.40526316604728</v>
       </c>
       <c r="M27">
-        <v>0.764167008021561</v>
+        <v>0.760329366616365</v>
       </c>
       <c r="N27">
-        <v>4.35959000727849</v>
+        <v>4.0200735136214</v>
       </c>
       <c r="O27">
-        <v>360.320962252459</v>
+        <v>355.709773893087</v>
       </c>
       <c r="P27">
-        <v>46.8478305334432</v>
+        <v>46.1190097870855</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>343.949851067952</v>
+        <v>338.868404475024</v>
       </c>
       <c r="C28">
-        <v>34.9120416699045</v>
+        <v>35.2717670383883</v>
       </c>
       <c r="D28">
-        <v>3.84119195469625</v>
+        <v>3.46481460475275</v>
       </c>
       <c r="E28">
-        <v>7.95443280392143</v>
+        <v>6.93457130143873</v>
       </c>
       <c r="F28">
-        <v>1.91010860406469</v>
+        <v>2.61031087179445</v>
       </c>
       <c r="G28">
-        <v>4.39381011413188</v>
+        <v>4.86230914301105</v>
       </c>
       <c r="H28">
-        <v>8.4579568754761</v>
+        <v>7.78758451573117</v>
       </c>
       <c r="I28">
-        <v>3.10472649909989</v>
+        <v>3.48778648612115</v>
       </c>
       <c r="J28">
-        <v>14.0103799697631</v>
+        <v>16.6801567008821</v>
       </c>
       <c r="K28">
-        <v>15.9666632125461</v>
+        <v>15.0320410389942</v>
       </c>
       <c r="L28">
-        <v>16.0288426628821</v>
+        <v>16.597285932695</v>
       </c>
       <c r="M28">
-        <v>7.7347415181753</v>
+        <v>10.056786926519</v>
       </c>
       <c r="N28">
-        <v>11.6279265995885</v>
+        <v>9.72744700754393</v>
       </c>
       <c r="O28">
-        <v>655.318496086215</v>
+        <v>661.155201871184</v>
       </c>
       <c r="P28">
-        <v>88.88919047937</v>
+        <v>88.9328180490746</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>508.017466808214</v>
+        <v>510.310774356864</v>
       </c>
       <c r="C29">
-        <v>3.11915804372907</v>
+        <v>4.74059466188088</v>
       </c>
       <c r="D29">
-        <v>2.68616111636879</v>
+        <v>2.11827599451315</v>
       </c>
       <c r="E29">
-        <v>4.91560754258094</v>
+        <v>5.30900520749244</v>
       </c>
       <c r="F29">
-        <v>19.9048719694054</v>
+        <v>18.6973871521461</v>
       </c>
       <c r="G29">
-        <v>1.37412602332958</v>
+        <v>2.331464623874</v>
       </c>
       <c r="H29">
-        <v>2.90045183255101</v>
+        <v>2.80742366012429</v>
       </c>
       <c r="I29">
-        <v>2.95830636739516</v>
+        <v>3.28663335286753</v>
       </c>
       <c r="J29">
-        <v>6.2155870107968</v>
+        <v>5.30362377534426</v>
       </c>
       <c r="K29">
-        <v>3.90696186591389</v>
+        <v>3.01431079234625</v>
       </c>
       <c r="L29">
-        <v>2.96641508361944</v>
+        <v>3.45402681898824</v>
       </c>
       <c r="M29">
-        <v>2.77148601024568</v>
+        <v>2.22319057999489</v>
       </c>
       <c r="N29">
-        <v>10.5251375493342</v>
+        <v>11.5742517071448</v>
       </c>
       <c r="O29">
-        <v>885.308267642916</v>
+        <v>881.390630303905</v>
       </c>
       <c r="P29">
-        <v>6.57744523921619</v>
+        <v>6.3124249144251</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>262.752982788703</v>
+        <v>256.420987191323</v>
       </c>
       <c r="C30">
-        <v>4.51067958745409</v>
+        <v>3.8193747797859</v>
       </c>
       <c r="D30">
-        <v>7.73460172229697</v>
+        <v>6.27242573923333</v>
       </c>
       <c r="E30">
-        <v>14.2633535985007</v>
+        <v>17.1803909756765</v>
       </c>
       <c r="F30">
-        <v>1.41680463704812</v>
+        <v>0.941629988403809</v>
       </c>
       <c r="G30">
-        <v>3.54931879657439</v>
+        <v>4.1275559505935</v>
       </c>
       <c r="H30">
-        <v>5.44942789764151</v>
+        <v>5.16008581865475</v>
       </c>
       <c r="I30">
-        <v>3.75802444491546</v>
+        <v>3.08851327990416</v>
       </c>
       <c r="J30">
-        <v>17.1119924850783</v>
+        <v>17.7123149177891</v>
       </c>
       <c r="K30">
-        <v>12.346639697608</v>
+        <v>10.3956878296465</v>
       </c>
       <c r="L30">
-        <v>33.7670722490019</v>
+        <v>37.2417725020306</v>
       </c>
       <c r="M30">
-        <v>8.92884880312331</v>
+        <v>10.7492158017552</v>
       </c>
       <c r="N30">
-        <v>14.9049264180842</v>
+        <v>13.9970591402033</v>
       </c>
       <c r="O30">
-        <v>503.84029073088</v>
+        <v>509.805670853519</v>
       </c>
       <c r="P30">
-        <v>8.090220435937431</v>
+        <v>8.99120427107629</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2082.49927176814</v>
+        <v>2090.21479413348</v>
       </c>
       <c r="C31">
-        <v>41.5821291719665</v>
+        <v>45.0357594992038</v>
       </c>
       <c r="D31">
-        <v>47.8678850512534</v>
+        <v>41.1108471076594</v>
       </c>
       <c r="E31">
-        <v>50.8582603404265</v>
+        <v>48.217374408809</v>
       </c>
       <c r="F31">
-        <v>10.8074792011456</v>
+        <v>6.97489315071675</v>
       </c>
       <c r="G31">
-        <v>122.289405771357</v>
+        <v>126.906698909615</v>
       </c>
       <c r="H31">
-        <v>21.9991217883936</v>
+        <v>23.876004050247</v>
       </c>
       <c r="I31">
-        <v>22.6138574383569</v>
+        <v>23.5721217871631</v>
       </c>
       <c r="J31">
-        <v>46.4812146712771</v>
+        <v>46.0014899936873</v>
       </c>
       <c r="K31">
-        <v>29.9401082302962</v>
+        <v>25.8223759199592</v>
       </c>
       <c r="L31">
-        <v>74.23554235155299</v>
+        <v>74.6046213173484</v>
       </c>
       <c r="M31">
-        <v>18.1076781139632</v>
+        <v>21.0477595857743</v>
       </c>
       <c r="N31">
-        <v>53.4789839718461</v>
+        <v>50.6269849001649</v>
       </c>
       <c r="O31">
-        <v>3345.66110572819</v>
+        <v>3338.33170796748</v>
       </c>
       <c r="P31">
-        <v>6.38670190924519</v>
+        <v>11.0254127609202</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>505.522685775589</v>
+        <v>507.983678090589</v>
       </c>
       <c r="C32">
-        <v>7.26817911096223</v>
+        <v>5.38547872263451</v>
       </c>
       <c r="D32">
-        <v>1.01870721665997</v>
+        <v>1.04384407797916</v>
       </c>
       <c r="E32">
-        <v>4.17583088926256</v>
+        <v>3.29777089033741</v>
       </c>
       <c r="F32">
-        <v>22.2569174808299</v>
+        <v>22.6298459644451</v>
       </c>
       <c r="G32">
-        <v>2.28260562121898</v>
+        <v>1.92976636324985</v>
       </c>
       <c r="H32">
-        <v>1.88235540064402</v>
+        <v>1.63981139313242</v>
       </c>
       <c r="I32">
-        <v>5.31844432693488</v>
+        <v>3.64917799342039</v>
       </c>
       <c r="J32">
-        <v>5.83611785104911</v>
+        <v>5.25104763874985</v>
       </c>
       <c r="K32">
-        <v>1.63185271656984</v>
+        <v>1.66638190836083</v>
       </c>
       <c r="L32">
-        <v>15.6968681334572</v>
+        <v>15.758256399905</v>
       </c>
       <c r="M32">
-        <v>2.89854966045997</v>
+        <v>3.1637197149151</v>
       </c>
       <c r="N32">
-        <v>7.69983916999011</v>
+        <v>9.310557868818099</v>
       </c>
       <c r="O32">
-        <v>674.527077822881</v>
+        <v>674.849122595219</v>
       </c>
       <c r="P32">
-        <v>21.13458252689</v>
+        <v>23.4676480214788</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5258.43480839208</v>
+        <v>5230.82831717513</v>
       </c>
       <c r="C33">
-        <v>84.36248003146891</v>
+        <v>89.2628918399264</v>
       </c>
       <c r="D33">
-        <v>108.255881783311</v>
+        <v>98.5350115429198</v>
       </c>
       <c r="E33">
-        <v>88.240886035911</v>
+        <v>95.5055263855306</v>
       </c>
       <c r="F33">
-        <v>8.60352009176836</v>
+        <v>9.40871526742375</v>
       </c>
       <c r="G33">
-        <v>72.8083305356477</v>
+        <v>79.47157842114071</v>
       </c>
       <c r="H33">
-        <v>35.0509477533324</v>
+        <v>35.5672374719628</v>
       </c>
       <c r="I33">
-        <v>34.6173429334518</v>
+        <v>33.4828852502805</v>
       </c>
       <c r="J33">
-        <v>107.590174198837</v>
+        <v>108.138709270273</v>
       </c>
       <c r="K33">
-        <v>114.872623639515</v>
+        <v>105.897922441966</v>
       </c>
       <c r="L33">
-        <v>132.786488072115</v>
+        <v>139.150106844682</v>
       </c>
       <c r="M33">
-        <v>70.2119807137627</v>
+        <v>72.2088637897902</v>
       </c>
       <c r="N33">
-        <v>135.615758822627</v>
+        <v>129.672885230243</v>
       </c>
       <c r="O33">
-        <v>7029.63218561212</v>
+        <v>7039.22599098402</v>
       </c>
       <c r="P33">
-        <v>76.7817761322297</v>
+        <v>79.70795201817801</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2063.34046471862</v>
+        <v>2018.59077070784</v>
       </c>
       <c r="C34">
-        <v>66.8684880781182</v>
+        <v>68.9966236618655</v>
       </c>
       <c r="D34">
-        <v>191.701905954594</v>
+        <v>195.45716661225</v>
       </c>
       <c r="E34">
-        <v>59.6082744887108</v>
+        <v>62.5990894108781</v>
       </c>
       <c r="F34">
-        <v>7.55145280928479</v>
+        <v>6.89251480775217</v>
       </c>
       <c r="G34">
-        <v>51.8699783109344</v>
+        <v>53.6029434271619</v>
       </c>
       <c r="H34">
-        <v>39.515915518163</v>
+        <v>40.4339630084127</v>
       </c>
       <c r="I34">
-        <v>17.7056715574801</v>
+        <v>20.2625180524514</v>
       </c>
       <c r="J34">
-        <v>59.4829949575401</v>
+        <v>57.7144727422806</v>
       </c>
       <c r="K34">
-        <v>54.4757831786595</v>
+        <v>50.0971811325695</v>
       </c>
       <c r="L34">
-        <v>93.0605830011031</v>
+        <v>103.079962431808</v>
       </c>
       <c r="M34">
-        <v>47.2532363191752</v>
+        <v>43.8746489553669</v>
       </c>
       <c r="N34">
-        <v>122.864968475786</v>
+        <v>122.032034084623</v>
       </c>
       <c r="O34">
-        <v>2764.57012785694</v>
+        <v>2772.26643462827</v>
       </c>
       <c r="P34">
-        <v>61.4080279245909</v>
+        <v>68.2441494696026</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>142.453110373233</v>
+        <v>144.839665643548</v>
       </c>
       <c r="C35">
-        <v>7.08624038614894</v>
+        <v>7.26245679069326</v>
       </c>
       <c r="D35">
-        <v>0.547493919311326</v>
+        <v>0.484612964075593</v>
       </c>
       <c r="E35">
-        <v>2.62074017480824</v>
+        <v>2.76810033963859</v>
       </c>
       <c r="F35">
-        <v>5.42835940228514</v>
+        <v>5.06631926650508</v>
       </c>
       <c r="G35">
-        <v>0.796084000816886</v>
+        <v>0.607532531772391</v>
       </c>
       <c r="H35">
-        <v>0.342155814787324</v>
+        <v>0.387226052824737</v>
       </c>
       <c r="I35">
-        <v>1.08587260172239</v>
+        <v>1.38963736648165</v>
       </c>
       <c r="J35">
-        <v>2.67531645392417</v>
+        <v>2.47727454279477</v>
       </c>
       <c r="K35">
-        <v>6.23763864247358</v>
+        <v>5.98209515248004</v>
       </c>
       <c r="L35">
-        <v>2.13113107236939</v>
+        <v>2.53940044885475</v>
       </c>
       <c r="M35">
-        <v>2.4438952753392</v>
+        <v>2.39313487243443</v>
       </c>
       <c r="N35">
-        <v>2.54728499288829</v>
+        <v>2.14271443254835</v>
       </c>
       <c r="O35">
-        <v>250.990944915925</v>
+        <v>248.930841854469</v>
       </c>
       <c r="P35">
-        <v>44.1456969417843</v>
+        <v>43.8351045298499</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2814.25508571709</v>
+        <v>2819.10366085134</v>
       </c>
       <c r="C36">
-        <v>63.655740577687</v>
+        <v>64.220440974783</v>
       </c>
       <c r="D36">
-        <v>15.5223563093488</v>
+        <v>14.6052128575948</v>
       </c>
       <c r="E36">
-        <v>88.473902427214</v>
+        <v>109.008975535614</v>
       </c>
       <c r="F36">
-        <v>26.7830086665475</v>
+        <v>26.5522631426965</v>
       </c>
       <c r="G36">
-        <v>88.238457324354</v>
+        <v>86.7743101327091</v>
       </c>
       <c r="H36">
-        <v>103.519425694068</v>
+        <v>103.162734710645</v>
       </c>
       <c r="I36">
-        <v>49.8171796706357</v>
+        <v>51.98971086098</v>
       </c>
       <c r="J36">
-        <v>228.844319891382</v>
+        <v>227.978969260576</v>
       </c>
       <c r="K36">
-        <v>132.660284718765</v>
+        <v>133.224436710744</v>
       </c>
       <c r="L36">
-        <v>84.19490319742251</v>
+        <v>96.1573008480928</v>
       </c>
       <c r="M36">
-        <v>233.515852642048</v>
+        <v>238.723022070096</v>
       </c>
       <c r="N36">
-        <v>99.19878394632561</v>
+        <v>97.9504488024289</v>
       </c>
       <c r="O36">
-        <v>3918.8728679859</v>
+        <v>3889.82244701852</v>
       </c>
       <c r="P36">
-        <v>54.4169323624114</v>
+        <v>49.2239880363311</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>905.117408035603</v>
+        <v>906.588726481904</v>
       </c>
       <c r="C37">
-        <v>23.610944657504</v>
+        <v>25.1373895281052</v>
       </c>
       <c r="D37">
-        <v>5.60312638751355</v>
+        <v>6.52512880414173</v>
       </c>
       <c r="E37">
-        <v>19.0648620039253</v>
+        <v>20.667146282432</v>
       </c>
       <c r="F37">
-        <v>38.0216954376692</v>
+        <v>39.747194602502</v>
       </c>
       <c r="G37">
-        <v>10.497403027325</v>
+        <v>7.85315748818523</v>
       </c>
       <c r="H37">
-        <v>23.8670882775295</v>
+        <v>22.2395086728589</v>
       </c>
       <c r="I37">
-        <v>15.2996318823001</v>
+        <v>12.6447810746858</v>
       </c>
       <c r="J37">
-        <v>34.9506785869847</v>
+        <v>34.775693129558</v>
       </c>
       <c r="K37">
-        <v>33.4169838892337</v>
+        <v>33.8905424405033</v>
       </c>
       <c r="L37">
-        <v>20.5963436833291</v>
+        <v>20.6716525797671</v>
       </c>
       <c r="M37">
-        <v>35.1417674945876</v>
+        <v>34.7934723164034</v>
       </c>
       <c r="N37">
-        <v>12.5393122300416</v>
+        <v>14.7636385147808</v>
       </c>
       <c r="O37">
-        <v>1163.84280361393</v>
+        <v>1164.20309125763</v>
       </c>
       <c r="P37">
-        <v>57.260993265056</v>
+        <v>55.9098059077759</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>871.395204339108</v>
+        <v>881.997842881452</v>
       </c>
       <c r="C38">
-        <v>23.5915741949205</v>
+        <v>23.5937543705038</v>
       </c>
       <c r="D38">
-        <v>9.730288780378279</v>
+        <v>9.400701493448199</v>
       </c>
       <c r="E38">
-        <v>59.4654620899487</v>
+        <v>62.6495082801118</v>
       </c>
       <c r="F38">
-        <v>3.28516622664578</v>
+        <v>3.00545844689305</v>
       </c>
       <c r="G38">
-        <v>4.09508773343306</v>
+        <v>5.7261994643607</v>
       </c>
       <c r="H38">
-        <v>4.67215140033943</v>
+        <v>4.74270666825206</v>
       </c>
       <c r="I38">
-        <v>5.022767200471</v>
+        <v>4.95156635282969</v>
       </c>
       <c r="J38">
-        <v>36.9452623520808</v>
+        <v>35.8795901148402</v>
       </c>
       <c r="K38">
-        <v>11.414398259788</v>
+        <v>9.159279844297631</v>
       </c>
       <c r="L38">
-        <v>56.1881812276705</v>
+        <v>58.9900913641447</v>
       </c>
       <c r="M38">
-        <v>15.5869657774434</v>
+        <v>18.8629061561243</v>
       </c>
       <c r="N38">
-        <v>28.99926627569</v>
+        <v>24.1201744769014</v>
       </c>
       <c r="O38">
-        <v>1277.17616259727</v>
+        <v>1254.87758935661</v>
       </c>
       <c r="P38">
-        <v>69.5029749242983</v>
+        <v>69.8650468976694</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3281.67703604768</v>
+        <v>3266.85528217831</v>
       </c>
       <c r="C39">
-        <v>93.5244831524255</v>
+        <v>94.3138023578279</v>
       </c>
       <c r="D39">
-        <v>66.6136891361614</v>
+        <v>61.7971121748081</v>
       </c>
       <c r="E39">
-        <v>128.275825480348</v>
+        <v>138.602965642984</v>
       </c>
       <c r="F39">
-        <v>33.0921110000375</v>
+        <v>31.2279796196805</v>
       </c>
       <c r="G39">
-        <v>101.972504449179</v>
+        <v>101.226250738521</v>
       </c>
       <c r="H39">
-        <v>53.2348681562139</v>
+        <v>54.6877209636203</v>
       </c>
       <c r="I39">
-        <v>45.6308030942411</v>
+        <v>46.6546044885155</v>
       </c>
       <c r="J39">
-        <v>190.113515403961</v>
+        <v>190.499370987317</v>
       </c>
       <c r="K39">
-        <v>111.996664784961</v>
+        <v>100.756558758257</v>
       </c>
       <c r="L39">
-        <v>107.596451499413</v>
+        <v>111.165269807817</v>
       </c>
       <c r="M39">
-        <v>65.9232475638035</v>
+        <v>65.3072727512097</v>
       </c>
       <c r="N39">
-        <v>99.9457712149237</v>
+        <v>108.61112106509</v>
       </c>
       <c r="O39">
-        <v>4293.34580602478</v>
+        <v>4298.56534569073</v>
       </c>
       <c r="P39">
-        <v>76.8038699887513</v>
+        <v>78.0360692149826</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>266.579741158171</v>
+        <v>269.248983854847</v>
       </c>
       <c r="C40">
-        <v>4.28139869540374</v>
+        <v>3.7921194188138</v>
       </c>
       <c r="D40">
-        <v>8.96163036080414</v>
+        <v>8.47315252605549</v>
       </c>
       <c r="E40">
-        <v>5.34998879029608</v>
+        <v>5.65855032903755</v>
       </c>
       <c r="F40">
-        <v>0.200739485394923</v>
+        <v>0.192622011496269</v>
       </c>
       <c r="G40">
-        <v>5.87417831219988</v>
+        <v>4.94288637570533</v>
       </c>
       <c r="H40">
-        <v>3.92037123116605</v>
+        <v>4.82715838316657</v>
       </c>
       <c r="I40">
-        <v>1.41876123041496</v>
+        <v>1.79020443874942</v>
       </c>
       <c r="J40">
-        <v>10.1946164656975</v>
+        <v>10.8742429455745</v>
       </c>
       <c r="K40">
-        <v>6.06286208478855</v>
+        <v>5.81182426213952</v>
       </c>
       <c r="L40">
-        <v>15.9070040655816</v>
+        <v>15.1679835173065</v>
       </c>
       <c r="M40">
-        <v>5.72413948720157</v>
+        <v>5.72810897200834</v>
       </c>
       <c r="N40">
-        <v>23.918647016026</v>
+        <v>23.0607013887193</v>
       </c>
       <c r="O40">
-        <v>420.486153464029</v>
+        <v>417.143608743107</v>
       </c>
       <c r="P40">
-        <v>2.86850328078532</v>
+        <v>2.57368732032255</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1063.51759373301</v>
+        <v>1063.59045096201</v>
       </c>
       <c r="C41">
-        <v>14.9281514178862</v>
+        <v>16.5643885579212</v>
       </c>
       <c r="D41">
-        <v>92.1228714141775</v>
+        <v>98.9625025363457</v>
       </c>
       <c r="E41">
-        <v>38.7608544801156</v>
+        <v>36.351236412739</v>
       </c>
       <c r="F41">
-        <v>2.21882065707906</v>
+        <v>2.19849048632639</v>
       </c>
       <c r="G41">
-        <v>26.2682379278895</v>
+        <v>26.0255558766813</v>
       </c>
       <c r="H41">
-        <v>35.4943636962242</v>
+        <v>34.0416958643567</v>
       </c>
       <c r="I41">
-        <v>14.178873389151</v>
+        <v>13.8526512514747</v>
       </c>
       <c r="J41">
-        <v>48.626025983071</v>
+        <v>44.2804862051034</v>
       </c>
       <c r="K41">
-        <v>30.6210662119218</v>
+        <v>27.1081620419464</v>
       </c>
       <c r="L41">
-        <v>32.7302344686511</v>
+        <v>33.2947606705782</v>
       </c>
       <c r="M41">
-        <v>26.8506066637388</v>
+        <v>30.3790647303872</v>
       </c>
       <c r="N41">
-        <v>22.5919802636772</v>
+        <v>20.1938618348254</v>
       </c>
       <c r="O41">
-        <v>1335.4918651328</v>
+        <v>1340.49250471441</v>
       </c>
       <c r="P41">
-        <v>32.2842696342667</v>
+        <v>29.9687242129903</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>155.385723278501</v>
+        <v>154.866141988919</v>
       </c>
       <c r="C42">
-        <v>6.69015108444663</v>
+        <v>7.43282010638668</v>
       </c>
       <c r="D42">
-        <v>1.60170904725615</v>
+        <v>1.59823939206101</v>
       </c>
       <c r="E42">
-        <v>5.01284066818185</v>
+        <v>5.53982562760021</v>
       </c>
       <c r="F42">
-        <v>2.71606094637063</v>
+        <v>2.17309872004391</v>
       </c>
       <c r="G42">
-        <v>1.74468008821155</v>
+        <v>1.33165826404858</v>
       </c>
       <c r="H42">
-        <v>0.877513480667464</v>
+        <v>1.09368784606352</v>
       </c>
       <c r="I42">
-        <v>0.7653338164415761</v>
+        <v>0.8605587569633501</v>
       </c>
       <c r="J42">
-        <v>4.27492660888145</v>
+        <v>3.57959201896415</v>
       </c>
       <c r="K42">
-        <v>5.96784919346964</v>
+        <v>5.38296298218568</v>
       </c>
       <c r="L42">
-        <v>7.41272786093653</v>
+        <v>8.27438532052444</v>
       </c>
       <c r="M42">
-        <v>3.4403562984639</v>
+        <v>3.96134002027677</v>
       </c>
       <c r="N42">
-        <v>7.29764174201292</v>
+        <v>7.68686941598503</v>
       </c>
       <c r="O42">
-        <v>308.086369995438</v>
+        <v>304.746207524342</v>
       </c>
       <c r="P42">
-        <v>50.9317872038113</v>
+        <v>50.4954648575129</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1530.01497738745</v>
+        <v>1512.18119881009</v>
       </c>
       <c r="C43">
-        <v>41.6222787450196</v>
+        <v>39.0891020006216</v>
       </c>
       <c r="D43">
-        <v>56.6809266222596</v>
+        <v>52.5617467935389</v>
       </c>
       <c r="E43">
-        <v>56.9931430154037</v>
+        <v>62.7811014144796</v>
       </c>
       <c r="F43">
-        <v>8.32666733444327</v>
+        <v>7.44616912084957</v>
       </c>
       <c r="G43">
-        <v>19.2906360438111</v>
+        <v>25.7700712546987</v>
       </c>
       <c r="H43">
-        <v>34.0005367635204</v>
+        <v>32.2463066918881</v>
       </c>
       <c r="I43">
-        <v>24.2318343948361</v>
+        <v>22.5876288484902</v>
       </c>
       <c r="J43">
-        <v>52.9395364241654</v>
+        <v>53.5575985999345</v>
       </c>
       <c r="K43">
-        <v>62.0109139711724</v>
+        <v>55.3865216867868</v>
       </c>
       <c r="L43">
-        <v>46.9011136905181</v>
+        <v>54.5920430005415</v>
       </c>
       <c r="M43">
-        <v>111.812579896797</v>
+        <v>112.859885664338</v>
       </c>
       <c r="N43">
-        <v>60.6385671240279</v>
+        <v>63.5606139300488</v>
       </c>
       <c r="O43">
-        <v>1925.42921186507</v>
+        <v>1924.2043266236</v>
       </c>
       <c r="P43">
-        <v>34.4653984934851</v>
+        <v>46.008298478022</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5102.17055201926</v>
+        <v>5105.76019930748</v>
       </c>
       <c r="C44">
-        <v>122.123051670789</v>
+        <v>120.196027444346</v>
       </c>
       <c r="D44">
-        <v>60.0576274706326</v>
+        <v>53.088086787272</v>
       </c>
       <c r="E44">
-        <v>102.362394780227</v>
+        <v>106.153904498909</v>
       </c>
       <c r="F44">
-        <v>222.554502929969</v>
+        <v>226.19235044035</v>
       </c>
       <c r="G44">
-        <v>131.910145789405</v>
+        <v>134.829831173606</v>
       </c>
       <c r="H44">
-        <v>51.4245966775114</v>
+        <v>52.0847770970481</v>
       </c>
       <c r="I44">
-        <v>43.07856942441</v>
+        <v>45.4919605817416</v>
       </c>
       <c r="J44">
-        <v>134.214138656042</v>
+        <v>123.638678662075</v>
       </c>
       <c r="K44">
-        <v>92.80560148155099</v>
+        <v>89.39180453137981</v>
       </c>
       <c r="L44">
-        <v>216.876267500616</v>
+        <v>213.662499032583</v>
       </c>
       <c r="M44">
-        <v>117.098758988229</v>
+        <v>112.03302042043</v>
       </c>
       <c r="N44">
-        <v>89.4707240981935</v>
+        <v>94.8861415513943</v>
       </c>
       <c r="O44">
-        <v>7408.1737728795</v>
+        <v>7409.13954464083</v>
       </c>
       <c r="P44">
-        <v>203.137558510736</v>
+        <v>214.397295579921</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>470.808922732705</v>
+        <v>469.759323978179</v>
       </c>
       <c r="C45">
-        <v>15.7690387918981</v>
+        <v>16.4128080420784</v>
       </c>
       <c r="D45">
-        <v>3.38729843615448</v>
+        <v>3.19861610155608</v>
       </c>
       <c r="E45">
-        <v>13.7808354714788</v>
+        <v>15.5463658695778</v>
       </c>
       <c r="F45">
-        <v>21.0278401120915</v>
+        <v>21.1974510580931</v>
       </c>
       <c r="G45">
-        <v>8.582997054661741</v>
+        <v>8.553829873426651</v>
       </c>
       <c r="H45">
-        <v>2.29213203308603</v>
+        <v>2.49187379505268</v>
       </c>
       <c r="I45">
-        <v>4.10192816588211</v>
+        <v>4.06414514554183</v>
       </c>
       <c r="J45">
-        <v>22.3007653482828</v>
+        <v>21.3867650210438</v>
       </c>
       <c r="K45">
-        <v>6.72087250798743</v>
+        <v>5.88417092428038</v>
       </c>
       <c r="L45">
-        <v>15.6434479599082</v>
+        <v>17.2793727605365</v>
       </c>
       <c r="M45">
-        <v>22.2569736138254</v>
+        <v>23.0781196452014</v>
       </c>
       <c r="N45">
-        <v>30.2081997684874</v>
+        <v>30.6463257334757</v>
       </c>
       <c r="O45">
-        <v>813.420577240941</v>
+        <v>812.691779718269</v>
       </c>
       <c r="P45">
-        <v>17.5802184548374</v>
+        <v>22.4830545777735</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>139.218283197578</v>
+        <v>135.567066055488</v>
       </c>
       <c r="C46">
-        <v>3.71139376740202</v>
+        <v>4.19812012120179</v>
       </c>
       <c r="D46">
-        <v>1.96177054841044</v>
+        <v>1.97958925222476</v>
       </c>
       <c r="E46">
-        <v>7.04806065851453</v>
+        <v>7.21722702427517</v>
       </c>
       <c r="F46">
-        <v>1.25808030788541</v>
+        <v>1.20338424446352</v>
       </c>
       <c r="G46">
-        <v>2.66171116042176</v>
+        <v>2.72785089628959</v>
       </c>
       <c r="H46">
-        <v>1.69363001992403</v>
+        <v>1.96860224371728</v>
       </c>
       <c r="I46">
-        <v>1.66833529247278</v>
+        <v>1.83689171167511</v>
       </c>
       <c r="J46">
-        <v>4.5514863378777</v>
+        <v>4.83886598022766</v>
       </c>
       <c r="K46">
-        <v>5.98045103064501</v>
+        <v>4.76723492014698</v>
       </c>
       <c r="L46">
-        <v>11.1990714233201</v>
+        <v>11.5622305830223</v>
       </c>
       <c r="M46">
-        <v>3.45884631720051</v>
+        <v>4.05603940134991</v>
       </c>
       <c r="N46">
-        <v>8.732400337479611</v>
+        <v>8.27824376904436</v>
       </c>
       <c r="O46">
-        <v>258.33004434474</v>
+        <v>262.369563515717</v>
       </c>
       <c r="P46">
-        <v>12.7733634251313</v>
+        <v>12.5045657514022</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1667.60256563997</v>
+        <v>1651.20332740867</v>
       </c>
       <c r="C47">
-        <v>54.2913676328951</v>
+        <v>56.9771688548475</v>
       </c>
       <c r="D47">
-        <v>47.3055019637203</v>
+        <v>45.0708118577567</v>
       </c>
       <c r="E47">
-        <v>62.5732032759719</v>
+        <v>61.8471290172656</v>
       </c>
       <c r="F47">
-        <v>11.4443827887195</v>
+        <v>11.4009720719084</v>
       </c>
       <c r="G47">
-        <v>26.3805561781408</v>
+        <v>29.267878055218</v>
       </c>
       <c r="H47">
-        <v>15.4215196051537</v>
+        <v>16.4717628029486</v>
       </c>
       <c r="I47">
-        <v>10.3128853204307</v>
+        <v>9.94718010022809</v>
       </c>
       <c r="J47">
-        <v>39.4656616109599</v>
+        <v>40.8282550836924</v>
       </c>
       <c r="K47">
-        <v>22.6478742472157</v>
+        <v>17.5956317406242</v>
       </c>
       <c r="L47">
-        <v>43.656830376421</v>
+        <v>45.9550742267555</v>
       </c>
       <c r="M47">
-        <v>70.2056064309073</v>
+        <v>71.3545741295747</v>
       </c>
       <c r="N47">
-        <v>43.4235383213477</v>
+        <v>40.8645365683524</v>
       </c>
       <c r="O47">
-        <v>2754.25910054009</v>
+        <v>2773.90432846788</v>
       </c>
       <c r="P47">
-        <v>35.2869806688637</v>
+        <v>39.5572833987393</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1469.12312075763</v>
+        <v>1466.77394700983</v>
       </c>
       <c r="C48">
-        <v>25.3465256151357</v>
+        <v>29.3903593435763</v>
       </c>
       <c r="D48">
-        <v>7.61429046516807</v>
+        <v>8.27253842867667</v>
       </c>
       <c r="E48">
-        <v>66.58168188985719</v>
+        <v>67.9374544308962</v>
       </c>
       <c r="F48">
-        <v>4.76635917074361</v>
+        <v>7.38299506690758</v>
       </c>
       <c r="G48">
-        <v>5.0165231254999</v>
+        <v>7.32653023291526</v>
       </c>
       <c r="H48">
-        <v>3.64827018230617</v>
+        <v>4.20513484375221</v>
       </c>
       <c r="I48">
-        <v>8.47469231870422</v>
+        <v>9.324609301189501</v>
       </c>
       <c r="J48">
-        <v>34.3365856120706</v>
+        <v>33.9399811145214</v>
       </c>
       <c r="K48">
-        <v>17.0749989048136</v>
+        <v>18.3437456277385</v>
       </c>
       <c r="L48">
-        <v>41.9457500761473</v>
+        <v>42.622556910998</v>
       </c>
       <c r="M48">
-        <v>114.956246182552</v>
+        <v>123.646277613658</v>
       </c>
       <c r="N48">
-        <v>27.7935186199516</v>
+        <v>30.7010043963343</v>
       </c>
       <c r="O48">
-        <v>2225.57932765555</v>
+        <v>2201.87051247482</v>
       </c>
       <c r="P48">
-        <v>93.20426647562481</v>
+        <v>92.831057902288</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>660.515144563807</v>
+        <v>663.275133611995</v>
       </c>
       <c r="C49">
-        <v>7.58691004141569</v>
+        <v>6.78506004746499</v>
       </c>
       <c r="D49">
-        <v>4.1318227620652</v>
+        <v>3.98674651097028</v>
       </c>
       <c r="E49">
-        <v>18.1157554347725</v>
+        <v>19.11028445576</v>
       </c>
       <c r="F49">
-        <v>28.0087760231149</v>
+        <v>27.5832754798233</v>
       </c>
       <c r="G49">
-        <v>16.4266500114182</v>
+        <v>17.0031513660779</v>
       </c>
       <c r="H49">
-        <v>5.56304927056972</v>
+        <v>5.85861036840159</v>
       </c>
       <c r="I49">
-        <v>7.54909704302458</v>
+        <v>6.58188834029273</v>
       </c>
       <c r="J49">
-        <v>21.5202030108678</v>
+        <v>21.5590544255918</v>
       </c>
       <c r="K49">
-        <v>5.40139801129519</v>
+        <v>5.24630997944457</v>
       </c>
       <c r="L49">
-        <v>1.75325909105398</v>
+        <v>1.55860334408998</v>
       </c>
       <c r="M49">
-        <v>7.81112531894995</v>
+        <v>7.33398232364849</v>
       </c>
       <c r="N49">
-        <v>5.3007286938365</v>
+        <v>4.96236257240119</v>
       </c>
       <c r="O49">
-        <v>587.831922999155</v>
+        <v>585.02260436231</v>
       </c>
       <c r="P49">
-        <v>7.31259444922585</v>
+        <v>8.524764156885871</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1132.99988077849</v>
+        <v>1130.02270910656</v>
       </c>
       <c r="C50">
-        <v>77.1328243414448</v>
+        <v>78.68925471912161</v>
       </c>
       <c r="D50">
-        <v>18.0704783495531</v>
+        <v>17.1566325370169</v>
       </c>
       <c r="E50">
-        <v>137.792285149902</v>
+        <v>145.096380273925</v>
       </c>
       <c r="F50">
-        <v>2.15829590151232</v>
+        <v>3.66725969849852</v>
       </c>
       <c r="G50">
-        <v>22.9432396953124</v>
+        <v>22.8657564666577</v>
       </c>
       <c r="H50">
-        <v>40.7094121581269</v>
+        <v>36.2078621853345</v>
       </c>
       <c r="I50">
-        <v>14.6745856023666</v>
+        <v>16.8282096302477</v>
       </c>
       <c r="J50">
-        <v>113.015514700283</v>
+        <v>114.402371054605</v>
       </c>
       <c r="K50">
-        <v>101.298177342003</v>
+        <v>89.6345292700574</v>
       </c>
       <c r="L50">
-        <v>63.119287185257</v>
+        <v>60.9695322741523</v>
       </c>
       <c r="M50">
-        <v>40.547236883801</v>
+        <v>43.7368763619505</v>
       </c>
       <c r="N50">
-        <v>52.24808297982</v>
+        <v>57.0472598801639</v>
       </c>
       <c r="O50">
-        <v>1875.95020951634</v>
+        <v>1870.52098927124</v>
       </c>
       <c r="P50">
-        <v>105.695652514391</v>
+        <v>111.608266049539</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>124.966464036288</v>
+        <v>127.792536000387</v>
       </c>
       <c r="C51">
-        <v>1.68517441893392</v>
+        <v>2.05231244374473</v>
       </c>
       <c r="D51">
-        <v>0.222716770289484</v>
+        <v>0.317206551857377</v>
       </c>
       <c r="E51">
-        <v>1.99489047945216</v>
+        <v>2.66769436523405</v>
       </c>
       <c r="F51">
-        <v>27.1137393738931</v>
+        <v>26.1675384014936</v>
       </c>
       <c r="G51">
-        <v>2.25023541345408</v>
+        <v>2.21976045909505</v>
       </c>
       <c r="H51">
-        <v>0.050803367554304</v>
+        <v>0.0461559895295824</v>
       </c>
       <c r="I51">
-        <v>0.954848006646573</v>
+        <v>0.872759314292492</v>
       </c>
       <c r="J51">
-        <v>1.07498176999555</v>
+        <v>1.48271247114315</v>
       </c>
       <c r="K51">
-        <v>1.1110537204765</v>
+        <v>0.91557385647013</v>
       </c>
       <c r="L51">
-        <v>0.528501144957229</v>
+        <v>0.350500310562787</v>
       </c>
       <c r="M51">
-        <v>0.526099665435965</v>
+        <v>0.454985749849697</v>
       </c>
       <c r="N51">
-        <v>1.84679135167564</v>
+        <v>1.3171407296322</v>
       </c>
       <c r="O51">
-        <v>218.938100033748</v>
+        <v>216.06365037835</v>
       </c>
       <c r="P51">
-        <v>18.4651452475546</v>
+        <v>18.2063760771614</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1333.79361029995</v>
+        <v>1331.64680905109</v>
       </c>
       <c r="C2">
-        <v>33.6761436145414</v>
+        <v>35.7200298305683</v>
       </c>
       <c r="D2">
-        <v>63.9351176510746</v>
+        <v>63.7719163034484</v>
       </c>
       <c r="E2">
-        <v>64.9200099128764</v>
+        <v>65.1403746680144</v>
       </c>
       <c r="F2">
-        <v>17.6130928935612</v>
+        <v>16.8391466629136</v>
       </c>
       <c r="G2">
-        <v>16.4092326205189</v>
+        <v>18.151754949737</v>
       </c>
       <c r="H2">
-        <v>24.9739442484919</v>
+        <v>25.9910501904127</v>
       </c>
       <c r="I2">
-        <v>13.2020211023101</v>
+        <v>11.1973417474629</v>
       </c>
       <c r="J2">
-        <v>64.52349564110359</v>
+        <v>60.3497030079942</v>
       </c>
       <c r="K2">
-        <v>17.8422205860165</v>
+        <v>19.8145426618606</v>
       </c>
       <c r="L2">
-        <v>36.0545258635785</v>
+        <v>38.2908143917412</v>
       </c>
       <c r="M2">
-        <v>43.7525193152748</v>
+        <v>42.4712148391417</v>
       </c>
       <c r="N2">
-        <v>26.3462840249787</v>
+        <v>23.1872677354495</v>
       </c>
       <c r="O2">
-        <v>1369.2008860107</v>
+        <v>1375.34867341058</v>
       </c>
       <c r="P2">
-        <v>28.837200425398</v>
+        <v>26.3256390391428</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>148.578881190958</v>
+        <v>131.814453025873</v>
       </c>
       <c r="C3">
-        <v>4.84005490666299</v>
+        <v>3.65504593388646</v>
       </c>
       <c r="D3">
-        <v>0.301372581207245</v>
+        <v>0.243278908711957</v>
       </c>
       <c r="E3">
-        <v>1.52938535804852</v>
+        <v>1.22508799188956</v>
       </c>
       <c r="F3">
-        <v>10.0552006380898</v>
+        <v>9.43273292551928</v>
       </c>
       <c r="G3">
-        <v>0.40940673396198</v>
+        <v>0.361812593290037</v>
       </c>
       <c r="H3">
-        <v>0.0751080905123976</v>
+        <v>0.0220249694689195</v>
       </c>
       <c r="I3">
-        <v>0.627720465107352</v>
+        <v>0.350022723904354</v>
       </c>
       <c r="J3">
-        <v>0.670059828126649</v>
+        <v>0.707102811175273</v>
       </c>
       <c r="K3">
-        <v>0.213481402971096</v>
+        <v>0.26950230109032</v>
       </c>
       <c r="L3">
-        <v>0.40615955832841</v>
+        <v>0.418874817810378</v>
       </c>
       <c r="M3">
-        <v>0.790779247381417</v>
+        <v>0.69808239878003</v>
       </c>
       <c r="N3">
-        <v>1.35055436749293</v>
+        <v>2.05413943611867</v>
       </c>
       <c r="O3">
-        <v>272.168772161462</v>
+        <v>241.271559390695</v>
       </c>
       <c r="P3">
-        <v>12.9551487704209</v>
+        <v>10.8189692810713</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1396.91316463229</v>
+        <v>1399.25457411417</v>
       </c>
       <c r="C4">
-        <v>10.9532201366247</v>
+        <v>10.3499561964877</v>
       </c>
       <c r="D4">
-        <v>2.71494292555779</v>
+        <v>2.40136194636845</v>
       </c>
       <c r="E4">
-        <v>24.5951651660928</v>
+        <v>21.0051260169474</v>
       </c>
       <c r="F4">
-        <v>12.8478851699286</v>
+        <v>20.0008237763365</v>
       </c>
       <c r="G4">
-        <v>8.80241396922356</v>
+        <v>9.80689674534494</v>
       </c>
       <c r="H4">
-        <v>8.392235503821221</v>
+        <v>9.169612002716381</v>
       </c>
       <c r="I4">
-        <v>10.1340573950178</v>
+        <v>11.1959069739647</v>
       </c>
       <c r="J4">
-        <v>24.0747483426364</v>
+        <v>21.6722515357641</v>
       </c>
       <c r="K4">
-        <v>5.88906483766815</v>
+        <v>8.40137760387281</v>
       </c>
       <c r="L4">
-        <v>71.5406930161128</v>
+        <v>69.70742164760139</v>
       </c>
       <c r="M4">
-        <v>50.5952652799528</v>
+        <v>45.3471558449509</v>
       </c>
       <c r="N4">
-        <v>32.1343510682858</v>
+        <v>36.8168737608331</v>
       </c>
       <c r="O4">
-        <v>1911.09389747621</v>
+        <v>1943.52003775164</v>
       </c>
       <c r="P4">
-        <v>27.0561818622165</v>
+        <v>25.7034238435604</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>751.806651778625</v>
+        <v>756.463884836016</v>
       </c>
       <c r="C5">
-        <v>54.1005977512698</v>
+        <v>55.7795692005616</v>
       </c>
       <c r="D5">
-        <v>12.5903180907745</v>
+        <v>12.4730366138303</v>
       </c>
       <c r="E5">
-        <v>41.9998123864164</v>
+        <v>32.6081211406245</v>
       </c>
       <c r="F5">
-        <v>4.90446301478457</v>
+        <v>4.4740723431017</v>
       </c>
       <c r="G5">
-        <v>7.47782848653931</v>
+        <v>7.28027491021206</v>
       </c>
       <c r="H5">
-        <v>12.6450380750078</v>
+        <v>13.3957481299771</v>
       </c>
       <c r="I5">
-        <v>8.208201272603279</v>
+        <v>8.73390562964757</v>
       </c>
       <c r="J5">
-        <v>30.1875208059297</v>
+        <v>30.1014194804518</v>
       </c>
       <c r="K5">
-        <v>18.9081330996604</v>
+        <v>18.9517769395382</v>
       </c>
       <c r="L5">
-        <v>23.6024639573721</v>
+        <v>24.4387477034434</v>
       </c>
       <c r="M5">
-        <v>24.7717250338514</v>
+        <v>27.2558855160293</v>
       </c>
       <c r="N5">
-        <v>24.4503362936838</v>
+        <v>24.0408775192964</v>
       </c>
       <c r="O5">
-        <v>829.771185321815</v>
+        <v>842.817876071437</v>
       </c>
       <c r="P5">
-        <v>57.2600566038294</v>
+        <v>56.0818281422938</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8812.92487534797</v>
+        <v>8831.54209491807</v>
       </c>
       <c r="C6">
-        <v>191.49246703029</v>
+        <v>193.588043369261</v>
       </c>
       <c r="D6">
-        <v>185.9942069423</v>
+        <v>193.550546377562</v>
       </c>
       <c r="E6">
-        <v>156.846950102652</v>
+        <v>141.479378834316</v>
       </c>
       <c r="F6">
-        <v>49.3304179031285</v>
+        <v>43.621993517294</v>
       </c>
       <c r="G6">
-        <v>100.002198771345</v>
+        <v>90.0223461313999</v>
       </c>
       <c r="H6">
-        <v>77.0120541917745</v>
+        <v>80.1214524077632</v>
       </c>
       <c r="I6">
-        <v>47.9361631688167</v>
+        <v>40.8919297446046</v>
       </c>
       <c r="J6">
-        <v>187.043116031716</v>
+        <v>171.286788935215</v>
       </c>
       <c r="K6">
-        <v>109.056490843412</v>
+        <v>121.67068471661</v>
       </c>
       <c r="L6">
-        <v>531.03133557503</v>
+        <v>553.0103453512251</v>
       </c>
       <c r="M6">
-        <v>260.593115933704</v>
+        <v>256.363369668836</v>
       </c>
       <c r="N6">
-        <v>280.258814136267</v>
+        <v>282.875741071513</v>
       </c>
       <c r="O6">
-        <v>11946.1812344356</v>
+        <v>12039.3902647351</v>
       </c>
       <c r="P6">
-        <v>315.21449682613</v>
+        <v>331.657655224575</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>888.9933331024459</v>
+        <v>916.2127438975811</v>
       </c>
       <c r="C7">
-        <v>32.5078342321576</v>
+        <v>33.0002439313213</v>
       </c>
       <c r="D7">
-        <v>2.79972888007259</v>
+        <v>4.21769571758613</v>
       </c>
       <c r="E7">
-        <v>19.5894883819737</v>
+        <v>17.2793706040087</v>
       </c>
       <c r="F7">
-        <v>16.0866674709981</v>
+        <v>15.6843796878733</v>
       </c>
       <c r="G7">
-        <v>7.7101727222443</v>
+        <v>7.14021629408412</v>
       </c>
       <c r="H7">
-        <v>6.49798511677629</v>
+        <v>6.86171004014807</v>
       </c>
       <c r="I7">
-        <v>10.2970508267628</v>
+        <v>10.283891192188</v>
       </c>
       <c r="J7">
-        <v>18.6796296666749</v>
+        <v>21.7979024386833</v>
       </c>
       <c r="K7">
-        <v>14.512638507854</v>
+        <v>20.0932091171622</v>
       </c>
       <c r="L7">
-        <v>57.8169899035174</v>
+        <v>57.0465199412222</v>
       </c>
       <c r="M7">
-        <v>19.1000706372875</v>
+        <v>18.341239112141</v>
       </c>
       <c r="N7">
-        <v>29.7292726652531</v>
+        <v>25.0852545084608</v>
       </c>
       <c r="O7">
-        <v>1830.44593613044</v>
+        <v>1858.85326112919</v>
       </c>
       <c r="P7">
-        <v>41.2759554186788</v>
+        <v>34.6486641415065</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>771.190747955529</v>
+        <v>765.104840764098</v>
       </c>
       <c r="C8">
-        <v>13.0863544645543</v>
+        <v>10.2363827614952</v>
       </c>
       <c r="D8">
-        <v>7.27114385777505</v>
+        <v>11.2955961545939</v>
       </c>
       <c r="E8">
-        <v>19.1036041416692</v>
+        <v>16.4572887411407</v>
       </c>
       <c r="F8">
-        <v>2.98191880900119</v>
+        <v>4.26506076446632</v>
       </c>
       <c r="G8">
-        <v>28.484979206858</v>
+        <v>25.6323689112317</v>
       </c>
       <c r="H8">
-        <v>10.9342307930065</v>
+        <v>9.248132378611469</v>
       </c>
       <c r="I8">
-        <v>4.33140675251929</v>
+        <v>5.31029414816179</v>
       </c>
       <c r="J8">
-        <v>40.29574843129</v>
+        <v>44.3266768697314</v>
       </c>
       <c r="K8">
-        <v>24.6094180523624</v>
+        <v>28.8965745942602</v>
       </c>
       <c r="L8">
-        <v>46.7519683419835</v>
+        <v>39.9551251072814</v>
       </c>
       <c r="M8">
-        <v>50.5062044732064</v>
+        <v>50.9177818488593</v>
       </c>
       <c r="N8">
-        <v>27.0897641645497</v>
+        <v>32.7249916823727</v>
       </c>
       <c r="O8">
-        <v>1338.71774017818</v>
+        <v>1359.01288906342</v>
       </c>
       <c r="P8">
-        <v>5.92766745924968</v>
+        <v>5.44445598051377</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>204.065684634669</v>
+        <v>185.540505705185</v>
       </c>
       <c r="C9">
-        <v>8.088983449669049</v>
+        <v>7.25260666770492</v>
       </c>
       <c r="D9">
-        <v>1.95244533919847</v>
+        <v>1.57235386303575</v>
       </c>
       <c r="E9">
-        <v>5.33669213690251</v>
+        <v>4.4417832121103</v>
       </c>
       <c r="F9">
-        <v>1.82663894892029</v>
+        <v>1.72470955766354</v>
       </c>
       <c r="G9">
-        <v>20.1785631876535</v>
+        <v>19.96252056176</v>
       </c>
       <c r="H9">
-        <v>3.86072302589887</v>
+        <v>4.09709005432505</v>
       </c>
       <c r="I9">
-        <v>1.0772036652463</v>
+        <v>1.25143356655698</v>
       </c>
       <c r="J9">
-        <v>4.07886394550154</v>
+        <v>3.08748025545047</v>
       </c>
       <c r="K9">
-        <v>2.27012384606805</v>
+        <v>3.02437886673794</v>
       </c>
       <c r="L9">
-        <v>2.59009268522119</v>
+        <v>2.34316253659879</v>
       </c>
       <c r="M9">
-        <v>7.98886261430177</v>
+        <v>8.452289107666941</v>
       </c>
       <c r="N9">
-        <v>5.01019328315623</v>
+        <v>4.81768131473708</v>
       </c>
       <c r="O9">
-        <v>325.534005815295</v>
+        <v>300.067535407922</v>
       </c>
       <c r="P9">
-        <v>5.10661322543879</v>
+        <v>4.74552375534274</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4726.23507024701</v>
+        <v>4736.93101065561</v>
       </c>
       <c r="C10">
-        <v>60.153752738997</v>
+        <v>60.8982672728128</v>
       </c>
       <c r="D10">
-        <v>32.9623102325311</v>
+        <v>36.7777809499184</v>
       </c>
       <c r="E10">
-        <v>60.5187495860208</v>
+        <v>51.835074747051</v>
       </c>
       <c r="F10">
-        <v>10.9753363467224</v>
+        <v>12.4947135314164</v>
       </c>
       <c r="G10">
-        <v>31.4604870323787</v>
+        <v>30.7048092987442</v>
       </c>
       <c r="H10">
-        <v>21.4099739621214</v>
+        <v>20.2036788297507</v>
       </c>
       <c r="I10">
-        <v>34.725333382588</v>
+        <v>35.9853834734379</v>
       </c>
       <c r="J10">
-        <v>53.0959234363523</v>
+        <v>58.7157656482225</v>
       </c>
       <c r="K10">
-        <v>30.7675730470718</v>
+        <v>37.5880776498543</v>
       </c>
       <c r="L10">
-        <v>98.92991317894661</v>
+        <v>95.3616001672289</v>
       </c>
       <c r="M10">
-        <v>76.5615504818077</v>
+        <v>80.44218324353849</v>
       </c>
       <c r="N10">
-        <v>83.5202737840832</v>
+        <v>93.72344515891309</v>
       </c>
       <c r="O10">
-        <v>6349.67677390714</v>
+        <v>6359.98104997967</v>
       </c>
       <c r="P10">
-        <v>97.311212497337</v>
+        <v>105.691142900939</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1974.70742432861</v>
+        <v>1987.11742442238</v>
       </c>
       <c r="C11">
-        <v>75.34299759847841</v>
+        <v>76.2895796568301</v>
       </c>
       <c r="D11">
-        <v>150.938472700724</v>
+        <v>160.096743291467</v>
       </c>
       <c r="E11">
-        <v>88.3459042433845</v>
+        <v>74.8456109892835</v>
       </c>
       <c r="F11">
-        <v>8.852710917135029</v>
+        <v>8.489663485428929</v>
       </c>
       <c r="G11">
-        <v>30.7714586299174</v>
+        <v>28.5251622066749</v>
       </c>
       <c r="H11">
-        <v>19.1450008185258</v>
+        <v>22.7207453463565</v>
       </c>
       <c r="I11">
-        <v>17.5518452360869</v>
+        <v>21.4492338462722</v>
       </c>
       <c r="J11">
-        <v>51.9290276675214</v>
+        <v>50.3133322734878</v>
       </c>
       <c r="K11">
-        <v>32.8917910368837</v>
+        <v>41.1919470961423</v>
       </c>
       <c r="L11">
-        <v>65.99067912155169</v>
+        <v>67.03405156906069</v>
       </c>
       <c r="M11">
-        <v>58.4115004181113</v>
+        <v>51.86210005153</v>
       </c>
       <c r="N11">
-        <v>51.1283331756074</v>
+        <v>39.1296106921713</v>
       </c>
       <c r="O11">
-        <v>2987.2681663889</v>
+        <v>3004.20425696654</v>
       </c>
       <c r="P11">
-        <v>57.6555281830393</v>
+        <v>59.0917308787083</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>321.05132533438</v>
+        <v>301.826645134333</v>
       </c>
       <c r="C12">
-        <v>7.68972808803846</v>
+        <v>6.38391795041987</v>
       </c>
       <c r="D12">
-        <v>1.24593456462662</v>
+        <v>1.97368177526973</v>
       </c>
       <c r="E12">
-        <v>3.2874112491643</v>
+        <v>2.06369430428323</v>
       </c>
       <c r="F12">
-        <v>0.796364845933869</v>
+        <v>0.880316357484617</v>
       </c>
       <c r="G12">
-        <v>0.201445551667654</v>
+        <v>0.131977922946971</v>
       </c>
       <c r="H12">
-        <v>0.1451510488451</v>
+        <v>0.0830055355756268</v>
       </c>
       <c r="I12">
-        <v>1.25574475286188</v>
+        <v>0.851358819099119</v>
       </c>
       <c r="J12">
-        <v>1.62313983276308</v>
+        <v>1.24139574734292</v>
       </c>
       <c r="K12">
-        <v>0.183484486295575</v>
+        <v>0.283570210649105</v>
       </c>
       <c r="L12">
-        <v>0.560272746827294</v>
+        <v>0.162911881145835</v>
       </c>
       <c r="M12">
-        <v>4.15067904018619</v>
+        <v>3.72007770971629</v>
       </c>
       <c r="N12">
-        <v>3.00002865104485</v>
+        <v>2.93413974723293</v>
       </c>
       <c r="O12">
-        <v>526.155349407524</v>
+        <v>496.064836386065</v>
       </c>
       <c r="P12">
-        <v>19.3973051710727</v>
+        <v>18.2389188167471</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>298.178839363413</v>
+        <v>282.045442150661</v>
       </c>
       <c r="C13">
-        <v>19.8456554460039</v>
+        <v>18.1093889900095</v>
       </c>
       <c r="D13">
-        <v>0.702955830384329</v>
+        <v>0.605721913716072</v>
       </c>
       <c r="E13">
-        <v>15.646343044071</v>
+        <v>14.0428378187661</v>
       </c>
       <c r="F13">
-        <v>3.58421075219125</v>
+        <v>3.04891856566344</v>
       </c>
       <c r="G13">
-        <v>5.40390330263387</v>
+        <v>6.43515427355807</v>
       </c>
       <c r="H13">
-        <v>1.98825238191674</v>
+        <v>1.67581542887554</v>
       </c>
       <c r="I13">
-        <v>1.26209600137598</v>
+        <v>1.02440637004793</v>
       </c>
       <c r="J13">
-        <v>5.85982668140996</v>
+        <v>5.85199343410508</v>
       </c>
       <c r="K13">
-        <v>4.46709658438176</v>
+        <v>4.00595670705325</v>
       </c>
       <c r="L13">
-        <v>20.9360653201748</v>
+        <v>22.4667046661384</v>
       </c>
       <c r="M13">
-        <v>2.30148255220334</v>
+        <v>1.93760645895071</v>
       </c>
       <c r="N13">
-        <v>6.22648706301394</v>
+        <v>6.0816343801143</v>
       </c>
       <c r="O13">
-        <v>473.435510504586</v>
+        <v>465.045209903922</v>
       </c>
       <c r="P13">
-        <v>50.7835056206964</v>
+        <v>50.1931159417369</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2976.60381113562</v>
+        <v>2993.76502650848</v>
       </c>
       <c r="C14">
-        <v>115.103832314471</v>
+        <v>122.470148387815</v>
       </c>
       <c r="D14">
-        <v>17.9418310597484</v>
+        <v>17.0115765333993</v>
       </c>
       <c r="E14">
-        <v>94.24201883715131</v>
+        <v>84.6039097532188</v>
       </c>
       <c r="F14">
-        <v>23.1549979068768</v>
+        <v>24.7151593195283</v>
       </c>
       <c r="G14">
-        <v>89.5574866338317</v>
+        <v>90.9745942366512</v>
       </c>
       <c r="H14">
-        <v>56.9661003935889</v>
+        <v>54.7833628814007</v>
       </c>
       <c r="I14">
-        <v>27.1104256442535</v>
+        <v>30.1148085565279</v>
       </c>
       <c r="J14">
-        <v>166.667376596622</v>
+        <v>161.944345640735</v>
       </c>
       <c r="K14">
-        <v>156.259363560789</v>
+        <v>166.189333149064</v>
       </c>
       <c r="L14">
-        <v>134.149871345432</v>
+        <v>144.484659697087</v>
       </c>
       <c r="M14">
-        <v>85.4444793414643</v>
+        <v>89.7555799998936</v>
       </c>
       <c r="N14">
-        <v>87.7449851117678</v>
+        <v>82.8347526883006</v>
       </c>
       <c r="O14">
-        <v>4540.65752370609</v>
+        <v>4530.226993801141</v>
       </c>
       <c r="P14">
-        <v>73.6597678701344</v>
+        <v>83.0234504090207</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1416.43913323099</v>
+        <v>1430.26326627091</v>
       </c>
       <c r="C15">
-        <v>35.2664234695976</v>
+        <v>29.0869459075239</v>
       </c>
       <c r="D15">
-        <v>12.7775701802738</v>
+        <v>14.5987659342876</v>
       </c>
       <c r="E15">
-        <v>66.96623973751051</v>
+        <v>58.3862192640816</v>
       </c>
       <c r="F15">
-        <v>15.5669400697901</v>
+        <v>14.8658597146579</v>
       </c>
       <c r="G15">
-        <v>42.2601487157497</v>
+        <v>38.4781953090635</v>
       </c>
       <c r="H15">
-        <v>55.3599566803324</v>
+        <v>58.2008462197934</v>
       </c>
       <c r="I15">
-        <v>26.8342234402015</v>
+        <v>27.0558500248339</v>
       </c>
       <c r="J15">
-        <v>159.129790558882</v>
+        <v>150.687691595069</v>
       </c>
       <c r="K15">
-        <v>52.3104177766806</v>
+        <v>63.0135770435294</v>
       </c>
       <c r="L15">
-        <v>51.016656242252</v>
+        <v>53.0155036131269</v>
       </c>
       <c r="M15">
-        <v>190.306831782882</v>
+        <v>185.929071370371</v>
       </c>
       <c r="N15">
-        <v>85.625542130209</v>
+        <v>94.2124537736528</v>
       </c>
       <c r="O15">
-        <v>2013.73809424337</v>
+        <v>2012.49852604577</v>
       </c>
       <c r="P15">
-        <v>44.5682908717506</v>
+        <v>45.4664589174641</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>615.91811709231</v>
+        <v>581.468881926912</v>
       </c>
       <c r="C16">
-        <v>63.5429161225806</v>
+        <v>59.594280463208</v>
       </c>
       <c r="D16">
-        <v>6.0124117725367</v>
+        <v>7.05516333365759</v>
       </c>
       <c r="E16">
-        <v>24.4006921667136</v>
+        <v>18.2302999854928</v>
       </c>
       <c r="F16">
-        <v>3.56025076356444</v>
+        <v>3.49299911644864</v>
       </c>
       <c r="G16">
-        <v>14.8623523728424</v>
+        <v>16.0958890631991</v>
       </c>
       <c r="H16">
-        <v>15.4657434542512</v>
+        <v>14.1361913804461</v>
       </c>
       <c r="I16">
-        <v>8.5965419700221</v>
+        <v>8.192558357540809</v>
       </c>
       <c r="J16">
-        <v>45.6660804730084</v>
+        <v>40.1407802209684</v>
       </c>
       <c r="K16">
-        <v>45.7395391182908</v>
+        <v>50.2732526564854</v>
       </c>
       <c r="L16">
-        <v>33.3181688410953</v>
+        <v>30.7561878325852</v>
       </c>
       <c r="M16">
-        <v>29.3744295973852</v>
+        <v>27.771291696347</v>
       </c>
       <c r="N16">
-        <v>24.2604299870356</v>
+        <v>23.1169949183073</v>
       </c>
       <c r="O16">
-        <v>1074.05915416267</v>
+        <v>1085.16019708871</v>
       </c>
       <c r="P16">
-        <v>86.4038819918013</v>
+        <v>87.6133951112723</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>583.6952574452801</v>
+        <v>576.826183530847</v>
       </c>
       <c r="C17">
-        <v>26.994727833</v>
+        <v>26.6402227284529</v>
       </c>
       <c r="D17">
-        <v>3.73998058370452</v>
+        <v>1.94152674303871</v>
       </c>
       <c r="E17">
-        <v>18.5280863755027</v>
+        <v>13.1667137858687</v>
       </c>
       <c r="F17">
-        <v>13.1469040254691</v>
+        <v>13.6955626831026</v>
       </c>
       <c r="G17">
-        <v>8.00491653070991</v>
+        <v>6.43648186086144</v>
       </c>
       <c r="H17">
-        <v>9.92618530643041</v>
+        <v>9.442390484268129</v>
       </c>
       <c r="I17">
-        <v>8.298513760140009</v>
+        <v>7.58034305976172</v>
       </c>
       <c r="J17">
-        <v>17.8807276452837</v>
+        <v>14.2958405642594</v>
       </c>
       <c r="K17">
-        <v>15.603069000045</v>
+        <v>19.2093044233795</v>
       </c>
       <c r="L17">
-        <v>10.7440561090378</v>
+        <v>7.93594579446579</v>
       </c>
       <c r="M17">
-        <v>66.38259153327699</v>
+        <v>66.28927979864</v>
       </c>
       <c r="N17">
-        <v>17.0614132247791</v>
+        <v>13.3354376667644</v>
       </c>
       <c r="O17">
-        <v>1014.71269532407</v>
+        <v>1009.99335516952</v>
       </c>
       <c r="P17">
-        <v>64.5275605505512</v>
+        <v>61.5080951166577</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1183.68034904216</v>
+        <v>1165.42688167655</v>
       </c>
       <c r="C18">
-        <v>36.8246219531554</v>
+        <v>34.5498124375385</v>
       </c>
       <c r="D18">
-        <v>13.8679307837618</v>
+        <v>11.8762233809341</v>
       </c>
       <c r="E18">
-        <v>38.4446911456027</v>
+        <v>37.3216887790802</v>
       </c>
       <c r="F18">
-        <v>28.9373557406824</v>
+        <v>27.8856482770986</v>
       </c>
       <c r="G18">
-        <v>22.6400113340555</v>
+        <v>21.8933105881674</v>
       </c>
       <c r="H18">
-        <v>20.7338903879733</v>
+        <v>17.0553872217213</v>
       </c>
       <c r="I18">
-        <v>8.722163179211741</v>
+        <v>6.3379077900158</v>
       </c>
       <c r="J18">
-        <v>46.0803681041656</v>
+        <v>45.9876840282109</v>
       </c>
       <c r="K18">
-        <v>26.6219353908912</v>
+        <v>29.9789120656563</v>
       </c>
       <c r="L18">
-        <v>35.4246198346092</v>
+        <v>32.7180349234989</v>
       </c>
       <c r="M18">
-        <v>68.3903903788538</v>
+        <v>68.4356436866882</v>
       </c>
       <c r="N18">
-        <v>20.8045683027921</v>
+        <v>20.8790670167176</v>
       </c>
       <c r="O18">
-        <v>1333.34075697501</v>
+        <v>1301.88010696573</v>
       </c>
       <c r="P18">
-        <v>45.2999929945375</v>
+        <v>53.7523935932239</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1294.02116486572</v>
+        <v>1257.65680713907</v>
       </c>
       <c r="C19">
-        <v>25.9588157261583</v>
+        <v>22.2147753682321</v>
       </c>
       <c r="D19">
-        <v>8.52960719107746</v>
+        <v>6.69002239396501</v>
       </c>
       <c r="E19">
-        <v>38.8147923787683</v>
+        <v>36.884584705502</v>
       </c>
       <c r="F19">
-        <v>85.1615437363147</v>
+        <v>88.7248094160568</v>
       </c>
       <c r="G19">
-        <v>40.8551569967702</v>
+        <v>38.7283156563662</v>
       </c>
       <c r="H19">
-        <v>6.07937762271008</v>
+        <v>6.03269985000102</v>
       </c>
       <c r="I19">
-        <v>5.75455043947709</v>
+        <v>3.4896660350992</v>
       </c>
       <c r="J19">
-        <v>16.1498394445417</v>
+        <v>17.1594106593559</v>
       </c>
       <c r="K19">
-        <v>12.8089530902324</v>
+        <v>15.3092266338338</v>
       </c>
       <c r="L19">
-        <v>5.00489665637275</v>
+        <v>7.05499938772006</v>
       </c>
       <c r="M19">
-        <v>30.0389904083403</v>
+        <v>26.8369743412191</v>
       </c>
       <c r="N19">
-        <v>8.506273340908169</v>
+        <v>12.2726991612156</v>
       </c>
       <c r="O19">
-        <v>1485.4600692505</v>
+        <v>1497.95180869065</v>
       </c>
       <c r="P19">
-        <v>38.6589914575649</v>
+        <v>38.1673890664321</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>322.423252315736</v>
+        <v>315.505727744955</v>
       </c>
       <c r="C20">
-        <v>7.95206626229329</v>
+        <v>6.85868241854245</v>
       </c>
       <c r="D20">
-        <v>13.2571123091453</v>
+        <v>10.7979993230116</v>
       </c>
       <c r="E20">
-        <v>37.0214881282315</v>
+        <v>35.5670305627972</v>
       </c>
       <c r="F20">
-        <v>0.677850822451018</v>
+        <v>0.911650066101952</v>
       </c>
       <c r="G20">
-        <v>1.70739596935313</v>
+        <v>2.12438612460562</v>
       </c>
       <c r="H20">
-        <v>2.12934559434127</v>
+        <v>1.64050566667861</v>
       </c>
       <c r="I20">
-        <v>1.53879030932081</v>
+        <v>0.9840342607081221</v>
       </c>
       <c r="J20">
-        <v>4.77854226447116</v>
+        <v>4.80475982276836</v>
       </c>
       <c r="K20">
-        <v>3.64750475417466</v>
+        <v>4.52846099915693</v>
       </c>
       <c r="L20">
-        <v>8.00820339935447</v>
+        <v>8.204544277277581</v>
       </c>
       <c r="M20">
-        <v>16.6525508737926</v>
+        <v>15.1312376096595</v>
       </c>
       <c r="N20">
-        <v>6.64169200059018</v>
+        <v>4.12182459376737</v>
       </c>
       <c r="O20">
-        <v>494.473726726777</v>
+        <v>492.781162151718</v>
       </c>
       <c r="P20">
-        <v>25.5349307305712</v>
+        <v>27.2457415357168</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1212.83453371358</v>
+        <v>1177.33328621894</v>
       </c>
       <c r="C21">
-        <v>24.043229051655</v>
+        <v>23.2225021429861</v>
       </c>
       <c r="D21">
-        <v>7.9004250860386</v>
+        <v>9.42183594181909</v>
       </c>
       <c r="E21">
-        <v>28.7717684306444</v>
+        <v>31.8309865813692</v>
       </c>
       <c r="F21">
-        <v>4.9463659186753</v>
+        <v>5.99298707515823</v>
       </c>
       <c r="G21">
-        <v>22.7659184250792</v>
+        <v>24.5854553051582</v>
       </c>
       <c r="H21">
-        <v>5.72862599581104</v>
+        <v>4.6625211914003</v>
       </c>
       <c r="I21">
-        <v>7.61839615707956</v>
+        <v>10.124039716877</v>
       </c>
       <c r="J21">
-        <v>29.5642197235618</v>
+        <v>30.8758188302798</v>
       </c>
       <c r="K21">
-        <v>5.97654800721768</v>
+        <v>7.82739111733336</v>
       </c>
       <c r="L21">
-        <v>29.10496489429</v>
+        <v>20.0901706037006</v>
       </c>
       <c r="M21">
-        <v>30.5887134433573</v>
+        <v>25.9070276143407</v>
       </c>
       <c r="N21">
-        <v>24.4013978843367</v>
+        <v>27.1441384391307</v>
       </c>
       <c r="O21">
-        <v>2249.75974681229</v>
+        <v>2289.75851689875</v>
       </c>
       <c r="P21">
-        <v>21.1614193182213</v>
+        <v>17.5255179954139</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1462.51434807015</v>
+        <v>1484.38721022592</v>
       </c>
       <c r="C22">
-        <v>19.789881087743</v>
+        <v>19.8149159190282</v>
       </c>
       <c r="D22">
-        <v>24.9950265827936</v>
+        <v>25.8353407419545</v>
       </c>
       <c r="E22">
-        <v>44.7613966602178</v>
+        <v>40.0395156367971</v>
       </c>
       <c r="F22">
-        <v>2.60997695853575</v>
+        <v>3.19223162570989</v>
       </c>
       <c r="G22">
-        <v>29.8532901296631</v>
+        <v>29.5310313414051</v>
       </c>
       <c r="H22">
-        <v>19.7923362436379</v>
+        <v>21.104980578453</v>
       </c>
       <c r="I22">
-        <v>8.43725836604137</v>
+        <v>7.640708512115</v>
       </c>
       <c r="J22">
-        <v>47.5477585778436</v>
+        <v>49.7566467419071</v>
       </c>
       <c r="K22">
-        <v>29.5269678010033</v>
+        <v>34.6296060972676</v>
       </c>
       <c r="L22">
-        <v>126.396282191749</v>
+        <v>127.540124139749</v>
       </c>
       <c r="M22">
-        <v>17.3976049155013</v>
+        <v>15.4858161830348</v>
       </c>
       <c r="N22">
-        <v>69.784473548337</v>
+        <v>74.6344130954067</v>
       </c>
       <c r="O22">
-        <v>2555.87109887113</v>
+        <v>2555.28402500071</v>
       </c>
       <c r="P22">
-        <v>12.736832761912</v>
+        <v>12.196261000472</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2528.88309304143</v>
+        <v>2523.63962791118</v>
       </c>
       <c r="C23">
-        <v>47.591605170856</v>
+        <v>47.9906808504361</v>
       </c>
       <c r="D23">
-        <v>10.5164931858532</v>
+        <v>11.774320267909</v>
       </c>
       <c r="E23">
-        <v>57.8031602114266</v>
+        <v>45.9228075615913</v>
       </c>
       <c r="F23">
-        <v>9.8342340375305</v>
+        <v>10.8462779565444</v>
       </c>
       <c r="G23">
-        <v>54.2709653711198</v>
+        <v>50.2303436055704</v>
       </c>
       <c r="H23">
-        <v>64.29246187707869</v>
+        <v>75.42118608229499</v>
       </c>
       <c r="I23">
-        <v>15.5033180669975</v>
+        <v>16.6211477315004</v>
       </c>
       <c r="J23">
-        <v>145.030053604103</v>
+        <v>143.006611051659</v>
       </c>
       <c r="K23">
-        <v>109.895660220411</v>
+        <v>110.994970759401</v>
       </c>
       <c r="L23">
-        <v>41.0044436328797</v>
+        <v>35.2883378251485</v>
       </c>
       <c r="M23">
-        <v>533.0284502236281</v>
+        <v>521.866770684921</v>
       </c>
       <c r="N23">
-        <v>80.0126201245324</v>
+        <v>72.79570494111459</v>
       </c>
       <c r="O23">
-        <v>3229.71491001304</v>
+        <v>3263.83476308767</v>
       </c>
       <c r="P23">
-        <v>60.8717472401696</v>
+        <v>65.4669674616991</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>958.74885514314</v>
+        <v>973.047378157264</v>
       </c>
       <c r="C24">
-        <v>62.6460982539441</v>
+        <v>59.6393331956047</v>
       </c>
       <c r="D24">
-        <v>8.49761802334123</v>
+        <v>10.2468503397113</v>
       </c>
       <c r="E24">
-        <v>62.9307616824014</v>
+        <v>59.2596657657962</v>
       </c>
       <c r="F24">
-        <v>12.2723170336306</v>
+        <v>12.2690257356944</v>
       </c>
       <c r="G24">
-        <v>24.8729138158167</v>
+        <v>25.2428807971596</v>
       </c>
       <c r="H24">
-        <v>18.351198397249</v>
+        <v>13.867684122283</v>
       </c>
       <c r="I24">
-        <v>18.4003153901567</v>
+        <v>20.0487081193467</v>
       </c>
       <c r="J24">
-        <v>51.5600350097193</v>
+        <v>47.5624653924624</v>
       </c>
       <c r="K24">
-        <v>57.7944403363311</v>
+        <v>65.6753269748789</v>
       </c>
       <c r="L24">
-        <v>66.94275803209349</v>
+        <v>61.3520742010412</v>
       </c>
       <c r="M24">
-        <v>33.9019333226105</v>
+        <v>33.6606349774824</v>
       </c>
       <c r="N24">
-        <v>65.2018707939155</v>
+        <v>63.682501738969</v>
       </c>
       <c r="O24">
-        <v>1879.50021359347</v>
+        <v>1898.78416054039</v>
       </c>
       <c r="P24">
-        <v>112.210448363123</v>
+        <v>111.12223661594</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>832.127092657651</v>
+        <v>797.826317272981</v>
       </c>
       <c r="C25">
-        <v>35.5915545512409</v>
+        <v>38.8524040148066</v>
       </c>
       <c r="D25">
-        <v>18.5390397014503</v>
+        <v>19.8996969710119</v>
       </c>
       <c r="E25">
-        <v>39.9859865013929</v>
+        <v>38.3231710126203</v>
       </c>
       <c r="F25">
-        <v>15.0924728322197</v>
+        <v>13.8437872956889</v>
       </c>
       <c r="G25">
-        <v>8.13836924089251</v>
+        <v>5.88755167090652</v>
       </c>
       <c r="H25">
-        <v>13.9405209845092</v>
+        <v>14.2868553257788</v>
       </c>
       <c r="I25">
-        <v>5.71693420391599</v>
+        <v>6.48071262138333</v>
       </c>
       <c r="J25">
-        <v>17.9771302507303</v>
+        <v>17.8953172021469</v>
       </c>
       <c r="K25">
-        <v>16.5302542660864</v>
+        <v>17.9230908539344</v>
       </c>
       <c r="L25">
-        <v>20.1274233812151</v>
+        <v>18.3842583100295</v>
       </c>
       <c r="M25">
-        <v>31.0562579852318</v>
+        <v>30.0595209689642</v>
       </c>
       <c r="N25">
-        <v>44.5277258280414</v>
+        <v>46.1863334940438</v>
       </c>
       <c r="O25">
-        <v>859.605881437539</v>
+        <v>841.145667598848</v>
       </c>
       <c r="P25">
-        <v>42.0831029159943</v>
+        <v>41.9681249617769</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1326.73228477522</v>
+        <v>1303.86687765096</v>
       </c>
       <c r="C26">
-        <v>68.0212291759469</v>
+        <v>64.8737304412381</v>
       </c>
       <c r="D26">
-        <v>18.9331596166737</v>
+        <v>22.7272058373327</v>
       </c>
       <c r="E26">
-        <v>52.5312479761221</v>
+        <v>46.1595145087789</v>
       </c>
       <c r="F26">
-        <v>12.1473527571528</v>
+        <v>10.51123329778</v>
       </c>
       <c r="G26">
-        <v>29.9067134521897</v>
+        <v>28.6976019244863</v>
       </c>
       <c r="H26">
-        <v>20.6848044652498</v>
+        <v>22.5907414150302</v>
       </c>
       <c r="I26">
-        <v>17.8084793235869</v>
+        <v>18.2265345691241</v>
       </c>
       <c r="J26">
-        <v>60.493740408708</v>
+        <v>71.0651548525158</v>
       </c>
       <c r="K26">
-        <v>33.2782863696766</v>
+        <v>37.4329908515652</v>
       </c>
       <c r="L26">
-        <v>37.6894837045722</v>
+        <v>38.2971377598297</v>
       </c>
       <c r="M26">
-        <v>79.7462787066334</v>
+        <v>79.0799619520125</v>
       </c>
       <c r="N26">
-        <v>34.1040861666716</v>
+        <v>35.86826425174</v>
       </c>
       <c r="O26">
-        <v>2053.19498778899</v>
+        <v>2079.25578160521</v>
       </c>
       <c r="P26">
-        <v>76.50521673521649</v>
+        <v>79.1913253118076</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>236.026911401682</v>
+        <v>223.253393613745</v>
       </c>
       <c r="C27">
-        <v>3.05497333081351</v>
+        <v>3.05724765677855</v>
       </c>
       <c r="D27">
-        <v>0.861362499596017</v>
+        <v>1.15390631354364</v>
       </c>
       <c r="E27">
-        <v>10.7075811491792</v>
+        <v>8.688902604585749</v>
       </c>
       <c r="F27">
-        <v>6.69360670202655</v>
+        <v>6.25091634774624</v>
       </c>
       <c r="G27">
-        <v>0.844347559153338</v>
+        <v>1.03992357513273</v>
       </c>
       <c r="H27">
-        <v>0.316778732251854</v>
+        <v>0.305260729425349</v>
       </c>
       <c r="I27">
-        <v>1.9862050461629</v>
+        <v>2.50920590765736</v>
       </c>
       <c r="J27">
-        <v>3.87362092801226</v>
+        <v>3.05946934869052</v>
       </c>
       <c r="K27">
-        <v>1.58908941421946</v>
+        <v>2.30928352296526</v>
       </c>
       <c r="L27">
-        <v>1.40526316604728</v>
+        <v>1.14069928853145</v>
       </c>
       <c r="M27">
-        <v>0.760329366616365</v>
+        <v>0.617874004286319</v>
       </c>
       <c r="N27">
-        <v>4.0200735136214</v>
+        <v>3.99361244061204</v>
       </c>
       <c r="O27">
-        <v>355.709773893087</v>
+        <v>341.053067904237</v>
       </c>
       <c r="P27">
-        <v>46.1190097870855</v>
+        <v>44.974738999231</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>338.868404475024</v>
+        <v>335.280750561945</v>
       </c>
       <c r="C28">
-        <v>35.2717670383883</v>
+        <v>35.4079718834795</v>
       </c>
       <c r="D28">
-        <v>3.46481460475275</v>
+        <v>3.85521754225112</v>
       </c>
       <c r="E28">
-        <v>6.93457130143873</v>
+        <v>7.33711906254637</v>
       </c>
       <c r="F28">
-        <v>2.61031087179445</v>
+        <v>1.94910887083882</v>
       </c>
       <c r="G28">
-        <v>4.86230914301105</v>
+        <v>4.62004551010061</v>
       </c>
       <c r="H28">
-        <v>7.78758451573117</v>
+        <v>8.272827768227261</v>
       </c>
       <c r="I28">
-        <v>3.48778648612115</v>
+        <v>3.37787012889284</v>
       </c>
       <c r="J28">
-        <v>16.6801567008821</v>
+        <v>13.0266483794532</v>
       </c>
       <c r="K28">
-        <v>15.0320410389942</v>
+        <v>16.6923381896355</v>
       </c>
       <c r="L28">
-        <v>16.597285932695</v>
+        <v>15.6895426159844</v>
       </c>
       <c r="M28">
-        <v>10.056786926519</v>
+        <v>7.8594289766077</v>
       </c>
       <c r="N28">
-        <v>9.72744700754393</v>
+        <v>11.115001254282</v>
       </c>
       <c r="O28">
-        <v>661.155201871184</v>
+        <v>639.326019975284</v>
       </c>
       <c r="P28">
-        <v>88.9328180490746</v>
+        <v>86.781816571505</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>510.310774356864</v>
+        <v>494.600053221797</v>
       </c>
       <c r="C29">
-        <v>4.74059466188088</v>
+        <v>2.92813185452897</v>
       </c>
       <c r="D29">
-        <v>2.11827599451315</v>
+        <v>2.1810866974547</v>
       </c>
       <c r="E29">
-        <v>5.30900520749244</v>
+        <v>4.59591957216639</v>
       </c>
       <c r="F29">
-        <v>18.6973871521461</v>
+        <v>19.3287344984383</v>
       </c>
       <c r="G29">
-        <v>2.331464623874</v>
+        <v>1.22065697117169</v>
       </c>
       <c r="H29">
-        <v>2.80742366012429</v>
+        <v>2.92250447748408</v>
       </c>
       <c r="I29">
-        <v>3.28663335286753</v>
+        <v>3.20801106739233</v>
       </c>
       <c r="J29">
-        <v>5.30362377534426</v>
+        <v>5.41727797303812</v>
       </c>
       <c r="K29">
-        <v>3.01431079234625</v>
+        <v>4.00014548708589</v>
       </c>
       <c r="L29">
-        <v>3.45402681898824</v>
+        <v>2.50717327049791</v>
       </c>
       <c r="M29">
-        <v>2.22319057999489</v>
+        <v>2.66023388141799</v>
       </c>
       <c r="N29">
-        <v>11.5742517071448</v>
+        <v>9.450080431029271</v>
       </c>
       <c r="O29">
-        <v>881.390630303905</v>
+        <v>880.000217675868</v>
       </c>
       <c r="P29">
-        <v>6.3124249144251</v>
+        <v>7.61109782659369</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>256.420987191323</v>
+        <v>252.465783663545</v>
       </c>
       <c r="C30">
-        <v>3.8193747797859</v>
+        <v>4.71222605449163</v>
       </c>
       <c r="D30">
-        <v>6.27242573923333</v>
+        <v>7.54838650940787</v>
       </c>
       <c r="E30">
-        <v>17.1803909756765</v>
+        <v>14.3715279790863</v>
       </c>
       <c r="F30">
-        <v>0.941629988403809</v>
+        <v>0.971980838971016</v>
       </c>
       <c r="G30">
-        <v>4.1275559505935</v>
+        <v>3.59329161466849</v>
       </c>
       <c r="H30">
-        <v>5.16008581865475</v>
+        <v>4.82361756548445</v>
       </c>
       <c r="I30">
-        <v>3.08851327990416</v>
+        <v>3.45335678439624</v>
       </c>
       <c r="J30">
-        <v>17.7123149177891</v>
+        <v>16.5930862841258</v>
       </c>
       <c r="K30">
-        <v>10.3956878296465</v>
+        <v>12.0159038107839</v>
       </c>
       <c r="L30">
-        <v>37.2417725020306</v>
+        <v>34.1647967535087</v>
       </c>
       <c r="M30">
-        <v>10.7492158017552</v>
+        <v>8.578318287082681</v>
       </c>
       <c r="N30">
-        <v>13.9970591402033</v>
+        <v>14.8531759888696</v>
       </c>
       <c r="O30">
-        <v>509.805670853519</v>
+        <v>488.797202195852</v>
       </c>
       <c r="P30">
-        <v>8.99120427107629</v>
+        <v>8.03558530382128</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2090.21479413348</v>
+        <v>2065.72148681137</v>
       </c>
       <c r="C31">
-        <v>45.0357594992038</v>
+        <v>41.8766553193136</v>
       </c>
       <c r="D31">
-        <v>41.1108471076594</v>
+        <v>45.6554879173156</v>
       </c>
       <c r="E31">
-        <v>48.217374408809</v>
+        <v>47.913212648092</v>
       </c>
       <c r="F31">
-        <v>6.97489315071675</v>
+        <v>11.9172770823032</v>
       </c>
       <c r="G31">
-        <v>126.906698909615</v>
+        <v>121.88560932645</v>
       </c>
       <c r="H31">
-        <v>23.876004050247</v>
+        <v>22.2080198007134</v>
       </c>
       <c r="I31">
-        <v>23.5721217871631</v>
+        <v>22.7965615817084</v>
       </c>
       <c r="J31">
-        <v>46.0014899936873</v>
+        <v>48.605484864718</v>
       </c>
       <c r="K31">
-        <v>25.8223759199592</v>
+        <v>30.7958018894187</v>
       </c>
       <c r="L31">
-        <v>74.6046213173484</v>
+        <v>76.4005720432689</v>
       </c>
       <c r="M31">
-        <v>21.0477595857743</v>
+        <v>16.5955365704237</v>
       </c>
       <c r="N31">
-        <v>50.6269849001649</v>
+        <v>50.3850679541879</v>
       </c>
       <c r="O31">
-        <v>3338.33170796748</v>
+        <v>3382.9965955532</v>
       </c>
       <c r="P31">
-        <v>11.0254127609202</v>
+        <v>5.45742436417938</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>507.983678090589</v>
+        <v>500.996941979598</v>
       </c>
       <c r="C32">
-        <v>5.38547872263451</v>
+        <v>8.07720938430051</v>
       </c>
       <c r="D32">
-        <v>1.04384407797916</v>
+        <v>0.928341324624879</v>
       </c>
       <c r="E32">
-        <v>3.29777089033741</v>
+        <v>3.94984358489863</v>
       </c>
       <c r="F32">
-        <v>22.6298459644451</v>
+        <v>22.5955775183103</v>
       </c>
       <c r="G32">
-        <v>1.92976636324985</v>
+        <v>1.80996377622881</v>
       </c>
       <c r="H32">
-        <v>1.63981139313242</v>
+        <v>2.17942745477629</v>
       </c>
       <c r="I32">
-        <v>3.64917799342039</v>
+        <v>5.87589711250278</v>
       </c>
       <c r="J32">
-        <v>5.25104763874985</v>
+        <v>6.30572064686715</v>
       </c>
       <c r="K32">
-        <v>1.66638190836083</v>
+        <v>1.29816652457392</v>
       </c>
       <c r="L32">
-        <v>15.758256399905</v>
+        <v>15.1385015084681</v>
       </c>
       <c r="M32">
-        <v>3.1637197149151</v>
+        <v>2.98263495058525</v>
       </c>
       <c r="N32">
-        <v>9.310557868818099</v>
+        <v>7.07381615344365</v>
       </c>
       <c r="O32">
-        <v>674.849122595219</v>
+        <v>660.457941724039</v>
       </c>
       <c r="P32">
-        <v>23.4676480214788</v>
+        <v>19.8320877717176</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5230.82831717513</v>
+        <v>5246.85843453068</v>
       </c>
       <c r="C33">
-        <v>89.2628918399264</v>
+        <v>82.8761654581605</v>
       </c>
       <c r="D33">
-        <v>98.5350115429198</v>
+        <v>110.844412548634</v>
       </c>
       <c r="E33">
-        <v>95.5055263855306</v>
+        <v>89.1795085483524</v>
       </c>
       <c r="F33">
-        <v>9.40871526742375</v>
+        <v>8.89007114196183</v>
       </c>
       <c r="G33">
-        <v>79.47157842114071</v>
+        <v>73.2437181560512</v>
       </c>
       <c r="H33">
-        <v>35.5672374719628</v>
+        <v>35.9442408861462</v>
       </c>
       <c r="I33">
-        <v>33.4828852502805</v>
+        <v>35.1965569537572</v>
       </c>
       <c r="J33">
-        <v>108.138709270273</v>
+        <v>107.281499108176</v>
       </c>
       <c r="K33">
-        <v>105.897922441966</v>
+        <v>120.178876265142</v>
       </c>
       <c r="L33">
-        <v>139.150106844682</v>
+        <v>134.311123592468</v>
       </c>
       <c r="M33">
-        <v>72.2088637897902</v>
+        <v>71.018734451814</v>
       </c>
       <c r="N33">
-        <v>129.672885230243</v>
+        <v>137.202467847083</v>
       </c>
       <c r="O33">
-        <v>7039.22599098402</v>
+        <v>7059.88412349493</v>
       </c>
       <c r="P33">
-        <v>79.70795201817801</v>
+        <v>77.56612327590619</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2018.59077070784</v>
+        <v>2063.73888647893</v>
       </c>
       <c r="C34">
-        <v>68.9966236618655</v>
+        <v>66.0179954524332</v>
       </c>
       <c r="D34">
-        <v>195.45716661225</v>
+        <v>191.8238568963</v>
       </c>
       <c r="E34">
-        <v>62.5990894108781</v>
+        <v>59.6648293756185</v>
       </c>
       <c r="F34">
-        <v>6.89251480775217</v>
+        <v>7.98006512348859</v>
       </c>
       <c r="G34">
-        <v>53.6029434271619</v>
+        <v>50.8862484703474</v>
       </c>
       <c r="H34">
-        <v>40.4339630084127</v>
+        <v>38.9424105190373</v>
       </c>
       <c r="I34">
-        <v>20.2625180524514</v>
+        <v>20.7315975183988</v>
       </c>
       <c r="J34">
-        <v>57.7144727422806</v>
+        <v>60.1974380931753</v>
       </c>
       <c r="K34">
-        <v>50.0971811325695</v>
+        <v>56.8226231336409</v>
       </c>
       <c r="L34">
-        <v>103.079962431808</v>
+        <v>92.66435977155911</v>
       </c>
       <c r="M34">
-        <v>43.8746489553669</v>
+        <v>45.5006350546456</v>
       </c>
       <c r="N34">
-        <v>122.032034084623</v>
+        <v>121.612367555601</v>
       </c>
       <c r="O34">
-        <v>2772.26643462827</v>
+        <v>2781.36752276035</v>
       </c>
       <c r="P34">
-        <v>68.2441494696026</v>
+        <v>67.361391291197</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>144.839665643548</v>
+        <v>133.847562194275</v>
       </c>
       <c r="C35">
-        <v>7.26245679069326</v>
+        <v>6.51235702002082</v>
       </c>
       <c r="D35">
-        <v>0.484612964075593</v>
+        <v>0.430516422420704</v>
       </c>
       <c r="E35">
-        <v>2.76810033963859</v>
+        <v>2.48620973630265</v>
       </c>
       <c r="F35">
-        <v>5.06631926650508</v>
+        <v>5.36905095598244</v>
       </c>
       <c r="G35">
-        <v>0.607532531772391</v>
+        <v>0.636891405312395</v>
       </c>
       <c r="H35">
-        <v>0.387226052824737</v>
+        <v>0.295753746702018</v>
       </c>
       <c r="I35">
-        <v>1.38963736648165</v>
+        <v>1.09957267463019</v>
       </c>
       <c r="J35">
-        <v>2.47727454279477</v>
+        <v>2.47875893996637</v>
       </c>
       <c r="K35">
-        <v>5.98209515248004</v>
+        <v>5.76860568425586</v>
       </c>
       <c r="L35">
-        <v>2.53940044885475</v>
+        <v>1.82273341654526</v>
       </c>
       <c r="M35">
-        <v>2.39313487243443</v>
+        <v>2.47249009485225</v>
       </c>
       <c r="N35">
-        <v>2.14271443254835</v>
+        <v>2.21884326011517</v>
       </c>
       <c r="O35">
-        <v>248.930841854469</v>
+        <v>239.09017233098</v>
       </c>
       <c r="P35">
-        <v>43.8351045298499</v>
+        <v>42.5334453756336</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2819.10366085134</v>
+        <v>2800.74928646678</v>
       </c>
       <c r="C36">
-        <v>64.220440974783</v>
+        <v>64.987100899894</v>
       </c>
       <c r="D36">
-        <v>14.6052128575948</v>
+        <v>15.5613051371209</v>
       </c>
       <c r="E36">
-        <v>109.008975535614</v>
+        <v>87.7541743278437</v>
       </c>
       <c r="F36">
-        <v>26.5522631426965</v>
+        <v>31.8985130744127</v>
       </c>
       <c r="G36">
-        <v>86.7743101327091</v>
+        <v>91.8177071091247</v>
       </c>
       <c r="H36">
-        <v>103.162734710645</v>
+        <v>108.010810563742</v>
       </c>
       <c r="I36">
-        <v>51.98971086098</v>
+        <v>54.4676902923879</v>
       </c>
       <c r="J36">
-        <v>227.978969260576</v>
+        <v>224.644743823709</v>
       </c>
       <c r="K36">
-        <v>133.224436710744</v>
+        <v>129.127560771837</v>
       </c>
       <c r="L36">
-        <v>96.1573008480928</v>
+        <v>87.0519828320847</v>
       </c>
       <c r="M36">
-        <v>238.723022070096</v>
+        <v>235.516825680942</v>
       </c>
       <c r="N36">
-        <v>97.9504488024289</v>
+        <v>94.65763545686041</v>
       </c>
       <c r="O36">
-        <v>3889.82244701852</v>
+        <v>3922.72665675713</v>
       </c>
       <c r="P36">
-        <v>49.2239880363311</v>
+        <v>60.7339873372115</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>906.588726481904</v>
+        <v>904.362227272666</v>
       </c>
       <c r="C37">
-        <v>25.1373895281052</v>
+        <v>22.2689453291673</v>
       </c>
       <c r="D37">
-        <v>6.52512880414173</v>
+        <v>5.4450690236851</v>
       </c>
       <c r="E37">
-        <v>20.667146282432</v>
+        <v>19.7076616655475</v>
       </c>
       <c r="F37">
-        <v>39.747194602502</v>
+        <v>38.6665844283502</v>
       </c>
       <c r="G37">
-        <v>7.85315748818523</v>
+        <v>11.210833344504</v>
       </c>
       <c r="H37">
-        <v>22.2395086728589</v>
+        <v>23.483032536192</v>
       </c>
       <c r="I37">
-        <v>12.6447810746858</v>
+        <v>15.4276173210376</v>
       </c>
       <c r="J37">
-        <v>34.775693129558</v>
+        <v>35.2708774276121</v>
       </c>
       <c r="K37">
-        <v>33.8905424405033</v>
+        <v>34.1275791329108</v>
       </c>
       <c r="L37">
-        <v>20.6716525797671</v>
+        <v>21.4392852801403</v>
       </c>
       <c r="M37">
-        <v>34.7934723164034</v>
+        <v>34.2596485247253</v>
       </c>
       <c r="N37">
-        <v>14.7636385147808</v>
+        <v>12.4649355668033</v>
       </c>
       <c r="O37">
-        <v>1164.20309125763</v>
+        <v>1174.60977308318</v>
       </c>
       <c r="P37">
-        <v>55.9098059077759</v>
+        <v>58.3385848047902</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>881.997842881452</v>
+        <v>887.142307550974</v>
       </c>
       <c r="C38">
-        <v>23.5937543705038</v>
+        <v>24.0920176247814</v>
       </c>
       <c r="D38">
-        <v>9.400701493448199</v>
+        <v>9.90949248203609</v>
       </c>
       <c r="E38">
-        <v>62.6495082801118</v>
+        <v>60.1236914154299</v>
       </c>
       <c r="F38">
-        <v>3.00545844689305</v>
+        <v>3.40470402462635</v>
       </c>
       <c r="G38">
-        <v>5.7261994643607</v>
+        <v>3.88650637380263</v>
       </c>
       <c r="H38">
-        <v>4.74270666825206</v>
+        <v>5.09993581002661</v>
       </c>
       <c r="I38">
-        <v>4.95156635282969</v>
+        <v>5.18274338697979</v>
       </c>
       <c r="J38">
-        <v>35.8795901148402</v>
+        <v>39.8061766727385</v>
       </c>
       <c r="K38">
-        <v>9.159279844297631</v>
+        <v>11.9064122975299</v>
       </c>
       <c r="L38">
-        <v>58.9900913641447</v>
+        <v>56.0508424981705</v>
       </c>
       <c r="M38">
-        <v>18.8629061561243</v>
+        <v>17.2992035717776</v>
       </c>
       <c r="N38">
-        <v>24.1201744769014</v>
+        <v>29.2313755688246</v>
       </c>
       <c r="O38">
-        <v>1254.87758935661</v>
+        <v>1273.70098007938</v>
       </c>
       <c r="P38">
-        <v>69.8650468976694</v>
+        <v>73.7749116566244</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3266.85528217831</v>
+        <v>3289.41631664662</v>
       </c>
       <c r="C39">
-        <v>94.3138023578279</v>
+        <v>93.4227475519431</v>
       </c>
       <c r="D39">
-        <v>61.7971121748081</v>
+        <v>65.4442506457314</v>
       </c>
       <c r="E39">
-        <v>138.602965642984</v>
+        <v>135.20388554201</v>
       </c>
       <c r="F39">
-        <v>31.2279796196805</v>
+        <v>36.2420445834826</v>
       </c>
       <c r="G39">
-        <v>101.226250738521</v>
+        <v>102.280323707385</v>
       </c>
       <c r="H39">
-        <v>54.6877209636203</v>
+        <v>51.7432510379957</v>
       </c>
       <c r="I39">
-        <v>46.6546044885155</v>
+        <v>46.8942981692177</v>
       </c>
       <c r="J39">
-        <v>190.499370987317</v>
+        <v>194.566639804896</v>
       </c>
       <c r="K39">
-        <v>100.756558758257</v>
+        <v>113.02087272206</v>
       </c>
       <c r="L39">
-        <v>111.165269807817</v>
+        <v>107.625050728593</v>
       </c>
       <c r="M39">
-        <v>65.3072727512097</v>
+        <v>65.3919495468555</v>
       </c>
       <c r="N39">
-        <v>108.61112106509</v>
+        <v>98.0785552954292</v>
       </c>
       <c r="O39">
-        <v>4298.56534569073</v>
+        <v>4284.38411367535</v>
       </c>
       <c r="P39">
-        <v>78.0360692149826</v>
+        <v>78.0032432073843</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>269.248983854847</v>
+        <v>255.543614527595</v>
       </c>
       <c r="C40">
-        <v>3.7921194188138</v>
+        <v>3.99635784610577</v>
       </c>
       <c r="D40">
-        <v>8.47315252605549</v>
+        <v>8.25145012719902</v>
       </c>
       <c r="E40">
-        <v>5.65855032903755</v>
+        <v>5.29948149313573</v>
       </c>
       <c r="F40">
-        <v>0.192622011496269</v>
+        <v>0.124734737856581</v>
       </c>
       <c r="G40">
-        <v>4.94288637570533</v>
+        <v>5.94250705210376</v>
       </c>
       <c r="H40">
-        <v>4.82715838316657</v>
+        <v>3.92752208154668</v>
       </c>
       <c r="I40">
-        <v>1.79020443874942</v>
+        <v>1.23405253018822</v>
       </c>
       <c r="J40">
-        <v>10.8742429455745</v>
+        <v>9.601784192455771</v>
       </c>
       <c r="K40">
-        <v>5.81182426213952</v>
+        <v>5.78532786519722</v>
       </c>
       <c r="L40">
-        <v>15.1679835173065</v>
+        <v>15.7150173010651</v>
       </c>
       <c r="M40">
-        <v>5.72810897200834</v>
+        <v>5.65106792079018</v>
       </c>
       <c r="N40">
-        <v>23.0607013887193</v>
+        <v>22.4036454026419</v>
       </c>
       <c r="O40">
-        <v>417.143608743107</v>
+        <v>403.687664603601</v>
       </c>
       <c r="P40">
-        <v>2.57368732032255</v>
+        <v>3.07620984361338</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1063.59045096201</v>
+        <v>1058.46575567615</v>
       </c>
       <c r="C41">
-        <v>16.5643885579212</v>
+        <v>14.1328120239334</v>
       </c>
       <c r="D41">
-        <v>98.9625025363457</v>
+        <v>88.60746496783609</v>
       </c>
       <c r="E41">
-        <v>36.351236412739</v>
+        <v>38.4385507240013</v>
       </c>
       <c r="F41">
-        <v>2.19849048632639</v>
+        <v>2.35159427850309</v>
       </c>
       <c r="G41">
-        <v>26.0255558766813</v>
+        <v>27.4949110468674</v>
       </c>
       <c r="H41">
-        <v>34.0416958643567</v>
+        <v>35.4499530857014</v>
       </c>
       <c r="I41">
-        <v>13.8526512514747</v>
+        <v>16.7388949934151</v>
       </c>
       <c r="J41">
-        <v>44.2804862051034</v>
+        <v>49.9592248046546</v>
       </c>
       <c r="K41">
-        <v>27.1081620419464</v>
+        <v>32.4113130459318</v>
       </c>
       <c r="L41">
-        <v>33.2947606705782</v>
+        <v>32.1128761765833</v>
       </c>
       <c r="M41">
-        <v>30.3790647303872</v>
+        <v>26.5181779923864</v>
       </c>
       <c r="N41">
-        <v>20.1938618348254</v>
+        <v>23.5997533658561</v>
       </c>
       <c r="O41">
-        <v>1340.49250471441</v>
+        <v>1346.48604691228</v>
       </c>
       <c r="P41">
-        <v>29.9687242129903</v>
+        <v>36.0057435010312</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>154.866141988919</v>
+        <v>139.585885493031</v>
       </c>
       <c r="C42">
-        <v>7.43282010638668</v>
+        <v>6.09398898056406</v>
       </c>
       <c r="D42">
-        <v>1.59823939206101</v>
+        <v>1.33068079861731</v>
       </c>
       <c r="E42">
-        <v>5.53982562760021</v>
+        <v>4.22189915237587</v>
       </c>
       <c r="F42">
-        <v>2.17309872004391</v>
+        <v>2.39936318933606</v>
       </c>
       <c r="G42">
-        <v>1.33165826404858</v>
+        <v>1.54502260717433</v>
       </c>
       <c r="H42">
-        <v>1.09368784606352</v>
+        <v>0.946316749745742</v>
       </c>
       <c r="I42">
-        <v>0.8605587569633501</v>
+        <v>0.507506157999942</v>
       </c>
       <c r="J42">
-        <v>3.57959201896415</v>
+        <v>3.97157372033452</v>
       </c>
       <c r="K42">
-        <v>5.38296298218568</v>
+        <v>4.93719443155553</v>
       </c>
       <c r="L42">
-        <v>8.27438532052444</v>
+        <v>6.72944431087613</v>
       </c>
       <c r="M42">
-        <v>3.96134002027677</v>
+        <v>3.37163437623056</v>
       </c>
       <c r="N42">
-        <v>7.68686941598503</v>
+        <v>6.44839115047701</v>
       </c>
       <c r="O42">
-        <v>304.746207524342</v>
+        <v>279.03554700698</v>
       </c>
       <c r="P42">
-        <v>50.4954648575129</v>
+        <v>46.827441425276</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1512.18119881009</v>
+        <v>1528.35330941161</v>
       </c>
       <c r="C43">
-        <v>39.0891020006216</v>
+        <v>42.6007583209665</v>
       </c>
       <c r="D43">
-        <v>52.5617467935389</v>
+        <v>59.3569574603635</v>
       </c>
       <c r="E43">
-        <v>62.7811014144796</v>
+        <v>58.7264843721687</v>
       </c>
       <c r="F43">
-        <v>7.44616912084957</v>
+        <v>7.67109340077465</v>
       </c>
       <c r="G43">
-        <v>25.7700712546987</v>
+        <v>19.8074422360197</v>
       </c>
       <c r="H43">
-        <v>32.2463066918881</v>
+        <v>34.1900801681777</v>
       </c>
       <c r="I43">
-        <v>22.5876288484902</v>
+        <v>24.3362722902316</v>
       </c>
       <c r="J43">
-        <v>53.5575985999345</v>
+        <v>52.873699264608</v>
       </c>
       <c r="K43">
-        <v>55.3865216867868</v>
+        <v>62.0289774864124</v>
       </c>
       <c r="L43">
-        <v>54.5920430005415</v>
+        <v>50.0417838695642</v>
       </c>
       <c r="M43">
-        <v>112.859885664338</v>
+        <v>108.567405098213</v>
       </c>
       <c r="N43">
-        <v>63.5606139300488</v>
+        <v>62.8548324138605</v>
       </c>
       <c r="O43">
-        <v>1924.2043266236</v>
+        <v>1943.89395572202</v>
       </c>
       <c r="P43">
-        <v>46.008298478022</v>
+        <v>32.1318178970939</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5105.76019930748</v>
+        <v>5126.51039177733</v>
       </c>
       <c r="C44">
-        <v>120.196027444346</v>
+        <v>126.267252075169</v>
       </c>
       <c r="D44">
-        <v>53.088086787272</v>
+        <v>59.4237543974934</v>
       </c>
       <c r="E44">
-        <v>106.153904498909</v>
+        <v>97.94001744977319</v>
       </c>
       <c r="F44">
-        <v>226.19235044035</v>
+        <v>230.681583123585</v>
       </c>
       <c r="G44">
-        <v>134.829831173606</v>
+        <v>131.523977305426</v>
       </c>
       <c r="H44">
-        <v>52.0847770970481</v>
+        <v>52.097332829835</v>
       </c>
       <c r="I44">
-        <v>45.4919605817416</v>
+        <v>41.7800058585805</v>
       </c>
       <c r="J44">
-        <v>123.638678662075</v>
+        <v>135.798383770136</v>
       </c>
       <c r="K44">
-        <v>89.39180453137981</v>
+        <v>89.06487468794801</v>
       </c>
       <c r="L44">
-        <v>213.662499032583</v>
+        <v>222.764156371222</v>
       </c>
       <c r="M44">
-        <v>112.03302042043</v>
+        <v>115.004733483861</v>
       </c>
       <c r="N44">
-        <v>94.8861415513943</v>
+        <v>87.6533662492769</v>
       </c>
       <c r="O44">
-        <v>7409.13954464083</v>
+        <v>7506.15295514554</v>
       </c>
       <c r="P44">
-        <v>214.397295579921</v>
+        <v>206.017583943664</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>469.759323978179</v>
+        <v>461.262004722172</v>
       </c>
       <c r="C45">
-        <v>16.4128080420784</v>
+        <v>15.1514822453001</v>
       </c>
       <c r="D45">
-        <v>3.19861610155608</v>
+        <v>3.19798993438726</v>
       </c>
       <c r="E45">
-        <v>15.5463658695778</v>
+        <v>12.6910646822705</v>
       </c>
       <c r="F45">
-        <v>21.1974510580931</v>
+        <v>21.5476454038237</v>
       </c>
       <c r="G45">
-        <v>8.553829873426651</v>
+        <v>8.269258343479921</v>
       </c>
       <c r="H45">
-        <v>2.49187379505268</v>
+        <v>2.46608351347113</v>
       </c>
       <c r="I45">
-        <v>4.06414514554183</v>
+        <v>3.97012946116505</v>
       </c>
       <c r="J45">
-        <v>21.3867650210438</v>
+        <v>22.7761767171695</v>
       </c>
       <c r="K45">
-        <v>5.88417092428038</v>
+        <v>6.50491417211865</v>
       </c>
       <c r="L45">
-        <v>17.2793727605365</v>
+        <v>15.1549271481891</v>
       </c>
       <c r="M45">
-        <v>23.0781196452014</v>
+        <v>22.3544314586892</v>
       </c>
       <c r="N45">
-        <v>30.6463257334757</v>
+        <v>29.5369104564321</v>
       </c>
       <c r="O45">
-        <v>812.691779718269</v>
+        <v>808.615580895073</v>
       </c>
       <c r="P45">
-        <v>22.4830545777735</v>
+        <v>17.3825503258215</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>135.567066055488</v>
+        <v>128.92809242647</v>
       </c>
       <c r="C46">
-        <v>4.19812012120179</v>
+        <v>3.43967608464476</v>
       </c>
       <c r="D46">
-        <v>1.97958925222476</v>
+        <v>1.84307003932965</v>
       </c>
       <c r="E46">
-        <v>7.21722702427517</v>
+        <v>6.71560200201941</v>
       </c>
       <c r="F46">
-        <v>1.20338424446352</v>
+        <v>0.916701534820491</v>
       </c>
       <c r="G46">
-        <v>2.72785089628959</v>
+        <v>2.69158323201185</v>
       </c>
       <c r="H46">
-        <v>1.96860224371728</v>
+        <v>1.85744745550237</v>
       </c>
       <c r="I46">
-        <v>1.83689171167511</v>
+        <v>1.6109496050173</v>
       </c>
       <c r="J46">
-        <v>4.83886598022766</v>
+        <v>3.99442820968595</v>
       </c>
       <c r="K46">
-        <v>4.76723492014698</v>
+        <v>5.44402161975013</v>
       </c>
       <c r="L46">
-        <v>11.5622305830223</v>
+        <v>10.4266475425318</v>
       </c>
       <c r="M46">
-        <v>4.05603940134991</v>
+        <v>3.0080577339055</v>
       </c>
       <c r="N46">
-        <v>8.27824376904436</v>
+        <v>8.124976487516531</v>
       </c>
       <c r="O46">
-        <v>262.369563515717</v>
+        <v>239.235848048558</v>
       </c>
       <c r="P46">
-        <v>12.5045657514022</v>
+        <v>11.95568205487</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1651.20332740867</v>
+        <v>1677.06837370093</v>
       </c>
       <c r="C47">
-        <v>56.9771688548475</v>
+        <v>53.3232341452842</v>
       </c>
       <c r="D47">
-        <v>45.0708118577567</v>
+        <v>47.633571984465</v>
       </c>
       <c r="E47">
-        <v>61.8471290172656</v>
+        <v>61.9660022891433</v>
       </c>
       <c r="F47">
-        <v>11.4009720719084</v>
+        <v>12.1927436820671</v>
       </c>
       <c r="G47">
-        <v>29.267878055218</v>
+        <v>27.8829816934187</v>
       </c>
       <c r="H47">
-        <v>16.4717628029486</v>
+        <v>15.3412673346681</v>
       </c>
       <c r="I47">
-        <v>9.94718010022809</v>
+        <v>9.787214865539379</v>
       </c>
       <c r="J47">
-        <v>40.8282550836924</v>
+        <v>41.338369847899</v>
       </c>
       <c r="K47">
-        <v>17.5956317406242</v>
+        <v>24.0814681314388</v>
       </c>
       <c r="L47">
-        <v>45.9550742267555</v>
+        <v>44.2493019514274</v>
       </c>
       <c r="M47">
-        <v>71.3545741295747</v>
+        <v>70.8816022209209</v>
       </c>
       <c r="N47">
-        <v>40.8645365683524</v>
+        <v>43.2581693146808</v>
       </c>
       <c r="O47">
-        <v>2773.90432846788</v>
+        <v>2754.42869354108</v>
       </c>
       <c r="P47">
-        <v>39.5572833987393</v>
+        <v>37.497345274288</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1466.77394700983</v>
+        <v>1449.08140053652</v>
       </c>
       <c r="C48">
-        <v>29.3903593435763</v>
+        <v>24.909968553167</v>
       </c>
       <c r="D48">
-        <v>8.27253842867667</v>
+        <v>7.7616543545599</v>
       </c>
       <c r="E48">
-        <v>67.9374544308962</v>
+        <v>67.2401951320244</v>
       </c>
       <c r="F48">
-        <v>7.38299506690758</v>
+        <v>4.84128523329233</v>
       </c>
       <c r="G48">
-        <v>7.32653023291526</v>
+        <v>4.23540610106653</v>
       </c>
       <c r="H48">
-        <v>4.20513484375221</v>
+        <v>3.49719933701083</v>
       </c>
       <c r="I48">
-        <v>9.324609301189501</v>
+        <v>7.77617055418393</v>
       </c>
       <c r="J48">
-        <v>33.9399811145214</v>
+        <v>36.8226186981563</v>
       </c>
       <c r="K48">
-        <v>18.3437456277385</v>
+        <v>17.7350314449392</v>
       </c>
       <c r="L48">
-        <v>42.622556910998</v>
+        <v>44.4005018603536</v>
       </c>
       <c r="M48">
-        <v>123.646277613658</v>
+        <v>115.985198225957</v>
       </c>
       <c r="N48">
-        <v>30.7010043963343</v>
+        <v>26.7078650383246</v>
       </c>
       <c r="O48">
-        <v>2201.87051247482</v>
+        <v>2265.07100579436</v>
       </c>
       <c r="P48">
-        <v>92.831057902288</v>
+        <v>95.1003140191025</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>663.275133611995</v>
+        <v>636.226256157122</v>
       </c>
       <c r="C49">
-        <v>6.78506004746499</v>
+        <v>7.53603738575886</v>
       </c>
       <c r="D49">
-        <v>3.98674651097028</v>
+        <v>4.05796573974076</v>
       </c>
       <c r="E49">
-        <v>19.11028445576</v>
+        <v>17.2450398672391</v>
       </c>
       <c r="F49">
-        <v>27.5832754798233</v>
+        <v>27.1820059115739</v>
       </c>
       <c r="G49">
-        <v>17.0031513660779</v>
+        <v>15.7927062366087</v>
       </c>
       <c r="H49">
-        <v>5.85861036840159</v>
+        <v>5.77013294802433</v>
       </c>
       <c r="I49">
-        <v>6.58188834029273</v>
+        <v>7.49937638855188</v>
       </c>
       <c r="J49">
-        <v>21.5590544255918</v>
+        <v>21.0473813374361</v>
       </c>
       <c r="K49">
-        <v>5.24630997944457</v>
+        <v>4.71376345871464</v>
       </c>
       <c r="L49">
-        <v>1.55860334408998</v>
+        <v>1.46431613072307</v>
       </c>
       <c r="M49">
-        <v>7.33398232364849</v>
+        <v>7.72784520718429</v>
       </c>
       <c r="N49">
-        <v>4.96236257240119</v>
+        <v>5.56188268001399</v>
       </c>
       <c r="O49">
-        <v>585.02260436231</v>
+        <v>572.763161840616</v>
       </c>
       <c r="P49">
-        <v>8.524764156885871</v>
+        <v>7.62988675499945</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1130.02270910656</v>
+        <v>1119.7140505618</v>
       </c>
       <c r="C50">
-        <v>78.68925471912161</v>
+        <v>75.5870814396412</v>
       </c>
       <c r="D50">
-        <v>17.1566325370169</v>
+        <v>18.391130912659</v>
       </c>
       <c r="E50">
-        <v>145.096380273925</v>
+        <v>137.26157640331</v>
       </c>
       <c r="F50">
-        <v>3.66725969849852</v>
+        <v>3.25541350147325</v>
       </c>
       <c r="G50">
-        <v>22.8657564666577</v>
+        <v>24.1817176754144</v>
       </c>
       <c r="H50">
-        <v>36.2078621853345</v>
+        <v>40.9980416568422</v>
       </c>
       <c r="I50">
-        <v>16.8282096302477</v>
+        <v>14.3922122561658</v>
       </c>
       <c r="J50">
-        <v>114.402371054605</v>
+        <v>114.354625273487</v>
       </c>
       <c r="K50">
-        <v>89.6345292700574</v>
+        <v>104.007309886564</v>
       </c>
       <c r="L50">
-        <v>60.9695322741523</v>
+        <v>60.2249908326534</v>
       </c>
       <c r="M50">
-        <v>43.7368763619505</v>
+        <v>40.1127436982996</v>
       </c>
       <c r="N50">
-        <v>57.0472598801639</v>
+        <v>51.0947152922063</v>
       </c>
       <c r="O50">
-        <v>1870.52098927124</v>
+        <v>1897.62317898709</v>
       </c>
       <c r="P50">
-        <v>111.608266049539</v>
+        <v>106.921754457784</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>127.792536000387</v>
+        <v>107.444952551296</v>
       </c>
       <c r="C51">
-        <v>2.05231244374473</v>
+        <v>1.35466573042968</v>
       </c>
       <c r="D51">
-        <v>0.317206551857377</v>
+        <v>0.518545469581095</v>
       </c>
       <c r="E51">
-        <v>2.66769436523405</v>
+        <v>1.45087585403794</v>
       </c>
       <c r="F51">
-        <v>26.1675384014936</v>
+        <v>23.5125811954546</v>
       </c>
       <c r="G51">
-        <v>2.21976045909505</v>
+        <v>1.96600425081106</v>
       </c>
       <c r="H51">
-        <v>0.0461559895295824</v>
+        <v>0.0154708632946376</v>
       </c>
       <c r="I51">
-        <v>0.872759314292492</v>
+        <v>0.752513935707727</v>
       </c>
       <c r="J51">
-        <v>1.48271247114315</v>
+        <v>0.845109592710945</v>
       </c>
       <c r="K51">
-        <v>0.91557385647013</v>
+        <v>0.925132509228969</v>
       </c>
       <c r="L51">
-        <v>0.350500310562787</v>
+        <v>0.427704181943863</v>
       </c>
       <c r="M51">
-        <v>0.454985749849697</v>
+        <v>0.367279643560805</v>
       </c>
       <c r="N51">
-        <v>1.3171407296322</v>
+        <v>1.75828442150963</v>
       </c>
       <c r="O51">
-        <v>216.06365037835</v>
+        <v>190.343226910658</v>
       </c>
       <c r="P51">
-        <v>18.2063760771614</v>
+        <v>15.887962778402</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1331.64680905109</v>
+        <v>1407.06788003672</v>
       </c>
       <c r="C2">
-        <v>35.7200298305683</v>
+        <v>39.7518721661612</v>
       </c>
       <c r="D2">
-        <v>63.7719163034484</v>
+        <v>49.0854793138152</v>
       </c>
       <c r="E2">
-        <v>65.1403746680144</v>
+        <v>54.6007422146686</v>
       </c>
       <c r="F2">
-        <v>16.8391466629136</v>
+        <v>14.4104435055087</v>
       </c>
       <c r="G2">
-        <v>18.151754949737</v>
+        <v>18.4183295888308</v>
       </c>
       <c r="H2">
-        <v>25.9910501904127</v>
+        <v>25.5260042027567</v>
       </c>
       <c r="I2">
-        <v>11.1973417474629</v>
+        <v>9.92450011821785</v>
       </c>
       <c r="J2">
-        <v>60.3497030079942</v>
+        <v>61.2121708142048</v>
       </c>
       <c r="K2">
-        <v>19.8145426618606</v>
+        <v>22.3787771535341</v>
       </c>
       <c r="L2">
-        <v>38.2908143917412</v>
+        <v>36.2343143896412</v>
       </c>
       <c r="M2">
-        <v>42.4712148391417</v>
+        <v>39.4981338127427</v>
       </c>
       <c r="N2">
-        <v>23.1872677354495</v>
+        <v>25.1334452370705</v>
       </c>
       <c r="O2">
-        <v>1375.34867341058</v>
+        <v>1322.92053843433</v>
       </c>
       <c r="P2">
-        <v>26.3256390391428</v>
+        <v>32.333032353068</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>131.814453025873</v>
+        <v>137.585630557833</v>
       </c>
       <c r="C3">
-        <v>3.65504593388646</v>
+        <v>3.35939152976366</v>
       </c>
       <c r="D3">
-        <v>0.243278908711957</v>
+        <v>0.190617215961361</v>
       </c>
       <c r="E3">
-        <v>1.22508799188956</v>
+        <v>1.78069039032674</v>
       </c>
       <c r="F3">
-        <v>9.43273292551928</v>
+        <v>9.91078350388012</v>
       </c>
       <c r="G3">
-        <v>0.361812593290037</v>
+        <v>0.487842128148586</v>
       </c>
       <c r="H3">
-        <v>0.0220249694689195</v>
+        <v>0.0375955785002952</v>
       </c>
       <c r="I3">
-        <v>0.350022723904354</v>
+        <v>0.581340558301143</v>
       </c>
       <c r="J3">
-        <v>0.707102811175273</v>
+        <v>0.7291910722249561</v>
       </c>
       <c r="K3">
-        <v>0.26950230109032</v>
+        <v>0.507053519600344</v>
       </c>
       <c r="L3">
-        <v>0.418874817810378</v>
+        <v>0.555236104581328</v>
       </c>
       <c r="M3">
-        <v>0.69808239878003</v>
+        <v>0.397695380074746</v>
       </c>
       <c r="N3">
-        <v>2.05413943611867</v>
+        <v>3.01253069171172</v>
       </c>
       <c r="O3">
-        <v>241.271559390695</v>
+        <v>235.566173364111</v>
       </c>
       <c r="P3">
-        <v>10.8189692810713</v>
+        <v>10.1293220450685</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1399.25457411417</v>
+        <v>1526.31053031706</v>
       </c>
       <c r="C4">
-        <v>10.3499561964877</v>
+        <v>8.53826922130644</v>
       </c>
       <c r="D4">
-        <v>2.40136194636845</v>
+        <v>3.02090726911529</v>
       </c>
       <c r="E4">
-        <v>21.0051260169474</v>
+        <v>14.3727123442469</v>
       </c>
       <c r="F4">
-        <v>20.0008237763365</v>
+        <v>27.1943221080516</v>
       </c>
       <c r="G4">
-        <v>9.80689674534494</v>
+        <v>11.1523847478572</v>
       </c>
       <c r="H4">
-        <v>9.169612002716381</v>
+        <v>7.02643886484162</v>
       </c>
       <c r="I4">
-        <v>11.1959069739647</v>
+        <v>6.92785004526627</v>
       </c>
       <c r="J4">
-        <v>21.6722515357641</v>
+        <v>24.5807082240451</v>
       </c>
       <c r="K4">
-        <v>8.40137760387281</v>
+        <v>16.2787742526472</v>
       </c>
       <c r="L4">
-        <v>69.70742164760139</v>
+        <v>66.44049569890809</v>
       </c>
       <c r="M4">
-        <v>45.3471558449509</v>
+        <v>34.1975025672791</v>
       </c>
       <c r="N4">
-        <v>36.8168737608331</v>
+        <v>27.6111546570539</v>
       </c>
       <c r="O4">
-        <v>1943.52003775164</v>
+        <v>1847.38651535467</v>
       </c>
       <c r="P4">
-        <v>25.7034238435604</v>
+        <v>19.4334056357153</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>756.463884836016</v>
+        <v>827.5206227663371</v>
       </c>
       <c r="C5">
-        <v>55.7795692005616</v>
+        <v>47.6586665160867</v>
       </c>
       <c r="D5">
-        <v>12.4730366138303</v>
+        <v>10.0960365953957</v>
       </c>
       <c r="E5">
-        <v>32.6081211406245</v>
+        <v>26.9254723336973</v>
       </c>
       <c r="F5">
-        <v>4.4740723431017</v>
+        <v>4.01472236608884</v>
       </c>
       <c r="G5">
-        <v>7.28027491021206</v>
+        <v>6.93896320154139</v>
       </c>
       <c r="H5">
-        <v>13.3957481299771</v>
+        <v>17.2079907193049</v>
       </c>
       <c r="I5">
-        <v>8.73390562964757</v>
+        <v>5.63827434636339</v>
       </c>
       <c r="J5">
-        <v>30.1014194804518</v>
+        <v>22.8769860317819</v>
       </c>
       <c r="K5">
-        <v>18.9517769395382</v>
+        <v>22.2670624105349</v>
       </c>
       <c r="L5">
-        <v>24.4387477034434</v>
+        <v>23.75614625039</v>
       </c>
       <c r="M5">
-        <v>27.2558855160293</v>
+        <v>19.0211129994216</v>
       </c>
       <c r="N5">
-        <v>24.0408775192964</v>
+        <v>24.1275201380195</v>
       </c>
       <c r="O5">
-        <v>842.817876071437</v>
+        <v>802.74575614331</v>
       </c>
       <c r="P5">
-        <v>56.0818281422938</v>
+        <v>44.478745642982</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8831.54209491807</v>
+        <v>9517.742702843851</v>
       </c>
       <c r="C6">
-        <v>193.588043369261</v>
+        <v>179.449850949198</v>
       </c>
       <c r="D6">
-        <v>193.550546377562</v>
+        <v>165.168937060019</v>
       </c>
       <c r="E6">
-        <v>141.479378834316</v>
+        <v>127.137928029755</v>
       </c>
       <c r="F6">
-        <v>43.621993517294</v>
+        <v>59.4841319724226</v>
       </c>
       <c r="G6">
-        <v>90.0223461313999</v>
+        <v>80.39037720837619</v>
       </c>
       <c r="H6">
-        <v>80.1214524077632</v>
+        <v>48.8269180146167</v>
       </c>
       <c r="I6">
-        <v>40.8919297446046</v>
+        <v>31.480839562167</v>
       </c>
       <c r="J6">
-        <v>171.286788935215</v>
+        <v>157.381400779458</v>
       </c>
       <c r="K6">
-        <v>121.67068471661</v>
+        <v>91.5616027337139</v>
       </c>
       <c r="L6">
-        <v>553.0103453512251</v>
+        <v>526.416522537467</v>
       </c>
       <c r="M6">
-        <v>256.363369668836</v>
+        <v>240.103617436142</v>
       </c>
       <c r="N6">
-        <v>282.875741071513</v>
+        <v>292.888076563862</v>
       </c>
       <c r="O6">
-        <v>12039.3902647351</v>
+        <v>11534.2085661043</v>
       </c>
       <c r="P6">
-        <v>331.657655224575</v>
+        <v>313.822739738821</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>916.2127438975811</v>
+        <v>1003.68080668501</v>
       </c>
       <c r="C7">
-        <v>33.0002439313213</v>
+        <v>30.025874847097</v>
       </c>
       <c r="D7">
-        <v>4.21769571758613</v>
+        <v>8.43175083203008</v>
       </c>
       <c r="E7">
-        <v>17.2793706040087</v>
+        <v>21.4108983067892</v>
       </c>
       <c r="F7">
-        <v>15.6843796878733</v>
+        <v>14.3803399684921</v>
       </c>
       <c r="G7">
-        <v>7.14021629408412</v>
+        <v>15.2067949612311</v>
       </c>
       <c r="H7">
-        <v>6.86171004014807</v>
+        <v>4.74290368220075</v>
       </c>
       <c r="I7">
-        <v>10.283891192188</v>
+        <v>9.79536510391827</v>
       </c>
       <c r="J7">
-        <v>21.7979024386833</v>
+        <v>24.2732344202931</v>
       </c>
       <c r="K7">
-        <v>20.0932091171622</v>
+        <v>21.3373640129931</v>
       </c>
       <c r="L7">
-        <v>57.0465199412222</v>
+        <v>74.9584078257576</v>
       </c>
       <c r="M7">
-        <v>18.341239112141</v>
+        <v>13.6925394785466</v>
       </c>
       <c r="N7">
-        <v>25.0852545084608</v>
+        <v>9.87104443181665</v>
       </c>
       <c r="O7">
-        <v>1858.85326112919</v>
+        <v>1778.40479142966</v>
       </c>
       <c r="P7">
-        <v>34.6486641415065</v>
+        <v>35.8158681146858</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>765.104840764098</v>
+        <v>851.008360094776</v>
       </c>
       <c r="C8">
-        <v>10.2363827614952</v>
+        <v>2.25585976112655</v>
       </c>
       <c r="D8">
-        <v>11.2955961545939</v>
+        <v>6.88902348519554</v>
       </c>
       <c r="E8">
-        <v>16.4572887411407</v>
+        <v>11.3281177723018</v>
       </c>
       <c r="F8">
-        <v>4.26506076446632</v>
+        <v>4.08564033075365</v>
       </c>
       <c r="G8">
-        <v>25.6323689112317</v>
+        <v>23.9351330931668</v>
       </c>
       <c r="H8">
-        <v>9.248132378611469</v>
+        <v>16.4976739163836</v>
       </c>
       <c r="I8">
-        <v>5.31029414816179</v>
+        <v>5.45011437132535</v>
       </c>
       <c r="J8">
-        <v>44.3266768697314</v>
+        <v>43.9600126525914</v>
       </c>
       <c r="K8">
-        <v>28.8965745942602</v>
+        <v>27.2022428416524</v>
       </c>
       <c r="L8">
-        <v>39.9551251072814</v>
+        <v>31.0578654956815</v>
       </c>
       <c r="M8">
-        <v>50.9177818488593</v>
+        <v>53.7466895592674</v>
       </c>
       <c r="N8">
-        <v>32.7249916823727</v>
+        <v>20.1795412777676</v>
       </c>
       <c r="O8">
-        <v>1359.01288906342</v>
+        <v>1305.98268584743</v>
       </c>
       <c r="P8">
-        <v>5.44445598051377</v>
+        <v>3.63646989901159</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>185.540505705185</v>
+        <v>200.905882843898</v>
       </c>
       <c r="C9">
-        <v>7.25260666770492</v>
+        <v>4.92348546486804</v>
       </c>
       <c r="D9">
-        <v>1.57235386303575</v>
+        <v>1.25161257843323</v>
       </c>
       <c r="E9">
-        <v>4.4417832121103</v>
+        <v>4.70477596043335</v>
       </c>
       <c r="F9">
-        <v>1.72470955766354</v>
+        <v>1.19918214933857</v>
       </c>
       <c r="G9">
-        <v>19.96252056176</v>
+        <v>20.0364441112947</v>
       </c>
       <c r="H9">
-        <v>4.09709005432505</v>
+        <v>5.12336758548438</v>
       </c>
       <c r="I9">
-        <v>1.25143356655698</v>
+        <v>1.67933983317349</v>
       </c>
       <c r="J9">
-        <v>3.08748025545047</v>
+        <v>3.53548585342065</v>
       </c>
       <c r="K9">
-        <v>3.02437886673794</v>
+        <v>4.82722462432809</v>
       </c>
       <c r="L9">
-        <v>2.34316253659879</v>
+        <v>1.65410799679792</v>
       </c>
       <c r="M9">
-        <v>8.452289107666941</v>
+        <v>7.13744046593434</v>
       </c>
       <c r="N9">
-        <v>4.81768131473708</v>
+        <v>4.20869928317656</v>
       </c>
       <c r="O9">
-        <v>300.067535407922</v>
+        <v>284.588513108457</v>
       </c>
       <c r="P9">
-        <v>4.74552375534274</v>
+        <v>5.39944647285845</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4736.93101065561</v>
+        <v>5292.46199928999</v>
       </c>
       <c r="C10">
-        <v>60.8982672728128</v>
+        <v>54.1053315983723</v>
       </c>
       <c r="D10">
-        <v>36.7777809499184</v>
+        <v>24.2196302791334</v>
       </c>
       <c r="E10">
-        <v>51.835074747051</v>
+        <v>50.9762383508086</v>
       </c>
       <c r="F10">
-        <v>12.4947135314164</v>
+        <v>12.7978160014004</v>
       </c>
       <c r="G10">
-        <v>30.7048092987442</v>
+        <v>12.0134763683971</v>
       </c>
       <c r="H10">
-        <v>20.2036788297507</v>
+        <v>4.40770517613368</v>
       </c>
       <c r="I10">
-        <v>35.9853834734379</v>
+        <v>39.8151443306942</v>
       </c>
       <c r="J10">
-        <v>58.7157656482225</v>
+        <v>42.04178969099</v>
       </c>
       <c r="K10">
-        <v>37.5880776498543</v>
+        <v>42.4121488476793</v>
       </c>
       <c r="L10">
-        <v>95.3616001672289</v>
+        <v>75.8995086892774</v>
       </c>
       <c r="M10">
-        <v>80.44218324353849</v>
+        <v>93.4220704003842</v>
       </c>
       <c r="N10">
-        <v>93.72344515891309</v>
+        <v>103.074450827403</v>
       </c>
       <c r="O10">
-        <v>6359.98104997967</v>
+        <v>5888.86502331899</v>
       </c>
       <c r="P10">
-        <v>105.691142900939</v>
+        <v>106.206927762908</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1987.11742442238</v>
+        <v>2209.40321453679</v>
       </c>
       <c r="C11">
-        <v>76.2895796568301</v>
+        <v>71.949364422259</v>
       </c>
       <c r="D11">
-        <v>160.096743291467</v>
+        <v>155.541816659621</v>
       </c>
       <c r="E11">
-        <v>74.8456109892835</v>
+        <v>49.1195112223486</v>
       </c>
       <c r="F11">
-        <v>8.489663485428929</v>
+        <v>10.8304381743612</v>
       </c>
       <c r="G11">
-        <v>28.5251622066749</v>
+        <v>25.1423115288737</v>
       </c>
       <c r="H11">
-        <v>22.7207453463565</v>
+        <v>19.5506708099577</v>
       </c>
       <c r="I11">
-        <v>21.4492338462722</v>
+        <v>13.4804926370598</v>
       </c>
       <c r="J11">
-        <v>50.3133322734878</v>
+        <v>43.2806333261252</v>
       </c>
       <c r="K11">
-        <v>41.1919470961423</v>
+        <v>33.2364342783437</v>
       </c>
       <c r="L11">
-        <v>67.03405156906069</v>
+        <v>46.7771560656198</v>
       </c>
       <c r="M11">
-        <v>51.86210005153</v>
+        <v>62.4029306797417</v>
       </c>
       <c r="N11">
-        <v>39.1296106921713</v>
+        <v>32.9130546151563</v>
       </c>
       <c r="O11">
-        <v>3004.20425696654</v>
+        <v>2872.8776901706</v>
       </c>
       <c r="P11">
-        <v>59.0917308787083</v>
+        <v>30.752557552563</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>301.826645134333</v>
+        <v>332.498290038125</v>
       </c>
       <c r="C12">
-        <v>6.38391795041987</v>
+        <v>5.33173724757462</v>
       </c>
       <c r="D12">
-        <v>1.97368177526973</v>
+        <v>3.07211884105713</v>
       </c>
       <c r="E12">
-        <v>2.06369430428323</v>
+        <v>2.40347304720567</v>
       </c>
       <c r="F12">
-        <v>0.880316357484617</v>
+        <v>1.65424510851018</v>
       </c>
       <c r="G12">
-        <v>0.131977922946971</v>
+        <v>0.0930371187151097</v>
       </c>
       <c r="H12">
-        <v>0.0830055355756268</v>
+        <v>0.0964115103215319</v>
       </c>
       <c r="I12">
-        <v>0.851358819099119</v>
+        <v>0.900603686154309</v>
       </c>
       <c r="J12">
-        <v>1.24139574734292</v>
+        <v>2.70861834474326</v>
       </c>
       <c r="K12">
-        <v>0.283570210649105</v>
+        <v>0.378130830259898</v>
       </c>
       <c r="L12">
-        <v>0.162911881145835</v>
+        <v>0.345468108818427</v>
       </c>
       <c r="M12">
-        <v>3.72007770971629</v>
+        <v>3.78127200912773</v>
       </c>
       <c r="N12">
-        <v>2.93413974723293</v>
+        <v>2.78674913643905</v>
       </c>
       <c r="O12">
-        <v>496.064836386065</v>
+        <v>469.220545523434</v>
       </c>
       <c r="P12">
-        <v>18.2389188167471</v>
+        <v>12.5429684718577</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>282.045442150661</v>
+        <v>316.609786876589</v>
       </c>
       <c r="C13">
-        <v>18.1093889900095</v>
+        <v>18.888051962632</v>
       </c>
       <c r="D13">
-        <v>0.605721913716072</v>
+        <v>0.507473924530281</v>
       </c>
       <c r="E13">
-        <v>14.0428378187661</v>
+        <v>15.2720535546104</v>
       </c>
       <c r="F13">
-        <v>3.04891856566344</v>
+        <v>2.19486429880556</v>
       </c>
       <c r="G13">
-        <v>6.43515427355807</v>
+        <v>5.918039920419</v>
       </c>
       <c r="H13">
-        <v>1.67581542887554</v>
+        <v>1.26458588175576</v>
       </c>
       <c r="I13">
-        <v>1.02440637004793</v>
+        <v>1.98687351667489</v>
       </c>
       <c r="J13">
-        <v>5.85199343410508</v>
+        <v>4.94788262604463</v>
       </c>
       <c r="K13">
-        <v>4.00595670705325</v>
+        <v>4.3642111554753</v>
       </c>
       <c r="L13">
-        <v>22.4667046661384</v>
+        <v>19.5591603731657</v>
       </c>
       <c r="M13">
-        <v>1.93760645895071</v>
+        <v>1.63487770812615</v>
       </c>
       <c r="N13">
-        <v>6.0816343801143</v>
+        <v>5.32960265296537</v>
       </c>
       <c r="O13">
-        <v>465.045209903922</v>
+        <v>437.541566642776</v>
       </c>
       <c r="P13">
-        <v>50.1931159417369</v>
+        <v>50.9527138662932</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2993.76502650848</v>
+        <v>3344.76174768062</v>
       </c>
       <c r="C14">
-        <v>122.470148387815</v>
+        <v>110.827247609312</v>
       </c>
       <c r="D14">
-        <v>17.0115765333993</v>
+        <v>8.993458815459711</v>
       </c>
       <c r="E14">
-        <v>84.6039097532188</v>
+        <v>97.75222499843581</v>
       </c>
       <c r="F14">
-        <v>24.7151593195283</v>
+        <v>24.6930401752985</v>
       </c>
       <c r="G14">
-        <v>90.9745942366512</v>
+        <v>76.02874683541491</v>
       </c>
       <c r="H14">
-        <v>54.7833628814007</v>
+        <v>52.0394859369877</v>
       </c>
       <c r="I14">
-        <v>30.1148085565279</v>
+        <v>24.6603430756233</v>
       </c>
       <c r="J14">
-        <v>161.944345640735</v>
+        <v>164.743682721238</v>
       </c>
       <c r="K14">
-        <v>166.189333149064</v>
+        <v>152.82477635604</v>
       </c>
       <c r="L14">
-        <v>144.484659697087</v>
+        <v>127.468894737043</v>
       </c>
       <c r="M14">
-        <v>89.7555799998936</v>
+        <v>99.47054470359021</v>
       </c>
       <c r="N14">
-        <v>82.8347526883006</v>
+        <v>77.19306803088961</v>
       </c>
       <c r="O14">
-        <v>4530.226993801141</v>
+        <v>4244.66341059193</v>
       </c>
       <c r="P14">
-        <v>83.0234504090207</v>
+        <v>84.9396035173869</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1430.26326627091</v>
+        <v>1547.34502619797</v>
       </c>
       <c r="C15">
-        <v>29.0869459075239</v>
+        <v>21.555110211589</v>
       </c>
       <c r="D15">
-        <v>14.5987659342876</v>
+        <v>8.327423819544819</v>
       </c>
       <c r="E15">
-        <v>58.3862192640816</v>
+        <v>60.5785287396792</v>
       </c>
       <c r="F15">
-        <v>14.8658597146579</v>
+        <v>15.1815557525957</v>
       </c>
       <c r="G15">
-        <v>38.4781953090635</v>
+        <v>28.4162790418922</v>
       </c>
       <c r="H15">
-        <v>58.2008462197934</v>
+        <v>74.9682305921195</v>
       </c>
       <c r="I15">
-        <v>27.0558500248339</v>
+        <v>20.2743289678492</v>
       </c>
       <c r="J15">
-        <v>150.687691595069</v>
+        <v>140.003429639158</v>
       </c>
       <c r="K15">
-        <v>63.0135770435294</v>
+        <v>62.3460656413752</v>
       </c>
       <c r="L15">
-        <v>53.0155036131269</v>
+        <v>48.9890855406398</v>
       </c>
       <c r="M15">
-        <v>185.929071370371</v>
+        <v>153.79813456423</v>
       </c>
       <c r="N15">
-        <v>94.2124537736528</v>
+        <v>104.201396146479</v>
       </c>
       <c r="O15">
-        <v>2012.49852604577</v>
+        <v>1931.30958296667</v>
       </c>
       <c r="P15">
-        <v>45.4664589174641</v>
+        <v>47.4166025639171</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>581.468881926912</v>
+        <v>695.18869458016</v>
       </c>
       <c r="C16">
-        <v>59.594280463208</v>
+        <v>58.657934693504</v>
       </c>
       <c r="D16">
-        <v>7.05516333365759</v>
+        <v>9.269186399153639</v>
       </c>
       <c r="E16">
-        <v>18.2302999854928</v>
+        <v>27.7217250003159</v>
       </c>
       <c r="F16">
-        <v>3.49299911644864</v>
+        <v>3.96250004175043</v>
       </c>
       <c r="G16">
-        <v>16.0958890631991</v>
+        <v>12.0631594103224</v>
       </c>
       <c r="H16">
-        <v>14.1361913804461</v>
+        <v>15.1524165757554</v>
       </c>
       <c r="I16">
-        <v>8.192558357540809</v>
+        <v>5.7383992804313</v>
       </c>
       <c r="J16">
-        <v>40.1407802209684</v>
+        <v>48.2526128781861</v>
       </c>
       <c r="K16">
-        <v>50.2732526564854</v>
+        <v>39.0331735784504</v>
       </c>
       <c r="L16">
-        <v>30.7561878325852</v>
+        <v>32.0957953751315</v>
       </c>
       <c r="M16">
-        <v>27.771291696347</v>
+        <v>27.7815925255131</v>
       </c>
       <c r="N16">
-        <v>23.1169949183073</v>
+        <v>19.7664592188742</v>
       </c>
       <c r="O16">
-        <v>1085.16019708871</v>
+        <v>981.662671786649</v>
       </c>
       <c r="P16">
-        <v>87.6133951112723</v>
+        <v>77.56558394520481</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>576.826183530847</v>
+        <v>659.4875110517791</v>
       </c>
       <c r="C17">
-        <v>26.6402227284529</v>
+        <v>19.0493754694425</v>
       </c>
       <c r="D17">
-        <v>1.94152674303871</v>
+        <v>3.90689553295389</v>
       </c>
       <c r="E17">
-        <v>13.1667137858687</v>
+        <v>19.112873081518</v>
       </c>
       <c r="F17">
-        <v>13.6955626831026</v>
+        <v>9.79901485470465</v>
       </c>
       <c r="G17">
-        <v>6.43648186086144</v>
+        <v>5.25938504640215</v>
       </c>
       <c r="H17">
-        <v>9.442390484268129</v>
+        <v>10.8237645254993</v>
       </c>
       <c r="I17">
-        <v>7.58034305976172</v>
+        <v>5.37761150341002</v>
       </c>
       <c r="J17">
-        <v>14.2958405642594</v>
+        <v>16.4315060714156</v>
       </c>
       <c r="K17">
-        <v>19.2093044233795</v>
+        <v>19.0508409137369</v>
       </c>
       <c r="L17">
-        <v>7.93594579446579</v>
+        <v>6.70647212354343</v>
       </c>
       <c r="M17">
-        <v>66.28927979864</v>
+        <v>67.55207735919571</v>
       </c>
       <c r="N17">
-        <v>13.3354376667644</v>
+        <v>5.95174914343719</v>
       </c>
       <c r="O17">
-        <v>1009.99335516952</v>
+        <v>947.8754308285</v>
       </c>
       <c r="P17">
-        <v>61.5080951166577</v>
+        <v>56.119188367227</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1165.42688167655</v>
+        <v>1226.20836035895</v>
       </c>
       <c r="C18">
-        <v>34.5498124375385</v>
+        <v>22.4953081821258</v>
       </c>
       <c r="D18">
-        <v>11.8762233809341</v>
+        <v>15.9749396831795</v>
       </c>
       <c r="E18">
-        <v>37.3216887790802</v>
+        <v>37.1840571589757</v>
       </c>
       <c r="F18">
-        <v>27.8856482770986</v>
+        <v>28.3651430146333</v>
       </c>
       <c r="G18">
-        <v>21.8933105881674</v>
+        <v>23.2060140933374</v>
       </c>
       <c r="H18">
-        <v>17.0553872217213</v>
+        <v>21.6562397690604</v>
       </c>
       <c r="I18">
-        <v>6.3379077900158</v>
+        <v>4.68255166874615</v>
       </c>
       <c r="J18">
-        <v>45.9876840282109</v>
+        <v>61.6032352417946</v>
       </c>
       <c r="K18">
-        <v>29.9789120656563</v>
+        <v>26.405967565983</v>
       </c>
       <c r="L18">
-        <v>32.7180349234989</v>
+        <v>28.1437341247852</v>
       </c>
       <c r="M18">
-        <v>68.4356436866882</v>
+        <v>67.4119542620364</v>
       </c>
       <c r="N18">
-        <v>20.8790670167176</v>
+        <v>29.7349837911689</v>
       </c>
       <c r="O18">
-        <v>1301.88010696573</v>
+        <v>1220.00886253597</v>
       </c>
       <c r="P18">
-        <v>53.7523935932239</v>
+        <v>59.3374834417356</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1257.65680713907</v>
+        <v>1330.75001731095</v>
       </c>
       <c r="C19">
-        <v>22.2147753682321</v>
+        <v>18.5152330696247</v>
       </c>
       <c r="D19">
-        <v>6.69002239396501</v>
+        <v>3.47458185895429</v>
       </c>
       <c r="E19">
-        <v>36.884584705502</v>
+        <v>32.8190867331308</v>
       </c>
       <c r="F19">
-        <v>88.7248094160568</v>
+        <v>88.6472312342428</v>
       </c>
       <c r="G19">
-        <v>38.7283156563662</v>
+        <v>33.8937420986709</v>
       </c>
       <c r="H19">
-        <v>6.03269985000102</v>
+        <v>5.03711168934157</v>
       </c>
       <c r="I19">
-        <v>3.4896660350992</v>
+        <v>1.27741961120993</v>
       </c>
       <c r="J19">
-        <v>17.1594106593559</v>
+        <v>12.8307813178852</v>
       </c>
       <c r="K19">
-        <v>15.3092266338338</v>
+        <v>22.7951623681475</v>
       </c>
       <c r="L19">
-        <v>7.05499938772006</v>
+        <v>7.28636248230224</v>
       </c>
       <c r="M19">
-        <v>26.8369743412191</v>
+        <v>25.5729804164486</v>
       </c>
       <c r="N19">
-        <v>12.2726991612156</v>
+        <v>10.0172601457988</v>
       </c>
       <c r="O19">
-        <v>1497.95180869065</v>
+        <v>1456.85880639671</v>
       </c>
       <c r="P19">
-        <v>38.1673890664321</v>
+        <v>35.2732280376509</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>315.505727744955</v>
+        <v>347.240686452869</v>
       </c>
       <c r="C20">
-        <v>6.85868241854245</v>
+        <v>6.95015771234983</v>
       </c>
       <c r="D20">
-        <v>10.7979993230116</v>
+        <v>12.4949212484289</v>
       </c>
       <c r="E20">
-        <v>35.5670305627972</v>
+        <v>35.4836645603763</v>
       </c>
       <c r="F20">
-        <v>0.911650066101952</v>
+        <v>0.816077852635182</v>
       </c>
       <c r="G20">
-        <v>2.12438612460562</v>
+        <v>1.78682376762225</v>
       </c>
       <c r="H20">
-        <v>1.64050566667861</v>
+        <v>1.95833924742105</v>
       </c>
       <c r="I20">
-        <v>0.9840342607081221</v>
+        <v>2.9396824335785</v>
       </c>
       <c r="J20">
-        <v>4.80475982276836</v>
+        <v>4.4809136474695</v>
       </c>
       <c r="K20">
-        <v>4.52846099915693</v>
+        <v>5.41863307376791</v>
       </c>
       <c r="L20">
-        <v>8.204544277277581</v>
+        <v>8.52660495080378</v>
       </c>
       <c r="M20">
-        <v>15.1312376096595</v>
+        <v>10.5268692113382</v>
       </c>
       <c r="N20">
-        <v>4.12182459376737</v>
+        <v>3.01229471773343</v>
       </c>
       <c r="O20">
-        <v>492.781162151718</v>
+        <v>458.50415157124</v>
       </c>
       <c r="P20">
-        <v>27.2457415357168</v>
+        <v>26.123676795628</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1177.33328621894</v>
+        <v>1296.58527123282</v>
       </c>
       <c r="C21">
-        <v>23.2225021429861</v>
+        <v>25.6657059102558</v>
       </c>
       <c r="D21">
-        <v>9.42183594181909</v>
+        <v>12.5050673832086</v>
       </c>
       <c r="E21">
-        <v>31.8309865813692</v>
+        <v>32.1673836705148</v>
       </c>
       <c r="F21">
-        <v>5.99298707515823</v>
+        <v>6.17341798522505</v>
       </c>
       <c r="G21">
-        <v>24.5854553051582</v>
+        <v>28.1352456825357</v>
       </c>
       <c r="H21">
-        <v>4.6625211914003</v>
+        <v>7.47559278224938</v>
       </c>
       <c r="I21">
-        <v>10.124039716877</v>
+        <v>10.538153154082</v>
       </c>
       <c r="J21">
-        <v>30.8758188302798</v>
+        <v>30.3334653232239</v>
       </c>
       <c r="K21">
-        <v>7.82739111733336</v>
+        <v>4.57870800598354</v>
       </c>
       <c r="L21">
-        <v>20.0901706037006</v>
+        <v>33.2440307106915</v>
       </c>
       <c r="M21">
-        <v>25.9070276143407</v>
+        <v>26.2935731197087</v>
       </c>
       <c r="N21">
-        <v>27.1441384391307</v>
+        <v>16.1597308163951</v>
       </c>
       <c r="O21">
-        <v>2289.75851689875</v>
+        <v>2184.64000814701</v>
       </c>
       <c r="P21">
-        <v>17.5255179954139</v>
+        <v>17.9240247916158</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1484.38721022592</v>
+        <v>1685.9068606367</v>
       </c>
       <c r="C22">
-        <v>19.8149159190282</v>
+        <v>17.6548743742743</v>
       </c>
       <c r="D22">
-        <v>25.8353407419545</v>
+        <v>23.1583886596514</v>
       </c>
       <c r="E22">
-        <v>40.0395156367971</v>
+        <v>33.4088716918583</v>
       </c>
       <c r="F22">
-        <v>3.19223162570989</v>
+        <v>2.75980292529423</v>
       </c>
       <c r="G22">
-        <v>29.5310313414051</v>
+        <v>24.2140643153461</v>
       </c>
       <c r="H22">
-        <v>21.104980578453</v>
+        <v>31.8782422663827</v>
       </c>
       <c r="I22">
-        <v>7.640708512115</v>
+        <v>9.272150009959621</v>
       </c>
       <c r="J22">
-        <v>49.7566467419071</v>
+        <v>61.0181751428395</v>
       </c>
       <c r="K22">
-        <v>34.6296060972676</v>
+        <v>31.6097398878755</v>
       </c>
       <c r="L22">
-        <v>127.540124139749</v>
+        <v>92.576916979728</v>
       </c>
       <c r="M22">
-        <v>15.4858161830348</v>
+        <v>13.8845440359085</v>
       </c>
       <c r="N22">
-        <v>74.6344130954067</v>
+        <v>72.057723419135</v>
       </c>
       <c r="O22">
-        <v>2555.28402500071</v>
+        <v>2400.20561398396</v>
       </c>
       <c r="P22">
-        <v>12.196261000472</v>
+        <v>11.4572197783938</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2523.63962791118</v>
+        <v>2661.13559103532</v>
       </c>
       <c r="C23">
-        <v>47.9906808504361</v>
+        <v>35.9499290282387</v>
       </c>
       <c r="D23">
-        <v>11.774320267909</v>
+        <v>9.36374621487867</v>
       </c>
       <c r="E23">
-        <v>45.9228075615913</v>
+        <v>35.3817628484784</v>
       </c>
       <c r="F23">
-        <v>10.8462779565444</v>
+        <v>16.736758131719</v>
       </c>
       <c r="G23">
-        <v>50.2303436055704</v>
+        <v>49.8082857290501</v>
       </c>
       <c r="H23">
-        <v>75.42118608229499</v>
+        <v>70.6807976117328</v>
       </c>
       <c r="I23">
-        <v>16.6211477315004</v>
+        <v>22.5997934199661</v>
       </c>
       <c r="J23">
-        <v>143.006611051659</v>
+        <v>143.241117477399</v>
       </c>
       <c r="K23">
-        <v>110.994970759401</v>
+        <v>133.333932269899</v>
       </c>
       <c r="L23">
-        <v>35.2883378251485</v>
+        <v>55.8275671342387</v>
       </c>
       <c r="M23">
-        <v>521.866770684921</v>
+        <v>481.724905601858</v>
       </c>
       <c r="N23">
-        <v>72.79570494111459</v>
+        <v>64.7947035091578</v>
       </c>
       <c r="O23">
-        <v>3263.83476308767</v>
+        <v>3147.5012901877</v>
       </c>
       <c r="P23">
-        <v>65.4669674616991</v>
+        <v>59.4248364420163</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>973.047378157264</v>
+        <v>1039.23010463784</v>
       </c>
       <c r="C24">
-        <v>59.6393331956047</v>
+        <v>61.1692999892195</v>
       </c>
       <c r="D24">
-        <v>10.2468503397113</v>
+        <v>4.17906852075815</v>
       </c>
       <c r="E24">
-        <v>59.2596657657962</v>
+        <v>63.5787281919813</v>
       </c>
       <c r="F24">
-        <v>12.2690257356944</v>
+        <v>16.4839269426719</v>
       </c>
       <c r="G24">
-        <v>25.2428807971596</v>
+        <v>31.3180032859573</v>
       </c>
       <c r="H24">
-        <v>13.867684122283</v>
+        <v>13.6512012704182</v>
       </c>
       <c r="I24">
-        <v>20.0487081193467</v>
+        <v>14.4479588629213</v>
       </c>
       <c r="J24">
-        <v>47.5624653924624</v>
+        <v>48.2798998898019</v>
       </c>
       <c r="K24">
-        <v>65.6753269748789</v>
+        <v>71.5329125061006</v>
       </c>
       <c r="L24">
-        <v>61.3520742010412</v>
+        <v>51.3277031619611</v>
       </c>
       <c r="M24">
-        <v>33.6606349774824</v>
+        <v>28.6897362426093</v>
       </c>
       <c r="N24">
-        <v>63.682501738969</v>
+        <v>57.5925759430924</v>
       </c>
       <c r="O24">
-        <v>1898.78416054039</v>
+        <v>1849.6486927116</v>
       </c>
       <c r="P24">
-        <v>111.12223661594</v>
+        <v>108.080092195393</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>797.826317272981</v>
+        <v>860.124799984829</v>
       </c>
       <c r="C25">
-        <v>38.8524040148066</v>
+        <v>35.163464403611</v>
       </c>
       <c r="D25">
-        <v>19.8996969710119</v>
+        <v>18.5085019124656</v>
       </c>
       <c r="E25">
-        <v>38.3231710126203</v>
+        <v>45.1627308182742</v>
       </c>
       <c r="F25">
-        <v>13.8437872956889</v>
+        <v>16.2935828471011</v>
       </c>
       <c r="G25">
-        <v>5.88755167090652</v>
+        <v>7.17081045635415</v>
       </c>
       <c r="H25">
-        <v>14.2868553257788</v>
+        <v>9.214779319946119</v>
       </c>
       <c r="I25">
-        <v>6.48071262138333</v>
+        <v>5.53222568655612</v>
       </c>
       <c r="J25">
-        <v>17.8953172021469</v>
+        <v>16.4015688184273</v>
       </c>
       <c r="K25">
-        <v>17.9230908539344</v>
+        <v>19.0964388576897</v>
       </c>
       <c r="L25">
-        <v>18.3842583100295</v>
+        <v>17.8145723718755</v>
       </c>
       <c r="M25">
-        <v>30.0595209689642</v>
+        <v>31.7922020152293</v>
       </c>
       <c r="N25">
-        <v>46.1863334940438</v>
+        <v>45.2122170091905</v>
       </c>
       <c r="O25">
-        <v>841.145667598848</v>
+        <v>783.080186783016</v>
       </c>
       <c r="P25">
-        <v>41.9681249617769</v>
+        <v>30.8949565066533</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1303.86687765096</v>
+        <v>1415.65103313945</v>
       </c>
       <c r="C26">
-        <v>64.8737304412381</v>
+        <v>57.7864361714245</v>
       </c>
       <c r="D26">
-        <v>22.7272058373327</v>
+        <v>22.3177373371946</v>
       </c>
       <c r="E26">
-        <v>46.1595145087789</v>
+        <v>32.86363292327</v>
       </c>
       <c r="F26">
-        <v>10.51123329778</v>
+        <v>12.0000216164937</v>
       </c>
       <c r="G26">
-        <v>28.6976019244863</v>
+        <v>33.8618038270364</v>
       </c>
       <c r="H26">
-        <v>22.5907414150302</v>
+        <v>40.52635245824</v>
       </c>
       <c r="I26">
-        <v>18.2265345691241</v>
+        <v>16.5850730005121</v>
       </c>
       <c r="J26">
-        <v>71.0651548525158</v>
+        <v>67.8685581234239</v>
       </c>
       <c r="K26">
-        <v>37.4329908515652</v>
+        <v>46.8770220234786</v>
       </c>
       <c r="L26">
-        <v>38.2971377598297</v>
+        <v>47.8878817659407</v>
       </c>
       <c r="M26">
-        <v>79.0799619520125</v>
+        <v>63.0547555407306</v>
       </c>
       <c r="N26">
-        <v>35.86826425174</v>
+        <v>26.8364027354351</v>
       </c>
       <c r="O26">
-        <v>2079.25578160521</v>
+        <v>1994.32846125276</v>
       </c>
       <c r="P26">
-        <v>79.1913253118076</v>
+        <v>77.3387127532214</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>223.253393613745</v>
+        <v>247.286017421984</v>
       </c>
       <c r="C27">
-        <v>3.05724765677855</v>
+        <v>3.29409021299397</v>
       </c>
       <c r="D27">
-        <v>1.15390631354364</v>
+        <v>0.818741217209964</v>
       </c>
       <c r="E27">
-        <v>8.688902604585749</v>
+        <v>7.31158324758549</v>
       </c>
       <c r="F27">
-        <v>6.25091634774624</v>
+        <v>4.57208394073675</v>
       </c>
       <c r="G27">
-        <v>1.03992357513273</v>
+        <v>1.19225015723056</v>
       </c>
       <c r="H27">
-        <v>0.305260729425349</v>
+        <v>0.599041752688386</v>
       </c>
       <c r="I27">
-        <v>2.50920590765736</v>
+        <v>1.39180711782201</v>
       </c>
       <c r="J27">
-        <v>3.05946934869052</v>
+        <v>2.49904860076894</v>
       </c>
       <c r="K27">
-        <v>2.30928352296526</v>
+        <v>2.09062624952047</v>
       </c>
       <c r="L27">
-        <v>1.14069928853145</v>
+        <v>0.645594093486439</v>
       </c>
       <c r="M27">
-        <v>0.617874004286319</v>
+        <v>0.30277328788333</v>
       </c>
       <c r="N27">
-        <v>3.99361244061204</v>
+        <v>2.89825263162756</v>
       </c>
       <c r="O27">
-        <v>341.053067904237</v>
+        <v>322.807749506854</v>
       </c>
       <c r="P27">
-        <v>44.974738999231</v>
+        <v>39.5780075498737</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>335.280750561945</v>
+        <v>384.09207909053</v>
       </c>
       <c r="C28">
-        <v>35.4079718834795</v>
+        <v>39.4774100923124</v>
       </c>
       <c r="D28">
-        <v>3.85521754225112</v>
+        <v>5.18473079604474</v>
       </c>
       <c r="E28">
-        <v>7.33711906254637</v>
+        <v>4.24343092891342</v>
       </c>
       <c r="F28">
-        <v>1.94910887083882</v>
+        <v>2.32571323410982</v>
       </c>
       <c r="G28">
-        <v>4.62004551010061</v>
+        <v>2.97617902818123</v>
       </c>
       <c r="H28">
-        <v>8.272827768227261</v>
+        <v>7.53335859134245</v>
       </c>
       <c r="I28">
-        <v>3.37787012889284</v>
+        <v>2.28949883091153</v>
       </c>
       <c r="J28">
-        <v>13.0266483794532</v>
+        <v>16.4000474917546</v>
       </c>
       <c r="K28">
-        <v>16.6923381896355</v>
+        <v>11.4419439933626</v>
       </c>
       <c r="L28">
-        <v>15.6895426159844</v>
+        <v>16.9090241489711</v>
       </c>
       <c r="M28">
-        <v>7.8594289766077</v>
+        <v>8.02221455094838</v>
       </c>
       <c r="N28">
-        <v>11.115001254282</v>
+        <v>11.1415144763432</v>
       </c>
       <c r="O28">
-        <v>639.326019975284</v>
+        <v>589.592838684777</v>
       </c>
       <c r="P28">
-        <v>86.781816571505</v>
+        <v>88.69361932003091</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>494.600053221797</v>
+        <v>540.838523583544</v>
       </c>
       <c r="C29">
-        <v>2.92813185452897</v>
+        <v>3.47226479436455</v>
       </c>
       <c r="D29">
-        <v>2.1810866974547</v>
+        <v>1.57219018011848</v>
       </c>
       <c r="E29">
-        <v>4.59591957216639</v>
+        <v>6.47576437635738</v>
       </c>
       <c r="F29">
-        <v>19.3287344984383</v>
+        <v>16.4761633912862</v>
       </c>
       <c r="G29">
-        <v>1.22065697117169</v>
+        <v>2.28374471024665</v>
       </c>
       <c r="H29">
-        <v>2.92250447748408</v>
+        <v>2.80034820637375</v>
       </c>
       <c r="I29">
-        <v>3.20801106739233</v>
+        <v>3.96740402363076</v>
       </c>
       <c r="J29">
-        <v>5.41727797303812</v>
+        <v>8.958083031326369</v>
       </c>
       <c r="K29">
-        <v>4.00014548708589</v>
+        <v>2.96814894203465</v>
       </c>
       <c r="L29">
-        <v>2.50717327049791</v>
+        <v>5.66221058845588</v>
       </c>
       <c r="M29">
-        <v>2.66023388141799</v>
+        <v>5.18142037729114</v>
       </c>
       <c r="N29">
-        <v>9.450080431029271</v>
+        <v>8.37514406338561</v>
       </c>
       <c r="O29">
-        <v>880.000217675868</v>
+        <v>833.380312731752</v>
       </c>
       <c r="P29">
-        <v>7.61109782659369</v>
+        <v>8.00519925079848</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>252.465783663545</v>
+        <v>268.385796466435</v>
       </c>
       <c r="C30">
-        <v>4.71222605449163</v>
+        <v>3.55795418151683</v>
       </c>
       <c r="D30">
-        <v>7.54838650940787</v>
+        <v>8.42206890097612</v>
       </c>
       <c r="E30">
-        <v>14.3715279790863</v>
+        <v>16.6271258802656</v>
       </c>
       <c r="F30">
-        <v>0.971980838971016</v>
+        <v>0.808117495880978</v>
       </c>
       <c r="G30">
-        <v>3.59329161466849</v>
+        <v>4.11409561752624</v>
       </c>
       <c r="H30">
-        <v>4.82361756548445</v>
+        <v>5.46826887283382</v>
       </c>
       <c r="I30">
-        <v>3.45335678439624</v>
+        <v>2.78099129521068</v>
       </c>
       <c r="J30">
-        <v>16.5930862841258</v>
+        <v>18.2133520663596</v>
       </c>
       <c r="K30">
-        <v>12.0159038107839</v>
+        <v>14.3565778583217</v>
       </c>
       <c r="L30">
-        <v>34.1647967535087</v>
+        <v>36.5778230433273</v>
       </c>
       <c r="M30">
-        <v>8.578318287082681</v>
+        <v>6.05390911069149</v>
       </c>
       <c r="N30">
-        <v>14.8531759888696</v>
+        <v>12.2773300498092</v>
       </c>
       <c r="O30">
-        <v>488.797202195852</v>
+        <v>472.946729631662</v>
       </c>
       <c r="P30">
-        <v>8.03558530382128</v>
+        <v>6.92888221953171</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2065.72148681137</v>
+        <v>2299.48880184163</v>
       </c>
       <c r="C31">
-        <v>41.8766553193136</v>
+        <v>43.0235614307447</v>
       </c>
       <c r="D31">
-        <v>45.6554879173156</v>
+        <v>47.6599571202382</v>
       </c>
       <c r="E31">
-        <v>47.913212648092</v>
+        <v>53.8255028253173</v>
       </c>
       <c r="F31">
-        <v>11.9172770823032</v>
+        <v>3.0345998715372</v>
       </c>
       <c r="G31">
-        <v>121.88560932645</v>
+        <v>98.6424353534087</v>
       </c>
       <c r="H31">
-        <v>22.2080198007134</v>
+        <v>10.0197302673352</v>
       </c>
       <c r="I31">
-        <v>22.7965615817084</v>
+        <v>14.2360807982461</v>
       </c>
       <c r="J31">
-        <v>48.605484864718</v>
+        <v>69.4163130148301</v>
       </c>
       <c r="K31">
-        <v>30.7958018894187</v>
+        <v>30.2011951374521</v>
       </c>
       <c r="L31">
-        <v>76.4005720432689</v>
+        <v>74.45563937639091</v>
       </c>
       <c r="M31">
-        <v>16.5955365704237</v>
+        <v>14.3865749770651</v>
       </c>
       <c r="N31">
-        <v>50.3850679541879</v>
+        <v>50.6679229889763</v>
       </c>
       <c r="O31">
-        <v>3382.9965955532</v>
+        <v>3165.463879501</v>
       </c>
       <c r="P31">
-        <v>5.45742436417938</v>
+        <v>4.88154243241288</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>500.996941979598</v>
+        <v>529.436516775088</v>
       </c>
       <c r="C32">
-        <v>8.07720938430051</v>
+        <v>10.054088652852</v>
       </c>
       <c r="D32">
-        <v>0.928341324624879</v>
+        <v>1.90137682638037</v>
       </c>
       <c r="E32">
-        <v>3.94984358489863</v>
+        <v>6.17664204458478</v>
       </c>
       <c r="F32">
-        <v>22.5955775183103</v>
+        <v>21.3886986276334</v>
       </c>
       <c r="G32">
-        <v>1.80996377622881</v>
+        <v>1.10840479813206</v>
       </c>
       <c r="H32">
-        <v>2.17942745477629</v>
+        <v>3.17167277515474</v>
       </c>
       <c r="I32">
-        <v>5.87589711250278</v>
+        <v>2.26062566304353</v>
       </c>
       <c r="J32">
-        <v>6.30572064686715</v>
+        <v>5.97548203970957</v>
       </c>
       <c r="K32">
-        <v>1.29816652457392</v>
+        <v>1.99704662624677</v>
       </c>
       <c r="L32">
-        <v>15.1385015084681</v>
+        <v>24.8819587799305</v>
       </c>
       <c r="M32">
-        <v>2.98263495058525</v>
+        <v>2.63057234022784</v>
       </c>
       <c r="N32">
-        <v>7.07381615344365</v>
+        <v>6.20874296622692</v>
       </c>
       <c r="O32">
-        <v>660.457941724039</v>
+        <v>616.50542660982</v>
       </c>
       <c r="P32">
-        <v>19.8320877717176</v>
+        <v>14.7807677957683</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5246.85843453068</v>
+        <v>5738.30519194334</v>
       </c>
       <c r="C33">
-        <v>82.8761654581605</v>
+        <v>63.9847322102966</v>
       </c>
       <c r="D33">
-        <v>110.844412548634</v>
+        <v>103.739067413447</v>
       </c>
       <c r="E33">
-        <v>89.1795085483524</v>
+        <v>62.0688952081539</v>
       </c>
       <c r="F33">
-        <v>8.89007114196183</v>
+        <v>7.49471489691767</v>
       </c>
       <c r="G33">
-        <v>73.2437181560512</v>
+        <v>79.458793581582</v>
       </c>
       <c r="H33">
-        <v>35.9442408861462</v>
+        <v>33.2754070442016</v>
       </c>
       <c r="I33">
-        <v>35.1965569537572</v>
+        <v>33.7602880931776</v>
       </c>
       <c r="J33">
-        <v>107.281499108176</v>
+        <v>115.565769570111</v>
       </c>
       <c r="K33">
-        <v>120.178876265142</v>
+        <v>108.559754219479</v>
       </c>
       <c r="L33">
-        <v>134.311123592468</v>
+        <v>111.60278253547</v>
       </c>
       <c r="M33">
-        <v>71.018734451814</v>
+        <v>71.2796781739074</v>
       </c>
       <c r="N33">
-        <v>137.202467847083</v>
+        <v>130.895201504216</v>
       </c>
       <c r="O33">
-        <v>7059.88412349493</v>
+        <v>6642.29984485392</v>
       </c>
       <c r="P33">
-        <v>77.56612327590619</v>
+        <v>66.2850995200191</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2063.73888647893</v>
+        <v>2210.764399651</v>
       </c>
       <c r="C34">
-        <v>66.0179954524332</v>
+        <v>76.75468136241059</v>
       </c>
       <c r="D34">
-        <v>191.8238568963</v>
+        <v>159.001577474015</v>
       </c>
       <c r="E34">
-        <v>59.6648293756185</v>
+        <v>71.6830154806792</v>
       </c>
       <c r="F34">
-        <v>7.98006512348859</v>
+        <v>10.3626234648514</v>
       </c>
       <c r="G34">
-        <v>50.8862484703474</v>
+        <v>45.3608584580508</v>
       </c>
       <c r="H34">
-        <v>38.9424105190373</v>
+        <v>45.6323678336426</v>
       </c>
       <c r="I34">
-        <v>20.7315975183988</v>
+        <v>18.8531056329875</v>
       </c>
       <c r="J34">
-        <v>60.1974380931753</v>
+        <v>63.8281731452221</v>
       </c>
       <c r="K34">
-        <v>56.8226231336409</v>
+        <v>49.1385120419065</v>
       </c>
       <c r="L34">
-        <v>92.66435977155911</v>
+        <v>86.3802032384765</v>
       </c>
       <c r="M34">
-        <v>45.5006350546456</v>
+        <v>39.9034472378808</v>
       </c>
       <c r="N34">
-        <v>121.612367555601</v>
+        <v>122.234883655549</v>
       </c>
       <c r="O34">
-        <v>2781.36752276035</v>
+        <v>2659.86428700315</v>
       </c>
       <c r="P34">
-        <v>67.361391291197</v>
+        <v>67.7465478430609</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>133.847562194275</v>
+        <v>153.894019840261</v>
       </c>
       <c r="C35">
-        <v>6.51235702002082</v>
+        <v>5.27678852918883</v>
       </c>
       <c r="D35">
-        <v>0.430516422420704</v>
+        <v>0.831476422998511</v>
       </c>
       <c r="E35">
-        <v>2.48620973630265</v>
+        <v>1.74671062265472</v>
       </c>
       <c r="F35">
-        <v>5.36905095598244</v>
+        <v>5.09636438975033</v>
       </c>
       <c r="G35">
-        <v>0.636891405312395</v>
+        <v>0.685228956119415</v>
       </c>
       <c r="H35">
-        <v>0.295753746702018</v>
+        <v>0.325972148132744</v>
       </c>
       <c r="I35">
-        <v>1.09957267463019</v>
+        <v>0.545645559935672</v>
       </c>
       <c r="J35">
-        <v>2.47875893996637</v>
+        <v>2.17961725917623</v>
       </c>
       <c r="K35">
-        <v>5.76860568425586</v>
+        <v>4.5365126135361</v>
       </c>
       <c r="L35">
-        <v>1.82273341654526</v>
+        <v>1.97661269179575</v>
       </c>
       <c r="M35">
-        <v>2.47249009485225</v>
+        <v>1.84992481804414</v>
       </c>
       <c r="N35">
-        <v>2.21884326011517</v>
+        <v>1.48927340183751</v>
       </c>
       <c r="O35">
-        <v>239.09017233098</v>
+        <v>224.283090190558</v>
       </c>
       <c r="P35">
-        <v>42.5334453756336</v>
+        <v>40.1829435583896</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2800.74928646678</v>
+        <v>2986.41161749417</v>
       </c>
       <c r="C36">
-        <v>64.987100899894</v>
+        <v>51.8693704877029</v>
       </c>
       <c r="D36">
-        <v>15.5613051371209</v>
+        <v>10.7399654453279</v>
       </c>
       <c r="E36">
-        <v>87.7541743278437</v>
+        <v>81.17815499031759</v>
       </c>
       <c r="F36">
-        <v>31.8985130744127</v>
+        <v>39.34939388801</v>
       </c>
       <c r="G36">
-        <v>91.8177071091247</v>
+        <v>80.5897105849797</v>
       </c>
       <c r="H36">
-        <v>108.010810563742</v>
+        <v>106.778835539442</v>
       </c>
       <c r="I36">
-        <v>54.4676902923879</v>
+        <v>32.3720301462808</v>
       </c>
       <c r="J36">
-        <v>224.644743823709</v>
+        <v>218.087086035468</v>
       </c>
       <c r="K36">
-        <v>129.127560771837</v>
+        <v>141.556536156448</v>
       </c>
       <c r="L36">
-        <v>87.0519828320847</v>
+        <v>92.35151608300539</v>
       </c>
       <c r="M36">
-        <v>235.516825680942</v>
+        <v>228.546174741369</v>
       </c>
       <c r="N36">
-        <v>94.65763545686041</v>
+        <v>108.487454998448</v>
       </c>
       <c r="O36">
-        <v>3922.72665675713</v>
+        <v>3771.83414030032</v>
       </c>
       <c r="P36">
-        <v>60.7339873372115</v>
+        <v>53.1728087877737</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>904.362227272666</v>
+        <v>966.882751895478</v>
       </c>
       <c r="C37">
-        <v>22.2689453291673</v>
+        <v>28.5158577444556</v>
       </c>
       <c r="D37">
-        <v>5.4450690236851</v>
+        <v>5.96701097150834</v>
       </c>
       <c r="E37">
-        <v>19.7076616655475</v>
+        <v>20.4360086483272</v>
       </c>
       <c r="F37">
-        <v>38.6665844283502</v>
+        <v>51.469144733924</v>
       </c>
       <c r="G37">
-        <v>11.210833344504</v>
+        <v>6.72768285503554</v>
       </c>
       <c r="H37">
-        <v>23.483032536192</v>
+        <v>18.1576301002876</v>
       </c>
       <c r="I37">
-        <v>15.4276173210376</v>
+        <v>11.2193019799924</v>
       </c>
       <c r="J37">
-        <v>35.2708774276121</v>
+        <v>42.1453575379619</v>
       </c>
       <c r="K37">
-        <v>34.1275791329108</v>
+        <v>31.623667698884</v>
       </c>
       <c r="L37">
-        <v>21.4392852801403</v>
+        <v>23.6734706344387</v>
       </c>
       <c r="M37">
-        <v>34.2596485247253</v>
+        <v>26.283406976698</v>
       </c>
       <c r="N37">
-        <v>12.4649355668033</v>
+        <v>12.2476703169034</v>
       </c>
       <c r="O37">
-        <v>1174.60977308318</v>
+        <v>1109.14388536866</v>
       </c>
       <c r="P37">
-        <v>58.3385848047902</v>
+        <v>48.7111767221079</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>887.142307550974</v>
+        <v>963.827652361923</v>
       </c>
       <c r="C38">
-        <v>24.0920176247814</v>
+        <v>21.3937923701587</v>
       </c>
       <c r="D38">
-        <v>9.90949248203609</v>
+        <v>7.32176631314239</v>
       </c>
       <c r="E38">
-        <v>60.1236914154299</v>
+        <v>38.343147108461</v>
       </c>
       <c r="F38">
-        <v>3.40470402462635</v>
+        <v>3.96237796157004</v>
       </c>
       <c r="G38">
-        <v>3.88650637380263</v>
+        <v>3.32409077258111</v>
       </c>
       <c r="H38">
-        <v>5.09993581002661</v>
+        <v>4.15550696239169</v>
       </c>
       <c r="I38">
-        <v>5.18274338697979</v>
+        <v>4.14924915627128</v>
       </c>
       <c r="J38">
-        <v>39.8061766727385</v>
+        <v>40.4594647136747</v>
       </c>
       <c r="K38">
-        <v>11.9064122975299</v>
+        <v>9.467780946807769</v>
       </c>
       <c r="L38">
-        <v>56.0508424981705</v>
+        <v>55.5709322870212</v>
       </c>
       <c r="M38">
-        <v>17.2992035717776</v>
+        <v>15.3293282407973</v>
       </c>
       <c r="N38">
-        <v>29.2313755688246</v>
+        <v>29.8600945172029</v>
       </c>
       <c r="O38">
-        <v>1273.70098007938</v>
+        <v>1237.18365391628</v>
       </c>
       <c r="P38">
-        <v>73.7749116566244</v>
+        <v>63.7864570834233</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3289.41631664662</v>
+        <v>3621.66145021995</v>
       </c>
       <c r="C39">
-        <v>93.4227475519431</v>
+        <v>73.2621199683565</v>
       </c>
       <c r="D39">
-        <v>65.4442506457314</v>
+        <v>71.93866699900251</v>
       </c>
       <c r="E39">
-        <v>135.20388554201</v>
+        <v>136.737974451176</v>
       </c>
       <c r="F39">
-        <v>36.2420445834826</v>
+        <v>32.361115144996</v>
       </c>
       <c r="G39">
-        <v>102.280323707385</v>
+        <v>95.45738485871119</v>
       </c>
       <c r="H39">
-        <v>51.7432510379957</v>
+        <v>46.1354952909416</v>
       </c>
       <c r="I39">
-        <v>46.8942981692177</v>
+        <v>47.12738955318</v>
       </c>
       <c r="J39">
-        <v>194.566639804896</v>
+        <v>187.016455524787</v>
       </c>
       <c r="K39">
-        <v>113.02087272206</v>
+        <v>93.0401016924058</v>
       </c>
       <c r="L39">
-        <v>107.625050728593</v>
+        <v>97.7365096686128</v>
       </c>
       <c r="M39">
-        <v>65.3919495468555</v>
+        <v>49.9987950518425</v>
       </c>
       <c r="N39">
-        <v>98.0785552954292</v>
+        <v>101.832514639852</v>
       </c>
       <c r="O39">
-        <v>4284.38411367535</v>
+        <v>4040.04926577058</v>
       </c>
       <c r="P39">
-        <v>78.0032432073843</v>
+        <v>66.16501207144481</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>255.543614527595</v>
+        <v>270.763074374969</v>
       </c>
       <c r="C40">
-        <v>3.99635784610577</v>
+        <v>2.00485892099379</v>
       </c>
       <c r="D40">
-        <v>8.25145012719902</v>
+        <v>6.15992686345152</v>
       </c>
       <c r="E40">
-        <v>5.29948149313573</v>
+        <v>3.86477584109464</v>
       </c>
       <c r="F40">
-        <v>0.124734737856581</v>
+        <v>0.442737605005057</v>
       </c>
       <c r="G40">
-        <v>5.94250705210376</v>
+        <v>3.15532749709634</v>
       </c>
       <c r="H40">
-        <v>3.92752208154668</v>
+        <v>7.48342553522706</v>
       </c>
       <c r="I40">
-        <v>1.23405253018822</v>
+        <v>1.93396531507961</v>
       </c>
       <c r="J40">
-        <v>9.601784192455771</v>
+        <v>5.23382497681517</v>
       </c>
       <c r="K40">
-        <v>5.78532786519722</v>
+        <v>4.76332535892142</v>
       </c>
       <c r="L40">
-        <v>15.7150173010651</v>
+        <v>16.1265618176466</v>
       </c>
       <c r="M40">
-        <v>5.65106792079018</v>
+        <v>11.029919118599</v>
       </c>
       <c r="N40">
-        <v>22.4036454026419</v>
+        <v>14.8224494563899</v>
       </c>
       <c r="O40">
-        <v>403.687664603601</v>
+        <v>394.2064719064</v>
       </c>
       <c r="P40">
-        <v>3.07620984361338</v>
+        <v>5.15233078054793</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1058.46575567615</v>
+        <v>1195.64827398172</v>
       </c>
       <c r="C41">
-        <v>14.1328120239334</v>
+        <v>13.1450944692328</v>
       </c>
       <c r="D41">
-        <v>88.60746496783609</v>
+        <v>83.6886759912623</v>
       </c>
       <c r="E41">
-        <v>38.4385507240013</v>
+        <v>26.0250134400999</v>
       </c>
       <c r="F41">
-        <v>2.35159427850309</v>
+        <v>3.17690537910294</v>
       </c>
       <c r="G41">
-        <v>27.4949110468674</v>
+        <v>22.4457306548982</v>
       </c>
       <c r="H41">
-        <v>35.4499530857014</v>
+        <v>19.3315910453437</v>
       </c>
       <c r="I41">
-        <v>16.7388949934151</v>
+        <v>16.6048493374054</v>
       </c>
       <c r="J41">
-        <v>49.9592248046546</v>
+        <v>43.9120628762974</v>
       </c>
       <c r="K41">
-        <v>32.4113130459318</v>
+        <v>28.6509219554133</v>
       </c>
       <c r="L41">
-        <v>32.1128761765833</v>
+        <v>36.811962397319</v>
       </c>
       <c r="M41">
-        <v>26.5181779923864</v>
+        <v>20.127722289018</v>
       </c>
       <c r="N41">
-        <v>23.5997533658561</v>
+        <v>26.9566781334132</v>
       </c>
       <c r="O41">
-        <v>1346.48604691228</v>
+        <v>1252.66272038899</v>
       </c>
       <c r="P41">
-        <v>36.0057435010312</v>
+        <v>32.0769627592798</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>139.585885493031</v>
+        <v>164.162700103303</v>
       </c>
       <c r="C42">
-        <v>6.09398898056406</v>
+        <v>6.31128446321192</v>
       </c>
       <c r="D42">
-        <v>1.33068079861731</v>
+        <v>0.945433503677156</v>
       </c>
       <c r="E42">
-        <v>4.22189915237587</v>
+        <v>2.96075687272353</v>
       </c>
       <c r="F42">
-        <v>2.39936318933606</v>
+        <v>2.73732118877531</v>
       </c>
       <c r="G42">
-        <v>1.54502260717433</v>
+        <v>1.34734607010079</v>
       </c>
       <c r="H42">
-        <v>0.946316749745742</v>
+        <v>1.03988747751233</v>
       </c>
       <c r="I42">
-        <v>0.507506157999942</v>
+        <v>0.7085863060343181</v>
       </c>
       <c r="J42">
-        <v>3.97157372033452</v>
+        <v>3.70462364451096</v>
       </c>
       <c r="K42">
-        <v>4.93719443155553</v>
+        <v>5.84211388645176</v>
       </c>
       <c r="L42">
-        <v>6.72944431087613</v>
+        <v>6.7921695646578</v>
       </c>
       <c r="M42">
-        <v>3.37163437623056</v>
+        <v>2.26723523220052</v>
       </c>
       <c r="N42">
-        <v>6.44839115047701</v>
+        <v>6.4492589549174</v>
       </c>
       <c r="O42">
-        <v>279.03554700698</v>
+        <v>261.430958770046</v>
       </c>
       <c r="P42">
-        <v>46.827441425276</v>
+        <v>44.7127453802669</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1528.35330941161</v>
+        <v>1634.35207655541</v>
       </c>
       <c r="C43">
-        <v>42.6007583209665</v>
+        <v>47.1202834907558</v>
       </c>
       <c r="D43">
-        <v>59.3569574603635</v>
+        <v>58.2157891797835</v>
       </c>
       <c r="E43">
-        <v>58.7264843721687</v>
+        <v>61.2849322854314</v>
       </c>
       <c r="F43">
-        <v>7.67109340077465</v>
+        <v>6.26796453351294</v>
       </c>
       <c r="G43">
-        <v>19.8074422360197</v>
+        <v>19.3575329190535</v>
       </c>
       <c r="H43">
-        <v>34.1900801681777</v>
+        <v>32.8109227342922</v>
       </c>
       <c r="I43">
-        <v>24.3362722902316</v>
+        <v>19.6691101731761</v>
       </c>
       <c r="J43">
-        <v>52.873699264608</v>
+        <v>47.9107460051994</v>
       </c>
       <c r="K43">
-        <v>62.0289774864124</v>
+        <v>71.1265166424558</v>
       </c>
       <c r="L43">
-        <v>50.0417838695642</v>
+        <v>52.946561597654</v>
       </c>
       <c r="M43">
-        <v>108.567405098213</v>
+        <v>69.47884104461799</v>
       </c>
       <c r="N43">
-        <v>62.8548324138605</v>
+        <v>61.1804128235797</v>
       </c>
       <c r="O43">
-        <v>1943.89395572202</v>
+        <v>1878.00789778845</v>
       </c>
       <c r="P43">
-        <v>32.1318178970939</v>
+        <v>28.2572440978622</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5126.51039177733</v>
+        <v>5551.82358601772</v>
       </c>
       <c r="C44">
-        <v>126.267252075169</v>
+        <v>122.250699342545</v>
       </c>
       <c r="D44">
-        <v>59.4237543974934</v>
+        <v>59.8072186529928</v>
       </c>
       <c r="E44">
-        <v>97.94001744977319</v>
+        <v>114.460972922737</v>
       </c>
       <c r="F44">
-        <v>230.681583123585</v>
+        <v>250.862064862144</v>
       </c>
       <c r="G44">
-        <v>131.523977305426</v>
+        <v>128.292755567992</v>
       </c>
       <c r="H44">
-        <v>52.097332829835</v>
+        <v>36.6115730927578</v>
       </c>
       <c r="I44">
-        <v>41.7800058585805</v>
+        <v>44.6532103819048</v>
       </c>
       <c r="J44">
-        <v>135.798383770136</v>
+        <v>156.271322118508</v>
       </c>
       <c r="K44">
-        <v>89.06487468794801</v>
+        <v>96.3459545506694</v>
       </c>
       <c r="L44">
-        <v>222.764156371222</v>
+        <v>211.08852475661</v>
       </c>
       <c r="M44">
-        <v>115.004733483861</v>
+        <v>101.565370478327</v>
       </c>
       <c r="N44">
-        <v>87.6533662492769</v>
+        <v>77.00471955655461</v>
       </c>
       <c r="O44">
-        <v>7506.15295514554</v>
+        <v>7078.53119646594</v>
       </c>
       <c r="P44">
-        <v>206.017583943664</v>
+        <v>198.917013146586</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>461.262004722172</v>
+        <v>488.460926785633</v>
       </c>
       <c r="C45">
-        <v>15.1514822453001</v>
+        <v>11.679504449312</v>
       </c>
       <c r="D45">
-        <v>3.19798993438726</v>
+        <v>2.69625413806001</v>
       </c>
       <c r="E45">
-        <v>12.6910646822705</v>
+        <v>11.6107758586275</v>
       </c>
       <c r="F45">
-        <v>21.5476454038237</v>
+        <v>18.0206069047485</v>
       </c>
       <c r="G45">
-        <v>8.269258343479921</v>
+        <v>9.081878616239729</v>
       </c>
       <c r="H45">
-        <v>2.46608351347113</v>
+        <v>1.71108852197645</v>
       </c>
       <c r="I45">
-        <v>3.97012946116505</v>
+        <v>7.57979584676427</v>
       </c>
       <c r="J45">
-        <v>22.7761767171695</v>
+        <v>24.7490205940844</v>
       </c>
       <c r="K45">
-        <v>6.50491417211865</v>
+        <v>4.33300056149352</v>
       </c>
       <c r="L45">
-        <v>15.1549271481891</v>
+        <v>13.0665241651862</v>
       </c>
       <c r="M45">
-        <v>22.3544314586892</v>
+        <v>17.2407101858567</v>
       </c>
       <c r="N45">
-        <v>29.5369104564321</v>
+        <v>36.4021382612611</v>
       </c>
       <c r="O45">
-        <v>808.615580895073</v>
+        <v>798.162322583994</v>
       </c>
       <c r="P45">
-        <v>17.3825503258215</v>
+        <v>18.1651683497114</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>128.92809242647</v>
+        <v>144.241037276663</v>
       </c>
       <c r="C46">
-        <v>3.43967608464476</v>
+        <v>3.15233824143611</v>
       </c>
       <c r="D46">
-        <v>1.84307003932965</v>
+        <v>1.59594921250594</v>
       </c>
       <c r="E46">
-        <v>6.71560200201941</v>
+        <v>5.12483929235238</v>
       </c>
       <c r="F46">
-        <v>0.916701534820491</v>
+        <v>0.761424425259926</v>
       </c>
       <c r="G46">
-        <v>2.69158323201185</v>
+        <v>2.89121035102843</v>
       </c>
       <c r="H46">
-        <v>1.85744745550237</v>
+        <v>1.56408220042218</v>
       </c>
       <c r="I46">
-        <v>1.6109496050173</v>
+        <v>1.13301663062289</v>
       </c>
       <c r="J46">
-        <v>3.99442820968595</v>
+        <v>3.24174557545971</v>
       </c>
       <c r="K46">
-        <v>5.44402161975013</v>
+        <v>6.23674237430801</v>
       </c>
       <c r="L46">
-        <v>10.4266475425318</v>
+        <v>12.1823325920063</v>
       </c>
       <c r="M46">
-        <v>3.0080577339055</v>
+        <v>3.62295056901741</v>
       </c>
       <c r="N46">
-        <v>8.124976487516531</v>
+        <v>6.43179555234965</v>
       </c>
       <c r="O46">
-        <v>239.235848048558</v>
+        <v>228.911128615699</v>
       </c>
       <c r="P46">
-        <v>11.95568205487</v>
+        <v>12.3979842334177</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1677.06837370093</v>
+        <v>1822.37249688021</v>
       </c>
       <c r="C47">
-        <v>53.3232341452842</v>
+        <v>51.7858855040603</v>
       </c>
       <c r="D47">
-        <v>47.633571984465</v>
+        <v>63.0034164613041</v>
       </c>
       <c r="E47">
-        <v>61.9660022891433</v>
+        <v>61.7016431862461</v>
       </c>
       <c r="F47">
-        <v>12.1927436820671</v>
+        <v>19.9258611784285</v>
       </c>
       <c r="G47">
-        <v>27.8829816934187</v>
+        <v>33.0677404497115</v>
       </c>
       <c r="H47">
-        <v>15.3412673346681</v>
+        <v>16.8943906862807</v>
       </c>
       <c r="I47">
-        <v>9.787214865539379</v>
+        <v>9.375242440013359</v>
       </c>
       <c r="J47">
-        <v>41.338369847899</v>
+        <v>26.5763511871969</v>
       </c>
       <c r="K47">
-        <v>24.0814681314388</v>
+        <v>17.6826146749241</v>
       </c>
       <c r="L47">
-        <v>44.2493019514274</v>
+        <v>50.9307473750144</v>
       </c>
       <c r="M47">
-        <v>70.8816022209209</v>
+        <v>70.50145666986489</v>
       </c>
       <c r="N47">
-        <v>43.2581693146808</v>
+        <v>38.3671112745216</v>
       </c>
       <c r="O47">
-        <v>2754.42869354108</v>
+        <v>2584.17767716642</v>
       </c>
       <c r="P47">
-        <v>37.497345274288</v>
+        <v>39.2863530172116</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1449.08140053652</v>
+        <v>1658.23597799869</v>
       </c>
       <c r="C48">
-        <v>24.909968553167</v>
+        <v>19.632650980884</v>
       </c>
       <c r="D48">
-        <v>7.7616543545599</v>
+        <v>12.3611762241859</v>
       </c>
       <c r="E48">
-        <v>67.2401951320244</v>
+        <v>58.076805217235</v>
       </c>
       <c r="F48">
-        <v>4.84128523329233</v>
+        <v>2.06908382826219</v>
       </c>
       <c r="G48">
-        <v>4.23540610106653</v>
+        <v>6.23431913775332</v>
       </c>
       <c r="H48">
-        <v>3.49719933701083</v>
+        <v>7.37182097920074</v>
       </c>
       <c r="I48">
-        <v>7.77617055418393</v>
+        <v>4.08749845101456</v>
       </c>
       <c r="J48">
-        <v>36.8226186981563</v>
+        <v>33.9287631921081</v>
       </c>
       <c r="K48">
-        <v>17.7350314449392</v>
+        <v>16.8468774082872</v>
       </c>
       <c r="L48">
-        <v>44.4005018603536</v>
+        <v>31.2962536302981</v>
       </c>
       <c r="M48">
-        <v>115.985198225957</v>
+        <v>116.451729433086</v>
       </c>
       <c r="N48">
-        <v>26.7078650383246</v>
+        <v>14.9816390743889</v>
       </c>
       <c r="O48">
-        <v>2265.07100579436</v>
+        <v>2110.03035074422</v>
       </c>
       <c r="P48">
-        <v>95.1003140191025</v>
+        <v>76.1074617067159</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>636.226256157122</v>
+        <v>651.273662982682</v>
       </c>
       <c r="C49">
-        <v>7.53603738575886</v>
+        <v>5.76701815277334</v>
       </c>
       <c r="D49">
-        <v>4.05796573974076</v>
+        <v>2.13861276502038</v>
       </c>
       <c r="E49">
-        <v>17.2450398672391</v>
+        <v>17.9356088800549</v>
       </c>
       <c r="F49">
-        <v>27.1820059115739</v>
+        <v>27.4729984762077</v>
       </c>
       <c r="G49">
-        <v>15.7927062366087</v>
+        <v>16.8956440768327</v>
       </c>
       <c r="H49">
-        <v>5.77013294802433</v>
+        <v>6.5897913310209</v>
       </c>
       <c r="I49">
-        <v>7.49937638855188</v>
+        <v>7.13475068459211</v>
       </c>
       <c r="J49">
-        <v>21.0473813374361</v>
+        <v>16.4976527243112</v>
       </c>
       <c r="K49">
-        <v>4.71376345871464</v>
+        <v>4.93480595909726</v>
       </c>
       <c r="L49">
-        <v>1.46431613072307</v>
+        <v>4.13020548384136</v>
       </c>
       <c r="M49">
-        <v>7.72784520718429</v>
+        <v>5.11981490437649</v>
       </c>
       <c r="N49">
-        <v>5.56188268001399</v>
+        <v>5.08620993341761</v>
       </c>
       <c r="O49">
-        <v>572.763161840616</v>
+        <v>553.504697099818</v>
       </c>
       <c r="P49">
-        <v>7.62988675499945</v>
+        <v>9.10790483258733</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1119.7140505618</v>
+        <v>1226.40579574229</v>
       </c>
       <c r="C50">
-        <v>75.5870814396412</v>
+        <v>87.8822810923318</v>
       </c>
       <c r="D50">
-        <v>18.391130912659</v>
+        <v>18.6990917188633</v>
       </c>
       <c r="E50">
-        <v>137.26157640331</v>
+        <v>132.950377514903</v>
       </c>
       <c r="F50">
-        <v>3.25541350147325</v>
+        <v>3.11037456577672</v>
       </c>
       <c r="G50">
-        <v>24.1817176754144</v>
+        <v>34.8387273445808</v>
       </c>
       <c r="H50">
-        <v>40.9980416568422</v>
+        <v>41.8961571418481</v>
       </c>
       <c r="I50">
-        <v>14.3922122561658</v>
+        <v>13.426937956702</v>
       </c>
       <c r="J50">
-        <v>114.354625273487</v>
+        <v>101.601634780794</v>
       </c>
       <c r="K50">
-        <v>104.007309886564</v>
+        <v>94.982810041929</v>
       </c>
       <c r="L50">
-        <v>60.2249908326534</v>
+        <v>41.6236662814003</v>
       </c>
       <c r="M50">
-        <v>40.1127436982996</v>
+        <v>52.60946978728</v>
       </c>
       <c r="N50">
-        <v>51.0947152922063</v>
+        <v>38.7214502930162</v>
       </c>
       <c r="O50">
-        <v>1897.62317898709</v>
+        <v>1810.92986553239</v>
       </c>
       <c r="P50">
-        <v>106.921754457784</v>
+        <v>102.237395134176</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>107.444952551296</v>
+        <v>119.551421273405</v>
       </c>
       <c r="C51">
-        <v>1.35466573042968</v>
+        <v>1.35960542096696</v>
       </c>
       <c r="D51">
-        <v>0.518545469581095</v>
+        <v>0.519320814583521</v>
       </c>
       <c r="E51">
-        <v>1.45087585403794</v>
+        <v>2.10441891657435</v>
       </c>
       <c r="F51">
-        <v>23.5125811954546</v>
+        <v>24.5428133242041</v>
       </c>
       <c r="G51">
-        <v>1.96600425081106</v>
+        <v>3.0140813890471</v>
       </c>
       <c r="H51">
-        <v>0.0154708632946376</v>
+        <v>0.0233961645164203</v>
       </c>
       <c r="I51">
-        <v>0.752513935707727</v>
+        <v>1.62940945129966</v>
       </c>
       <c r="J51">
-        <v>0.845109592710945</v>
+        <v>1.3949527541918</v>
       </c>
       <c r="K51">
-        <v>0.925132509228969</v>
+        <v>1.32344703853092</v>
       </c>
       <c r="L51">
-        <v>0.427704181943863</v>
+        <v>0.157898086526909</v>
       </c>
       <c r="M51">
-        <v>0.367279643560805</v>
+        <v>0.348132347757437</v>
       </c>
       <c r="N51">
-        <v>1.75828442150963</v>
+        <v>1.14566020758945</v>
       </c>
       <c r="O51">
-        <v>190.343226910658</v>
+        <v>177.379849555168</v>
       </c>
       <c r="P51">
-        <v>15.887962778402</v>
+        <v>15.5971183953616</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1407.06788003672</v>
+        <v>1366.8214861856</v>
       </c>
       <c r="C2">
-        <v>39.7518721661612</v>
+        <v>37.8173221517678</v>
       </c>
       <c r="D2">
-        <v>49.0854793138152</v>
+        <v>74.0825840260557</v>
       </c>
       <c r="E2">
-        <v>54.6007422146686</v>
+        <v>60.7737338547253</v>
       </c>
       <c r="F2">
-        <v>14.4104435055087</v>
+        <v>15.0616248050217</v>
       </c>
       <c r="G2">
-        <v>18.4183295888308</v>
+        <v>18.106157139033</v>
       </c>
       <c r="H2">
-        <v>25.5260042027567</v>
+        <v>19.4833287766592</v>
       </c>
       <c r="I2">
-        <v>9.92450011821785</v>
+        <v>12.6273566199316</v>
       </c>
       <c r="J2">
-        <v>61.2121708142048</v>
+        <v>64.7089010276714</v>
       </c>
       <c r="K2">
-        <v>22.3787771535341</v>
+        <v>20.4264239915342</v>
       </c>
       <c r="L2">
-        <v>36.2343143896412</v>
+        <v>33.8064521903556</v>
       </c>
       <c r="M2">
-        <v>39.4981338127427</v>
+        <v>41.6621610698011</v>
       </c>
       <c r="N2">
-        <v>25.1334452370705</v>
+        <v>33.0591397252679</v>
       </c>
       <c r="O2">
-        <v>1322.92053843433</v>
+        <v>1318.49034023019</v>
       </c>
       <c r="P2">
-        <v>32.333032353068</v>
+        <v>36.7835953854626</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>137.585630557833</v>
+        <v>138.890474777797</v>
       </c>
       <c r="C3">
-        <v>3.35939152976366</v>
+        <v>4.10033110051276</v>
       </c>
       <c r="D3">
-        <v>0.190617215961361</v>
+        <v>0.233316516372231</v>
       </c>
       <c r="E3">
-        <v>1.78069039032674</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>9.91078350388012</v>
+        <v>8.704812860610559</v>
       </c>
       <c r="G3">
-        <v>0.487842128148586</v>
+        <v>0.379139339104875</v>
       </c>
       <c r="H3">
-        <v>0.0375955785002952</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>0.581340558301143</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.7291910722249561</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.507053519600344</v>
+        <v>0.145822822732644</v>
       </c>
       <c r="L3">
-        <v>0.555236104581328</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.397695380074746</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>3.01253069171172</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>235.566173364111</v>
+        <v>226.33505891858</v>
       </c>
       <c r="P3">
-        <v>10.1293220450685</v>
+        <v>9.469260071061029</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1526.31053031706</v>
+        <v>1546.33097990852</v>
       </c>
       <c r="C4">
-        <v>8.53826922130644</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>3.02090726911529</v>
+        <v>4.14340150055778</v>
       </c>
       <c r="E4">
-        <v>14.3727123442469</v>
+        <v>24.9964048584684</v>
       </c>
       <c r="F4">
-        <v>27.1943221080516</v>
+        <v>21.9708219174547</v>
       </c>
       <c r="G4">
-        <v>11.1523847478572</v>
+        <v>8.96638381647012</v>
       </c>
       <c r="H4">
-        <v>7.02643886484162</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>6.92785004526627</v>
+        <v>9.41606653605202</v>
       </c>
       <c r="J4">
-        <v>24.5807082240451</v>
+        <v>28.1916466559876</v>
       </c>
       <c r="K4">
-        <v>16.2787742526472</v>
+        <v>10.4340196750847</v>
       </c>
       <c r="L4">
-        <v>66.44049569890809</v>
+        <v>73.9266333354052</v>
       </c>
       <c r="M4">
-        <v>34.1975025672791</v>
+        <v>49.2464405856041</v>
       </c>
       <c r="N4">
-        <v>27.6111546570539</v>
+        <v>27.0555243585567</v>
       </c>
       <c r="O4">
-        <v>1847.38651535467</v>
+        <v>1782.9734279089</v>
       </c>
       <c r="P4">
-        <v>19.4334056357153</v>
+        <v>30.2998928305444</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>827.5206227663371</v>
+        <v>804.308663973047</v>
       </c>
       <c r="C5">
-        <v>47.6586665160867</v>
+        <v>59.1544033953496</v>
       </c>
       <c r="D5">
-        <v>10.0960365953957</v>
+        <v>12.7002448701179</v>
       </c>
       <c r="E5">
-        <v>26.9254723336973</v>
+        <v>45.5028557307363</v>
       </c>
       <c r="F5">
-        <v>4.01472236608884</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>6.93896320154139</v>
+        <v>10.1967950012975</v>
       </c>
       <c r="H5">
-        <v>17.2079907193049</v>
+        <v>14.2699323002435</v>
       </c>
       <c r="I5">
-        <v>5.63827434636339</v>
+        <v>6.58656112927581</v>
       </c>
       <c r="J5">
-        <v>22.8769860317819</v>
+        <v>31.8868898918721</v>
       </c>
       <c r="K5">
-        <v>22.2670624105349</v>
+        <v>19.6418759407894</v>
       </c>
       <c r="L5">
-        <v>23.75614625039</v>
+        <v>21.6555489794862</v>
       </c>
       <c r="M5">
-        <v>19.0211129994216</v>
+        <v>25.6356611299285</v>
       </c>
       <c r="N5">
-        <v>24.1275201380195</v>
+        <v>23.5888052612556</v>
       </c>
       <c r="O5">
-        <v>802.74575614331</v>
+        <v>770.6650488034441</v>
       </c>
       <c r="P5">
-        <v>44.478745642982</v>
+        <v>56.8531395656276</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9517.742702843851</v>
+        <v>9673.1483620462</v>
       </c>
       <c r="C6">
-        <v>179.449850949198</v>
+        <v>198.931811838932</v>
       </c>
       <c r="D6">
-        <v>165.168937060019</v>
+        <v>181.52898444426</v>
       </c>
       <c r="E6">
-        <v>127.137928029755</v>
+        <v>187.614551520893</v>
       </c>
       <c r="F6">
-        <v>59.4841319724226</v>
+        <v>52.1726558675067</v>
       </c>
       <c r="G6">
-        <v>80.39037720837619</v>
+        <v>95.2792702944254</v>
       </c>
       <c r="H6">
-        <v>48.8269180146167</v>
+        <v>64.6881126919633</v>
       </c>
       <c r="I6">
-        <v>31.480839562167</v>
+        <v>49.4810654106601</v>
       </c>
       <c r="J6">
-        <v>157.381400779458</v>
+        <v>178.06753358672</v>
       </c>
       <c r="K6">
-        <v>91.5616027337139</v>
+        <v>92.2701856501495</v>
       </c>
       <c r="L6">
-        <v>526.416522537467</v>
+        <v>592.099725839426</v>
       </c>
       <c r="M6">
-        <v>240.103617436142</v>
+        <v>251.310810795066</v>
       </c>
       <c r="N6">
-        <v>292.888076563862</v>
+        <v>250.851766653146</v>
       </c>
       <c r="O6">
-        <v>11534.2085661043</v>
+        <v>11187.9926244604</v>
       </c>
       <c r="P6">
-        <v>313.822739738821</v>
+        <v>319.038121854023</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1003.68080668501</v>
+        <v>996.206293450862</v>
       </c>
       <c r="C7">
-        <v>30.025874847097</v>
+        <v>26.4174708924621</v>
       </c>
       <c r="D7">
-        <v>8.43175083203008</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>21.4108983067892</v>
+        <v>22.8785282709577</v>
       </c>
       <c r="F7">
-        <v>14.3803399684921</v>
+        <v>21.8345105535322</v>
       </c>
       <c r="G7">
-        <v>15.2067949612311</v>
+        <v>9.718053953024031</v>
       </c>
       <c r="H7">
-        <v>4.74290368220075</v>
+        <v>6.36602954603895</v>
       </c>
       <c r="I7">
-        <v>9.79536510391827</v>
+        <v>10.7884483014731</v>
       </c>
       <c r="J7">
-        <v>24.2732344202931</v>
+        <v>20.8271922418839</v>
       </c>
       <c r="K7">
-        <v>21.3373640129931</v>
+        <v>12.9193295818323</v>
       </c>
       <c r="L7">
-        <v>74.9584078257576</v>
+        <v>66.605908023174</v>
       </c>
       <c r="M7">
-        <v>13.6925394785466</v>
+        <v>18.10493959514</v>
       </c>
       <c r="N7">
-        <v>9.87104443181665</v>
+        <v>25.1639287899154</v>
       </c>
       <c r="O7">
-        <v>1778.40479142966</v>
+        <v>1745.46922551049</v>
       </c>
       <c r="P7">
-        <v>35.8158681146858</v>
+        <v>55.0960244109823</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>851.008360094776</v>
+        <v>862.096988698143</v>
       </c>
       <c r="C8">
-        <v>2.25585976112655</v>
+        <v>12.0996925108255</v>
       </c>
       <c r="D8">
-        <v>6.88902348519554</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>11.3281177723018</v>
+        <v>23.4756216016025</v>
       </c>
       <c r="F8">
-        <v>4.08564033075365</v>
+        <v>2.26495781627265</v>
       </c>
       <c r="G8">
-        <v>23.9351330931668</v>
+        <v>26.079202885119</v>
       </c>
       <c r="H8">
-        <v>16.4976739163836</v>
+        <v>7.31533164692978</v>
       </c>
       <c r="I8">
-        <v>5.45011437132535</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>43.9600126525914</v>
+        <v>46.7744964918275</v>
       </c>
       <c r="K8">
-        <v>27.2022428416524</v>
+        <v>24.996423365645</v>
       </c>
       <c r="L8">
-        <v>31.0578654956815</v>
+        <v>45.0672444525256</v>
       </c>
       <c r="M8">
-        <v>53.7466895592674</v>
+        <v>55.611612436814</v>
       </c>
       <c r="N8">
-        <v>20.1795412777676</v>
+        <v>23.8946011849838</v>
       </c>
       <c r="O8">
-        <v>1305.98268584743</v>
+        <v>1255.06844730558</v>
       </c>
       <c r="P8">
-        <v>3.63646989901159</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>200.905882843898</v>
+        <v>206.297593382547</v>
       </c>
       <c r="C9">
-        <v>4.92348546486804</v>
+        <v>8.63133261891646</v>
       </c>
       <c r="D9">
-        <v>1.25161257843323</v>
+        <v>2.05211143648243</v>
       </c>
       <c r="E9">
-        <v>4.70477596043335</v>
+        <v>5.59028360008442</v>
       </c>
       <c r="F9">
-        <v>1.19918214933857</v>
+        <v>1.82409905465105</v>
       </c>
       <c r="G9">
-        <v>20.0364441112947</v>
+        <v>17.5551054002913</v>
       </c>
       <c r="H9">
-        <v>5.12336758548438</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>1.67933983317349</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>3.53548585342065</v>
+        <v>3.47718882292856</v>
       </c>
       <c r="K9">
-        <v>4.82722462432809</v>
+        <v>2.33712691377165</v>
       </c>
       <c r="L9">
-        <v>1.65410799679792</v>
+        <v>2.50450716741505</v>
       </c>
       <c r="M9">
-        <v>7.13744046593434</v>
+        <v>7.0061819481128</v>
       </c>
       <c r="N9">
-        <v>4.20869928317656</v>
+        <v>4.24001834226279</v>
       </c>
       <c r="O9">
-        <v>284.588513108457</v>
+        <v>286.062651227154</v>
       </c>
       <c r="P9">
-        <v>5.39944647285845</v>
+        <v>4.10841996217062</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5292.46199928999</v>
+        <v>5242.9507240046</v>
       </c>
       <c r="C10">
-        <v>54.1053315983723</v>
+        <v>58.5859020930147</v>
       </c>
       <c r="D10">
-        <v>24.2196302791334</v>
+        <v>28.0014513097645</v>
       </c>
       <c r="E10">
-        <v>50.9762383508086</v>
+        <v>78.14990057064991</v>
       </c>
       <c r="F10">
-        <v>12.7978160014004</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>12.0134763683971</v>
+        <v>35.586162287436</v>
       </c>
       <c r="H10">
-        <v>4.40770517613368</v>
+        <v>21.173348171065</v>
       </c>
       <c r="I10">
-        <v>39.8151443306942</v>
+        <v>26.2803281081693</v>
       </c>
       <c r="J10">
-        <v>42.04178969099</v>
+        <v>48.2221164031779</v>
       </c>
       <c r="K10">
-        <v>42.4121488476793</v>
+        <v>32.1624444246204</v>
       </c>
       <c r="L10">
-        <v>75.8995086892774</v>
+        <v>92.8554591828502</v>
       </c>
       <c r="M10">
-        <v>93.4220704003842</v>
+        <v>84.3981777017449</v>
       </c>
       <c r="N10">
-        <v>103.074450827403</v>
+        <v>82.9395643239782</v>
       </c>
       <c r="O10">
-        <v>5888.86502331899</v>
+        <v>5897.50144722449</v>
       </c>
       <c r="P10">
-        <v>106.206927762908</v>
+        <v>98.9146212713915</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2209.40321453679</v>
+        <v>2112.92371092748</v>
       </c>
       <c r="C11">
-        <v>71.949364422259</v>
+        <v>81.047105549595</v>
       </c>
       <c r="D11">
-        <v>155.541816659621</v>
+        <v>135.465083534216</v>
       </c>
       <c r="E11">
-        <v>49.1195112223486</v>
+        <v>96.19467849972099</v>
       </c>
       <c r="F11">
-        <v>10.8304381743612</v>
+        <v>12.2585757868648</v>
       </c>
       <c r="G11">
-        <v>25.1423115288737</v>
+        <v>33.2768290965238</v>
       </c>
       <c r="H11">
-        <v>19.5506708099577</v>
+        <v>30.289966297858</v>
       </c>
       <c r="I11">
-        <v>13.4804926370598</v>
+        <v>18.5805897948114</v>
       </c>
       <c r="J11">
-        <v>43.2806333261252</v>
+        <v>50.1200189696204</v>
       </c>
       <c r="K11">
-        <v>33.2364342783437</v>
+        <v>39.4424625237678</v>
       </c>
       <c r="L11">
-        <v>46.7771560656198</v>
+        <v>69.7526402117758</v>
       </c>
       <c r="M11">
-        <v>62.4029306797417</v>
+        <v>69.277873945099</v>
       </c>
       <c r="N11">
-        <v>32.9130546151563</v>
+        <v>53.7601607169236</v>
       </c>
       <c r="O11">
-        <v>2872.8776901706</v>
+        <v>2820.61912824538</v>
       </c>
       <c r="P11">
-        <v>30.752557552563</v>
+        <v>59.7188629954353</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>332.498290038125</v>
+        <v>342.041125756133</v>
       </c>
       <c r="C12">
-        <v>5.33173724757462</v>
+        <v>5.7865555531247</v>
       </c>
       <c r="D12">
-        <v>3.07211884105713</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>2.40347304720567</v>
+        <v>2.92341890635848</v>
       </c>
       <c r="F12">
-        <v>1.65424510851018</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.0930371187151097</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.0964115103215319</v>
+        <v>0.13523240497938</v>
       </c>
       <c r="I12">
-        <v>0.900603686154309</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>2.70861834474326</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.378130830259898</v>
+        <v>0.414927899941385</v>
       </c>
       <c r="L12">
-        <v>0.345468108818427</v>
+        <v>0.482710581004196</v>
       </c>
       <c r="M12">
-        <v>3.78127200912773</v>
+        <v>3.92798411944512</v>
       </c>
       <c r="N12">
-        <v>2.78674913643905</v>
+        <v>2.46362326716481</v>
       </c>
       <c r="O12">
-        <v>469.220545523434</v>
+        <v>463.283764250063</v>
       </c>
       <c r="P12">
-        <v>12.5429684718577</v>
+        <v>15.7140748393094</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>316.609786876589</v>
+        <v>335.880906218694</v>
       </c>
       <c r="C13">
-        <v>18.888051962632</v>
+        <v>20.1243464675109</v>
       </c>
       <c r="D13">
-        <v>0.507473924530281</v>
+        <v>1.21967752553177</v>
       </c>
       <c r="E13">
-        <v>15.2720535546104</v>
+        <v>17.7131362241184</v>
       </c>
       <c r="F13">
-        <v>2.19486429880556</v>
+        <v>2.7108055504409</v>
       </c>
       <c r="G13">
-        <v>5.918039920419</v>
+        <v>5.22958297721616</v>
       </c>
       <c r="H13">
-        <v>1.26458588175576</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>1.98687351667489</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>4.94788262604463</v>
+        <v>5.23750606816232</v>
       </c>
       <c r="K13">
-        <v>4.3642111554753</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>19.5591603731657</v>
+        <v>20.9491055112564</v>
       </c>
       <c r="M13">
-        <v>1.63487770812615</v>
+        <v>3.12010529787197</v>
       </c>
       <c r="N13">
-        <v>5.32960265296537</v>
+        <v>6.55057147527356</v>
       </c>
       <c r="O13">
-        <v>437.541566642776</v>
+        <v>417.323030876908</v>
       </c>
       <c r="P13">
-        <v>50.9527138662932</v>
+        <v>43.1431917449069</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3344.76174768062</v>
+        <v>3312.92742251486</v>
       </c>
       <c r="C14">
-        <v>110.827247609312</v>
+        <v>109.457067492039</v>
       </c>
       <c r="D14">
-        <v>8.993458815459711</v>
+        <v>18.222375276958</v>
       </c>
       <c r="E14">
-        <v>97.75222499843581</v>
+        <v>131.032868172294</v>
       </c>
       <c r="F14">
-        <v>24.6930401752985</v>
+        <v>31.0554073608354</v>
       </c>
       <c r="G14">
-        <v>76.02874683541491</v>
+        <v>76.71327177040421</v>
       </c>
       <c r="H14">
-        <v>52.0394859369877</v>
+        <v>68.2807911322485</v>
       </c>
       <c r="I14">
-        <v>24.6603430756233</v>
+        <v>22.8042495691536</v>
       </c>
       <c r="J14">
-        <v>164.743682721238</v>
+        <v>187.808540246829</v>
       </c>
       <c r="K14">
-        <v>152.82477635604</v>
+        <v>144.372628870921</v>
       </c>
       <c r="L14">
-        <v>127.468894737043</v>
+        <v>139.212999178261</v>
       </c>
       <c r="M14">
-        <v>99.47054470359021</v>
+        <v>92.06512911297</v>
       </c>
       <c r="N14">
-        <v>77.19306803088961</v>
+        <v>78.9870219041259</v>
       </c>
       <c r="O14">
-        <v>4244.66341059193</v>
+        <v>4181.91742400374</v>
       </c>
       <c r="P14">
-        <v>84.9396035173869</v>
+        <v>82.6271043467188</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1547.34502619797</v>
+        <v>1536.69231169577</v>
       </c>
       <c r="C15">
-        <v>21.555110211589</v>
+        <v>40.5115472926473</v>
       </c>
       <c r="D15">
-        <v>8.327423819544819</v>
+        <v>11.5672185157394</v>
       </c>
       <c r="E15">
-        <v>60.5785287396792</v>
+        <v>69.9261503583883</v>
       </c>
       <c r="F15">
-        <v>15.1815557525957</v>
+        <v>13.3921831953575</v>
       </c>
       <c r="G15">
-        <v>28.4162790418922</v>
+        <v>41.336473528101</v>
       </c>
       <c r="H15">
-        <v>74.9682305921195</v>
+        <v>52.409325260291</v>
       </c>
       <c r="I15">
-        <v>20.2743289678492</v>
+        <v>22.1020862963539</v>
       </c>
       <c r="J15">
-        <v>140.003429639158</v>
+        <v>153.459802678492</v>
       </c>
       <c r="K15">
-        <v>62.3460656413752</v>
+        <v>56.0463563109317</v>
       </c>
       <c r="L15">
-        <v>48.9890855406398</v>
+        <v>63.8960409430812</v>
       </c>
       <c r="M15">
-        <v>153.79813456423</v>
+        <v>204.870339322774</v>
       </c>
       <c r="N15">
-        <v>104.201396146479</v>
+        <v>77.5192826903078</v>
       </c>
       <c r="O15">
-        <v>1931.30958296667</v>
+        <v>1886.29908558161</v>
       </c>
       <c r="P15">
-        <v>47.4166025639171</v>
+        <v>42.0848196394437</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>695.18869458016</v>
+        <v>698.651742865773</v>
       </c>
       <c r="C16">
-        <v>58.657934693504</v>
+        <v>60.2674295743858</v>
       </c>
       <c r="D16">
-        <v>9.269186399153639</v>
+        <v>6.9413808992864</v>
       </c>
       <c r="E16">
-        <v>27.7217250003159</v>
+        <v>25.1111214042263</v>
       </c>
       <c r="F16">
-        <v>3.96250004175043</v>
+        <v>3.37219540502357</v>
       </c>
       <c r="G16">
-        <v>12.0631594103224</v>
+        <v>10.8637219603187</v>
       </c>
       <c r="H16">
-        <v>15.1524165757554</v>
+        <v>17.883692025002</v>
       </c>
       <c r="I16">
-        <v>5.7383992804313</v>
+        <v>9.84017675564257</v>
       </c>
       <c r="J16">
-        <v>48.2526128781861</v>
+        <v>46.257318236568</v>
       </c>
       <c r="K16">
-        <v>39.0331735784504</v>
+        <v>46.2900511316429</v>
       </c>
       <c r="L16">
-        <v>32.0957953751315</v>
+        <v>36.4655770984665</v>
       </c>
       <c r="M16">
-        <v>27.7815925255131</v>
+        <v>27.9248188129547</v>
       </c>
       <c r="N16">
-        <v>19.7664592188742</v>
+        <v>17.9276719319051</v>
       </c>
       <c r="O16">
-        <v>981.662671786649</v>
+        <v>974.458316398989</v>
       </c>
       <c r="P16">
-        <v>77.56558394520481</v>
+        <v>75.3881251840746</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>659.4875110517791</v>
+        <v>649.92689603943</v>
       </c>
       <c r="C17">
-        <v>19.0493754694425</v>
+        <v>31.3619307110583</v>
       </c>
       <c r="D17">
-        <v>3.90689553295389</v>
+        <v>4.40078566430918</v>
       </c>
       <c r="E17">
-        <v>19.112873081518</v>
+        <v>24.0042854416864</v>
       </c>
       <c r="F17">
-        <v>9.79901485470465</v>
+        <v>16.3169579604479</v>
       </c>
       <c r="G17">
-        <v>5.25938504640215</v>
+        <v>9.001607040632401</v>
       </c>
       <c r="H17">
-        <v>10.8237645254993</v>
+        <v>13.8056303779406</v>
       </c>
       <c r="I17">
-        <v>5.37761150341002</v>
+        <v>7.91285979331343</v>
       </c>
       <c r="J17">
-        <v>16.4315060714156</v>
+        <v>18.8881880073845</v>
       </c>
       <c r="K17">
-        <v>19.0508409137369</v>
+        <v>19.9785196078377</v>
       </c>
       <c r="L17">
-        <v>6.70647212354343</v>
+        <v>10.5384120209511</v>
       </c>
       <c r="M17">
-        <v>67.55207735919571</v>
+        <v>67.15691474031691</v>
       </c>
       <c r="N17">
-        <v>5.95174914343719</v>
+        <v>14.2606710030644</v>
       </c>
       <c r="O17">
-        <v>947.8754308285</v>
+        <v>903.509514090361</v>
       </c>
       <c r="P17">
-        <v>56.119188367227</v>
+        <v>65.6325950121519</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1226.20836035895</v>
+        <v>1228.46461321132</v>
       </c>
       <c r="C18">
-        <v>22.4953081821258</v>
+        <v>34.3645022298582</v>
       </c>
       <c r="D18">
-        <v>15.9749396831795</v>
+        <v>21.1989286191658</v>
       </c>
       <c r="E18">
-        <v>37.1840571589757</v>
+        <v>48.8912875980034</v>
       </c>
       <c r="F18">
-        <v>28.3651430146333</v>
+        <v>28.2505381374396</v>
       </c>
       <c r="G18">
-        <v>23.2060140933374</v>
+        <v>18.8143405867461</v>
       </c>
       <c r="H18">
-        <v>21.6562397690604</v>
+        <v>20.9385332041498</v>
       </c>
       <c r="I18">
-        <v>4.68255166874615</v>
+        <v>10.5796809146111</v>
       </c>
       <c r="J18">
-        <v>61.6032352417946</v>
+        <v>51.2634334797538</v>
       </c>
       <c r="K18">
-        <v>26.405967565983</v>
+        <v>31.901498910547</v>
       </c>
       <c r="L18">
-        <v>28.1437341247852</v>
+        <v>29.6640372748985</v>
       </c>
       <c r="M18">
-        <v>67.4119542620364</v>
+        <v>70.1939376337554</v>
       </c>
       <c r="N18">
-        <v>29.7349837911689</v>
+        <v>22.7219509179533</v>
       </c>
       <c r="O18">
-        <v>1220.00886253597</v>
+        <v>1222.71175192043</v>
       </c>
       <c r="P18">
-        <v>59.3374834417356</v>
+        <v>39.6641975400004</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1330.75001731095</v>
+        <v>1347.78028366243</v>
       </c>
       <c r="C19">
-        <v>18.5152330696247</v>
+        <v>23.7485412589337</v>
       </c>
       <c r="D19">
-        <v>3.47458185895429</v>
+        <v>9.822512186369529</v>
       </c>
       <c r="E19">
-        <v>32.8190867331308</v>
+        <v>37.3132461564768</v>
       </c>
       <c r="F19">
-        <v>88.6472312342428</v>
+        <v>78.87684170701949</v>
       </c>
       <c r="G19">
-        <v>33.8937420986709</v>
+        <v>41.7859311527532</v>
       </c>
       <c r="H19">
-        <v>5.03711168934157</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>1.27741961120993</v>
+        <v>7.14466385587859</v>
       </c>
       <c r="J19">
-        <v>12.8307813178852</v>
+        <v>23.6301578883518</v>
       </c>
       <c r="K19">
-        <v>22.7951623681475</v>
+        <v>12.0957221495007</v>
       </c>
       <c r="L19">
-        <v>7.28636248230224</v>
+        <v>7.40898062057586</v>
       </c>
       <c r="M19">
-        <v>25.5729804164486</v>
+        <v>29.5329306179854</v>
       </c>
       <c r="N19">
-        <v>10.0172601457988</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1456.85880639671</v>
+        <v>1404.13410393788</v>
       </c>
       <c r="P19">
-        <v>35.2732280376509</v>
+        <v>35.0706790795116</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>347.240686452869</v>
+        <v>345.642305369816</v>
       </c>
       <c r="C20">
-        <v>6.95015771234983</v>
+        <v>8.64942817089511</v>
       </c>
       <c r="D20">
-        <v>12.4949212484289</v>
+        <v>14.569208967684</v>
       </c>
       <c r="E20">
-        <v>35.4836645603763</v>
+        <v>36.5415277440123</v>
       </c>
       <c r="F20">
-        <v>0.816077852635182</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>1.78682376762225</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>1.95833924742105</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>2.9396824335785</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>4.4809136474695</v>
+        <v>6.53660900841074</v>
       </c>
       <c r="K20">
-        <v>5.41863307376791</v>
+        <v>3.81938471295916</v>
       </c>
       <c r="L20">
-        <v>8.52660495080378</v>
+        <v>8.43710195589437</v>
       </c>
       <c r="M20">
-        <v>10.5268692113382</v>
+        <v>15.5737135765998</v>
       </c>
       <c r="N20">
-        <v>3.01229471773343</v>
+        <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>458.50415157124</v>
+        <v>452.07708047775</v>
       </c>
       <c r="P20">
-        <v>26.123676795628</v>
+        <v>23.6300370573758</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1296.58527123282</v>
+        <v>1326.00962069207</v>
       </c>
       <c r="C21">
-        <v>25.6657059102558</v>
+        <v>25.5066307126345</v>
       </c>
       <c r="D21">
-        <v>12.5050673832086</v>
+        <v>11.7145837888345</v>
       </c>
       <c r="E21">
-        <v>32.1673836705148</v>
+        <v>42.2920226564345</v>
       </c>
       <c r="F21">
-        <v>6.17341798522505</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>28.1352456825357</v>
+        <v>20.8103735517648</v>
       </c>
       <c r="H21">
-        <v>7.47559278224938</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>10.538153154082</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>30.3334653232239</v>
+        <v>27.0935817185112</v>
       </c>
       <c r="K21">
-        <v>4.57870800598354</v>
+        <v>11.5414618609207</v>
       </c>
       <c r="L21">
-        <v>33.2440307106915</v>
+        <v>39.904604384133</v>
       </c>
       <c r="M21">
-        <v>26.2935731197087</v>
+        <v>28.5648856828766</v>
       </c>
       <c r="N21">
-        <v>16.1597308163951</v>
+        <v>20.197558256611</v>
       </c>
       <c r="O21">
-        <v>2184.64000814701</v>
+        <v>2130.25604237455</v>
       </c>
       <c r="P21">
-        <v>17.9240247916158</v>
+        <v>18.4790883441371</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1685.9068606367</v>
+        <v>1615.16756823597</v>
       </c>
       <c r="C22">
-        <v>17.6548743742743</v>
+        <v>26.0971286748771</v>
       </c>
       <c r="D22">
-        <v>23.1583886596514</v>
+        <v>28.2216118301619</v>
       </c>
       <c r="E22">
-        <v>33.4088716918583</v>
+        <v>55.2647788838338</v>
       </c>
       <c r="F22">
-        <v>2.75980292529423</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>24.2140643153461</v>
+        <v>27.0845138182507</v>
       </c>
       <c r="H22">
-        <v>31.8782422663827</v>
+        <v>20.9277928430305</v>
       </c>
       <c r="I22">
-        <v>9.272150009959621</v>
+        <v>9.94336630520259</v>
       </c>
       <c r="J22">
-        <v>61.0181751428395</v>
+        <v>53.2686870059877</v>
       </c>
       <c r="K22">
-        <v>31.6097398878755</v>
+        <v>28.3738698544022</v>
       </c>
       <c r="L22">
-        <v>92.576916979728</v>
+        <v>133.220263646409</v>
       </c>
       <c r="M22">
-        <v>13.8845440359085</v>
+        <v>18.5876974987107</v>
       </c>
       <c r="N22">
-        <v>72.057723419135</v>
+        <v>53.2712340651522</v>
       </c>
       <c r="O22">
-        <v>2400.20561398396</v>
+        <v>2416.07462413694</v>
       </c>
       <c r="P22">
-        <v>11.4572197783938</v>
+        <v>13.9411282511595</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2661.13559103532</v>
+        <v>2708.88305488</v>
       </c>
       <c r="C23">
-        <v>35.9499290282387</v>
+        <v>48.0983544337219</v>
       </c>
       <c r="D23">
-        <v>9.36374621487867</v>
+        <v>12.1353620520451</v>
       </c>
       <c r="E23">
-        <v>35.3817628484784</v>
+        <v>75.0240813152121</v>
       </c>
       <c r="F23">
-        <v>16.736758131719</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>49.8082857290501</v>
+        <v>50.8267655209568</v>
       </c>
       <c r="H23">
-        <v>70.6807976117328</v>
+        <v>67.72820612163061</v>
       </c>
       <c r="I23">
-        <v>22.5997934199661</v>
+        <v>18.1601450540484</v>
       </c>
       <c r="J23">
-        <v>143.241117477399</v>
+        <v>157.044557528258</v>
       </c>
       <c r="K23">
-        <v>133.333932269899</v>
+        <v>104.599265482609</v>
       </c>
       <c r="L23">
-        <v>55.8275671342387</v>
+        <v>45.9630975623203</v>
       </c>
       <c r="M23">
-        <v>481.724905601858</v>
+        <v>505.03945883401</v>
       </c>
       <c r="N23">
-        <v>64.7947035091578</v>
+        <v>73.8485797449747</v>
       </c>
       <c r="O23">
-        <v>3147.5012901877</v>
+        <v>3045.70028881395</v>
       </c>
       <c r="P23">
-        <v>59.4248364420163</v>
+        <v>62.1294031088602</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1039.23010463784</v>
+        <v>1079.57931229887</v>
       </c>
       <c r="C24">
-        <v>61.1692999892195</v>
+        <v>69.1539759696434</v>
       </c>
       <c r="D24">
-        <v>4.17906852075815</v>
+        <v>6.67900012910135</v>
       </c>
       <c r="E24">
-        <v>63.5787281919813</v>
+        <v>76.383834924215</v>
       </c>
       <c r="F24">
-        <v>16.4839269426719</v>
+        <v>13.5216366958922</v>
       </c>
       <c r="G24">
-        <v>31.3180032859573</v>
+        <v>14.5784379607014</v>
       </c>
       <c r="H24">
-        <v>13.6512012704182</v>
+        <v>20.6650463540425</v>
       </c>
       <c r="I24">
-        <v>14.4479588629213</v>
+        <v>15.7707265671528</v>
       </c>
       <c r="J24">
-        <v>48.2798998898019</v>
+        <v>62.8515160819433</v>
       </c>
       <c r="K24">
-        <v>71.5329125061006</v>
+        <v>49.8585661165283</v>
       </c>
       <c r="L24">
-        <v>51.3277031619611</v>
+        <v>75.5015958903448</v>
       </c>
       <c r="M24">
-        <v>28.6897362426093</v>
+        <v>32.3154347301313</v>
       </c>
       <c r="N24">
-        <v>57.5925759430924</v>
+        <v>52.3893682737005</v>
       </c>
       <c r="O24">
-        <v>1849.6486927116</v>
+        <v>1780.91848100679</v>
       </c>
       <c r="P24">
-        <v>108.080092195393</v>
+        <v>113.469189730692</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>860.124799984829</v>
+        <v>856.847556631877</v>
       </c>
       <c r="C25">
-        <v>35.163464403611</v>
+        <v>29.8348407210425</v>
       </c>
       <c r="D25">
-        <v>18.5085019124656</v>
+        <v>21.3090875555565</v>
       </c>
       <c r="E25">
-        <v>45.1627308182742</v>
+        <v>35.5097250089592</v>
       </c>
       <c r="F25">
-        <v>16.2935828471011</v>
+        <v>10.7168914577046</v>
       </c>
       <c r="G25">
-        <v>7.17081045635415</v>
+        <v>9.86024289842852</v>
       </c>
       <c r="H25">
-        <v>9.214779319946119</v>
+        <v>13.1269401736562</v>
       </c>
       <c r="I25">
-        <v>5.53222568655612</v>
+        <v>5.69451646419467</v>
       </c>
       <c r="J25">
-        <v>16.4015688184273</v>
+        <v>18.7429637815532</v>
       </c>
       <c r="K25">
-        <v>19.0964388576897</v>
+        <v>16.2636070627112</v>
       </c>
       <c r="L25">
-        <v>17.8145723718755</v>
+        <v>24.6670845131026</v>
       </c>
       <c r="M25">
-        <v>31.7922020152293</v>
+        <v>26.7835289980724</v>
       </c>
       <c r="N25">
-        <v>45.2122170091905</v>
+        <v>52.8403207317869</v>
       </c>
       <c r="O25">
-        <v>783.080186783016</v>
+        <v>784.027030136614</v>
       </c>
       <c r="P25">
-        <v>30.8949565066533</v>
+        <v>36.3125922756369</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1415.65103313945</v>
+        <v>1493.35488636065</v>
       </c>
       <c r="C26">
-        <v>57.7864361714245</v>
+        <v>63.0206423822812</v>
       </c>
       <c r="D26">
-        <v>22.3177373371946</v>
+        <v>23.4334310182687</v>
       </c>
       <c r="E26">
-        <v>32.86363292327</v>
+        <v>61.2470089427995</v>
       </c>
       <c r="F26">
-        <v>12.0000216164937</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>33.8618038270364</v>
+        <v>26.9748896036454</v>
       </c>
       <c r="H26">
-        <v>40.52635245824</v>
+        <v>21.2400072475378</v>
       </c>
       <c r="I26">
-        <v>16.5850730005121</v>
+        <v>15.2332526870355</v>
       </c>
       <c r="J26">
-        <v>67.8685581234239</v>
+        <v>65.3934838357943</v>
       </c>
       <c r="K26">
-        <v>46.8770220234786</v>
+        <v>38.4372715171526</v>
       </c>
       <c r="L26">
-        <v>47.8878817659407</v>
+        <v>44.5015719884644</v>
       </c>
       <c r="M26">
-        <v>63.0547555407306</v>
+        <v>78.5595966900384</v>
       </c>
       <c r="N26">
-        <v>26.8364027354351</v>
+        <v>43.0758257453106</v>
       </c>
       <c r="O26">
-        <v>1994.32846125276</v>
+        <v>1884.91014077226</v>
       </c>
       <c r="P26">
-        <v>77.3387127532214</v>
+        <v>76.73182816946139</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>247.286017421984</v>
+        <v>245.465692274845</v>
       </c>
       <c r="C27">
-        <v>3.29409021299397</v>
+        <v>2.8361775778519</v>
       </c>
       <c r="D27">
-        <v>0.818741217209964</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>7.31158324758549</v>
+        <v>9.48969828978113</v>
       </c>
       <c r="F27">
-        <v>4.57208394073675</v>
+        <v>6.94780669572573</v>
       </c>
       <c r="G27">
-        <v>1.19225015723056</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.599041752688386</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>1.39180711782201</v>
+        <v>1.28463765153383</v>
       </c>
       <c r="J27">
-        <v>2.49904860076894</v>
+        <v>3.52790590627928</v>
       </c>
       <c r="K27">
-        <v>2.09062624952047</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>0.645594093486439</v>
+        <v>1.60290694418891</v>
       </c>
       <c r="M27">
-        <v>0.30277328788333</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>2.89825263162756</v>
+        <v>4.0029347350623</v>
       </c>
       <c r="O27">
-        <v>322.807749506854</v>
+        <v>318.296590988816</v>
       </c>
       <c r="P27">
-        <v>39.5780075498737</v>
+        <v>41.5730339886443</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>384.09207909053</v>
+        <v>384.490511430577</v>
       </c>
       <c r="C28">
-        <v>39.4774100923124</v>
+        <v>35.3792548748652</v>
       </c>
       <c r="D28">
-        <v>5.18473079604474</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>4.24343092891342</v>
+        <v>9.229968659642919</v>
       </c>
       <c r="F28">
-        <v>2.32571323410982</v>
+        <v>1.98081337823618</v>
       </c>
       <c r="G28">
-        <v>2.97617902818123</v>
+        <v>4.5310755238247</v>
       </c>
       <c r="H28">
-        <v>7.53335859134245</v>
+        <v>6.60082607174464</v>
       </c>
       <c r="I28">
-        <v>2.28949883091153</v>
+        <v>4.07525161820574</v>
       </c>
       <c r="J28">
-        <v>16.4000474917546</v>
+        <v>13.8675129893797</v>
       </c>
       <c r="K28">
-        <v>11.4419439933626</v>
+        <v>16.3336127942709</v>
       </c>
       <c r="L28">
-        <v>16.9090241489711</v>
+        <v>13.5069688920746</v>
       </c>
       <c r="M28">
-        <v>8.02221455094838</v>
+        <v>9.70545189362455</v>
       </c>
       <c r="N28">
-        <v>11.1415144763432</v>
+        <v>10.720758604247</v>
       </c>
       <c r="O28">
-        <v>589.592838684777</v>
+        <v>600.890109876403</v>
       </c>
       <c r="P28">
-        <v>88.69361932003091</v>
+        <v>84.99977419571989</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>540.838523583544</v>
+        <v>553.517518008405</v>
       </c>
       <c r="C29">
-        <v>3.47226479436455</v>
+        <v>5.11782323214008</v>
       </c>
       <c r="D29">
-        <v>1.57219018011848</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>6.47576437635738</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>16.4761633912862</v>
+        <v>16.9620880047978</v>
       </c>
       <c r="G29">
-        <v>2.28374471024665</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>2.80034820637375</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>3.96740402363076</v>
+        <v>2.86120730156892</v>
       </c>
       <c r="J29">
-        <v>8.958083031326369</v>
+        <v>6.91261319409829</v>
       </c>
       <c r="K29">
-        <v>2.96814894203465</v>
+        <v>2.66228720948234</v>
       </c>
       <c r="L29">
-        <v>5.66221058845588</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>5.18142037729114</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
-        <v>8.37514406338561</v>
+        <v>9.369710703721021</v>
       </c>
       <c r="O29">
-        <v>833.380312731752</v>
+        <v>812.160134967872</v>
       </c>
       <c r="P29">
-        <v>8.00519925079848</v>
+        <v>6.4561885240446</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>268.385796466435</v>
+        <v>273.792276298566</v>
       </c>
       <c r="C30">
-        <v>3.55795418151683</v>
+        <v>3.7151910518131</v>
       </c>
       <c r="D30">
-        <v>8.42206890097612</v>
+        <v>5.99369707212142</v>
       </c>
       <c r="E30">
-        <v>16.6271258802656</v>
+        <v>16.8137096174795</v>
       </c>
       <c r="F30">
-        <v>0.808117495880978</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>4.11409561752624</v>
+        <v>3.97682422447599</v>
       </c>
       <c r="H30">
-        <v>5.46826887283382</v>
+        <v>5.28499008779046</v>
       </c>
       <c r="I30">
-        <v>2.78099129521068</v>
+        <v>2.74130952183063</v>
       </c>
       <c r="J30">
-        <v>18.2133520663596</v>
+        <v>20.7047560560223</v>
       </c>
       <c r="K30">
-        <v>14.3565778583217</v>
+        <v>9.193821721904129</v>
       </c>
       <c r="L30">
-        <v>36.5778230433273</v>
+        <v>35.053562914708</v>
       </c>
       <c r="M30">
-        <v>6.05390911069149</v>
+        <v>8.54919507890811</v>
       </c>
       <c r="N30">
-        <v>12.2773300498092</v>
+        <v>13.8313242991073</v>
       </c>
       <c r="O30">
-        <v>472.946729631662</v>
+        <v>470.679746604554</v>
       </c>
       <c r="P30">
-        <v>6.92888221953171</v>
+        <v>6.77392805603939</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2299.48880184163</v>
+        <v>2363.1433879568</v>
       </c>
       <c r="C31">
-        <v>43.0235614307447</v>
+        <v>43.5900002815471</v>
       </c>
       <c r="D31">
-        <v>47.6599571202382</v>
+        <v>37.7503653810493</v>
       </c>
       <c r="E31">
-        <v>53.8255028253173</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>3.0345998715372</v>
+        <v>9.59071043699279</v>
       </c>
       <c r="G31">
-        <v>98.6424353534087</v>
+        <v>130.017954694743</v>
       </c>
       <c r="H31">
-        <v>10.0197302673352</v>
+        <v>25.1179376553837</v>
       </c>
       <c r="I31">
-        <v>14.2360807982461</v>
+        <v>18.9205511314935</v>
       </c>
       <c r="J31">
-        <v>69.4163130148301</v>
+        <v>47.1180744792311</v>
       </c>
       <c r="K31">
-        <v>30.2011951374521</v>
+        <v>26.7514044461638</v>
       </c>
       <c r="L31">
-        <v>74.45563937639091</v>
+        <v>80.26171757160461</v>
       </c>
       <c r="M31">
-        <v>14.3865749770651</v>
+        <v>24.3414615718292</v>
       </c>
       <c r="N31">
-        <v>50.6679229889763</v>
+        <v>51.1865239285194</v>
       </c>
       <c r="O31">
-        <v>3165.463879501</v>
+        <v>3056.76453200859</v>
       </c>
       <c r="P31">
-        <v>4.88154243241288</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>529.436516775088</v>
+        <v>547.26893570775</v>
       </c>
       <c r="C32">
-        <v>10.054088652852</v>
+        <v>6.26063806335929</v>
       </c>
       <c r="D32">
-        <v>1.90137682638037</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>6.17664204458478</v>
+        <v>5.66023177014404</v>
       </c>
       <c r="F32">
-        <v>21.3886986276334</v>
+        <v>20.4531274666594</v>
       </c>
       <c r="G32">
-        <v>1.10840479813206</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>3.17167277515474</v>
+        <v>0.551250825534191</v>
       </c>
       <c r="I32">
-        <v>2.26062566304353</v>
+        <v>3.40185646791486</v>
       </c>
       <c r="J32">
-        <v>5.97548203970957</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>1.99704662624677</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>24.8819587799305</v>
+        <v>14.2489714616453</v>
       </c>
       <c r="M32">
-        <v>2.63057234022784</v>
+        <v>5.02905627751131</v>
       </c>
       <c r="N32">
-        <v>6.20874296622692</v>
+        <v>8.361924599679719</v>
       </c>
       <c r="O32">
-        <v>616.50542660982</v>
+        <v>614.0949082816049</v>
       </c>
       <c r="P32">
-        <v>14.7807677957683</v>
+        <v>22.8157811727977</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5738.30519194334</v>
+        <v>5654.19561448873</v>
       </c>
       <c r="C33">
-        <v>63.9847322102966</v>
+        <v>87.9175315035997</v>
       </c>
       <c r="D33">
-        <v>103.739067413447</v>
+        <v>101.126283266541</v>
       </c>
       <c r="E33">
-        <v>62.0688952081539</v>
+        <v>120.421426439711</v>
       </c>
       <c r="F33">
-        <v>7.49471489691767</v>
+        <v>9.37024158414847</v>
       </c>
       <c r="G33">
-        <v>79.458793581582</v>
+        <v>79.9402766984788</v>
       </c>
       <c r="H33">
-        <v>33.2754070442016</v>
+        <v>34.8681067807</v>
       </c>
       <c r="I33">
-        <v>33.7602880931776</v>
+        <v>33.4810952946312</v>
       </c>
       <c r="J33">
-        <v>115.565769570111</v>
+        <v>108.456180690893</v>
       </c>
       <c r="K33">
-        <v>108.559754219479</v>
+        <v>118.384850946182</v>
       </c>
       <c r="L33">
-        <v>111.60278253547</v>
+        <v>136.845042073697</v>
       </c>
       <c r="M33">
-        <v>71.2796781739074</v>
+        <v>71.6608941765984</v>
       </c>
       <c r="N33">
-        <v>130.895201504216</v>
+        <v>112.807930305828</v>
       </c>
       <c r="O33">
-        <v>6642.29984485392</v>
+        <v>6616.97797704891</v>
       </c>
       <c r="P33">
-        <v>66.2850995200191</v>
+        <v>84.8445988475158</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2210.764399651</v>
+        <v>2139.27262265847</v>
       </c>
       <c r="C34">
-        <v>76.75468136241059</v>
+        <v>65.6998966954633</v>
       </c>
       <c r="D34">
-        <v>159.001577474015</v>
+        <v>198.858588434799</v>
       </c>
       <c r="E34">
-        <v>71.6830154806792</v>
+        <v>83.1297939140965</v>
       </c>
       <c r="F34">
-        <v>10.3626234648514</v>
+        <v>7.77652567832393</v>
       </c>
       <c r="G34">
-        <v>45.3608584580508</v>
+        <v>57.5461091284184</v>
       </c>
       <c r="H34">
-        <v>45.6323678336426</v>
+        <v>38.6745057254218</v>
       </c>
       <c r="I34">
-        <v>18.8531056329875</v>
+        <v>22.3444234892327</v>
       </c>
       <c r="J34">
-        <v>63.8281731452221</v>
+        <v>63.0210464156692</v>
       </c>
       <c r="K34">
-        <v>49.1385120419065</v>
+        <v>43.170090055205</v>
       </c>
       <c r="L34">
-        <v>86.3802032384765</v>
+        <v>98.37562613725569</v>
       </c>
       <c r="M34">
-        <v>39.9034472378808</v>
+        <v>51.1726678643589</v>
       </c>
       <c r="N34">
-        <v>122.234883655549</v>
+        <v>127.72662493237</v>
       </c>
       <c r="O34">
-        <v>2659.86428700315</v>
+        <v>2640.32583636702</v>
       </c>
       <c r="P34">
-        <v>67.7465478430609</v>
+        <v>60.9231391242898</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>153.894019840261</v>
+        <v>157.952769762877</v>
       </c>
       <c r="C35">
-        <v>5.27678852918883</v>
+        <v>6.40773578979284</v>
       </c>
       <c r="D35">
-        <v>0.831476422998511</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>1.74671062265472</v>
+        <v>1.9438257931695</v>
       </c>
       <c r="F35">
-        <v>5.09636438975033</v>
+        <v>5.42166179054134</v>
       </c>
       <c r="G35">
-        <v>0.685228956119415</v>
+        <v>0.545715645998659</v>
       </c>
       <c r="H35">
-        <v>0.325972148132744</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>0.545645559935672</v>
+        <v>0.940012088861142</v>
       </c>
       <c r="J35">
-        <v>2.17961725917623</v>
+        <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>4.5365126135361</v>
+        <v>5.51236380722688</v>
       </c>
       <c r="L35">
-        <v>1.97661269179575</v>
+        <v>2.04051389273236</v>
       </c>
       <c r="M35">
-        <v>1.84992481804414</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>1.48927340183751</v>
+        <v>2.24030633620502</v>
       </c>
       <c r="O35">
-        <v>224.283090190558</v>
+        <v>219.991361741118</v>
       </c>
       <c r="P35">
-        <v>40.1829435583896</v>
+        <v>39.2376875405534</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2986.41161749417</v>
+        <v>3037.89909709901</v>
       </c>
       <c r="C36">
-        <v>51.8693704877029</v>
+        <v>72.87444951052839</v>
       </c>
       <c r="D36">
-        <v>10.7399654453279</v>
+        <v>20.5817309012614</v>
       </c>
       <c r="E36">
-        <v>81.17815499031759</v>
+        <v>122.870233176181</v>
       </c>
       <c r="F36">
-        <v>39.34939388801</v>
+        <v>21.9603524607966</v>
       </c>
       <c r="G36">
-        <v>80.5897105849797</v>
+        <v>78.3739175506079</v>
       </c>
       <c r="H36">
-        <v>106.778835539442</v>
+        <v>112.451306956913</v>
       </c>
       <c r="I36">
-        <v>32.3720301462808</v>
+        <v>52.151366172527</v>
       </c>
       <c r="J36">
-        <v>218.087086035468</v>
+        <v>258.187220521349</v>
       </c>
       <c r="K36">
-        <v>141.556536156448</v>
+        <v>125.354945224459</v>
       </c>
       <c r="L36">
-        <v>92.35151608300539</v>
+        <v>100.207518289292</v>
       </c>
       <c r="M36">
-        <v>228.546174741369</v>
+        <v>246.807075031695</v>
       </c>
       <c r="N36">
-        <v>108.487454998448</v>
+        <v>86.04567131908119</v>
       </c>
       <c r="O36">
-        <v>3771.83414030032</v>
+        <v>3644.29369040962</v>
       </c>
       <c r="P36">
-        <v>53.1728087877737</v>
+        <v>50.0924094103379</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>966.882751895478</v>
+        <v>981.448509998311</v>
       </c>
       <c r="C37">
-        <v>28.5158577444556</v>
+        <v>26.1444542595973</v>
       </c>
       <c r="D37">
-        <v>5.96701097150834</v>
+        <v>9.065075640448351</v>
       </c>
       <c r="E37">
-        <v>20.4360086483272</v>
+        <v>18.2060441050527</v>
       </c>
       <c r="F37">
-        <v>51.469144733924</v>
+        <v>46.4005568287955</v>
       </c>
       <c r="G37">
-        <v>6.72768285503554</v>
+        <v>5.88082438699973</v>
       </c>
       <c r="H37">
-        <v>18.1576301002876</v>
+        <v>18.7846751257488</v>
       </c>
       <c r="I37">
-        <v>11.2193019799924</v>
+        <v>11.1864632137561</v>
       </c>
       <c r="J37">
-        <v>42.1453575379619</v>
+        <v>37.1361351424515</v>
       </c>
       <c r="K37">
-        <v>31.623667698884</v>
+        <v>27.8110273240602</v>
       </c>
       <c r="L37">
-        <v>23.6734706344387</v>
+        <v>21.3861027714826</v>
       </c>
       <c r="M37">
-        <v>26.283406976698</v>
+        <v>34.6284542447486</v>
       </c>
       <c r="N37">
-        <v>12.2476703169034</v>
+        <v>15.4048911991164</v>
       </c>
       <c r="O37">
-        <v>1109.14388536866</v>
+        <v>1106.69424695916</v>
       </c>
       <c r="P37">
-        <v>48.7111767221079</v>
+        <v>46.3340891538412</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>963.827652361923</v>
+        <v>963.927855649903</v>
       </c>
       <c r="C38">
-        <v>21.3937923701587</v>
+        <v>22.0917346106743</v>
       </c>
       <c r="D38">
-        <v>7.32176631314239</v>
+        <v>8.61029186746528</v>
       </c>
       <c r="E38">
-        <v>38.343147108461</v>
+        <v>71.6231266087475</v>
       </c>
       <c r="F38">
-        <v>3.96237796157004</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>3.32409077258111</v>
+        <v>5.61236704786299</v>
       </c>
       <c r="H38">
-        <v>4.15550696239169</v>
+        <v>5.13104843452247</v>
       </c>
       <c r="I38">
-        <v>4.14924915627128</v>
+        <v>6.39864069224959</v>
       </c>
       <c r="J38">
-        <v>40.4594647136747</v>
+        <v>29.7289159920343</v>
       </c>
       <c r="K38">
-        <v>9.467780946807769</v>
+        <v>12.5472430937636</v>
       </c>
       <c r="L38">
-        <v>55.5709322870212</v>
+        <v>60.7151029967886</v>
       </c>
       <c r="M38">
-        <v>15.3293282407973</v>
+        <v>20.5889595591711</v>
       </c>
       <c r="N38">
-        <v>29.8600945172029</v>
+        <v>21.6260723996391</v>
       </c>
       <c r="O38">
-        <v>1237.18365391628</v>
+        <v>1187.29498174367</v>
       </c>
       <c r="P38">
-        <v>63.7864570834233</v>
+        <v>65.06029874882501</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3621.66145021995</v>
+        <v>3565.83369916323</v>
       </c>
       <c r="C39">
-        <v>73.2621199683565</v>
+        <v>94.5407356968358</v>
       </c>
       <c r="D39">
-        <v>71.93866699900251</v>
+        <v>66.7467284107486</v>
       </c>
       <c r="E39">
-        <v>136.737974451176</v>
+        <v>141.411064598663</v>
       </c>
       <c r="F39">
-        <v>32.361115144996</v>
+        <v>38.2672278620096</v>
       </c>
       <c r="G39">
-        <v>95.45738485871119</v>
+        <v>94.1587519634956</v>
       </c>
       <c r="H39">
-        <v>46.1354952909416</v>
+        <v>55.3362689386265</v>
       </c>
       <c r="I39">
-        <v>47.12738955318</v>
+        <v>53.5605648203576</v>
       </c>
       <c r="J39">
-        <v>187.016455524787</v>
+        <v>220.364425967772</v>
       </c>
       <c r="K39">
-        <v>93.0401016924058</v>
+        <v>86.018826192372</v>
       </c>
       <c r="L39">
-        <v>97.7365096686128</v>
+        <v>117.330461289898</v>
       </c>
       <c r="M39">
-        <v>49.9987950518425</v>
+        <v>69.8619592586368</v>
       </c>
       <c r="N39">
-        <v>101.832514639852</v>
+        <v>97.6028854225802</v>
       </c>
       <c r="O39">
-        <v>4040.04926577058</v>
+        <v>3988.46190789694</v>
       </c>
       <c r="P39">
-        <v>66.16501207144481</v>
+        <v>82.67446456701779</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>270.763074374969</v>
+        <v>288.772776881453</v>
       </c>
       <c r="C40">
-        <v>2.00485892099379</v>
+        <v>3.84416333008637</v>
       </c>
       <c r="D40">
-        <v>6.15992686345152</v>
+        <v>8.26613872315164</v>
       </c>
       <c r="E40">
-        <v>3.86477584109464</v>
+        <v>8.042874088246361</v>
       </c>
       <c r="F40">
-        <v>0.442737605005057</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>3.15532749709634</v>
+        <v>3.80596959406947</v>
       </c>
       <c r="H40">
-        <v>7.48342553522706</v>
+        <v>4.83088676947662</v>
       </c>
       <c r="I40">
-        <v>1.93396531507961</v>
+        <v>1.72347301890993</v>
       </c>
       <c r="J40">
-        <v>5.23382497681517</v>
+        <v>12.9121278594034</v>
       </c>
       <c r="K40">
-        <v>4.76332535892142</v>
+        <v>3.94072017016904</v>
       </c>
       <c r="L40">
-        <v>16.1265618176466</v>
+        <v>15.4579429609798</v>
       </c>
       <c r="M40">
-        <v>11.029919118599</v>
+        <v>5.7319584788015</v>
       </c>
       <c r="N40">
-        <v>14.8224494563899</v>
+        <v>20.9693094309088</v>
       </c>
       <c r="O40">
-        <v>394.2064719064</v>
+        <v>364.57119582247</v>
       </c>
       <c r="P40">
-        <v>5.15233078054793</v>
+        <v>2.54417445648609</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1195.64827398172</v>
+        <v>1130.83495532791</v>
       </c>
       <c r="C41">
-        <v>13.1450944692328</v>
+        <v>21.5314790106959</v>
       </c>
       <c r="D41">
-        <v>83.6886759912623</v>
+        <v>103.294675143448</v>
       </c>
       <c r="E41">
-        <v>26.0250134400999</v>
+        <v>44.010956774227</v>
       </c>
       <c r="F41">
-        <v>3.17690537910294</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>22.4457306548982</v>
+        <v>23.8213802370916</v>
       </c>
       <c r="H41">
-        <v>19.3315910453437</v>
+        <v>32.7529838658985</v>
       </c>
       <c r="I41">
-        <v>16.6048493374054</v>
+        <v>11.7144445192292</v>
       </c>
       <c r="J41">
-        <v>43.9120628762974</v>
+        <v>41.3861968182422</v>
       </c>
       <c r="K41">
-        <v>28.6509219554133</v>
+        <v>29.4911005760636</v>
       </c>
       <c r="L41">
-        <v>36.811962397319</v>
+        <v>30.5661788026331</v>
       </c>
       <c r="M41">
-        <v>20.127722289018</v>
+        <v>37.9238088158408</v>
       </c>
       <c r="N41">
-        <v>26.9566781334132</v>
+        <v>22.0742585168041</v>
       </c>
       <c r="O41">
-        <v>1252.66272038899</v>
+        <v>1265.04732748813</v>
       </c>
       <c r="P41">
-        <v>32.0769627592798</v>
+        <v>23.2805503764304</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>164.162700103303</v>
+        <v>172.721222368327</v>
       </c>
       <c r="C42">
-        <v>6.31128446321192</v>
+        <v>7.15849828973233</v>
       </c>
       <c r="D42">
-        <v>0.945433503677156</v>
+        <v>0.967983933028659</v>
       </c>
       <c r="E42">
-        <v>2.96075687272353</v>
+        <v>5.09238080266645</v>
       </c>
       <c r="F42">
-        <v>2.73732118877531</v>
+        <v>1.90245904498435</v>
       </c>
       <c r="G42">
-        <v>1.34734607010079</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
-        <v>1.03988747751233</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>0.7085863060343181</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>3.70462364451096</v>
+        <v>4.2461924386853</v>
       </c>
       <c r="K42">
-        <v>5.84211388645176</v>
+        <v>5.12144713991236</v>
       </c>
       <c r="L42">
-        <v>6.7921695646578</v>
+        <v>7.37143228599142</v>
       </c>
       <c r="M42">
-        <v>2.26723523220052</v>
+        <v>3.23341743155703</v>
       </c>
       <c r="N42">
-        <v>6.4492589549174</v>
+        <v>7.16105276648262</v>
       </c>
       <c r="O42">
-        <v>261.430958770046</v>
+        <v>250.602932514112</v>
       </c>
       <c r="P42">
-        <v>44.7127453802669</v>
+        <v>42.4118807803943</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1634.35207655541</v>
+        <v>1602.05434628737</v>
       </c>
       <c r="C43">
-        <v>47.1202834907558</v>
+        <v>44.1918246466831</v>
       </c>
       <c r="D43">
-        <v>58.2157891797835</v>
+        <v>51.7331994719184</v>
       </c>
       <c r="E43">
-        <v>61.2849322854314</v>
+        <v>72.2965655391713</v>
       </c>
       <c r="F43">
-        <v>6.26796453351294</v>
+        <v>7.47146358200763</v>
       </c>
       <c r="G43">
-        <v>19.3575329190535</v>
+        <v>31.0228334688398</v>
       </c>
       <c r="H43">
-        <v>32.8109227342922</v>
+        <v>34.2751018998179</v>
       </c>
       <c r="I43">
-        <v>19.6691101731761</v>
+        <v>17.0629125168518</v>
       </c>
       <c r="J43">
-        <v>47.9107460051994</v>
+        <v>70.3756424769032</v>
       </c>
       <c r="K43">
-        <v>71.1265166424558</v>
+        <v>49.8787653542333</v>
       </c>
       <c r="L43">
-        <v>52.946561597654</v>
+        <v>56.3454430407101</v>
       </c>
       <c r="M43">
-        <v>69.47884104461799</v>
+        <v>106.663636707225</v>
       </c>
       <c r="N43">
-        <v>61.1804128235797</v>
+        <v>59.6696924554899</v>
       </c>
       <c r="O43">
-        <v>1878.00789778845</v>
+        <v>1848.06432601</v>
       </c>
       <c r="P43">
-        <v>28.2572440978622</v>
+        <v>33.3597346580299</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5551.82358601772</v>
+        <v>5626.89248662762</v>
       </c>
       <c r="C44">
-        <v>122.250699342545</v>
+        <v>111.33472083245</v>
       </c>
       <c r="D44">
-        <v>59.8072186529928</v>
+        <v>48.8731854966159</v>
       </c>
       <c r="E44">
-        <v>114.460972922737</v>
+        <v>112.967674470388</v>
       </c>
       <c r="F44">
-        <v>250.862064862144</v>
+        <v>219.444662764208</v>
       </c>
       <c r="G44">
-        <v>128.292755567992</v>
+        <v>118.764663995492</v>
       </c>
       <c r="H44">
-        <v>36.6115730927578</v>
+        <v>62.1934996047129</v>
       </c>
       <c r="I44">
-        <v>44.6532103819048</v>
+        <v>47.8021808819066</v>
       </c>
       <c r="J44">
-        <v>156.271322118508</v>
+        <v>157.348828633359</v>
       </c>
       <c r="K44">
-        <v>96.3459545506694</v>
+        <v>92.8723898993337</v>
       </c>
       <c r="L44">
-        <v>211.08852475661</v>
+        <v>230.505166459351</v>
       </c>
       <c r="M44">
-        <v>101.565370478327</v>
+        <v>124.749497328655</v>
       </c>
       <c r="N44">
-        <v>77.00471955655461</v>
+        <v>98.84407820803629</v>
       </c>
       <c r="O44">
-        <v>7078.53119646594</v>
+        <v>7003.45179831517</v>
       </c>
       <c r="P44">
-        <v>198.917013146586</v>
+        <v>170.219257347259</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>488.460926785633</v>
+        <v>507.979074599828</v>
       </c>
       <c r="C45">
-        <v>11.679504449312</v>
+        <v>14.9754979112325</v>
       </c>
       <c r="D45">
-        <v>2.69625413806001</v>
+        <v>3.82177919982492</v>
       </c>
       <c r="E45">
-        <v>11.6107758586275</v>
+        <v>15.4124210353595</v>
       </c>
       <c r="F45">
-        <v>18.0206069047485</v>
+        <v>16.3380485254968</v>
       </c>
       <c r="G45">
-        <v>9.081878616239729</v>
+        <v>9.49179588153237</v>
       </c>
       <c r="H45">
-        <v>1.71108852197645</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>7.57979584676427</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>24.7490205940844</v>
+        <v>20.0432087664295</v>
       </c>
       <c r="K45">
-        <v>4.33300056149352</v>
+        <v>6.07725544890192</v>
       </c>
       <c r="L45">
-        <v>13.0665241651862</v>
+        <v>18.8565205626835</v>
       </c>
       <c r="M45">
-        <v>17.2407101858567</v>
+        <v>25.7696959770435</v>
       </c>
       <c r="N45">
-        <v>36.4021382612611</v>
+        <v>29.9676598543022</v>
       </c>
       <c r="O45">
-        <v>798.162322583994</v>
+        <v>774.44498789823</v>
       </c>
       <c r="P45">
-        <v>18.1651683497114</v>
+        <v>16.0177884935262</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>144.241037276663</v>
+        <v>141.42883057464</v>
       </c>
       <c r="C46">
-        <v>3.15233824143611</v>
+        <v>3.91644965727844</v>
       </c>
       <c r="D46">
-        <v>1.59594921250594</v>
+        <v>2.19731339623192</v>
       </c>
       <c r="E46">
-        <v>5.12483929235238</v>
+        <v>7.99953384744306</v>
       </c>
       <c r="F46">
-        <v>0.761424425259926</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>2.89121035102843</v>
+        <v>1.52590902234436</v>
       </c>
       <c r="H46">
-        <v>1.56408220042218</v>
+        <v>1.67588124513074</v>
       </c>
       <c r="I46">
-        <v>1.13301663062289</v>
+        <v>2.22222573213061</v>
       </c>
       <c r="J46">
-        <v>3.24174557545971</v>
+        <v>5.03807201755551</v>
       </c>
       <c r="K46">
-        <v>6.23674237430801</v>
+        <v>4.01427952300118</v>
       </c>
       <c r="L46">
-        <v>12.1823325920063</v>
+        <v>10.8745163107041</v>
       </c>
       <c r="M46">
-        <v>3.62295056901741</v>
+        <v>4.04605304043466</v>
       </c>
       <c r="N46">
-        <v>6.43179555234965</v>
+        <v>6.8301374574947</v>
       </c>
       <c r="O46">
-        <v>228.911128615699</v>
+        <v>226.341719082648</v>
       </c>
       <c r="P46">
-        <v>12.3979842334177</v>
+        <v>11.7613890765368</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1822.37249688021</v>
+        <v>1762.69834309549</v>
       </c>
       <c r="C47">
-        <v>51.7858855040603</v>
+        <v>54.1188344134605</v>
       </c>
       <c r="D47">
-        <v>63.0034164613041</v>
+        <v>52.6958109527959</v>
       </c>
       <c r="E47">
-        <v>61.7016431862461</v>
+        <v>71.1299794193133</v>
       </c>
       <c r="F47">
-        <v>19.9258611784285</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>33.0677404497115</v>
+        <v>30.0862896614229</v>
       </c>
       <c r="H47">
-        <v>16.8943906862807</v>
+        <v>21.0967644415575</v>
       </c>
       <c r="I47">
-        <v>9.375242440013359</v>
+        <v>14.1368843281893</v>
       </c>
       <c r="J47">
-        <v>26.5763511871969</v>
+        <v>34.8758250552022</v>
       </c>
       <c r="K47">
-        <v>17.6826146749241</v>
+        <v>26.1500748977051</v>
       </c>
       <c r="L47">
-        <v>50.9307473750144</v>
+        <v>47.1661117030908</v>
       </c>
       <c r="M47">
-        <v>70.50145666986489</v>
+        <v>72.7258172729432</v>
       </c>
       <c r="N47">
-        <v>38.3671112745216</v>
+        <v>50.5452241307137</v>
       </c>
       <c r="O47">
-        <v>2584.17767716642</v>
+        <v>2640.3662804556</v>
       </c>
       <c r="P47">
-        <v>39.2863530172116</v>
+        <v>37.9749123700345</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1658.23597799869</v>
+        <v>1586.54047661718</v>
       </c>
       <c r="C48">
-        <v>19.632650980884</v>
+        <v>37.1962671813783</v>
       </c>
       <c r="D48">
-        <v>12.3611762241859</v>
+        <v>8.027423161558421</v>
       </c>
       <c r="E48">
-        <v>58.076805217235</v>
+        <v>60.5543046743904</v>
       </c>
       <c r="F48">
-        <v>2.06908382826219</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>6.23431913775332</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>7.37182097920074</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>4.08749845101456</v>
+        <v>9.38952726160823</v>
       </c>
       <c r="J48">
-        <v>33.9287631921081</v>
+        <v>35.5085278865696</v>
       </c>
       <c r="K48">
-        <v>16.8468774082872</v>
+        <v>14.5962425162941</v>
       </c>
       <c r="L48">
-        <v>31.2962536302981</v>
+        <v>42.9185461458912</v>
       </c>
       <c r="M48">
-        <v>116.451729433086</v>
+        <v>129.318123035338</v>
       </c>
       <c r="N48">
-        <v>14.9816390743889</v>
+        <v>34.9259282702562</v>
       </c>
       <c r="O48">
-        <v>2110.03035074422</v>
+        <v>2098.91979778832</v>
       </c>
       <c r="P48">
-        <v>76.1074617067159</v>
+        <v>77.80184023723341</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>651.273662982682</v>
+        <v>663.276224844601</v>
       </c>
       <c r="C49">
-        <v>5.76701815277334</v>
+        <v>6.7406965090359</v>
       </c>
       <c r="D49">
-        <v>2.13861276502038</v>
+        <v>2.78878667090294</v>
       </c>
       <c r="E49">
-        <v>17.9356088800549</v>
+        <v>15.3392286521596</v>
       </c>
       <c r="F49">
-        <v>27.4729984762077</v>
+        <v>27.5172723574616</v>
       </c>
       <c r="G49">
-        <v>16.8956440768327</v>
+        <v>16.8438305840347</v>
       </c>
       <c r="H49">
-        <v>6.5897913310209</v>
+        <v>6.19479346842968</v>
       </c>
       <c r="I49">
-        <v>7.13475068459211</v>
+        <v>5.94196427087392</v>
       </c>
       <c r="J49">
-        <v>16.4976527243112</v>
+        <v>19.2781708534907</v>
       </c>
       <c r="K49">
-        <v>4.93480595909726</v>
+        <v>6.2445567175833</v>
       </c>
       <c r="L49">
-        <v>4.13020548384136</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>5.11981490437649</v>
+        <v>7.29111246135735</v>
       </c>
       <c r="N49">
-        <v>5.08620993341761</v>
+        <v>5.25869134431141</v>
       </c>
       <c r="O49">
-        <v>553.504697099818</v>
+        <v>538.717688132755</v>
       </c>
       <c r="P49">
-        <v>9.10790483258733</v>
+        <v>9.08613777867693</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1226.40579574229</v>
+        <v>1286.21351495915</v>
       </c>
       <c r="C50">
-        <v>87.8822810923318</v>
+        <v>79.9021231753332</v>
       </c>
       <c r="D50">
-        <v>18.6990917188633</v>
+        <v>15.3048805517573</v>
       </c>
       <c r="E50">
-        <v>132.950377514903</v>
+        <v>142.078279322301</v>
       </c>
       <c r="F50">
-        <v>3.11037456577672</v>
+        <v>4.20492452019271</v>
       </c>
       <c r="G50">
-        <v>34.8387273445808</v>
+        <v>15.2120730445438</v>
       </c>
       <c r="H50">
-        <v>41.8961571418481</v>
+        <v>40.7270160497876</v>
       </c>
       <c r="I50">
-        <v>13.426937956702</v>
+        <v>14.9243412525615</v>
       </c>
       <c r="J50">
-        <v>101.601634780794</v>
+        <v>110.629563761235</v>
       </c>
       <c r="K50">
-        <v>94.982810041929</v>
+        <v>87.990730456553</v>
       </c>
       <c r="L50">
-        <v>41.6236662814003</v>
+        <v>59.4689757444967</v>
       </c>
       <c r="M50">
-        <v>52.60946978728</v>
+        <v>60.2710676488075</v>
       </c>
       <c r="N50">
-        <v>38.7214502930162</v>
+        <v>58.2991908967264</v>
       </c>
       <c r="O50">
-        <v>1810.92986553239</v>
+        <v>1711.22583806121</v>
       </c>
       <c r="P50">
-        <v>102.237395134176</v>
+        <v>125.163941751003</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.551421273405</v>
+        <v>121.833891516939</v>
       </c>
       <c r="C51">
-        <v>1.35960542096696</v>
+        <v>1.0758038971627</v>
       </c>
       <c r="D51">
-        <v>0.519320814583521</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>2.10441891657435</v>
+        <v>2.52665045793152</v>
       </c>
       <c r="F51">
-        <v>24.5428133242041</v>
+        <v>23.542047318701</v>
       </c>
       <c r="G51">
-        <v>3.0140813890471</v>
+        <v>2.74053506660959</v>
       </c>
       <c r="H51">
-        <v>0.0233961645164203</v>
+        <v>0.138410861949979</v>
       </c>
       <c r="I51">
-        <v>1.62940945129966</v>
+        <v>0.885829516479869</v>
       </c>
       <c r="J51">
-        <v>1.3949527541918</v>
+        <v>1.63534752352781</v>
       </c>
       <c r="K51">
-        <v>1.32344703853092</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="L51">
-        <v>0.157898086526909</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.348132347757437</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>1.14566020758945</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>177.379849555168</v>
+        <v>176.851503623716</v>
       </c>
       <c r="P51">
-        <v>15.5971183953616</v>
+        <v>13.1643247781938</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4933.14783116166</v>
       </c>
       <c r="C52">
-        <v>179.86150106588</v>
+        <v>180.4007802933</v>
       </c>
       <c r="D52">
-        <v>73.3016264530167</v>
+        <v>73.5214069188082</v>
       </c>
       <c r="E52">
-        <v>172.859723973655</v>
+        <v>173.378009753792</v>
       </c>
       <c r="F52">
-        <v>90.81661149424581</v>
+        <v>91.0889071872835</v>
       </c>
       <c r="G52">
-        <v>58.1286182009095</v>
+        <v>58.302905394826</v>
       </c>
       <c r="H52">
-        <v>37.5749729671247</v>
+        <v>37.6876341106821</v>
       </c>
       <c r="I52">
-        <v>42.4414619525768</v>
+        <v>42.568714303284</v>
       </c>
       <c r="J52">
-        <v>156.300000964227</v>
+        <v>156.768635681864</v>
       </c>
       <c r="K52">
-        <v>72.6787123658855</v>
+        <v>72.8966251466768</v>
       </c>
       <c r="L52">
-        <v>65.8898149803421</v>
+        <v>66.08737259165341</v>
       </c>
       <c r="M52">
-        <v>97.7405833640928</v>
+        <v>98.03363922080371</v>
       </c>
       <c r="N52">
-        <v>99.41250474573491</v>
+        <v>99.7105735288678</v>
       </c>
       <c r="O52">
-        <v>6993.92029583987</v>
+        <v>7014.89018606889</v>
       </c>
       <c r="P52">
-        <v>437.93154460944</v>
+        <v>439.244595949723</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2613.4962848559</v>
       </c>
       <c r="C53">
-        <v>80.9186936772993</v>
+        <v>80.1442231198086</v>
       </c>
       <c r="D53">
-        <v>38.6837357093181</v>
+        <v>38.3134947551067</v>
       </c>
       <c r="E53">
-        <v>91.141098118694</v>
+        <v>90.2687892137604</v>
       </c>
       <c r="F53">
-        <v>9.04857776516431</v>
+        <v>8.961974080059949</v>
       </c>
       <c r="G53">
-        <v>26.7422303755387</v>
+        <v>26.4862812354045</v>
       </c>
       <c r="H53">
-        <v>29.2752769614919</v>
+        <v>28.9950841032201</v>
       </c>
       <c r="I53">
-        <v>38.088891109877</v>
+        <v>37.7243433967156</v>
       </c>
       <c r="J53">
-        <v>104.149358100804</v>
+        <v>103.152547502844</v>
       </c>
       <c r="K53">
-        <v>81.7841925694861</v>
+        <v>81.00143834626761</v>
       </c>
       <c r="L53">
-        <v>81.9398435730065</v>
+        <v>81.15559961838</v>
       </c>
       <c r="M53">
-        <v>39.9031671381723</v>
+        <v>39.5212550398086</v>
       </c>
       <c r="N53">
-        <v>52.7726300470797</v>
+        <v>52.2675446786009</v>
       </c>
       <c r="O53">
-        <v>2657.15992021891</v>
+        <v>2631.728316825</v>
       </c>
       <c r="P53">
-        <v>304.91238463516</v>
+        <v>301.994076716647</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3487.14423684621</v>
       </c>
       <c r="C54">
-        <v>98.22348931669509</v>
+        <v>95.4386096827986</v>
       </c>
       <c r="D54">
-        <v>54.1830553995811</v>
+        <v>52.646831340201</v>
       </c>
       <c r="E54">
-        <v>67.16158776903811</v>
+        <v>65.25739011469599</v>
       </c>
       <c r="F54">
-        <v>8.642822991816571</v>
+        <v>8.397777515457269</v>
       </c>
       <c r="G54">
-        <v>71.94989905805819</v>
+        <v>69.90994089793161</v>
       </c>
       <c r="H54">
-        <v>26.9036831156558</v>
+        <v>26.1408969460053</v>
       </c>
       <c r="I54">
-        <v>34.4874767984923</v>
+        <v>33.5096712610517</v>
       </c>
       <c r="J54">
-        <v>103.308604909256</v>
+        <v>100.37954963114</v>
       </c>
       <c r="K54">
-        <v>43.5730410935975</v>
+        <v>42.3376372653213</v>
       </c>
       <c r="L54">
-        <v>57.1589869214639</v>
+        <v>55.5383878195678</v>
       </c>
       <c r="M54">
-        <v>64.4400599359047</v>
+        <v>62.613024348277</v>
       </c>
       <c r="N54">
-        <v>32.2195369375478</v>
+        <v>31.3060331223692</v>
       </c>
       <c r="O54">
-        <v>2946.22446788682</v>
+        <v>2862.69169406068</v>
       </c>
       <c r="P54">
-        <v>85.2922878660753</v>
+        <v>82.87403987815441</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2841.39235660459</v>
       </c>
       <c r="C55">
-        <v>119.124347110837</v>
+        <v>123.327607862414</v>
       </c>
       <c r="D55">
-        <v>191.141342792515</v>
+        <v>197.885697944498</v>
       </c>
       <c r="E55">
-        <v>46.4042566317088</v>
+        <v>48.0416145298781</v>
       </c>
       <c r="F55">
-        <v>46.9064672013161</v>
+        <v>48.5615454230586</v>
       </c>
       <c r="G55">
-        <v>33.8489923915279</v>
+        <v>35.0433422003656</v>
       </c>
       <c r="H55">
-        <v>17.8786962780177</v>
+        <v>18.5095397972258</v>
       </c>
       <c r="I55">
-        <v>24.3069915689903</v>
+        <v>25.1646552299361</v>
       </c>
       <c r="J55">
-        <v>55.5444889985606</v>
+        <v>57.5043567857632</v>
       </c>
       <c r="K55">
-        <v>73.9253958461855</v>
+        <v>76.53382747616941</v>
       </c>
       <c r="L55">
-        <v>35.5565083281925</v>
+        <v>36.8111072371793</v>
       </c>
       <c r="M55">
-        <v>13.7605696072383</v>
+        <v>14.2461064731457</v>
       </c>
       <c r="N55">
-        <v>26.2153917334978</v>
+        <v>27.140392624022</v>
       </c>
       <c r="O55">
-        <v>1467.25840016451</v>
+        <v>1519.03009751615</v>
       </c>
       <c r="P55">
-        <v>778.828151346905</v>
+        <v>806.308829144318</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>41589.9578883227</v>
       </c>
       <c r="C56">
-        <v>1685.62186802596</v>
+        <v>1691.67020972003</v>
       </c>
       <c r="D56">
-        <v>2862.06223191263</v>
+        <v>2872.33187224932</v>
       </c>
       <c r="E56">
-        <v>918.553949920358</v>
+        <v>921.849901556329</v>
       </c>
       <c r="F56">
-        <v>295.101276832665</v>
+        <v>296.160158062492</v>
       </c>
       <c r="G56">
-        <v>398.553720508809</v>
+        <v>399.983809386275</v>
       </c>
       <c r="H56">
-        <v>301.485657931806</v>
+        <v>302.567447572544</v>
       </c>
       <c r="I56">
-        <v>478.463447970369</v>
+        <v>480.18026861463</v>
       </c>
       <c r="J56">
-        <v>757.521691419264</v>
+        <v>760.239827744663</v>
       </c>
       <c r="K56">
-        <v>397.574722378599</v>
+        <v>399.001298418861</v>
       </c>
       <c r="L56">
-        <v>343.004530870604</v>
+        <v>344.235298366369</v>
       </c>
       <c r="M56">
-        <v>349.816726193313</v>
+        <v>351.071937181287</v>
       </c>
       <c r="N56">
-        <v>750.649801088616</v>
+        <v>753.343279724415</v>
       </c>
       <c r="O56">
-        <v>48383.3451697929</v>
+        <v>48556.9540968243</v>
       </c>
       <c r="P56">
-        <v>16816.5792051541</v>
+        <v>16876.9203878876</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>7055.82648881436</v>
       </c>
       <c r="C57">
-        <v>249.300953985986</v>
+        <v>249.682930696739</v>
       </c>
       <c r="D57">
-        <v>160.806720730064</v>
+        <v>161.053107361441</v>
       </c>
       <c r="E57">
-        <v>403.428864841212</v>
+        <v>404.046994970083</v>
       </c>
       <c r="F57">
-        <v>164.438447521125</v>
+        <v>164.690398652082</v>
       </c>
       <c r="G57">
-        <v>90.7089425991618</v>
+        <v>90.8479260365532</v>
       </c>
       <c r="H57">
-        <v>118.905610393802</v>
+        <v>119.087796515524</v>
       </c>
       <c r="I57">
-        <v>53.5840733316552</v>
+        <v>53.6661743735997</v>
       </c>
       <c r="J57">
-        <v>279.11777835812</v>
+        <v>279.545440142744</v>
       </c>
       <c r="K57">
-        <v>143.227775551423</v>
+        <v>143.447227878897</v>
       </c>
       <c r="L57">
-        <v>133.477109208812</v>
+        <v>133.68162165179</v>
       </c>
       <c r="M57">
-        <v>240.293478793183</v>
+        <v>240.66165433033</v>
       </c>
       <c r="N57">
-        <v>170.175882353684</v>
+        <v>170.436624331409</v>
       </c>
       <c r="O57">
-        <v>10676.1571695484</v>
+        <v>10692.5150828813</v>
       </c>
       <c r="P57">
-        <v>415.072191014577</v>
+        <v>415.708160944551</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>212736.905835552</v>
       </c>
       <c r="C58">
-        <v>12325.0109723003</v>
+        <v>12211.9083968377</v>
       </c>
       <c r="D58">
-        <v>19449.2506992874</v>
+        <v>19270.7713170093</v>
       </c>
       <c r="E58">
-        <v>11471.8796171459</v>
+        <v>11366.6059477745</v>
       </c>
       <c r="F58">
-        <v>9029.757803708681</v>
+        <v>8946.894683692141</v>
       </c>
       <c r="G58">
-        <v>6363.41056284242</v>
+        <v>6305.0156352435</v>
       </c>
       <c r="H58">
-        <v>7325.62091582498</v>
+        <v>7258.39610001715</v>
       </c>
       <c r="I58">
-        <v>9153.528742142031</v>
+        <v>9069.52981689694</v>
       </c>
       <c r="J58">
-        <v>8110.37766857494</v>
+        <v>8035.95139793293</v>
       </c>
       <c r="K58">
-        <v>7301.97317094635</v>
+        <v>7234.96536272217</v>
       </c>
       <c r="L58">
-        <v>7885.16263367384</v>
+        <v>7812.80308739722</v>
       </c>
       <c r="M58">
-        <v>3904.69416435356</v>
+        <v>3868.86206916317</v>
       </c>
       <c r="N58">
-        <v>8767.52769339565</v>
+        <v>8687.07097292771</v>
       </c>
       <c r="O58">
-        <v>233727.585417786</v>
+        <v>231582.744173683</v>
       </c>
       <c r="P58">
-        <v>360388.057580227</v>
+        <v>357080.894806101</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>175.61971197769</v>
       </c>
       <c r="C59">
-        <v>10.1797222222222</v>
+        <v>10.3956355911624</v>
       </c>
       <c r="D59">
-        <v>4.60045138888889</v>
+        <v>4.69802762292918</v>
       </c>
       <c r="E59">
-        <v>5.48138888888889</v>
+        <v>5.59764993370286</v>
       </c>
       <c r="F59">
-        <v>0.685173611111111</v>
+        <v>0.699706241712857</v>
       </c>
       <c r="G59">
-        <v>1.46822916666667</v>
+        <v>1.49937051795612</v>
       </c>
       <c r="H59">
-        <v>1.27246527777778</v>
+        <v>1.29945444889531</v>
       </c>
       <c r="I59">
-        <v>2.54493055555556</v>
+        <v>2.59890889779061</v>
       </c>
       <c r="J59">
-        <v>3.52375</v>
+        <v>3.59848924309469</v>
       </c>
       <c r="K59">
-        <v>1.07670138888889</v>
+        <v>1.09953837983449</v>
       </c>
       <c r="L59">
-        <v>0.685173611111111</v>
+        <v>0.699706241712857</v>
       </c>
       <c r="M59">
-        <v>0.391527777777778</v>
+        <v>0.399832138121632</v>
       </c>
       <c r="N59">
-        <v>3.52375</v>
+        <v>3.59848924309469</v>
       </c>
       <c r="O59">
-        <v>228.554340277778</v>
+        <v>233.402010628503</v>
       </c>
       <c r="P59">
-        <v>17.9123958333333</v>
+        <v>18.2923203190647</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3067.41276602807</v>
       </c>
       <c r="C60">
-        <v>152.169249516831</v>
+        <v>151.182289373271</v>
       </c>
       <c r="D60">
-        <v>143.502155608574</v>
+        <v>142.571409688814</v>
       </c>
       <c r="E60">
-        <v>129.832250691382</v>
+        <v>128.990166911722</v>
       </c>
       <c r="F60">
-        <v>65.87847232115141</v>
+        <v>65.4511887096066</v>
       </c>
       <c r="G60">
-        <v>44.2291485319415</v>
+        <v>43.9422810674358</v>
       </c>
       <c r="H60">
-        <v>61.8001911366253</v>
+        <v>61.3993589993181</v>
       </c>
       <c r="I60">
-        <v>87.3516478015128</v>
+        <v>86.7850905297372</v>
       </c>
       <c r="J60">
-        <v>233.90704076346</v>
+        <v>232.38993446725</v>
       </c>
       <c r="K60">
-        <v>156.900374151101</v>
+        <v>155.882728231912</v>
       </c>
       <c r="L60">
-        <v>176.142337719381</v>
+        <v>174.999889639532</v>
       </c>
       <c r="M60">
-        <v>110.762454679208</v>
+        <v>110.044056392311</v>
       </c>
       <c r="N60">
-        <v>88.769790965971</v>
+        <v>88.19403570718011</v>
       </c>
       <c r="O60">
-        <v>2902.25735373885</v>
+        <v>2883.43349580704</v>
       </c>
       <c r="P60">
-        <v>227.807532374012</v>
+        <v>226.329987104058</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>26059.5865898926</v>
       </c>
       <c r="C61">
-        <v>948.439545868899</v>
+        <v>946.805957782859</v>
       </c>
       <c r="D61">
-        <v>269.420457998398</v>
+        <v>268.956409391148</v>
       </c>
       <c r="E61">
-        <v>865.923317035441</v>
+        <v>864.4318545376</v>
       </c>
       <c r="F61">
-        <v>128.248114692964</v>
+        <v>128.027220706487</v>
       </c>
       <c r="G61">
-        <v>505.03908731803</v>
+        <v>504.169210223996</v>
       </c>
       <c r="H61">
-        <v>421.528687052844</v>
+        <v>420.802647903493</v>
       </c>
       <c r="I61">
-        <v>297.257258086793</v>
+        <v>296.745263497982</v>
       </c>
       <c r="J61">
-        <v>1161.19223225878</v>
+        <v>1159.19219988509</v>
       </c>
       <c r="K61">
-        <v>1139.32046076075</v>
+        <v>1137.35810022972</v>
       </c>
       <c r="L61">
-        <v>1109.4953178089</v>
+        <v>1107.5843279724</v>
       </c>
       <c r="M61">
-        <v>1022.0082318168</v>
+        <v>1020.24792935092</v>
       </c>
       <c r="N61">
-        <v>329.070743902102</v>
+        <v>328.503953905793</v>
       </c>
       <c r="O61">
-        <v>26873.4479710505</v>
+        <v>26827.1612629229</v>
       </c>
       <c r="P61">
-        <v>919.6085743487751</v>
+        <v>918.024644600781</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1332.30343568182</v>
       </c>
       <c r="C62">
-        <v>77.30995204661539</v>
+        <v>76.886794962189</v>
       </c>
       <c r="D62">
-        <v>13.5089489831007</v>
+        <v>13.435007565288</v>
       </c>
       <c r="E62">
-        <v>63.5386837639968</v>
+        <v>63.1909039056721</v>
       </c>
       <c r="F62">
-        <v>3.70117683357612</v>
+        <v>3.68091839133962</v>
       </c>
       <c r="G62">
-        <v>27.1465829055875</v>
+        <v>26.9979957111789</v>
       </c>
       <c r="H62">
-        <v>21.4141637980081</v>
+        <v>21.2969530783231</v>
       </c>
       <c r="I62">
-        <v>18.5623075643807</v>
+        <v>18.4607065189625</v>
       </c>
       <c r="J62">
-        <v>53.338917491419</v>
+        <v>53.0469661938872</v>
       </c>
       <c r="K62">
-        <v>66.8736034623969</v>
+        <v>66.5075698752958</v>
       </c>
       <c r="L62">
-        <v>50.4167794832038</v>
+        <v>50.1408225481973</v>
       </c>
       <c r="M62">
-        <v>15.453081451981</v>
+        <v>15.3684987983961</v>
       </c>
       <c r="N62">
-        <v>30.214233883724</v>
+        <v>30.0488558595505</v>
       </c>
       <c r="O62">
-        <v>2001.10525108317</v>
+        <v>1990.15217400497</v>
       </c>
       <c r="P62">
-        <v>90.68031724883871</v>
+        <v>90.1839772868278</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>13656.4474806627</v>
       </c>
       <c r="C63">
-        <v>403.495933633404</v>
+        <v>398.226977604027</v>
       </c>
       <c r="D63">
-        <v>339.587290437329</v>
+        <v>335.152870280135</v>
       </c>
       <c r="E63">
-        <v>323.803792193449</v>
+        <v>319.575477107719</v>
       </c>
       <c r="F63">
-        <v>49.5776141157435</v>
+        <v>48.9302165906555</v>
       </c>
       <c r="G63">
-        <v>157.060332218234</v>
+        <v>155.009397089928</v>
       </c>
       <c r="H63">
-        <v>118.32782119031</v>
+        <v>116.782665378479</v>
       </c>
       <c r="I63">
-        <v>199.956588181661</v>
+        <v>197.345502460359</v>
       </c>
       <c r="J63">
-        <v>447.166839817389</v>
+        <v>441.327617608686</v>
       </c>
       <c r="K63">
-        <v>204.313995672302</v>
+        <v>201.646009777897</v>
       </c>
       <c r="L63">
-        <v>196.470662189147</v>
+        <v>193.905096606328</v>
       </c>
       <c r="M63">
-        <v>284.393462222536</v>
+        <v>280.679777591319</v>
       </c>
       <c r="N63">
-        <v>241.884531369389</v>
+        <v>238.725939538003</v>
       </c>
       <c r="O63">
-        <v>11106.6443685349</v>
+        <v>10961.6108850875</v>
       </c>
       <c r="P63">
-        <v>1007.91676822417</v>
+        <v>994.755125961198</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>371.915776292559</v>
       </c>
       <c r="C64">
-        <v>19.6079586138966</v>
+        <v>19.3088536519867</v>
       </c>
       <c r="D64">
-        <v>27.7861524076324</v>
+        <v>27.3622951249259</v>
       </c>
       <c r="E64">
-        <v>25.4213734793233</v>
+        <v>25.0335891568471</v>
       </c>
       <c r="F64">
-        <v>7.58699906165849</v>
+        <v>7.47126498091949</v>
       </c>
       <c r="G64">
-        <v>2.758908749694</v>
+        <v>2.71682362942527</v>
       </c>
       <c r="H64">
-        <v>1.87211665157807</v>
+        <v>1.84355889139572</v>
       </c>
       <c r="I64">
-        <v>5.22222013334935</v>
+        <v>5.14255901284069</v>
       </c>
       <c r="J64">
-        <v>14.7798683019321</v>
+        <v>14.5544123004925</v>
       </c>
       <c r="K64">
-        <v>4.53249294592585</v>
+        <v>4.46335310548437</v>
       </c>
       <c r="L64">
-        <v>10.5429727220449</v>
+        <v>10.382147441018</v>
       </c>
       <c r="M64">
-        <v>5.51781749938799</v>
+        <v>5.43364725885054</v>
       </c>
       <c r="N64">
-        <v>12.2180244629306</v>
+        <v>12.0316475017405</v>
       </c>
       <c r="O64">
-        <v>346.440112832161</v>
+        <v>341.155424160935</v>
       </c>
       <c r="P64">
-        <v>39.4129821384857</v>
+        <v>38.8117661346467</v>
       </c>
     </row>
     <row r="65">
@@ -3722,49 +3722,49 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691964989</v>
+        <v>1341.31904081781</v>
       </c>
       <c r="C65">
-        <v>41.2875485470965</v>
+        <v>41.4160875463163</v>
       </c>
       <c r="D65">
-        <v>19.2609377193393</v>
+        <v>19.320902085004</v>
       </c>
       <c r="E65">
-        <v>103.021323288569</v>
+        <v>103.342055767483</v>
       </c>
       <c r="F65">
-        <v>9.383533760703759</v>
+        <v>9.412747169617351</v>
       </c>
       <c r="G65">
-        <v>18.8658415609939</v>
+        <v>18.9245758883886</v>
       </c>
       <c r="H65">
-        <v>18.075649244303</v>
+        <v>18.1319234951576</v>
       </c>
       <c r="I65">
-        <v>16.396490571335</v>
+        <v>16.4475371595419</v>
       </c>
       <c r="J65">
-        <v>61.2399045435403</v>
+        <v>61.4305604753974</v>
       </c>
       <c r="K65">
-        <v>62.9190632165084</v>
+        <v>63.1149468110132</v>
       </c>
       <c r="L65">
-        <v>69.1418277104487</v>
+        <v>69.35708440770679</v>
       </c>
       <c r="M65">
-        <v>24.5947358570025</v>
+        <v>24.6713057393128</v>
       </c>
       <c r="N65">
-        <v>19.1621636797529</v>
+        <v>19.2218205358502</v>
       </c>
       <c r="O65">
-        <v>1517.66311824435</v>
+        <v>1522.38800274916</v>
       </c>
       <c r="P65">
-        <v>129.887862056057</v>
+        <v>130.292237137335</v>
       </c>
     </row>
     <row r="66">
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17693.8893458446</v>
       </c>
       <c r="C66">
-        <v>555.693296106967</v>
+        <v>552.583284050664</v>
       </c>
       <c r="D66">
-        <v>243.563363501077</v>
+        <v>242.200228472692</v>
       </c>
       <c r="E66">
-        <v>392.173309414944</v>
+        <v>389.978458894008</v>
       </c>
       <c r="F66">
-        <v>56.403114785791</v>
+        <v>56.0874471896085</v>
       </c>
       <c r="G66">
-        <v>143.214865369139</v>
+        <v>142.413344168397</v>
       </c>
       <c r="H66">
-        <v>211.585249726872</v>
+        <v>210.401084500844</v>
       </c>
       <c r="I66">
-        <v>141.54729501895</v>
+        <v>140.755106599313</v>
       </c>
       <c r="J66">
-        <v>590.614181087388</v>
+        <v>587.308729615013</v>
       </c>
       <c r="K66">
-        <v>333.710254784802</v>
+        <v>331.842600589649</v>
       </c>
       <c r="L66">
-        <v>433.470198675497</v>
+        <v>431.044224575443</v>
       </c>
       <c r="M66">
-        <v>341.851921788664</v>
+        <v>339.938701662236</v>
       </c>
       <c r="N66">
-        <v>191.966775018771</v>
+        <v>190.892407217502</v>
       </c>
       <c r="O66">
-        <v>17250.819087954</v>
+        <v>17154.2725654019</v>
       </c>
       <c r="P66">
-        <v>931.387086767106</v>
+        <v>926.174454026665</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>17396.2934987972</v>
       </c>
       <c r="C67">
-        <v>487.335930240705</v>
+        <v>483.766599395592</v>
       </c>
       <c r="D67">
-        <v>177.081622371974</v>
+        <v>175.784646594869</v>
       </c>
       <c r="E67">
-        <v>561.608239409182</v>
+        <v>557.4949255995419</v>
       </c>
       <c r="F67">
-        <v>152.515841055384</v>
+        <v>151.398789218926</v>
       </c>
       <c r="G67">
-        <v>360.175040260658</v>
+        <v>357.53705729846</v>
       </c>
       <c r="H67">
-        <v>216.919280004861</v>
+        <v>215.330526479878</v>
       </c>
       <c r="I67">
-        <v>131.612662609509</v>
+        <v>130.648709190299</v>
       </c>
       <c r="J67">
-        <v>479.573865143179</v>
+        <v>476.061384976737</v>
       </c>
       <c r="K67">
-        <v>344.080169984907</v>
+        <v>341.56006857701</v>
       </c>
       <c r="L67">
-        <v>516.938315759698</v>
+        <v>513.152172032208</v>
       </c>
       <c r="M67">
-        <v>467.892718158178</v>
+        <v>464.465792689538</v>
       </c>
       <c r="N67">
-        <v>162.775071015751</v>
+        <v>161.582878842469</v>
       </c>
       <c r="O67">
-        <v>22880.4573066716</v>
+        <v>22712.8769643508</v>
       </c>
       <c r="P67">
-        <v>459.862308583467</v>
+        <v>456.49419919387</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3442.94678905504</v>
       </c>
       <c r="C68">
-        <v>115.273782859201</v>
+        <v>113.113884317505</v>
       </c>
       <c r="D68">
-        <v>99.5298597911537</v>
+        <v>97.6649570033215</v>
       </c>
       <c r="E68">
-        <v>60.5094038291084</v>
+        <v>59.3756319527313</v>
       </c>
       <c r="F68">
-        <v>19.3679996916099</v>
+        <v>19.0050991842103</v>
       </c>
       <c r="G68">
-        <v>24.9114096523005</v>
+        <v>24.444641614981</v>
       </c>
       <c r="H68">
-        <v>18.6094488147419</v>
+        <v>18.2607613650916</v>
       </c>
       <c r="I68">
-        <v>30.6983543681961</v>
+        <v>30.1231556613634</v>
       </c>
       <c r="J68">
-        <v>53.6065908496096</v>
+        <v>52.6021577987505</v>
       </c>
       <c r="K68">
-        <v>25.2627384794814</v>
+        <v>24.789387552257</v>
       </c>
       <c r="L68">
-        <v>18.5525574989768</v>
+        <v>18.2049360286576</v>
       </c>
       <c r="M68">
-        <v>19.4977518152847</v>
+        <v>19.1324201269543</v>
       </c>
       <c r="N68">
-        <v>42.0865984538064</v>
+        <v>41.2980168668177</v>
       </c>
       <c r="O68">
-        <v>2660.44552857395</v>
+        <v>2610.59644515794</v>
       </c>
       <c r="P68">
-        <v>669.511975322581</v>
+        <v>656.9672500322411</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>4040.36302229414</v>
       </c>
       <c r="C69">
-        <v>167.987430885376</v>
+        <v>167.164461621265</v>
       </c>
       <c r="D69">
-        <v>167.732606541446</v>
+        <v>166.910885660037</v>
       </c>
       <c r="E69">
-        <v>87.71675930222079</v>
+        <v>87.28703550400169</v>
       </c>
       <c r="F69">
-        <v>20.632745894679</v>
+        <v>20.5316662149909</v>
       </c>
       <c r="G69">
-        <v>49.1399653149506</v>
+        <v>48.8992289641383</v>
       </c>
       <c r="H69">
-        <v>43.0783563148703</v>
+        <v>42.8673157446997</v>
       </c>
       <c r="I69">
-        <v>38.6299659960428</v>
+        <v>38.4407180593321</v>
       </c>
       <c r="J69">
-        <v>106.051069874294</v>
+        <v>105.531526415164</v>
       </c>
       <c r="K69">
-        <v>70.7147586858089</v>
+        <v>70.3683275712267</v>
       </c>
       <c r="L69">
-        <v>177.150071566894</v>
+        <v>176.282214589344</v>
       </c>
       <c r="M69">
-        <v>57.1398445216106</v>
+        <v>56.8599168177967</v>
       </c>
       <c r="N69">
-        <v>48.0554569850786</v>
+        <v>47.8200336330868</v>
       </c>
       <c r="O69">
-        <v>2341.39027973044</v>
+        <v>2329.91982491516</v>
       </c>
       <c r="P69">
-        <v>486.773688386287</v>
+        <v>484.388987447601</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>42355.5119471258</v>
       </c>
       <c r="C70">
-        <v>2830.98547579502</v>
+        <v>2794.35633244568</v>
       </c>
       <c r="D70">
-        <v>2632.45320101865</v>
+        <v>2598.39279820665</v>
       </c>
       <c r="E70">
-        <v>2928.71942798233</v>
+        <v>2890.82573877949</v>
       </c>
       <c r="F70">
-        <v>828.753741897664</v>
+        <v>818.0307834534</v>
       </c>
       <c r="G70">
-        <v>310.046299113468</v>
+        <v>306.034717128235</v>
       </c>
       <c r="H70">
-        <v>967.163114250222</v>
+        <v>954.649324738776</v>
       </c>
       <c r="I70">
-        <v>722.565843036713</v>
+        <v>713.216813142276</v>
       </c>
       <c r="J70">
-        <v>394.123409369503</v>
+        <v>389.023982691919</v>
       </c>
       <c r="K70">
-        <v>117.276889339859</v>
+        <v>115.759484171968</v>
       </c>
       <c r="L70">
-        <v>167.060965161779</v>
+        <v>164.899421030483</v>
       </c>
       <c r="M70">
-        <v>492.517175827139</v>
+        <v>486.144666187076</v>
       </c>
       <c r="N70">
-        <v>598.669055923047</v>
+        <v>590.9230837675181</v>
       </c>
       <c r="O70">
-        <v>32119.2712047787</v>
+        <v>31703.6910475173</v>
       </c>
       <c r="P70">
-        <v>39576.2331965059</v>
+        <v>39064.1699834036</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.7635742</v>
+        <v>288750.302537386</v>
       </c>
       <c r="C71">
-        <v>11308.160563456</v>
+        <v>11327.812957213</v>
       </c>
       <c r="D71">
-        <v>11567.1010566599</v>
+        <v>11587.2034617608</v>
       </c>
       <c r="E71">
-        <v>6739.59451394507</v>
+        <v>6751.30722039344</v>
       </c>
       <c r="F71">
-        <v>2277.52178708919</v>
+        <v>2281.47988042355</v>
       </c>
       <c r="G71">
-        <v>2111.02618343084</v>
+        <v>2114.69492491673</v>
       </c>
       <c r="H71">
-        <v>1021.92104778141</v>
+        <v>1023.69703908494</v>
       </c>
       <c r="I71">
-        <v>4109.23319860348</v>
+        <v>4116.37461372624</v>
       </c>
       <c r="J71">
-        <v>3901.12826092024</v>
+        <v>3907.90801154812</v>
       </c>
       <c r="K71">
-        <v>1406.97139091842</v>
+        <v>1409.4165592218</v>
       </c>
       <c r="L71">
-        <v>1355.9265590605</v>
+        <v>1358.28301681459</v>
       </c>
       <c r="M71">
-        <v>853.094254994981</v>
+        <v>854.576843088504</v>
       </c>
       <c r="N71">
-        <v>4070.07891661626</v>
+        <v>4077.15228571486</v>
       </c>
       <c r="O71">
-        <v>96541.8820358395</v>
+        <v>96709.6616733116</v>
       </c>
       <c r="P71">
-        <v>244962.338379732</v>
+        <v>245388.057160648</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>964.217452351082</v>
       </c>
       <c r="C72">
-        <v>56.3699054952053</v>
+        <v>56.2887716386718</v>
       </c>
       <c r="D72">
-        <v>12.4122036922026</v>
+        <v>12.3943386639614</v>
       </c>
       <c r="E72">
-        <v>35.9102717905694</v>
+        <v>35.8585857213106</v>
       </c>
       <c r="F72">
-        <v>16.8900058546347</v>
+        <v>16.8656958739842</v>
       </c>
       <c r="G72">
-        <v>27.153517471317</v>
+        <v>27.1144350997653</v>
       </c>
       <c r="H72">
-        <v>11.0916944689599</v>
+        <v>11.0757300649068</v>
       </c>
       <c r="I72">
-        <v>12.8815237472624</v>
+        <v>12.8629832212413</v>
       </c>
       <c r="J72">
-        <v>20.3556642514446</v>
+        <v>20.3263661086056</v>
       </c>
       <c r="K72">
-        <v>17.2025719560635</v>
+        <v>17.1778120954104</v>
       </c>
       <c r="L72">
-        <v>71.3628836516705</v>
+        <v>71.26017022837939</v>
       </c>
       <c r="M72">
-        <v>11.164570253907</v>
+        <v>11.1485009588944</v>
       </c>
       <c r="N72">
-        <v>5.27006283210189</v>
+        <v>5.26247756975337</v>
       </c>
       <c r="O72">
-        <v>1185.00884709768</v>
+        <v>1183.30325016707</v>
       </c>
       <c r="P72">
-        <v>122.158277436983</v>
+        <v>121.982453616296</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>23280.575837655</v>
       </c>
       <c r="C73">
-        <v>447.80439562843</v>
+        <v>449.493518176036</v>
       </c>
       <c r="D73">
-        <v>857.158468451098</v>
+        <v>860.3916785536931</v>
       </c>
       <c r="E73">
-        <v>451.326562603004</v>
+        <v>453.028970798788</v>
       </c>
       <c r="F73">
-        <v>65.8449548302236</v>
+        <v>66.0933226420084</v>
       </c>
       <c r="G73">
-        <v>206.731633813169</v>
+        <v>207.5114275521</v>
       </c>
       <c r="H73">
-        <v>214.265157619896</v>
+        <v>215.073367884099</v>
       </c>
       <c r="I73">
-        <v>257.607379001454</v>
+        <v>258.579076547412</v>
       </c>
       <c r="J73">
-        <v>811.761649667705</v>
+        <v>814.823622527108</v>
       </c>
       <c r="K73">
-        <v>577.733221801591</v>
+        <v>579.912437148677</v>
       </c>
       <c r="L73">
-        <v>441.249251536863</v>
+        <v>442.913648017025</v>
       </c>
       <c r="M73">
-        <v>276.00091764645</v>
+        <v>277.041995799563</v>
       </c>
       <c r="N73">
-        <v>318.560435255881</v>
+        <v>319.762048324486</v>
       </c>
       <c r="O73">
-        <v>15311.1588123743</v>
+        <v>15368.9126527395</v>
       </c>
       <c r="P73">
-        <v>1086.1971597699</v>
+        <v>1090.29430604989</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>37169.0103000166</v>
       </c>
       <c r="C74">
-        <v>1519.85270952058</v>
+        <v>1511.35380998898</v>
       </c>
       <c r="D74">
-        <v>886.265740437944</v>
+        <v>881.309810538227</v>
       </c>
       <c r="E74">
-        <v>1400.13088303596</v>
+        <v>1392.30145875592</v>
       </c>
       <c r="F74">
-        <v>96.4596790352027</v>
+        <v>95.9202839241929</v>
       </c>
       <c r="G74">
-        <v>485.762533184813</v>
+        <v>483.046186436282</v>
       </c>
       <c r="H74">
-        <v>727.764140704057</v>
+        <v>723.694539567185</v>
       </c>
       <c r="I74">
-        <v>449.324313142704</v>
+        <v>446.811726119907</v>
       </c>
       <c r="J74">
-        <v>1941.72415702549</v>
+        <v>1930.86618478564</v>
       </c>
       <c r="K74">
-        <v>1207.60040644362</v>
+        <v>1200.84759779026</v>
       </c>
       <c r="L74">
-        <v>1976.15656178083</v>
+        <v>1965.10604618015</v>
       </c>
       <c r="M74">
-        <v>1135.63817350413</v>
+        <v>1129.28777212615</v>
       </c>
       <c r="N74">
-        <v>323.86499000986</v>
+        <v>322.053961878875</v>
       </c>
       <c r="O74">
-        <v>45728.8296986397</v>
+        <v>45473.1175978079</v>
       </c>
       <c r="P74">
-        <v>3731.01965121654</v>
+        <v>3710.15607610332</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>12177.0677841712</v>
       </c>
       <c r="C75">
-        <v>256.824014750304</v>
+        <v>257.495998401</v>
       </c>
       <c r="D75">
-        <v>638.0197025642821</v>
+        <v>639.689090099408</v>
       </c>
       <c r="E75">
-        <v>270.814082906875</v>
+        <v>271.522671767885</v>
       </c>
       <c r="F75">
-        <v>73.7238275834203</v>
+        <v>73.9167270163295</v>
       </c>
       <c r="G75">
-        <v>218.294822021775</v>
+        <v>218.865993497203</v>
       </c>
       <c r="H75">
-        <v>225.470363528309</v>
+        <v>226.060309909121</v>
       </c>
       <c r="I75">
-        <v>145.36498736014</v>
+        <v>145.745336896318</v>
       </c>
       <c r="J75">
-        <v>487.188766997395</v>
+        <v>488.463503265899</v>
       </c>
       <c r="K75">
-        <v>430.229907679492</v>
+        <v>431.355610290605</v>
       </c>
       <c r="L75">
-        <v>821.061170978616</v>
+        <v>823.209489093086</v>
       </c>
       <c r="M75">
-        <v>485.132959494274</v>
+        <v>486.402316713501</v>
       </c>
       <c r="N75">
-        <v>137.527395760803</v>
+        <v>137.887238128207</v>
       </c>
       <c r="O75">
-        <v>12956.1443812233</v>
+        <v>12990.0443154203</v>
       </c>
       <c r="P75">
-        <v>2100.20361715099</v>
+        <v>2105.69882948629</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>883.474576469358</v>
       </c>
       <c r="C76">
-        <v>51.6301969365427</v>
+        <v>50.4364853010695</v>
       </c>
       <c r="D76">
-        <v>68.527352297593</v>
+        <v>66.9429713996014</v>
       </c>
       <c r="E76">
-        <v>39.7396061269147</v>
+        <v>38.820809898399</v>
       </c>
       <c r="F76">
-        <v>7.61415025528808</v>
+        <v>7.43810793328901</v>
       </c>
       <c r="G76">
-        <v>9.17870167760759</v>
+        <v>8.9664862757457</v>
       </c>
       <c r="H76">
-        <v>6.15390226112327</v>
+        <v>6.0116214803295</v>
       </c>
       <c r="I76">
-        <v>8.135667396061271</v>
+        <v>7.94756738077459</v>
       </c>
       <c r="J76">
-        <v>8.5528811086798</v>
+        <v>8.35513493876303</v>
       </c>
       <c r="K76">
-        <v>11.1604668125456</v>
+        <v>10.9024321761908</v>
       </c>
       <c r="L76">
-        <v>14.9153902261123</v>
+        <v>14.5705401980868</v>
       </c>
       <c r="M76">
-        <v>8.135667396061271</v>
+        <v>7.94756738077459</v>
       </c>
       <c r="N76">
-        <v>20.964989059081</v>
+        <v>20.4802697889191</v>
       </c>
       <c r="O76">
-        <v>790.20277169949</v>
+        <v>771.932954830107</v>
       </c>
       <c r="P76">
-        <v>242.0882567469</v>
+        <v>236.491075522793</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>24121.3991382697</v>
       </c>
       <c r="C77">
-        <v>1327.17595220181</v>
+        <v>1313.4412222344</v>
       </c>
       <c r="D77">
-        <v>1313.45462268744</v>
+        <v>1299.86189254708</v>
       </c>
       <c r="E77">
-        <v>448.447956317139</v>
+        <v>443.807040714177</v>
       </c>
       <c r="F77">
-        <v>255.714673812592</v>
+        <v>253.06832387859</v>
       </c>
       <c r="G77">
-        <v>309.294709988004</v>
+        <v>306.093868897579</v>
       </c>
       <c r="H77">
-        <v>350.424697439245</v>
+        <v>346.798208739498</v>
       </c>
       <c r="I77">
-        <v>293.835546889769</v>
+        <v>290.794690185985</v>
       </c>
       <c r="J77">
-        <v>444.47738436791</v>
+        <v>439.877559573932</v>
       </c>
       <c r="K77">
-        <v>311.576561041605</v>
+        <v>308.352105442497</v>
       </c>
       <c r="L77">
-        <v>1133.51230253596</v>
+        <v>1121.78176645728</v>
       </c>
       <c r="M77">
-        <v>896.257447687162</v>
+        <v>886.982223852045</v>
       </c>
       <c r="N77">
-        <v>451.378703304829</v>
+        <v>446.707457873775</v>
       </c>
       <c r="O77">
-        <v>21445.5333430008</v>
+        <v>21223.5969757961</v>
       </c>
       <c r="P77">
-        <v>6516.65747463959</v>
+        <v>6449.21763702368</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4416.40010803511</v>
       </c>
       <c r="C78">
-        <v>152.922101255524</v>
+        <v>154.455218492756</v>
       </c>
       <c r="D78">
-        <v>30.7870543324528</v>
+        <v>31.0957092835237</v>
       </c>
       <c r="E78">
-        <v>146.530504966199</v>
+        <v>147.999543392297</v>
       </c>
       <c r="F78">
-        <v>15.31807830615</v>
+        <v>15.4716493707615</v>
       </c>
       <c r="G78">
-        <v>71.1237786688548</v>
+        <v>71.8368285822358</v>
       </c>
       <c r="H78">
-        <v>36.2909016967235</v>
+        <v>36.6547353511733</v>
       </c>
       <c r="I78">
-        <v>34.1704947719805</v>
+        <v>34.51307033241</v>
       </c>
       <c r="J78">
-        <v>131.003717475682</v>
+        <v>132.31709242773</v>
       </c>
       <c r="K78">
-        <v>94.4805900667757</v>
+        <v>95.4278031904902</v>
       </c>
       <c r="L78">
-        <v>99.67480314813579</v>
+        <v>100.674090743385</v>
       </c>
       <c r="M78">
-        <v>55.9869735979531</v>
+        <v>56.548269797644</v>
       </c>
       <c r="N78">
-        <v>151.700221664418</v>
+        <v>153.221088974088</v>
       </c>
       <c r="O78">
-        <v>6299.90142794903</v>
+        <v>6363.06095422256</v>
       </c>
       <c r="P78">
-        <v>277.33335210012</v>
+        <v>280.113751656974</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>10989.7434206155</v>
       </c>
       <c r="C79">
-        <v>549.236113535461</v>
+        <v>552.456599080908</v>
       </c>
       <c r="D79">
-        <v>486.599180358972</v>
+        <v>489.452389731323</v>
       </c>
       <c r="E79">
-        <v>416.930467119493</v>
+        <v>419.375168969435</v>
       </c>
       <c r="F79">
-        <v>327.789132167116</v>
+        <v>329.711147373479</v>
       </c>
       <c r="G79">
-        <v>128.30294084165</v>
+        <v>129.055254384471</v>
       </c>
       <c r="H79">
-        <v>145.611937919781</v>
+        <v>146.465744014753</v>
       </c>
       <c r="I79">
-        <v>168.005452889614</v>
+        <v>168.990564973932</v>
       </c>
       <c r="J79">
-        <v>369.006181459416</v>
+        <v>371.16987580559</v>
       </c>
       <c r="K79">
-        <v>201.108909801541</v>
+        <v>202.288126391847</v>
       </c>
       <c r="L79">
-        <v>173.41451447653</v>
+        <v>174.431342983395</v>
       </c>
       <c r="M79">
-        <v>180.013569612568</v>
+        <v>181.06909215494</v>
       </c>
       <c r="N79">
-        <v>212.467939134064</v>
+        <v>213.71376021172</v>
       </c>
       <c r="O79">
-        <v>7956.08050696316</v>
+        <v>8002.73155855945</v>
       </c>
       <c r="P79">
-        <v>2939.93315372064</v>
+        <v>2957.17166370352</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>2962.57438438803</v>
       </c>
       <c r="C80">
-        <v>117.449373264911</v>
+        <v>118.685884633686</v>
       </c>
       <c r="D80">
-        <v>332.609554555397</v>
+        <v>336.111280312956</v>
       </c>
       <c r="E80">
-        <v>111.950071506688</v>
+        <v>113.128686022076</v>
       </c>
       <c r="F80">
-        <v>17.7745288971145</v>
+        <v>17.9616597982418</v>
       </c>
       <c r="G80">
-        <v>21.9972070328931</v>
+        <v>22.2287944464429</v>
       </c>
       <c r="H80">
-        <v>24.8450597291158</v>
+        <v>25.1066294417413</v>
       </c>
       <c r="I80">
-        <v>71.7855283082359</v>
+        <v>72.5412890194186</v>
       </c>
       <c r="J80">
-        <v>99.4784407335745</v>
+        <v>100.525753456458</v>
       </c>
       <c r="K80">
-        <v>44.4854231513418</v>
+        <v>44.9537673403511</v>
       </c>
       <c r="L80">
-        <v>58.1354757297889</v>
+        <v>58.7475281798849</v>
       </c>
       <c r="M80">
-        <v>41.3429650037857</v>
+        <v>41.7782252765735</v>
       </c>
       <c r="N80">
-        <v>71.098115588458</v>
+        <v>71.8466391929673</v>
       </c>
       <c r="O80">
-        <v>3014.30477622613</v>
+        <v>3046.03948898913</v>
       </c>
       <c r="P80">
-        <v>642.043480272567</v>
+        <v>648.802937905553</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>5859.92836844275</v>
       </c>
       <c r="C81">
-        <v>228.083741504045</v>
+        <v>223.12231229262</v>
       </c>
       <c r="D81">
-        <v>503.081197942063</v>
+        <v>492.137841196295</v>
       </c>
       <c r="E81">
-        <v>246.423660301127</v>
+        <v>241.063288980743</v>
       </c>
       <c r="F81">
-        <v>197.787411557484</v>
+        <v>193.485008260859</v>
       </c>
       <c r="G81">
-        <v>64.54435510354369</v>
+        <v>63.140343372012</v>
       </c>
       <c r="H81">
-        <v>31.6135616833683</v>
+        <v>30.9258824679243</v>
       </c>
       <c r="I81">
-        <v>91.9022450218432</v>
+        <v>89.90312627694649</v>
       </c>
       <c r="J81">
-        <v>226.057231139727</v>
+        <v>221.139883929292</v>
       </c>
       <c r="K81">
-        <v>252.401865875867</v>
+        <v>246.911452652562</v>
       </c>
       <c r="L81">
-        <v>81.8710187184667</v>
+        <v>80.0901058784705</v>
       </c>
       <c r="M81">
-        <v>125.440991551314</v>
+        <v>122.712315690033</v>
       </c>
       <c r="N81">
-        <v>13.4762939227179</v>
+        <v>13.1831486161344</v>
       </c>
       <c r="O81">
-        <v>3189.72731343729</v>
+        <v>3120.34224387902</v>
       </c>
       <c r="P81">
-        <v>4929.68911224114</v>
+        <v>4822.45523663286</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41503.7813894629</v>
+        <v>70154.66485255001</v>
       </c>
       <c r="C82">
-        <v>3717.33012432699</v>
+        <v>3707.14906562292</v>
       </c>
       <c r="D82">
-        <v>1897.45366367227</v>
+        <v>1892.25689973364</v>
       </c>
       <c r="E82">
-        <v>1772.89940911742</v>
+        <v>1768.04377554253</v>
       </c>
       <c r="F82">
-        <v>1767.39150319855</v>
+        <v>1762.55095472818</v>
       </c>
       <c r="G82">
-        <v>751.884102316473</v>
+        <v>749.8248350659681</v>
       </c>
       <c r="H82">
-        <v>904.404198723056</v>
+        <v>901.927207998139</v>
       </c>
       <c r="I82">
-        <v>700.258691474845</v>
+        <v>698.340816385063</v>
       </c>
       <c r="J82">
-        <v>2423.96013424284</v>
+        <v>2417.32136943108</v>
       </c>
       <c r="K82">
-        <v>992.789317283914</v>
+        <v>990.070256565067</v>
       </c>
       <c r="L82">
-        <v>1934.22386030776</v>
+        <v>1928.92638980877</v>
       </c>
       <c r="M82">
-        <v>1053.33336623445</v>
+        <v>1050.44848690495</v>
       </c>
       <c r="N82">
-        <v>952.002915089335</v>
+        <v>949.395560552393</v>
       </c>
       <c r="O82">
-        <v>65099.6361532718</v>
+        <v>64921.3406575468</v>
       </c>
       <c r="P82">
-        <v>14371.2537297007</v>
+        <v>14331.8936048315</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>42431.361180717</v>
       </c>
       <c r="C83">
-        <v>1772.01664731706</v>
+        <v>1735.22646821877</v>
       </c>
       <c r="D83">
-        <v>1026.22069746826</v>
+        <v>1004.9145526804</v>
       </c>
       <c r="E83">
-        <v>892.396398448271</v>
+        <v>873.8686812424</v>
       </c>
       <c r="F83">
-        <v>1272.49199872201</v>
+        <v>1246.07282901217</v>
       </c>
       <c r="G83">
-        <v>636.3956642481151</v>
+        <v>623.182972087172</v>
       </c>
       <c r="H83">
-        <v>221.067307417081</v>
+        <v>216.477561691516</v>
       </c>
       <c r="I83">
-        <v>739.1694657872851</v>
+        <v>723.823008928948</v>
       </c>
       <c r="J83">
-        <v>1228.56271231492</v>
+        <v>1203.0555917763</v>
       </c>
       <c r="K83">
-        <v>1986.22215759061</v>
+        <v>1944.98469573188</v>
       </c>
       <c r="L83">
-        <v>939.369493455784</v>
+        <v>919.86653226406</v>
       </c>
       <c r="M83">
-        <v>1239.07767008036</v>
+        <v>1213.35224054335</v>
       </c>
       <c r="N83">
-        <v>379.312847655541</v>
+        <v>371.437646471252</v>
       </c>
       <c r="O83">
-        <v>34089.4741760556</v>
+        <v>33381.7167956705</v>
       </c>
       <c r="P83">
-        <v>18304.5665241966</v>
+        <v>17924.5315613415</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1226.31641916103</v>
       </c>
       <c r="C84">
-        <v>60.8048177938025</v>
+        <v>61.5273510941065</v>
       </c>
       <c r="D84">
-        <v>82.1309251398485</v>
+        <v>83.1068729438459</v>
       </c>
       <c r="E84">
-        <v>53.3867392145341</v>
+        <v>54.0211247497059</v>
       </c>
       <c r="F84">
-        <v>18.4355085473267</v>
+        <v>18.6545745575014</v>
       </c>
       <c r="G84">
-        <v>20.4495967899784</v>
+        <v>20.6925958679241</v>
       </c>
       <c r="H84">
-        <v>16.6983698461733</v>
+        <v>16.8967937328391</v>
       </c>
       <c r="I84">
-        <v>27.9272344104292</v>
+        <v>28.2590889834559</v>
       </c>
       <c r="J84">
-        <v>82.6272504830352</v>
+        <v>83.6090960366065</v>
       </c>
       <c r="K84">
-        <v>54.790347285066</v>
+        <v>55.441411656033</v>
       </c>
       <c r="L84">
-        <v>60.6618760949647</v>
+        <v>61.3827108433915</v>
       </c>
       <c r="M84">
-        <v>25.9061976129729</v>
+        <v>26.2140365497346</v>
       </c>
       <c r="N84">
-        <v>22.7604875878556</v>
+        <v>23.0309465878176</v>
       </c>
       <c r="O84">
-        <v>1216.92224124711</v>
+        <v>1231.38272110848</v>
       </c>
       <c r="P84">
-        <v>109.619407946901</v>
+        <v>110.921996713301</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>628.528620660204</v>
       </c>
       <c r="C85">
-        <v>22.6141393870103</v>
+        <v>22.6732552646405</v>
       </c>
       <c r="D85">
-        <v>41.8651145702135</v>
+        <v>41.9745546398775</v>
       </c>
       <c r="E85">
-        <v>29.7501478443474</v>
+        <v>29.8279180424234</v>
       </c>
       <c r="F85">
-        <v>5.99767605640416</v>
+        <v>6.01335464924149</v>
       </c>
       <c r="G85">
-        <v>13.8065167121911</v>
+        <v>13.8426084837367</v>
       </c>
       <c r="H85">
-        <v>12.7917860780845</v>
+        <v>12.8252252307988</v>
       </c>
       <c r="I85">
-        <v>10.5071469686814</v>
+        <v>10.5346138204512</v>
       </c>
       <c r="J85">
-        <v>42.2708074661677</v>
+        <v>42.3813080622211</v>
       </c>
       <c r="K85">
-        <v>24.3625063145378</v>
+        <v>24.4261926179344</v>
       </c>
       <c r="L85">
-        <v>30.2844264493387</v>
+        <v>30.3635933111609</v>
       </c>
       <c r="M85">
-        <v>10.1164058993594</v>
+        <v>10.142851310479</v>
       </c>
       <c r="N85">
-        <v>17.1078800325851</v>
+        <v>17.1526019353385</v>
       </c>
       <c r="O85">
-        <v>485.022304122556</v>
+        <v>486.290206415352</v>
       </c>
       <c r="P85">
-        <v>102.690142098523</v>
+        <v>102.958585560829</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2397.74969831087</v>
       </c>
       <c r="C86">
-        <v>67.5449067642581</v>
+        <v>67.7939896206256</v>
       </c>
       <c r="D86">
-        <v>13.2555661182382</v>
+        <v>13.3044481795167</v>
       </c>
       <c r="E86">
-        <v>133.627802559593</v>
+        <v>134.12057686851</v>
       </c>
       <c r="F86">
-        <v>10.0391419866069</v>
+        <v>10.0761629594869</v>
       </c>
       <c r="G86">
-        <v>41.4236441194945</v>
+        <v>41.5764005609897</v>
       </c>
       <c r="H86">
-        <v>26.4136648385483</v>
+        <v>26.511069534184</v>
       </c>
       <c r="I86">
-        <v>18.8112078001469</v>
+        <v>18.8805771959318</v>
       </c>
       <c r="J86">
-        <v>116.76594271801</v>
+        <v>117.196536169566</v>
       </c>
       <c r="K86">
-        <v>102.340767824633</v>
+        <v>102.718166091857</v>
       </c>
       <c r="L86">
-        <v>107.214137721045</v>
+        <v>107.609507334326</v>
       </c>
       <c r="M86">
-        <v>97.66233272407879</v>
+        <v>98.0224784990863</v>
       </c>
       <c r="N86">
-        <v>54.6792102377327</v>
+        <v>54.8808487405064</v>
       </c>
       <c r="O86">
-        <v>3093.03040585421</v>
+        <v>3104.43645977046</v>
       </c>
       <c r="P86">
-        <v>115.791268738728</v>
+        <v>116.218267921072</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>20237.2445910422</v>
       </c>
       <c r="C87">
-        <v>625.678420962485</v>
+        <v>623.114155226548</v>
       </c>
       <c r="D87">
-        <v>1065.99333176012</v>
+        <v>1061.62448974194</v>
       </c>
       <c r="E87">
-        <v>258.066167042174</v>
+        <v>257.008514728174</v>
       </c>
       <c r="F87">
-        <v>123.06649771553</v>
+        <v>122.562124873571</v>
       </c>
       <c r="G87">
-        <v>134.178191158281</v>
+        <v>133.62827841306</v>
       </c>
       <c r="H87">
-        <v>129.462124013486</v>
+        <v>128.931539487015</v>
       </c>
       <c r="I87">
-        <v>190.216960354453</v>
+        <v>189.437379634567</v>
       </c>
       <c r="J87">
-        <v>430.828724162549</v>
+        <v>429.063025844668</v>
       </c>
       <c r="K87">
-        <v>200.540958344777</v>
+        <v>199.71906599416</v>
       </c>
       <c r="L87">
-        <v>170.629741654223</v>
+        <v>169.930436731125</v>
       </c>
       <c r="M87">
-        <v>180.539338329055</v>
+        <v>179.799420147837</v>
       </c>
       <c r="N87">
-        <v>186.867967114572</v>
+        <v>186.102111829873</v>
       </c>
       <c r="O87">
-        <v>7390.97318583812</v>
+        <v>7360.68219503406</v>
       </c>
       <c r="P87">
-        <v>8126.52826053441</v>
+        <v>8093.22268809905</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1366.8214861856</v>
+        <v>1404.73936384736</v>
       </c>
       <c r="C2">
-        <v>37.8173221517678</v>
+        <v>32.3472516107017</v>
       </c>
       <c r="D2">
-        <v>74.0825840260557</v>
+        <v>62.1583592653147</v>
       </c>
       <c r="E2">
-        <v>60.7737338547253</v>
+        <v>62.2078138731976</v>
       </c>
       <c r="F2">
-        <v>15.0616248050217</v>
+        <v>16.5132862489429</v>
       </c>
       <c r="G2">
-        <v>18.106157139033</v>
+        <v>17.2018389941756</v>
       </c>
       <c r="H2">
-        <v>19.4833287766592</v>
+        <v>26.186256592595</v>
       </c>
       <c r="I2">
-        <v>12.6273566199316</v>
+        <v>9.218303533595901</v>
       </c>
       <c r="J2">
-        <v>64.7089010276714</v>
+        <v>62.1258340500125</v>
       </c>
       <c r="K2">
-        <v>20.4264239915342</v>
+        <v>21.0025505464578</v>
       </c>
       <c r="L2">
-        <v>33.8064521903556</v>
+        <v>33.8512702444224</v>
       </c>
       <c r="M2">
-        <v>41.6621610698011</v>
+        <v>42.7787740731676</v>
       </c>
       <c r="N2">
-        <v>33.0591397252679</v>
+        <v>28.0221120522751</v>
       </c>
       <c r="O2">
-        <v>1318.49034023019</v>
+        <v>1305.02877171745</v>
       </c>
       <c r="P2">
-        <v>36.7835953854626</v>
+        <v>31.0927453801245</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>138.890474777797</v>
+        <v>138.895475126538</v>
       </c>
       <c r="C3">
-        <v>4.10033110051276</v>
+        <v>4.11928439494407</v>
       </c>
       <c r="D3">
-        <v>0.233316516372231</v>
+        <v>0.276661179499235</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>1.25835046707087</v>
       </c>
       <c r="F3">
-        <v>8.704812860610559</v>
+        <v>8.67055774633511</v>
       </c>
       <c r="G3">
-        <v>0.379139339104875</v>
+        <v>0.367003638476922</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.0412263707547474</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.307213032217618</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.506275798331881</v>
       </c>
       <c r="K3">
-        <v>0.145822822732644</v>
+        <v>0.479121973408475</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.408152394305307</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.709965602444089</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>1.11800559787006</v>
       </c>
       <c r="O3">
-        <v>226.33505891858</v>
+        <v>233.852386932153</v>
       </c>
       <c r="P3">
-        <v>9.469260071061029</v>
+        <v>11.8033602596036</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1546.33097990852</v>
+        <v>1525.85981000766</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>8.616650382676941</v>
       </c>
       <c r="D4">
-        <v>4.14340150055778</v>
+        <v>2.84045417999499</v>
       </c>
       <c r="E4">
-        <v>24.9964048584684</v>
+        <v>20.958878246051</v>
       </c>
       <c r="F4">
-        <v>21.9708219174547</v>
+        <v>17.8836939817304</v>
       </c>
       <c r="G4">
-        <v>8.96638381647012</v>
+        <v>6.49441352242104</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>11.1874947565275</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>11.5460251994378</v>
       </c>
       <c r="J4">
-        <v>28.1916466559876</v>
+        <v>23.6129901517881</v>
       </c>
       <c r="K4">
-        <v>10.4340196750847</v>
+        <v>8.321036026588439</v>
       </c>
       <c r="L4">
-        <v>73.9266333354052</v>
+        <v>76.4276654814994</v>
       </c>
       <c r="M4">
-        <v>49.2464405856041</v>
+        <v>41.7413721931226</v>
       </c>
       <c r="N4">
-        <v>27.0555243585567</v>
+        <v>26.1912093061122</v>
       </c>
       <c r="O4">
-        <v>1782.9734279089</v>
+        <v>1829.74175372557</v>
       </c>
       <c r="P4">
-        <v>30.2998928305444</v>
+        <v>31.6154673378137</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>804.308663973047</v>
+        <v>830.092012847463</v>
       </c>
       <c r="C5">
-        <v>59.1544033953496</v>
+        <v>49.3844066985963</v>
       </c>
       <c r="D5">
-        <v>12.7002448701179</v>
+        <v>11.9592553010708</v>
       </c>
       <c r="E5">
-        <v>45.5028557307363</v>
+        <v>33.1779741304872</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>3.11007414287133</v>
       </c>
       <c r="G5">
-        <v>10.1967950012975</v>
+        <v>6.0957666835461</v>
       </c>
       <c r="H5">
-        <v>14.2699323002435</v>
+        <v>12.5091341820638</v>
       </c>
       <c r="I5">
-        <v>6.58656112927581</v>
+        <v>7.21581689058076</v>
       </c>
       <c r="J5">
-        <v>31.8868898918721</v>
+        <v>32.0614008736909</v>
       </c>
       <c r="K5">
-        <v>19.6418759407894</v>
+        <v>20.9495103140009</v>
       </c>
       <c r="L5">
-        <v>21.6555489794862</v>
+        <v>18.4337365734678</v>
       </c>
       <c r="M5">
-        <v>25.6356611299285</v>
+        <v>21.6318857112401</v>
       </c>
       <c r="N5">
-        <v>23.5888052612556</v>
+        <v>21.7191677472385</v>
       </c>
       <c r="O5">
-        <v>770.6650488034441</v>
+        <v>792.228851403714</v>
       </c>
       <c r="P5">
-        <v>56.8531395656276</v>
+        <v>49.0904349649434</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9673.1483620462</v>
+        <v>9543.722598975981</v>
       </c>
       <c r="C6">
-        <v>198.931811838932</v>
+        <v>166.983141382648</v>
       </c>
       <c r="D6">
-        <v>181.52898444426</v>
+        <v>156.85668236738</v>
       </c>
       <c r="E6">
-        <v>187.614551520893</v>
+        <v>131.73028321552</v>
       </c>
       <c r="F6">
-        <v>52.1726558675067</v>
+        <v>40.1953679175778</v>
       </c>
       <c r="G6">
-        <v>95.2792702944254</v>
+        <v>80.4320282464098</v>
       </c>
       <c r="H6">
-        <v>64.6881126919633</v>
+        <v>70.5098498417921</v>
       </c>
       <c r="I6">
-        <v>49.4810654106601</v>
+        <v>44.788300001071</v>
       </c>
       <c r="J6">
-        <v>178.06753358672</v>
+        <v>156.438833273428</v>
       </c>
       <c r="K6">
-        <v>92.2701856501495</v>
+        <v>103.480726942509</v>
       </c>
       <c r="L6">
-        <v>592.099725839426</v>
+        <v>517.931097772836</v>
       </c>
       <c r="M6">
-        <v>251.310810795066</v>
+        <v>230.747734264588</v>
       </c>
       <c r="N6">
-        <v>250.851766653146</v>
+        <v>258.28694412653</v>
       </c>
       <c r="O6">
-        <v>11187.9926244604</v>
+        <v>11550.9363714768</v>
       </c>
       <c r="P6">
-        <v>319.038121854023</v>
+        <v>313.970663872479</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>996.206293450862</v>
+        <v>1018.86851203144</v>
       </c>
       <c r="C7">
-        <v>26.4174708924621</v>
+        <v>32.8226813137548</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>3.39378846520944</v>
       </c>
       <c r="E7">
-        <v>22.8785282709577</v>
+        <v>13.9354821160483</v>
       </c>
       <c r="F7">
-        <v>21.8345105535322</v>
+        <v>16.9764075120037</v>
       </c>
       <c r="G7">
-        <v>9.718053953024031</v>
+        <v>7.36289969325267</v>
       </c>
       <c r="H7">
-        <v>6.36602954603895</v>
+        <v>5.17359830706646</v>
       </c>
       <c r="I7">
-        <v>10.7884483014731</v>
+        <v>8.97580427472669</v>
       </c>
       <c r="J7">
-        <v>20.8271922418839</v>
+        <v>19.4254539628256</v>
       </c>
       <c r="K7">
-        <v>12.9193295818323</v>
+        <v>14.007113477147</v>
       </c>
       <c r="L7">
-        <v>66.605908023174</v>
+        <v>59.8495306345689</v>
       </c>
       <c r="M7">
-        <v>18.10493959514</v>
+        <v>16.6295884927079</v>
       </c>
       <c r="N7">
-        <v>25.1639287899154</v>
+        <v>26.9963415683532</v>
       </c>
       <c r="O7">
-        <v>1745.46922551049</v>
+        <v>1774.20086516527</v>
       </c>
       <c r="P7">
-        <v>55.0960244109823</v>
+        <v>29.9062667385673</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>862.096988698143</v>
+        <v>834.820260355567</v>
       </c>
       <c r="C8">
-        <v>12.0996925108255</v>
+        <v>12.2754994028971</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>8.400672140996679</v>
       </c>
       <c r="E8">
-        <v>23.4756216016025</v>
+        <v>14.8290364786172</v>
       </c>
       <c r="F8">
-        <v>2.26495781627265</v>
+        <v>3.95627520848893</v>
       </c>
       <c r="G8">
-        <v>26.079202885119</v>
+        <v>27.6730144266924</v>
       </c>
       <c r="H8">
-        <v>7.31533164692978</v>
+        <v>6.9320122236795</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>4.62126381799382</v>
       </c>
       <c r="J8">
-        <v>46.7744964918275</v>
+        <v>41.3265808992019</v>
       </c>
       <c r="K8">
-        <v>24.996423365645</v>
+        <v>27.9992873299843</v>
       </c>
       <c r="L8">
-        <v>45.0672444525256</v>
+        <v>36.8574256387415</v>
       </c>
       <c r="M8">
-        <v>55.611612436814</v>
+        <v>48.061065612454</v>
       </c>
       <c r="N8">
-        <v>23.8946011849838</v>
+        <v>29.4967144936187</v>
       </c>
       <c r="O8">
-        <v>1255.06844730558</v>
+        <v>1303.91215919022</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>2.89396906554237</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>206.297593382547</v>
+        <v>203.77167963378</v>
       </c>
       <c r="C9">
-        <v>8.63133261891646</v>
+        <v>6.86704064982767</v>
       </c>
       <c r="D9">
-        <v>2.05211143648243</v>
+        <v>2.24983063410751</v>
       </c>
       <c r="E9">
-        <v>5.59028360008442</v>
+        <v>4.3664572151013</v>
       </c>
       <c r="F9">
-        <v>1.82409905465105</v>
+        <v>2.13422956789512</v>
       </c>
       <c r="G9">
-        <v>17.5551054002913</v>
+        <v>18.2684109602767</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>3.25540217506431</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.818502414788216</v>
       </c>
       <c r="J9">
-        <v>3.47718882292856</v>
+        <v>2.50019883250923</v>
       </c>
       <c r="K9">
-        <v>2.33712691377165</v>
+        <v>3.21890594484803</v>
       </c>
       <c r="L9">
-        <v>2.50450716741505</v>
+        <v>2.6639615870601</v>
       </c>
       <c r="M9">
-        <v>7.0061819481128</v>
+        <v>6.81895791352439</v>
       </c>
       <c r="N9">
-        <v>4.24001834226279</v>
+        <v>4.80253047842324</v>
       </c>
       <c r="O9">
-        <v>286.062651227154</v>
+        <v>287.304366727442</v>
       </c>
       <c r="P9">
-        <v>4.10841996217062</v>
+        <v>4.58952113322996</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5242.9507240046</v>
+        <v>5300.6448471683</v>
       </c>
       <c r="C10">
-        <v>58.5859020930147</v>
+        <v>61.0859252985675</v>
       </c>
       <c r="D10">
-        <v>28.0014513097645</v>
+        <v>32.3881391822611</v>
       </c>
       <c r="E10">
-        <v>78.14990057064991</v>
+        <v>46.4263584456877</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>8.71369724832925</v>
       </c>
       <c r="G10">
-        <v>35.586162287436</v>
+        <v>25.9901120179762</v>
       </c>
       <c r="H10">
-        <v>21.173348171065</v>
+        <v>17.4144755967677</v>
       </c>
       <c r="I10">
-        <v>26.2803281081693</v>
+        <v>35.2741121290244</v>
       </c>
       <c r="J10">
-        <v>48.2221164031779</v>
+        <v>51.0285158044416</v>
       </c>
       <c r="K10">
-        <v>32.1624444246204</v>
+        <v>39.761597559435</v>
       </c>
       <c r="L10">
-        <v>92.8554591828502</v>
+        <v>81.72011330776159</v>
       </c>
       <c r="M10">
-        <v>84.3981777017449</v>
+        <v>78.51738139854091</v>
       </c>
       <c r="N10">
-        <v>82.9395643239782</v>
+        <v>82.43365119426331</v>
       </c>
       <c r="O10">
-        <v>5897.50144722449</v>
+        <v>5887.86612005035</v>
       </c>
       <c r="P10">
-        <v>98.9146212713915</v>
+        <v>83.7923924871933</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2112.92371092748</v>
+        <v>2135.24372671059</v>
       </c>
       <c r="C11">
-        <v>81.047105549595</v>
+        <v>80.6294851825147</v>
       </c>
       <c r="D11">
-        <v>135.465083534216</v>
+        <v>156.115585407441</v>
       </c>
       <c r="E11">
-        <v>96.19467849972099</v>
+        <v>77.78805999951931</v>
       </c>
       <c r="F11">
-        <v>12.2585757868648</v>
+        <v>8.09009619313677</v>
       </c>
       <c r="G11">
-        <v>33.2768290965238</v>
+        <v>29.0607565200759</v>
       </c>
       <c r="H11">
-        <v>30.289966297858</v>
+        <v>22.5513939004195</v>
       </c>
       <c r="I11">
-        <v>18.5805897948114</v>
+        <v>23.925389387881</v>
       </c>
       <c r="J11">
-        <v>50.1200189696204</v>
+        <v>55.6909612676734</v>
       </c>
       <c r="K11">
-        <v>39.4424625237678</v>
+        <v>31.72232299343</v>
       </c>
       <c r="L11">
-        <v>69.7526402117758</v>
+        <v>66.1318884114897</v>
       </c>
       <c r="M11">
-        <v>69.277873945099</v>
+        <v>52.0560145942118</v>
       </c>
       <c r="N11">
-        <v>53.7601607169236</v>
+        <v>43.1674233884836</v>
       </c>
       <c r="O11">
-        <v>2820.61912824538</v>
+        <v>2849.8235663311</v>
       </c>
       <c r="P11">
-        <v>59.7188629954353</v>
+        <v>47.9929332328167</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>342.041125756133</v>
+        <v>335.499680808029</v>
       </c>
       <c r="C12">
-        <v>5.7865555531247</v>
+        <v>7.81550147021532</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>1.97281444738151</v>
       </c>
       <c r="E12">
-        <v>2.92341890635848</v>
+        <v>0.451830693014869</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.618775334300313</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.0864011358577849</v>
       </c>
       <c r="H12">
-        <v>0.13523240497938</v>
+        <v>0.0868626179670795</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>0.636910152732678</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>2.33734509593339</v>
       </c>
       <c r="K12">
-        <v>0.414927899941385</v>
+        <v>0.652180491685643</v>
       </c>
       <c r="L12">
-        <v>0.482710581004196</v>
+        <v>0.0675775332217583</v>
       </c>
       <c r="M12">
-        <v>3.92798411944512</v>
+        <v>3.43837268486795</v>
       </c>
       <c r="N12">
-        <v>2.46362326716481</v>
+        <v>2.66316485576102</v>
       </c>
       <c r="O12">
-        <v>463.283764250063</v>
+        <v>470.27674361018</v>
       </c>
       <c r="P12">
-        <v>15.7140748393094</v>
+        <v>13.0276538381218</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>335.880906218694</v>
+        <v>325.337411838419</v>
       </c>
       <c r="C13">
-        <v>20.1243464675109</v>
+        <v>17.0910958676306</v>
       </c>
       <c r="D13">
-        <v>1.21967752553177</v>
+        <v>0.757349113105586</v>
       </c>
       <c r="E13">
-        <v>17.7131362241184</v>
+        <v>13.6110145435797</v>
       </c>
       <c r="F13">
-        <v>2.7108055504409</v>
+        <v>4.10156274989363</v>
       </c>
       <c r="G13">
-        <v>5.22958297721616</v>
+        <v>5.85647559870536</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>1.06408740121569</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>1.2431966439872</v>
       </c>
       <c r="J13">
-        <v>5.23750606816232</v>
+        <v>5.20410472692325</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>3.56011215244713</v>
       </c>
       <c r="L13">
-        <v>20.9491055112564</v>
+        <v>22.1910961217884</v>
       </c>
       <c r="M13">
-        <v>3.12010529787197</v>
+        <v>1.42711412933031</v>
       </c>
       <c r="N13">
-        <v>6.55057147527356</v>
+        <v>6.47553896081183</v>
       </c>
       <c r="O13">
-        <v>417.323030876908</v>
+        <v>435.661586175244</v>
       </c>
       <c r="P13">
-        <v>43.1431917449069</v>
+        <v>46.1771170887305</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3312.92742251486</v>
+        <v>3320.40476379927</v>
       </c>
       <c r="C14">
-        <v>109.457067492039</v>
+        <v>112.639949925851</v>
       </c>
       <c r="D14">
-        <v>18.222375276958</v>
+        <v>12.8386095801154</v>
       </c>
       <c r="E14">
-        <v>131.032868172294</v>
+        <v>80.95658928444151</v>
       </c>
       <c r="F14">
-        <v>31.0554073608354</v>
+        <v>23.8460215908983</v>
       </c>
       <c r="G14">
-        <v>76.71327177040421</v>
+        <v>88.7213144404739</v>
       </c>
       <c r="H14">
-        <v>68.2807911322485</v>
+        <v>54.4301966505558</v>
       </c>
       <c r="I14">
-        <v>22.8042495691536</v>
+        <v>25.8018411625429</v>
       </c>
       <c r="J14">
-        <v>187.808540246829</v>
+        <v>156.364975964348</v>
       </c>
       <c r="K14">
-        <v>144.372628870921</v>
+        <v>154.729189230165</v>
       </c>
       <c r="L14">
-        <v>139.212999178261</v>
+        <v>138.981701738395</v>
       </c>
       <c r="M14">
-        <v>92.06512911297</v>
+        <v>87.49548883724459</v>
       </c>
       <c r="N14">
-        <v>78.9870219041259</v>
+        <v>87.1972265629563</v>
       </c>
       <c r="O14">
-        <v>4181.91742400374</v>
+        <v>4263.94782078447</v>
       </c>
       <c r="P14">
-        <v>82.6271043467188</v>
+        <v>75.98084878490261</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1536.69231169577</v>
+        <v>1559.70433904872</v>
       </c>
       <c r="C15">
-        <v>40.5115472926473</v>
+        <v>32.2163144930229</v>
       </c>
       <c r="D15">
-        <v>11.5672185157394</v>
+        <v>11.4148818449217</v>
       </c>
       <c r="E15">
-        <v>69.9261503583883</v>
+        <v>63.8637205692036</v>
       </c>
       <c r="F15">
-        <v>13.3921831953575</v>
+        <v>15.8084880869258</v>
       </c>
       <c r="G15">
-        <v>41.336473528101</v>
+        <v>30.5405657549183</v>
       </c>
       <c r="H15">
-        <v>52.409325260291</v>
+        <v>58.2588876064191</v>
       </c>
       <c r="I15">
-        <v>22.1020862963539</v>
+        <v>21.8299937349864</v>
       </c>
       <c r="J15">
-        <v>153.459802678492</v>
+        <v>143.287671870542</v>
       </c>
       <c r="K15">
-        <v>56.0463563109317</v>
+        <v>69.77835454245729</v>
       </c>
       <c r="L15">
-        <v>63.8960409430812</v>
+        <v>44.5892315230372</v>
       </c>
       <c r="M15">
-        <v>204.870339322774</v>
+        <v>172.137094569902</v>
       </c>
       <c r="N15">
-        <v>77.5192826903078</v>
+        <v>89.185572243604</v>
       </c>
       <c r="O15">
-        <v>1886.29908558161</v>
+        <v>1918.96011534864</v>
       </c>
       <c r="P15">
-        <v>42.0848196394437</v>
+        <v>42.8592027067814</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>698.651742865773</v>
+        <v>684.691551532249</v>
       </c>
       <c r="C16">
-        <v>60.2674295743858</v>
+        <v>57.276973713185</v>
       </c>
       <c r="D16">
-        <v>6.9413808992864</v>
+        <v>6.69244399817056</v>
       </c>
       <c r="E16">
-        <v>25.1111214042263</v>
+        <v>20.8640680288227</v>
       </c>
       <c r="F16">
-        <v>3.37219540502357</v>
+        <v>3.63128633409619</v>
       </c>
       <c r="G16">
-        <v>10.8637219603187</v>
+        <v>12.5119981710739</v>
       </c>
       <c r="H16">
-        <v>17.883692025002</v>
+        <v>15.2432558028976</v>
       </c>
       <c r="I16">
-        <v>9.84017675564257</v>
+        <v>9.606934944964181</v>
       </c>
       <c r="J16">
-        <v>46.257318236568</v>
+        <v>42.3140115164668</v>
       </c>
       <c r="K16">
-        <v>46.2900511316429</v>
+        <v>57.7270298852224</v>
       </c>
       <c r="L16">
-        <v>36.4655770984665</v>
+        <v>29.6843535442432</v>
       </c>
       <c r="M16">
-        <v>27.9248188129547</v>
+        <v>26.1889681376385</v>
       </c>
       <c r="N16">
-        <v>17.9276719319051</v>
+        <v>19.1740864041128</v>
       </c>
       <c r="O16">
-        <v>974.458316398989</v>
+        <v>992.359796539634</v>
       </c>
       <c r="P16">
-        <v>75.3881251840746</v>
+        <v>77.6429099089288</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>649.92689603943</v>
+        <v>640.886235008581</v>
       </c>
       <c r="C17">
-        <v>31.3619307110583</v>
+        <v>25.2023887180935</v>
       </c>
       <c r="D17">
-        <v>4.40078566430918</v>
+        <v>3.51335142857915</v>
       </c>
       <c r="E17">
-        <v>24.0042854416864</v>
+        <v>16.9840724379353</v>
       </c>
       <c r="F17">
-        <v>16.3169579604479</v>
+        <v>12.2702413681568</v>
       </c>
       <c r="G17">
-        <v>9.001607040632401</v>
+        <v>6.50955995581545</v>
       </c>
       <c r="H17">
-        <v>13.8056303779406</v>
+        <v>7.53625537450061</v>
       </c>
       <c r="I17">
-        <v>7.91285979331343</v>
+        <v>6.0538570195591</v>
       </c>
       <c r="J17">
-        <v>18.8881880073845</v>
+        <v>15.4115518122753</v>
       </c>
       <c r="K17">
-        <v>19.9785196078377</v>
+        <v>16.5390859760132</v>
       </c>
       <c r="L17">
-        <v>10.5384120209511</v>
+        <v>7.79407373729682</v>
       </c>
       <c r="M17">
-        <v>67.15691474031691</v>
+        <v>65.5034134424434</v>
       </c>
       <c r="N17">
-        <v>14.2606710030644</v>
+        <v>9.7267061668931</v>
       </c>
       <c r="O17">
-        <v>903.509514090361</v>
+        <v>969.326000336136</v>
       </c>
       <c r="P17">
-        <v>65.6325950121519</v>
+        <v>51.6964103632486</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1228.46461321132</v>
+        <v>1210.84433524052</v>
       </c>
       <c r="C18">
-        <v>34.3645022298582</v>
+        <v>31.2285830684856</v>
       </c>
       <c r="D18">
-        <v>21.1989286191658</v>
+        <v>12.8228750359404</v>
       </c>
       <c r="E18">
-        <v>48.8912875980034</v>
+        <v>38.7970872077952</v>
       </c>
       <c r="F18">
-        <v>28.2505381374396</v>
+        <v>28.7482783564105</v>
       </c>
       <c r="G18">
-        <v>18.8143405867461</v>
+        <v>24.4415558386362</v>
       </c>
       <c r="H18">
-        <v>20.9385332041498</v>
+        <v>17.2495652560492</v>
       </c>
       <c r="I18">
-        <v>10.5796809146111</v>
+        <v>5.82549878563912</v>
       </c>
       <c r="J18">
-        <v>51.2634334797538</v>
+        <v>44.5096364463654</v>
       </c>
       <c r="K18">
-        <v>31.901498910547</v>
+        <v>30.5109749264606</v>
       </c>
       <c r="L18">
-        <v>29.6640372748985</v>
+        <v>25.906693477627</v>
       </c>
       <c r="M18">
-        <v>70.1939376337554</v>
+        <v>64.1011234297886</v>
       </c>
       <c r="N18">
-        <v>22.7219509179533</v>
+        <v>24.5244237741547</v>
       </c>
       <c r="O18">
-        <v>1222.71175192043</v>
+        <v>1268.57551063678</v>
       </c>
       <c r="P18">
-        <v>39.6641975400004</v>
+        <v>49.5781226678248</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1347.78028366243</v>
+        <v>1372.75521396155</v>
       </c>
       <c r="C19">
-        <v>23.7485412589337</v>
+        <v>20.7365511852404</v>
       </c>
       <c r="D19">
-        <v>9.822512186369529</v>
+        <v>16.8814189284971</v>
       </c>
       <c r="E19">
-        <v>37.3132461564768</v>
+        <v>31.6172553229549</v>
       </c>
       <c r="F19">
-        <v>78.87684170701949</v>
+        <v>86.39324037531939</v>
       </c>
       <c r="G19">
-        <v>41.7859311527532</v>
+        <v>36.3331875609582</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>6.31972167686823</v>
       </c>
       <c r="I19">
-        <v>7.14466385587859</v>
+        <v>0.839179133098427</v>
       </c>
       <c r="J19">
-        <v>23.6301578883518</v>
+        <v>17.1709996334976</v>
       </c>
       <c r="K19">
-        <v>12.0957221495007</v>
+        <v>14.5934001499072</v>
       </c>
       <c r="L19">
-        <v>7.40898062057586</v>
+        <v>5.70864495309881</v>
       </c>
       <c r="M19">
-        <v>29.5329306179854</v>
+        <v>26.0595100255992</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>12.9323334992081</v>
       </c>
       <c r="O19">
-        <v>1404.13410393788</v>
+        <v>1388.99126803652</v>
       </c>
       <c r="P19">
-        <v>35.0706790795116</v>
+        <v>34.8888991685093</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>345.642305369816</v>
+        <v>343.271525467033</v>
       </c>
       <c r="C20">
-        <v>8.64942817089511</v>
+        <v>5.8174135795335</v>
       </c>
       <c r="D20">
-        <v>14.569208967684</v>
+        <v>11.861093041453</v>
       </c>
       <c r="E20">
-        <v>36.5415277440123</v>
+        <v>33.178820042365</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.268604004404966</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>1.3679947884709</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>1.75121641938777</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>1.59408115003496</v>
       </c>
       <c r="J20">
-        <v>6.53660900841074</v>
+        <v>4.08430035234594</v>
       </c>
       <c r="K20">
-        <v>3.81938471295916</v>
+        <v>4.63975859989739</v>
       </c>
       <c r="L20">
-        <v>8.43710195589437</v>
+        <v>9.20594098597129</v>
       </c>
       <c r="M20">
-        <v>15.5737135765998</v>
+        <v>14.7680953055847</v>
       </c>
       <c r="N20">
-        <v>6.82307394503431</v>
+        <v>4.29286602589344</v>
       </c>
       <c r="O20">
-        <v>452.07708047775</v>
+        <v>469.405476881837</v>
       </c>
       <c r="P20">
-        <v>23.6300370573758</v>
+        <v>23.7558228906094</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1326.00962069207</v>
+        <v>1375.7892973502</v>
       </c>
       <c r="C21">
-        <v>25.5066307126345</v>
+        <v>22.9832046149218</v>
       </c>
       <c r="D21">
-        <v>11.7145837888345</v>
+        <v>9.922252827489899</v>
       </c>
       <c r="E21">
-        <v>42.2920226564345</v>
+        <v>27.9204840851482</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>5.43222679016658</v>
       </c>
       <c r="G21">
-        <v>20.8103735517648</v>
+        <v>21.7466961196402</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>5.34496233739235</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>4.61246502501982</v>
       </c>
       <c r="J21">
-        <v>27.0935817185112</v>
+        <v>29.2987191127231</v>
       </c>
       <c r="K21">
-        <v>11.5414618609207</v>
+        <v>6.91903558875792</v>
       </c>
       <c r="L21">
-        <v>39.904604384133</v>
+        <v>20.4472324470881</v>
       </c>
       <c r="M21">
-        <v>28.5648856828766</v>
+        <v>34.3865151383631</v>
       </c>
       <c r="N21">
-        <v>20.197558256611</v>
+        <v>31.0264820609223</v>
       </c>
       <c r="O21">
-        <v>2130.25604237455</v>
+        <v>2112.79770715457</v>
       </c>
       <c r="P21">
-        <v>18.4790883441371</v>
+        <v>17.8354129757424</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1615.16756823597</v>
+        <v>1651.73577072879</v>
       </c>
       <c r="C22">
-        <v>26.0971286748771</v>
+        <v>13.2590478744805</v>
       </c>
       <c r="D22">
-        <v>28.2216118301619</v>
+        <v>23.9292546532648</v>
       </c>
       <c r="E22">
-        <v>55.2647788838338</v>
+        <v>39.1370344686211</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>1.91483866810676</v>
       </c>
       <c r="G22">
-        <v>27.0845138182507</v>
+        <v>28.4583249960536</v>
       </c>
       <c r="H22">
-        <v>20.9277928430305</v>
+        <v>23.1975416465028</v>
       </c>
       <c r="I22">
-        <v>9.94336630520259</v>
+        <v>9.986563981015101</v>
       </c>
       <c r="J22">
-        <v>53.2686870059877</v>
+        <v>48.7647980779675</v>
       </c>
       <c r="K22">
-        <v>28.3738698544022</v>
+        <v>28.7956336311808</v>
       </c>
       <c r="L22">
-        <v>133.220263646409</v>
+        <v>109.500282307146</v>
       </c>
       <c r="M22">
-        <v>18.5876974987107</v>
+        <v>16.0085392758416</v>
       </c>
       <c r="N22">
-        <v>53.2712340651522</v>
+        <v>65.0163891143646</v>
       </c>
       <c r="O22">
-        <v>2416.07462413694</v>
+        <v>2428.16142351583</v>
       </c>
       <c r="P22">
-        <v>13.9411282511595</v>
+        <v>15.6081063961755</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2708.88305488</v>
+        <v>2705.91275703989</v>
       </c>
       <c r="C23">
-        <v>48.0983544337219</v>
+        <v>39.8807583614129</v>
       </c>
       <c r="D23">
-        <v>12.1353620520451</v>
+        <v>12.3894429634084</v>
       </c>
       <c r="E23">
-        <v>75.0240813152121</v>
+        <v>48.9887064164791</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>6.33491450606079</v>
       </c>
       <c r="G23">
-        <v>50.8267655209568</v>
+        <v>49.6248199779977</v>
       </c>
       <c r="H23">
-        <v>67.72820612163061</v>
+        <v>67.71066230714921</v>
       </c>
       <c r="I23">
-        <v>18.1601450540484</v>
+        <v>13.6279370593114</v>
       </c>
       <c r="J23">
-        <v>157.044557528258</v>
+        <v>133.48700525643</v>
       </c>
       <c r="K23">
-        <v>104.599265482609</v>
+        <v>111.365095355335</v>
       </c>
       <c r="L23">
-        <v>45.9630975623203</v>
+        <v>46.2701731854093</v>
       </c>
       <c r="M23">
-        <v>505.03945883401</v>
+        <v>485.516164819075</v>
       </c>
       <c r="N23">
-        <v>73.8485797449747</v>
+        <v>79.5424112169743</v>
       </c>
       <c r="O23">
-        <v>3045.70028881395</v>
+        <v>3132.61131188728</v>
       </c>
       <c r="P23">
-        <v>62.1294031088602</v>
+        <v>55.5682140542323</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1079.57931229887</v>
+        <v>1084.50344638907</v>
       </c>
       <c r="C24">
-        <v>69.1539759696434</v>
+        <v>61.8426306007156</v>
       </c>
       <c r="D24">
-        <v>6.67900012910135</v>
+        <v>7.7310603813825</v>
       </c>
       <c r="E24">
-        <v>76.383834924215</v>
+        <v>56.197591781156</v>
       </c>
       <c r="F24">
-        <v>13.5216366958922</v>
+        <v>11.8688643912274</v>
       </c>
       <c r="G24">
-        <v>14.5784379607014</v>
+        <v>28.1371052828203</v>
       </c>
       <c r="H24">
-        <v>20.6650463540425</v>
+        <v>14.6037027202563</v>
       </c>
       <c r="I24">
-        <v>15.7707265671528</v>
+        <v>15.3606588660939</v>
       </c>
       <c r="J24">
-        <v>62.8515160819433</v>
+        <v>43.9446467159602</v>
       </c>
       <c r="K24">
-        <v>49.8585661165283</v>
+        <v>62.3172432953769</v>
       </c>
       <c r="L24">
-        <v>75.5015958903448</v>
+        <v>59.8539728779764</v>
       </c>
       <c r="M24">
-        <v>32.3154347301313</v>
+        <v>30.9680054905723</v>
       </c>
       <c r="N24">
-        <v>52.3893682737005</v>
+        <v>60.5625111246842</v>
       </c>
       <c r="O24">
-        <v>1780.91848100679</v>
+        <v>1816.44469342866</v>
       </c>
       <c r="P24">
-        <v>113.469189730692</v>
+        <v>108.151723627483</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>856.847556631877</v>
+        <v>858.412073610707</v>
       </c>
       <c r="C25">
-        <v>29.8348407210425</v>
+        <v>35.4533087958428</v>
       </c>
       <c r="D25">
-        <v>21.3090875555565</v>
+        <v>17.5334769102633</v>
       </c>
       <c r="E25">
-        <v>35.5097250089592</v>
+        <v>36.7565147970684</v>
       </c>
       <c r="F25">
-        <v>10.7168914577046</v>
+        <v>14.5115383451892</v>
       </c>
       <c r="G25">
-        <v>9.86024289842852</v>
+        <v>4.41755974469636</v>
       </c>
       <c r="H25">
-        <v>13.1269401736562</v>
+        <v>18.8250444945997</v>
       </c>
       <c r="I25">
-        <v>5.69451646419467</v>
+        <v>6.64949648823967</v>
       </c>
       <c r="J25">
-        <v>18.7429637815532</v>
+        <v>16.9147220028377</v>
       </c>
       <c r="K25">
-        <v>16.2636070627112</v>
+        <v>15.7707195381912</v>
       </c>
       <c r="L25">
-        <v>24.6670845131026</v>
+        <v>21.4669406496557</v>
       </c>
       <c r="M25">
-        <v>26.7835289980724</v>
+        <v>28.1891590463916</v>
       </c>
       <c r="N25">
-        <v>52.8403207317869</v>
+        <v>49.3006798736104</v>
       </c>
       <c r="O25">
-        <v>784.027030136614</v>
+        <v>777.55142962405</v>
       </c>
       <c r="P25">
-        <v>36.3125922756369</v>
+        <v>37.8404429893566</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1493.35488636065</v>
+        <v>1422.77357549311</v>
       </c>
       <c r="C26">
-        <v>63.0206423822812</v>
+        <v>58.3938913849882</v>
       </c>
       <c r="D26">
-        <v>23.4334310182687</v>
+        <v>21.3788805470658</v>
       </c>
       <c r="E26">
-        <v>61.2470089427995</v>
+        <v>38.0619179067914</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>11.3217224008578</v>
       </c>
       <c r="G26">
-        <v>26.9748896036454</v>
+        <v>27.5215006752962</v>
       </c>
       <c r="H26">
-        <v>21.2400072475378</v>
+        <v>21.8110588101314</v>
       </c>
       <c r="I26">
-        <v>15.2332526870355</v>
+        <v>14.2844769699117</v>
       </c>
       <c r="J26">
-        <v>65.3934838357943</v>
+        <v>65.83878862179761</v>
       </c>
       <c r="K26">
-        <v>38.4372715171526</v>
+        <v>43.9553918209417</v>
       </c>
       <c r="L26">
-        <v>44.5015719884644</v>
+        <v>39.3916041832881</v>
       </c>
       <c r="M26">
-        <v>78.5595966900384</v>
+        <v>76.0223474799465</v>
       </c>
       <c r="N26">
-        <v>43.0758257453106</v>
+        <v>39.0268883093334</v>
       </c>
       <c r="O26">
-        <v>1884.91014077226</v>
+        <v>1993.81987759405</v>
       </c>
       <c r="P26">
-        <v>76.73182816946139</v>
+        <v>73.57874493386851</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>245.465692274845</v>
+        <v>245.306007807917</v>
       </c>
       <c r="C27">
-        <v>2.8361775778519</v>
+        <v>2.94024008893652</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>1.12058065120287</v>
       </c>
       <c r="E27">
-        <v>9.48969828978113</v>
+        <v>9.07821745626412</v>
       </c>
       <c r="F27">
-        <v>6.94780669572573</v>
+        <v>6.0274206220384</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.895001297049519</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.216206645367287</v>
       </c>
       <c r="I27">
-        <v>1.28463765153383</v>
+        <v>2.59257224979322</v>
       </c>
       <c r="J27">
-        <v>3.52790590627928</v>
+        <v>2.66701559441144</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>1.84866202599389</v>
       </c>
       <c r="L27">
-        <v>1.60290694418891</v>
+        <v>0.8114856025912121</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.728355110553489</v>
       </c>
       <c r="N27">
-        <v>4.0029347350623</v>
+        <v>3.83706923795577</v>
       </c>
       <c r="O27">
-        <v>318.296590988816</v>
+        <v>324.846617432431</v>
       </c>
       <c r="P27">
-        <v>41.5730339886443</v>
+        <v>40.6907167448768</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>384.490511430577</v>
+        <v>377.129364409416</v>
       </c>
       <c r="C28">
-        <v>35.3792548748652</v>
+        <v>30.4312735908584</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>3.24924275904913</v>
       </c>
       <c r="E28">
-        <v>9.229968659642919</v>
+        <v>7.16174278969113</v>
       </c>
       <c r="F28">
-        <v>1.98081337823618</v>
+        <v>1.91098707085218</v>
       </c>
       <c r="G28">
-        <v>4.5310755238247</v>
+        <v>3.2670980183223</v>
       </c>
       <c r="H28">
-        <v>6.60082607174464</v>
+        <v>7.38190286751183</v>
       </c>
       <c r="I28">
-        <v>4.07525161820574</v>
+        <v>2.39490764813909</v>
       </c>
       <c r="J28">
-        <v>13.8675129893797</v>
+        <v>14.9258856563735</v>
       </c>
       <c r="K28">
-        <v>16.3336127942709</v>
+        <v>15.5992650389628</v>
       </c>
       <c r="L28">
-        <v>13.5069688920746</v>
+        <v>15.4406497867632</v>
       </c>
       <c r="M28">
-        <v>9.70545189362455</v>
+        <v>6.87150223071438</v>
       </c>
       <c r="N28">
-        <v>10.720758604247</v>
+        <v>9.95481234980757</v>
       </c>
       <c r="O28">
-        <v>600.890109876403</v>
+        <v>608.959592468395</v>
       </c>
       <c r="P28">
-        <v>84.99977419571989</v>
+        <v>88.0675878097573</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>553.517518008405</v>
+        <v>544.971737283219</v>
       </c>
       <c r="C29">
-        <v>5.11782323214008</v>
+        <v>1.73522638163568</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>2.44208215445722</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>3.01730654291928</v>
       </c>
       <c r="F29">
-        <v>16.9620880047978</v>
+        <v>19.3985267046332</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>2.60405848830557</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>2.41266902047565</v>
       </c>
       <c r="I29">
-        <v>2.86120730156892</v>
+        <v>2.64955230975788</v>
       </c>
       <c r="J29">
-        <v>6.91261319409829</v>
+        <v>7.0665736576735</v>
       </c>
       <c r="K29">
-        <v>2.66228720948234</v>
+        <v>3.42872977271662</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>3.63781084979723</v>
       </c>
       <c r="M29">
-        <v>3.50989274584061</v>
+        <v>2.23592885441136</v>
       </c>
       <c r="N29">
-        <v>9.369710703721021</v>
+        <v>8.83703016151196</v>
       </c>
       <c r="O29">
-        <v>812.160134967872</v>
+        <v>827.832272262726</v>
       </c>
       <c r="P29">
-        <v>6.4561885240446</v>
+        <v>5.71754900532704</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>273.792276298566</v>
+        <v>268.894621580904</v>
       </c>
       <c r="C30">
-        <v>3.7151910518131</v>
+        <v>3.12502466242711</v>
       </c>
       <c r="D30">
-        <v>5.99369707212142</v>
+        <v>6.61374803967858</v>
       </c>
       <c r="E30">
-        <v>16.8137096174795</v>
+        <v>12.7020647572017</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>1.17862225534486</v>
       </c>
       <c r="G30">
-        <v>3.97682422447599</v>
+        <v>3.44437874962095</v>
       </c>
       <c r="H30">
-        <v>5.28499008779046</v>
+        <v>5.21392059877117</v>
       </c>
       <c r="I30">
-        <v>2.74130952183063</v>
+        <v>2.4460745211988</v>
       </c>
       <c r="J30">
-        <v>20.7047560560223</v>
+        <v>18.2392084737037</v>
       </c>
       <c r="K30">
-        <v>9.193821721904129</v>
+        <v>11.6943560906575</v>
       </c>
       <c r="L30">
-        <v>35.053562914708</v>
+        <v>32.2921488534683</v>
       </c>
       <c r="M30">
-        <v>8.54919507890811</v>
+        <v>9.11136166471025</v>
       </c>
       <c r="N30">
-        <v>13.8313242991073</v>
+        <v>12.6911657423411</v>
       </c>
       <c r="O30">
-        <v>470.679746604554</v>
+        <v>480.826733284392</v>
       </c>
       <c r="P30">
-        <v>6.77392805603939</v>
+        <v>7.0106300359707</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2363.1433879568</v>
+        <v>2348.0852028016</v>
       </c>
       <c r="C31">
-        <v>43.5900002815471</v>
+        <v>44.929666479564</v>
       </c>
       <c r="D31">
-        <v>37.7503653810493</v>
+        <v>48.3966642432145</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>46.4423101283706</v>
       </c>
       <c r="F31">
-        <v>9.59071043699279</v>
+        <v>11.0260975925875</v>
       </c>
       <c r="G31">
-        <v>130.017954694743</v>
+        <v>115.216866823735</v>
       </c>
       <c r="H31">
-        <v>25.1179376553837</v>
+        <v>18.9088847353937</v>
       </c>
       <c r="I31">
-        <v>18.9205511314935</v>
+        <v>20.0077817462773</v>
       </c>
       <c r="J31">
-        <v>47.1180744792311</v>
+        <v>35.7855182293513</v>
       </c>
       <c r="K31">
-        <v>26.7514044461638</v>
+        <v>25.5685095744146</v>
       </c>
       <c r="L31">
-        <v>80.26171757160461</v>
+        <v>69.3413465050766</v>
       </c>
       <c r="M31">
-        <v>24.3414615718292</v>
+        <v>21.0172441627288</v>
       </c>
       <c r="N31">
-        <v>51.1865239285194</v>
+        <v>50.5968593037306</v>
       </c>
       <c r="O31">
-        <v>3056.76453200859</v>
+        <v>3126.27838790866</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>5.11581613683216</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>547.26893570775</v>
+        <v>538.483797432023</v>
       </c>
       <c r="C32">
-        <v>6.26063806335929</v>
+        <v>5.79455045361254</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>1.03067343371502</v>
       </c>
       <c r="E32">
-        <v>5.66023177014404</v>
+        <v>5.14919438492509</v>
       </c>
       <c r="F32">
-        <v>20.4531274666594</v>
+        <v>19.287358545149</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>1.69016291995807</v>
       </c>
       <c r="H32">
-        <v>0.551250825534191</v>
+        <v>2.41047662428701</v>
       </c>
       <c r="I32">
-        <v>3.40185646791486</v>
+        <v>4.03488422707781</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>4.89000794551787</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>1.81104087057589</v>
       </c>
       <c r="L32">
-        <v>14.2489714616453</v>
+        <v>13.7807486177247</v>
       </c>
       <c r="M32">
-        <v>5.02905627751131</v>
+        <v>2.21430331200828</v>
       </c>
       <c r="N32">
-        <v>8.361924599679719</v>
+        <v>6.05992573378344</v>
       </c>
       <c r="O32">
-        <v>614.0949082816049</v>
+        <v>627.51075574075</v>
       </c>
       <c r="P32">
-        <v>22.8157811727977</v>
+        <v>20.9312215528391</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5654.19561448873</v>
+        <v>5697.29909485203</v>
       </c>
       <c r="C33">
-        <v>87.9175315035997</v>
+        <v>79.2847757885919</v>
       </c>
       <c r="D33">
-        <v>101.126283266541</v>
+        <v>82.6514571431067</v>
       </c>
       <c r="E33">
-        <v>120.421426439711</v>
+        <v>71.2913422038766</v>
       </c>
       <c r="F33">
-        <v>9.37024158414847</v>
+        <v>8.814144872386651</v>
       </c>
       <c r="G33">
-        <v>79.9402766984788</v>
+        <v>70.0653359372004</v>
       </c>
       <c r="H33">
-        <v>34.8681067807</v>
+        <v>30.5404292949801</v>
       </c>
       <c r="I33">
-        <v>33.4810952946312</v>
+        <v>36.5785885552674</v>
       </c>
       <c r="J33">
-        <v>108.456180690893</v>
+        <v>96.2619658743848</v>
       </c>
       <c r="K33">
-        <v>118.384850946182</v>
+        <v>105.80132979885</v>
       </c>
       <c r="L33">
-        <v>136.845042073697</v>
+        <v>132.117210180221</v>
       </c>
       <c r="M33">
-        <v>71.6608941765984</v>
+        <v>66.5021760945189</v>
       </c>
       <c r="N33">
-        <v>112.807930305828</v>
+        <v>130.014343124818</v>
       </c>
       <c r="O33">
-        <v>6616.97797704891</v>
+        <v>6687.06451242488</v>
       </c>
       <c r="P33">
-        <v>84.8445988475158</v>
+        <v>80.7574477888006</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2139.27262265847</v>
+        <v>2212.54896596683</v>
       </c>
       <c r="C34">
-        <v>65.6998966954633</v>
+        <v>62.8157318900143</v>
       </c>
       <c r="D34">
-        <v>198.858588434799</v>
+        <v>183.080453717139</v>
       </c>
       <c r="E34">
-        <v>83.1297939140965</v>
+        <v>52.3831896097634</v>
       </c>
       <c r="F34">
-        <v>7.77652567832393</v>
+        <v>8.58664278511478</v>
       </c>
       <c r="G34">
-        <v>57.5461091284184</v>
+        <v>46.4977853577894</v>
       </c>
       <c r="H34">
-        <v>38.6745057254218</v>
+        <v>42.1367998291548</v>
       </c>
       <c r="I34">
-        <v>22.3444234892327</v>
+        <v>14.9422504085033</v>
       </c>
       <c r="J34">
-        <v>63.0210464156692</v>
+        <v>56.3633212265668</v>
       </c>
       <c r="K34">
-        <v>43.170090055205</v>
+        <v>52.1666467460291</v>
       </c>
       <c r="L34">
-        <v>98.37562613725569</v>
+        <v>89.7839968440051</v>
       </c>
       <c r="M34">
-        <v>51.1726678643589</v>
+        <v>47.3572762661875</v>
       </c>
       <c r="N34">
-        <v>127.72662493237</v>
+        <v>117.873506620582</v>
       </c>
       <c r="O34">
-        <v>2640.32583636702</v>
+        <v>2673.36747726795</v>
       </c>
       <c r="P34">
-        <v>60.9231391242898</v>
+        <v>56.9099306194371</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>157.952769762877</v>
+        <v>154.357325291558</v>
       </c>
       <c r="C35">
-        <v>6.40773578979284</v>
+        <v>6.67241957387882</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.5404731719145101</v>
       </c>
       <c r="E35">
-        <v>1.9438257931695</v>
+        <v>2.51645060679192</v>
       </c>
       <c r="F35">
-        <v>5.42166179054134</v>
+        <v>4.806153674699</v>
       </c>
       <c r="G35">
-        <v>0.545715645998659</v>
+        <v>0.584854775398614</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.327500905485771</v>
       </c>
       <c r="I35">
-        <v>0.940012088861142</v>
+        <v>0.623269024104425</v>
       </c>
       <c r="J35">
-        <v>2.38391571673098</v>
+        <v>2.1269302727858</v>
       </c>
       <c r="K35">
-        <v>5.51236380722688</v>
+        <v>6.18656447074832</v>
       </c>
       <c r="L35">
-        <v>2.04051389273236</v>
+        <v>1.79017230299212</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>2.26032937661362</v>
       </c>
       <c r="N35">
-        <v>2.24030633620502</v>
+        <v>2.17152917067525</v>
       </c>
       <c r="O35">
-        <v>219.991361741118</v>
+        <v>224.228636526444</v>
       </c>
       <c r="P35">
-        <v>39.2376875405534</v>
+        <v>38.979007423409</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3037.89909709901</v>
+        <v>3043.64392507735</v>
       </c>
       <c r="C36">
-        <v>72.87444951052839</v>
+        <v>57.4629776324436</v>
       </c>
       <c r="D36">
-        <v>20.5817309012614</v>
+        <v>14.311009009079</v>
       </c>
       <c r="E36">
-        <v>122.870233176181</v>
+        <v>78.2417764303752</v>
       </c>
       <c r="F36">
-        <v>21.9603524607966</v>
+        <v>25.3170704902191</v>
       </c>
       <c r="G36">
-        <v>78.3739175506079</v>
+        <v>84.4555748786721</v>
       </c>
       <c r="H36">
-        <v>112.451306956913</v>
+        <v>109.069920811815</v>
       </c>
       <c r="I36">
-        <v>52.151366172527</v>
+        <v>43.0722754889952</v>
       </c>
       <c r="J36">
-        <v>258.187220521349</v>
+        <v>227.017430078659</v>
       </c>
       <c r="K36">
-        <v>125.354945224459</v>
+        <v>130.538687896426</v>
       </c>
       <c r="L36">
-        <v>100.207518289292</v>
+        <v>81.1078829665958</v>
       </c>
       <c r="M36">
-        <v>246.807075031695</v>
+        <v>218.364748960741</v>
       </c>
       <c r="N36">
-        <v>86.04567131908119</v>
+        <v>85.9611282203431</v>
       </c>
       <c r="O36">
-        <v>3644.29369040962</v>
+        <v>3760.00196856376</v>
       </c>
       <c r="P36">
-        <v>50.0924094103379</v>
+        <v>58.2165785725288</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>981.448509998311</v>
+        <v>982.446894952294</v>
       </c>
       <c r="C37">
-        <v>26.1444542595973</v>
+        <v>25.737937847931</v>
       </c>
       <c r="D37">
-        <v>9.065075640448351</v>
+        <v>6.85170979853031</v>
       </c>
       <c r="E37">
-        <v>18.2060441050527</v>
+        <v>18.0065572058986</v>
       </c>
       <c r="F37">
-        <v>46.4005568287955</v>
+        <v>35.6303246035732</v>
       </c>
       <c r="G37">
-        <v>5.88082438699973</v>
+        <v>8.443836740622849</v>
       </c>
       <c r="H37">
-        <v>18.7846751257488</v>
+        <v>23.4359507745938</v>
       </c>
       <c r="I37">
-        <v>11.1864632137561</v>
+        <v>14.4831496106438</v>
       </c>
       <c r="J37">
-        <v>37.1361351424515</v>
+        <v>34.4845304802182</v>
       </c>
       <c r="K37">
-        <v>27.8110273240602</v>
+        <v>29.463696251362</v>
       </c>
       <c r="L37">
-        <v>21.3861027714826</v>
+        <v>18.4740220089474</v>
       </c>
       <c r="M37">
-        <v>34.6284542447486</v>
+        <v>32.9601168729256</v>
       </c>
       <c r="N37">
-        <v>15.4048911991164</v>
+        <v>15.6703671504702</v>
       </c>
       <c r="O37">
-        <v>1106.69424695916</v>
+        <v>1116.00186419089</v>
       </c>
       <c r="P37">
-        <v>46.3340891538412</v>
+        <v>47.4794795694894</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>963.927855649903</v>
+        <v>951.8820387826451</v>
       </c>
       <c r="C38">
-        <v>22.0917346106743</v>
+        <v>23.2297786753353</v>
       </c>
       <c r="D38">
-        <v>8.61029186746528</v>
+        <v>8.73069075885541</v>
       </c>
       <c r="E38">
-        <v>71.6231266087475</v>
+        <v>53.2389052642961</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>1.30231290916935</v>
       </c>
       <c r="G38">
-        <v>5.61236704786299</v>
+        <v>4.53007093579697</v>
       </c>
       <c r="H38">
-        <v>5.13104843452247</v>
+        <v>3.90267881135734</v>
       </c>
       <c r="I38">
-        <v>6.39864069224959</v>
+        <v>3.0933564738512</v>
       </c>
       <c r="J38">
-        <v>29.7289159920343</v>
+        <v>36.3427045079506</v>
       </c>
       <c r="K38">
-        <v>12.5472430937636</v>
+        <v>7.98735317671106</v>
       </c>
       <c r="L38">
-        <v>60.7151029967886</v>
+        <v>61.1550893902791</v>
       </c>
       <c r="M38">
-        <v>20.5889595591711</v>
+        <v>17.9912860803394</v>
       </c>
       <c r="N38">
-        <v>21.6260723996391</v>
+        <v>29.9942987397557</v>
       </c>
       <c r="O38">
-        <v>1187.29498174367</v>
+        <v>1229.04521731295</v>
       </c>
       <c r="P38">
-        <v>65.06029874882501</v>
+        <v>65.9164294681819</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3565.83369916323</v>
+        <v>3551.88924046335</v>
       </c>
       <c r="C39">
-        <v>94.5407356968358</v>
+        <v>86.23460281115661</v>
       </c>
       <c r="D39">
-        <v>66.7467284107486</v>
+        <v>66.74258596520269</v>
       </c>
       <c r="E39">
-        <v>141.411064598663</v>
+        <v>124.970876815153</v>
       </c>
       <c r="F39">
-        <v>38.2672278620096</v>
+        <v>32.945442560058</v>
       </c>
       <c r="G39">
-        <v>94.1587519634956</v>
+        <v>92.6408714388609</v>
       </c>
       <c r="H39">
-        <v>55.3362689386265</v>
+        <v>49.2835666948795</v>
       </c>
       <c r="I39">
-        <v>53.5605648203576</v>
+        <v>43.5140225773043</v>
       </c>
       <c r="J39">
-        <v>220.364425967772</v>
+        <v>191.429458888193</v>
       </c>
       <c r="K39">
-        <v>86.018826192372</v>
+        <v>101.121596678645</v>
       </c>
       <c r="L39">
-        <v>117.330461289898</v>
+        <v>101.020475543106</v>
       </c>
       <c r="M39">
-        <v>69.8619592586368</v>
+        <v>64.79025216479811</v>
       </c>
       <c r="N39">
-        <v>97.6028854225802</v>
+        <v>95.6440781844799</v>
       </c>
       <c r="O39">
-        <v>3988.46190789694</v>
+        <v>4087.42491569785</v>
       </c>
       <c r="P39">
-        <v>82.67446456701779</v>
+        <v>76.47666835439431</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>288.772776881453</v>
+        <v>282.316122273058</v>
       </c>
       <c r="C40">
-        <v>3.84416333008637</v>
+        <v>2.76024435236515</v>
       </c>
       <c r="D40">
-        <v>8.26613872315164</v>
+        <v>7.46059867514781</v>
       </c>
       <c r="E40">
-        <v>8.042874088246361</v>
+        <v>5.56840143347083</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.279929583713652</v>
       </c>
       <c r="G40">
-        <v>3.80596959406947</v>
+        <v>5.27233191126564</v>
       </c>
       <c r="H40">
-        <v>4.83088676947662</v>
+        <v>4.23222257000886</v>
       </c>
       <c r="I40">
-        <v>1.72347301890993</v>
+        <v>1.50067024836276</v>
       </c>
       <c r="J40">
-        <v>12.9121278594034</v>
+        <v>9.12036860038863</v>
       </c>
       <c r="K40">
-        <v>3.94072017016904</v>
+        <v>5.44422519185215</v>
       </c>
       <c r="L40">
-        <v>15.4579429609798</v>
+        <v>14.2046855067746</v>
       </c>
       <c r="M40">
-        <v>5.7319584788015</v>
+        <v>5.39710246853655</v>
       </c>
       <c r="N40">
-        <v>20.9693094309088</v>
+        <v>20.1098443430032</v>
       </c>
       <c r="O40">
-        <v>364.57119582247</v>
+        <v>382.768825012506</v>
       </c>
       <c r="P40">
-        <v>2.54417445648609</v>
+        <v>3.17820949957802</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1130.83495532791</v>
+        <v>1163.65906925355</v>
       </c>
       <c r="C41">
-        <v>21.5314790106959</v>
+        <v>15.9235987964599</v>
       </c>
       <c r="D41">
-        <v>103.294675143448</v>
+        <v>91.3389103789726</v>
       </c>
       <c r="E41">
-        <v>44.010956774227</v>
+        <v>38.9975780154939</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>1.92595396458737</v>
       </c>
       <c r="G41">
-        <v>23.8213802370916</v>
+        <v>21.6770942421648</v>
       </c>
       <c r="H41">
-        <v>32.7529838658985</v>
+        <v>30.6033107578288</v>
       </c>
       <c r="I41">
-        <v>11.7144445192292</v>
+        <v>11.8221546947091</v>
       </c>
       <c r="J41">
-        <v>41.3861968182422</v>
+        <v>47.0891245779007</v>
       </c>
       <c r="K41">
-        <v>29.4911005760636</v>
+        <v>27.4019200713524</v>
       </c>
       <c r="L41">
-        <v>30.5661788026331</v>
+        <v>31.5753954585861</v>
       </c>
       <c r="M41">
-        <v>37.9238088158408</v>
+        <v>24.3448913946402</v>
       </c>
       <c r="N41">
-        <v>22.0742585168041</v>
+        <v>22.0710574065625</v>
       </c>
       <c r="O41">
-        <v>1265.04732748813</v>
+        <v>1265.15493324038</v>
       </c>
       <c r="P41">
-        <v>23.2805503764304</v>
+        <v>26.7599505740259</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>172.721222368327</v>
+        <v>167.612817199078</v>
       </c>
       <c r="C42">
-        <v>7.15849828973233</v>
+        <v>5.51397527528676</v>
       </c>
       <c r="D42">
-        <v>0.967983933028659</v>
+        <v>1.28280997442849</v>
       </c>
       <c r="E42">
-        <v>5.09238080266645</v>
+        <v>4.76104381026665</v>
       </c>
       <c r="F42">
-        <v>1.90245904498435</v>
+        <v>2.47947882424919</v>
       </c>
       <c r="G42">
-        <v>0.937032066932591</v>
+        <v>1.54613080663326</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>0.258507102219008</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>0.904691550489468</v>
       </c>
       <c r="J42">
-        <v>4.2461924386853</v>
+        <v>3.54956082437391</v>
       </c>
       <c r="K42">
-        <v>5.12144713991236</v>
+        <v>5.47582307346971</v>
       </c>
       <c r="L42">
-        <v>7.37143228599142</v>
+        <v>7.29269010352547</v>
       </c>
       <c r="M42">
-        <v>3.23341743155703</v>
+        <v>2.47789807441946</v>
       </c>
       <c r="N42">
-        <v>7.16105276648262</v>
+        <v>6.46896704741803</v>
       </c>
       <c r="O42">
-        <v>250.602932514112</v>
+        <v>256.546447834958</v>
       </c>
       <c r="P42">
-        <v>42.4118807803943</v>
+        <v>44.8201363627735</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1602.05434628737</v>
+        <v>1632.21105282797</v>
       </c>
       <c r="C43">
-        <v>44.1918246466831</v>
+        <v>36.5433317615301</v>
       </c>
       <c r="D43">
-        <v>51.7331994719184</v>
+        <v>57.4975962504079</v>
       </c>
       <c r="E43">
-        <v>72.2965655391713</v>
+        <v>53.2750577952693</v>
       </c>
       <c r="F43">
-        <v>7.47146358200763</v>
+        <v>9.991067570330991</v>
       </c>
       <c r="G43">
-        <v>31.0228334688398</v>
+        <v>19.9463619478531</v>
       </c>
       <c r="H43">
-        <v>34.2751018998179</v>
+        <v>37.4115124522294</v>
       </c>
       <c r="I43">
-        <v>17.0629125168518</v>
+        <v>25.2465449379792</v>
       </c>
       <c r="J43">
-        <v>70.3756424769032</v>
+        <v>51.7695139020864</v>
       </c>
       <c r="K43">
-        <v>49.8787653542333</v>
+        <v>63.7199010523852</v>
       </c>
       <c r="L43">
-        <v>56.3454430407101</v>
+        <v>44.3176412907181</v>
       </c>
       <c r="M43">
-        <v>106.663636707225</v>
+        <v>104.649830775369</v>
       </c>
       <c r="N43">
-        <v>59.6696924554899</v>
+        <v>48.6657562191227</v>
       </c>
       <c r="O43">
-        <v>1848.06432601</v>
+        <v>1865.55448425259</v>
       </c>
       <c r="P43">
-        <v>33.3597346580299</v>
+        <v>39.2015805687701</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5626.89248662762</v>
+        <v>5493.56208820683</v>
       </c>
       <c r="C44">
-        <v>111.33472083245</v>
+        <v>108.694665545579</v>
       </c>
       <c r="D44">
-        <v>48.8731854966159</v>
+        <v>48.7250208898721</v>
       </c>
       <c r="E44">
-        <v>112.967674470388</v>
+        <v>89.36054857576291</v>
       </c>
       <c r="F44">
-        <v>219.444662764208</v>
+        <v>206.005807332156</v>
       </c>
       <c r="G44">
-        <v>118.764663995492</v>
+        <v>125.988140403197</v>
       </c>
       <c r="H44">
-        <v>62.1934996047129</v>
+        <v>48.3780367628001</v>
       </c>
       <c r="I44">
-        <v>47.8021808819066</v>
+        <v>38.8467608925832</v>
       </c>
       <c r="J44">
-        <v>157.348828633359</v>
+        <v>140.767838148837</v>
       </c>
       <c r="K44">
-        <v>92.8723898993337</v>
+        <v>86.9680887933058</v>
       </c>
       <c r="L44">
-        <v>230.505166459351</v>
+        <v>203.259975716579</v>
       </c>
       <c r="M44">
-        <v>124.749497328655</v>
+        <v>113.543340224822</v>
       </c>
       <c r="N44">
-        <v>98.84407820803629</v>
+        <v>89.9649818752635</v>
       </c>
       <c r="O44">
-        <v>7003.45179831517</v>
+        <v>7228.81176566885</v>
       </c>
       <c r="P44">
-        <v>170.219257347259</v>
+        <v>199.805778131154</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>507.979074599828</v>
+        <v>496.773324356908</v>
       </c>
       <c r="C45">
-        <v>14.9754979112325</v>
+        <v>14.8837441803535</v>
       </c>
       <c r="D45">
-        <v>3.82177919982492</v>
+        <v>3.65639098411474</v>
       </c>
       <c r="E45">
-        <v>15.4124210353595</v>
+        <v>11.1733867537346</v>
       </c>
       <c r="F45">
-        <v>16.3380485254968</v>
+        <v>21.0301805014003</v>
       </c>
       <c r="G45">
-        <v>9.49179588153237</v>
+        <v>7.96582240443656</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>2.24749335565838</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>4.39765119054137</v>
       </c>
       <c r="J45">
-        <v>20.0432087664295</v>
+        <v>23.190268915183</v>
       </c>
       <c r="K45">
-        <v>6.07725544890192</v>
+        <v>7.26206352325134</v>
       </c>
       <c r="L45">
-        <v>18.8565205626835</v>
+        <v>16.7720779375472</v>
       </c>
       <c r="M45">
-        <v>25.7696959770435</v>
+        <v>20.0673775832512</v>
       </c>
       <c r="N45">
-        <v>29.9676598543022</v>
+        <v>29.2054092465533</v>
       </c>
       <c r="O45">
-        <v>774.44498789823</v>
+        <v>787.049410479677</v>
       </c>
       <c r="P45">
-        <v>16.0177884935262</v>
+        <v>17.9351549902563</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>141.42883057464</v>
+        <v>142.525237652527</v>
       </c>
       <c r="C46">
-        <v>3.91644965727844</v>
+        <v>3.40699929583591</v>
       </c>
       <c r="D46">
-        <v>2.19731339623192</v>
+        <v>1.50328273336265</v>
       </c>
       <c r="E46">
-        <v>7.99953384744306</v>
+        <v>5.94061327227888</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>1.19096492384959</v>
       </c>
       <c r="G46">
-        <v>1.52590902234436</v>
+        <v>1.80616460003215</v>
       </c>
       <c r="H46">
-        <v>1.67588124513074</v>
+        <v>2.47070543055291</v>
       </c>
       <c r="I46">
-        <v>2.22222573213061</v>
+        <v>1.89864119628965</v>
       </c>
       <c r="J46">
-        <v>5.03807201755551</v>
+        <v>4.39624567202234</v>
       </c>
       <c r="K46">
-        <v>4.01427952300118</v>
+        <v>5.43231103989629</v>
       </c>
       <c r="L46">
-        <v>10.8745163107041</v>
+        <v>10.3634234029333</v>
       </c>
       <c r="M46">
-        <v>4.04605304043466</v>
+        <v>2.60944828797995</v>
       </c>
       <c r="N46">
-        <v>6.8301374574947</v>
+        <v>8.25004377412186</v>
       </c>
       <c r="O46">
-        <v>226.341719082648</v>
+        <v>226.110360106193</v>
       </c>
       <c r="P46">
-        <v>11.7613890765368</v>
+        <v>12.1317018193885</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1762.69834309549</v>
+        <v>1795.50306982487</v>
       </c>
       <c r="C47">
-        <v>54.1188344134605</v>
+        <v>49.1823348564201</v>
       </c>
       <c r="D47">
-        <v>52.6958109527959</v>
+        <v>43.401005341804</v>
       </c>
       <c r="E47">
-        <v>71.1299794193133</v>
+        <v>60.9118726220521</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>9.624596082697771</v>
       </c>
       <c r="G47">
-        <v>30.0862896614229</v>
+        <v>26.2821734731674</v>
       </c>
       <c r="H47">
-        <v>21.0967644415575</v>
+        <v>15.7820723440901</v>
       </c>
       <c r="I47">
-        <v>14.1368843281893</v>
+        <v>10.3209465361985</v>
       </c>
       <c r="J47">
-        <v>34.8758250552022</v>
+        <v>39.4076574194346</v>
       </c>
       <c r="K47">
-        <v>26.1500748977051</v>
+        <v>18.8626173979233</v>
       </c>
       <c r="L47">
-        <v>47.1661117030908</v>
+        <v>44.4816318528438</v>
       </c>
       <c r="M47">
-        <v>72.7258172729432</v>
+        <v>68.9283373086258</v>
       </c>
       <c r="N47">
-        <v>50.5452241307137</v>
+        <v>47.4186726661272</v>
       </c>
       <c r="O47">
-        <v>2640.3662804556</v>
+        <v>2662.54711242095</v>
       </c>
       <c r="P47">
-        <v>37.9749123700345</v>
+        <v>23.3143268271044</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1586.54047661718</v>
+        <v>1605.14587328043</v>
       </c>
       <c r="C48">
-        <v>37.1962671813783</v>
+        <v>19.9865562621509</v>
       </c>
       <c r="D48">
-        <v>8.027423161558421</v>
+        <v>9.27309049037245</v>
       </c>
       <c r="E48">
-        <v>60.5543046743904</v>
+        <v>53.7856318944684</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>2.91951610919505</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>7.3513019014647</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>8.46936194816435</v>
       </c>
       <c r="I48">
-        <v>9.38952726160823</v>
+        <v>6.54051796201408</v>
       </c>
       <c r="J48">
-        <v>35.5085278865696</v>
+        <v>34.2328825413657</v>
       </c>
       <c r="K48">
-        <v>14.5962425162941</v>
+        <v>18.59887461897</v>
       </c>
       <c r="L48">
-        <v>42.9185461458912</v>
+        <v>42.5149426822994</v>
       </c>
       <c r="M48">
-        <v>129.318123035338</v>
+        <v>115.716971485264</v>
       </c>
       <c r="N48">
-        <v>34.9259282702562</v>
+        <v>27.4602438351072</v>
       </c>
       <c r="O48">
-        <v>2098.91979778832</v>
+        <v>2124.56892628972</v>
       </c>
       <c r="P48">
-        <v>77.80184023723341</v>
+        <v>86.0161315944095</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>663.276224844601</v>
+        <v>666.283640601955</v>
       </c>
       <c r="C49">
-        <v>6.7406965090359</v>
+        <v>6.28875288707788</v>
       </c>
       <c r="D49">
-        <v>2.78878667090294</v>
+        <v>3.96665100541988</v>
       </c>
       <c r="E49">
-        <v>15.3392286521596</v>
+        <v>15.5826327901425</v>
       </c>
       <c r="F49">
-        <v>27.5172723574616</v>
+        <v>26.669081713155</v>
       </c>
       <c r="G49">
-        <v>16.8438305840347</v>
+        <v>16.2864857155114</v>
       </c>
       <c r="H49">
-        <v>6.19479346842968</v>
+        <v>5.04769970276539</v>
       </c>
       <c r="I49">
-        <v>5.94196427087392</v>
+        <v>7.57472155405013</v>
       </c>
       <c r="J49">
-        <v>19.2781708534907</v>
+        <v>19.0735014606169</v>
       </c>
       <c r="K49">
-        <v>6.2445567175833</v>
+        <v>6.97900672063968</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>2.06360090124532</v>
       </c>
       <c r="M49">
-        <v>7.29111246135735</v>
+        <v>6.05658315849813</v>
       </c>
       <c r="N49">
-        <v>5.25869134431141</v>
+        <v>5.57445255971331</v>
       </c>
       <c r="O49">
-        <v>538.717688132755</v>
+        <v>538.698411841024</v>
       </c>
       <c r="P49">
-        <v>9.08613777867693</v>
+        <v>7.07250109960221</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1286.21351495915</v>
+        <v>1268.52332403122</v>
       </c>
       <c r="C50">
-        <v>79.9021231753332</v>
+        <v>69.7260271743085</v>
       </c>
       <c r="D50">
-        <v>15.3048805517573</v>
+        <v>14.0244855445094</v>
       </c>
       <c r="E50">
-        <v>142.078279322301</v>
+        <v>130.041067470542</v>
       </c>
       <c r="F50">
-        <v>4.20492452019271</v>
+        <v>1.78275887459788</v>
       </c>
       <c r="G50">
-        <v>15.2120730445438</v>
+        <v>24.0598972805882</v>
       </c>
       <c r="H50">
-        <v>40.7270160497876</v>
+        <v>37.3131953203137</v>
       </c>
       <c r="I50">
-        <v>14.9243412525615</v>
+        <v>10.3602439814335</v>
       </c>
       <c r="J50">
-        <v>110.629563761235</v>
+        <v>110.305270141687</v>
       </c>
       <c r="K50">
-        <v>87.990730456553</v>
+        <v>98.6871538717399</v>
       </c>
       <c r="L50">
-        <v>59.4689757444967</v>
+        <v>63.3451338629305</v>
       </c>
       <c r="M50">
-        <v>60.2710676488075</v>
+        <v>42.720245770425</v>
       </c>
       <c r="N50">
-        <v>58.2991908967264</v>
+        <v>54.192313695645</v>
       </c>
       <c r="O50">
-        <v>1711.22583806121</v>
+        <v>1787.33017464325</v>
       </c>
       <c r="P50">
-        <v>125.163941751003</v>
+        <v>97.4000920631652</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>121.833891516939</v>
+        <v>118.670162514851</v>
       </c>
       <c r="C51">
-        <v>1.0758038971627</v>
+        <v>1.55530262909487</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.202580599675241</v>
       </c>
       <c r="E51">
-        <v>2.52665045793152</v>
+        <v>1.52683313600506</v>
       </c>
       <c r="F51">
-        <v>23.542047318701</v>
+        <v>22.2380886835213</v>
       </c>
       <c r="G51">
-        <v>2.74053506660959</v>
+        <v>2.48389669605303</v>
       </c>
       <c r="H51">
-        <v>0.138410861949979</v>
+        <v>0.0375785634913246</v>
       </c>
       <c r="I51">
-        <v>0.885829516479869</v>
+        <v>0.740168849245251</v>
       </c>
       <c r="J51">
-        <v>1.63534752352781</v>
+        <v>1.39391857229938</v>
       </c>
       <c r="K51">
-        <v>0.60900779257991</v>
+        <v>0.7328633081024401</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.39951137652316</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.395499755468845</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>0.9035174608038991</v>
       </c>
       <c r="O51">
-        <v>176.851503623716</v>
+        <v>179.610410052083</v>
       </c>
       <c r="P51">
-        <v>13.1643247781938</v>
+        <v>14.6026904941987</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1404.73936384736</v>
+        <v>1393.69423525178</v>
       </c>
       <c r="C2">
-        <v>32.3472516107017</v>
+        <v>33.1721574726433</v>
       </c>
       <c r="D2">
-        <v>62.1583592653147</v>
+        <v>64.28264744162119</v>
       </c>
       <c r="E2">
-        <v>62.2078138731976</v>
+        <v>60.3715085571418</v>
       </c>
       <c r="F2">
-        <v>16.5132862489429</v>
+        <v>17.5230683152115</v>
       </c>
       <c r="G2">
-        <v>17.2018389941756</v>
+        <v>15.7829200499496</v>
       </c>
       <c r="H2">
-        <v>26.186256592595</v>
+        <v>24.5885649028373</v>
       </c>
       <c r="I2">
-        <v>9.218303533595901</v>
+        <v>12.0829066620964</v>
       </c>
       <c r="J2">
-        <v>62.1258340500125</v>
+        <v>61.6494932251713</v>
       </c>
       <c r="K2">
-        <v>21.0025505464578</v>
+        <v>16.4464018680728</v>
       </c>
       <c r="L2">
-        <v>33.8512702444224</v>
+        <v>34.1785099761193</v>
       </c>
       <c r="M2">
-        <v>42.7787740731676</v>
+        <v>42.4804293324141</v>
       </c>
       <c r="N2">
-        <v>28.0221120522751</v>
+        <v>26.8389314387359</v>
       </c>
       <c r="O2">
-        <v>1305.02877171745</v>
+        <v>1322.16482713079</v>
       </c>
       <c r="P2">
-        <v>31.0927453801245</v>
+        <v>30.4886195202575</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>138.895475126538</v>
+        <v>135.039100585426</v>
       </c>
       <c r="C3">
-        <v>4.11928439494407</v>
+        <v>4.63607494333198</v>
       </c>
       <c r="D3">
-        <v>0.276661179499235</v>
+        <v>0.204084810966787</v>
       </c>
       <c r="E3">
-        <v>1.25835046707087</v>
+        <v>1.51219648551995</v>
       </c>
       <c r="F3">
-        <v>8.67055774633511</v>
+        <v>8.434551284173519</v>
       </c>
       <c r="G3">
-        <v>0.367003638476922</v>
+        <v>0.283532372689982</v>
       </c>
       <c r="H3">
-        <v>0.0412263707547474</v>
+        <v>0.0233136039766061</v>
       </c>
       <c r="I3">
-        <v>0.307213032217618</v>
+        <v>0.373771877833053</v>
       </c>
       <c r="J3">
-        <v>0.506275798331881</v>
+        <v>0.409931312440903</v>
       </c>
       <c r="K3">
-        <v>0.479121973408475</v>
+        <v>0.244422523399124</v>
       </c>
       <c r="L3">
-        <v>0.408152394305307</v>
+        <v>0.318817875361691</v>
       </c>
       <c r="M3">
-        <v>0.709965602444089</v>
+        <v>0.584272851766517</v>
       </c>
       <c r="N3">
-        <v>1.11800559787006</v>
+        <v>0.800417700282802</v>
       </c>
       <c r="O3">
-        <v>233.852386932153</v>
+        <v>229.113875230293</v>
       </c>
       <c r="P3">
-        <v>11.8033602596036</v>
+        <v>10.7026296594753</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1525.85981000766</v>
+        <v>1519.63421182972</v>
       </c>
       <c r="C4">
-        <v>8.616650382676941</v>
+        <v>10.0018233933045</v>
       </c>
       <c r="D4">
-        <v>2.84045417999499</v>
+        <v>3.11282285412658</v>
       </c>
       <c r="E4">
-        <v>20.958878246051</v>
+        <v>24.1733243865636</v>
       </c>
       <c r="F4">
-        <v>17.8836939817304</v>
+        <v>12.0276944773574</v>
       </c>
       <c r="G4">
-        <v>6.49441352242104</v>
+        <v>8.463796016532459</v>
       </c>
       <c r="H4">
-        <v>11.1874947565275</v>
+        <v>9.79169727386782</v>
       </c>
       <c r="I4">
-        <v>11.5460251994378</v>
+        <v>9.616399390192971</v>
       </c>
       <c r="J4">
-        <v>23.6129901517881</v>
+        <v>25.6369699882428</v>
       </c>
       <c r="K4">
-        <v>8.321036026588439</v>
+        <v>6.43927005272878</v>
       </c>
       <c r="L4">
-        <v>76.4276654814994</v>
+        <v>73.0930187597485</v>
       </c>
       <c r="M4">
-        <v>41.7413721931226</v>
+        <v>49.0912249978103</v>
       </c>
       <c r="N4">
-        <v>26.1912093061122</v>
+        <v>23.3719265248617</v>
       </c>
       <c r="O4">
-        <v>1829.74175372557</v>
+        <v>1835.47717164854</v>
       </c>
       <c r="P4">
-        <v>31.6154673378137</v>
+        <v>34.2482655413559</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>830.092012847463</v>
+        <v>824.691179688532</v>
       </c>
       <c r="C5">
-        <v>49.3844066985963</v>
+        <v>50.2337316189407</v>
       </c>
       <c r="D5">
-        <v>11.9592553010708</v>
+        <v>12.6204170978211</v>
       </c>
       <c r="E5">
-        <v>33.1779741304872</v>
+        <v>41.6748425569092</v>
       </c>
       <c r="F5">
-        <v>3.11007414287133</v>
+        <v>4.39876819825358</v>
       </c>
       <c r="G5">
-        <v>6.0957666835461</v>
+        <v>7.05606374318484</v>
       </c>
       <c r="H5">
-        <v>12.5091341820638</v>
+        <v>12.8064637386699</v>
       </c>
       <c r="I5">
-        <v>7.21581689058076</v>
+        <v>7.27200263498812</v>
       </c>
       <c r="J5">
-        <v>32.0614008736909</v>
+        <v>30.7239797372062</v>
       </c>
       <c r="K5">
-        <v>20.9495103140009</v>
+        <v>18.4865282810852</v>
       </c>
       <c r="L5">
-        <v>18.4337365734678</v>
+        <v>19.8040885308872</v>
       </c>
       <c r="M5">
-        <v>21.6318857112401</v>
+        <v>20.8915354089653</v>
       </c>
       <c r="N5">
-        <v>21.7191677472385</v>
+        <v>23.3978434192177</v>
       </c>
       <c r="O5">
-        <v>792.228851403714</v>
+        <v>783.441216700186</v>
       </c>
       <c r="P5">
-        <v>49.0904349649434</v>
+        <v>50.9114029002505</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9543.722598975981</v>
+        <v>9576.88487411425</v>
       </c>
       <c r="C6">
-        <v>166.983141382648</v>
+        <v>179.046795347302</v>
       </c>
       <c r="D6">
-        <v>156.85668236738</v>
+        <v>149.250824320728</v>
       </c>
       <c r="E6">
-        <v>131.73028321552</v>
+        <v>128.14347766718</v>
       </c>
       <c r="F6">
-        <v>40.1953679175778</v>
+        <v>49.4686017229603</v>
       </c>
       <c r="G6">
-        <v>80.4320282464098</v>
+        <v>89.60424827398759</v>
       </c>
       <c r="H6">
-        <v>70.5098498417921</v>
+        <v>63.1742392372574</v>
       </c>
       <c r="I6">
-        <v>44.788300001071</v>
+        <v>48.8583172012771</v>
       </c>
       <c r="J6">
-        <v>156.438833273428</v>
+        <v>170.370119208579</v>
       </c>
       <c r="K6">
-        <v>103.480726942509</v>
+        <v>94.05565307753351</v>
       </c>
       <c r="L6">
-        <v>517.931097772836</v>
+        <v>513.357881366837</v>
       </c>
       <c r="M6">
-        <v>230.747734264588</v>
+        <v>232.996619151557</v>
       </c>
       <c r="N6">
-        <v>258.28694412653</v>
+        <v>244.932385295337</v>
       </c>
       <c r="O6">
-        <v>11550.9363714768</v>
+        <v>11519.0574635249</v>
       </c>
       <c r="P6">
-        <v>313.970663872479</v>
+        <v>314.720048895597</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1018.86851203144</v>
+        <v>1000.17975236978</v>
       </c>
       <c r="C7">
-        <v>32.8226813137548</v>
+        <v>33.1531482629183</v>
       </c>
       <c r="D7">
-        <v>3.39378846520944</v>
+        <v>3.33000440396995</v>
       </c>
       <c r="E7">
-        <v>13.9354821160483</v>
+        <v>18.0736177314056</v>
       </c>
       <c r="F7">
-        <v>16.9764075120037</v>
+        <v>18.5118627366255</v>
       </c>
       <c r="G7">
-        <v>7.36289969325267</v>
+        <v>7.6903882262451</v>
       </c>
       <c r="H7">
-        <v>5.17359830706646</v>
+        <v>6.17869381649064</v>
       </c>
       <c r="I7">
-        <v>8.97580427472669</v>
+        <v>7.86704851373053</v>
       </c>
       <c r="J7">
-        <v>19.4254539628256</v>
+        <v>19.9757960735583</v>
       </c>
       <c r="K7">
-        <v>14.007113477147</v>
+        <v>11.8916194354743</v>
       </c>
       <c r="L7">
-        <v>59.8495306345689</v>
+        <v>54.7527693503463</v>
       </c>
       <c r="M7">
-        <v>16.6295884927079</v>
+        <v>17.2720871230108</v>
       </c>
       <c r="N7">
-        <v>26.9963415683532</v>
+        <v>30.4394240733135</v>
       </c>
       <c r="O7">
-        <v>1774.20086516527</v>
+        <v>1770.96239572149</v>
       </c>
       <c r="P7">
-        <v>29.9062667385673</v>
+        <v>40.4598690089733</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>834.820260355567</v>
+        <v>843.014461213942</v>
       </c>
       <c r="C8">
-        <v>12.2754994028971</v>
+        <v>12.1668707671077</v>
       </c>
       <c r="D8">
-        <v>8.400672140996679</v>
+        <v>6.22697817132087</v>
       </c>
       <c r="E8">
-        <v>14.8290364786172</v>
+        <v>17.750265082787</v>
       </c>
       <c r="F8">
-        <v>3.95627520848893</v>
+        <v>3.47468166533798</v>
       </c>
       <c r="G8">
-        <v>27.6730144266924</v>
+        <v>29.6067243859233</v>
       </c>
       <c r="H8">
-        <v>6.9320122236795</v>
+        <v>8.021751567450631</v>
       </c>
       <c r="I8">
-        <v>4.62126381799382</v>
+        <v>3.43131708239887</v>
       </c>
       <c r="J8">
-        <v>41.3265808992019</v>
+        <v>36.7811781625554</v>
       </c>
       <c r="K8">
-        <v>27.9992873299843</v>
+        <v>26.9972103327148</v>
       </c>
       <c r="L8">
-        <v>36.8574256387415</v>
+        <v>43.5124846059105</v>
       </c>
       <c r="M8">
-        <v>48.061065612454</v>
+        <v>48.1498230311939</v>
       </c>
       <c r="N8">
-        <v>29.4967144936187</v>
+        <v>26.9621278448352</v>
       </c>
       <c r="O8">
-        <v>1303.91215919022</v>
+        <v>1292.05178754424</v>
       </c>
       <c r="P8">
-        <v>2.89396906554237</v>
+        <v>3.70385725884926</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>203.77167963378</v>
+        <v>205.462704296857</v>
       </c>
       <c r="C9">
-        <v>6.86704064982767</v>
+        <v>6.94146158563798</v>
       </c>
       <c r="D9">
-        <v>2.24983063410751</v>
+        <v>2.15433698888578</v>
       </c>
       <c r="E9">
-        <v>4.3664572151013</v>
+        <v>4.66706202171011</v>
       </c>
       <c r="F9">
-        <v>2.13422956789512</v>
+        <v>1.86336399377446</v>
       </c>
       <c r="G9">
-        <v>18.2684109602767</v>
+        <v>17.1635729792228</v>
       </c>
       <c r="H9">
-        <v>3.25540217506431</v>
+        <v>2.69824654659111</v>
       </c>
       <c r="I9">
-        <v>0.818502414788216</v>
+        <v>0.700947467112952</v>
       </c>
       <c r="J9">
-        <v>2.50019883250923</v>
+        <v>3.25819109616447</v>
       </c>
       <c r="K9">
-        <v>3.21890594484803</v>
+        <v>2.20647449099897</v>
       </c>
       <c r="L9">
-        <v>2.6639615870601</v>
+        <v>2.77397852120487</v>
       </c>
       <c r="M9">
-        <v>6.81895791352439</v>
+        <v>7.05587716522311</v>
       </c>
       <c r="N9">
-        <v>4.80253047842324</v>
+        <v>4.30153032060575</v>
       </c>
       <c r="O9">
-        <v>287.304366727442</v>
+        <v>290.224185836746</v>
       </c>
       <c r="P9">
-        <v>4.58952113322996</v>
+        <v>4.67913848704055</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5300.6448471683</v>
+        <v>5294.12913299894</v>
       </c>
       <c r="C10">
-        <v>61.0859252985675</v>
+        <v>54.8236395176222</v>
       </c>
       <c r="D10">
-        <v>32.3881391822611</v>
+        <v>29.4418006588212</v>
       </c>
       <c r="E10">
-        <v>46.4263584456877</v>
+        <v>49.8609586768408</v>
       </c>
       <c r="F10">
-        <v>8.71369724832925</v>
+        <v>7.66955388817949</v>
       </c>
       <c r="G10">
-        <v>25.9901120179762</v>
+        <v>28.5192862066516</v>
       </c>
       <c r="H10">
-        <v>17.4144755967677</v>
+        <v>20.2975652553134</v>
       </c>
       <c r="I10">
-        <v>35.2741121290244</v>
+        <v>32.9469803767485</v>
       </c>
       <c r="J10">
-        <v>51.0285158044416</v>
+        <v>51.7718311674035</v>
       </c>
       <c r="K10">
-        <v>39.761597559435</v>
+        <v>31.5765688155802</v>
       </c>
       <c r="L10">
-        <v>81.72011330776159</v>
+        <v>88.2720662231802</v>
       </c>
       <c r="M10">
-        <v>78.51738139854091</v>
+        <v>75.8098542085998</v>
       </c>
       <c r="N10">
-        <v>82.43365119426331</v>
+        <v>77.4565512501464</v>
       </c>
       <c r="O10">
-        <v>5887.86612005035</v>
+        <v>5923.8489465187</v>
       </c>
       <c r="P10">
-        <v>83.7923924871933</v>
+        <v>81.0626327254913</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2135.24372671059</v>
+        <v>2141.2479699983</v>
       </c>
       <c r="C11">
-        <v>80.6294851825147</v>
+        <v>81.69724467690109</v>
       </c>
       <c r="D11">
-        <v>156.115585407441</v>
+        <v>141.732012557726</v>
       </c>
       <c r="E11">
-        <v>77.78805999951931</v>
+        <v>85.1329819402182</v>
       </c>
       <c r="F11">
-        <v>8.09009619313677</v>
+        <v>7.59246189676436</v>
       </c>
       <c r="G11">
-        <v>29.0607565200759</v>
+        <v>31.5293014948779</v>
       </c>
       <c r="H11">
-        <v>22.5513939004195</v>
+        <v>16.9951515071136</v>
       </c>
       <c r="I11">
-        <v>23.925389387881</v>
+        <v>19.4913198376035</v>
       </c>
       <c r="J11">
-        <v>55.6909612676734</v>
+        <v>51.4953876469635</v>
       </c>
       <c r="K11">
-        <v>31.72232299343</v>
+        <v>30.7330057093259</v>
       </c>
       <c r="L11">
-        <v>66.1318884114897</v>
+        <v>69.093541790358</v>
       </c>
       <c r="M11">
-        <v>52.0560145942118</v>
+        <v>61.6720387625468</v>
       </c>
       <c r="N11">
-        <v>43.1674233884836</v>
+        <v>49.8589491764822</v>
       </c>
       <c r="O11">
-        <v>2849.8235663311</v>
+        <v>2841.80854670497</v>
       </c>
       <c r="P11">
-        <v>47.9929332328167</v>
+        <v>52.8408686446772</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>335.499680808029</v>
+        <v>337.491392877084</v>
       </c>
       <c r="C12">
-        <v>7.81550147021532</v>
+        <v>8.45271168543287</v>
       </c>
       <c r="D12">
-        <v>1.97281444738151</v>
+        <v>1.50474006297654</v>
       </c>
       <c r="E12">
-        <v>0.451830693014869</v>
+        <v>0.716322554691713</v>
       </c>
       <c r="F12">
-        <v>0.618775334300313</v>
+        <v>0.782945954279063</v>
       </c>
       <c r="G12">
-        <v>0.0864011358577849</v>
+        <v>0.310876090179471</v>
       </c>
       <c r="H12">
-        <v>0.0868626179670795</v>
+        <v>0.0291255446242355</v>
       </c>
       <c r="I12">
-        <v>0.636910152732678</v>
+        <v>0.854453473677683</v>
       </c>
       <c r="J12">
-        <v>2.33734509593339</v>
+        <v>1.35386440015196</v>
       </c>
       <c r="K12">
-        <v>0.652180491685643</v>
+        <v>0.452779177040694</v>
       </c>
       <c r="L12">
-        <v>0.0675775332217583</v>
+        <v>0.205573494681572</v>
       </c>
       <c r="M12">
-        <v>3.43837268486795</v>
+        <v>3.58435248346022</v>
       </c>
       <c r="N12">
-        <v>2.66316485576102</v>
+        <v>2.34855131130366</v>
       </c>
       <c r="O12">
-        <v>470.27674361018</v>
+        <v>470.424666837922</v>
       </c>
       <c r="P12">
-        <v>13.0276538381218</v>
+        <v>13.3696538556277</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>325.337411838419</v>
+        <v>322.576868713636</v>
       </c>
       <c r="C13">
-        <v>17.0910958676306</v>
+        <v>18.1348362008354</v>
       </c>
       <c r="D13">
-        <v>0.757349113105586</v>
+        <v>0.685917464148012</v>
       </c>
       <c r="E13">
-        <v>13.6110145435797</v>
+        <v>14.5236199595016</v>
       </c>
       <c r="F13">
-        <v>4.10156274989363</v>
+        <v>4.03518408177685</v>
       </c>
       <c r="G13">
-        <v>5.85647559870536</v>
+        <v>5.21694073422047</v>
       </c>
       <c r="H13">
-        <v>1.06408740121569</v>
+        <v>1.12769921473279</v>
       </c>
       <c r="I13">
-        <v>1.2431966439872</v>
+        <v>1.4807634929727</v>
       </c>
       <c r="J13">
-        <v>5.20410472692325</v>
+        <v>4.78833538107273</v>
       </c>
       <c r="K13">
-        <v>3.56011215244713</v>
+        <v>2.98344517972174</v>
       </c>
       <c r="L13">
-        <v>22.1910961217884</v>
+        <v>20.5725201546575</v>
       </c>
       <c r="M13">
-        <v>1.42711412933031</v>
+        <v>1.75821254060907</v>
       </c>
       <c r="N13">
-        <v>6.47553896081183</v>
+        <v>5.62197867333437</v>
       </c>
       <c r="O13">
-        <v>435.661586175244</v>
+        <v>438.735736419376</v>
       </c>
       <c r="P13">
-        <v>46.1771170887305</v>
+        <v>44.9239435975494</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3320.40476379927</v>
+        <v>3336.94109158921</v>
       </c>
       <c r="C14">
-        <v>112.639949925851</v>
+        <v>115.587287920295</v>
       </c>
       <c r="D14">
-        <v>12.8386095801154</v>
+        <v>16.7976879657813</v>
       </c>
       <c r="E14">
-        <v>80.95658928444151</v>
+        <v>89.7291909847885</v>
       </c>
       <c r="F14">
-        <v>23.8460215908983</v>
+        <v>25.0503784361191</v>
       </c>
       <c r="G14">
-        <v>88.7213144404739</v>
+        <v>83.96274271963731</v>
       </c>
       <c r="H14">
-        <v>54.4301966505558</v>
+        <v>57.3701099114176</v>
       </c>
       <c r="I14">
-        <v>25.8018411625429</v>
+        <v>27.8601277489345</v>
       </c>
       <c r="J14">
-        <v>156.364975964348</v>
+        <v>160.781863320959</v>
       </c>
       <c r="K14">
-        <v>154.729189230165</v>
+        <v>143.975536029566</v>
       </c>
       <c r="L14">
-        <v>138.981701738395</v>
+        <v>131.564536307025</v>
       </c>
       <c r="M14">
-        <v>87.49548883724459</v>
+        <v>84.49354218139911</v>
       </c>
       <c r="N14">
-        <v>87.1972265629563</v>
+        <v>84.5343438410319</v>
       </c>
       <c r="O14">
-        <v>4263.94782078447</v>
+        <v>4241.74550092513</v>
       </c>
       <c r="P14">
-        <v>75.98084878490261</v>
+        <v>71.913630354497</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1559.70433904872</v>
+        <v>1548.56802159224</v>
       </c>
       <c r="C15">
-        <v>32.2163144930229</v>
+        <v>30.7430415539389</v>
       </c>
       <c r="D15">
-        <v>11.4148818449217</v>
+        <v>11.1775713639151</v>
       </c>
       <c r="E15">
-        <v>63.8637205692036</v>
+        <v>68.8369697167133</v>
       </c>
       <c r="F15">
-        <v>15.8084880869258</v>
+        <v>14.6707909557734</v>
       </c>
       <c r="G15">
-        <v>30.5405657549183</v>
+        <v>37.762564874573</v>
       </c>
       <c r="H15">
-        <v>58.2588876064191</v>
+        <v>49.3288685138732</v>
       </c>
       <c r="I15">
-        <v>21.8299937349864</v>
+        <v>24.470892165747</v>
       </c>
       <c r="J15">
-        <v>143.287671870542</v>
+        <v>147.823667199594</v>
       </c>
       <c r="K15">
-        <v>69.77835454245729</v>
+        <v>56.2457762359984</v>
       </c>
       <c r="L15">
-        <v>44.5892315230372</v>
+        <v>45.6163322986905</v>
       </c>
       <c r="M15">
-        <v>172.137094569902</v>
+        <v>186.185915555997</v>
       </c>
       <c r="N15">
-        <v>89.185572243604</v>
+        <v>83.63805826880871</v>
       </c>
       <c r="O15">
-        <v>1918.96011534864</v>
+        <v>1923.95564078123</v>
       </c>
       <c r="P15">
-        <v>42.8592027067814</v>
+        <v>43.4554112094281</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>684.691551532249</v>
+        <v>684.055433445597</v>
       </c>
       <c r="C16">
-        <v>57.276973713185</v>
+        <v>61.6077353981168</v>
       </c>
       <c r="D16">
-        <v>6.69244399817056</v>
+        <v>5.74609359639548</v>
       </c>
       <c r="E16">
-        <v>20.8640680288227</v>
+        <v>22.6719733827033</v>
       </c>
       <c r="F16">
-        <v>3.63128633409619</v>
+        <v>3.69115647024837</v>
       </c>
       <c r="G16">
-        <v>12.5119981710739</v>
+        <v>12.6825467030028</v>
       </c>
       <c r="H16">
-        <v>15.2432558028976</v>
+        <v>13.9643011498718</v>
       </c>
       <c r="I16">
-        <v>9.606934944964181</v>
+        <v>8.010458308988079</v>
       </c>
       <c r="J16">
-        <v>42.3140115164668</v>
+        <v>43.3731350138266</v>
       </c>
       <c r="K16">
-        <v>57.7270298852224</v>
+        <v>47.0157105587504</v>
       </c>
       <c r="L16">
-        <v>29.6843535442432</v>
+        <v>32.8388396549604</v>
       </c>
       <c r="M16">
-        <v>26.1889681376385</v>
+        <v>26.0841662173496</v>
       </c>
       <c r="N16">
-        <v>19.1740864041128</v>
+        <v>23.164598110845</v>
       </c>
       <c r="O16">
-        <v>992.359796539634</v>
+        <v>995.264298076907</v>
       </c>
       <c r="P16">
-        <v>77.6429099089288</v>
+        <v>77.21957989609651</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>640.886235008581</v>
+        <v>636.426690559671</v>
       </c>
       <c r="C17">
-        <v>25.2023887180935</v>
+        <v>24.6502249913955</v>
       </c>
       <c r="D17">
-        <v>3.51335142857915</v>
+        <v>3.5763118756255</v>
       </c>
       <c r="E17">
-        <v>16.9840724379353</v>
+        <v>17.4080482647755</v>
       </c>
       <c r="F17">
-        <v>12.2702413681568</v>
+        <v>12.1917521388688</v>
       </c>
       <c r="G17">
-        <v>6.50955995581545</v>
+        <v>7.07402010783371</v>
       </c>
       <c r="H17">
-        <v>7.53625537450061</v>
+        <v>8.212313489600961</v>
       </c>
       <c r="I17">
-        <v>6.0538570195591</v>
+        <v>6.27315445074135</v>
       </c>
       <c r="J17">
-        <v>15.4115518122753</v>
+        <v>17.7058748760976</v>
       </c>
       <c r="K17">
-        <v>16.5390859760132</v>
+        <v>14.3754948425832</v>
       </c>
       <c r="L17">
-        <v>7.79407373729682</v>
+        <v>10.6344408814134</v>
       </c>
       <c r="M17">
-        <v>65.5034134424434</v>
+        <v>65.93629524832861</v>
       </c>
       <c r="N17">
-        <v>9.7267061668931</v>
+        <v>14.9182393890667</v>
       </c>
       <c r="O17">
-        <v>969.326000336136</v>
+        <v>959.2088090902161</v>
       </c>
       <c r="P17">
-        <v>51.6964103632486</v>
+        <v>58.1281796161051</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1210.84433524052</v>
+        <v>1210.73638528608</v>
       </c>
       <c r="C18">
-        <v>31.2285830684856</v>
+        <v>31.0346140351777</v>
       </c>
       <c r="D18">
-        <v>12.8228750359404</v>
+        <v>13.2603054904186</v>
       </c>
       <c r="E18">
-        <v>38.7970872077952</v>
+        <v>41.5924980791092</v>
       </c>
       <c r="F18">
-        <v>28.7482783564105</v>
+        <v>29.0967090631306</v>
       </c>
       <c r="G18">
-        <v>24.4415558386362</v>
+        <v>23.9271442092702</v>
       </c>
       <c r="H18">
-        <v>17.2495652560492</v>
+        <v>19.3810715784737</v>
       </c>
       <c r="I18">
-        <v>5.82549878563912</v>
+        <v>7.4964134758446</v>
       </c>
       <c r="J18">
-        <v>44.5096364463654</v>
+        <v>42.3486329726837</v>
       </c>
       <c r="K18">
-        <v>30.5109749264606</v>
+        <v>28.5765098980022</v>
       </c>
       <c r="L18">
-        <v>25.906693477627</v>
+        <v>31.9952452322991</v>
       </c>
       <c r="M18">
-        <v>64.1011234297886</v>
+        <v>65.1806470468792</v>
       </c>
       <c r="N18">
-        <v>24.5244237741547</v>
+        <v>20.3445269908929</v>
       </c>
       <c r="O18">
-        <v>1268.57551063678</v>
+        <v>1271.45363278578</v>
       </c>
       <c r="P18">
-        <v>49.5781226678248</v>
+        <v>44.6261880306952</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1372.75521396155</v>
+        <v>1367.87712023372</v>
       </c>
       <c r="C19">
-        <v>20.7365511852404</v>
+        <v>24.0287199158786</v>
       </c>
       <c r="D19">
-        <v>16.8814189284971</v>
+        <v>11.3077264740493</v>
       </c>
       <c r="E19">
-        <v>31.6172553229549</v>
+        <v>35.4544768489162</v>
       </c>
       <c r="F19">
-        <v>86.39324037531939</v>
+        <v>85.5146126121393</v>
       </c>
       <c r="G19">
-        <v>36.3331875609582</v>
+        <v>40.1465887811404</v>
       </c>
       <c r="H19">
-        <v>6.31972167686823</v>
+        <v>4.65763394052311</v>
       </c>
       <c r="I19">
-        <v>0.839179133098427</v>
+        <v>3.16998415791294</v>
       </c>
       <c r="J19">
-        <v>17.1709996334976</v>
+        <v>16.3938153907198</v>
       </c>
       <c r="K19">
-        <v>14.5934001499072</v>
+        <v>13.0864371902809</v>
       </c>
       <c r="L19">
-        <v>5.70864495309881</v>
+        <v>3.80893882254544</v>
       </c>
       <c r="M19">
-        <v>26.0595100255992</v>
+        <v>27.7780278950839</v>
       </c>
       <c r="N19">
-        <v>12.9323334992081</v>
+        <v>9.37238333733054</v>
       </c>
       <c r="O19">
-        <v>1388.99126803652</v>
+        <v>1399.80498154075</v>
       </c>
       <c r="P19">
-        <v>34.8888991685093</v>
+        <v>34.317999134567</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>343.271525467033</v>
+        <v>345.845132262865</v>
       </c>
       <c r="C20">
-        <v>5.8174135795335</v>
+        <v>6.99443884421345</v>
       </c>
       <c r="D20">
-        <v>11.861093041453</v>
+        <v>12.4059606288672</v>
       </c>
       <c r="E20">
-        <v>33.178820042365</v>
+        <v>35.2923638427087</v>
       </c>
       <c r="F20">
-        <v>0.268604004404966</v>
+        <v>0.424896744687848</v>
       </c>
       <c r="G20">
-        <v>1.3679947884709</v>
+        <v>1.50598926716779</v>
       </c>
       <c r="H20">
-        <v>1.75121641938777</v>
+        <v>1.97085263319202</v>
       </c>
       <c r="I20">
-        <v>1.59408115003496</v>
+        <v>1.83058715388716</v>
       </c>
       <c r="J20">
-        <v>4.08430035234594</v>
+        <v>3.86297322758405</v>
       </c>
       <c r="K20">
-        <v>4.63975859989739</v>
+        <v>3.73013210818742</v>
       </c>
       <c r="L20">
-        <v>9.20594098597129</v>
+        <v>8.21736501548461</v>
       </c>
       <c r="M20">
-        <v>14.7680953055847</v>
+        <v>15.8901014649472</v>
       </c>
       <c r="N20">
-        <v>4.29286602589344</v>
+        <v>5.36668587891802</v>
       </c>
       <c r="O20">
-        <v>469.405476881837</v>
+        <v>463.392815376188</v>
       </c>
       <c r="P20">
-        <v>23.7558228906094</v>
+        <v>22.1719891134858</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1375.7892973502</v>
+        <v>1362.72124767031</v>
       </c>
       <c r="C21">
-        <v>22.9832046149218</v>
+        <v>24.2665167221312</v>
       </c>
       <c r="D21">
-        <v>9.922252827489899</v>
+        <v>7.51316321580667</v>
       </c>
       <c r="E21">
-        <v>27.9204840851482</v>
+        <v>26.162913258587</v>
       </c>
       <c r="F21">
-        <v>5.43222679016658</v>
+        <v>5.42034688036361</v>
       </c>
       <c r="G21">
-        <v>21.7466961196402</v>
+        <v>22.3631186740591</v>
       </c>
       <c r="H21">
-        <v>5.34496233739235</v>
+        <v>4.38702687820141</v>
       </c>
       <c r="I21">
-        <v>4.61246502501982</v>
+        <v>4.59311761555849</v>
       </c>
       <c r="J21">
-        <v>29.2987191127231</v>
+        <v>30.9323774750936</v>
       </c>
       <c r="K21">
-        <v>6.91903558875792</v>
+        <v>5.15845107726551</v>
       </c>
       <c r="L21">
-        <v>20.4472324470881</v>
+        <v>30.6145790324814</v>
       </c>
       <c r="M21">
-        <v>34.3865151383631</v>
+        <v>31.7487076052742</v>
       </c>
       <c r="N21">
-        <v>31.0264820609223</v>
+        <v>25.6322536075197</v>
       </c>
       <c r="O21">
-        <v>2112.79770715457</v>
+        <v>2119.70390894045</v>
       </c>
       <c r="P21">
-        <v>17.8354129757424</v>
+        <v>18.6880341536603</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1651.73577072879</v>
+        <v>1655.97630844275</v>
       </c>
       <c r="C22">
-        <v>13.2590478744805</v>
+        <v>15.3606394152233</v>
       </c>
       <c r="D22">
-        <v>23.9292546532648</v>
+        <v>23.7398518472869</v>
       </c>
       <c r="E22">
-        <v>39.1370344686211</v>
+        <v>43.4230677100061</v>
       </c>
       <c r="F22">
-        <v>1.91483866810676</v>
+        <v>2.44324428729623</v>
       </c>
       <c r="G22">
-        <v>28.4583249960536</v>
+        <v>26.5214283226244</v>
       </c>
       <c r="H22">
-        <v>23.1975416465028</v>
+        <v>19.2592044570706</v>
       </c>
       <c r="I22">
-        <v>9.986563981015101</v>
+        <v>9.13506501504585</v>
       </c>
       <c r="J22">
-        <v>48.7647980779675</v>
+        <v>46.4607445231587</v>
       </c>
       <c r="K22">
-        <v>28.7956336311808</v>
+        <v>26.4644582674975</v>
       </c>
       <c r="L22">
-        <v>109.500282307146</v>
+        <v>117.266496919622</v>
       </c>
       <c r="M22">
-        <v>16.0085392758416</v>
+        <v>18.612292154359</v>
       </c>
       <c r="N22">
-        <v>65.0163891143646</v>
+        <v>65.7525038626094</v>
       </c>
       <c r="O22">
-        <v>2428.16142351583</v>
+        <v>2415.18876114718</v>
       </c>
       <c r="P22">
-        <v>15.6081063961755</v>
+        <v>14.0957338528399</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2705.91275703989</v>
+        <v>2699.75051473091</v>
       </c>
       <c r="C23">
-        <v>39.8807583614129</v>
+        <v>42.6224471977462</v>
       </c>
       <c r="D23">
-        <v>12.3894429634084</v>
+        <v>11.2980202687846</v>
       </c>
       <c r="E23">
-        <v>48.9887064164791</v>
+        <v>55.6831004661467</v>
       </c>
       <c r="F23">
-        <v>6.33491450606079</v>
+        <v>8.32774468769235</v>
       </c>
       <c r="G23">
-        <v>49.6248199779977</v>
+        <v>51.1123984053417</v>
       </c>
       <c r="H23">
-        <v>67.71066230714921</v>
+        <v>61.3812481876448</v>
       </c>
       <c r="I23">
-        <v>13.6279370593114</v>
+        <v>13.5424617660849</v>
       </c>
       <c r="J23">
-        <v>133.48700525643</v>
+        <v>134.003810645346</v>
       </c>
       <c r="K23">
-        <v>111.365095355335</v>
+        <v>107.14414686307</v>
       </c>
       <c r="L23">
-        <v>46.2701731854093</v>
+        <v>42.6482535021659</v>
       </c>
       <c r="M23">
-        <v>485.516164819075</v>
+        <v>504.064047585192</v>
       </c>
       <c r="N23">
-        <v>79.5424112169743</v>
+        <v>77.44899547883389</v>
       </c>
       <c r="O23">
-        <v>3132.61131188728</v>
+        <v>3121.19778266606</v>
       </c>
       <c r="P23">
-        <v>55.5682140542323</v>
+        <v>57.9497054283044</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1084.50344638907</v>
+        <v>1070.35322342964</v>
       </c>
       <c r="C24">
-        <v>61.8426306007156</v>
+        <v>62.7535693844671</v>
       </c>
       <c r="D24">
-        <v>7.7310603813825</v>
+        <v>8.125923153228589</v>
       </c>
       <c r="E24">
-        <v>56.197591781156</v>
+        <v>57.6231759454664</v>
       </c>
       <c r="F24">
-        <v>11.8688643912274</v>
+        <v>10.2874581912018</v>
       </c>
       <c r="G24">
-        <v>28.1371052828203</v>
+        <v>23.6998063085054</v>
       </c>
       <c r="H24">
-        <v>14.6037027202563</v>
+        <v>18.5354391096738</v>
       </c>
       <c r="I24">
-        <v>15.3606588660939</v>
+        <v>16.7303278137381</v>
       </c>
       <c r="J24">
-        <v>43.9446467159602</v>
+        <v>47.5820324054974</v>
       </c>
       <c r="K24">
-        <v>62.3172432953769</v>
+        <v>57.9838087510083</v>
       </c>
       <c r="L24">
-        <v>59.8539728779764</v>
+        <v>66.81883235559511</v>
       </c>
       <c r="M24">
-        <v>30.9680054905723</v>
+        <v>31.4007953059079</v>
       </c>
       <c r="N24">
-        <v>60.5625111246842</v>
+        <v>62.6565850744966</v>
       </c>
       <c r="O24">
-        <v>1816.44469342866</v>
+        <v>1819.71833128902</v>
       </c>
       <c r="P24">
-        <v>108.151723627483</v>
+        <v>106.377523293798</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>858.412073610707</v>
+        <v>863.408512722737</v>
       </c>
       <c r="C25">
-        <v>35.4533087958428</v>
+        <v>33.2638484842139</v>
       </c>
       <c r="D25">
-        <v>17.5334769102633</v>
+        <v>16.749443930792</v>
       </c>
       <c r="E25">
-        <v>36.7565147970684</v>
+        <v>38.3592935608846</v>
       </c>
       <c r="F25">
-        <v>14.5115383451892</v>
+        <v>14.6946037102498</v>
       </c>
       <c r="G25">
-        <v>4.41755974469636</v>
+        <v>6.66715211536683</v>
       </c>
       <c r="H25">
-        <v>18.8250444945997</v>
+        <v>15.6402328154035</v>
       </c>
       <c r="I25">
-        <v>6.64949648823967</v>
+        <v>5.24287855516846</v>
       </c>
       <c r="J25">
-        <v>16.9147220028377</v>
+        <v>15.9539697771269</v>
       </c>
       <c r="K25">
-        <v>15.7707195381912</v>
+        <v>15.3206109917358</v>
       </c>
       <c r="L25">
-        <v>21.4669406496557</v>
+        <v>20.1771322615605</v>
       </c>
       <c r="M25">
-        <v>28.1891590463916</v>
+        <v>28.3333598918945</v>
       </c>
       <c r="N25">
-        <v>49.3006798736104</v>
+        <v>44.1978414438066</v>
       </c>
       <c r="O25">
-        <v>777.55142962405</v>
+        <v>787.5906070077031</v>
       </c>
       <c r="P25">
-        <v>37.8404429893566</v>
+        <v>37.6468698770286</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1422.77357549311</v>
+        <v>1446.93369996319</v>
       </c>
       <c r="C26">
-        <v>58.3938913849882</v>
+        <v>64.8008334586914</v>
       </c>
       <c r="D26">
-        <v>21.3788805470658</v>
+        <v>19.1775571223275</v>
       </c>
       <c r="E26">
-        <v>38.0619179067914</v>
+        <v>47.9991032294375</v>
       </c>
       <c r="F26">
-        <v>11.3217224008578</v>
+        <v>11.8974390169811</v>
       </c>
       <c r="G26">
-        <v>27.5215006752962</v>
+        <v>25.8095405657729</v>
       </c>
       <c r="H26">
-        <v>21.8110588101314</v>
+        <v>19.1523075180078</v>
       </c>
       <c r="I26">
-        <v>14.2844769699117</v>
+        <v>15.7210593555178</v>
       </c>
       <c r="J26">
-        <v>65.83878862179761</v>
+        <v>54.9945170363782</v>
       </c>
       <c r="K26">
-        <v>43.9553918209417</v>
+        <v>35.464503430269</v>
       </c>
       <c r="L26">
-        <v>39.3916041832881</v>
+        <v>40.4681785660765</v>
       </c>
       <c r="M26">
-        <v>76.0223474799465</v>
+        <v>75.9708253651921</v>
       </c>
       <c r="N26">
-        <v>39.0268883093334</v>
+        <v>33.4693818500669</v>
       </c>
       <c r="O26">
-        <v>1993.81987759405</v>
+        <v>1978.91123632949</v>
       </c>
       <c r="P26">
-        <v>73.57874493386851</v>
+        <v>74.77099250485961</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>245.306007807917</v>
+        <v>244.350611012176</v>
       </c>
       <c r="C27">
-        <v>2.94024008893652</v>
+        <v>2.40063173002201</v>
       </c>
       <c r="D27">
-        <v>1.12058065120287</v>
+        <v>0.841265472071587</v>
       </c>
       <c r="E27">
-        <v>9.07821745626412</v>
+        <v>9.700609458464401</v>
       </c>
       <c r="F27">
-        <v>6.0274206220384</v>
+        <v>6.16995050736465</v>
       </c>
       <c r="G27">
-        <v>0.895001297049519</v>
+        <v>0.74764421157241</v>
       </c>
       <c r="H27">
-        <v>0.216206645367287</v>
+        <v>0.129774750966262</v>
       </c>
       <c r="I27">
-        <v>2.59257224979322</v>
+        <v>1.9772370402461</v>
       </c>
       <c r="J27">
-        <v>2.66701559441144</v>
+        <v>3.91601685440988</v>
       </c>
       <c r="K27">
-        <v>1.84866202599389</v>
+        <v>1.26925111069377</v>
       </c>
       <c r="L27">
-        <v>0.8114856025912121</v>
+        <v>1.22577213720303</v>
       </c>
       <c r="M27">
-        <v>0.728355110553489</v>
+        <v>0.624607691609182</v>
       </c>
       <c r="N27">
-        <v>3.83706923795577</v>
+        <v>3.67348348385682</v>
       </c>
       <c r="O27">
-        <v>324.846617432431</v>
+        <v>322.333102535414</v>
       </c>
       <c r="P27">
-        <v>40.6907167448768</v>
+        <v>40.4426046798316</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>377.129364409416</v>
+        <v>381.677889613677</v>
       </c>
       <c r="C28">
-        <v>30.4312735908584</v>
+        <v>31.0748202667062</v>
       </c>
       <c r="D28">
-        <v>3.24924275904913</v>
+        <v>2.83200480412913</v>
       </c>
       <c r="E28">
-        <v>7.16174278969113</v>
+        <v>6.09593202692451</v>
       </c>
       <c r="F28">
-        <v>1.91098707085218</v>
+        <v>2.15345847878748</v>
       </c>
       <c r="G28">
-        <v>3.2670980183223</v>
+        <v>3.75517426653378</v>
       </c>
       <c r="H28">
-        <v>7.38190286751183</v>
+        <v>7.7138929548771</v>
       </c>
       <c r="I28">
-        <v>2.39490764813909</v>
+        <v>3.25678489681011</v>
       </c>
       <c r="J28">
-        <v>14.9258856563735</v>
+        <v>16.2177032967871</v>
       </c>
       <c r="K28">
-        <v>15.5992650389628</v>
+        <v>13.4777902009166</v>
       </c>
       <c r="L28">
-        <v>15.4406497867632</v>
+        <v>14.9771219044786</v>
       </c>
       <c r="M28">
-        <v>6.87150223071438</v>
+        <v>8.633555411531781</v>
       </c>
       <c r="N28">
-        <v>9.95481234980757</v>
+        <v>8.508589211094471</v>
       </c>
       <c r="O28">
-        <v>608.959592468395</v>
+        <v>612.363299138569</v>
       </c>
       <c r="P28">
-        <v>88.0675878097573</v>
+        <v>85.71266642020601</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>544.971737283219</v>
+        <v>551.859051869056</v>
       </c>
       <c r="C29">
-        <v>1.73522638163568</v>
+        <v>3.49445430012759</v>
       </c>
       <c r="D29">
-        <v>2.44208215445722</v>
+        <v>1.80285191883343</v>
       </c>
       <c r="E29">
-        <v>3.01730654291928</v>
+        <v>2.91495203871856</v>
       </c>
       <c r="F29">
-        <v>19.3985267046332</v>
+        <v>18.8510050913354</v>
       </c>
       <c r="G29">
-        <v>2.60405848830557</v>
+        <v>3.09000832473836</v>
       </c>
       <c r="H29">
-        <v>2.41266902047565</v>
+        <v>2.14173088242804</v>
       </c>
       <c r="I29">
-        <v>2.64955230975788</v>
+        <v>2.60611207193815</v>
       </c>
       <c r="J29">
-        <v>7.0665736576735</v>
+        <v>5.39744586483895</v>
       </c>
       <c r="K29">
-        <v>3.42872977271662</v>
+        <v>3.11625411004778</v>
       </c>
       <c r="L29">
-        <v>3.63781084979723</v>
+        <v>3.12756991594287</v>
       </c>
       <c r="M29">
-        <v>2.23592885441136</v>
+        <v>1.6806866407511</v>
       </c>
       <c r="N29">
-        <v>8.83703016151196</v>
+        <v>8.38590956941492</v>
       </c>
       <c r="O29">
-        <v>827.832272262726</v>
+        <v>824.2771054859881</v>
       </c>
       <c r="P29">
-        <v>5.71754900532704</v>
+        <v>5.31294752960458</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>268.894621580904</v>
+        <v>269.180408956059</v>
       </c>
       <c r="C30">
-        <v>3.12502466242711</v>
+        <v>3.58178913150066</v>
       </c>
       <c r="D30">
-        <v>6.61374803967858</v>
+        <v>5.51976562190778</v>
       </c>
       <c r="E30">
-        <v>12.7020647572017</v>
+        <v>15.1756293303747</v>
       </c>
       <c r="F30">
-        <v>1.17862225534486</v>
+        <v>0.689484402988466</v>
       </c>
       <c r="G30">
-        <v>3.44437874962095</v>
+        <v>3.56700141549696</v>
       </c>
       <c r="H30">
-        <v>5.21392059877117</v>
+        <v>5.00952780008053</v>
       </c>
       <c r="I30">
-        <v>2.4460745211988</v>
+        <v>2.67689808750088</v>
       </c>
       <c r="J30">
-        <v>18.2392084737037</v>
+        <v>17.8394183163058</v>
       </c>
       <c r="K30">
-        <v>11.6943560906575</v>
+        <v>9.685059005604829</v>
       </c>
       <c r="L30">
-        <v>32.2921488534683</v>
+        <v>34.0683425809773</v>
       </c>
       <c r="M30">
-        <v>9.11136166471025</v>
+        <v>10.2263167483771</v>
       </c>
       <c r="N30">
-        <v>12.6911657423411</v>
+        <v>12.9242412583307</v>
       </c>
       <c r="O30">
-        <v>480.826733284392</v>
+        <v>479.167120877541</v>
       </c>
       <c r="P30">
-        <v>7.0106300359707</v>
+        <v>7.76064092908295</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2348.0852028016</v>
+        <v>2351.89080250917</v>
       </c>
       <c r="C31">
-        <v>44.929666479564</v>
+        <v>45.7652485506615</v>
       </c>
       <c r="D31">
-        <v>48.3966642432145</v>
+        <v>39.9742174944117</v>
       </c>
       <c r="E31">
-        <v>46.4423101283706</v>
+        <v>45.6796041924022</v>
       </c>
       <c r="F31">
-        <v>11.0260975925875</v>
+        <v>7.53892453735795</v>
       </c>
       <c r="G31">
-        <v>115.216866823735</v>
+        <v>115.857885141936</v>
       </c>
       <c r="H31">
-        <v>18.9088847353937</v>
+        <v>18.7812181000607</v>
       </c>
       <c r="I31">
-        <v>20.0077817462773</v>
+        <v>20.6796808080215</v>
       </c>
       <c r="J31">
-        <v>35.7855182293513</v>
+        <v>35.334010443284</v>
       </c>
       <c r="K31">
-        <v>25.5685095744146</v>
+        <v>24.3938005101936</v>
       </c>
       <c r="L31">
-        <v>69.3413465050766</v>
+        <v>65.93809631241101</v>
       </c>
       <c r="M31">
-        <v>21.0172441627288</v>
+        <v>23.1508679482081</v>
       </c>
       <c r="N31">
-        <v>50.5968593037306</v>
+        <v>47.4000201060656</v>
       </c>
       <c r="O31">
-        <v>3126.27838790866</v>
+        <v>3130.45846300701</v>
       </c>
       <c r="P31">
-        <v>5.11581613683216</v>
+        <v>10.3924824084035</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>538.483797432023</v>
+        <v>544.514246738809</v>
       </c>
       <c r="C32">
-        <v>5.79455045361254</v>
+        <v>5.41659640654816</v>
       </c>
       <c r="D32">
-        <v>1.03067343371502</v>
+        <v>1.04445191126641</v>
       </c>
       <c r="E32">
-        <v>5.14919438492509</v>
+        <v>3.48751348545873</v>
       </c>
       <c r="F32">
-        <v>19.287358545149</v>
+        <v>20.1576901147527</v>
       </c>
       <c r="G32">
-        <v>1.69016291995807</v>
+        <v>1.10201144266664</v>
       </c>
       <c r="H32">
-        <v>2.41047662428701</v>
+        <v>1.90194746354256</v>
       </c>
       <c r="I32">
-        <v>4.03488422707781</v>
+        <v>3.04799470150879</v>
       </c>
       <c r="J32">
-        <v>4.89000794551787</v>
+        <v>4.04880691666713</v>
       </c>
       <c r="K32">
-        <v>1.81104087057589</v>
+        <v>1.92041247924294</v>
       </c>
       <c r="L32">
-        <v>13.7807486177247</v>
+        <v>14.032315507349</v>
       </c>
       <c r="M32">
-        <v>2.21430331200828</v>
+        <v>2.34939606051545</v>
       </c>
       <c r="N32">
-        <v>6.05992573378344</v>
+        <v>8.43050834006328</v>
       </c>
       <c r="O32">
-        <v>627.51075574075</v>
+        <v>620.972569090658</v>
       </c>
       <c r="P32">
-        <v>20.9312215528391</v>
+        <v>25.2714838233945</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5697.29909485203</v>
+        <v>5685.90410558422</v>
       </c>
       <c r="C33">
-        <v>79.2847757885919</v>
+        <v>84.44735999372981</v>
       </c>
       <c r="D33">
-        <v>82.6514571431067</v>
+        <v>71.34668937710521</v>
       </c>
       <c r="E33">
-        <v>71.2913422038766</v>
+        <v>88.0557117652135</v>
       </c>
       <c r="F33">
-        <v>8.814144872386651</v>
+        <v>7.60285747253189</v>
       </c>
       <c r="G33">
-        <v>70.0653359372004</v>
+        <v>74.647391519431</v>
       </c>
       <c r="H33">
-        <v>30.5404292949801</v>
+        <v>31.7665850648188</v>
       </c>
       <c r="I33">
-        <v>36.5785885552674</v>
+        <v>32.3972055204761</v>
       </c>
       <c r="J33">
-        <v>96.2619658743848</v>
+        <v>95.3063063263242</v>
       </c>
       <c r="K33">
-        <v>105.80132979885</v>
+        <v>101.655230029784</v>
       </c>
       <c r="L33">
-        <v>132.117210180221</v>
+        <v>133.674468875922</v>
       </c>
       <c r="M33">
-        <v>66.5021760945189</v>
+        <v>70.8984747158769</v>
       </c>
       <c r="N33">
-        <v>130.014343124818</v>
+        <v>130.278039409115</v>
       </c>
       <c r="O33">
-        <v>6687.06451242488</v>
+        <v>6675.18802529234</v>
       </c>
       <c r="P33">
-        <v>80.7574477888006</v>
+        <v>84.0055073858049</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2212.54896596683</v>
+        <v>2181.71733088735</v>
       </c>
       <c r="C34">
-        <v>62.8157318900143</v>
+        <v>67.9592729444247</v>
       </c>
       <c r="D34">
-        <v>183.080453717139</v>
+        <v>182.875482117041</v>
       </c>
       <c r="E34">
-        <v>52.3831896097634</v>
+        <v>57.853031130217</v>
       </c>
       <c r="F34">
-        <v>8.58664278511478</v>
+        <v>7.93961225134434</v>
       </c>
       <c r="G34">
-        <v>46.4977853577894</v>
+        <v>48.9262285244463</v>
       </c>
       <c r="H34">
-        <v>42.1367998291548</v>
+        <v>40.5754201704381</v>
       </c>
       <c r="I34">
-        <v>14.9422504085033</v>
+        <v>16.9948675232001</v>
       </c>
       <c r="J34">
-        <v>56.3633212265668</v>
+        <v>57.2019022411103</v>
       </c>
       <c r="K34">
-        <v>52.1666467460291</v>
+        <v>53.8452325662444</v>
       </c>
       <c r="L34">
-        <v>89.7839968440051</v>
+        <v>99.0892698679168</v>
       </c>
       <c r="M34">
-        <v>47.3572762661875</v>
+        <v>45.5680688714262</v>
       </c>
       <c r="N34">
-        <v>117.873506620582</v>
+        <v>117.051111681738</v>
       </c>
       <c r="O34">
-        <v>2673.36747726795</v>
+        <v>2661.70090723122</v>
       </c>
       <c r="P34">
-        <v>56.9099306194371</v>
+        <v>60.1483451481854</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>154.357325291558</v>
+        <v>155.757586182864</v>
       </c>
       <c r="C35">
-        <v>6.67241957387882</v>
+        <v>6.66047303363247</v>
       </c>
       <c r="D35">
-        <v>0.5404731719145101</v>
+        <v>0.438640604196477</v>
       </c>
       <c r="E35">
-        <v>2.51645060679192</v>
+        <v>2.48225672255481</v>
       </c>
       <c r="F35">
-        <v>4.806153674699</v>
+        <v>4.67886188336664</v>
       </c>
       <c r="G35">
-        <v>0.584854775398614</v>
+        <v>0.43176461145148</v>
       </c>
       <c r="H35">
-        <v>0.327500905485771</v>
+        <v>0.277899993801002</v>
       </c>
       <c r="I35">
-        <v>0.623269024104425</v>
+        <v>1.23239234843094</v>
       </c>
       <c r="J35">
-        <v>2.1269302727858</v>
+        <v>2.05679327029949</v>
       </c>
       <c r="K35">
-        <v>6.18656447074832</v>
+        <v>5.58824933813099</v>
       </c>
       <c r="L35">
-        <v>1.79017230299212</v>
+        <v>1.96539176082729</v>
       </c>
       <c r="M35">
-        <v>2.26032937661362</v>
+        <v>2.23611086783461</v>
       </c>
       <c r="N35">
-        <v>2.17152917067525</v>
+        <v>1.99915660129899</v>
       </c>
       <c r="O35">
-        <v>224.228636526444</v>
+        <v>222.799276813697</v>
       </c>
       <c r="P35">
-        <v>38.979007423409</v>
+        <v>39.1653950014505</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3043.64392507735</v>
+        <v>3064.73707853313</v>
       </c>
       <c r="C36">
-        <v>57.4629776324436</v>
+        <v>60.1814686368431</v>
       </c>
       <c r="D36">
-        <v>14.311009009079</v>
+        <v>14.6763681247988</v>
       </c>
       <c r="E36">
-        <v>78.2417764303752</v>
+        <v>98.00438451268811</v>
       </c>
       <c r="F36">
-        <v>25.3170704902191</v>
+        <v>26.0580906687946</v>
       </c>
       <c r="G36">
-        <v>84.4555748786721</v>
+        <v>85.5191417945493</v>
       </c>
       <c r="H36">
-        <v>109.069920811815</v>
+        <v>109.319621466382</v>
       </c>
       <c r="I36">
-        <v>43.0722754889952</v>
+        <v>50.0320326894171</v>
       </c>
       <c r="J36">
-        <v>227.017430078659</v>
+        <v>223.588154328755</v>
       </c>
       <c r="K36">
-        <v>130.538687896426</v>
+        <v>130.37216542331</v>
       </c>
       <c r="L36">
-        <v>81.1078829665958</v>
+        <v>91.8180923753161</v>
       </c>
       <c r="M36">
-        <v>218.364748960741</v>
+        <v>226.413355200553</v>
       </c>
       <c r="N36">
-        <v>85.9611282203431</v>
+        <v>83.2155798760147</v>
       </c>
       <c r="O36">
-        <v>3760.00196856376</v>
+        <v>3719.74790334582</v>
       </c>
       <c r="P36">
-        <v>58.2165785725288</v>
+        <v>46.7613584819014</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>982.446894952294</v>
+        <v>983.250738634299</v>
       </c>
       <c r="C37">
-        <v>25.737937847931</v>
+        <v>26.2925321111366</v>
       </c>
       <c r="D37">
-        <v>6.85170979853031</v>
+        <v>6.69609971851659</v>
       </c>
       <c r="E37">
-        <v>18.0065572058986</v>
+        <v>19.3960418743003</v>
       </c>
       <c r="F37">
-        <v>35.6303246035732</v>
+        <v>37.7693604220287</v>
       </c>
       <c r="G37">
-        <v>8.443836740622849</v>
+        <v>7.20486426748757</v>
       </c>
       <c r="H37">
-        <v>23.4359507745938</v>
+        <v>20.8151054048243</v>
       </c>
       <c r="I37">
-        <v>14.4831496106438</v>
+        <v>12.1481349999845</v>
       </c>
       <c r="J37">
-        <v>34.4845304802182</v>
+        <v>35.8177366011735</v>
       </c>
       <c r="K37">
-        <v>29.463696251362</v>
+        <v>30.3779081242543</v>
       </c>
       <c r="L37">
-        <v>18.4740220089474</v>
+        <v>18.9555125157306</v>
       </c>
       <c r="M37">
-        <v>32.9601168729256</v>
+        <v>31.646393345084</v>
       </c>
       <c r="N37">
-        <v>15.6703671504702</v>
+        <v>17.5064394019862</v>
       </c>
       <c r="O37">
-        <v>1116.00186419089</v>
+        <v>1112.89675555417</v>
       </c>
       <c r="P37">
-        <v>47.4794795694894</v>
+        <v>47.4984993013304</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>951.8820387826451</v>
+        <v>963.102701591499</v>
       </c>
       <c r="C38">
-        <v>23.2297786753353</v>
+        <v>23.1547247083952</v>
       </c>
       <c r="D38">
-        <v>8.73069075885541</v>
+        <v>8.445201468998111</v>
       </c>
       <c r="E38">
-        <v>53.2389052642961</v>
+        <v>59.9662970020572</v>
       </c>
       <c r="F38">
-        <v>1.30231290916935</v>
+        <v>2.50959645235255</v>
       </c>
       <c r="G38">
-        <v>4.53007093579697</v>
+        <v>5.25297169357601</v>
       </c>
       <c r="H38">
-        <v>3.90267881135734</v>
+        <v>4.82921442424256</v>
       </c>
       <c r="I38">
-        <v>3.0933564738512</v>
+        <v>4.15798862974521</v>
       </c>
       <c r="J38">
-        <v>36.3427045079506</v>
+        <v>34.7211477472227</v>
       </c>
       <c r="K38">
-        <v>7.98735317671106</v>
+        <v>6.43341746525701</v>
       </c>
       <c r="L38">
-        <v>61.1550893902791</v>
+        <v>60.6396804713188</v>
       </c>
       <c r="M38">
-        <v>17.9912860803394</v>
+        <v>18.842646312718</v>
       </c>
       <c r="N38">
-        <v>29.9942987397557</v>
+        <v>26.5714335444836</v>
       </c>
       <c r="O38">
-        <v>1229.04521731295</v>
+        <v>1203.37886892809</v>
       </c>
       <c r="P38">
-        <v>65.9164294681819</v>
+        <v>63.4100021766213</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3551.88924046335</v>
+        <v>3571.82708247078</v>
       </c>
       <c r="C39">
-        <v>86.23460281115661</v>
+        <v>91.39858094827041</v>
       </c>
       <c r="D39">
-        <v>66.74258596520269</v>
+        <v>59.977011816736</v>
       </c>
       <c r="E39">
-        <v>124.970876815153</v>
+        <v>134.486331190532</v>
       </c>
       <c r="F39">
-        <v>32.945442560058</v>
+        <v>33.9208703658836</v>
       </c>
       <c r="G39">
-        <v>92.6408714388609</v>
+        <v>94.3426405408795</v>
       </c>
       <c r="H39">
-        <v>49.2835666948795</v>
+        <v>50.2483338358069</v>
       </c>
       <c r="I39">
-        <v>43.5140225773043</v>
+        <v>44.2505423640928</v>
       </c>
       <c r="J39">
-        <v>191.429458888193</v>
+        <v>181.884752689991</v>
       </c>
       <c r="K39">
-        <v>101.121596678645</v>
+        <v>93.0329452929867</v>
       </c>
       <c r="L39">
-        <v>101.020475543106</v>
+        <v>104.502074344358</v>
       </c>
       <c r="M39">
-        <v>64.79025216479811</v>
+        <v>62.0983039872013</v>
       </c>
       <c r="N39">
-        <v>95.6440781844799</v>
+        <v>101.097002635049</v>
       </c>
       <c r="O39">
-        <v>4087.42491569785</v>
+        <v>4076.64188782961</v>
       </c>
       <c r="P39">
-        <v>76.47666835439431</v>
+        <v>72.50852466639969</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>282.316122273058</v>
+        <v>283.408427090828</v>
       </c>
       <c r="C40">
-        <v>2.76024435236515</v>
+        <v>3.06240516107378</v>
       </c>
       <c r="D40">
-        <v>7.46059867514781</v>
+        <v>7.66777760003946</v>
       </c>
       <c r="E40">
-        <v>5.56840143347083</v>
+        <v>5.5303786616078</v>
       </c>
       <c r="F40">
-        <v>0.279929583713652</v>
+        <v>0.176979841203276</v>
       </c>
       <c r="G40">
-        <v>5.27233191126564</v>
+        <v>4.53926890693634</v>
       </c>
       <c r="H40">
-        <v>4.23222257000886</v>
+        <v>4.75661785432536</v>
       </c>
       <c r="I40">
-        <v>1.50067024836276</v>
+        <v>1.95432553286823</v>
       </c>
       <c r="J40">
-        <v>9.12036860038863</v>
+        <v>10.6711443516258</v>
       </c>
       <c r="K40">
-        <v>5.44422519185215</v>
+        <v>5.17836397889352</v>
       </c>
       <c r="L40">
-        <v>14.2046855067746</v>
+        <v>13.3868644905669</v>
       </c>
       <c r="M40">
-        <v>5.39710246853655</v>
+        <v>5.33866329687578</v>
       </c>
       <c r="N40">
-        <v>20.1098443430032</v>
+        <v>20.089913114458</v>
       </c>
       <c r="O40">
-        <v>382.768825012506</v>
+        <v>378.211128389953</v>
       </c>
       <c r="P40">
-        <v>3.17820949957802</v>
+        <v>2.47556483104026</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1163.65906925355</v>
+        <v>1150.662864276</v>
       </c>
       <c r="C41">
-        <v>15.9235987964599</v>
+        <v>15.8235561501561</v>
       </c>
       <c r="D41">
-        <v>91.3389103789726</v>
+        <v>96.62871244962361</v>
       </c>
       <c r="E41">
-        <v>38.9975780154939</v>
+        <v>36.197621148993</v>
       </c>
       <c r="F41">
-        <v>1.92595396458737</v>
+        <v>2.21727197786985</v>
       </c>
       <c r="G41">
-        <v>21.6770942421648</v>
+        <v>23.640080479312</v>
       </c>
       <c r="H41">
-        <v>30.6033107578288</v>
+        <v>32.7892318735254</v>
       </c>
       <c r="I41">
-        <v>11.8221546947091</v>
+        <v>12.5622535826511</v>
       </c>
       <c r="J41">
-        <v>47.0891245779007</v>
+        <v>42.9154878610435</v>
       </c>
       <c r="K41">
-        <v>27.4019200713524</v>
+        <v>24.340188572034</v>
       </c>
       <c r="L41">
-        <v>31.5753954585861</v>
+        <v>32.7811851349161</v>
       </c>
       <c r="M41">
-        <v>24.3448913946402</v>
+        <v>31.9834383519743</v>
       </c>
       <c r="N41">
-        <v>22.0710574065625</v>
+        <v>21.8344878040402</v>
       </c>
       <c r="O41">
-        <v>1265.15493324038</v>
+        <v>1270.64892759144</v>
       </c>
       <c r="P41">
-        <v>26.7599505740259</v>
+        <v>26.926164256218</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>167.612817199078</v>
+        <v>166.596547824814</v>
       </c>
       <c r="C42">
-        <v>5.51397527528676</v>
+        <v>6.31243271963113</v>
       </c>
       <c r="D42">
-        <v>1.28280997442849</v>
+        <v>1.36045837897246</v>
       </c>
       <c r="E42">
-        <v>4.76104381026665</v>
+        <v>5.03071126547847</v>
       </c>
       <c r="F42">
-        <v>2.47947882424919</v>
+        <v>1.87595812371739</v>
       </c>
       <c r="G42">
-        <v>1.54613080663326</v>
+        <v>1.21190050181972</v>
       </c>
       <c r="H42">
-        <v>0.258507102219008</v>
+        <v>0.635797743504093</v>
       </c>
       <c r="I42">
-        <v>0.904691550489468</v>
+        <v>0.957425543675499</v>
       </c>
       <c r="J42">
-        <v>3.54956082437391</v>
+        <v>3.23527643782807</v>
       </c>
       <c r="K42">
-        <v>5.47582307346971</v>
+        <v>4.83676727858126</v>
       </c>
       <c r="L42">
-        <v>7.29269010352547</v>
+        <v>7.28947073099665</v>
       </c>
       <c r="M42">
-        <v>2.47789807441946</v>
+        <v>3.07358457816356</v>
       </c>
       <c r="N42">
-        <v>6.46896704741803</v>
+        <v>6.74828934416647</v>
       </c>
       <c r="O42">
-        <v>256.546447834958</v>
+        <v>257.279683548074</v>
       </c>
       <c r="P42">
-        <v>44.8201363627735</v>
+        <v>45.3877132989081</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1632.21105282797</v>
+        <v>1613.39991289839</v>
       </c>
       <c r="C43">
-        <v>36.5433317615301</v>
+        <v>35.7417173726956</v>
       </c>
       <c r="D43">
-        <v>57.4975962504079</v>
+        <v>53.6481690639513</v>
       </c>
       <c r="E43">
-        <v>53.2750577952693</v>
+        <v>56.6660489740308</v>
       </c>
       <c r="F43">
-        <v>9.991067570330991</v>
+        <v>8.23536121256684</v>
       </c>
       <c r="G43">
-        <v>19.9463619478531</v>
+        <v>24.8239385862634</v>
       </c>
       <c r="H43">
-        <v>37.4115124522294</v>
+        <v>31.5686739514761</v>
       </c>
       <c r="I43">
-        <v>25.2465449379792</v>
+        <v>21.7813566442681</v>
       </c>
       <c r="J43">
-        <v>51.7695139020864</v>
+        <v>57.6412600613522</v>
       </c>
       <c r="K43">
-        <v>63.7199010523852</v>
+        <v>53.1739176053195</v>
       </c>
       <c r="L43">
-        <v>44.3176412907181</v>
+        <v>51.6063164521748</v>
       </c>
       <c r="M43">
-        <v>104.649830775369</v>
+        <v>109.790417759191</v>
       </c>
       <c r="N43">
-        <v>48.6657562191227</v>
+        <v>55.0410853426887</v>
       </c>
       <c r="O43">
-        <v>1865.55448425259</v>
+        <v>1866.50208287918</v>
       </c>
       <c r="P43">
-        <v>39.2015805687701</v>
+        <v>45.7808241289774</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5493.56208820683</v>
+        <v>5531.94355121007</v>
       </c>
       <c r="C44">
-        <v>108.694665545579</v>
+        <v>111.115043648723</v>
       </c>
       <c r="D44">
-        <v>48.7250208898721</v>
+        <v>45.1550716376988</v>
       </c>
       <c r="E44">
-        <v>89.36054857576291</v>
+        <v>93.7369250633694</v>
       </c>
       <c r="F44">
-        <v>206.005807332156</v>
+        <v>211.948380950747</v>
       </c>
       <c r="G44">
-        <v>125.988140403197</v>
+        <v>133.37498169215</v>
       </c>
       <c r="H44">
-        <v>48.3780367628001</v>
+        <v>49.0366665606348</v>
       </c>
       <c r="I44">
-        <v>38.8467608925832</v>
+        <v>42.2913061738993</v>
       </c>
       <c r="J44">
-        <v>140.767838148837</v>
+        <v>128.491214078932</v>
       </c>
       <c r="K44">
-        <v>86.9680887933058</v>
+        <v>81.40278461787609</v>
       </c>
       <c r="L44">
-        <v>203.259975716579</v>
+        <v>199.936540475945</v>
       </c>
       <c r="M44">
-        <v>113.543340224822</v>
+        <v>111.105974880411</v>
       </c>
       <c r="N44">
-        <v>89.9649818752635</v>
+        <v>93.3412130812453</v>
       </c>
       <c r="O44">
-        <v>7228.81176566885</v>
+        <v>7189.08234063399</v>
       </c>
       <c r="P44">
-        <v>199.805778131154</v>
+        <v>204.751250777794</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>496.773324356908</v>
+        <v>499.430404620859</v>
       </c>
       <c r="C45">
-        <v>14.8837441803535</v>
+        <v>17.104288018997</v>
       </c>
       <c r="D45">
-        <v>3.65639098411474</v>
+        <v>3.05423644992431</v>
       </c>
       <c r="E45">
-        <v>11.1733867537346</v>
+        <v>12.6820725729872</v>
       </c>
       <c r="F45">
-        <v>21.0301805014003</v>
+        <v>19.9055861732177</v>
       </c>
       <c r="G45">
-        <v>7.96582240443656</v>
+        <v>7.72470724351987</v>
       </c>
       <c r="H45">
-        <v>2.24749335565838</v>
+        <v>2.38979580555567</v>
       </c>
       <c r="I45">
-        <v>4.39765119054137</v>
+        <v>4.5662082480871</v>
       </c>
       <c r="J45">
-        <v>23.190268915183</v>
+        <v>21.6845027673508</v>
       </c>
       <c r="K45">
-        <v>7.26206352325134</v>
+        <v>6.39869609660534</v>
       </c>
       <c r="L45">
-        <v>16.7720779375472</v>
+        <v>16.4965082948984</v>
       </c>
       <c r="M45">
-        <v>20.0673775832512</v>
+        <v>20.713562319243</v>
       </c>
       <c r="N45">
-        <v>29.2054092465533</v>
+        <v>31.6278784726906</v>
       </c>
       <c r="O45">
-        <v>787.049410479677</v>
+        <v>782.738309088297</v>
       </c>
       <c r="P45">
-        <v>17.9351549902563</v>
+        <v>20.6717300536921</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>142.525237652527</v>
+        <v>139.137609760677</v>
       </c>
       <c r="C46">
-        <v>3.40699929583591</v>
+        <v>3.70043909576497</v>
       </c>
       <c r="D46">
-        <v>1.50328273336265</v>
+        <v>1.60887922248114</v>
       </c>
       <c r="E46">
-        <v>5.94061327227888</v>
+        <v>6.30317456944545</v>
       </c>
       <c r="F46">
-        <v>1.19096492384959</v>
+        <v>0.960607426365383</v>
       </c>
       <c r="G46">
-        <v>1.80616460003215</v>
+        <v>2.22683662093266</v>
       </c>
       <c r="H46">
-        <v>2.47070543055291</v>
+        <v>2.17914365381329</v>
       </c>
       <c r="I46">
-        <v>1.89864119628965</v>
+        <v>2.12116424621783</v>
       </c>
       <c r="J46">
-        <v>4.39624567202234</v>
+        <v>4.55738182943758</v>
       </c>
       <c r="K46">
-        <v>5.43231103989629</v>
+        <v>4.59671799813782</v>
       </c>
       <c r="L46">
-        <v>10.3634234029333</v>
+        <v>10.8955204934576</v>
       </c>
       <c r="M46">
-        <v>2.60944828797995</v>
+        <v>3.24740766832727</v>
       </c>
       <c r="N46">
-        <v>8.25004377412186</v>
+        <v>7.07652643451481</v>
       </c>
       <c r="O46">
-        <v>226.110360106193</v>
+        <v>230.83930501872</v>
       </c>
       <c r="P46">
-        <v>12.1317018193885</v>
+        <v>11.3740146061651</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1795.50306982487</v>
+        <v>1798.71331762354</v>
       </c>
       <c r="C47">
-        <v>49.1823348564201</v>
+        <v>53.794838669272</v>
       </c>
       <c r="D47">
-        <v>43.401005341804</v>
+        <v>37.8630399899292</v>
       </c>
       <c r="E47">
-        <v>60.9118726220521</v>
+        <v>59.0513158389563</v>
       </c>
       <c r="F47">
-        <v>9.624596082697771</v>
+        <v>10.4360958841306</v>
       </c>
       <c r="G47">
-        <v>26.2821734731674</v>
+        <v>28.5826986936984</v>
       </c>
       <c r="H47">
-        <v>15.7820723440901</v>
+        <v>15.8267665623239</v>
       </c>
       <c r="I47">
-        <v>10.3209465361985</v>
+        <v>9.591239580741281</v>
       </c>
       <c r="J47">
-        <v>39.4076574194346</v>
+        <v>40.8599451162624</v>
       </c>
       <c r="K47">
-        <v>18.8626173979233</v>
+        <v>17.059405875503</v>
       </c>
       <c r="L47">
-        <v>44.4816318528438</v>
+        <v>43.4038717690901</v>
       </c>
       <c r="M47">
-        <v>68.9283373086258</v>
+        <v>68.71718172876309</v>
       </c>
       <c r="N47">
-        <v>47.4186726661272</v>
+        <v>41.054574748146</v>
       </c>
       <c r="O47">
-        <v>2662.54711242095</v>
+        <v>2674.93164077628</v>
       </c>
       <c r="P47">
-        <v>23.3143268271044</v>
+        <v>31.1347857152696</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1605.14587328043</v>
+        <v>1590.78533450727</v>
       </c>
       <c r="C48">
-        <v>19.9865562621509</v>
+        <v>27.4767543420818</v>
       </c>
       <c r="D48">
-        <v>9.27309049037245</v>
+        <v>9.592954971279349</v>
       </c>
       <c r="E48">
-        <v>53.7856318944684</v>
+        <v>61.8238157025378</v>
       </c>
       <c r="F48">
-        <v>2.91951610919505</v>
+        <v>5.19313476001569</v>
       </c>
       <c r="G48">
-        <v>7.3513019014647</v>
+        <v>7.71609625705218</v>
       </c>
       <c r="H48">
-        <v>8.46936194816435</v>
+        <v>7.92779331274196</v>
       </c>
       <c r="I48">
-        <v>6.54051796201408</v>
+        <v>7.88903805718147</v>
       </c>
       <c r="J48">
-        <v>34.2328825413657</v>
+        <v>34.2175851109742</v>
       </c>
       <c r="K48">
-        <v>18.59887461897</v>
+        <v>18.5912679989818</v>
       </c>
       <c r="L48">
-        <v>42.5149426822994</v>
+        <v>41.745492689716</v>
       </c>
       <c r="M48">
-        <v>115.716971485264</v>
+        <v>118.362676725423</v>
       </c>
       <c r="N48">
-        <v>27.4602438351072</v>
+        <v>28.5075802084049</v>
       </c>
       <c r="O48">
-        <v>2124.56892628972</v>
+        <v>2117.77003648622</v>
       </c>
       <c r="P48">
-        <v>86.0161315944095</v>
+        <v>85.56375596179549</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>666.283640601955</v>
+        <v>667.949394258667</v>
       </c>
       <c r="C49">
-        <v>6.28875288707788</v>
+        <v>6.23460748293704</v>
       </c>
       <c r="D49">
-        <v>3.96665100541988</v>
+        <v>3.62936352790996</v>
       </c>
       <c r="E49">
-        <v>15.5826327901425</v>
+        <v>17.0175247496625</v>
       </c>
       <c r="F49">
-        <v>26.669081713155</v>
+        <v>26.1919780202586</v>
       </c>
       <c r="G49">
-        <v>16.2864857155114</v>
+        <v>16.3452174132592</v>
       </c>
       <c r="H49">
-        <v>5.04769970276539</v>
+        <v>5.7085013715981</v>
       </c>
       <c r="I49">
-        <v>7.57472155405013</v>
+        <v>6.58597376947334</v>
       </c>
       <c r="J49">
-        <v>19.0735014606169</v>
+        <v>19.5141688434478</v>
       </c>
       <c r="K49">
-        <v>6.97900672063968</v>
+        <v>6.08571433555556</v>
       </c>
       <c r="L49">
-        <v>2.06360090124532</v>
+        <v>1.7415308314446</v>
       </c>
       <c r="M49">
-        <v>6.05658315849813</v>
+        <v>5.94457590254465</v>
       </c>
       <c r="N49">
-        <v>5.57445255971331</v>
+        <v>4.74730725267234</v>
       </c>
       <c r="O49">
-        <v>538.698411841024</v>
+        <v>539.195843124499</v>
       </c>
       <c r="P49">
-        <v>7.07250109960221</v>
+        <v>8.26359412298304</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1268.52332403122</v>
+        <v>1261.70846744418</v>
       </c>
       <c r="C50">
-        <v>69.7260271743085</v>
+        <v>71.55102392556201</v>
       </c>
       <c r="D50">
-        <v>14.0244855445094</v>
+        <v>12.1417325205043</v>
       </c>
       <c r="E50">
-        <v>130.041067470542</v>
+        <v>136.482953441234</v>
       </c>
       <c r="F50">
-        <v>1.78275887459788</v>
+        <v>3.10204086185817</v>
       </c>
       <c r="G50">
-        <v>24.0598972805882</v>
+        <v>22.4936813712482</v>
       </c>
       <c r="H50">
-        <v>37.3131953203137</v>
+        <v>36.9987469930754</v>
       </c>
       <c r="I50">
-        <v>10.3602439814335</v>
+        <v>12.7923324933518</v>
       </c>
       <c r="J50">
-        <v>110.305270141687</v>
+        <v>109.423489207836</v>
       </c>
       <c r="K50">
-        <v>98.6871538717399</v>
+        <v>91.75600157847499</v>
       </c>
       <c r="L50">
-        <v>63.3451338629305</v>
+        <v>58.4427977940633</v>
       </c>
       <c r="M50">
-        <v>42.720245770425</v>
+        <v>47.1291230865745</v>
       </c>
       <c r="N50">
-        <v>54.192313695645</v>
+        <v>54.8852455755857</v>
       </c>
       <c r="O50">
-        <v>1787.33017464325</v>
+        <v>1788.63978082564</v>
       </c>
       <c r="P50">
-        <v>97.4000920631652</v>
+        <v>104.00023447706</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>118.670162514851</v>
+        <v>122.587049937546</v>
       </c>
       <c r="C51">
-        <v>1.55530262909487</v>
+        <v>1.88891529863756</v>
       </c>
       <c r="D51">
-        <v>0.202580599675241</v>
+        <v>0.181447439801806</v>
       </c>
       <c r="E51">
-        <v>1.52683313600506</v>
+        <v>2.36309110305853</v>
       </c>
       <c r="F51">
-        <v>22.2380886835213</v>
+        <v>21.1608564786521</v>
       </c>
       <c r="G51">
-        <v>2.48389669605303</v>
+        <v>2.09342059153815</v>
       </c>
       <c r="H51">
-        <v>0.0375785634913246</v>
+        <v>0.0350173610865087</v>
       </c>
       <c r="I51">
-        <v>0.740168849245251</v>
+        <v>0.568045780378001</v>
       </c>
       <c r="J51">
-        <v>1.39391857229938</v>
+        <v>1.56153519211073</v>
       </c>
       <c r="K51">
-        <v>0.7328633081024401</v>
+        <v>0.667020006775068</v>
       </c>
       <c r="L51">
-        <v>0.39951137652316</v>
+        <v>0.354072672107968</v>
       </c>
       <c r="M51">
-        <v>0.395499755468845</v>
+        <v>0.292613138983313</v>
       </c>
       <c r="N51">
-        <v>0.9035174608038991</v>
+        <v>0.83730587605171</v>
       </c>
       <c r="O51">
-        <v>179.610410052083</v>
+        <v>177.971268824821</v>
       </c>
       <c r="P51">
-        <v>14.6026904941987</v>
+        <v>14.1961999789364</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1393.69423525178</v>
+        <v>1346.8098661643</v>
       </c>
       <c r="C2">
-        <v>33.1721574726433</v>
+        <v>30.2548442897885</v>
       </c>
       <c r="D2">
-        <v>64.28264744162119</v>
+        <v>63.4301098308528</v>
       </c>
       <c r="E2">
-        <v>60.3715085571418</v>
+        <v>58.6721951688089</v>
       </c>
       <c r="F2">
-        <v>17.5230683152115</v>
+        <v>18.7923298694263</v>
       </c>
       <c r="G2">
-        <v>15.7829200499496</v>
+        <v>15.6750822936587</v>
       </c>
       <c r="H2">
-        <v>24.5885649028373</v>
+        <v>25.089742759122</v>
       </c>
       <c r="I2">
-        <v>12.0829066620964</v>
+        <v>11.4835171824335</v>
       </c>
       <c r="J2">
-        <v>61.6494932251713</v>
+        <v>62.1589819197294</v>
       </c>
       <c r="K2">
-        <v>16.4464018680728</v>
+        <v>16.9691332756598</v>
       </c>
       <c r="L2">
-        <v>34.1785099761193</v>
+        <v>36.4882976295349</v>
       </c>
       <c r="M2">
-        <v>42.4804293324141</v>
+        <v>42.5370452799886</v>
       </c>
       <c r="N2">
-        <v>26.8389314387359</v>
+        <v>26.287127820384</v>
       </c>
       <c r="O2">
-        <v>1322.16482713079</v>
+        <v>1374.91076954097</v>
       </c>
       <c r="P2">
-        <v>30.4886195202575</v>
+        <v>27.5191744640253</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>135.039100585426</v>
+        <v>127.200942483237</v>
       </c>
       <c r="C3">
-        <v>4.63607494333198</v>
+        <v>4.28556379693415</v>
       </c>
       <c r="D3">
-        <v>0.204084810966787</v>
+        <v>0.214810077833535</v>
       </c>
       <c r="E3">
-        <v>1.51219648551995</v>
+        <v>1.41780981523544</v>
       </c>
       <c r="F3">
-        <v>8.434551284173519</v>
+        <v>9.35469571658555</v>
       </c>
       <c r="G3">
-        <v>0.283532372689982</v>
+        <v>0.339872832742296</v>
       </c>
       <c r="H3">
-        <v>0.0233136039766061</v>
+        <v>0.0425549364920551</v>
       </c>
       <c r="I3">
-        <v>0.373771877833053</v>
+        <v>0.438242748745025</v>
       </c>
       <c r="J3">
-        <v>0.409931312440903</v>
+        <v>0.513547652389668</v>
       </c>
       <c r="K3">
-        <v>0.244422523399124</v>
+        <v>0.106756209644337</v>
       </c>
       <c r="L3">
-        <v>0.318817875361691</v>
+        <v>0.258787590700963</v>
       </c>
       <c r="M3">
-        <v>0.584272851766517</v>
+        <v>0.678392117594086</v>
       </c>
       <c r="N3">
-        <v>0.800417700282802</v>
+        <v>0.883087528405166</v>
       </c>
       <c r="O3">
-        <v>229.113875230293</v>
+        <v>239.234000904391</v>
       </c>
       <c r="P3">
-        <v>10.7026296594753</v>
+        <v>8.974813873867999</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1519.63421182972</v>
+        <v>1405.48202667783</v>
       </c>
       <c r="C4">
-        <v>10.0018233933045</v>
+        <v>9.79526610218981</v>
       </c>
       <c r="D4">
-        <v>3.11282285412658</v>
+        <v>4.06987799985479</v>
       </c>
       <c r="E4">
-        <v>24.1733243865636</v>
+        <v>24.7767660997695</v>
       </c>
       <c r="F4">
-        <v>12.0276944773574</v>
+        <v>9.3617892536168</v>
       </c>
       <c r="G4">
-        <v>8.463796016532459</v>
+        <v>9.69394119952948</v>
       </c>
       <c r="H4">
-        <v>9.79169727386782</v>
+        <v>10.0858975004018</v>
       </c>
       <c r="I4">
-        <v>9.616399390192971</v>
+        <v>10.137661398452</v>
       </c>
       <c r="J4">
-        <v>25.6369699882428</v>
+        <v>27.9809773598846</v>
       </c>
       <c r="K4">
-        <v>6.43927005272878</v>
+        <v>6.51273564707691</v>
       </c>
       <c r="L4">
-        <v>73.0930187597485</v>
+        <v>79.222310568909</v>
       </c>
       <c r="M4">
-        <v>49.0912249978103</v>
+        <v>51.8498304055901</v>
       </c>
       <c r="N4">
-        <v>23.3719265248617</v>
+        <v>29.5623402546757</v>
       </c>
       <c r="O4">
-        <v>1835.47717164854</v>
+        <v>1932.27299090076</v>
       </c>
       <c r="P4">
-        <v>34.2482655413559</v>
+        <v>29.5582427688964</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>824.691179688532</v>
+        <v>762.019073647625</v>
       </c>
       <c r="C5">
-        <v>50.2337316189407</v>
+        <v>51.8258874861892</v>
       </c>
       <c r="D5">
-        <v>12.6204170978211</v>
+        <v>12.4990148438295</v>
       </c>
       <c r="E5">
-        <v>41.6748425569092</v>
+        <v>40.1956646231965</v>
       </c>
       <c r="F5">
-        <v>4.39876819825358</v>
+        <v>4.29075737581178</v>
       </c>
       <c r="G5">
-        <v>7.05606374318484</v>
+        <v>6.74859797400672</v>
       </c>
       <c r="H5">
-        <v>12.8064637386699</v>
+        <v>13.184624241387</v>
       </c>
       <c r="I5">
-        <v>7.27200263498812</v>
+        <v>7.39184421761884</v>
       </c>
       <c r="J5">
-        <v>30.7239797372062</v>
+        <v>30.2781354038324</v>
       </c>
       <c r="K5">
-        <v>18.4865282810852</v>
+        <v>18.2232648634105</v>
       </c>
       <c r="L5">
-        <v>19.8040885308872</v>
+        <v>21.7761518445026</v>
       </c>
       <c r="M5">
-        <v>20.8915354089653</v>
+        <v>21.3952095759266</v>
       </c>
       <c r="N5">
-        <v>23.3978434192177</v>
+        <v>22.8081795805551</v>
       </c>
       <c r="O5">
-        <v>783.441216700186</v>
+        <v>853.047745338636</v>
       </c>
       <c r="P5">
-        <v>50.9114029002505</v>
+        <v>46.7923966009848</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9576.88487411425</v>
+        <v>8891.521571601799</v>
       </c>
       <c r="C6">
-        <v>179.046795347302</v>
+        <v>200.945734956667</v>
       </c>
       <c r="D6">
-        <v>149.250824320728</v>
+        <v>170.314869350588</v>
       </c>
       <c r="E6">
-        <v>128.14347766718</v>
+        <v>136.676502374492</v>
       </c>
       <c r="F6">
-        <v>49.4686017229603</v>
+        <v>51.8561066020317</v>
       </c>
       <c r="G6">
-        <v>89.60424827398759</v>
+        <v>95.0310166308365</v>
       </c>
       <c r="H6">
-        <v>63.1742392372574</v>
+        <v>72.5124733252559</v>
       </c>
       <c r="I6">
-        <v>48.8583172012771</v>
+        <v>51.3122197202486</v>
       </c>
       <c r="J6">
-        <v>170.370119208579</v>
+        <v>189.176580632811</v>
       </c>
       <c r="K6">
-        <v>94.05565307753351</v>
+        <v>106.569779782302</v>
       </c>
       <c r="L6">
-        <v>513.357881366837</v>
+        <v>553.502158195927</v>
       </c>
       <c r="M6">
-        <v>232.996619151557</v>
+        <v>251.887306325987</v>
       </c>
       <c r="N6">
-        <v>244.932385295337</v>
+        <v>261.844497362852</v>
       </c>
       <c r="O6">
-        <v>11519.0574635249</v>
+        <v>12058.081274531</v>
       </c>
       <c r="P6">
-        <v>314.720048895597</v>
+        <v>292.497657990785</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1000.17975236978</v>
+        <v>917.802524155635</v>
       </c>
       <c r="C7">
-        <v>33.1531482629183</v>
+        <v>33.5791404152267</v>
       </c>
       <c r="D7">
-        <v>3.33000440396995</v>
+        <v>3.31364669515013</v>
       </c>
       <c r="E7">
-        <v>18.0736177314056</v>
+        <v>18.3363548349384</v>
       </c>
       <c r="F7">
-        <v>18.5118627366255</v>
+        <v>16.9420981357515</v>
       </c>
       <c r="G7">
-        <v>7.6903882262451</v>
+        <v>7.55989280809694</v>
       </c>
       <c r="H7">
-        <v>6.17869381649064</v>
+        <v>7.47121191102572</v>
       </c>
       <c r="I7">
-        <v>7.86704851373053</v>
+        <v>8.550738077115721</v>
       </c>
       <c r="J7">
-        <v>19.9757960735583</v>
+        <v>19.9231809613724</v>
       </c>
       <c r="K7">
-        <v>11.8916194354743</v>
+        <v>13.8132106367291</v>
       </c>
       <c r="L7">
-        <v>54.7527693503463</v>
+        <v>60.4940345665566</v>
       </c>
       <c r="M7">
-        <v>17.2720871230108</v>
+        <v>18.941325894941</v>
       </c>
       <c r="N7">
-        <v>30.4394240733135</v>
+        <v>31.7443039200563</v>
       </c>
       <c r="O7">
-        <v>1770.96239572149</v>
+        <v>1849.38003315225</v>
       </c>
       <c r="P7">
-        <v>40.4598690089733</v>
+        <v>28.1824413855723</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>843.014461213942</v>
+        <v>767.1644433163031</v>
       </c>
       <c r="C8">
-        <v>12.1668707671077</v>
+        <v>11.2277233334898</v>
       </c>
       <c r="D8">
-        <v>6.22697817132087</v>
+        <v>6.53908588616679</v>
       </c>
       <c r="E8">
-        <v>17.750265082787</v>
+        <v>18.1842433918512</v>
       </c>
       <c r="F8">
-        <v>3.47468166533798</v>
+        <v>3.08571873679573</v>
       </c>
       <c r="G8">
-        <v>29.6067243859233</v>
+        <v>31.8267780278108</v>
       </c>
       <c r="H8">
-        <v>8.021751567450631</v>
+        <v>9.64029696752559</v>
       </c>
       <c r="I8">
-        <v>3.43131708239887</v>
+        <v>3.14307935352327</v>
       </c>
       <c r="J8">
-        <v>36.7811781625554</v>
+        <v>38.74829600931</v>
       </c>
       <c r="K8">
-        <v>26.9972103327148</v>
+        <v>28.0395736748786</v>
       </c>
       <c r="L8">
-        <v>43.5124846059105</v>
+        <v>45.9335214178199</v>
       </c>
       <c r="M8">
-        <v>48.1498230311939</v>
+        <v>48.7134779294085</v>
       </c>
       <c r="N8">
-        <v>26.9621278448352</v>
+        <v>30.0254613617276</v>
       </c>
       <c r="O8">
-        <v>1292.05178754424</v>
+        <v>1354.71085546873</v>
       </c>
       <c r="P8">
-        <v>3.70385725884926</v>
+        <v>4.36027798065405</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>205.462704296857</v>
+        <v>184.546157678215</v>
       </c>
       <c r="C9">
-        <v>6.94146158563798</v>
+        <v>7.43203106979593</v>
       </c>
       <c r="D9">
-        <v>2.15433698888578</v>
+        <v>2.45015596931239</v>
       </c>
       <c r="E9">
-        <v>4.66706202171011</v>
+        <v>4.53708185529373</v>
       </c>
       <c r="F9">
-        <v>1.86336399377446</v>
+        <v>1.6761310924524</v>
       </c>
       <c r="G9">
-        <v>17.1635729792228</v>
+        <v>18.7781873398342</v>
       </c>
       <c r="H9">
-        <v>2.69824654659111</v>
+        <v>2.99556552117697</v>
       </c>
       <c r="I9">
-        <v>0.700947467112952</v>
+        <v>0.772336109246115</v>
       </c>
       <c r="J9">
-        <v>3.25819109616447</v>
+        <v>3.56178260520605</v>
       </c>
       <c r="K9">
-        <v>2.20647449099897</v>
+        <v>2.62313865380045</v>
       </c>
       <c r="L9">
-        <v>2.77397852120487</v>
+        <v>2.76652593420181</v>
       </c>
       <c r="M9">
-        <v>7.05587716522311</v>
+        <v>7.71502030429783</v>
       </c>
       <c r="N9">
-        <v>4.30153032060575</v>
+        <v>4.76074270081282</v>
       </c>
       <c r="O9">
-        <v>290.224185836746</v>
+        <v>307.386822385349</v>
       </c>
       <c r="P9">
-        <v>4.67913848704055</v>
+        <v>4.42119538213795</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5294.12913299894</v>
+        <v>4800.61291714179</v>
       </c>
       <c r="C10">
-        <v>54.8236395176222</v>
+        <v>63.7761539728078</v>
       </c>
       <c r="D10">
-        <v>29.4418006588212</v>
+        <v>34.4345446287342</v>
       </c>
       <c r="E10">
-        <v>49.8609586768408</v>
+        <v>51.9399864035088</v>
       </c>
       <c r="F10">
-        <v>7.66955388817949</v>
+        <v>7.99052942895911</v>
       </c>
       <c r="G10">
-        <v>28.5192862066516</v>
+        <v>33.2788017545789</v>
       </c>
       <c r="H10">
-        <v>20.2975652553134</v>
+        <v>21.905729635312</v>
       </c>
       <c r="I10">
-        <v>32.9469803767485</v>
+        <v>35.8467228054078</v>
       </c>
       <c r="J10">
-        <v>51.7718311674035</v>
+        <v>55.4929914826967</v>
       </c>
       <c r="K10">
-        <v>31.5765688155802</v>
+        <v>29.750624796177</v>
       </c>
       <c r="L10">
-        <v>88.2720662231802</v>
+        <v>95.5111236009687</v>
       </c>
       <c r="M10">
-        <v>75.8098542085998</v>
+        <v>73.57066363096941</v>
       </c>
       <c r="N10">
-        <v>77.4565512501464</v>
+        <v>83.36022303379789</v>
       </c>
       <c r="O10">
-        <v>5923.8489465187</v>
+        <v>6370.83177395751</v>
       </c>
       <c r="P10">
-        <v>81.0626327254913</v>
+        <v>82.3120924985612</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2141.2479699983</v>
+        <v>1969.03446846695</v>
       </c>
       <c r="C11">
-        <v>81.69724467690109</v>
+        <v>79.6342887443297</v>
       </c>
       <c r="D11">
-        <v>141.732012557726</v>
+        <v>132.243655533001</v>
       </c>
       <c r="E11">
-        <v>85.1329819402182</v>
+        <v>86.76007956171181</v>
       </c>
       <c r="F11">
-        <v>7.59246189676436</v>
+        <v>5.55396623768072</v>
       </c>
       <c r="G11">
-        <v>31.5293014948779</v>
+        <v>31.7877605067225</v>
       </c>
       <c r="H11">
-        <v>16.9951515071136</v>
+        <v>17.1638573055253</v>
       </c>
       <c r="I11">
-        <v>19.4913198376035</v>
+        <v>19.7884728255969</v>
       </c>
       <c r="J11">
-        <v>51.4953876469635</v>
+        <v>48.245892620138</v>
       </c>
       <c r="K11">
-        <v>30.7330057093259</v>
+        <v>30.6127991603395</v>
       </c>
       <c r="L11">
-        <v>69.093541790358</v>
+        <v>69.9118066405583</v>
       </c>
       <c r="M11">
-        <v>61.6720387625468</v>
+        <v>58.8115446936207</v>
       </c>
       <c r="N11">
-        <v>49.8589491764822</v>
+        <v>53.5400033569739</v>
       </c>
       <c r="O11">
-        <v>2841.80854670497</v>
+        <v>3042.73754607789</v>
       </c>
       <c r="P11">
-        <v>52.8408686446772</v>
+        <v>49.8916533853437</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>337.491392877084</v>
+        <v>297.390465796511</v>
       </c>
       <c r="C12">
-        <v>8.45271168543287</v>
+        <v>8.117005305043641</v>
       </c>
       <c r="D12">
-        <v>1.50474006297654</v>
+        <v>1.79299038433756</v>
       </c>
       <c r="E12">
-        <v>0.716322554691713</v>
+        <v>0.762112604885566</v>
       </c>
       <c r="F12">
-        <v>0.782945954279063</v>
+        <v>0.821813896680185</v>
       </c>
       <c r="G12">
-        <v>0.310876090179471</v>
+        <v>0.163197447662374</v>
       </c>
       <c r="H12">
-        <v>0.0291255446242355</v>
+        <v>0.0231816501750599</v>
       </c>
       <c r="I12">
-        <v>0.854453473677683</v>
+        <v>0.997465222895069</v>
       </c>
       <c r="J12">
-        <v>1.35386440015196</v>
+        <v>1.45410276259249</v>
       </c>
       <c r="K12">
-        <v>0.452779177040694</v>
+        <v>0.219323117744034</v>
       </c>
       <c r="L12">
-        <v>0.205573494681572</v>
+        <v>0.232305598981215</v>
       </c>
       <c r="M12">
-        <v>3.58435248346022</v>
+        <v>4.04250675031656</v>
       </c>
       <c r="N12">
-        <v>2.34855131130366</v>
+        <v>3.52327750660411</v>
       </c>
       <c r="O12">
-        <v>470.424666837922</v>
+        <v>506.330967031998</v>
       </c>
       <c r="P12">
-        <v>13.3696538556277</v>
+        <v>14.0985557052189</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>322.576868713636</v>
+        <v>282.891122633316</v>
       </c>
       <c r="C13">
-        <v>18.1348362008354</v>
+        <v>18.4902055543898</v>
       </c>
       <c r="D13">
-        <v>0.685917464148012</v>
+        <v>0.72633605518406</v>
       </c>
       <c r="E13">
-        <v>14.5236199595016</v>
+        <v>13.4998901112217</v>
       </c>
       <c r="F13">
-        <v>4.03518408177685</v>
+        <v>2.76869957455302</v>
       </c>
       <c r="G13">
-        <v>5.21694073422047</v>
+        <v>4.81339590030881</v>
       </c>
       <c r="H13">
-        <v>1.12769921473279</v>
+        <v>1.34798931631228</v>
       </c>
       <c r="I13">
-        <v>1.4807634929727</v>
+        <v>1.22482643858944</v>
       </c>
       <c r="J13">
-        <v>4.78833538107273</v>
+        <v>5.37100073641457</v>
       </c>
       <c r="K13">
-        <v>2.98344517972174</v>
+        <v>3.53500783064674</v>
       </c>
       <c r="L13">
-        <v>20.5725201546575</v>
+        <v>25.1014646277779</v>
       </c>
       <c r="M13">
-        <v>1.75821254060907</v>
+        <v>1.45026715083096</v>
       </c>
       <c r="N13">
-        <v>5.62197867333437</v>
+        <v>6.33783184180093</v>
       </c>
       <c r="O13">
-        <v>438.735736419376</v>
+        <v>471.435693006102</v>
       </c>
       <c r="P13">
-        <v>44.9239435975494</v>
+        <v>40.0324200546062</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3336.94109158921</v>
+        <v>3050.08107762298</v>
       </c>
       <c r="C14">
-        <v>115.587287920295</v>
+        <v>120.997927515052</v>
       </c>
       <c r="D14">
-        <v>16.7976879657813</v>
+        <v>15.8562498547078</v>
       </c>
       <c r="E14">
-        <v>89.7291909847885</v>
+        <v>92.88203901150681</v>
       </c>
       <c r="F14">
-        <v>25.0503784361191</v>
+        <v>21.7896091892924</v>
       </c>
       <c r="G14">
-        <v>83.96274271963731</v>
+        <v>92.2572914037284</v>
       </c>
       <c r="H14">
-        <v>57.3701099114176</v>
+        <v>56.4368670969594</v>
       </c>
       <c r="I14">
-        <v>27.8601277489345</v>
+        <v>27.8507179619337</v>
       </c>
       <c r="J14">
-        <v>160.781863320959</v>
+        <v>158.319953827814</v>
       </c>
       <c r="K14">
-        <v>143.975536029566</v>
+        <v>148.189835924933</v>
       </c>
       <c r="L14">
-        <v>131.564536307025</v>
+        <v>135.638201066395</v>
       </c>
       <c r="M14">
-        <v>84.49354218139911</v>
+        <v>77.4426668123479</v>
       </c>
       <c r="N14">
-        <v>84.5343438410319</v>
+        <v>90.0144685515735</v>
       </c>
       <c r="O14">
-        <v>4241.74550092513</v>
+        <v>4524.86792548821</v>
       </c>
       <c r="P14">
-        <v>71.913630354497</v>
+        <v>55.5611048843309</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1548.56802159224</v>
+        <v>1422.18717339327</v>
       </c>
       <c r="C15">
-        <v>30.7430415539389</v>
+        <v>32.4919492829492</v>
       </c>
       <c r="D15">
-        <v>11.1775713639151</v>
+        <v>11.6122663128683</v>
       </c>
       <c r="E15">
-        <v>68.8369697167133</v>
+        <v>68.1116316864052</v>
       </c>
       <c r="F15">
-        <v>14.6707909557734</v>
+        <v>15.7568558713905</v>
       </c>
       <c r="G15">
-        <v>37.762564874573</v>
+        <v>42.5666961958719</v>
       </c>
       <c r="H15">
-        <v>49.3288685138732</v>
+        <v>48.6689397999063</v>
       </c>
       <c r="I15">
-        <v>24.470892165747</v>
+        <v>24.9304462474866</v>
       </c>
       <c r="J15">
-        <v>147.823667199594</v>
+        <v>151.107655847951</v>
       </c>
       <c r="K15">
-        <v>56.2457762359984</v>
+        <v>55.8793921294951</v>
       </c>
       <c r="L15">
-        <v>45.6163322986905</v>
+        <v>45.7398697092354</v>
       </c>
       <c r="M15">
-        <v>186.185915555997</v>
+        <v>181.903558623857</v>
       </c>
       <c r="N15">
-        <v>83.63805826880871</v>
+        <v>80.4851428011753</v>
       </c>
       <c r="O15">
-        <v>1923.95564078123</v>
+        <v>2044.72506639394</v>
       </c>
       <c r="P15">
-        <v>43.4554112094281</v>
+        <v>46.2751410784523</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>684.055433445597</v>
+        <v>612.539241643826</v>
       </c>
       <c r="C16">
-        <v>61.6077353981168</v>
+        <v>62.4606334119366</v>
       </c>
       <c r="D16">
-        <v>5.74609359639548</v>
+        <v>4.79947323674013</v>
       </c>
       <c r="E16">
-        <v>22.6719733827033</v>
+        <v>21.4264234682537</v>
       </c>
       <c r="F16">
-        <v>3.69115647024837</v>
+        <v>3.03825639627194</v>
       </c>
       <c r="G16">
-        <v>12.6825467030028</v>
+        <v>14.0157707664464</v>
       </c>
       <c r="H16">
-        <v>13.9643011498718</v>
+        <v>13.9957206317662</v>
       </c>
       <c r="I16">
-        <v>8.010458308988079</v>
+        <v>7.42242454665133</v>
       </c>
       <c r="J16">
-        <v>43.3731350138266</v>
+        <v>42.3989720187612</v>
       </c>
       <c r="K16">
-        <v>47.0157105587504</v>
+        <v>49.4121604513164</v>
       </c>
       <c r="L16">
-        <v>32.8388396549604</v>
+        <v>33.6001606393331</v>
       </c>
       <c r="M16">
-        <v>26.0841662173496</v>
+        <v>25.6487612590907</v>
       </c>
       <c r="N16">
-        <v>23.164598110845</v>
+        <v>25.7115338606589</v>
       </c>
       <c r="O16">
-        <v>995.264298076907</v>
+        <v>1069.43452258917</v>
       </c>
       <c r="P16">
-        <v>77.21957989609651</v>
+        <v>70.55532668405461</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>636.426690559671</v>
+        <v>564.451154723004</v>
       </c>
       <c r="C17">
-        <v>24.6502249913955</v>
+        <v>26.3281494320802</v>
       </c>
       <c r="D17">
-        <v>3.5763118756255</v>
+        <v>3.24073430864658</v>
       </c>
       <c r="E17">
-        <v>17.4080482647755</v>
+        <v>19.2800684975276</v>
       </c>
       <c r="F17">
-        <v>12.1917521388688</v>
+        <v>10.5290592089326</v>
       </c>
       <c r="G17">
-        <v>7.07402010783371</v>
+        <v>7.78791890584387</v>
       </c>
       <c r="H17">
-        <v>8.212313489600961</v>
+        <v>8.90215763775876</v>
       </c>
       <c r="I17">
-        <v>6.27315445074135</v>
+        <v>6.49014494726591</v>
       </c>
       <c r="J17">
-        <v>17.7058748760976</v>
+        <v>16.9154031895948</v>
       </c>
       <c r="K17">
-        <v>14.3754948425832</v>
+        <v>14.7675174959617</v>
       </c>
       <c r="L17">
-        <v>10.6344408814134</v>
+        <v>11.7233583827072</v>
       </c>
       <c r="M17">
-        <v>65.93629524832861</v>
+        <v>72.1793467963512</v>
       </c>
       <c r="N17">
-        <v>14.9182393890667</v>
+        <v>15.4156404222866</v>
       </c>
       <c r="O17">
-        <v>959.2088090902161</v>
+        <v>1026.8105816671</v>
       </c>
       <c r="P17">
-        <v>58.1281796161051</v>
+        <v>42.5094718170462</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1210.73638528608</v>
+        <v>1141.2817236617</v>
       </c>
       <c r="C18">
-        <v>31.0346140351777</v>
+        <v>33.2393402537632</v>
       </c>
       <c r="D18">
-        <v>13.2603054904186</v>
+        <v>12.5060192663273</v>
       </c>
       <c r="E18">
-        <v>41.5924980791092</v>
+        <v>39.6127085231854</v>
       </c>
       <c r="F18">
-        <v>29.0967090631306</v>
+        <v>28.0576489615963</v>
       </c>
       <c r="G18">
-        <v>23.9271442092702</v>
+        <v>24.1200223812738</v>
       </c>
       <c r="H18">
-        <v>19.3810715784737</v>
+        <v>20.0272984508401</v>
       </c>
       <c r="I18">
-        <v>7.4964134758446</v>
+        <v>8.38689750273851</v>
       </c>
       <c r="J18">
-        <v>42.3486329726837</v>
+        <v>44.3809701421712</v>
       </c>
       <c r="K18">
-        <v>28.5765098980022</v>
+        <v>27.1634082070013</v>
       </c>
       <c r="L18">
-        <v>31.9952452322991</v>
+        <v>36.5774050258393</v>
       </c>
       <c r="M18">
-        <v>65.1806470468792</v>
+        <v>68.3513423059118</v>
       </c>
       <c r="N18">
-        <v>20.3445269908929</v>
+        <v>20.2388956692885</v>
       </c>
       <c r="O18">
-        <v>1271.45363278578</v>
+        <v>1331.21284794599</v>
       </c>
       <c r="P18">
-        <v>44.6261880306952</v>
+        <v>48.4614618658927</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1367.87712023372</v>
+        <v>1303.30362430175</v>
       </c>
       <c r="C19">
-        <v>24.0287199158786</v>
+        <v>25.0220478780339</v>
       </c>
       <c r="D19">
-        <v>11.3077264740493</v>
+        <v>10.7518017102696</v>
       </c>
       <c r="E19">
-        <v>35.4544768489162</v>
+        <v>32.5263692648985</v>
       </c>
       <c r="F19">
-        <v>85.5146126121393</v>
+        <v>88.919452604008</v>
       </c>
       <c r="G19">
-        <v>40.1465887811404</v>
+        <v>40.1892279060632</v>
       </c>
       <c r="H19">
-        <v>4.65763394052311</v>
+        <v>4.24713283940315</v>
       </c>
       <c r="I19">
-        <v>3.16998415791294</v>
+        <v>4.5139282555542</v>
       </c>
       <c r="J19">
-        <v>16.3938153907198</v>
+        <v>14.5864465772682</v>
       </c>
       <c r="K19">
-        <v>13.0864371902809</v>
+        <v>13.1461151531457</v>
       </c>
       <c r="L19">
-        <v>3.80893882254544</v>
+        <v>4.33135542662498</v>
       </c>
       <c r="M19">
-        <v>27.7780278950839</v>
+        <v>31.5980965923097</v>
       </c>
       <c r="N19">
-        <v>9.37238333733054</v>
+        <v>10.8192118342961</v>
       </c>
       <c r="O19">
-        <v>1399.80498154075</v>
+        <v>1463.52506297981</v>
       </c>
       <c r="P19">
-        <v>34.317999134567</v>
+        <v>32.4203776980848</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>345.845132262865</v>
+        <v>318.440080080584</v>
       </c>
       <c r="C20">
-        <v>6.99443884421345</v>
+        <v>7.56143344106064</v>
       </c>
       <c r="D20">
-        <v>12.4059606288672</v>
+        <v>11.7453266845318</v>
       </c>
       <c r="E20">
-        <v>35.2923638427087</v>
+        <v>32.8676332707429</v>
       </c>
       <c r="F20">
-        <v>0.424896744687848</v>
+        <v>0.441919444635901</v>
       </c>
       <c r="G20">
-        <v>1.50598926716779</v>
+        <v>1.70233068800541</v>
       </c>
       <c r="H20">
-        <v>1.97085263319202</v>
+        <v>1.96132838249191</v>
       </c>
       <c r="I20">
-        <v>1.83058715388716</v>
+        <v>1.82097732334711</v>
       </c>
       <c r="J20">
-        <v>3.86297322758405</v>
+        <v>4.03740183278498</v>
       </c>
       <c r="K20">
-        <v>3.73013210818742</v>
+        <v>3.95828057637401</v>
       </c>
       <c r="L20">
-        <v>8.21736501548461</v>
+        <v>9.51889343776911</v>
       </c>
       <c r="M20">
-        <v>15.8901014649472</v>
+        <v>18.9933474334526</v>
       </c>
       <c r="N20">
-        <v>5.36668587891802</v>
+        <v>5.25521831845325</v>
       </c>
       <c r="O20">
-        <v>463.392815376188</v>
+        <v>493.76163337484</v>
       </c>
       <c r="P20">
-        <v>22.1719891134858</v>
+        <v>18.553106694413</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1362.72124767031</v>
+        <v>1210.94680218896</v>
       </c>
       <c r="C21">
-        <v>24.2665167221312</v>
+        <v>22.1727796078376</v>
       </c>
       <c r="D21">
-        <v>7.51316321580667</v>
+        <v>5.84839039744823</v>
       </c>
       <c r="E21">
-        <v>26.162913258587</v>
+        <v>28.0313782705553</v>
       </c>
       <c r="F21">
-        <v>5.42034688036361</v>
+        <v>5.18958200872211</v>
       </c>
       <c r="G21">
-        <v>22.3631186740591</v>
+        <v>26.0084935666623</v>
       </c>
       <c r="H21">
-        <v>4.38702687820141</v>
+        <v>2.73652569826991</v>
       </c>
       <c r="I21">
-        <v>4.59311761555849</v>
+        <v>4.9436921553979</v>
       </c>
       <c r="J21">
-        <v>30.9323774750936</v>
+        <v>31.4765157459926</v>
       </c>
       <c r="K21">
-        <v>5.15845107726551</v>
+        <v>5.05896887501207</v>
       </c>
       <c r="L21">
-        <v>30.6145790324814</v>
+        <v>32.271050852563</v>
       </c>
       <c r="M21">
-        <v>31.7487076052742</v>
+        <v>34.8035330550093</v>
       </c>
       <c r="N21">
-        <v>25.6322536075197</v>
+        <v>24.2000175702853</v>
       </c>
       <c r="O21">
-        <v>2119.70390894045</v>
+        <v>2251.20361373322</v>
       </c>
       <c r="P21">
-        <v>18.6880341536603</v>
+        <v>18.9320725480294</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1655.97630844275</v>
+        <v>1484.14879946185</v>
       </c>
       <c r="C22">
-        <v>15.3606394152233</v>
+        <v>15.5723674904137</v>
       </c>
       <c r="D22">
-        <v>23.7398518472869</v>
+        <v>26.7769887392359</v>
       </c>
       <c r="E22">
-        <v>43.4230677100061</v>
+        <v>43.5989903011596</v>
       </c>
       <c r="F22">
-        <v>2.44324428729623</v>
+        <v>2.4266087921444</v>
       </c>
       <c r="G22">
-        <v>26.5214283226244</v>
+        <v>28.8031356242906</v>
       </c>
       <c r="H22">
-        <v>19.2592044570706</v>
+        <v>19.2149426659026</v>
       </c>
       <c r="I22">
-        <v>9.13506501504585</v>
+        <v>9.45884993193199</v>
       </c>
       <c r="J22">
-        <v>46.4607445231587</v>
+        <v>46.6573195855918</v>
       </c>
       <c r="K22">
-        <v>26.4644582674975</v>
+        <v>27.1116276502624</v>
       </c>
       <c r="L22">
-        <v>117.266496919622</v>
+        <v>129.355121761244</v>
       </c>
       <c r="M22">
-        <v>18.612292154359</v>
+        <v>17.4250294400464</v>
       </c>
       <c r="N22">
-        <v>65.7525038626094</v>
+        <v>66.3328092432192</v>
       </c>
       <c r="O22">
-        <v>2415.18876114718</v>
+        <v>2568.9531872123</v>
       </c>
       <c r="P22">
-        <v>14.0957338528399</v>
+        <v>10.8143725175716</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2699.75051473091</v>
+        <v>2527.84953385136</v>
       </c>
       <c r="C23">
-        <v>42.6224471977462</v>
+        <v>46.8116300143381</v>
       </c>
       <c r="D23">
-        <v>11.2980202687846</v>
+        <v>10.4578405542373</v>
       </c>
       <c r="E23">
-        <v>55.6831004661467</v>
+        <v>52.389426116304</v>
       </c>
       <c r="F23">
-        <v>8.32774468769235</v>
+        <v>8.21381884084289</v>
       </c>
       <c r="G23">
-        <v>51.1123984053417</v>
+        <v>53.2585554448069</v>
       </c>
       <c r="H23">
-        <v>61.3812481876448</v>
+        <v>62.5653859811887</v>
       </c>
       <c r="I23">
-        <v>13.5424617660849</v>
+        <v>12.615027540552</v>
       </c>
       <c r="J23">
-        <v>134.003810645346</v>
+        <v>143.429389486956</v>
       </c>
       <c r="K23">
-        <v>107.14414686307</v>
+        <v>108.776876502247</v>
       </c>
       <c r="L23">
-        <v>42.6482535021659</v>
+        <v>43.7049280885887</v>
       </c>
       <c r="M23">
-        <v>504.064047585192</v>
+        <v>555.917841528801</v>
       </c>
       <c r="N23">
-        <v>77.44899547883389</v>
+        <v>80.053403710102</v>
       </c>
       <c r="O23">
-        <v>3121.19778266606</v>
+        <v>3244.15453179017</v>
       </c>
       <c r="P23">
-        <v>57.9497054283044</v>
+        <v>46.2833248476896</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1070.35322342964</v>
+        <v>975.7596266254381</v>
       </c>
       <c r="C24">
-        <v>62.7535693844671</v>
+        <v>54.8485070604859</v>
       </c>
       <c r="D24">
-        <v>8.125923153228589</v>
+        <v>7.73253746865307</v>
       </c>
       <c r="E24">
-        <v>57.6231759454664</v>
+        <v>60.9231926126948</v>
       </c>
       <c r="F24">
-        <v>10.2874581912018</v>
+        <v>8.714263707917461</v>
       </c>
       <c r="G24">
-        <v>23.6998063085054</v>
+        <v>26.456751792043</v>
       </c>
       <c r="H24">
-        <v>18.5354391096738</v>
+        <v>19.0065638197143</v>
       </c>
       <c r="I24">
-        <v>16.7303278137381</v>
+        <v>16.8815681642204</v>
       </c>
       <c r="J24">
-        <v>47.5820324054974</v>
+        <v>47.3760672945636</v>
       </c>
       <c r="K24">
-        <v>57.9838087510083</v>
+        <v>57.3074198378734</v>
       </c>
       <c r="L24">
-        <v>66.81883235559511</v>
+        <v>73.9014997216823</v>
       </c>
       <c r="M24">
-        <v>31.4007953059079</v>
+        <v>29.4659776314602</v>
       </c>
       <c r="N24">
-        <v>62.6565850744966</v>
+        <v>70.46368508798879</v>
       </c>
       <c r="O24">
-        <v>1819.71833128902</v>
+        <v>1940.84730029752</v>
       </c>
       <c r="P24">
-        <v>106.377523293798</v>
+        <v>63.6057289486179</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>863.408512722737</v>
+        <v>814.737332484214</v>
       </c>
       <c r="C25">
-        <v>33.2638484842139</v>
+        <v>33.7661324148467</v>
       </c>
       <c r="D25">
-        <v>16.749443930792</v>
+        <v>15.092892662623</v>
       </c>
       <c r="E25">
-        <v>38.3592935608846</v>
+        <v>37.7718517509552</v>
       </c>
       <c r="F25">
-        <v>14.6946037102498</v>
+        <v>15.8716037712677</v>
       </c>
       <c r="G25">
-        <v>6.66715211536683</v>
+        <v>8.203181375443281</v>
       </c>
       <c r="H25">
-        <v>15.6402328154035</v>
+        <v>14.8854662326147</v>
       </c>
       <c r="I25">
-        <v>5.24287855516846</v>
+        <v>4.98718641391609</v>
       </c>
       <c r="J25">
-        <v>15.9539697771269</v>
+        <v>16.3045382409433</v>
       </c>
       <c r="K25">
-        <v>15.3206109917358</v>
+        <v>13.6844828752943</v>
       </c>
       <c r="L25">
-        <v>20.1771322615605</v>
+        <v>19.5387144165283</v>
       </c>
       <c r="M25">
-        <v>28.3333598918945</v>
+        <v>32.8359073999177</v>
       </c>
       <c r="N25">
-        <v>44.1978414438066</v>
+        <v>39.5403114191487</v>
       </c>
       <c r="O25">
-        <v>787.5906070077031</v>
+        <v>845.374960814354</v>
       </c>
       <c r="P25">
-        <v>37.6468698770286</v>
+        <v>36.2576509585969</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1446.93369996319</v>
+        <v>1327.06411882189</v>
       </c>
       <c r="C26">
-        <v>64.8008334586914</v>
+        <v>66.1145916508045</v>
       </c>
       <c r="D26">
-        <v>19.1775571223275</v>
+        <v>15.9288568165756</v>
       </c>
       <c r="E26">
-        <v>47.9991032294375</v>
+        <v>47.3070816047337</v>
       </c>
       <c r="F26">
-        <v>11.8974390169811</v>
+        <v>10.011336848229</v>
       </c>
       <c r="G26">
-        <v>25.8095405657729</v>
+        <v>29.9727665922461</v>
       </c>
       <c r="H26">
-        <v>19.1523075180078</v>
+        <v>19.3442141993799</v>
       </c>
       <c r="I26">
-        <v>15.7210593555178</v>
+        <v>15.3141188932779</v>
       </c>
       <c r="J26">
-        <v>54.9945170363782</v>
+        <v>55.5851820597639</v>
       </c>
       <c r="K26">
-        <v>35.464503430269</v>
+        <v>34.1213543133733</v>
       </c>
       <c r="L26">
-        <v>40.4681785660765</v>
+        <v>38.5444180589068</v>
       </c>
       <c r="M26">
-        <v>75.9708253651921</v>
+        <v>78.3731126875085</v>
       </c>
       <c r="N26">
-        <v>33.4693818500669</v>
+        <v>35.416028777537</v>
       </c>
       <c r="O26">
-        <v>1978.91123632949</v>
+        <v>2107.71286503773</v>
       </c>
       <c r="P26">
-        <v>74.77099250485961</v>
+        <v>59.1322448675258</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>244.350611012176</v>
+        <v>222.786622968283</v>
       </c>
       <c r="C27">
-        <v>2.40063173002201</v>
+        <v>2.28099851198556</v>
       </c>
       <c r="D27">
-        <v>0.841265472071587</v>
+        <v>1.07323573849351</v>
       </c>
       <c r="E27">
-        <v>9.700609458464401</v>
+        <v>9.865072375537659</v>
       </c>
       <c r="F27">
-        <v>6.16995050736465</v>
+        <v>6.14985560417947</v>
       </c>
       <c r="G27">
-        <v>0.74764421157241</v>
+        <v>0.791028396727401</v>
       </c>
       <c r="H27">
-        <v>0.129774750966262</v>
+        <v>0.153576116053751</v>
       </c>
       <c r="I27">
-        <v>1.9772370402461</v>
+        <v>1.93490675295007</v>
       </c>
       <c r="J27">
-        <v>3.91601685440988</v>
+        <v>4.17486024200926</v>
       </c>
       <c r="K27">
-        <v>1.26925111069377</v>
+        <v>1.4140317268539</v>
       </c>
       <c r="L27">
-        <v>1.22577213720303</v>
+        <v>1.43864686787594</v>
       </c>
       <c r="M27">
-        <v>0.624607691609182</v>
+        <v>0.687232952970432</v>
       </c>
       <c r="N27">
-        <v>3.67348348385682</v>
+        <v>3.38500773895553</v>
       </c>
       <c r="O27">
-        <v>322.333102535414</v>
+        <v>350.289460442872</v>
       </c>
       <c r="P27">
-        <v>40.4426046798316</v>
+        <v>31.4364132138816</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>381.677889613677</v>
+        <v>330.469483759793</v>
       </c>
       <c r="C28">
-        <v>31.0748202667062</v>
+        <v>33.4342803822425</v>
       </c>
       <c r="D28">
-        <v>2.83200480412913</v>
+        <v>3.1282303165112</v>
       </c>
       <c r="E28">
-        <v>6.09593202692451</v>
+        <v>7.1286706991077</v>
       </c>
       <c r="F28">
-        <v>2.15345847878748</v>
+        <v>1.73150129035671</v>
       </c>
       <c r="G28">
-        <v>3.75517426653378</v>
+        <v>4.73860099123118</v>
       </c>
       <c r="H28">
-        <v>7.7138929548771</v>
+        <v>7.71730177748977</v>
       </c>
       <c r="I28">
-        <v>3.25678489681011</v>
+        <v>3.7740231888821</v>
       </c>
       <c r="J28">
-        <v>16.2177032967871</v>
+        <v>15.2308381881985</v>
       </c>
       <c r="K28">
-        <v>13.4777902009166</v>
+        <v>12.9241031932006</v>
       </c>
       <c r="L28">
-        <v>14.9771219044786</v>
+        <v>17.1429275662172</v>
       </c>
       <c r="M28">
-        <v>8.633555411531781</v>
+        <v>9.08635751765811</v>
       </c>
       <c r="N28">
-        <v>8.508589211094471</v>
+        <v>9.37658739980812</v>
       </c>
       <c r="O28">
-        <v>612.363299138569</v>
+        <v>680.931448979677</v>
       </c>
       <c r="P28">
-        <v>85.71266642020601</v>
+        <v>56.8225697585249</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>551.859051869056</v>
+        <v>503.607279088219</v>
       </c>
       <c r="C29">
-        <v>3.49445430012759</v>
+        <v>4.09578928432007</v>
       </c>
       <c r="D29">
-        <v>1.80285191883343</v>
+        <v>1.7091562375256</v>
       </c>
       <c r="E29">
-        <v>2.91495203871856</v>
+        <v>3.26207194914318</v>
       </c>
       <c r="F29">
-        <v>18.8510050913354</v>
+        <v>15.6202074151373</v>
       </c>
       <c r="G29">
-        <v>3.09000832473836</v>
+        <v>2.92304144783058</v>
       </c>
       <c r="H29">
-        <v>2.14173088242804</v>
+        <v>2.44652606859813</v>
       </c>
       <c r="I29">
-        <v>2.60611207193815</v>
+        <v>3.05093683745614</v>
       </c>
       <c r="J29">
-        <v>5.39744586483895</v>
+        <v>4.77003206668207</v>
       </c>
       <c r="K29">
-        <v>3.11625411004778</v>
+        <v>3.15957148062078</v>
       </c>
       <c r="L29">
-        <v>3.12756991594287</v>
+        <v>3.00708943837336</v>
       </c>
       <c r="M29">
-        <v>1.6806866407511</v>
+        <v>2.18270418876762</v>
       </c>
       <c r="N29">
-        <v>8.38590956941492</v>
+        <v>8.18274041826195</v>
       </c>
       <c r="O29">
-        <v>824.2771054859881</v>
+        <v>881.140611092844</v>
       </c>
       <c r="P29">
-        <v>5.31294752960458</v>
+        <v>5.30352872097507</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>269.180408956059</v>
+        <v>242.807661561547</v>
       </c>
       <c r="C30">
-        <v>3.58178913150066</v>
+        <v>4.14175063395915</v>
       </c>
       <c r="D30">
-        <v>5.51976562190778</v>
+        <v>5.45788376702896</v>
       </c>
       <c r="E30">
-        <v>15.1756293303747</v>
+        <v>14.048346319897</v>
       </c>
       <c r="F30">
-        <v>0.689484402988466</v>
+        <v>0.957142525779169</v>
       </c>
       <c r="G30">
-        <v>3.56700141549696</v>
+        <v>4.14129016900964</v>
       </c>
       <c r="H30">
-        <v>5.00952780008053</v>
+        <v>5.47602627188839</v>
       </c>
       <c r="I30">
-        <v>2.67689808750088</v>
+        <v>2.83670812127958</v>
       </c>
       <c r="J30">
-        <v>17.8394183163058</v>
+        <v>17.4885258822408</v>
       </c>
       <c r="K30">
-        <v>9.685059005604829</v>
+        <v>10.0581385823948</v>
       </c>
       <c r="L30">
-        <v>34.0683425809773</v>
+        <v>41.4858315776202</v>
       </c>
       <c r="M30">
-        <v>10.2263167483771</v>
+        <v>11.1106948960317</v>
       </c>
       <c r="N30">
-        <v>12.9242412583307</v>
+        <v>13.1967994815547</v>
       </c>
       <c r="O30">
-        <v>479.167120877541</v>
+        <v>496.686539422267</v>
       </c>
       <c r="P30">
-        <v>7.76064092908295</v>
+        <v>5.90772532633604</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2351.89080250917</v>
+        <v>2150.72588421421</v>
       </c>
       <c r="C31">
-        <v>45.7652485506615</v>
+        <v>49.3179045861597</v>
       </c>
       <c r="D31">
-        <v>39.9742174944117</v>
+        <v>41.7290799681634</v>
       </c>
       <c r="E31">
-        <v>45.6796041924022</v>
+        <v>47.9073983169214</v>
       </c>
       <c r="F31">
-        <v>7.53892453735795</v>
+        <v>5.63601218027175</v>
       </c>
       <c r="G31">
-        <v>115.857885141936</v>
+        <v>122.467731068187</v>
       </c>
       <c r="H31">
-        <v>18.7812181000607</v>
+        <v>20.0547126775473</v>
       </c>
       <c r="I31">
-        <v>20.6796808080215</v>
+        <v>20.9021385523593</v>
       </c>
       <c r="J31">
-        <v>35.334010443284</v>
+        <v>40.3914829634598</v>
       </c>
       <c r="K31">
-        <v>24.3938005101936</v>
+        <v>25.1569973332747</v>
       </c>
       <c r="L31">
-        <v>65.93809631241101</v>
+        <v>73.341424398134</v>
       </c>
       <c r="M31">
-        <v>23.1508679482081</v>
+        <v>24.5693449119598</v>
       </c>
       <c r="N31">
-        <v>47.4000201060656</v>
+        <v>47.6799179469757</v>
       </c>
       <c r="O31">
-        <v>3130.45846300701</v>
+        <v>3303.58807083316</v>
       </c>
       <c r="P31">
-        <v>10.3924824084035</v>
+        <v>10.567750193293</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>544.514246738809</v>
+        <v>501.666949029392</v>
       </c>
       <c r="C32">
-        <v>5.41659640654816</v>
+        <v>5.80957585350449</v>
       </c>
       <c r="D32">
-        <v>1.04445191126641</v>
+        <v>1.22671165643885</v>
       </c>
       <c r="E32">
-        <v>3.48751348545873</v>
+        <v>3.64145604770157</v>
       </c>
       <c r="F32">
-        <v>20.1576901147527</v>
+        <v>20.5251568535278</v>
       </c>
       <c r="G32">
-        <v>1.10201144266664</v>
+        <v>1.24544349969226</v>
       </c>
       <c r="H32">
-        <v>1.90194746354256</v>
+        <v>2.47940407105989</v>
       </c>
       <c r="I32">
-        <v>3.04799470150879</v>
+        <v>4.1259483395576</v>
       </c>
       <c r="J32">
-        <v>4.04880691666713</v>
+        <v>4.90897964750522</v>
       </c>
       <c r="K32">
-        <v>1.92041247924294</v>
+        <v>2.14528491165433</v>
       </c>
       <c r="L32">
-        <v>14.032315507349</v>
+        <v>15.8366051080678</v>
       </c>
       <c r="M32">
-        <v>2.34939606051545</v>
+        <v>2.90901854135515</v>
       </c>
       <c r="N32">
-        <v>8.43050834006328</v>
+        <v>8.95369529225208</v>
       </c>
       <c r="O32">
-        <v>620.972569090658</v>
+        <v>663.8852600724611</v>
       </c>
       <c r="P32">
-        <v>25.2714838233945</v>
+        <v>21.0748478689575</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5685.90410558422</v>
+        <v>5245.2738469942</v>
       </c>
       <c r="C33">
-        <v>84.44735999372981</v>
+        <v>87.5905795659591</v>
       </c>
       <c r="D33">
-        <v>71.34668937710521</v>
+        <v>85.08324537542811</v>
       </c>
       <c r="E33">
-        <v>88.0557117652135</v>
+        <v>85.08050754472529</v>
       </c>
       <c r="F33">
-        <v>7.60285747253189</v>
+        <v>7.6086595853925</v>
       </c>
       <c r="G33">
-        <v>74.647391519431</v>
+        <v>75.5450674460195</v>
       </c>
       <c r="H33">
-        <v>31.7665850648188</v>
+        <v>30.0666769730545</v>
       </c>
       <c r="I33">
-        <v>32.3972055204761</v>
+        <v>29.8568541465872</v>
       </c>
       <c r="J33">
-        <v>95.3063063263242</v>
+        <v>92.23210409174111</v>
       </c>
       <c r="K33">
-        <v>101.655230029784</v>
+        <v>97.4109221870218</v>
       </c>
       <c r="L33">
-        <v>133.674468875922</v>
+        <v>133.692082973658</v>
       </c>
       <c r="M33">
-        <v>70.8984747158769</v>
+        <v>68.41503160190879</v>
       </c>
       <c r="N33">
-        <v>130.278039409115</v>
+        <v>126.044184751866</v>
       </c>
       <c r="O33">
-        <v>6675.18802529234</v>
+        <v>7159.92823316453</v>
       </c>
       <c r="P33">
-        <v>84.0055073858049</v>
+        <v>57.3451282539618</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2181.71733088735</v>
+        <v>2031.45434740952</v>
       </c>
       <c r="C34">
-        <v>67.9592729444247</v>
+        <v>73.73343096136119</v>
       </c>
       <c r="D34">
-        <v>182.875482117041</v>
+        <v>189.357369063968</v>
       </c>
       <c r="E34">
-        <v>57.853031130217</v>
+        <v>56.1378141088718</v>
       </c>
       <c r="F34">
-        <v>7.93961225134434</v>
+        <v>7.71089928068774</v>
       </c>
       <c r="G34">
-        <v>48.9262285244463</v>
+        <v>52.707406136873</v>
       </c>
       <c r="H34">
-        <v>40.5754201704381</v>
+        <v>45.0687029277649</v>
       </c>
       <c r="I34">
-        <v>16.9948675232001</v>
+        <v>18.4430228103475</v>
       </c>
       <c r="J34">
-        <v>57.2019022411103</v>
+        <v>56.4321717975157</v>
       </c>
       <c r="K34">
-        <v>53.8452325662444</v>
+        <v>53.8537709192194</v>
       </c>
       <c r="L34">
-        <v>99.0892698679168</v>
+        <v>103.267582997566</v>
       </c>
       <c r="M34">
-        <v>45.5680688714262</v>
+        <v>47.7861967636397</v>
       </c>
       <c r="N34">
-        <v>117.051111681738</v>
+        <v>118.852473918017</v>
       </c>
       <c r="O34">
-        <v>2661.70090723122</v>
+        <v>2791.20035174709</v>
       </c>
       <c r="P34">
-        <v>60.1483451481854</v>
+        <v>59.4175838490699</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>155.757586182864</v>
+        <v>138.567190393483</v>
       </c>
       <c r="C35">
-        <v>6.66047303363247</v>
+        <v>6.70930527457312</v>
       </c>
       <c r="D35">
-        <v>0.438640604196477</v>
+        <v>0.489009647070337</v>
       </c>
       <c r="E35">
-        <v>2.48225672255481</v>
+        <v>2.97983294716959</v>
       </c>
       <c r="F35">
-        <v>4.67886188336664</v>
+        <v>4.44413420197406</v>
       </c>
       <c r="G35">
-        <v>0.43176461145148</v>
+        <v>0.546315693213442</v>
       </c>
       <c r="H35">
-        <v>0.277899993801002</v>
+        <v>0.345513913369628</v>
       </c>
       <c r="I35">
-        <v>1.23239234843094</v>
+        <v>1.56045077769226</v>
       </c>
       <c r="J35">
-        <v>2.05679327029949</v>
+        <v>2.30953233055766</v>
       </c>
       <c r="K35">
-        <v>5.58824933813099</v>
+        <v>5.4397998186898</v>
       </c>
       <c r="L35">
-        <v>1.96539176082729</v>
+        <v>2.40350557711113</v>
       </c>
       <c r="M35">
-        <v>2.23611086783461</v>
+        <v>2.21437748388005</v>
       </c>
       <c r="N35">
-        <v>1.99915660129899</v>
+        <v>2.50994490857212</v>
       </c>
       <c r="O35">
-        <v>222.799276813697</v>
+        <v>246.876917281173</v>
       </c>
       <c r="P35">
-        <v>39.1653950014505</v>
+        <v>29.5549476525422</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3064.73707853313</v>
+        <v>2845.70572899706</v>
       </c>
       <c r="C36">
-        <v>60.1814686368431</v>
+        <v>60.0704002912499</v>
       </c>
       <c r="D36">
-        <v>14.6763681247988</v>
+        <v>14.8257249731225</v>
       </c>
       <c r="E36">
-        <v>98.00438451268811</v>
+        <v>98.4545688431334</v>
       </c>
       <c r="F36">
-        <v>26.0580906687946</v>
+        <v>27.0557466919465</v>
       </c>
       <c r="G36">
-        <v>85.5191417945493</v>
+        <v>90.73190519763131</v>
       </c>
       <c r="H36">
-        <v>109.319621466382</v>
+        <v>105.195098589792</v>
       </c>
       <c r="I36">
-        <v>50.0320326894171</v>
+        <v>51.0037183039638</v>
       </c>
       <c r="J36">
-        <v>223.588154328755</v>
+        <v>225.487718436363</v>
       </c>
       <c r="K36">
-        <v>130.37216542331</v>
+        <v>128.18972519976</v>
       </c>
       <c r="L36">
-        <v>91.8180923753161</v>
+        <v>95.5214102944224</v>
       </c>
       <c r="M36">
-        <v>226.413355200553</v>
+        <v>228.187153189422</v>
       </c>
       <c r="N36">
-        <v>83.2155798760147</v>
+        <v>85.95359139573981</v>
       </c>
       <c r="O36">
-        <v>3719.74790334582</v>
+        <v>3922.09191872172</v>
       </c>
       <c r="P36">
-        <v>46.7613584819014</v>
+        <v>45.3422912415463</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>983.250738634299</v>
+        <v>905.3733775444021</v>
       </c>
       <c r="C37">
-        <v>26.2925321111366</v>
+        <v>24.718213336991</v>
       </c>
       <c r="D37">
-        <v>6.69609971851659</v>
+        <v>4.96075174875235</v>
       </c>
       <c r="E37">
-        <v>19.3960418743003</v>
+        <v>18.678215604</v>
       </c>
       <c r="F37">
-        <v>37.7693604220287</v>
+        <v>35.7497670594448</v>
       </c>
       <c r="G37">
-        <v>7.20486426748757</v>
+        <v>8.699640134051551</v>
       </c>
       <c r="H37">
-        <v>20.8151054048243</v>
+        <v>22.4175066669027</v>
       </c>
       <c r="I37">
-        <v>12.1481349999845</v>
+        <v>11.5351082847121</v>
       </c>
       <c r="J37">
-        <v>35.8177366011735</v>
+        <v>35.8733983051214</v>
       </c>
       <c r="K37">
-        <v>30.3779081242543</v>
+        <v>32.5484262542736</v>
       </c>
       <c r="L37">
-        <v>18.9555125157306</v>
+        <v>20.2009257059486</v>
       </c>
       <c r="M37">
-        <v>31.646393345084</v>
+        <v>35.0222920317178</v>
       </c>
       <c r="N37">
-        <v>17.5064394019862</v>
+        <v>17.0359718052561</v>
       </c>
       <c r="O37">
-        <v>1112.89675555417</v>
+        <v>1197.47608979256</v>
       </c>
       <c r="P37">
-        <v>47.4984993013304</v>
+        <v>39.8394879385571</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>963.102701591499</v>
+        <v>878.394633348763</v>
       </c>
       <c r="C38">
-        <v>23.1547247083952</v>
+        <v>23.500594886087</v>
       </c>
       <c r="D38">
-        <v>8.445201468998111</v>
+        <v>9.163150015526419</v>
       </c>
       <c r="E38">
-        <v>59.9662970020572</v>
+        <v>60.5371059425343</v>
       </c>
       <c r="F38">
-        <v>2.50959645235255</v>
+        <v>2.62845321962577</v>
       </c>
       <c r="G38">
-        <v>5.25297169357601</v>
+        <v>5.82793663640655</v>
       </c>
       <c r="H38">
-        <v>4.82921442424256</v>
+        <v>5.32522657293303</v>
       </c>
       <c r="I38">
-        <v>4.15798862974521</v>
+        <v>4.41296926778783</v>
       </c>
       <c r="J38">
-        <v>34.7211477472227</v>
+        <v>37.9227383817276</v>
       </c>
       <c r="K38">
-        <v>6.43341746525701</v>
+        <v>7.8318848481643</v>
       </c>
       <c r="L38">
-        <v>60.6396804713188</v>
+        <v>68.1821503409826</v>
       </c>
       <c r="M38">
-        <v>18.842646312718</v>
+        <v>19.5480884324131</v>
       </c>
       <c r="N38">
-        <v>26.5714335444836</v>
+        <v>26.7344981665534</v>
       </c>
       <c r="O38">
-        <v>1203.37886892809</v>
+        <v>1281.73307292798</v>
       </c>
       <c r="P38">
-        <v>63.4100021766213</v>
+        <v>55.9092637390274</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3571.82708247078</v>
+        <v>3285.23533432754</v>
       </c>
       <c r="C39">
-        <v>91.39858094827041</v>
+        <v>97.2398827616546</v>
       </c>
       <c r="D39">
-        <v>59.977011816736</v>
+        <v>56.2680413170204</v>
       </c>
       <c r="E39">
-        <v>134.486331190532</v>
+        <v>126.440446509771</v>
       </c>
       <c r="F39">
-        <v>33.9208703658836</v>
+        <v>32.090852899719</v>
       </c>
       <c r="G39">
-        <v>94.3426405408795</v>
+        <v>106.890446530627</v>
       </c>
       <c r="H39">
-        <v>50.2483338358069</v>
+        <v>49.8788962794087</v>
       </c>
       <c r="I39">
-        <v>44.2505423640928</v>
+        <v>39.2277269181843</v>
       </c>
       <c r="J39">
-        <v>181.884752689991</v>
+        <v>177.899275339966</v>
       </c>
       <c r="K39">
-        <v>93.0329452929867</v>
+        <v>93.1973890310221</v>
       </c>
       <c r="L39">
-        <v>104.502074344358</v>
+        <v>109.655564221033</v>
       </c>
       <c r="M39">
-        <v>62.0983039872013</v>
+        <v>60.2557096662637</v>
       </c>
       <c r="N39">
-        <v>101.097002635049</v>
+        <v>100.992049304698</v>
       </c>
       <c r="O39">
-        <v>4076.64188782961</v>
+        <v>4375.98647991397</v>
       </c>
       <c r="P39">
-        <v>72.50852466639969</v>
+        <v>55.0963544590308</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>283.408427090828</v>
+        <v>258.1324132342</v>
       </c>
       <c r="C40">
-        <v>3.06240516107378</v>
+        <v>3.0705914843028</v>
       </c>
       <c r="D40">
-        <v>7.66777760003946</v>
+        <v>8.01831789810031</v>
       </c>
       <c r="E40">
-        <v>5.5303786616078</v>
+        <v>5.27322116717497</v>
       </c>
       <c r="F40">
-        <v>0.176979841203276</v>
+        <v>0.307372325493838</v>
       </c>
       <c r="G40">
-        <v>4.53926890693634</v>
+        <v>4.39786843800563</v>
       </c>
       <c r="H40">
-        <v>4.75661785432536</v>
+        <v>4.80067300485227</v>
       </c>
       <c r="I40">
-        <v>1.95432553286823</v>
+        <v>1.92795189208732</v>
       </c>
       <c r="J40">
-        <v>10.6711443516258</v>
+        <v>10.6778120779704</v>
       </c>
       <c r="K40">
-        <v>5.17836397889352</v>
+        <v>6.07133129889409</v>
       </c>
       <c r="L40">
-        <v>13.3868644905669</v>
+        <v>14.8437327099366</v>
       </c>
       <c r="M40">
-        <v>5.33866329687578</v>
+        <v>5.5198343828411</v>
       </c>
       <c r="N40">
-        <v>20.089913114458</v>
+        <v>22.2549892089863</v>
       </c>
       <c r="O40">
-        <v>378.211128389953</v>
+        <v>397.216703089852</v>
       </c>
       <c r="P40">
-        <v>2.47556483104026</v>
+        <v>2.97368740730781</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1150.662864276</v>
+        <v>1083.05966284084</v>
       </c>
       <c r="C41">
-        <v>15.8235561501561</v>
+        <v>15.2205122958689</v>
       </c>
       <c r="D41">
-        <v>96.62871244962361</v>
+        <v>91.44873513109771</v>
       </c>
       <c r="E41">
-        <v>36.197621148993</v>
+        <v>35.3231503084516</v>
       </c>
       <c r="F41">
-        <v>2.21727197786985</v>
+        <v>2.30713165167305</v>
       </c>
       <c r="G41">
-        <v>23.640080479312</v>
+        <v>23.1758934224404</v>
       </c>
       <c r="H41">
-        <v>32.7892318735254</v>
+        <v>33.1191024756612</v>
       </c>
       <c r="I41">
-        <v>12.5622535826511</v>
+        <v>10.8569636604693</v>
       </c>
       <c r="J41">
-        <v>42.9154878610435</v>
+        <v>40.8255311763611</v>
       </c>
       <c r="K41">
-        <v>24.340188572034</v>
+        <v>25.1827777787172</v>
       </c>
       <c r="L41">
-        <v>32.7811851349161</v>
+        <v>35.5391645868715</v>
       </c>
       <c r="M41">
-        <v>31.9834383519743</v>
+        <v>34.9625113378184</v>
       </c>
       <c r="N41">
-        <v>21.8344878040402</v>
+        <v>21.7998006899386</v>
       </c>
       <c r="O41">
-        <v>1270.64892759144</v>
+        <v>1346.58905901552</v>
       </c>
       <c r="P41">
-        <v>26.926164256218</v>
+        <v>24.6348414471398</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>166.596547824814</v>
+        <v>139.506025982697</v>
       </c>
       <c r="C42">
-        <v>6.31243271963113</v>
+        <v>6.61112104120292</v>
       </c>
       <c r="D42">
-        <v>1.36045837897246</v>
+        <v>1.76689936213323</v>
       </c>
       <c r="E42">
-        <v>5.03071126547847</v>
+        <v>5.49839677477727</v>
       </c>
       <c r="F42">
-        <v>1.87595812371739</v>
+        <v>2.14035849033025</v>
       </c>
       <c r="G42">
-        <v>1.21190050181972</v>
+        <v>1.29711336726772</v>
       </c>
       <c r="H42">
-        <v>0.635797743504093</v>
+        <v>0.908063848527918</v>
       </c>
       <c r="I42">
-        <v>0.957425543675499</v>
+        <v>0.923204527483671</v>
       </c>
       <c r="J42">
-        <v>3.23527643782807</v>
+        <v>3.91665363088562</v>
       </c>
       <c r="K42">
-        <v>4.83676727858126</v>
+        <v>5.11868607667427</v>
       </c>
       <c r="L42">
-        <v>7.28947073099665</v>
+        <v>8.921203349535981</v>
       </c>
       <c r="M42">
-        <v>3.07358457816356</v>
+        <v>3.22597185559825</v>
       </c>
       <c r="N42">
-        <v>6.74828934416647</v>
+        <v>6.89299093768826</v>
       </c>
       <c r="O42">
-        <v>257.279683548074</v>
+        <v>288.478660625389</v>
       </c>
       <c r="P42">
-        <v>45.3877132989081</v>
+        <v>35.1466145678874</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1613.39991289839</v>
+        <v>1540.74997866055</v>
       </c>
       <c r="C43">
-        <v>35.7417173726956</v>
+        <v>38.5853417879952</v>
       </c>
       <c r="D43">
-        <v>53.6481690639513</v>
+        <v>48.4374400181007</v>
       </c>
       <c r="E43">
-        <v>56.6660489740308</v>
+        <v>61.7052545088166</v>
       </c>
       <c r="F43">
-        <v>8.23536121256684</v>
+        <v>6.61464156380849</v>
       </c>
       <c r="G43">
-        <v>24.8239385862634</v>
+        <v>27.335975782417</v>
       </c>
       <c r="H43">
-        <v>31.5686739514761</v>
+        <v>31.8250979789432</v>
       </c>
       <c r="I43">
-        <v>21.7813566442681</v>
+        <v>23.0235091542019</v>
       </c>
       <c r="J43">
-        <v>57.6412600613522</v>
+        <v>54.6731055861606</v>
       </c>
       <c r="K43">
-        <v>53.1739176053195</v>
+        <v>49.8287428470019</v>
       </c>
       <c r="L43">
-        <v>51.6063164521748</v>
+        <v>52.2467310898986</v>
       </c>
       <c r="M43">
-        <v>109.790417759191</v>
+        <v>107.299097370053</v>
       </c>
       <c r="N43">
-        <v>55.0410853426887</v>
+        <v>55.8645723058206</v>
       </c>
       <c r="O43">
-        <v>1866.50208287918</v>
+        <v>1939.93716717114</v>
       </c>
       <c r="P43">
-        <v>45.7808241289774</v>
+        <v>47.9043838540503</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5531.94355121007</v>
+        <v>5189.60018874087</v>
       </c>
       <c r="C44">
-        <v>111.115043648723</v>
+        <v>110.527121425108</v>
       </c>
       <c r="D44">
-        <v>45.1550716376988</v>
+        <v>50.8349648179766</v>
       </c>
       <c r="E44">
-        <v>93.7369250633694</v>
+        <v>98.2339299636122</v>
       </c>
       <c r="F44">
-        <v>211.948380950747</v>
+        <v>214.971593487945</v>
       </c>
       <c r="G44">
-        <v>133.37498169215</v>
+        <v>140.464787370481</v>
       </c>
       <c r="H44">
-        <v>49.0366665606348</v>
+        <v>51.342815479101</v>
       </c>
       <c r="I44">
-        <v>42.2913061738993</v>
+        <v>43.662736647008</v>
       </c>
       <c r="J44">
-        <v>128.491214078932</v>
+        <v>121.073275861263</v>
       </c>
       <c r="K44">
-        <v>81.40278461787609</v>
+        <v>84.6420179624492</v>
       </c>
       <c r="L44">
-        <v>199.936540475945</v>
+        <v>227.272379189385</v>
       </c>
       <c r="M44">
-        <v>111.105974880411</v>
+        <v>113.181113176182</v>
       </c>
       <c r="N44">
-        <v>93.3412130812453</v>
+        <v>96.9153575158287</v>
       </c>
       <c r="O44">
-        <v>7189.08234063399</v>
+        <v>7530.82264203696</v>
       </c>
       <c r="P44">
-        <v>204.751250777794</v>
+        <v>157.605888843186</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>499.430404620859</v>
+        <v>459.327859043452</v>
       </c>
       <c r="C45">
-        <v>17.104288018997</v>
+        <v>16.7967841166441</v>
       </c>
       <c r="D45">
-        <v>3.05423644992431</v>
+        <v>4.16685592626259</v>
       </c>
       <c r="E45">
-        <v>12.6820725729872</v>
+        <v>13.9975557179449</v>
       </c>
       <c r="F45">
-        <v>19.9055861732177</v>
+        <v>16.1243890355459</v>
       </c>
       <c r="G45">
-        <v>7.72470724351987</v>
+        <v>8.04209142287446</v>
       </c>
       <c r="H45">
-        <v>2.38979580555567</v>
+        <v>2.24695495578255</v>
       </c>
       <c r="I45">
-        <v>4.5662082480871</v>
+        <v>3.81903484403025</v>
       </c>
       <c r="J45">
-        <v>21.6845027673508</v>
+        <v>22.3942217945109</v>
       </c>
       <c r="K45">
-        <v>6.39869609660534</v>
+        <v>5.8520455174921</v>
       </c>
       <c r="L45">
-        <v>16.4965082948984</v>
+        <v>19.050933856669</v>
       </c>
       <c r="M45">
-        <v>20.713562319243</v>
+        <v>21.6328772698699</v>
       </c>
       <c r="N45">
-        <v>31.6278784726906</v>
+        <v>34.3416063793698</v>
       </c>
       <c r="O45">
-        <v>782.738309088297</v>
+        <v>811.806899215233</v>
       </c>
       <c r="P45">
-        <v>20.6717300536921</v>
+        <v>16.1675682287131</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>139.137609760677</v>
+        <v>124.036333704577</v>
       </c>
       <c r="C46">
-        <v>3.70043909576497</v>
+        <v>3.47845757630366</v>
       </c>
       <c r="D46">
-        <v>1.60887922248114</v>
+        <v>1.87533855181161</v>
       </c>
       <c r="E46">
-        <v>6.30317456944545</v>
+        <v>5.83974174983423</v>
       </c>
       <c r="F46">
-        <v>0.960607426365383</v>
+        <v>1.08596276484982</v>
       </c>
       <c r="G46">
-        <v>2.22683662093266</v>
+        <v>2.77952873026002</v>
       </c>
       <c r="H46">
-        <v>2.17914365381329</v>
+        <v>2.24766077443605</v>
       </c>
       <c r="I46">
-        <v>2.12116424621783</v>
+        <v>2.02094420135944</v>
       </c>
       <c r="J46">
-        <v>4.55738182943758</v>
+        <v>4.77743521670529</v>
       </c>
       <c r="K46">
-        <v>4.59671799813782</v>
+        <v>5.14051969783102</v>
       </c>
       <c r="L46">
-        <v>10.8955204934576</v>
+        <v>14.0706942311518</v>
       </c>
       <c r="M46">
-        <v>3.24740766832727</v>
+        <v>3.61923108517972</v>
       </c>
       <c r="N46">
-        <v>7.07652643451481</v>
+        <v>7.47547178858547</v>
       </c>
       <c r="O46">
-        <v>230.83930501872</v>
+        <v>242.979751605223</v>
       </c>
       <c r="P46">
-        <v>11.3740146061651</v>
+        <v>9.02592008055611</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1798.71331762354</v>
+        <v>1673.85289998357</v>
       </c>
       <c r="C47">
-        <v>53.794838669272</v>
+        <v>52.9765116078298</v>
       </c>
       <c r="D47">
-        <v>37.8630399899292</v>
+        <v>33.6114454249238</v>
       </c>
       <c r="E47">
-        <v>59.0513158389563</v>
+        <v>59.9619649176118</v>
       </c>
       <c r="F47">
-        <v>10.4360958841306</v>
+        <v>9.62421269162113</v>
       </c>
       <c r="G47">
-        <v>28.5826986936984</v>
+        <v>28.6886080826168</v>
       </c>
       <c r="H47">
-        <v>15.8267665623239</v>
+        <v>15.6084443455367</v>
       </c>
       <c r="I47">
-        <v>9.591239580741281</v>
+        <v>9.53853793101475</v>
       </c>
       <c r="J47">
-        <v>40.8599451162624</v>
+        <v>39.8127155864347</v>
       </c>
       <c r="K47">
-        <v>17.059405875503</v>
+        <v>17.5638289920843</v>
       </c>
       <c r="L47">
-        <v>43.4038717690901</v>
+        <v>44.1734900267098</v>
       </c>
       <c r="M47">
-        <v>68.71718172876309</v>
+        <v>74.57268981489931</v>
       </c>
       <c r="N47">
-        <v>41.054574748146</v>
+        <v>40.1432839263384</v>
       </c>
       <c r="O47">
-        <v>2674.93164077628</v>
+        <v>2808.34582144826</v>
       </c>
       <c r="P47">
-        <v>31.1347857152696</v>
+        <v>27.7882195779774</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1590.78533450727</v>
+        <v>1448.15522345535</v>
       </c>
       <c r="C48">
-        <v>27.4767543420818</v>
+        <v>27.1320758694251</v>
       </c>
       <c r="D48">
-        <v>9.592954971279349</v>
+        <v>10.9290614528698</v>
       </c>
       <c r="E48">
-        <v>61.8238157025378</v>
+        <v>63.2518755169868</v>
       </c>
       <c r="F48">
-        <v>5.19313476001569</v>
+        <v>5.69995871956277</v>
       </c>
       <c r="G48">
-        <v>7.71609625705218</v>
+        <v>7.97215725076656</v>
       </c>
       <c r="H48">
-        <v>7.92779331274196</v>
+        <v>6.40952654547581</v>
       </c>
       <c r="I48">
-        <v>7.88903805718147</v>
+        <v>8.281235549250081</v>
       </c>
       <c r="J48">
-        <v>34.2175851109742</v>
+        <v>36.8905743399793</v>
       </c>
       <c r="K48">
-        <v>18.5912679989818</v>
+        <v>19.5359839621983</v>
       </c>
       <c r="L48">
-        <v>41.745492689716</v>
+        <v>48.2632400643292</v>
       </c>
       <c r="M48">
-        <v>118.362676725423</v>
+        <v>131.397711332717</v>
       </c>
       <c r="N48">
-        <v>28.5075802084049</v>
+        <v>31.2481489758228</v>
       </c>
       <c r="O48">
-        <v>2117.77003648622</v>
+        <v>2245.50486890068</v>
       </c>
       <c r="P48">
-        <v>85.56375596179549</v>
+        <v>79.0922189495345</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>667.949394258667</v>
+        <v>648.2587513309341</v>
       </c>
       <c r="C49">
-        <v>6.23460748293704</v>
+        <v>6.07874476318933</v>
       </c>
       <c r="D49">
-        <v>3.62936352790996</v>
+        <v>3.58742973409198</v>
       </c>
       <c r="E49">
-        <v>17.0175247496625</v>
+        <v>18.161874476557</v>
       </c>
       <c r="F49">
-        <v>26.1919780202586</v>
+        <v>25.3673417255133</v>
       </c>
       <c r="G49">
-        <v>16.3452174132592</v>
+        <v>17.5474212624316</v>
       </c>
       <c r="H49">
-        <v>5.7085013715981</v>
+        <v>5.47466650680319</v>
       </c>
       <c r="I49">
-        <v>6.58597376947334</v>
+        <v>7.34254254483452</v>
       </c>
       <c r="J49">
-        <v>19.5141688434478</v>
+        <v>21.391721304336</v>
       </c>
       <c r="K49">
-        <v>6.08571433555556</v>
+        <v>5.68478689630405</v>
       </c>
       <c r="L49">
-        <v>1.7415308314446</v>
+        <v>1.67162792240935</v>
       </c>
       <c r="M49">
-        <v>5.94457590254465</v>
+        <v>6.10842880633584</v>
       </c>
       <c r="N49">
-        <v>4.74730725267234</v>
+        <v>4.90848817565119</v>
       </c>
       <c r="O49">
-        <v>539.195843124499</v>
+        <v>561.88458340862</v>
       </c>
       <c r="P49">
-        <v>8.26359412298304</v>
+        <v>7.66966986949261</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1261.70846744418</v>
+        <v>1125.41580807681</v>
       </c>
       <c r="C50">
-        <v>71.55102392556201</v>
+        <v>69.6013651680716</v>
       </c>
       <c r="D50">
-        <v>12.1417325205043</v>
+        <v>15.5654559056272</v>
       </c>
       <c r="E50">
-        <v>136.482953441234</v>
+        <v>139.152096619516</v>
       </c>
       <c r="F50">
-        <v>3.10204086185817</v>
+        <v>2.55076911938357</v>
       </c>
       <c r="G50">
-        <v>22.4936813712482</v>
+        <v>29.3685409281112</v>
       </c>
       <c r="H50">
-        <v>36.9987469930754</v>
+        <v>36.5468517695299</v>
       </c>
       <c r="I50">
-        <v>12.7923324933518</v>
+        <v>13.2684732596156</v>
       </c>
       <c r="J50">
-        <v>109.423489207836</v>
+        <v>114.551806702572</v>
       </c>
       <c r="K50">
-        <v>91.75600157847499</v>
+        <v>94.0498110543965</v>
       </c>
       <c r="L50">
-        <v>58.4427977940633</v>
+        <v>66.8839453595713</v>
       </c>
       <c r="M50">
-        <v>47.1291230865745</v>
+        <v>48.3222556307026</v>
       </c>
       <c r="N50">
-        <v>54.8852455755857</v>
+        <v>58.3700345134632</v>
       </c>
       <c r="O50">
-        <v>1788.63978082564</v>
+        <v>1925.87799391916</v>
       </c>
       <c r="P50">
-        <v>104.00023447706</v>
+        <v>68.49601036535709</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>122.587049937546</v>
+        <v>112.125935549524</v>
       </c>
       <c r="C51">
-        <v>1.88891529863756</v>
+        <v>2.29020847078581</v>
       </c>
       <c r="D51">
-        <v>0.181447439801806</v>
+        <v>0.172877816019779</v>
       </c>
       <c r="E51">
-        <v>2.36309110305853</v>
+        <v>2.54167070113587</v>
       </c>
       <c r="F51">
-        <v>21.1608564786521</v>
+        <v>20.1983227533075</v>
       </c>
       <c r="G51">
-        <v>2.09342059153815</v>
+        <v>2.17558369101044</v>
       </c>
       <c r="H51">
-        <v>0.0350173610865087</v>
+        <v>0.0495000708482197</v>
       </c>
       <c r="I51">
-        <v>0.568045780378001</v>
+        <v>0.5220790506941641</v>
       </c>
       <c r="J51">
-        <v>1.56153519211073</v>
+        <v>1.57481769172658</v>
       </c>
       <c r="K51">
-        <v>0.667020006775068</v>
+        <v>0.798703747934433</v>
       </c>
       <c r="L51">
-        <v>0.354072672107968</v>
+        <v>0.298719391757636</v>
       </c>
       <c r="M51">
-        <v>0.292613138983313</v>
+        <v>0.368763611824327</v>
       </c>
       <c r="N51">
-        <v>0.83730587605171</v>
+        <v>1.03240778675459</v>
       </c>
       <c r="O51">
-        <v>177.971268824821</v>
+        <v>192.644060314711</v>
       </c>
       <c r="P51">
-        <v>14.1961999789364</v>
+        <v>11.6693667936242</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1346.8098661643</v>
+        <v>1347.44523914928</v>
       </c>
       <c r="C2">
-        <v>30.2548442897885</v>
+        <v>32.0369026735102</v>
       </c>
       <c r="D2">
-        <v>63.4301098308528</v>
+        <v>70.28876376430181</v>
       </c>
       <c r="E2">
-        <v>58.6721951688089</v>
+        <v>64.1341568462625</v>
       </c>
       <c r="F2">
-        <v>18.7923298694263</v>
+        <v>19.5078497850178</v>
       </c>
       <c r="G2">
-        <v>15.6750822936587</v>
+        <v>15.5869014412956</v>
       </c>
       <c r="H2">
-        <v>25.089742759122</v>
+        <v>25.8993328338062</v>
       </c>
       <c r="I2">
-        <v>11.4835171824335</v>
+        <v>11.8767066353213</v>
       </c>
       <c r="J2">
-        <v>62.1589819197294</v>
+        <v>61.8112864251889</v>
       </c>
       <c r="K2">
-        <v>16.9691332756598</v>
+        <v>17.5555435339328</v>
       </c>
       <c r="L2">
-        <v>36.4882976295349</v>
+        <v>35.8900021344112</v>
       </c>
       <c r="M2">
-        <v>42.5370452799886</v>
+        <v>41.7141200581399</v>
       </c>
       <c r="N2">
-        <v>26.287127820384</v>
+        <v>27.6582871179277</v>
       </c>
       <c r="O2">
-        <v>1374.91076954097</v>
+        <v>1355.38508771936</v>
       </c>
       <c r="P2">
-        <v>27.5191744640253</v>
+        <v>30.7484544837852</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>127.200942483237</v>
+        <v>127.260050051614</v>
       </c>
       <c r="C3">
-        <v>4.28556379693415</v>
+        <v>4.33594615782467</v>
       </c>
       <c r="D3">
-        <v>0.214810077833535</v>
+        <v>0.223936742044372</v>
       </c>
       <c r="E3">
-        <v>1.41780981523544</v>
+        <v>1.51438073777285</v>
       </c>
       <c r="F3">
-        <v>9.35469571658555</v>
+        <v>8.558668388891951</v>
       </c>
       <c r="G3">
-        <v>0.339872832742296</v>
+        <v>0.28641830381595</v>
       </c>
       <c r="H3">
-        <v>0.0425549364920551</v>
+        <v>0.0238485155604422</v>
       </c>
       <c r="I3">
-        <v>0.438242748745025</v>
+        <v>0.401074456529268</v>
       </c>
       <c r="J3">
-        <v>0.513547652389668</v>
+        <v>0.49728127763489</v>
       </c>
       <c r="K3">
-        <v>0.106756209644337</v>
+        <v>0.138968282497312</v>
       </c>
       <c r="L3">
-        <v>0.258787590700963</v>
+        <v>0.240954842102081</v>
       </c>
       <c r="M3">
-        <v>0.678392117594086</v>
+        <v>0.692310692963771</v>
       </c>
       <c r="N3">
-        <v>0.883087528405166</v>
+        <v>0.883568870956031</v>
       </c>
       <c r="O3">
-        <v>239.234000904391</v>
+        <v>238.303146940805</v>
       </c>
       <c r="P3">
-        <v>8.974813873867999</v>
+        <v>10.8108231313658</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1405.48202667783</v>
+        <v>1406.09816561701</v>
       </c>
       <c r="C4">
-        <v>9.79526610218981</v>
+        <v>9.996842252439461</v>
       </c>
       <c r="D4">
-        <v>4.06987799985479</v>
+        <v>4.08778922748302</v>
       </c>
       <c r="E4">
-        <v>24.7767660997695</v>
+        <v>24.8340483022024</v>
       </c>
       <c r="F4">
-        <v>9.3617892536168</v>
+        <v>12.6477193392229</v>
       </c>
       <c r="G4">
-        <v>9.69394119952948</v>
+        <v>9.657081638548201</v>
       </c>
       <c r="H4">
-        <v>10.0858975004018</v>
+        <v>10.0372036650733</v>
       </c>
       <c r="I4">
-        <v>10.137661398452</v>
+        <v>10.290869277934</v>
       </c>
       <c r="J4">
-        <v>27.9809773598846</v>
+        <v>28.4693787122148</v>
       </c>
       <c r="K4">
-        <v>6.51273564707691</v>
+        <v>6.28201205786249</v>
       </c>
       <c r="L4">
-        <v>79.222310568909</v>
+        <v>75.55489151064521</v>
       </c>
       <c r="M4">
-        <v>51.8498304055901</v>
+        <v>49.9137496804438</v>
       </c>
       <c r="N4">
-        <v>29.5623402546757</v>
+        <v>29.3447330445057</v>
       </c>
       <c r="O4">
-        <v>1932.27299090076</v>
+        <v>1926.49065957004</v>
       </c>
       <c r="P4">
-        <v>29.5582427688964</v>
+        <v>35.4872490030517</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>762.019073647625</v>
+        <v>762.76165651807</v>
       </c>
       <c r="C5">
-        <v>51.8258874861892</v>
+        <v>54.4258790516982</v>
       </c>
       <c r="D5">
-        <v>12.4990148438295</v>
+        <v>13.9570502785995</v>
       </c>
       <c r="E5">
-        <v>40.1956646231965</v>
+        <v>43.0956042758443</v>
       </c>
       <c r="F5">
-        <v>4.29075737581178</v>
+        <v>4.72725588588017</v>
       </c>
       <c r="G5">
-        <v>6.74859797400672</v>
+        <v>7.1521345620034</v>
       </c>
       <c r="H5">
-        <v>13.184624241387</v>
+        <v>13.9412394918015</v>
       </c>
       <c r="I5">
-        <v>7.39184421761884</v>
+        <v>7.57501772127925</v>
       </c>
       <c r="J5">
-        <v>30.2781354038324</v>
+        <v>31.6536412409029</v>
       </c>
       <c r="K5">
-        <v>18.2232648634105</v>
+        <v>18.9967018494052</v>
       </c>
       <c r="L5">
-        <v>21.7761518445026</v>
+        <v>22.2883864947069</v>
       </c>
       <c r="M5">
-        <v>21.3952095759266</v>
+        <v>22.1722830304045</v>
       </c>
       <c r="N5">
-        <v>22.8081795805551</v>
+        <v>23.8132577581489</v>
       </c>
       <c r="O5">
-        <v>853.047745338636</v>
+        <v>829.921886397487</v>
       </c>
       <c r="P5">
-        <v>46.7923966009848</v>
+        <v>56.58438003771</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8891.521571601799</v>
+        <v>8893.19520686955</v>
       </c>
       <c r="C6">
-        <v>200.945734956667</v>
+        <v>203.184558370825</v>
       </c>
       <c r="D6">
-        <v>170.314869350588</v>
+        <v>170.878665037026</v>
       </c>
       <c r="E6">
-        <v>136.676502374492</v>
+        <v>137.986827665954</v>
       </c>
       <c r="F6">
-        <v>51.8561066020317</v>
+        <v>52.2010348312862</v>
       </c>
       <c r="G6">
-        <v>95.0310166308365</v>
+        <v>94.31745306624769</v>
       </c>
       <c r="H6">
-        <v>72.5124733252559</v>
+        <v>72.45127879628291</v>
       </c>
       <c r="I6">
-        <v>51.3122197202486</v>
+        <v>51.2886465547987</v>
       </c>
       <c r="J6">
-        <v>189.176580632811</v>
+        <v>188.392544135702</v>
       </c>
       <c r="K6">
-        <v>106.569779782302</v>
+        <v>105.558205779752</v>
       </c>
       <c r="L6">
-        <v>553.502158195927</v>
+        <v>548.057385785049</v>
       </c>
       <c r="M6">
-        <v>251.887306325987</v>
+        <v>250.342492485862</v>
       </c>
       <c r="N6">
-        <v>261.844497362852</v>
+        <v>260.728626256425</v>
       </c>
       <c r="O6">
-        <v>12058.081274531</v>
+        <v>12020.3040158373</v>
       </c>
       <c r="P6">
-        <v>292.497657990785</v>
+        <v>334.348377927242</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>917.802524155635</v>
+        <v>918.630201322971</v>
       </c>
       <c r="C7">
-        <v>33.5791404152267</v>
+        <v>34.5909138952485</v>
       </c>
       <c r="D7">
-        <v>3.31364669515013</v>
+        <v>3.16345059710077</v>
       </c>
       <c r="E7">
-        <v>18.3363548349384</v>
+        <v>17.7985555110582</v>
       </c>
       <c r="F7">
-        <v>16.9420981357515</v>
+        <v>19.1370820628768</v>
       </c>
       <c r="G7">
-        <v>7.55989280809694</v>
+        <v>7.20901755152926</v>
       </c>
       <c r="H7">
-        <v>7.47121191102572</v>
+        <v>7.13496886697901</v>
       </c>
       <c r="I7">
-        <v>8.550738077115721</v>
+        <v>8.315164191571579</v>
       </c>
       <c r="J7">
-        <v>19.9231809613724</v>
+        <v>19.4595287791727</v>
       </c>
       <c r="K7">
-        <v>13.8132106367291</v>
+        <v>13.3577241702569</v>
       </c>
       <c r="L7">
-        <v>60.4940345665566</v>
+        <v>57.4301749930945</v>
       </c>
       <c r="M7">
-        <v>18.941325894941</v>
+        <v>18.0176642511764</v>
       </c>
       <c r="N7">
-        <v>31.7443039200563</v>
+        <v>30.5827096188617</v>
       </c>
       <c r="O7">
-        <v>1849.38003315225</v>
+        <v>1839.6705309162</v>
       </c>
       <c r="P7">
-        <v>28.1824413855723</v>
+        <v>39.8444221904273</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>767.1644433163031</v>
+        <v>767.036295825053</v>
       </c>
       <c r="C8">
-        <v>11.2277233334898</v>
+        <v>11.2771136513925</v>
       </c>
       <c r="D8">
-        <v>6.53908588616679</v>
+        <v>6.40078633236515</v>
       </c>
       <c r="E8">
-        <v>18.1842433918512</v>
+        <v>18.5113328133108</v>
       </c>
       <c r="F8">
-        <v>3.08571873679573</v>
+        <v>3.14595740003192</v>
       </c>
       <c r="G8">
-        <v>31.8267780278108</v>
+        <v>31.5145003964049</v>
       </c>
       <c r="H8">
-        <v>9.64029696752559</v>
+        <v>9.55173092862465</v>
       </c>
       <c r="I8">
-        <v>3.14307935352327</v>
+        <v>3.21823715921798</v>
       </c>
       <c r="J8">
-        <v>38.74829600931</v>
+        <v>38.5261091062251</v>
       </c>
       <c r="K8">
-        <v>28.0395736748786</v>
+        <v>28.003057689669</v>
       </c>
       <c r="L8">
-        <v>45.9335214178199</v>
+        <v>45.4481581688292</v>
       </c>
       <c r="M8">
-        <v>48.7134779294085</v>
+        <v>48.8995666489739</v>
       </c>
       <c r="N8">
-        <v>30.0254613617276</v>
+        <v>30.0078539926024</v>
       </c>
       <c r="O8">
-        <v>1354.71085546873</v>
+        <v>1355.03399598954</v>
       </c>
       <c r="P8">
-        <v>4.36027798065405</v>
+        <v>4.62543404186105</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>184.546157678215</v>
+        <v>184.594844424925</v>
       </c>
       <c r="C9">
-        <v>7.43203106979593</v>
+        <v>7.78757832815643</v>
       </c>
       <c r="D9">
-        <v>2.45015596931239</v>
+        <v>2.43595188783927</v>
       </c>
       <c r="E9">
-        <v>4.53708185529373</v>
+        <v>4.69521849992453</v>
       </c>
       <c r="F9">
-        <v>1.6761310924524</v>
+        <v>1.7262867331668</v>
       </c>
       <c r="G9">
-        <v>18.7781873398342</v>
+        <v>17.8132695012149</v>
       </c>
       <c r="H9">
-        <v>2.99556552117697</v>
+        <v>2.94793938879334</v>
       </c>
       <c r="I9">
-        <v>0.772336109246115</v>
+        <v>0.78195520980822</v>
       </c>
       <c r="J9">
-        <v>3.56178260520605</v>
+        <v>3.42087529813607</v>
       </c>
       <c r="K9">
-        <v>2.62313865380045</v>
+        <v>2.53705914755473</v>
       </c>
       <c r="L9">
-        <v>2.76652593420181</v>
+        <v>2.70416954468006</v>
       </c>
       <c r="M9">
-        <v>7.71502030429783</v>
+        <v>6.94667316037363</v>
       </c>
       <c r="N9">
-        <v>4.76074270081282</v>
+        <v>4.84652472099438</v>
       </c>
       <c r="O9">
-        <v>307.386822385349</v>
+        <v>308.41010032039</v>
       </c>
       <c r="P9">
-        <v>4.42119538213795</v>
+        <v>4.74904692922136</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4800.61291714179</v>
+        <v>4800.91970371453</v>
       </c>
       <c r="C10">
-        <v>63.7761539728078</v>
+        <v>64.69284924270571</v>
       </c>
       <c r="D10">
-        <v>34.4345446287342</v>
+        <v>34.6997609524303</v>
       </c>
       <c r="E10">
-        <v>51.9399864035088</v>
+        <v>53.1922259341529</v>
       </c>
       <c r="F10">
-        <v>7.99052942895911</v>
+        <v>8.476245993831791</v>
       </c>
       <c r="G10">
-        <v>33.2788017545789</v>
+        <v>33.2465241946811</v>
       </c>
       <c r="H10">
-        <v>21.905729635312</v>
+        <v>22.0602461188754</v>
       </c>
       <c r="I10">
-        <v>35.8467228054078</v>
+        <v>36.0173715062529</v>
       </c>
       <c r="J10">
-        <v>55.4929914826967</v>
+        <v>56.0088961006766</v>
       </c>
       <c r="K10">
-        <v>29.750624796177</v>
+        <v>30.0013039297599</v>
       </c>
       <c r="L10">
-        <v>95.5111236009687</v>
+        <v>95.1191065255184</v>
       </c>
       <c r="M10">
-        <v>73.57066363096941</v>
+        <v>74.37847842794901</v>
       </c>
       <c r="N10">
-        <v>83.36022303379789</v>
+        <v>82.97189967553651</v>
       </c>
       <c r="O10">
-        <v>6370.83177395751</v>
+        <v>6358.85232484741</v>
       </c>
       <c r="P10">
-        <v>82.3120924985612</v>
+        <v>88.24248443486</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1969.03446846695</v>
+        <v>1969.25940896007</v>
       </c>
       <c r="C11">
-        <v>79.6342887443297</v>
+        <v>82.6653558437868</v>
       </c>
       <c r="D11">
-        <v>132.243655533001</v>
+        <v>144.404951727</v>
       </c>
       <c r="E11">
-        <v>86.76007956171181</v>
+        <v>89.97566280266101</v>
       </c>
       <c r="F11">
-        <v>5.55396623768072</v>
+        <v>6.77160577918239</v>
       </c>
       <c r="G11">
-        <v>31.7877605067225</v>
+        <v>32.6669784420545</v>
       </c>
       <c r="H11">
-        <v>17.1638573055253</v>
+        <v>17.9084497197261</v>
       </c>
       <c r="I11">
-        <v>19.7884728255969</v>
+        <v>20.3423110492174</v>
       </c>
       <c r="J11">
-        <v>48.245892620138</v>
+        <v>50.2012738685143</v>
       </c>
       <c r="K11">
-        <v>30.6127991603395</v>
+        <v>31.9372212798303</v>
       </c>
       <c r="L11">
-        <v>69.9118066405583</v>
+        <v>68.2580505752036</v>
       </c>
       <c r="M11">
-        <v>58.8115446936207</v>
+        <v>60.7294568876075</v>
       </c>
       <c r="N11">
-        <v>53.5400033569739</v>
+        <v>53.7704353446522</v>
       </c>
       <c r="O11">
-        <v>3042.73754607789</v>
+        <v>3008.84678557723</v>
       </c>
       <c r="P11">
-        <v>49.8916533853437</v>
+        <v>57.8900140721408</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>297.390465796511</v>
+        <v>297.572431132667</v>
       </c>
       <c r="C12">
-        <v>8.117005305043641</v>
+        <v>8.454561207944529</v>
       </c>
       <c r="D12">
-        <v>1.79299038433756</v>
+        <v>1.70286027523324</v>
       </c>
       <c r="E12">
-        <v>0.762112604885566</v>
+        <v>0.7352240266707</v>
       </c>
       <c r="F12">
-        <v>0.821813896680185</v>
+        <v>0.820862743903473</v>
       </c>
       <c r="G12">
-        <v>0.163197447662374</v>
+        <v>0.180559480429888</v>
       </c>
       <c r="H12">
-        <v>0.0231816501750599</v>
+        <v>0.0303711833605738</v>
       </c>
       <c r="I12">
-        <v>0.997465222895069</v>
+        <v>0.9780908744411631</v>
       </c>
       <c r="J12">
-        <v>1.45410276259249</v>
+        <v>1.43820586990988</v>
       </c>
       <c r="K12">
-        <v>0.219323117744034</v>
+        <v>0.197978272317022</v>
       </c>
       <c r="L12">
-        <v>0.232305598981215</v>
+        <v>0.229520726475115</v>
       </c>
       <c r="M12">
-        <v>4.04250675031656</v>
+        <v>3.91451513202265</v>
       </c>
       <c r="N12">
-        <v>3.52327750660411</v>
+        <v>3.51525958706556</v>
       </c>
       <c r="O12">
-        <v>506.330967031998</v>
+        <v>503.689458166446</v>
       </c>
       <c r="P12">
-        <v>14.0985557052189</v>
+        <v>16.5941881630971</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>282.891122633316</v>
+        <v>283.017668362436</v>
       </c>
       <c r="C13">
-        <v>18.4902055543898</v>
+        <v>19.2069871661444</v>
       </c>
       <c r="D13">
-        <v>0.72633605518406</v>
+        <v>0.727673371985972</v>
       </c>
       <c r="E13">
-        <v>13.4998901112217</v>
+        <v>14.1624376507819</v>
       </c>
       <c r="F13">
-        <v>2.76869957455302</v>
+        <v>3.93595907270398</v>
       </c>
       <c r="G13">
-        <v>4.81339590030881</v>
+        <v>5.19262679563639</v>
       </c>
       <c r="H13">
-        <v>1.34798931631228</v>
+        <v>1.33377279588795</v>
       </c>
       <c r="I13">
-        <v>1.22482643858944</v>
+        <v>1.20724937665686</v>
       </c>
       <c r="J13">
-        <v>5.37100073641457</v>
+        <v>5.31565306963931</v>
       </c>
       <c r="K13">
-        <v>3.53500783064674</v>
+        <v>3.40788923540419</v>
       </c>
       <c r="L13">
-        <v>25.1014646277779</v>
+        <v>20.6484986425889</v>
       </c>
       <c r="M13">
-        <v>1.45026715083096</v>
+        <v>1.46377285805983</v>
       </c>
       <c r="N13">
-        <v>6.33783184180093</v>
+        <v>6.23924769294259</v>
       </c>
       <c r="O13">
-        <v>471.435693006102</v>
+        <v>465.286891760754</v>
       </c>
       <c r="P13">
-        <v>40.0324200546062</v>
+        <v>48.2748409773908</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3050.08107762298</v>
+        <v>3051.12874575413</v>
       </c>
       <c r="C14">
-        <v>120.997927515052</v>
+        <v>123.461163653591</v>
       </c>
       <c r="D14">
-        <v>15.8562498547078</v>
+        <v>15.4026539840974</v>
       </c>
       <c r="E14">
-        <v>92.88203901150681</v>
+        <v>94.15625018224191</v>
       </c>
       <c r="F14">
-        <v>21.7896091892924</v>
+        <v>25.2600455007762</v>
       </c>
       <c r="G14">
-        <v>92.2572914037284</v>
+        <v>91.7369058488345</v>
       </c>
       <c r="H14">
-        <v>56.4368670969594</v>
+        <v>59.1204181345136</v>
       </c>
       <c r="I14">
-        <v>27.8507179619337</v>
+        <v>30.2050475188632</v>
       </c>
       <c r="J14">
-        <v>158.319953827814</v>
+        <v>163.989889517815</v>
       </c>
       <c r="K14">
-        <v>148.189835924933</v>
+        <v>158.096624254844</v>
       </c>
       <c r="L14">
-        <v>135.638201066395</v>
+        <v>132.552063624003</v>
       </c>
       <c r="M14">
-        <v>77.4426668123479</v>
+        <v>86.2795751436034</v>
       </c>
       <c r="N14">
-        <v>90.0144685515735</v>
+        <v>89.1290057594032</v>
       </c>
       <c r="O14">
-        <v>4524.86792548821</v>
+        <v>4470.76499334906</v>
       </c>
       <c r="P14">
-        <v>55.5611048843309</v>
+        <v>76.0419110946311</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1422.18717339327</v>
+        <v>1422.48196849711</v>
       </c>
       <c r="C15">
-        <v>32.4919492829492</v>
+        <v>33.3681329478438</v>
       </c>
       <c r="D15">
-        <v>11.6122663128683</v>
+        <v>12.2781768489646</v>
       </c>
       <c r="E15">
-        <v>68.1116316864052</v>
+        <v>71.09809359799669</v>
       </c>
       <c r="F15">
-        <v>15.7568558713905</v>
+        <v>16.528929960968</v>
       </c>
       <c r="G15">
-        <v>42.5666961958719</v>
+        <v>40.3948644172544</v>
       </c>
       <c r="H15">
-        <v>48.6689397999063</v>
+        <v>52.0146131777802</v>
       </c>
       <c r="I15">
-        <v>24.9304462474866</v>
+        <v>26.41774468942</v>
       </c>
       <c r="J15">
-        <v>151.107655847951</v>
+        <v>155.125295660205</v>
       </c>
       <c r="K15">
-        <v>55.8793921294951</v>
+        <v>56.9868765947398</v>
       </c>
       <c r="L15">
-        <v>45.7398697092354</v>
+        <v>47.6717662118141</v>
       </c>
       <c r="M15">
-        <v>181.903558623857</v>
+        <v>190.643986332468</v>
       </c>
       <c r="N15">
-        <v>80.4851428011753</v>
+        <v>87.1951665076701</v>
       </c>
       <c r="O15">
-        <v>2044.72506639394</v>
+        <v>2012.20405671487</v>
       </c>
       <c r="P15">
-        <v>46.2751410784523</v>
+        <v>48.6710206698516</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>612.539241643826</v>
+        <v>612.4851909778751</v>
       </c>
       <c r="C16">
-        <v>62.4606334119366</v>
+        <v>63.1119254632971</v>
       </c>
       <c r="D16">
-        <v>4.79947323674013</v>
+        <v>5.33445750570636</v>
       </c>
       <c r="E16">
-        <v>21.4264234682537</v>
+        <v>21.6096073072485</v>
       </c>
       <c r="F16">
-        <v>3.03825639627194</v>
+        <v>3.79379012017672</v>
       </c>
       <c r="G16">
-        <v>14.0157707664464</v>
+        <v>14.2426898556914</v>
       </c>
       <c r="H16">
-        <v>13.9957206317662</v>
+        <v>14.7421742005894</v>
       </c>
       <c r="I16">
-        <v>7.42242454665133</v>
+        <v>8.222745073082329</v>
       </c>
       <c r="J16">
-        <v>42.3989720187612</v>
+        <v>45.084391422859</v>
       </c>
       <c r="K16">
-        <v>49.4121604513164</v>
+        <v>52.1896002030423</v>
       </c>
       <c r="L16">
-        <v>33.6001606393331</v>
+        <v>33.1539171020766</v>
       </c>
       <c r="M16">
-        <v>25.6487612590907</v>
+        <v>27.7207616740917</v>
       </c>
       <c r="N16">
-        <v>25.7115338606589</v>
+        <v>26.276061456342</v>
       </c>
       <c r="O16">
-        <v>1069.43452258917</v>
+        <v>1044.9946830768</v>
       </c>
       <c r="P16">
-        <v>70.55532668405461</v>
+        <v>84.04597168802501</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>564.451154723004</v>
+        <v>565.142124213382</v>
       </c>
       <c r="C17">
-        <v>26.3281494320802</v>
+        <v>24.8752363096543</v>
       </c>
       <c r="D17">
-        <v>3.24073430864658</v>
+        <v>3.09444121432173</v>
       </c>
       <c r="E17">
-        <v>19.2800684975276</v>
+        <v>18.7995301167691</v>
       </c>
       <c r="F17">
-        <v>10.5290592089326</v>
+        <v>12.1397491204015</v>
       </c>
       <c r="G17">
-        <v>7.78791890584387</v>
+        <v>7.39740285945899</v>
       </c>
       <c r="H17">
-        <v>8.90215763775876</v>
+        <v>9.6144259319345</v>
       </c>
       <c r="I17">
-        <v>6.49014494726591</v>
+        <v>6.86922618229977</v>
       </c>
       <c r="J17">
-        <v>16.9154031895948</v>
+        <v>18.1588296003541</v>
       </c>
       <c r="K17">
-        <v>14.7675174959617</v>
+        <v>15.5201708917753</v>
       </c>
       <c r="L17">
-        <v>11.7233583827072</v>
+        <v>11.3163634601074</v>
       </c>
       <c r="M17">
-        <v>72.1793467963512</v>
+        <v>68.1614399590171</v>
       </c>
       <c r="N17">
-        <v>15.4156404222866</v>
+        <v>15.2919242840061</v>
       </c>
       <c r="O17">
-        <v>1026.8105816671</v>
+        <v>1010.43560593878</v>
       </c>
       <c r="P17">
-        <v>42.5094718170462</v>
+        <v>60.9235412514087</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1141.2817236617</v>
+        <v>1141.44493533445</v>
       </c>
       <c r="C18">
-        <v>33.2393402537632</v>
+        <v>33.8458319656689</v>
       </c>
       <c r="D18">
-        <v>12.5060192663273</v>
+        <v>13.1650648971877</v>
       </c>
       <c r="E18">
-        <v>39.6127085231854</v>
+        <v>39.6884612679078</v>
       </c>
       <c r="F18">
-        <v>28.0576489615963</v>
+        <v>29.392195436094</v>
       </c>
       <c r="G18">
-        <v>24.1200223812738</v>
+        <v>24.0246664075156</v>
       </c>
       <c r="H18">
-        <v>20.0272984508401</v>
+        <v>20.0341523257319</v>
       </c>
       <c r="I18">
-        <v>8.38689750273851</v>
+        <v>8.133288406509839</v>
       </c>
       <c r="J18">
-        <v>44.3809701421712</v>
+        <v>44.4780830649511</v>
       </c>
       <c r="K18">
-        <v>27.1634082070013</v>
+        <v>26.7534144542563</v>
       </c>
       <c r="L18">
-        <v>36.5774050258393</v>
+        <v>36.2346160750821</v>
       </c>
       <c r="M18">
-        <v>68.3513423059118</v>
+        <v>67.4686689634198</v>
       </c>
       <c r="N18">
-        <v>20.2388956692885</v>
+        <v>20.0348364220001</v>
       </c>
       <c r="O18">
-        <v>1331.21284794599</v>
+        <v>1329.91996136892</v>
       </c>
       <c r="P18">
-        <v>48.4614618658927</v>
+        <v>49.169981636016</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1303.30362430175</v>
+        <v>1302.90968412724</v>
       </c>
       <c r="C19">
-        <v>25.0220478780339</v>
+        <v>26.2640910892828</v>
       </c>
       <c r="D19">
-        <v>10.7518017102696</v>
+        <v>11.5492629754513</v>
       </c>
       <c r="E19">
-        <v>32.5263692648985</v>
+        <v>37.197894018144</v>
       </c>
       <c r="F19">
-        <v>88.919452604008</v>
+        <v>89.48399640018231</v>
       </c>
       <c r="G19">
-        <v>40.1892279060632</v>
+        <v>40.2751553101282</v>
       </c>
       <c r="H19">
-        <v>4.24713283940315</v>
+        <v>4.29887953958652</v>
       </c>
       <c r="I19">
-        <v>4.5139282555542</v>
+        <v>4.63615074777536</v>
       </c>
       <c r="J19">
-        <v>14.5864465772682</v>
+        <v>14.9861628261824</v>
       </c>
       <c r="K19">
-        <v>13.1461151531457</v>
+        <v>13.1107121423956</v>
       </c>
       <c r="L19">
-        <v>4.33135542662498</v>
+        <v>4.23762898197048</v>
       </c>
       <c r="M19">
-        <v>31.5980965923097</v>
+        <v>30.4786940512488</v>
       </c>
       <c r="N19">
-        <v>10.8192118342961</v>
+        <v>10.915902250487</v>
       </c>
       <c r="O19">
-        <v>1463.52506297981</v>
+        <v>1452.11302896402</v>
       </c>
       <c r="P19">
-        <v>32.4203776980848</v>
+        <v>37.3844041468522</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>318.440080080584</v>
+        <v>318.894477112013</v>
       </c>
       <c r="C20">
-        <v>7.56143344106064</v>
+        <v>7.65140239511929</v>
       </c>
       <c r="D20">
-        <v>11.7453266845318</v>
+        <v>12.7061756988959</v>
       </c>
       <c r="E20">
-        <v>32.8676332707429</v>
+        <v>37.0980790965857</v>
       </c>
       <c r="F20">
-        <v>0.441919444635901</v>
+        <v>0.435231315101889</v>
       </c>
       <c r="G20">
-        <v>1.70233068800541</v>
+        <v>1.63699123048514</v>
       </c>
       <c r="H20">
-        <v>1.96132838249191</v>
+        <v>1.89200795011438</v>
       </c>
       <c r="I20">
-        <v>1.82097732334711</v>
+        <v>1.77451143145065</v>
       </c>
       <c r="J20">
-        <v>4.03740183278498</v>
+        <v>3.99393131112793</v>
       </c>
       <c r="K20">
-        <v>3.95828057637401</v>
+        <v>3.70349315516806</v>
       </c>
       <c r="L20">
-        <v>9.51889343776911</v>
+        <v>8.607957903845721</v>
       </c>
       <c r="M20">
-        <v>18.9933474334526</v>
+        <v>16.8246314031639</v>
       </c>
       <c r="N20">
-        <v>5.25521831845325</v>
+        <v>5.26832144959883</v>
       </c>
       <c r="O20">
-        <v>493.76163337484</v>
+        <v>486.293949463043</v>
       </c>
       <c r="P20">
-        <v>18.553106694413</v>
+        <v>24.236757412565</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1210.94680218896</v>
+        <v>1210.91182102747</v>
       </c>
       <c r="C21">
-        <v>22.1727796078376</v>
+        <v>23.199738621089</v>
       </c>
       <c r="D21">
-        <v>5.84839039744823</v>
+        <v>6.36248573778576</v>
       </c>
       <c r="E21">
-        <v>28.0313782705553</v>
+        <v>28.8617114565467</v>
       </c>
       <c r="F21">
-        <v>5.18958200872211</v>
+        <v>5.52980008564996</v>
       </c>
       <c r="G21">
-        <v>26.0084935666623</v>
+        <v>25.9120817583767</v>
       </c>
       <c r="H21">
-        <v>2.73652569826991</v>
+        <v>2.91529934100953</v>
       </c>
       <c r="I21">
-        <v>4.9436921553979</v>
+        <v>5.07173885773818</v>
       </c>
       <c r="J21">
-        <v>31.4765157459926</v>
+        <v>32.3126651098032</v>
       </c>
       <c r="K21">
-        <v>5.05896887501207</v>
+        <v>5.26152155253927</v>
       </c>
       <c r="L21">
-        <v>32.271050852563</v>
+        <v>32.2642403582235</v>
       </c>
       <c r="M21">
-        <v>34.8035330550093</v>
+        <v>34.9591789534807</v>
       </c>
       <c r="N21">
-        <v>24.2000175702853</v>
+        <v>24.3919784331608</v>
       </c>
       <c r="O21">
-        <v>2251.20361373322</v>
+        <v>2243.89973542822</v>
       </c>
       <c r="P21">
-        <v>18.9320725480294</v>
+        <v>21.241150270477</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1484.14879946185</v>
+        <v>1483.99269773653</v>
       </c>
       <c r="C22">
-        <v>15.5723674904137</v>
+        <v>15.5152387438586</v>
       </c>
       <c r="D22">
-        <v>26.7769887392359</v>
+        <v>27.3835441030342</v>
       </c>
       <c r="E22">
-        <v>43.5989903011596</v>
+        <v>45.3660112005027</v>
       </c>
       <c r="F22">
-        <v>2.4266087921444</v>
+        <v>2.56081552835465</v>
       </c>
       <c r="G22">
-        <v>28.8031356242906</v>
+        <v>28.6464551058943</v>
       </c>
       <c r="H22">
-        <v>19.2149426659026</v>
+        <v>19.5765540692308</v>
       </c>
       <c r="I22">
-        <v>9.45884993193199</v>
+        <v>10.117341082046</v>
       </c>
       <c r="J22">
-        <v>46.6573195855918</v>
+        <v>47.6121236045733</v>
       </c>
       <c r="K22">
-        <v>27.1116276502624</v>
+        <v>27.2904453071633</v>
       </c>
       <c r="L22">
-        <v>129.355121761244</v>
+        <v>127.208291913906</v>
       </c>
       <c r="M22">
-        <v>17.4250294400464</v>
+        <v>17.3718106321652</v>
       </c>
       <c r="N22">
-        <v>66.3328092432192</v>
+        <v>66.96648601971261</v>
       </c>
       <c r="O22">
-        <v>2568.9531872123</v>
+        <v>2563.69130235591</v>
       </c>
       <c r="P22">
-        <v>10.8143725175716</v>
+        <v>12.9976974279366</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2527.84953385136</v>
+        <v>2529.57656705779</v>
       </c>
       <c r="C23">
-        <v>46.8116300143381</v>
+        <v>49.8403873462939</v>
       </c>
       <c r="D23">
-        <v>10.4578405542373</v>
+        <v>10.7467336605098</v>
       </c>
       <c r="E23">
-        <v>52.389426116304</v>
+        <v>58.0272677494226</v>
       </c>
       <c r="F23">
-        <v>8.21381884084289</v>
+        <v>11.0362325030699</v>
       </c>
       <c r="G23">
-        <v>53.2585554448069</v>
+        <v>52.6642602220615</v>
       </c>
       <c r="H23">
-        <v>62.5653859811887</v>
+        <v>65.85162013449531</v>
       </c>
       <c r="I23">
-        <v>12.615027540552</v>
+        <v>14.164290033499</v>
       </c>
       <c r="J23">
-        <v>143.429389486956</v>
+        <v>147.294074312022</v>
       </c>
       <c r="K23">
-        <v>108.776876502247</v>
+        <v>110.033848482969</v>
       </c>
       <c r="L23">
-        <v>43.7049280885887</v>
+        <v>44.1390471902572</v>
       </c>
       <c r="M23">
-        <v>555.917841528801</v>
+        <v>531.133945527269</v>
       </c>
       <c r="N23">
-        <v>80.053403710102</v>
+        <v>79.5589320527548</v>
       </c>
       <c r="O23">
-        <v>3244.15453179017</v>
+        <v>3225.44859817029</v>
       </c>
       <c r="P23">
-        <v>46.2833248476896</v>
+        <v>65.7571493698146</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>975.7596266254381</v>
+        <v>977.161722650542</v>
       </c>
       <c r="C24">
-        <v>54.8485070604859</v>
+        <v>62.5678865459364</v>
       </c>
       <c r="D24">
-        <v>7.73253746865307</v>
+        <v>8.967501987282899</v>
       </c>
       <c r="E24">
-        <v>60.9231926126948</v>
+        <v>59.3443182903237</v>
       </c>
       <c r="F24">
-        <v>8.714263707917461</v>
+        <v>10.0386708373515</v>
       </c>
       <c r="G24">
-        <v>26.456751792043</v>
+        <v>25.4965361964699</v>
       </c>
       <c r="H24">
-        <v>19.0065638197143</v>
+        <v>19.1240472349901</v>
       </c>
       <c r="I24">
-        <v>16.8815681642204</v>
+        <v>18.4310667114393</v>
       </c>
       <c r="J24">
-        <v>47.3760672945636</v>
+        <v>50.1441424739869</v>
       </c>
       <c r="K24">
-        <v>57.3074198378734</v>
+        <v>58.5371199412626</v>
       </c>
       <c r="L24">
-        <v>73.9014997216823</v>
+        <v>69.0904987880665</v>
       </c>
       <c r="M24">
-        <v>29.4659776314602</v>
+        <v>32.6523601132734</v>
       </c>
       <c r="N24">
-        <v>70.46368508798879</v>
+        <v>67.7721034291838</v>
       </c>
       <c r="O24">
-        <v>1940.84730029752</v>
+        <v>1885.07954609395</v>
       </c>
       <c r="P24">
-        <v>63.6057289486179</v>
+        <v>108.660292493325</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>814.737332484214</v>
+        <v>814.718324241212</v>
       </c>
       <c r="C25">
-        <v>33.7661324148467</v>
+        <v>36.3139211753836</v>
       </c>
       <c r="D25">
-        <v>15.092892662623</v>
+        <v>16.9746999013121</v>
       </c>
       <c r="E25">
-        <v>37.7718517509552</v>
+        <v>39.8317415007787</v>
       </c>
       <c r="F25">
-        <v>15.8716037712677</v>
+        <v>15.8545162058928</v>
       </c>
       <c r="G25">
-        <v>8.203181375443281</v>
+        <v>7.85705591562824</v>
       </c>
       <c r="H25">
-        <v>14.8854662326147</v>
+        <v>16.060145512634</v>
       </c>
       <c r="I25">
-        <v>4.98718641391609</v>
+        <v>5.00652125088312</v>
       </c>
       <c r="J25">
-        <v>16.3045382409433</v>
+        <v>17.092208134486</v>
       </c>
       <c r="K25">
-        <v>13.6844828752943</v>
+        <v>15.0704713237511</v>
       </c>
       <c r="L25">
-        <v>19.5387144165283</v>
+        <v>20.5711442963106</v>
       </c>
       <c r="M25">
-        <v>32.8359073999177</v>
+        <v>32.088849707032</v>
       </c>
       <c r="N25">
-        <v>39.5403114191487</v>
+        <v>44.21250040227</v>
       </c>
       <c r="O25">
-        <v>845.374960814354</v>
+        <v>826.7777891313421</v>
       </c>
       <c r="P25">
-        <v>36.2576509585969</v>
+        <v>40.9286370428134</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1327.06411882189</v>
+        <v>1327.36842663107</v>
       </c>
       <c r="C26">
-        <v>66.1145916508045</v>
+        <v>70.3755747326548</v>
       </c>
       <c r="D26">
-        <v>15.9288568165756</v>
+        <v>18.0503069114902</v>
       </c>
       <c r="E26">
-        <v>47.3070816047337</v>
+        <v>50.0766240299001</v>
       </c>
       <c r="F26">
-        <v>10.011336848229</v>
+        <v>11.5365334747052</v>
       </c>
       <c r="G26">
-        <v>29.9727665922461</v>
+        <v>28.6586770467494</v>
       </c>
       <c r="H26">
-        <v>19.3442141993799</v>
+        <v>19.8092397615764</v>
       </c>
       <c r="I26">
-        <v>15.3141188932779</v>
+        <v>16.6439737350426</v>
       </c>
       <c r="J26">
-        <v>55.5851820597639</v>
+        <v>58.821623518231</v>
       </c>
       <c r="K26">
-        <v>34.1213543133733</v>
+        <v>34.5299404205688</v>
       </c>
       <c r="L26">
-        <v>38.5444180589068</v>
+        <v>40.1101639333943</v>
       </c>
       <c r="M26">
-        <v>78.3731126875085</v>
+        <v>78.2086133103716</v>
       </c>
       <c r="N26">
-        <v>35.416028777537</v>
+        <v>37.8678902990514</v>
       </c>
       <c r="O26">
-        <v>2107.71286503773</v>
+        <v>2069.21265555672</v>
       </c>
       <c r="P26">
-        <v>59.1322448675258</v>
+        <v>78.00781271140001</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>222.786622968283</v>
+        <v>222.857633121205</v>
       </c>
       <c r="C27">
-        <v>2.28099851198556</v>
+        <v>2.32300296553368</v>
       </c>
       <c r="D27">
-        <v>1.07323573849351</v>
+        <v>1.11139012285564</v>
       </c>
       <c r="E27">
-        <v>9.865072375537659</v>
+        <v>9.780751095080801</v>
       </c>
       <c r="F27">
-        <v>6.14985560417947</v>
+        <v>6.83085342120215</v>
       </c>
       <c r="G27">
-        <v>0.791028396727401</v>
+        <v>0.740381259358689</v>
       </c>
       <c r="H27">
-        <v>0.153576116053751</v>
+        <v>0.160965950274105</v>
       </c>
       <c r="I27">
-        <v>1.93490675295007</v>
+        <v>2.00277383213704</v>
       </c>
       <c r="J27">
-        <v>4.17486024200926</v>
+        <v>4.05364610718198</v>
       </c>
       <c r="K27">
-        <v>1.4140317268539</v>
+        <v>1.42989511696721</v>
       </c>
       <c r="L27">
-        <v>1.43864686787594</v>
+        <v>1.15304180032429</v>
       </c>
       <c r="M27">
-        <v>0.687232952970432</v>
+        <v>0.684247191967034</v>
       </c>
       <c r="N27">
-        <v>3.38500773895553</v>
+        <v>3.31779980243649</v>
       </c>
       <c r="O27">
-        <v>350.289460442872</v>
+        <v>339.320608675486</v>
       </c>
       <c r="P27">
-        <v>31.4364132138816</v>
+        <v>42.6997126111333</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>330.469483759793</v>
+        <v>329.052569664307</v>
       </c>
       <c r="C28">
-        <v>33.4342803822425</v>
+        <v>32.1954052909273</v>
       </c>
       <c r="D28">
-        <v>3.1282303165112</v>
+        <v>3.04228735641234</v>
       </c>
       <c r="E28">
-        <v>7.1286706991077</v>
+        <v>6.47559395941033</v>
       </c>
       <c r="F28">
-        <v>1.73150129035671</v>
+        <v>2.10583447468327</v>
       </c>
       <c r="G28">
-        <v>4.73860099123118</v>
+        <v>4.35281200800609</v>
       </c>
       <c r="H28">
-        <v>7.71730177748977</v>
+        <v>7.81780076064121</v>
       </c>
       <c r="I28">
-        <v>3.7740231888821</v>
+        <v>3.72177119829805</v>
       </c>
       <c r="J28">
-        <v>15.2308381881985</v>
+        <v>16.4566897342843</v>
       </c>
       <c r="K28">
-        <v>12.9241031932006</v>
+        <v>14.4023205940485</v>
       </c>
       <c r="L28">
-        <v>17.1429275662172</v>
+        <v>15.5149397087521</v>
       </c>
       <c r="M28">
-        <v>9.08635751765811</v>
+        <v>9.79628622189999</v>
       </c>
       <c r="N28">
-        <v>9.37658739980812</v>
+        <v>9.270500205305369</v>
       </c>
       <c r="O28">
-        <v>680.931448979677</v>
+        <v>650.828278118201</v>
       </c>
       <c r="P28">
-        <v>56.8225697585249</v>
+        <v>89.6123494241554</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>503.607279088219</v>
+        <v>503.320566510595</v>
       </c>
       <c r="C29">
-        <v>4.09578928432007</v>
+        <v>4.07958420915742</v>
       </c>
       <c r="D29">
-        <v>1.7091562375256</v>
+        <v>1.66048624938221</v>
       </c>
       <c r="E29">
-        <v>3.26207194914318</v>
+        <v>3.21419061451196</v>
       </c>
       <c r="F29">
-        <v>15.6202074151373</v>
+        <v>19.6280391095724</v>
       </c>
       <c r="G29">
-        <v>2.92304144783058</v>
+        <v>2.88553462830219</v>
       </c>
       <c r="H29">
-        <v>2.44652606859813</v>
+        <v>2.35187582991859</v>
       </c>
       <c r="I29">
-        <v>3.05093683745614</v>
+        <v>3.11989474362562</v>
       </c>
       <c r="J29">
-        <v>4.77003206668207</v>
+        <v>4.78734721255979</v>
       </c>
       <c r="K29">
-        <v>3.15957148062078</v>
+        <v>3.03587128228834</v>
       </c>
       <c r="L29">
-        <v>3.00708943837336</v>
+        <v>3.00748238516124</v>
       </c>
       <c r="M29">
-        <v>2.18270418876762</v>
+        <v>2.14926411589267</v>
       </c>
       <c r="N29">
-        <v>8.18274041826195</v>
+        <v>8.076078135159941</v>
       </c>
       <c r="O29">
-        <v>881.140611092844</v>
+        <v>876.505877519192</v>
       </c>
       <c r="P29">
-        <v>5.30352872097507</v>
+        <v>6.24277342612138</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>242.807661561547</v>
+        <v>242.756694212742</v>
       </c>
       <c r="C30">
-        <v>4.14175063395915</v>
+        <v>3.95466630876298</v>
       </c>
       <c r="D30">
-        <v>5.45788376702896</v>
+        <v>5.57108130086409</v>
       </c>
       <c r="E30">
-        <v>14.048346319897</v>
+        <v>15.5583692311447</v>
       </c>
       <c r="F30">
-        <v>0.957142525779169</v>
+        <v>0.966984750415171</v>
       </c>
       <c r="G30">
-        <v>4.14129016900964</v>
+        <v>3.87847316410057</v>
       </c>
       <c r="H30">
-        <v>5.47602627188839</v>
+        <v>5.41444169814679</v>
       </c>
       <c r="I30">
-        <v>2.83670812127958</v>
+        <v>2.75758021090803</v>
       </c>
       <c r="J30">
-        <v>17.4885258822408</v>
+        <v>17.9362664962436</v>
       </c>
       <c r="K30">
-        <v>10.0581385823948</v>
+        <v>10.3305895914505</v>
       </c>
       <c r="L30">
-        <v>41.4858315776202</v>
+        <v>37.0135588854496</v>
       </c>
       <c r="M30">
-        <v>11.1106948960317</v>
+        <v>10.6980408579779</v>
       </c>
       <c r="N30">
-        <v>13.1967994815547</v>
+        <v>13.6141705494828</v>
       </c>
       <c r="O30">
-        <v>496.686539422267</v>
+        <v>497.635360064741</v>
       </c>
       <c r="P30">
-        <v>5.90772532633604</v>
+        <v>7.48811089149178</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2150.72588421421</v>
+        <v>2150.82981950121</v>
       </c>
       <c r="C31">
-        <v>49.3179045861597</v>
+        <v>49.3913061019793</v>
       </c>
       <c r="D31">
-        <v>41.7290799681634</v>
+        <v>41.3779245447978</v>
       </c>
       <c r="E31">
-        <v>47.9073983169214</v>
+        <v>47.7201191819884</v>
       </c>
       <c r="F31">
-        <v>5.63601218027175</v>
+        <v>5.8884116308509</v>
       </c>
       <c r="G31">
-        <v>122.467731068187</v>
+        <v>122.42868582019</v>
       </c>
       <c r="H31">
-        <v>20.0547126775473</v>
+        <v>20.8028687642131</v>
       </c>
       <c r="I31">
-        <v>20.9021385523593</v>
+        <v>21.8939325788701</v>
       </c>
       <c r="J31">
-        <v>40.3914829634598</v>
+        <v>40.6422339479109</v>
       </c>
       <c r="K31">
-        <v>25.1569973332747</v>
+        <v>25.1442431244894</v>
       </c>
       <c r="L31">
-        <v>73.341424398134</v>
+        <v>72.87827408831549</v>
       </c>
       <c r="M31">
-        <v>24.5693449119598</v>
+        <v>24.5053960668724</v>
       </c>
       <c r="N31">
-        <v>47.6799179469757</v>
+        <v>47.4471539534666</v>
       </c>
       <c r="O31">
-        <v>3303.58807083316</v>
+        <v>3300.86286879753</v>
       </c>
       <c r="P31">
-        <v>10.567750193293</v>
+        <v>11.6479047278438</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>501.666949029392</v>
+        <v>501.577709195009</v>
       </c>
       <c r="C32">
-        <v>5.80957585350449</v>
+        <v>5.81878382951489</v>
       </c>
       <c r="D32">
-        <v>1.22671165643885</v>
+        <v>1.22793191680149</v>
       </c>
       <c r="E32">
-        <v>3.64145604770157</v>
+        <v>3.69208502680865</v>
       </c>
       <c r="F32">
-        <v>20.5251568535278</v>
+        <v>21.6993880306644</v>
       </c>
       <c r="G32">
-        <v>1.24544349969226</v>
+        <v>1.15404534690944</v>
       </c>
       <c r="H32">
-        <v>2.47940407105989</v>
+        <v>2.48516216437717</v>
       </c>
       <c r="I32">
-        <v>4.1259483395576</v>
+        <v>4.22132006497394</v>
       </c>
       <c r="J32">
-        <v>4.90897964750522</v>
+        <v>4.81758453781814</v>
       </c>
       <c r="K32">
-        <v>2.14528491165433</v>
+        <v>2.09643580862511</v>
       </c>
       <c r="L32">
-        <v>15.8366051080678</v>
+        <v>14.3904280744367</v>
       </c>
       <c r="M32">
-        <v>2.90901854135515</v>
+        <v>2.66390850473341</v>
       </c>
       <c r="N32">
-        <v>8.95369529225208</v>
+        <v>9.08586093446524</v>
       </c>
       <c r="O32">
-        <v>663.8852600724611</v>
+        <v>659.739246925922</v>
       </c>
       <c r="P32">
-        <v>21.0748478689575</v>
+        <v>26.3473994230035</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5245.2738469942</v>
+        <v>5243.74492452229</v>
       </c>
       <c r="C33">
-        <v>87.5905795659591</v>
+        <v>90.5910279946324</v>
       </c>
       <c r="D33">
-        <v>85.08324537542811</v>
+        <v>81.03348837977801</v>
       </c>
       <c r="E33">
-        <v>85.08050754472529</v>
+        <v>92.5680368155428</v>
       </c>
       <c r="F33">
-        <v>7.6086595853925</v>
+        <v>8.608209039801229</v>
       </c>
       <c r="G33">
-        <v>75.5450674460195</v>
+        <v>78.3821994706192</v>
       </c>
       <c r="H33">
-        <v>30.0666769730545</v>
+        <v>32.8856603940116</v>
       </c>
       <c r="I33">
-        <v>29.8568541465872</v>
+        <v>34.070757010584</v>
       </c>
       <c r="J33">
-        <v>92.23210409174111</v>
+        <v>103.950822303782</v>
       </c>
       <c r="K33">
-        <v>97.4109221870218</v>
+        <v>105.146804457755</v>
       </c>
       <c r="L33">
-        <v>133.692082973658</v>
+        <v>139.632764488597</v>
       </c>
       <c r="M33">
-        <v>68.41503160190879</v>
+        <v>73.5618770769937</v>
       </c>
       <c r="N33">
-        <v>126.044184751866</v>
+        <v>133.31495264346</v>
       </c>
       <c r="O33">
-        <v>7159.92823316453</v>
+        <v>7075.85116963391</v>
       </c>
       <c r="P33">
-        <v>57.3451282539618</v>
+        <v>85.8163287203335</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2031.45434740952</v>
+        <v>2032.01829198168</v>
       </c>
       <c r="C34">
-        <v>73.73343096136119</v>
+        <v>75.11519387151981</v>
       </c>
       <c r="D34">
-        <v>189.357369063968</v>
+        <v>197.653636017827</v>
       </c>
       <c r="E34">
-        <v>56.1378141088718</v>
+        <v>57.4340912114927</v>
       </c>
       <c r="F34">
-        <v>7.71089928068774</v>
+        <v>8.078424579326899</v>
       </c>
       <c r="G34">
-        <v>52.707406136873</v>
+        <v>52.2237013744754</v>
       </c>
       <c r="H34">
-        <v>45.0687029277649</v>
+        <v>44.5545837657391</v>
       </c>
       <c r="I34">
-        <v>18.4430228103475</v>
+        <v>18.4394204157202</v>
       </c>
       <c r="J34">
-        <v>56.4321717975157</v>
+        <v>56.7572369194644</v>
       </c>
       <c r="K34">
-        <v>53.8537709192194</v>
+        <v>53.0305076859324</v>
       </c>
       <c r="L34">
-        <v>103.267582997566</v>
+        <v>102.787073495113</v>
       </c>
       <c r="M34">
-        <v>47.7861967636397</v>
+        <v>47.3554658001234</v>
       </c>
       <c r="N34">
-        <v>118.852473918017</v>
+        <v>121.79342241081</v>
       </c>
       <c r="O34">
-        <v>2791.20035174709</v>
+        <v>2776.66205028692</v>
       </c>
       <c r="P34">
-        <v>59.4175838490699</v>
+        <v>62.2891473688443</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>138.567190393483</v>
+        <v>138.822958977328</v>
       </c>
       <c r="C35">
-        <v>6.70930527457312</v>
+        <v>6.70320189120065</v>
       </c>
       <c r="D35">
-        <v>0.489009647070337</v>
+        <v>0.446891717046913</v>
       </c>
       <c r="E35">
-        <v>2.97983294716959</v>
+        <v>2.74438377011642</v>
       </c>
       <c r="F35">
-        <v>4.44413420197406</v>
+        <v>4.9582990463221</v>
       </c>
       <c r="G35">
-        <v>0.546315693213442</v>
+        <v>0.5028029035027211</v>
       </c>
       <c r="H35">
-        <v>0.345513913369628</v>
+        <v>0.31126169328434</v>
       </c>
       <c r="I35">
-        <v>1.56045077769226</v>
+        <v>1.5167554023001</v>
       </c>
       <c r="J35">
-        <v>2.30953233055766</v>
+        <v>2.24085194815702</v>
       </c>
       <c r="K35">
-        <v>5.4397998186898</v>
+        <v>5.5732617993035</v>
       </c>
       <c r="L35">
-        <v>2.40350557711113</v>
+        <v>2.18669523576281</v>
       </c>
       <c r="M35">
-        <v>2.21437748388005</v>
+        <v>2.36453488818729</v>
       </c>
       <c r="N35">
-        <v>2.50994490857212</v>
+        <v>2.30777428352324</v>
       </c>
       <c r="O35">
-        <v>246.876917281173</v>
+        <v>234.878127366788</v>
       </c>
       <c r="P35">
-        <v>29.5549476525422</v>
+        <v>41.921451344481</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2845.70572899706</v>
+        <v>2846.13901083443</v>
       </c>
       <c r="C36">
-        <v>60.0704002912499</v>
+        <v>62.2578536718779</v>
       </c>
       <c r="D36">
-        <v>14.8257249731225</v>
+        <v>15.276893893773</v>
       </c>
       <c r="E36">
-        <v>98.4545688431334</v>
+        <v>100.644464169671</v>
       </c>
       <c r="F36">
-        <v>27.0557466919465</v>
+        <v>29.3776099865467</v>
       </c>
       <c r="G36">
-        <v>90.73190519763131</v>
+        <v>89.5964119503027</v>
       </c>
       <c r="H36">
-        <v>105.195098589792</v>
+        <v>112.087145046129</v>
       </c>
       <c r="I36">
-        <v>51.0037183039638</v>
+        <v>53.6249634777428</v>
       </c>
       <c r="J36">
-        <v>225.487718436363</v>
+        <v>232.596393986955</v>
       </c>
       <c r="K36">
-        <v>128.18972519976</v>
+        <v>131.821433029059</v>
       </c>
       <c r="L36">
-        <v>95.5214102944224</v>
+        <v>96.5322282828709</v>
       </c>
       <c r="M36">
-        <v>228.187153189422</v>
+        <v>236.243534165395</v>
       </c>
       <c r="N36">
-        <v>85.95359139573981</v>
+        <v>88.7432249183575</v>
       </c>
       <c r="O36">
-        <v>3922.09191872172</v>
+        <v>3879.80830658112</v>
       </c>
       <c r="P36">
-        <v>45.3422912415463</v>
+        <v>49.4822699888261</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>905.3733775444021</v>
+        <v>907.669500072955</v>
       </c>
       <c r="C37">
-        <v>24.718213336991</v>
+        <v>27.0178793488393</v>
       </c>
       <c r="D37">
-        <v>4.96075174875235</v>
+        <v>6.34745112487572</v>
       </c>
       <c r="E37">
-        <v>18.678215604</v>
+        <v>19.7978680823074</v>
       </c>
       <c r="F37">
-        <v>35.7497670594448</v>
+        <v>39.5854110467627</v>
       </c>
       <c r="G37">
-        <v>8.699640134051551</v>
+        <v>8.665288275074801</v>
       </c>
       <c r="H37">
-        <v>22.4175066669027</v>
+        <v>23.467013268375</v>
       </c>
       <c r="I37">
-        <v>11.5351082847121</v>
+        <v>12.3180986709549</v>
       </c>
       <c r="J37">
-        <v>35.8733983051214</v>
+        <v>37.0956850222677</v>
       </c>
       <c r="K37">
-        <v>32.5484262542736</v>
+        <v>32.6355859868896</v>
       </c>
       <c r="L37">
-        <v>20.2009257059486</v>
+        <v>19.5439981803455</v>
       </c>
       <c r="M37">
-        <v>35.0222920317178</v>
+        <v>34.4759038499118</v>
       </c>
       <c r="N37">
-        <v>17.0359718052561</v>
+        <v>17.0187891492443</v>
       </c>
       <c r="O37">
-        <v>1197.47608979256</v>
+        <v>1171.88143620103</v>
       </c>
       <c r="P37">
-        <v>39.8394879385571</v>
+        <v>53.2849602711546</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>878.394633348763</v>
+        <v>878.822317722959</v>
       </c>
       <c r="C38">
-        <v>23.500594886087</v>
+        <v>25.0429168699808</v>
       </c>
       <c r="D38">
-        <v>9.163150015526419</v>
+        <v>8.97359114532444</v>
       </c>
       <c r="E38">
-        <v>60.5371059425343</v>
+        <v>64.33676721270059</v>
       </c>
       <c r="F38">
-        <v>2.62845321962577</v>
+        <v>2.75225427265901</v>
       </c>
       <c r="G38">
-        <v>5.82793663640655</v>
+        <v>5.88511686777685</v>
       </c>
       <c r="H38">
-        <v>5.32522657293303</v>
+        <v>4.98456496992329</v>
       </c>
       <c r="I38">
-        <v>4.41296926778783</v>
+        <v>4.4246408737283</v>
       </c>
       <c r="J38">
-        <v>37.9227383817276</v>
+        <v>37.8361131760514</v>
       </c>
       <c r="K38">
-        <v>7.8318848481643</v>
+        <v>7.32558706398524</v>
       </c>
       <c r="L38">
-        <v>68.1821503409826</v>
+        <v>63.470181949505</v>
       </c>
       <c r="M38">
-        <v>19.5480884324131</v>
+        <v>18.814765195869</v>
       </c>
       <c r="N38">
-        <v>26.7344981665534</v>
+        <v>26.5641698756514</v>
       </c>
       <c r="O38">
-        <v>1281.73307292798</v>
+        <v>1271.92627478304</v>
       </c>
       <c r="P38">
-        <v>55.9092637390274</v>
+        <v>66.79330843210749</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3285.23533432754</v>
+        <v>3286.07108697109</v>
       </c>
       <c r="C39">
-        <v>97.2398827616546</v>
+        <v>99.02383716146331</v>
       </c>
       <c r="D39">
-        <v>56.2680413170204</v>
+        <v>61.3469025340812</v>
       </c>
       <c r="E39">
-        <v>126.440446509771</v>
+        <v>141.216389323518</v>
       </c>
       <c r="F39">
-        <v>32.090852899719</v>
+        <v>37.5446654712607</v>
       </c>
       <c r="G39">
-        <v>106.890446530627</v>
+        <v>100.672990046423</v>
       </c>
       <c r="H39">
-        <v>49.8788962794087</v>
+        <v>53.4020740779289</v>
       </c>
       <c r="I39">
-        <v>39.2277269181843</v>
+        <v>43.9378213243886</v>
       </c>
       <c r="J39">
-        <v>177.899275339966</v>
+        <v>191.901877773896</v>
       </c>
       <c r="K39">
-        <v>93.1973890310221</v>
+        <v>100.930247519227</v>
       </c>
       <c r="L39">
-        <v>109.655564221033</v>
+        <v>110.087301671308</v>
       </c>
       <c r="M39">
-        <v>60.2557096662637</v>
+        <v>64.09040322014791</v>
       </c>
       <c r="N39">
-        <v>100.992049304698</v>
+        <v>105.192368060319</v>
       </c>
       <c r="O39">
-        <v>4375.98647991397</v>
+        <v>4295.76969079837</v>
       </c>
       <c r="P39">
-        <v>55.0963544590308</v>
+        <v>75.691443149393</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>258.1324132342</v>
+        <v>258.109129879125</v>
       </c>
       <c r="C40">
-        <v>3.0705914843028</v>
+        <v>3.03908945055593</v>
       </c>
       <c r="D40">
-        <v>8.01831789810031</v>
+        <v>8.002871512357441</v>
       </c>
       <c r="E40">
-        <v>5.27322116717497</v>
+        <v>5.26920576810784</v>
       </c>
       <c r="F40">
-        <v>0.307372325493838</v>
+        <v>0.300781676910306</v>
       </c>
       <c r="G40">
-        <v>4.39786843800563</v>
+        <v>4.54942834447808</v>
       </c>
       <c r="H40">
-        <v>4.80067300485227</v>
+        <v>4.92068824495999</v>
       </c>
       <c r="I40">
-        <v>1.92795189208732</v>
+        <v>1.94681405957054</v>
       </c>
       <c r="J40">
-        <v>10.6778120779704</v>
+        <v>10.6041143800551</v>
       </c>
       <c r="K40">
-        <v>6.07133129889409</v>
+        <v>6.02030361393049</v>
       </c>
       <c r="L40">
-        <v>14.8437327099366</v>
+        <v>14.8882719563057</v>
       </c>
       <c r="M40">
-        <v>5.5198343828411</v>
+        <v>5.50181676338743</v>
       </c>
       <c r="N40">
-        <v>22.2549892089863</v>
+        <v>21.977864921749</v>
       </c>
       <c r="O40">
-        <v>397.216703089852</v>
+        <v>397.312536780614</v>
       </c>
       <c r="P40">
-        <v>2.97368740730781</v>
+        <v>3.01402545779507</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1083.05966284084</v>
+        <v>1083.64973220849</v>
       </c>
       <c r="C41">
-        <v>15.2205122958689</v>
+        <v>16.2840594169838</v>
       </c>
       <c r="D41">
-        <v>91.44873513109771</v>
+        <v>98.5702482484532</v>
       </c>
       <c r="E41">
-        <v>35.3231503084516</v>
+        <v>36.6373168859298</v>
       </c>
       <c r="F41">
-        <v>2.30713165167305</v>
+        <v>2.32376820805301</v>
       </c>
       <c r="G41">
-        <v>23.1758934224404</v>
+        <v>23.2103768226132</v>
       </c>
       <c r="H41">
-        <v>33.1191024756612</v>
+        <v>33.4098577288585</v>
       </c>
       <c r="I41">
-        <v>10.8569636604693</v>
+        <v>11.2527182957627</v>
       </c>
       <c r="J41">
-        <v>40.8255311763611</v>
+        <v>41.6619812527388</v>
       </c>
       <c r="K41">
-        <v>25.1827777787172</v>
+        <v>25.8478636879365</v>
       </c>
       <c r="L41">
-        <v>35.5391645868715</v>
+        <v>34.9801802354303</v>
       </c>
       <c r="M41">
-        <v>34.9625113378184</v>
+        <v>34.2608387201874</v>
       </c>
       <c r="N41">
-        <v>21.7998006899386</v>
+        <v>21.8029114452601</v>
       </c>
       <c r="O41">
-        <v>1346.58905901552</v>
+        <v>1333.18736771687</v>
       </c>
       <c r="P41">
-        <v>24.6348414471398</v>
+        <v>27.1359653236459</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>139.506025982697</v>
+        <v>139.118691007948</v>
       </c>
       <c r="C42">
-        <v>6.61112104120292</v>
+        <v>6.49474345986307</v>
       </c>
       <c r="D42">
-        <v>1.76689936213323</v>
+        <v>1.75057863929575</v>
       </c>
       <c r="E42">
-        <v>5.49839677477727</v>
+        <v>5.1087555021957</v>
       </c>
       <c r="F42">
-        <v>2.14035849033025</v>
+        <v>2.00970405279492</v>
       </c>
       <c r="G42">
-        <v>1.29711336726772</v>
+        <v>1.27384231863666</v>
       </c>
       <c r="H42">
-        <v>0.908063848527918</v>
+        <v>0.771516570041592</v>
       </c>
       <c r="I42">
-        <v>0.923204527483671</v>
+        <v>0.832435474708902</v>
       </c>
       <c r="J42">
-        <v>3.91665363088562</v>
+        <v>3.63197654342879</v>
       </c>
       <c r="K42">
-        <v>5.11868607667427</v>
+        <v>5.33183780856605</v>
       </c>
       <c r="L42">
-        <v>8.921203349535981</v>
+        <v>7.60042698908903</v>
       </c>
       <c r="M42">
-        <v>3.22597185559825</v>
+        <v>3.38341554803409</v>
       </c>
       <c r="N42">
-        <v>6.89299093768826</v>
+        <v>6.39729377542752</v>
       </c>
       <c r="O42">
-        <v>288.478660625389</v>
+        <v>278.222119524355</v>
       </c>
       <c r="P42">
-        <v>35.1466145678874</v>
+        <v>48.9814078041316</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1540.74997866055</v>
+        <v>1540.66921618621</v>
       </c>
       <c r="C43">
-        <v>38.5853417879952</v>
+        <v>38.3683449242258</v>
       </c>
       <c r="D43">
-        <v>48.4374400181007</v>
+        <v>53.3075997297397</v>
       </c>
       <c r="E43">
-        <v>61.7052545088166</v>
+        <v>61.9587484931657</v>
       </c>
       <c r="F43">
-        <v>6.61464156380849</v>
+        <v>7.34459002769638</v>
       </c>
       <c r="G43">
-        <v>27.335975782417</v>
+        <v>27.4170933337043</v>
       </c>
       <c r="H43">
-        <v>31.8250979789432</v>
+        <v>33.8899689992614</v>
       </c>
       <c r="I43">
-        <v>23.0235091542019</v>
+        <v>24.0372863387352</v>
       </c>
       <c r="J43">
-        <v>54.6731055861606</v>
+        <v>58.0150882036835</v>
       </c>
       <c r="K43">
-        <v>49.8287428470019</v>
+        <v>52.7146845328966</v>
       </c>
       <c r="L43">
-        <v>52.2467310898986</v>
+        <v>53.8773117063104</v>
       </c>
       <c r="M43">
-        <v>107.299097370053</v>
+        <v>113.729674705901</v>
       </c>
       <c r="N43">
-        <v>55.8645723058206</v>
+        <v>57.8114401953052</v>
       </c>
       <c r="O43">
-        <v>1939.93716717114</v>
+        <v>1912.12597590902</v>
       </c>
       <c r="P43">
-        <v>47.9043838540503</v>
+        <v>50.9675041552478</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5189.60018874087</v>
+        <v>5191.89891600332</v>
       </c>
       <c r="C44">
-        <v>110.527121425108</v>
+        <v>115.866589714199</v>
       </c>
       <c r="D44">
-        <v>50.8349648179766</v>
+        <v>51.139579954724</v>
       </c>
       <c r="E44">
-        <v>98.2339299636122</v>
+        <v>100.789675801788</v>
       </c>
       <c r="F44">
-        <v>214.971593487945</v>
+        <v>221.662780918728</v>
       </c>
       <c r="G44">
-        <v>140.464787370481</v>
+        <v>140.205473338345</v>
       </c>
       <c r="H44">
-        <v>51.342815479101</v>
+        <v>53.3316660667043</v>
       </c>
       <c r="I44">
-        <v>43.662736647008</v>
+        <v>46.2447592448139</v>
       </c>
       <c r="J44">
-        <v>121.073275861263</v>
+        <v>125.639366130182</v>
       </c>
       <c r="K44">
-        <v>84.6420179624492</v>
+        <v>84.8657950809219</v>
       </c>
       <c r="L44">
-        <v>227.272379189385</v>
+        <v>212.525683258319</v>
       </c>
       <c r="M44">
-        <v>113.181113176182</v>
+        <v>115.933380656418</v>
       </c>
       <c r="N44">
-        <v>96.9153575158287</v>
+        <v>96.2008642003364</v>
       </c>
       <c r="O44">
-        <v>7530.82264203696</v>
+        <v>7470.22352047966</v>
       </c>
       <c r="P44">
-        <v>157.605888843186</v>
+        <v>205.098849136868</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>459.327859043452</v>
+        <v>459.782583414735</v>
       </c>
       <c r="C45">
-        <v>16.7967841166441</v>
+        <v>17.136732642527</v>
       </c>
       <c r="D45">
-        <v>4.16685592626259</v>
+        <v>4.09191086705463</v>
       </c>
       <c r="E45">
-        <v>13.9975557179449</v>
+        <v>13.7809619443836</v>
       </c>
       <c r="F45">
-        <v>16.1243890355459</v>
+        <v>20.4741959267493</v>
       </c>
       <c r="G45">
-        <v>8.04209142287446</v>
+        <v>7.85236956977426</v>
       </c>
       <c r="H45">
-        <v>2.24695495578255</v>
+        <v>2.27425134940403</v>
       </c>
       <c r="I45">
-        <v>3.81903484403025</v>
+        <v>3.81768522949892</v>
       </c>
       <c r="J45">
-        <v>22.3942217945109</v>
+        <v>22.5540695806513</v>
       </c>
       <c r="K45">
-        <v>5.8520455174921</v>
+        <v>5.79280437366943</v>
       </c>
       <c r="L45">
-        <v>19.050933856669</v>
+        <v>18.341754736444</v>
       </c>
       <c r="M45">
-        <v>21.6328772698699</v>
+        <v>22.4055423447669</v>
       </c>
       <c r="N45">
-        <v>34.3416063793698</v>
+        <v>33.2848568955301</v>
       </c>
       <c r="O45">
-        <v>811.806899215233</v>
+        <v>802.061647566046</v>
       </c>
       <c r="P45">
-        <v>16.1675682287131</v>
+        <v>22.194408492558</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>124.036333704577</v>
+        <v>124.157198199353</v>
       </c>
       <c r="C46">
-        <v>3.47845757630366</v>
+        <v>3.82540207016417</v>
       </c>
       <c r="D46">
-        <v>1.87533855181161</v>
+        <v>1.9426645765285</v>
       </c>
       <c r="E46">
-        <v>5.83974174983423</v>
+        <v>6.42856637240982</v>
       </c>
       <c r="F46">
-        <v>1.08596276484982</v>
+        <v>1.09954180521356</v>
       </c>
       <c r="G46">
-        <v>2.77952873026002</v>
+        <v>2.54619491429206</v>
       </c>
       <c r="H46">
-        <v>2.24766077443605</v>
+        <v>2.17771623926026</v>
       </c>
       <c r="I46">
-        <v>2.02094420135944</v>
+        <v>1.98741945010361</v>
       </c>
       <c r="J46">
-        <v>4.77743521670529</v>
+        <v>4.80098237347106</v>
       </c>
       <c r="K46">
-        <v>5.14051969783102</v>
+        <v>5.06992044080041</v>
       </c>
       <c r="L46">
-        <v>14.0706942311518</v>
+        <v>11.4913371601238</v>
       </c>
       <c r="M46">
-        <v>3.61923108517972</v>
+        <v>3.47045243969999</v>
       </c>
       <c r="N46">
-        <v>7.47547178858547</v>
+        <v>8.17273865871033</v>
       </c>
       <c r="O46">
-        <v>242.979751605223</v>
+        <v>241.773337766052</v>
       </c>
       <c r="P46">
-        <v>9.02592008055611</v>
+        <v>11.6041818881015</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1673.85289998357</v>
+        <v>1675.24237987393</v>
       </c>
       <c r="C47">
-        <v>52.9765116078298</v>
+        <v>56.417628910765</v>
       </c>
       <c r="D47">
-        <v>33.6114454249238</v>
+        <v>36.87912460145</v>
       </c>
       <c r="E47">
-        <v>59.9619649176118</v>
+        <v>62.7622388748581</v>
       </c>
       <c r="F47">
-        <v>9.62421269162113</v>
+        <v>10.9297164593513</v>
       </c>
       <c r="G47">
-        <v>28.6886080826168</v>
+        <v>29.0419993771831</v>
       </c>
       <c r="H47">
-        <v>15.6084443455367</v>
+        <v>16.3152856457891</v>
       </c>
       <c r="I47">
-        <v>9.53853793101475</v>
+        <v>10.0730081164845</v>
       </c>
       <c r="J47">
-        <v>39.8127155864347</v>
+        <v>40.7720552274647</v>
       </c>
       <c r="K47">
-        <v>17.5638289920843</v>
+        <v>17.4748934051406</v>
       </c>
       <c r="L47">
-        <v>44.1734900267098</v>
+        <v>44.0990722264653</v>
       </c>
       <c r="M47">
-        <v>74.57268981489931</v>
+        <v>72.3737845879221</v>
       </c>
       <c r="N47">
-        <v>40.1432839263384</v>
+        <v>41.5137903356795</v>
       </c>
       <c r="O47">
-        <v>2808.34582144826</v>
+        <v>2791.16978544635</v>
       </c>
       <c r="P47">
-        <v>27.7882195779774</v>
+        <v>30.8346621134484</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1448.15522345535</v>
+        <v>1448.67648302942</v>
       </c>
       <c r="C48">
-        <v>27.1320758694251</v>
+        <v>28.1026452105222</v>
       </c>
       <c r="D48">
-        <v>10.9290614528698</v>
+        <v>10.67049000939</v>
       </c>
       <c r="E48">
-        <v>63.2518755169868</v>
+        <v>66.6210101438287</v>
       </c>
       <c r="F48">
-        <v>5.69995871956277</v>
+        <v>6.12003196137663</v>
       </c>
       <c r="G48">
-        <v>7.97215725076656</v>
+        <v>8.000348023068741</v>
       </c>
       <c r="H48">
-        <v>6.40952654547581</v>
+        <v>6.30394672610073</v>
       </c>
       <c r="I48">
-        <v>8.281235549250081</v>
+        <v>8.717474760482631</v>
       </c>
       <c r="J48">
-        <v>36.8905743399793</v>
+        <v>36.3464926571298</v>
       </c>
       <c r="K48">
-        <v>19.5359839621983</v>
+        <v>19.2904029737887</v>
       </c>
       <c r="L48">
-        <v>48.2632400643292</v>
+        <v>46.0790135243253</v>
       </c>
       <c r="M48">
-        <v>131.397711332717</v>
+        <v>123.632874077153</v>
       </c>
       <c r="N48">
-        <v>31.2481489758228</v>
+        <v>30.5119736700715</v>
       </c>
       <c r="O48">
-        <v>2245.50486890068</v>
+        <v>2235.27277372574</v>
       </c>
       <c r="P48">
-        <v>79.0922189495345</v>
+        <v>95.7420100626548</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>648.2587513309341</v>
+        <v>648.344740485892</v>
       </c>
       <c r="C49">
-        <v>6.07874476318933</v>
+        <v>6.20960310188895</v>
       </c>
       <c r="D49">
-        <v>3.58742973409198</v>
+        <v>3.77788783190497</v>
       </c>
       <c r="E49">
-        <v>18.161874476557</v>
+        <v>18.4205651851612</v>
       </c>
       <c r="F49">
-        <v>25.3673417255133</v>
+        <v>26.660032550477</v>
       </c>
       <c r="G49">
-        <v>17.5474212624316</v>
+        <v>16.9771354043461</v>
       </c>
       <c r="H49">
-        <v>5.47466650680319</v>
+        <v>5.44036038647584</v>
       </c>
       <c r="I49">
-        <v>7.34254254483452</v>
+        <v>6.96327352192008</v>
       </c>
       <c r="J49">
-        <v>21.391721304336</v>
+        <v>21.017186373274</v>
       </c>
       <c r="K49">
-        <v>5.68478689630405</v>
+        <v>5.33263307417968</v>
       </c>
       <c r="L49">
-        <v>1.67162792240935</v>
+        <v>1.63806267541531</v>
       </c>
       <c r="M49">
-        <v>6.10842880633584</v>
+        <v>6.24190945483179</v>
       </c>
       <c r="N49">
-        <v>4.90848817565119</v>
+        <v>5.04083666521332</v>
       </c>
       <c r="O49">
-        <v>561.88458340862</v>
+        <v>561.296111822693</v>
       </c>
       <c r="P49">
-        <v>7.66966986949261</v>
+        <v>7.86932597646087</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1125.41580807681</v>
+        <v>1125.35356437678</v>
       </c>
       <c r="C50">
-        <v>69.6013651680716</v>
+        <v>76.390191535562</v>
       </c>
       <c r="D50">
-        <v>15.5654559056272</v>
+        <v>16.5280884706676</v>
       </c>
       <c r="E50">
-        <v>139.152096619516</v>
+        <v>144.056235711577</v>
       </c>
       <c r="F50">
-        <v>2.55076911938357</v>
+        <v>2.98354416531635</v>
       </c>
       <c r="G50">
-        <v>29.3685409281112</v>
+        <v>26.3251821018588</v>
       </c>
       <c r="H50">
-        <v>36.5468517695299</v>
+        <v>37.5517074995271</v>
       </c>
       <c r="I50">
-        <v>13.2684732596156</v>
+        <v>15.0838851051006</v>
       </c>
       <c r="J50">
-        <v>114.551806702572</v>
+        <v>115.738633321595</v>
       </c>
       <c r="K50">
-        <v>94.0498110543965</v>
+        <v>92.73684976239071</v>
       </c>
       <c r="L50">
-        <v>66.8839453595713</v>
+        <v>62.4503938815835</v>
       </c>
       <c r="M50">
-        <v>48.3222556307026</v>
+        <v>47.7673966934688</v>
       </c>
       <c r="N50">
-        <v>58.3700345134632</v>
+        <v>59.7281216163781</v>
       </c>
       <c r="O50">
-        <v>1925.87799391916</v>
+        <v>1875.71591490644</v>
       </c>
       <c r="P50">
-        <v>68.49601036535709</v>
+        <v>110.333060248345</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>112.125935549524</v>
+        <v>112.003824682731</v>
       </c>
       <c r="C51">
-        <v>2.29020847078581</v>
+        <v>2.18103839624131</v>
       </c>
       <c r="D51">
-        <v>0.172877816019779</v>
+        <v>0.200995661562725</v>
       </c>
       <c r="E51">
-        <v>2.54167070113587</v>
+        <v>2.58030897092784</v>
       </c>
       <c r="F51">
-        <v>20.1983227533075</v>
+        <v>21.4770464217063</v>
       </c>
       <c r="G51">
-        <v>2.17558369101044</v>
+        <v>2.05957972830611</v>
       </c>
       <c r="H51">
-        <v>0.0495000708482197</v>
+        <v>0.0374565006796244</v>
       </c>
       <c r="I51">
-        <v>0.5220790506941641</v>
+        <v>0.553049547687271</v>
       </c>
       <c r="J51">
-        <v>1.57481769172658</v>
+        <v>1.35132455210006</v>
       </c>
       <c r="K51">
-        <v>0.798703747934433</v>
+        <v>0.774295053439528</v>
       </c>
       <c r="L51">
-        <v>0.298719391757636</v>
+        <v>0.32669041676697</v>
       </c>
       <c r="M51">
-        <v>0.368763611824327</v>
+        <v>0.338686024238666</v>
       </c>
       <c r="N51">
-        <v>1.03240778675459</v>
+        <v>0.971696667935961</v>
       </c>
       <c r="O51">
-        <v>192.644060314711</v>
+        <v>189.371981196203</v>
       </c>
       <c r="P51">
-        <v>11.6693667936242</v>
+        <v>14.728789312171</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2001.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2001.xlsx
@@ -553,7 +553,7 @@
         <v>1406.09816561701</v>
       </c>
       <c r="C4">
-        <v>9.996842252439461</v>
+        <v>9.99684225243946</v>
       </c>
       <c r="D4">
         <v>4.08778922748302</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>918.630201322971</v>
+        <v>918.6302013229709</v>
       </c>
       <c r="C7">
         <v>34.5909138952485</v>
@@ -987,7 +987,7 @@
         <v>0.0303711833605738</v>
       </c>
       <c r="I12">
-        <v>0.9780908744411631</v>
+        <v>0.978090874441163</v>
       </c>
       <c r="J12">
         <v>1.43820586990988</v>
@@ -1158,7 +1158,7 @@
         <v>190.643986332468</v>
       </c>
       <c r="N15">
-        <v>87.1951665076701</v>
+        <v>87.19516650767009</v>
       </c>
       <c r="O15">
         <v>2012.20405671487</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>612.4851909778751</v>
+        <v>612.485190977875</v>
       </c>
       <c r="C16">
         <v>63.1119254632971</v>
@@ -1522,7 +1522,7 @@
         <v>17.3718106321652</v>
       </c>
       <c r="N22">
-        <v>66.96648601971261</v>
+        <v>66.9664860197126</v>
       </c>
       <c r="O22">
         <v>2563.69130235591</v>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>977.161722650542</v>
+        <v>977.1617226505419</v>
       </c>
       <c r="C24">
         <v>62.5678865459364</v>
@@ -1681,7 +1681,7 @@
         <v>44.21250040227</v>
       </c>
       <c r="O25">
-        <v>826.7777891313421</v>
+        <v>826.777789131342</v>
       </c>
       <c r="P25">
         <v>40.9286370428134</v>
@@ -2324,7 +2324,7 @@
         <v>25.0429168699808</v>
       </c>
       <c r="D38">
-        <v>8.97359114532444</v>
+        <v>8.973591145324439</v>
       </c>
       <c r="E38">
         <v>64.33676721270059</v>
@@ -2853,7 +2853,7 @@
         <v>6.12003196137663</v>
       </c>
       <c r="G48">
-        <v>8.000348023068741</v>
+        <v>8.00034802306874</v>
       </c>
       <c r="H48">
         <v>6.30394672610073</v>
@@ -2969,7 +2969,7 @@
         <v>115.738633321595</v>
       </c>
       <c r="K50">
-        <v>92.73684976239071</v>
+        <v>92.7368497623907</v>
       </c>
       <c r="L50">
         <v>62.4503938815835</v>
@@ -3128,7 +3128,7 @@
         <v>81.00143834626761</v>
       </c>
       <c r="L53">
-        <v>81.15559961838</v>
+        <v>81.15559961837999</v>
       </c>
       <c r="M53">
         <v>39.5212550398086</v>
@@ -3370,7 +3370,7 @@
         <v>11366.6059477745</v>
       </c>
       <c r="F58">
-        <v>8946.894683692141</v>
+        <v>8946.89468369214</v>
       </c>
       <c r="G58">
         <v>6305.0156352435</v>
@@ -4272,7 +4272,7 @@
         <v>431.355610290605</v>
       </c>
       <c r="L75">
-        <v>823.209489093086</v>
+        <v>823.2094890930859</v>
       </c>
       <c r="M75">
         <v>486.402316713501</v>
@@ -4453,7 +4453,7 @@
         <v>10989.7434206155</v>
       </c>
       <c r="C79">
-        <v>552.456599080908</v>
+        <v>552.4565990809079</v>
       </c>
       <c r="D79">
         <v>489.452389731323</v>
@@ -4621,7 +4621,7 @@
         <v>1762.55095472818</v>
       </c>
       <c r="G82">
-        <v>749.8248350659681</v>
+        <v>749.824835065968</v>
       </c>
       <c r="H82">
         <v>901.927207998139</v>
@@ -4673,7 +4673,7 @@
         <v>1246.07282901217</v>
       </c>
       <c r="G83">
-        <v>623.182972087172</v>
+        <v>623.1829720871719</v>
       </c>
       <c r="H83">
         <v>216.477561691516</v>
